--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-24.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-24.xlsx
@@ -762,7 +762,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3.35</v>
+        <v>3.1</v>
       </c>
       <c r="G2" t="n">
         <v>5.3</v>
@@ -771,10 +771,10 @@
         <v>1.99</v>
       </c>
       <c r="I2" t="n">
-        <v>2.22</v>
+        <v>2.32</v>
       </c>
       <c r="J2" t="n">
-        <v>2.92</v>
+        <v>2.6</v>
       </c>
       <c r="K2" t="n">
         <v>3.95</v>
@@ -925,7 +925,7 @@
       </c>
       <c r="BH2" t="inlineStr">
         <is>
-          <t>2026-02-22 01:32:47</t>
+          <t>2026-02-22 03:51:59</t>
         </is>
       </c>
     </row>
@@ -989,7 +989,7 @@
         <v>2.62</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
       </c>
       <c r="BH3" t="inlineStr">
         <is>
-          <t>2026-02-22 01:32:47</t>
+          <t>2026-02-22 03:51:59</t>
         </is>
       </c>
     </row>
@@ -1313,7 +1313,7 @@
       </c>
       <c r="BH4" t="inlineStr">
         <is>
-          <t>2026-02-22 01:32:47</t>
+          <t>2026-02-22 03:51:59</t>
         </is>
       </c>
     </row>
@@ -1353,7 +1353,7 @@
         <v>1.36</v>
       </c>
       <c r="I5" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="J5" t="n">
         <v>5</v>
@@ -1507,7 +1507,7 @@
       </c>
       <c r="BH5" t="inlineStr">
         <is>
-          <t>2026-02-22 01:32:47</t>
+          <t>2026-02-22 03:51:59</t>
         </is>
       </c>
     </row>
@@ -1544,7 +1544,7 @@
         <v>9.4</v>
       </c>
       <c r="H6" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="I6" t="n">
         <v>1.6</v>
@@ -1701,7 +1701,7 @@
       </c>
       <c r="BH6" t="inlineStr">
         <is>
-          <t>2026-02-22 01:32:47</t>
+          <t>2026-02-22 03:51:59</t>
         </is>
       </c>
     </row>
@@ -1732,7 +1732,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>9.4</v>
+        <v>8.6</v>
       </c>
       <c r="G7" t="n">
         <v>10.5</v>
@@ -1895,7 +1895,7 @@
       </c>
       <c r="BH7" t="inlineStr">
         <is>
-          <t>2026-02-22 01:32:47</t>
+          <t>2026-02-22 03:51:59</t>
         </is>
       </c>
     </row>
@@ -1956,10 +1956,10 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -2089,7 +2089,7 @@
       </c>
       <c r="BH8" t="inlineStr">
         <is>
-          <t>2026-02-22 01:32:47</t>
+          <t>2026-02-22 03:51:59</t>
         </is>
       </c>
     </row>
@@ -2120,22 +2120,22 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="G9" t="n">
         <v>4.7</v>
       </c>
       <c r="H9" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="I9" t="n">
-        <v>2.94</v>
+        <v>2.92</v>
       </c>
       <c r="J9" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="K9" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -2150,10 +2150,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.92</v>
+        <v>2.98</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -2283,7 +2283,7 @@
       </c>
       <c r="BH9" t="inlineStr">
         <is>
-          <t>2026-02-22 01:32:47</t>
+          <t>2026-02-22 03:51:59</t>
         </is>
       </c>
     </row>
@@ -2314,7 +2314,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="G10" t="n">
         <v>2.4</v>
@@ -2323,13 +2323,13 @@
         <v>3.85</v>
       </c>
       <c r="I10" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="J10" t="n">
         <v>2.86</v>
       </c>
       <c r="K10" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -2477,7 +2477,7 @@
       </c>
       <c r="BH10" t="inlineStr">
         <is>
-          <t>2026-02-22 01:32:47</t>
+          <t>2026-02-22 03:51:59</t>
         </is>
       </c>
     </row>
@@ -2671,7 +2671,7 @@
       </c>
       <c r="BH11" t="inlineStr">
         <is>
-          <t>2026-02-22 01:32:47</t>
+          <t>2026-02-22 03:51:59</t>
         </is>
       </c>
     </row>
@@ -2865,7 +2865,7 @@
       </c>
       <c r="BH12" t="inlineStr">
         <is>
-          <t>2026-02-22 01:32:47</t>
+          <t>2026-02-22 03:51:59</t>
         </is>
       </c>
     </row>
@@ -2899,7 +2899,7 @@
         <v>3.15</v>
       </c>
       <c r="G13" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="H13" t="n">
         <v>2.62</v>
@@ -2926,10 +2926,10 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>1.07</v>
+        <v>1.44</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.01</v>
+        <v>2.6</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -3059,7 +3059,7 @@
       </c>
       <c r="BH13" t="inlineStr">
         <is>
-          <t>2026-02-22 01:32:47</t>
+          <t>2026-02-22 03:51:59</t>
         </is>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-24.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-24.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BH13"/>
+  <dimension ref="A1:BH15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -771,10 +771,10 @@
         <v>1.99</v>
       </c>
       <c r="I2" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="J2" t="n">
-        <v>2.6</v>
+        <v>2.92</v>
       </c>
       <c r="K2" t="n">
         <v>3.95</v>
@@ -795,7 +795,7 @@
         <v>1.64</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -925,14 +925,14 @@
       </c>
       <c r="BH2" t="inlineStr">
         <is>
-          <t>2026-02-22 03:51:59</t>
+          <t>2026-02-22 06:11:54</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Austrian Erste Liga</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -942,36 +942,36 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Cambuur Leeuwarden</t>
+          <t>Admira Wacker</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>FC Eindhoven</t>
+          <t>Austria Wien (A)</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="G3" t="n">
-        <v>1.52</v>
+        <v>1.66</v>
       </c>
       <c r="H3" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="I3" t="n">
-        <v>8.800000000000001</v>
+        <v>12</v>
       </c>
       <c r="J3" t="n">
-        <v>4.7</v>
+        <v>4</v>
       </c>
       <c r="K3" t="n">
-        <v>6.6</v>
+        <v>5.3</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -986,10 +986,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.62</v>
+        <v>1.94</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.44</v>
+        <v>1.84</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
       </c>
       <c r="BH3" t="inlineStr">
         <is>
-          <t>2026-02-22 03:51:59</t>
+          <t>2026-02-22 06:11:54</t>
         </is>
       </c>
     </row>
@@ -1141,31 +1141,31 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Willem II</t>
+          <t>Cambuur Leeuwarden</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>ADO Den Haag</t>
+          <t>FC Eindhoven</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>3.45</v>
+        <v>1.43</v>
       </c>
       <c r="G4" t="n">
-        <v>4.5</v>
+        <v>1.52</v>
       </c>
       <c r="H4" t="n">
-        <v>1.94</v>
+        <v>6.6</v>
       </c>
       <c r="I4" t="n">
-        <v>2.16</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J4" t="n">
-        <v>3.4</v>
+        <v>4.6</v>
       </c>
       <c r="K4" t="n">
-        <v>4.5</v>
+        <v>6.6</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.38</v>
+        <v>2.84</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.58</v>
+        <v>1.44</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -1313,14 +1313,14 @@
       </c>
       <c r="BH4" t="inlineStr">
         <is>
-          <t>2026-02-22 03:51:59</t>
+          <t>2026-02-22 06:11:54</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1335,31 +1335,31 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Al-Taawoun Buraidah</t>
+          <t>Willem II</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Al-Hilal</t>
+          <t>ADO Den Haag</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>8.6</v>
+        <v>3.45</v>
       </c>
       <c r="G5" t="n">
-        <v>12</v>
+        <v>4.4</v>
       </c>
       <c r="H5" t="n">
-        <v>1.36</v>
+        <v>1.95</v>
       </c>
       <c r="I5" t="n">
-        <v>1.45</v>
+        <v>2.16</v>
       </c>
       <c r="J5" t="n">
-        <v>5</v>
+        <v>3.85</v>
       </c>
       <c r="K5" t="n">
-        <v>6.6</v>
+        <v>4.5</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -1374,10 +1374,10 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -1507,7 +1507,7 @@
       </c>
       <c r="BH5" t="inlineStr">
         <is>
-          <t>2026-02-22 03:51:59</t>
+          <t>2026-02-22 06:11:54</t>
         </is>
       </c>
     </row>
@@ -1529,50 +1529,50 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Al-Hazm (KSA)</t>
+          <t>Al-Taawoun Buraidah</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Al-Ittihad</t>
+          <t>Al-Hilal</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>6.6</v>
+        <v>8.6</v>
       </c>
       <c r="G6" t="n">
-        <v>9.4</v>
+        <v>11.5</v>
       </c>
       <c r="H6" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="I6" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="J6" t="n">
+        <v>5</v>
+      </c>
+      <c r="K6" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="Q6" t="n">
         <v>1.6</v>
       </c>
-      <c r="J6" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="K6" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.53</v>
-      </c>
       <c r="R6" t="n">
         <v>0</v>
       </c>
@@ -1701,14 +1701,14 @@
       </c>
       <c r="BH6" t="inlineStr">
         <is>
-          <t>2026-02-22 03:51:59</t>
+          <t>2026-02-22 06:11:54</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Egyptian Premier</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1718,36 +1718,36 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Ghazl El Mahallah</t>
+          <t>Al-Khaleej Saihat</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Pyramids</t>
+          <t>Al-Kholood Club</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>8.6</v>
+        <v>1.72</v>
       </c>
       <c r="G7" t="n">
-        <v>10.5</v>
+        <v>2.2</v>
       </c>
       <c r="H7" t="n">
-        <v>1.47</v>
+        <v>3.45</v>
       </c>
       <c r="I7" t="n">
-        <v>1.55</v>
+        <v>5.7</v>
       </c>
       <c r="J7" t="n">
-        <v>3.9</v>
+        <v>3.45</v>
       </c>
       <c r="K7" t="n">
-        <v>4.6</v>
+        <v>5.7</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1762,10 +1762,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>1.66</v>
+        <v>2.02</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.3</v>
+        <v>1.56</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1895,14 +1895,14 @@
       </c>
       <c r="BH7" t="inlineStr">
         <is>
-          <t>2026-02-22 03:51:59</t>
+          <t>2026-02-22 06:11:54</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Egyptian Premier</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1912,36 +1912,36 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Ceramica Cleopatra</t>
+          <t>Al-Hazm (KSA)</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Ismaily</t>
+          <t>Al-Ittihad</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.54</v>
+        <v>6.6</v>
       </c>
       <c r="G8" t="n">
-        <v>1.64</v>
+        <v>9.4</v>
       </c>
       <c r="H8" t="n">
-        <v>5</v>
+        <v>1.45</v>
       </c>
       <c r="I8" t="n">
-        <v>11.5</v>
+        <v>1.6</v>
       </c>
       <c r="J8" t="n">
-        <v>3.7</v>
+        <v>4.5</v>
       </c>
       <c r="K8" t="n">
-        <v>4.3</v>
+        <v>6.2</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -1956,10 +1956,10 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>1.58</v>
+        <v>2.3</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.3</v>
+        <v>1.62</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -2089,7 +2089,7 @@
       </c>
       <c r="BH8" t="inlineStr">
         <is>
-          <t>2026-02-22 03:51:59</t>
+          <t>2026-02-22 06:11:54</t>
         </is>
       </c>
     </row>
@@ -2111,31 +2111,31 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>ZED FC</t>
+          <t>Ghazl El Mahallah</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Zamalek</t>
+          <t>Pyramids</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>3.7</v>
+        <v>8.6</v>
       </c>
       <c r="G9" t="n">
-        <v>4.7</v>
+        <v>10.5</v>
       </c>
       <c r="H9" t="n">
-        <v>2.38</v>
+        <v>1.47</v>
       </c>
       <c r="I9" t="n">
-        <v>2.92</v>
+        <v>1.55</v>
       </c>
       <c r="J9" t="n">
-        <v>2.48</v>
+        <v>3.9</v>
       </c>
       <c r="K9" t="n">
-        <v>3.25</v>
+        <v>4.6</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -2150,10 +2150,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>1.43</v>
+        <v>1.65</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.98</v>
+        <v>2.22</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -2283,14 +2283,14 @@
       </c>
       <c r="BH9" t="inlineStr">
         <is>
-          <t>2026-02-22 03:51:59</t>
+          <t>2026-02-22 06:11:54</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Egyptian Premier</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2300,55 +2300,55 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>CA Platense</t>
+          <t>Ceramica Cleopatra</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Defensa y Justicia</t>
+          <t>Ismaily</t>
         </is>
       </c>
       <c r="F10" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+      <c r="I10" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="J10" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K10" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="Q10" t="n">
         <v>2.3</v>
       </c>
-      <c r="G10" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="H10" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="I10" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="K10" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>2.96</v>
-      </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
@@ -2477,14 +2477,14 @@
       </c>
       <c r="BH10" t="inlineStr">
         <is>
-          <t>2026-02-22 03:51:59</t>
+          <t>2026-02-22 06:11:54</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Egyptian Premier</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2494,36 +2494,36 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>19:15:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>San Lorenzo</t>
+          <t>ZED FC</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Instituto</t>
+          <t>Zamalek</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.04</v>
+        <v>3.7</v>
       </c>
       <c r="G11" t="n">
-        <v>980</v>
+        <v>4.7</v>
       </c>
       <c r="H11" t="n">
-        <v>1.04</v>
+        <v>2.38</v>
       </c>
       <c r="I11" t="n">
-        <v>1000</v>
+        <v>2.92</v>
       </c>
       <c r="J11" t="n">
-        <v>1.01</v>
+        <v>2.5</v>
       </c>
       <c r="K11" t="n">
-        <v>980</v>
+        <v>3.25</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -2538,10 +2538,10 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>1.25</v>
+        <v>1.43</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.01</v>
+        <v>2.98</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -2671,14 +2671,14 @@
       </c>
       <c r="BH11" t="inlineStr">
         <is>
-          <t>2026-02-22 03:51:59</t>
+          <t>2026-02-22 06:11:54</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Colombian Primera B</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2688,36 +2688,36 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>19:30:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Union Magdalena</t>
+          <t>CA Platense</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Tigres FC Zipaquira</t>
+          <t>Defensa y Justicia</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.04</v>
+        <v>2.22</v>
       </c>
       <c r="G12" t="n">
-        <v>1000</v>
+        <v>2.4</v>
       </c>
       <c r="H12" t="n">
-        <v>1.04</v>
+        <v>3.95</v>
       </c>
       <c r="I12" t="n">
-        <v>1000</v>
+        <v>4.9</v>
       </c>
       <c r="J12" t="n">
-        <v>1.01</v>
+        <v>2.88</v>
       </c>
       <c r="K12" t="n">
-        <v>1000</v>
+        <v>3.4</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -2726,16 +2726,16 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>1.24</v>
+        <v>1.44</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.3</v>
+        <v>2.96</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -2865,7 +2865,7 @@
       </c>
       <c r="BH12" t="inlineStr">
         <is>
-          <t>2026-02-22 03:51:59</t>
+          <t>2026-02-22 06:11:54</t>
         </is>
       </c>
     </row>
@@ -2882,184 +2882,572 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
+          <t>19:15:00</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>San Lorenzo</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Instituto</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="G13" t="n">
+        <v>980</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K13" t="n">
+        <v>980</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0</v>
+      </c>
+      <c r="X13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH13" t="inlineStr">
+        <is>
+          <t>2026-02-22 06:11:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Colombian Primera B</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2026-02-24</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>19:30:00</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Union Magdalena</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Tigres FC Zipaquira</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH14" t="inlineStr">
+        <is>
+          <t>2026-02-22 06:11:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Argentinian Primera Division</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2026-02-24</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
           <t>19:45:00</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>Central Cordoba (SdE)</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>Talleres</t>
         </is>
       </c>
-      <c r="F13" t="n">
+      <c r="F15" t="n">
         <v>3.15</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G15" t="n">
         <v>3.9</v>
       </c>
-      <c r="H13" t="n">
+      <c r="H15" t="n">
         <v>2.62</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I15" t="n">
         <v>3.1</v>
       </c>
-      <c r="J13" t="n">
+      <c r="J15" t="n">
         <v>2.78</v>
       </c>
-      <c r="K13" t="n">
+      <c r="K15" t="n">
         <v>3.35</v>
       </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" t="n">
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
         <v>1.44</v>
       </c>
-      <c r="Q13" t="n">
+      <c r="Q15" t="n">
         <v>2.6</v>
       </c>
-      <c r="R13" t="n">
-        <v>0</v>
-      </c>
-      <c r="S13" t="n">
-        <v>0</v>
-      </c>
-      <c r="T13" t="n">
-        <v>0</v>
-      </c>
-      <c r="U13" t="n">
-        <v>0</v>
-      </c>
-      <c r="V13" t="n">
-        <v>0</v>
-      </c>
-      <c r="W13" t="n">
-        <v>0</v>
-      </c>
-      <c r="X13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH13" t="inlineStr">
-        <is>
-          <t>2026-02-22 03:51:59</t>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0</v>
+      </c>
+      <c r="X15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH15" t="inlineStr">
+        <is>
+          <t>2026-02-22 06:11:54</t>
         </is>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-24.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-24.xlsx
@@ -762,7 +762,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3.1</v>
+        <v>3.35</v>
       </c>
       <c r="G2" t="n">
         <v>5.3</v>
@@ -771,10 +771,10 @@
         <v>1.99</v>
       </c>
       <c r="I2" t="n">
-        <v>2.34</v>
+        <v>2.22</v>
       </c>
       <c r="J2" t="n">
-        <v>2.92</v>
+        <v>2.76</v>
       </c>
       <c r="K2" t="n">
         <v>3.95</v>
@@ -795,7 +795,7 @@
         <v>1.64</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -925,7 +925,7 @@
       </c>
       <c r="BH2" t="inlineStr">
         <is>
-          <t>2026-02-22 06:11:54</t>
+          <t>2026-02-22 08:31:36</t>
         </is>
       </c>
     </row>
@@ -962,7 +962,7 @@
         <v>1.66</v>
       </c>
       <c r="H3" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="I3" t="n">
         <v>12</v>
@@ -986,10 +986,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
       </c>
       <c r="BH3" t="inlineStr">
         <is>
-          <t>2026-02-22 06:11:54</t>
+          <t>2026-02-22 08:31:36</t>
         </is>
       </c>
     </row>
@@ -1153,16 +1153,16 @@
         <v>1.43</v>
       </c>
       <c r="G4" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="H4" t="n">
         <v>6.6</v>
       </c>
       <c r="I4" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="J4" t="n">
-        <v>4.6</v>
+        <v>5.1</v>
       </c>
       <c r="K4" t="n">
         <v>6.6</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.84</v>
+        <v>2.82</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -1313,7 +1313,7 @@
       </c>
       <c r="BH4" t="inlineStr">
         <is>
-          <t>2026-02-22 06:11:54</t>
+          <t>2026-02-22 08:31:36</t>
         </is>
       </c>
     </row>
@@ -1344,13 +1344,13 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="G5" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="H5" t="n">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="I5" t="n">
         <v>2.16</v>
@@ -1507,7 +1507,7 @@
       </c>
       <c r="BH5" t="inlineStr">
         <is>
-          <t>2026-02-22 06:11:54</t>
+          <t>2026-02-22 08:31:36</t>
         </is>
       </c>
     </row>
@@ -1541,19 +1541,19 @@
         <v>8.6</v>
       </c>
       <c r="G6" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="H6" t="n">
         <v>1.36</v>
       </c>
       <c r="I6" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="J6" t="n">
         <v>5</v>
       </c>
       <c r="K6" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -1701,7 +1701,7 @@
       </c>
       <c r="BH6" t="inlineStr">
         <is>
-          <t>2026-02-22 06:11:54</t>
+          <t>2026-02-22 08:31:36</t>
         </is>
       </c>
     </row>
@@ -1732,22 +1732,22 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="G7" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="H7" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="I7" t="n">
         <v>5.7</v>
       </c>
       <c r="J7" t="n">
-        <v>3.45</v>
+        <v>3.65</v>
       </c>
       <c r="K7" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1762,10 +1762,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1895,7 +1895,7 @@
       </c>
       <c r="BH7" t="inlineStr">
         <is>
-          <t>2026-02-22 06:11:54</t>
+          <t>2026-02-22 08:31:36</t>
         </is>
       </c>
     </row>
@@ -1929,13 +1929,13 @@
         <v>6.6</v>
       </c>
       <c r="G8" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H8" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="I8" t="n">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="J8" t="n">
         <v>4.5</v>
@@ -1956,10 +1956,10 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -2089,7 +2089,7 @@
       </c>
       <c r="BH8" t="inlineStr">
         <is>
-          <t>2026-02-22 06:11:54</t>
+          <t>2026-02-22 08:31:36</t>
         </is>
       </c>
     </row>
@@ -2129,7 +2129,7 @@
         <v>1.47</v>
       </c>
       <c r="I9" t="n">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="J9" t="n">
         <v>3.9</v>
@@ -2283,7 +2283,7 @@
       </c>
       <c r="BH9" t="inlineStr">
         <is>
-          <t>2026-02-22 06:11:54</t>
+          <t>2026-02-22 08:31:36</t>
         </is>
       </c>
     </row>
@@ -2314,10 +2314,10 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="G10" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="H10" t="n">
         <v>5</v>
@@ -2326,10 +2326,10 @@
         <v>11.5</v>
       </c>
       <c r="J10" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K10" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -2347,7 +2347,7 @@
         <v>1.58</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.3</v>
+        <v>2.46</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -2477,7 +2477,7 @@
       </c>
       <c r="BH10" t="inlineStr">
         <is>
-          <t>2026-02-22 06:11:54</t>
+          <t>2026-02-22 08:31:36</t>
         </is>
       </c>
     </row>
@@ -2508,22 +2508,22 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="G11" t="n">
         <v>4.7</v>
       </c>
       <c r="H11" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="I11" t="n">
-        <v>2.92</v>
+        <v>2.76</v>
       </c>
       <c r="J11" t="n">
-        <v>2.5</v>
+        <v>2.76</v>
       </c>
       <c r="K11" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -2538,10 +2538,10 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.98</v>
+        <v>2.88</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -2671,7 +2671,7 @@
       </c>
       <c r="BH11" t="inlineStr">
         <is>
-          <t>2026-02-22 06:11:54</t>
+          <t>2026-02-22 08:31:36</t>
         </is>
       </c>
     </row>
@@ -2711,13 +2711,13 @@
         <v>3.95</v>
       </c>
       <c r="I12" t="n">
-        <v>4.9</v>
+        <v>4.5</v>
       </c>
       <c r="J12" t="n">
         <v>2.88</v>
       </c>
       <c r="K12" t="n">
-        <v>3.4</v>
+        <v>3.15</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -2865,7 +2865,7 @@
       </c>
       <c r="BH12" t="inlineStr">
         <is>
-          <t>2026-02-22 06:11:54</t>
+          <t>2026-02-22 08:31:36</t>
         </is>
       </c>
     </row>
@@ -2896,13 +2896,13 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.04</v>
+        <v>1.44</v>
       </c>
       <c r="G13" t="n">
         <v>980</v>
       </c>
       <c r="H13" t="n">
-        <v>1.04</v>
+        <v>1.44</v>
       </c>
       <c r="I13" t="n">
         <v>1000</v>
@@ -2911,7 +2911,7 @@
         <v>1.01</v>
       </c>
       <c r="K13" t="n">
-        <v>980</v>
+        <v>3.3</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -3059,7 +3059,7 @@
       </c>
       <c r="BH13" t="inlineStr">
         <is>
-          <t>2026-02-22 06:11:54</t>
+          <t>2026-02-22 08:31:36</t>
         </is>
       </c>
     </row>
@@ -3253,7 +3253,7 @@
       </c>
       <c r="BH14" t="inlineStr">
         <is>
-          <t>2026-02-22 06:11:54</t>
+          <t>2026-02-22 08:31:36</t>
         </is>
       </c>
     </row>
@@ -3293,13 +3293,13 @@
         <v>2.62</v>
       </c>
       <c r="I15" t="n">
-        <v>3.1</v>
+        <v>2.68</v>
       </c>
       <c r="J15" t="n">
         <v>2.78</v>
       </c>
       <c r="K15" t="n">
-        <v>3.35</v>
+        <v>3.2</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -3447,7 +3447,7 @@
       </c>
       <c r="BH15" t="inlineStr">
         <is>
-          <t>2026-02-22 06:11:54</t>
+          <t>2026-02-22 08:31:36</t>
         </is>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-24.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-24.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BH15"/>
+  <dimension ref="A1:BH14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -738,7 +738,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Romanian Liga II</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -748,36 +748,36 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>12:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Concordia Chiajna</t>
+          <t>Cambuur Leeuwarden</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>FC Hunedoara</t>
+          <t>FC Eindhoven</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3.35</v>
+        <v>1.43</v>
       </c>
       <c r="G2" t="n">
-        <v>5.3</v>
+        <v>1.51</v>
       </c>
       <c r="H2" t="n">
-        <v>1.99</v>
+        <v>6.6</v>
       </c>
       <c r="I2" t="n">
-        <v>2.22</v>
+        <v>9</v>
       </c>
       <c r="J2" t="n">
-        <v>2.76</v>
+        <v>4.6</v>
       </c>
       <c r="K2" t="n">
-        <v>3.95</v>
+        <v>6.6</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -792,10 +792,10 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>1.64</v>
+        <v>2.8</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.12</v>
+        <v>1.44</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -925,14 +925,14 @@
       </c>
       <c r="BH2" t="inlineStr">
         <is>
-          <t>2026-02-22 08:31:36</t>
+          <t>2026-02-22 10:49:56</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Austrian Erste Liga</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -942,36 +942,36 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Admira Wacker</t>
+          <t>Willem II</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Austria Wien (A)</t>
+          <t>ADO Den Haag</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.5</v>
+        <v>3.45</v>
       </c>
       <c r="G3" t="n">
-        <v>1.66</v>
+        <v>4.3</v>
       </c>
       <c r="H3" t="n">
-        <v>4.4</v>
+        <v>1.97</v>
       </c>
       <c r="I3" t="n">
-        <v>12</v>
+        <v>2.24</v>
       </c>
       <c r="J3" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="K3" t="n">
-        <v>5.3</v>
+        <v>4.5</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -986,10 +986,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.93</v>
+        <v>2.38</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.86</v>
+        <v>1.58</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -1119,14 +1119,14 @@
       </c>
       <c r="BH3" t="inlineStr">
         <is>
-          <t>2026-02-22 08:31:36</t>
+          <t>2026-02-22 10:49:56</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1141,31 +1141,31 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Cambuur Leeuwarden</t>
+          <t>Al-Taawoun Buraidah</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>FC Eindhoven</t>
+          <t>Al-Hilal</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.43</v>
+        <v>8.6</v>
       </c>
       <c r="G4" t="n">
-        <v>1.51</v>
+        <v>11.5</v>
       </c>
       <c r="H4" t="n">
-        <v>6.6</v>
+        <v>1.36</v>
       </c>
       <c r="I4" t="n">
-        <v>9</v>
+        <v>1.45</v>
       </c>
       <c r="J4" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="K4" t="n">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.82</v>
+        <v>2.38</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -1313,14 +1313,14 @@
       </c>
       <c r="BH4" t="inlineStr">
         <is>
-          <t>2026-02-22 08:31:36</t>
+          <t>2026-02-22 10:49:56</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1335,31 +1335,31 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Willem II</t>
+          <t>Al-Khaleej Saihat</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>ADO Den Haag</t>
+          <t>Al-Kholood Club</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3.4</v>
+        <v>1.73</v>
       </c>
       <c r="G5" t="n">
-        <v>4.3</v>
+        <v>2.18</v>
       </c>
       <c r="H5" t="n">
-        <v>1.97</v>
+        <v>3.5</v>
       </c>
       <c r="I5" t="n">
-        <v>2.16</v>
+        <v>5.7</v>
       </c>
       <c r="J5" t="n">
-        <v>3.85</v>
+        <v>3.5</v>
       </c>
       <c r="K5" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -1374,10 +1374,10 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>2.38</v>
+        <v>2.04</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -1507,7 +1507,7 @@
       </c>
       <c r="BH5" t="inlineStr">
         <is>
-          <t>2026-02-22 08:31:36</t>
+          <t>2026-02-22 10:49:56</t>
         </is>
       </c>
     </row>
@@ -1529,28 +1529,28 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Al-Taawoun Buraidah</t>
+          <t>Al-Hazm (KSA)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Al-Hilal</t>
+          <t>Al-Ittihad</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>8.6</v>
+        <v>6.6</v>
       </c>
       <c r="G6" t="n">
-        <v>11</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H6" t="n">
-        <v>1.36</v>
+        <v>1.46</v>
       </c>
       <c r="I6" t="n">
-        <v>1.45</v>
+        <v>1.6</v>
       </c>
       <c r="J6" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="K6" t="n">
         <v>6.2</v>
@@ -1568,10 +1568,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>2.36</v>
+        <v>2.28</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -1701,14 +1701,14 @@
       </c>
       <c r="BH6" t="inlineStr">
         <is>
-          <t>2026-02-22 08:31:36</t>
+          <t>2026-02-22 10:49:56</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Egyptian Premier</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1718,36 +1718,36 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Al-Khaleej Saihat</t>
+          <t>Ghazl El Mahallah</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Al-Kholood Club</t>
+          <t>Pyramids</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.73</v>
+        <v>8.6</v>
       </c>
       <c r="G7" t="n">
-        <v>2.18</v>
+        <v>10.5</v>
       </c>
       <c r="H7" t="n">
-        <v>3.5</v>
+        <v>1.47</v>
       </c>
       <c r="I7" t="n">
-        <v>5.7</v>
+        <v>1.55</v>
       </c>
       <c r="J7" t="n">
-        <v>3.65</v>
+        <v>3.9</v>
       </c>
       <c r="K7" t="n">
-        <v>5.5</v>
+        <v>4.6</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1762,10 +1762,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.04</v>
+        <v>1.66</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.57</v>
+        <v>2.28</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1895,14 +1895,14 @@
       </c>
       <c r="BH7" t="inlineStr">
         <is>
-          <t>2026-02-22 08:31:36</t>
+          <t>2026-02-22 10:49:56</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Egyptian Premier</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1912,54 +1912,54 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Al-Hazm (KSA)</t>
+          <t>Ceramica Cleopatra</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Al-Ittihad</t>
+          <t>Ismaily</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>6.6</v>
+        <v>1.54</v>
       </c>
       <c r="G8" t="n">
-        <v>9.199999999999999</v>
+        <v>1.69</v>
       </c>
       <c r="H8" t="n">
-        <v>1.46</v>
+        <v>5.1</v>
       </c>
       <c r="I8" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K8" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
         <v>1.58</v>
       </c>
-      <c r="J8" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="K8" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>2.28</v>
-      </c>
       <c r="Q8" t="n">
-        <v>1.61</v>
+        <v>2.3</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -2089,7 +2089,7 @@
       </c>
       <c r="BH8" t="inlineStr">
         <is>
-          <t>2026-02-22 08:31:36</t>
+          <t>2026-02-22 10:49:56</t>
         </is>
       </c>
     </row>
@@ -2111,31 +2111,31 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Ghazl El Mahallah</t>
+          <t>ZED FC</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Pyramids</t>
+          <t>Zamalek</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>8.6</v>
+        <v>3.7</v>
       </c>
       <c r="G9" t="n">
-        <v>10.5</v>
+        <v>4.5</v>
       </c>
       <c r="H9" t="n">
-        <v>1.47</v>
+        <v>2.38</v>
       </c>
       <c r="I9" t="n">
-        <v>1.6</v>
+        <v>2.68</v>
       </c>
       <c r="J9" t="n">
-        <v>3.9</v>
+        <v>2.82</v>
       </c>
       <c r="K9" t="n">
-        <v>4.6</v>
+        <v>3.25</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -2150,10 +2150,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>1.65</v>
+        <v>1.43</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.22</v>
+        <v>2.68</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -2283,14 +2283,14 @@
       </c>
       <c r="BH9" t="inlineStr">
         <is>
-          <t>2026-02-22 08:31:36</t>
+          <t>2026-02-22 10:49:56</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Egyptian Premier</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2300,36 +2300,36 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Ceramica Cleopatra</t>
+          <t>CA Platense</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Ismaily</t>
+          <t>Defensa y Justicia</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.53</v>
+        <v>2.24</v>
       </c>
       <c r="G10" t="n">
-        <v>1.63</v>
+        <v>2.4</v>
       </c>
       <c r="H10" t="n">
-        <v>5</v>
+        <v>3.95</v>
       </c>
       <c r="I10" t="n">
-        <v>11.5</v>
+        <v>4.5</v>
       </c>
       <c r="J10" t="n">
-        <v>3.75</v>
+        <v>2.9</v>
       </c>
       <c r="K10" t="n">
-        <v>4.4</v>
+        <v>3.15</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -2344,10 +2344,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>1.58</v>
+        <v>1.44</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.46</v>
+        <v>2.96</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -2477,14 +2477,14 @@
       </c>
       <c r="BH10" t="inlineStr">
         <is>
-          <t>2026-02-22 08:31:36</t>
+          <t>2026-02-22 10:49:56</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Egyptian Premier</t>
+          <t>Colombian Primera B</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2494,36 +2494,36 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>17:30:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>ZED FC</t>
+          <t>Envigado</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Zamalek</t>
+          <t>Quindio</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>3.65</v>
+        <v>1.04</v>
       </c>
       <c r="G11" t="n">
-        <v>4.7</v>
+        <v>1000</v>
       </c>
       <c r="H11" t="n">
-        <v>2.36</v>
+        <v>1.04</v>
       </c>
       <c r="I11" t="n">
-        <v>2.76</v>
+        <v>1000</v>
       </c>
       <c r="J11" t="n">
-        <v>2.76</v>
+        <v>1.01</v>
       </c>
       <c r="K11" t="n">
-        <v>3.35</v>
+        <v>1000</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -2538,10 +2538,10 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>1.42</v>
+        <v>1.02</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.88</v>
+        <v>1.01</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -2671,7 +2671,7 @@
       </c>
       <c r="BH11" t="inlineStr">
         <is>
-          <t>2026-02-22 08:31:36</t>
+          <t>2026-02-22 10:49:56</t>
         </is>
       </c>
     </row>
@@ -2688,36 +2688,36 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>19:15:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>CA Platense</t>
+          <t>San Lorenzo</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Defensa y Justicia</t>
+          <t>Instituto</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.22</v>
+        <v>1.44</v>
       </c>
       <c r="G12" t="n">
-        <v>2.4</v>
+        <v>980</v>
       </c>
       <c r="H12" t="n">
-        <v>3.95</v>
+        <v>1.44</v>
       </c>
       <c r="I12" t="n">
-        <v>4.5</v>
+        <v>1000</v>
       </c>
       <c r="J12" t="n">
-        <v>2.88</v>
+        <v>1.01</v>
       </c>
       <c r="K12" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -2732,10 +2732,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>1.44</v>
+        <v>1.25</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.96</v>
+        <v>1.01</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -2865,14 +2865,14 @@
       </c>
       <c r="BH12" t="inlineStr">
         <is>
-          <t>2026-02-22 08:31:36</t>
+          <t>2026-02-22 10:49:56</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Colombian Primera B</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2882,27 +2882,27 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>19:15:00</t>
+          <t>19:30:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>San Lorenzo</t>
+          <t>Union Magdalena</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Instituto</t>
+          <t>Tigres FC Zipaquira</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.44</v>
+        <v>1.04</v>
       </c>
       <c r="G13" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="H13" t="n">
-        <v>1.44</v>
+        <v>1.04</v>
       </c>
       <c r="I13" t="n">
         <v>1000</v>
@@ -2911,7 +2911,7 @@
         <v>1.01</v>
       </c>
       <c r="K13" t="n">
-        <v>3.3</v>
+        <v>1000</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -2920,16 +2920,16 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="P13" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.01</v>
+        <v>1.3</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -3059,14 +3059,14 @@
       </c>
       <c r="BH13" t="inlineStr">
         <is>
-          <t>2026-02-22 08:31:36</t>
+          <t>2026-02-22 10:49:56</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Colombian Primera B</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -3076,36 +3076,36 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>19:30:00</t>
+          <t>19:45:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Union Magdalena</t>
+          <t>Central Cordoba (SdE)</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Tigres FC Zipaquira</t>
+          <t>Talleres</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.04</v>
+        <v>3.25</v>
       </c>
       <c r="G14" t="n">
-        <v>1000</v>
+        <v>3.55</v>
       </c>
       <c r="H14" t="n">
-        <v>1.04</v>
+        <v>2.64</v>
       </c>
       <c r="I14" t="n">
-        <v>1000</v>
+        <v>2.68</v>
       </c>
       <c r="J14" t="n">
-        <v>1.01</v>
+        <v>2.88</v>
       </c>
       <c r="K14" t="n">
-        <v>1000</v>
+        <v>3.1</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -3114,16 +3114,16 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>1.24</v>
+        <v>1.44</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.3</v>
+        <v>2.92</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -3253,201 +3253,7 @@
       </c>
       <c r="BH14" t="inlineStr">
         <is>
-          <t>2026-02-22 08:31:36</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Argentinian Primera Division</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>2026-02-24</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>19:45:00</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Central Cordoba (SdE)</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Talleres</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="G15" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="H15" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="I15" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="J15" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="K15" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="R15" t="n">
-        <v>0</v>
-      </c>
-      <c r="S15" t="n">
-        <v>0</v>
-      </c>
-      <c r="T15" t="n">
-        <v>0</v>
-      </c>
-      <c r="U15" t="n">
-        <v>0</v>
-      </c>
-      <c r="V15" t="n">
-        <v>0</v>
-      </c>
-      <c r="W15" t="n">
-        <v>0</v>
-      </c>
-      <c r="X15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH15" t="inlineStr">
-        <is>
-          <t>2026-02-22 08:31:36</t>
+          <t>2026-02-22 10:49:56</t>
         </is>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-24.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-24.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BH14"/>
+  <dimension ref="A1:BH15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -738,7 +738,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Romanian Liga II</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -748,184 +748,184 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>12:30:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Cambuur Leeuwarden</t>
+          <t>Concordia Chiajna</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>FC Eindhoven</t>
+          <t>FC Hunedoara</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.43</v>
+        <v>3.1</v>
       </c>
       <c r="G2" t="n">
-        <v>1.51</v>
+        <v>5.3</v>
       </c>
       <c r="H2" t="n">
-        <v>6.6</v>
+        <v>1.99</v>
       </c>
       <c r="I2" t="n">
-        <v>9</v>
+        <v>2.34</v>
       </c>
       <c r="J2" t="n">
-        <v>4.6</v>
+        <v>2.92</v>
       </c>
       <c r="K2" t="n">
-        <v>6.6</v>
+        <v>3.95</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="P2" t="n">
-        <v>2.8</v>
+        <v>1.64</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.44</v>
+        <v>2.12</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AA2" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AB2" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AC2" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AE2" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AF2" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AG2" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AH2" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AI2" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AL2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AM2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AP2" t="n">
-        <v>0</v>
+        <v>2.24</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="AR2" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="AS2" t="n">
-        <v>0</v>
+        <v>2.48</v>
       </c>
       <c r="AT2" t="n">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="AU2" t="n">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="AV2" t="n">
-        <v>0</v>
+        <v>2.26</v>
       </c>
       <c r="AW2" t="n">
-        <v>0</v>
+        <v>2.48</v>
       </c>
       <c r="AX2" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AY2" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="AZ2" t="n">
-        <v>0</v>
+        <v>2.44</v>
       </c>
       <c r="BA2" t="n">
-        <v>0</v>
+        <v>2.56</v>
       </c>
       <c r="BB2" t="n">
-        <v>0</v>
+        <v>2.66</v>
       </c>
       <c r="BC2" t="n">
-        <v>0</v>
+        <v>2.58</v>
       </c>
       <c r="BD2" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="BE2" t="n">
-        <v>0</v>
+        <v>2.66</v>
       </c>
       <c r="BF2" t="n">
-        <v>0</v>
+        <v>2.66</v>
       </c>
       <c r="BG2" t="n">
-        <v>0</v>
+        <v>2.66</v>
       </c>
       <c r="BH2" t="inlineStr">
         <is>
-          <t>2026-02-22 10:49:56</t>
+          <t>2026-02-22 13:04:24</t>
         </is>
       </c>
     </row>
@@ -947,31 +947,31 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Willem II</t>
+          <t>Cambuur Leeuwarden</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>ADO Den Haag</t>
+          <t>FC Eindhoven</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.45</v>
+        <v>1.43</v>
       </c>
       <c r="G3" t="n">
-        <v>4.3</v>
+        <v>1.51</v>
       </c>
       <c r="H3" t="n">
-        <v>1.97</v>
+        <v>6.6</v>
       </c>
       <c r="I3" t="n">
-        <v>2.24</v>
+        <v>9</v>
       </c>
       <c r="J3" t="n">
-        <v>3.85</v>
+        <v>4.7</v>
       </c>
       <c r="K3" t="n">
-        <v>4.5</v>
+        <v>6.6</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -986,10 +986,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.38</v>
+        <v>2.82</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.58</v>
+        <v>1.45</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -1119,14 +1119,14 @@
       </c>
       <c r="BH3" t="inlineStr">
         <is>
-          <t>2026-02-22 10:49:56</t>
+          <t>2026-02-22 13:04:24</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1141,31 +1141,31 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Al-Taawoun Buraidah</t>
+          <t>Willem II</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Al-Hilal</t>
+          <t>ADO Den Haag</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>8.6</v>
+        <v>3.45</v>
       </c>
       <c r="G4" t="n">
-        <v>11.5</v>
+        <v>4.5</v>
       </c>
       <c r="H4" t="n">
-        <v>1.36</v>
+        <v>1.97</v>
       </c>
       <c r="I4" t="n">
-        <v>1.45</v>
+        <v>2.34</v>
       </c>
       <c r="J4" t="n">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="K4" t="n">
-        <v>6.2</v>
+        <v>4.5</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>2.38</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -1313,7 +1313,7 @@
       </c>
       <c r="BH4" t="inlineStr">
         <is>
-          <t>2026-02-22 10:49:56</t>
+          <t>2026-02-22 13:04:24</t>
         </is>
       </c>
     </row>
@@ -1335,31 +1335,31 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Al-Khaleej Saihat</t>
+          <t>Al-Taawoun Buraidah</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Al-Kholood Club</t>
+          <t>Al-Hilal</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.73</v>
+        <v>9.4</v>
       </c>
       <c r="G5" t="n">
-        <v>2.18</v>
+        <v>13</v>
       </c>
       <c r="H5" t="n">
-        <v>3.5</v>
+        <v>1.33</v>
       </c>
       <c r="I5" t="n">
-        <v>5.7</v>
+        <v>1.41</v>
       </c>
       <c r="J5" t="n">
-        <v>3.5</v>
+        <v>5.2</v>
       </c>
       <c r="K5" t="n">
-        <v>5.5</v>
+        <v>6.4</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -1374,10 +1374,10 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>2.04</v>
+        <v>2.38</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -1507,7 +1507,7 @@
       </c>
       <c r="BH5" t="inlineStr">
         <is>
-          <t>2026-02-22 10:49:56</t>
+          <t>2026-02-22 13:04:24</t>
         </is>
       </c>
     </row>
@@ -1529,31 +1529,31 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Al-Hazm (KSA)</t>
+          <t>Al-Khaleej Saihat</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Al-Ittihad</t>
+          <t>Al-Kholood Club</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>6.6</v>
+        <v>1.73</v>
       </c>
       <c r="G6" t="n">
-        <v>9.199999999999999</v>
+        <v>2.18</v>
       </c>
       <c r="H6" t="n">
-        <v>1.46</v>
+        <v>3.5</v>
       </c>
       <c r="I6" t="n">
-        <v>1.6</v>
+        <v>5.7</v>
       </c>
       <c r="J6" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="K6" t="n">
-        <v>6.2</v>
+        <v>5.5</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -1568,10 +1568,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>2.28</v>
+        <v>2.04</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.61</v>
+        <v>1.59</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -1701,14 +1701,14 @@
       </c>
       <c r="BH6" t="inlineStr">
         <is>
-          <t>2026-02-22 10:49:56</t>
+          <t>2026-02-22 13:04:24</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Egyptian Premier</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1718,36 +1718,36 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Ghazl El Mahallah</t>
+          <t>Al-Hazm (KSA)</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Pyramids</t>
+          <t>Al-Ittihad</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>8.6</v>
+        <v>6.6</v>
       </c>
       <c r="G7" t="n">
-        <v>10.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H7" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="I7" t="n">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="J7" t="n">
-        <v>3.9</v>
+        <v>4.5</v>
       </c>
       <c r="K7" t="n">
-        <v>4.6</v>
+        <v>6.2</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1762,10 +1762,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>1.66</v>
+        <v>2.28</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.28</v>
+        <v>1.61</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1895,7 +1895,7 @@
       </c>
       <c r="BH7" t="inlineStr">
         <is>
-          <t>2026-02-22 10:49:56</t>
+          <t>2026-02-22 13:04:24</t>
         </is>
       </c>
     </row>
@@ -1917,31 +1917,31 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Ceramica Cleopatra</t>
+          <t>Ghazl El Mahallah</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Ismaily</t>
+          <t>Pyramids</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.54</v>
+        <v>8.6</v>
       </c>
       <c r="G8" t="n">
-        <v>1.69</v>
+        <v>10.5</v>
       </c>
       <c r="H8" t="n">
-        <v>5.1</v>
+        <v>1.47</v>
       </c>
       <c r="I8" t="n">
-        <v>11.5</v>
+        <v>1.58</v>
       </c>
       <c r="J8" t="n">
-        <v>3.35</v>
+        <v>3.9</v>
       </c>
       <c r="K8" t="n">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -1956,10 +1956,10 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>1.58</v>
+        <v>1.66</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -2089,7 +2089,7 @@
       </c>
       <c r="BH8" t="inlineStr">
         <is>
-          <t>2026-02-22 10:49:56</t>
+          <t>2026-02-22 13:04:24</t>
         </is>
       </c>
     </row>
@@ -2111,31 +2111,31 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>ZED FC</t>
+          <t>Ceramica Cleopatra</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Zamalek</t>
+          <t>Ismaily</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>3.7</v>
+        <v>1.54</v>
       </c>
       <c r="G9" t="n">
-        <v>4.5</v>
+        <v>1.69</v>
       </c>
       <c r="H9" t="n">
-        <v>2.38</v>
+        <v>5.1</v>
       </c>
       <c r="I9" t="n">
-        <v>2.68</v>
+        <v>11.5</v>
       </c>
       <c r="J9" t="n">
-        <v>2.82</v>
+        <v>3.4</v>
       </c>
       <c r="K9" t="n">
-        <v>3.25</v>
+        <v>4.3</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -2150,10 +2150,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>1.43</v>
+        <v>1.59</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.68</v>
+        <v>2.5</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -2283,14 +2283,14 @@
       </c>
       <c r="BH9" t="inlineStr">
         <is>
-          <t>2026-02-22 10:49:56</t>
+          <t>2026-02-22 13:04:24</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Egyptian Premier</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2300,36 +2300,36 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>CA Platense</t>
+          <t>ZED FC</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Defensa y Justicia</t>
+          <t>Zamalek</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.24</v>
+        <v>3.7</v>
       </c>
       <c r="G10" t="n">
-        <v>2.4</v>
+        <v>4.5</v>
       </c>
       <c r="H10" t="n">
-        <v>3.95</v>
+        <v>2.38</v>
       </c>
       <c r="I10" t="n">
-        <v>4.5</v>
+        <v>2.68</v>
       </c>
       <c r="J10" t="n">
-        <v>2.9</v>
+        <v>2.82</v>
       </c>
       <c r="K10" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -2344,10 +2344,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.96</v>
+        <v>2.68</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -2477,14 +2477,14 @@
       </c>
       <c r="BH10" t="inlineStr">
         <is>
-          <t>2026-02-22 10:49:56</t>
+          <t>2026-02-22 13:04:24</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Colombian Primera B</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2494,36 +2494,36 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>17:30:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Envigado</t>
+          <t>CA Platense</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Quindio</t>
+          <t>Defensa y Justicia</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.04</v>
+        <v>2.22</v>
       </c>
       <c r="G11" t="n">
-        <v>1000</v>
+        <v>2.4</v>
       </c>
       <c r="H11" t="n">
-        <v>1.04</v>
+        <v>3.95</v>
       </c>
       <c r="I11" t="n">
-        <v>1000</v>
+        <v>4.5</v>
       </c>
       <c r="J11" t="n">
-        <v>1.01</v>
+        <v>2.88</v>
       </c>
       <c r="K11" t="n">
-        <v>1000</v>
+        <v>3.15</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -2538,10 +2538,10 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>1.02</v>
+        <v>1.44</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.01</v>
+        <v>2.96</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -2671,14 +2671,14 @@
       </c>
       <c r="BH11" t="inlineStr">
         <is>
-          <t>2026-02-22 10:49:56</t>
+          <t>2026-02-22 13:04:24</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Colombian Primera B</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2688,27 +2688,27 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>19:15:00</t>
+          <t>17:30:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>San Lorenzo</t>
+          <t>Envigado</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Instituto</t>
+          <t>Quindio</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.44</v>
+        <v>1.04</v>
       </c>
       <c r="G12" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="H12" t="n">
-        <v>1.44</v>
+        <v>1.04</v>
       </c>
       <c r="I12" t="n">
         <v>1000</v>
@@ -2717,7 +2717,7 @@
         <v>1.01</v>
       </c>
       <c r="K12" t="n">
-        <v>3.3</v>
+        <v>1000</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -2732,7 +2732,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="Q12" t="n">
         <v>1.01</v>
@@ -2865,14 +2865,14 @@
       </c>
       <c r="BH12" t="inlineStr">
         <is>
-          <t>2026-02-22 10:49:56</t>
+          <t>2026-02-22 13:04:24</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Colombian Primera B</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2882,27 +2882,27 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>19:30:00</t>
+          <t>19:15:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Union Magdalena</t>
+          <t>San Lorenzo</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Tigres FC Zipaquira</t>
+          <t>Instituto</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.04</v>
+        <v>1.44</v>
       </c>
       <c r="G13" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="H13" t="n">
-        <v>1.04</v>
+        <v>1.44</v>
       </c>
       <c r="I13" t="n">
         <v>1000</v>
@@ -2911,7 +2911,7 @@
         <v>1.01</v>
       </c>
       <c r="K13" t="n">
-        <v>1000</v>
+        <v>3.3</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -2920,16 +2920,16 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
         <v>1.25</v>
       </c>
-      <c r="O13" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P13" t="n">
-        <v>1.24</v>
-      </c>
       <c r="Q13" t="n">
-        <v>1.3</v>
+        <v>1.01</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -3059,201 +3059,395 @@
       </c>
       <c r="BH13" t="inlineStr">
         <is>
-          <t>2026-02-22 10:49:56</t>
+          <t>2026-02-22 13:04:24</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>Colombian Primera B</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2026-02-24</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>19:30:00</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Union Magdalena</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Tigres FC Zipaquira</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH14" t="inlineStr">
+        <is>
+          <t>2026-02-22 13:04:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
           <t>Argentinian Primera Division</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B15" t="inlineStr">
         <is>
           <t>2026-02-24</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>19:45:00</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>Central Cordoba (SdE)</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>Talleres</t>
         </is>
       </c>
-      <c r="F14" t="n">
+      <c r="F15" t="n">
         <v>3.25</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G15" t="n">
         <v>3.55</v>
       </c>
-      <c r="H14" t="n">
+      <c r="H15" t="n">
         <v>2.64</v>
       </c>
-      <c r="I14" t="n">
+      <c r="I15" t="n">
         <v>2.68</v>
       </c>
-      <c r="J14" t="n">
+      <c r="J15" t="n">
         <v>2.88</v>
       </c>
-      <c r="K14" t="n">
+      <c r="K15" t="n">
         <v>3.1</v>
       </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
         <v>1.44</v>
       </c>
-      <c r="Q14" t="n">
+      <c r="Q15" t="n">
         <v>2.92</v>
       </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0</v>
-      </c>
-      <c r="X14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH14" t="inlineStr">
-        <is>
-          <t>2026-02-22 10:49:56</t>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0</v>
+      </c>
+      <c r="X15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH15" t="inlineStr">
+        <is>
+          <t>2026-02-22 13:04:24</t>
         </is>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-24.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-24.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BH15"/>
+  <dimension ref="A1:BH20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -762,7 +762,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="G2" t="n">
         <v>5.3</v>
@@ -771,7 +771,7 @@
         <v>1.99</v>
       </c>
       <c r="I2" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="J2" t="n">
         <v>2.92</v>
@@ -795,7 +795,7 @@
         <v>1.64</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="R2" t="n">
         <v>1.18</v>
@@ -810,7 +810,7 @@
         <v>1.01</v>
       </c>
       <c r="V2" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="W2" t="n">
         <v>1.23</v>
@@ -870,69 +870,69 @@
         <v>1000</v>
       </c>
       <c r="AP2" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="AQ2" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="AR2" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="AS2" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AZ2" t="n">
         <v>2.48</v>
       </c>
-      <c r="AT2" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="AU2" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="AV2" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="AW2" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="AX2" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AY2" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="AZ2" t="n">
-        <v>2.44</v>
-      </c>
       <c r="BA2" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="BB2" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="BC2" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="BD2" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="BE2" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="BF2" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="BG2" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="BH2" t="inlineStr">
         <is>
-          <t>2026-02-22 13:04:24</t>
+          <t>2026-02-22 15:16:02</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Austrian Erste Liga</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -942,191 +942,191 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Cambuur Leeuwarden</t>
+          <t>Admira Wacker</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>FC Eindhoven</t>
+          <t>Austria Wien (A)</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.43</v>
+        <v>1.52</v>
       </c>
       <c r="G3" t="n">
-        <v>1.51</v>
+        <v>1.67</v>
       </c>
       <c r="H3" t="n">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="I3" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J3" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="K3" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N3" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="S3" t="n">
+        <v>3</v>
+      </c>
+      <c r="T3" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="W3" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="X3" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>27</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>75</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>34</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>27</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>130</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>20</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>46</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>4</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BD3" t="n">
         <v>4.7</v>
       </c>
-      <c r="K3" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD3" t="n">
-        <v>0</v>
-      </c>
       <c r="BE3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BF3" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="BG3" t="n">
-        <v>0</v>
+        <v>5.1</v>
       </c>
       <c r="BH3" t="inlineStr">
         <is>
-          <t>2026-02-22 13:04:24</t>
+          <t>2026-02-22 15:16:02</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1136,191 +1136,191 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>14:45:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Willem II</t>
+          <t>Atletico Madrid</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>ADO Den Haag</t>
+          <t>Club Brugge</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>3.45</v>
+        <v>1.39</v>
       </c>
       <c r="G4" t="n">
-        <v>4.5</v>
+        <v>1.4</v>
       </c>
       <c r="H4" t="n">
-        <v>1.97</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I4" t="n">
-        <v>2.34</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J4" t="n">
-        <v>3.4</v>
+        <v>5.9</v>
       </c>
       <c r="K4" t="n">
-        <v>4.5</v>
+        <v>6.2</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="P4" t="n">
-        <v>2.38</v>
+        <v>2.92</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.58</v>
+        <v>1.49</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>2.22</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>2.26</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="Z4" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AA4" t="n">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="AB4" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AC4" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AD4" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AE4" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AF4" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AG4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AH4" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AI4" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AK4" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AL4" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AM4" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AN4" t="n">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="AO4" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AP4" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AR4" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AS4" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AT4" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AU4" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AV4" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AW4" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AX4" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="AY4" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="AZ4" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="BA4" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="BB4" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="BC4" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="BD4" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="BE4" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="BF4" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="BG4" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="BH4" t="inlineStr">
         <is>
-          <t>2026-02-22 13:04:24</t>
+          <t>2026-02-22 15:16:02</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1335,31 +1335,31 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Al-Taawoun Buraidah</t>
+          <t>Cambuur Leeuwarden</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Al-Hilal</t>
+          <t>FC Eindhoven</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>9.4</v>
+        <v>1.43</v>
       </c>
       <c r="G5" t="n">
-        <v>13</v>
+        <v>1.51</v>
       </c>
       <c r="H5" t="n">
-        <v>1.33</v>
+        <v>6.6</v>
       </c>
       <c r="I5" t="n">
-        <v>1.41</v>
+        <v>8.6</v>
       </c>
       <c r="J5" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="K5" t="n">
-        <v>6.4</v>
+        <v>6</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -1374,10 +1374,10 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>2.38</v>
+        <v>2.8</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -1507,14 +1507,14 @@
       </c>
       <c r="BH5" t="inlineStr">
         <is>
-          <t>2026-02-22 13:04:24</t>
+          <t>2026-02-22 15:16:02</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1529,31 +1529,31 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Al-Khaleej Saihat</t>
+          <t>Willem II</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Al-Kholood Club</t>
+          <t>ADO Den Haag</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.73</v>
+        <v>3.45</v>
       </c>
       <c r="G6" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="I6" t="n">
         <v>2.18</v>
       </c>
-      <c r="H6" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="I6" t="n">
-        <v>5.7</v>
-      </c>
       <c r="J6" t="n">
-        <v>3.5</v>
+        <v>3.85</v>
       </c>
       <c r="K6" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -1568,10 +1568,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>2.04</v>
+        <v>2.38</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -1701,7 +1701,7 @@
       </c>
       <c r="BH6" t="inlineStr">
         <is>
-          <t>2026-02-22 13:04:24</t>
+          <t>2026-02-22 15:16:02</t>
         </is>
       </c>
     </row>
@@ -1723,31 +1723,31 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Al-Hazm (KSA)</t>
+          <t>Al-Taawoun Buraidah</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Al-Ittihad</t>
+          <t>Al-Hilal</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>6.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="G7" t="n">
-        <v>9.199999999999999</v>
+        <v>12.5</v>
       </c>
       <c r="H7" t="n">
-        <v>1.46</v>
+        <v>1.34</v>
       </c>
       <c r="I7" t="n">
-        <v>1.6</v>
+        <v>1.42</v>
       </c>
       <c r="J7" t="n">
-        <v>4.5</v>
+        <v>5.1</v>
       </c>
       <c r="K7" t="n">
-        <v>6.2</v>
+        <v>6.8</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1762,10 +1762,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.28</v>
+        <v>2.36</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.61</v>
+        <v>1.54</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1895,14 +1895,14 @@
       </c>
       <c r="BH7" t="inlineStr">
         <is>
-          <t>2026-02-22 13:04:24</t>
+          <t>2026-02-22 15:16:02</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Egyptian Premier</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1912,36 +1912,36 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Ghazl El Mahallah</t>
+          <t>Al-Khaleej Saihat</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Pyramids</t>
+          <t>Al-Kholood Club</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>8.6</v>
+        <v>1.73</v>
       </c>
       <c r="G8" t="n">
-        <v>10.5</v>
+        <v>2.18</v>
       </c>
       <c r="H8" t="n">
-        <v>1.47</v>
+        <v>3.5</v>
       </c>
       <c r="I8" t="n">
-        <v>1.58</v>
+        <v>5.7</v>
       </c>
       <c r="J8" t="n">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="K8" t="n">
-        <v>4.6</v>
+        <v>5.5</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -1956,10 +1956,10 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>1.66</v>
+        <v>2.04</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.28</v>
+        <v>1.59</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -2089,14 +2089,14 @@
       </c>
       <c r="BH8" t="inlineStr">
         <is>
-          <t>2026-02-22 13:04:24</t>
+          <t>2026-02-22 15:16:02</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Egyptian Premier</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2106,36 +2106,36 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Ceramica Cleopatra</t>
+          <t>Al-Hazm (KSA)</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Ismaily</t>
+          <t>Al-Ittihad</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.54</v>
+        <v>6.6</v>
       </c>
       <c r="G9" t="n">
-        <v>1.69</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H9" t="n">
-        <v>5.1</v>
+        <v>1.46</v>
       </c>
       <c r="I9" t="n">
-        <v>11.5</v>
+        <v>1.58</v>
       </c>
       <c r="J9" t="n">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="K9" t="n">
-        <v>4.3</v>
+        <v>6.2</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -2150,10 +2150,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>1.59</v>
+        <v>2.28</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.5</v>
+        <v>1.61</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -2283,7 +2283,7 @@
       </c>
       <c r="BH9" t="inlineStr">
         <is>
-          <t>2026-02-22 13:04:24</t>
+          <t>2026-02-22 15:16:02</t>
         </is>
       </c>
     </row>
@@ -2477,14 +2477,14 @@
       </c>
       <c r="BH10" t="inlineStr">
         <is>
-          <t>2026-02-22 13:04:24</t>
+          <t>2026-02-22 15:16:02</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Egyptian Premier</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2494,36 +2494,36 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>CA Platense</t>
+          <t>Ceramica Cleopatra</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Defensa y Justicia</t>
+          <t>Ismaily</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.22</v>
+        <v>1.54</v>
       </c>
       <c r="G11" t="n">
-        <v>2.4</v>
+        <v>1.64</v>
       </c>
       <c r="H11" t="n">
-        <v>3.95</v>
+        <v>5</v>
       </c>
       <c r="I11" t="n">
-        <v>4.5</v>
+        <v>11.5</v>
       </c>
       <c r="J11" t="n">
-        <v>2.88</v>
+        <v>3.7</v>
       </c>
       <c r="K11" t="n">
-        <v>3.15</v>
+        <v>4.3</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -2538,10 +2538,10 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>1.44</v>
+        <v>1.59</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.96</v>
+        <v>2.5</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -2671,14 +2671,14 @@
       </c>
       <c r="BH11" t="inlineStr">
         <is>
-          <t>2026-02-22 13:04:24</t>
+          <t>2026-02-22 15:16:02</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Colombian Primera B</t>
+          <t>Egyptian Premier</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2688,36 +2688,36 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>17:30:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Envigado</t>
+          <t>Ghazl El Mahallah</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Quindio</t>
+          <t>Pyramids</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.04</v>
+        <v>8.6</v>
       </c>
       <c r="G12" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="H12" t="n">
-        <v>1.04</v>
+        <v>1.47</v>
       </c>
       <c r="I12" t="n">
-        <v>1000</v>
+        <v>1.6</v>
       </c>
       <c r="J12" t="n">
-        <v>1.01</v>
+        <v>3.9</v>
       </c>
       <c r="K12" t="n">
-        <v>1000</v>
+        <v>4.6</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -2732,10 +2732,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>1.24</v>
+        <v>1.66</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.01</v>
+        <v>2.3</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -2865,7 +2865,7 @@
       </c>
       <c r="BH12" t="inlineStr">
         <is>
-          <t>2026-02-22 13:04:24</t>
+          <t>2026-02-22 15:16:02</t>
         </is>
       </c>
     </row>
@@ -2882,54 +2882,54 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>19:15:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>San Lorenzo</t>
+          <t>CA Platense</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Instituto</t>
+          <t>Defensa y Justicia</t>
         </is>
       </c>
       <c r="F13" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="G13" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H13" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="I13" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="K13" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
         <v>1.44</v>
       </c>
-      <c r="G13" t="n">
-        <v>980</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="I13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="K13" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>1.25</v>
-      </c>
       <c r="Q13" t="n">
-        <v>1.01</v>
+        <v>2.96</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -3059,14 +3059,14 @@
       </c>
       <c r="BH13" t="inlineStr">
         <is>
-          <t>2026-02-22 13:04:24</t>
+          <t>2026-02-22 15:16:02</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Colombian Primera B</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -3076,378 +3076,1348 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>19:30:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Union Magdalena</t>
+          <t>Newcastle</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Tigres FC Zipaquira</t>
+          <t>Qarabag FK</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.04</v>
+        <v>1.15</v>
       </c>
       <c r="G14" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="H14" t="n">
+        <v>21</v>
+      </c>
+      <c r="I14" t="n">
+        <v>23</v>
+      </c>
+      <c r="J14" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="K14" t="n">
+        <v>12</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N14" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="P14" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="R14" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="T14" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="U14" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
+        <v>60</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>90</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>280</v>
+      </c>
+      <c r="AA14" t="n">
         <v>1000</v>
       </c>
-      <c r="H14" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="I14" t="n">
+      <c r="AB14" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>29</v>
+      </c>
+      <c r="AD14" t="n">
         <v>1000</v>
       </c>
-      <c r="J14" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="K14" t="n">
+      <c r="AE14" t="n">
+        <v>360</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>42</v>
+      </c>
+      <c r="AI14" t="n">
         <v>1000</v>
       </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P14" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0</v>
-      </c>
-      <c r="X14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>0</v>
-      </c>
       <c r="AJ14" t="n">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="AK14" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AL14" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AM14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN14" t="n">
-        <v>0</v>
+        <v>2.54</v>
       </c>
       <c r="AO14" t="n">
-        <v>0</v>
+        <v>360</v>
       </c>
       <c r="AP14" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AQ14" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AR14" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AS14" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AT14" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AU14" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AV14" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AW14" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AX14" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AY14" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AZ14" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="BA14" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="BB14" t="n">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="BC14" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="BD14" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="BE14" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="BF14" t="n">
-        <v>0</v>
+        <v>2.44</v>
       </c>
       <c r="BG14" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="BH14" t="inlineStr">
         <is>
-          <t>2026-02-22 13:04:24</t>
+          <t>2026-02-22 15:16:02</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>UEFA Champions League</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2026-02-24</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Leverkusen</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Olympiakos</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="H15" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I15" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="J15" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="K15" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N15" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="P15" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="S15" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="T15" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="U15" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0</v>
+      </c>
+      <c r="X15" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>20</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>42</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>95</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>30</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>80</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>9</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>48</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>17</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>28</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>38</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>10</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>16</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>44</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AZ15" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="BA15" t="n">
+        <v>44</v>
+      </c>
+      <c r="BB15" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="BC15" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="BD15" t="n">
+        <v>25</v>
+      </c>
+      <c r="BE15" t="n">
+        <v>50</v>
+      </c>
+      <c r="BF15" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="BG15" t="n">
+        <v>40</v>
+      </c>
+      <c r="BH15" t="inlineStr">
+        <is>
+          <t>2026-02-22 15:16:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>UEFA Champions League</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2026-02-24</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Inter</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Bodo Glimt</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="H16" t="n">
+        <v>12</v>
+      </c>
+      <c r="I16" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="J16" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="K16" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N16" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="P16" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="R16" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="T16" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="U16" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0</v>
+      </c>
+      <c r="X16" t="n">
+        <v>55</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>65</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>150</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>440</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>19</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>44</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>170</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>28</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>12</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>28</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>140</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>28</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>42</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>17</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>14</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>36</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>42</v>
+      </c>
+      <c r="AX16" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY16" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AZ16" t="n">
+        <v>22</v>
+      </c>
+      <c r="BA16" t="n">
+        <v>36</v>
+      </c>
+      <c r="BB16" t="n">
+        <v>10</v>
+      </c>
+      <c r="BC16" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD16" t="n">
+        <v>20</v>
+      </c>
+      <c r="BE16" t="n">
+        <v>55</v>
+      </c>
+      <c r="BF16" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG16" t="n">
+        <v>40</v>
+      </c>
+      <c r="BH16" t="inlineStr">
+        <is>
+          <t>2026-02-22 15:16:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Colombian Primera B</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2026-02-24</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>17:30:00</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Envigado</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Quindio</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="I17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH17" t="inlineStr">
+        <is>
+          <t>2026-02-22 15:16:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
           <t>Argentinian Primera Division</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B18" t="inlineStr">
         <is>
           <t>2026-02-24</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>19:15:00</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>San Lorenzo</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Instituto</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="G18" t="n">
+        <v>980</v>
+      </c>
+      <c r="H18" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="I18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="K18" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0</v>
+      </c>
+      <c r="X18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH18" t="inlineStr">
+        <is>
+          <t>2026-02-22 15:16:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Colombian Primera B</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2026-02-24</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>19:30:00</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Union Magdalena</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Tigres FC Zipaquira</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="I19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J19" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH19" t="inlineStr">
+        <is>
+          <t>2026-02-22 15:16:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Argentinian Primera Division</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2026-02-24</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
         <is>
           <t>19:45:00</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>Central Cordoba (SdE)</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>Talleres</t>
         </is>
       </c>
-      <c r="F15" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="G15" t="n">
+      <c r="F20" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="G20" t="n">
         <v>3.55</v>
       </c>
-      <c r="H15" t="n">
+      <c r="H20" t="n">
         <v>2.64</v>
       </c>
-      <c r="I15" t="n">
+      <c r="I20" t="n">
         <v>2.68</v>
       </c>
-      <c r="J15" t="n">
+      <c r="J20" t="n">
         <v>2.88</v>
       </c>
-      <c r="K15" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
+      <c r="K20" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
         <v>1.44</v>
       </c>
-      <c r="Q15" t="n">
+      <c r="Q20" t="n">
         <v>2.92</v>
       </c>
-      <c r="R15" t="n">
-        <v>0</v>
-      </c>
-      <c r="S15" t="n">
-        <v>0</v>
-      </c>
-      <c r="T15" t="n">
-        <v>0</v>
-      </c>
-      <c r="U15" t="n">
-        <v>0</v>
-      </c>
-      <c r="V15" t="n">
-        <v>0</v>
-      </c>
-      <c r="W15" t="n">
-        <v>0</v>
-      </c>
-      <c r="X15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH15" t="inlineStr">
-        <is>
-          <t>2026-02-22 13:04:24</t>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH20" t="inlineStr">
+        <is>
+          <t>2026-02-22 15:16:02</t>
         </is>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-24.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-24.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BH20"/>
+  <dimension ref="A1:BH31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -762,7 +762,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="G2" t="n">
         <v>5.3</v>
@@ -771,161 +771,161 @@
         <v>1.99</v>
       </c>
       <c r="I2" t="n">
-        <v>2.36</v>
+        <v>2.22</v>
       </c>
       <c r="J2" t="n">
-        <v>2.92</v>
+        <v>2.78</v>
       </c>
       <c r="K2" t="n">
         <v>3.95</v>
       </c>
       <c r="L2" t="n">
-        <v>1.01</v>
+        <v>1.44</v>
       </c>
       <c r="M2" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="N2" t="n">
-        <v>1.64</v>
+        <v>2.68</v>
       </c>
       <c r="O2" t="n">
-        <v>1.4</v>
+        <v>1.43</v>
       </c>
       <c r="P2" t="n">
         <v>1.64</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="R2" t="n">
-        <v>1.18</v>
+        <v>1.24</v>
       </c>
       <c r="S2" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="T2" t="n">
-        <v>1.01</v>
+        <v>1.97</v>
       </c>
       <c r="U2" t="n">
-        <v>1.01</v>
+        <v>1.84</v>
       </c>
       <c r="V2" t="n">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="W2" t="n">
         <v>1.23</v>
       </c>
       <c r="X2" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>10.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z2" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AA2" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="AB2" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AC2" t="n">
-        <v>10.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD2" t="n">
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="AE2" t="n">
+        <v>30</v>
+      </c>
+      <c r="AF2" t="n">
         <v>36</v>
       </c>
-      <c r="AF2" t="n">
-        <v>44</v>
-      </c>
       <c r="AG2" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH2" t="n">
         <v>25</v>
       </c>
-      <c r="AH2" t="n">
-        <v>30</v>
-      </c>
       <c r="AI2" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AK2" t="n">
+        <v>80</v>
+      </c>
+      <c r="AL2" t="n">
         <v>95</v>
       </c>
-      <c r="AL2" t="n">
-        <v>100</v>
-      </c>
       <c r="AM2" t="n">
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AO2" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AP2" t="n">
-        <v>2.28</v>
+        <v>3.65</v>
       </c>
       <c r="AQ2" t="n">
-        <v>2.14</v>
+        <v>3.25</v>
       </c>
       <c r="AR2" t="n">
-        <v>2.32</v>
+        <v>3.75</v>
       </c>
       <c r="AS2" t="n">
-        <v>2.52</v>
+        <v>4.4</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.34</v>
+        <v>3.8</v>
       </c>
       <c r="AU2" t="n">
-        <v>2.14</v>
+        <v>3.25</v>
       </c>
       <c r="AV2" t="n">
-        <v>2.28</v>
+        <v>3.65</v>
       </c>
       <c r="AW2" t="n">
-        <v>2.5</v>
+        <v>4.4</v>
       </c>
       <c r="AX2" t="n">
-        <v>2.54</v>
+        <v>4.5</v>
       </c>
       <c r="AY2" t="n">
-        <v>2.44</v>
+        <v>4.1</v>
       </c>
       <c r="AZ2" t="n">
-        <v>2.48</v>
+        <v>4.2</v>
       </c>
       <c r="BA2" t="n">
-        <v>2.6</v>
+        <v>4.7</v>
       </c>
       <c r="BB2" t="n">
-        <v>2.68</v>
+        <v>4.9</v>
       </c>
       <c r="BC2" t="n">
-        <v>2.62</v>
+        <v>4.8</v>
       </c>
       <c r="BD2" t="n">
-        <v>2.62</v>
+        <v>4.9</v>
       </c>
       <c r="BE2" t="n">
-        <v>2.68</v>
+        <v>5</v>
       </c>
       <c r="BF2" t="n">
-        <v>2.68</v>
+        <v>4.9</v>
       </c>
       <c r="BG2" t="n">
-        <v>2.68</v>
+        <v>4.3</v>
       </c>
       <c r="BH2" t="inlineStr">
         <is>
-          <t>2026-02-22 15:16:02</t>
+          <t>2026-02-22 17:26:45</t>
         </is>
       </c>
     </row>
@@ -956,7 +956,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="G3" t="n">
         <v>1.67</v>
@@ -971,10 +971,10 @@
         <v>3.55</v>
       </c>
       <c r="K3" t="n">
-        <v>4.6</v>
+        <v>5</v>
       </c>
       <c r="L3" t="n">
-        <v>1.01</v>
+        <v>1.33</v>
       </c>
       <c r="M3" t="n">
         <v>1.06</v>
@@ -995,22 +995,22 @@
         <v>1.36</v>
       </c>
       <c r="S3" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="T3" t="n">
         <v>1.85</v>
       </c>
       <c r="U3" t="n">
-        <v>1.77</v>
+        <v>1.85</v>
       </c>
       <c r="V3" t="n">
         <v>1.13</v>
       </c>
       <c r="W3" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="X3" t="n">
-        <v>17.5</v>
+        <v>970</v>
       </c>
       <c r="Y3" t="n">
         <v>27</v>
@@ -1022,10 +1022,10 @@
         <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>9.199999999999999</v>
+        <v>970</v>
       </c>
       <c r="AC3" t="n">
-        <v>11</v>
+        <v>970</v>
       </c>
       <c r="AD3" t="n">
         <v>34</v>
@@ -1034,10 +1034,10 @@
         <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>10.5</v>
+        <v>970</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>970</v>
       </c>
       <c r="AH3" t="n">
         <v>27</v>
@@ -1046,7 +1046,7 @@
         <v>130</v>
       </c>
       <c r="AJ3" t="n">
-        <v>16.5</v>
+        <v>970</v>
       </c>
       <c r="AK3" t="n">
         <v>20</v>
@@ -1058,68 +1058,68 @@
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>10.5</v>
+        <v>970</v>
       </c>
       <c r="AO3" t="n">
         <v>1000</v>
       </c>
       <c r="AP3" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="AQ3" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BC3" t="n">
         <v>4.3</v>
       </c>
-      <c r="AR3" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AW3" t="n">
+      <c r="BD3" t="n">
         <v>5</v>
       </c>
-      <c r="AX3" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AY3" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="AZ3" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="BA3" t="n">
-        <v>5</v>
-      </c>
-      <c r="BB3" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="BC3" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="BD3" t="n">
-        <v>4.7</v>
-      </c>
       <c r="BE3" t="n">
-        <v>5</v>
+        <v>3.45</v>
       </c>
       <c r="BF3" t="n">
         <v>7</v>
       </c>
       <c r="BG3" t="n">
-        <v>5.1</v>
+        <v>3.45</v>
       </c>
       <c r="BH3" t="inlineStr">
         <is>
-          <t>2026-02-22 15:16:02</t>
+          <t>2026-02-22 17:26:45</t>
         </is>
       </c>
     </row>
@@ -1162,13 +1162,13 @@
         <v>8.800000000000001</v>
       </c>
       <c r="J4" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="K4" t="n">
         <v>6.2</v>
       </c>
       <c r="L4" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M4" t="n">
         <v>1.03</v>
@@ -1195,10 +1195,10 @@
         <v>1.75</v>
       </c>
       <c r="U4" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="V4" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="W4" t="n">
         <v>3.5</v>
@@ -1225,7 +1225,7 @@
         <v>32</v>
       </c>
       <c r="AE4" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AF4" t="n">
         <v>10.5</v>
@@ -1258,7 +1258,7 @@
         <v>85</v>
       </c>
       <c r="AP4" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AQ4" t="n">
         <v>34</v>
@@ -1313,7 +1313,7 @@
       </c>
       <c r="BH4" t="inlineStr">
         <is>
-          <t>2026-02-22 15:16:02</t>
+          <t>2026-02-22 17:26:45</t>
         </is>
       </c>
     </row>
@@ -1353,7 +1353,7 @@
         <v>6.6</v>
       </c>
       <c r="I5" t="n">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J5" t="n">
         <v>5.1</v>
@@ -1362,152 +1362,152 @@
         <v>6</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>6.2</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="P5" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="Q5" t="n">
         <v>1.45</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>2.24</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>2.92</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="Z5" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AA5" t="n">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="AB5" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AE5" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AF5" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AG5" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AI5" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AK5" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AL5" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AM5" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AN5" t="n">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="AO5" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AP5" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0</v>
+        <v>2.52</v>
       </c>
       <c r="AR5" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="AS5" t="n">
-        <v>0</v>
+        <v>2.64</v>
       </c>
       <c r="AT5" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AU5" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AV5" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AW5" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="AX5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AY5" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AZ5" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="BA5" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="BB5" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="BC5" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="BD5" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="BE5" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="BF5" t="n">
-        <v>0</v>
+        <v>3.85</v>
       </c>
       <c r="BG5" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="BH5" t="inlineStr">
         <is>
-          <t>2026-02-22 15:16:02</t>
+          <t>2026-02-22 17:26:45</t>
         </is>
       </c>
     </row>
@@ -1541,167 +1541,167 @@
         <v>3.45</v>
       </c>
       <c r="G6" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="H6" t="n">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="I6" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="J6" t="n">
-        <v>3.85</v>
+        <v>3.4</v>
       </c>
       <c r="K6" t="n">
         <v>4.5</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="P6" t="n">
         <v>2.38</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="Z6" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AA6" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AB6" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AC6" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AE6" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AF6" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AG6" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AH6" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AI6" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AK6" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AL6" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AM6" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AN6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AP6" t="n">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="AR6" t="n">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="AS6" t="n">
-        <v>0</v>
+        <v>1.97</v>
       </c>
       <c r="AT6" t="n">
-        <v>0</v>
+        <v>1.94</v>
       </c>
       <c r="AU6" t="n">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="AV6" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="AW6" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="AX6" t="n">
-        <v>0</v>
+        <v>1.99</v>
       </c>
       <c r="AY6" t="n">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="AZ6" t="n">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="BA6" t="n">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="BB6" t="n">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="BC6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BD6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BE6" t="n">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="BF6" t="n">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="BG6" t="n">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="BH6" t="inlineStr">
         <is>
-          <t>2026-02-22 15:16:02</t>
+          <t>2026-02-22 17:26:45</t>
         </is>
       </c>
     </row>
@@ -1735,167 +1735,167 @@
         <v>9.199999999999999</v>
       </c>
       <c r="G7" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="H7" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="I7" t="n">
         <v>1.42</v>
       </c>
       <c r="J7" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="K7" t="n">
-        <v>6.8</v>
+        <v>6.2</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="P7" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.54</v>
+        <v>1.61</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>1.89</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>3.35</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="Z7" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AA7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AC7" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="AF7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG7" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AH7" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AI7" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO7" t="n">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="AP7" t="n">
-        <v>0</v>
+        <v>2.44</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="AR7" t="n">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="AS7" t="n">
-        <v>0</v>
+        <v>2.44</v>
       </c>
       <c r="AT7" t="n">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="AU7" t="n">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="AV7" t="n">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="AW7" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AX7" t="n">
-        <v>0</v>
+        <v>2.44</v>
       </c>
       <c r="AY7" t="n">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="AZ7" t="n">
-        <v>0</v>
+        <v>2.26</v>
       </c>
       <c r="BA7" t="n">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="BB7" t="n">
-        <v>0</v>
+        <v>2.44</v>
       </c>
       <c r="BC7" t="n">
-        <v>0</v>
+        <v>2.44</v>
       </c>
       <c r="BD7" t="n">
-        <v>0</v>
+        <v>2.44</v>
       </c>
       <c r="BE7" t="n">
-        <v>0</v>
+        <v>2.44</v>
       </c>
       <c r="BF7" t="n">
-        <v>0</v>
+        <v>2.44</v>
       </c>
       <c r="BG7" t="n">
-        <v>0</v>
+        <v>3.85</v>
       </c>
       <c r="BH7" t="inlineStr">
         <is>
-          <t>2026-02-22 15:16:02</t>
+          <t>2026-02-22 17:26:45</t>
         </is>
       </c>
     </row>
@@ -1926,170 +1926,170 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.73</v>
+        <v>1.89</v>
       </c>
       <c r="G8" t="n">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="H8" t="n">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="I8" t="n">
-        <v>5.7</v>
+        <v>4.4</v>
       </c>
       <c r="J8" t="n">
-        <v>3.5</v>
+        <v>3.85</v>
       </c>
       <c r="K8" t="n">
-        <v>5.5</v>
+        <v>4.4</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="P8" t="n">
-        <v>2.04</v>
+        <v>2.26</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>2.46</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z8" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AA8" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF8" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AG8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH8" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AI8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AK8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AP8" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="AR8" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AS8" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AT8" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="AU8" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="AV8" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="AW8" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="AX8" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="AY8" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="AZ8" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="BA8" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="BB8" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="BC8" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="BD8" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="BE8" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="BF8" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="BG8" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="BH8" t="inlineStr">
         <is>
-          <t>2026-02-22 15:16:02</t>
+          <t>2026-02-22 17:26:45</t>
         </is>
       </c>
     </row>
@@ -2126,28 +2126,28 @@
         <v>9.199999999999999</v>
       </c>
       <c r="H9" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="I9" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="J9" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="K9" t="n">
         <v>6.2</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="P9" t="n">
         <v>2.28</v>
@@ -2156,134 +2156,134 @@
         <v>1.61</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>2.74</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AP9" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AQ9" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AR9" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AS9" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AT9" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AU9" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AV9" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AW9" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AX9" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AY9" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AZ9" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BA9" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BB9" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BC9" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BD9" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BE9" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BF9" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BG9" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BH9" t="inlineStr">
         <is>
-          <t>2026-02-22 15:16:02</t>
+          <t>2026-02-22 17:26:45</t>
         </is>
       </c>
     </row>
@@ -2305,179 +2305,179 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>ZED FC</t>
+          <t>Ghazl El Mahallah</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Zamalek</t>
+          <t>Pyramids</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3.7</v>
+        <v>8.6</v>
       </c>
       <c r="G10" t="n">
-        <v>4.5</v>
+        <v>10.5</v>
       </c>
       <c r="H10" t="n">
-        <v>2.38</v>
+        <v>1.47</v>
       </c>
       <c r="I10" t="n">
-        <v>2.68</v>
+        <v>1.56</v>
       </c>
       <c r="J10" t="n">
-        <v>2.82</v>
+        <v>4</v>
       </c>
       <c r="K10" t="n">
-        <v>3.25</v>
+        <v>4.6</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>2.96</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="P10" t="n">
-        <v>1.43</v>
+        <v>1.66</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.68</v>
+        <v>2.3</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>2.24</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>2.78</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="Z10" t="n">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="AA10" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AB10" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AC10" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AF10" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AG10" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AH10" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AI10" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0</v>
+        <v>560</v>
       </c>
       <c r="AK10" t="n">
-        <v>0</v>
+        <v>280</v>
       </c>
       <c r="AL10" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="AM10" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="AN10" t="n">
-        <v>0</v>
+        <v>580</v>
       </c>
       <c r="AO10" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AP10" t="n">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0</v>
+        <v>5.2</v>
       </c>
       <c r="AR10" t="n">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="AS10" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AT10" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AU10" t="n">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AV10" t="n">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="AW10" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AX10" t="n">
-        <v>0</v>
+        <v>4.9</v>
       </c>
       <c r="AY10" t="n">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="AZ10" t="n">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="BA10" t="n">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="BB10" t="n">
-        <v>0</v>
+        <v>5.1</v>
       </c>
       <c r="BC10" t="n">
-        <v>0</v>
+        <v>5.1</v>
       </c>
       <c r="BD10" t="n">
-        <v>0</v>
+        <v>5.1</v>
       </c>
       <c r="BE10" t="n">
-        <v>0</v>
+        <v>5.1</v>
       </c>
       <c r="BF10" t="n">
-        <v>0</v>
+        <v>5.1</v>
       </c>
       <c r="BG10" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="BH10" t="inlineStr">
         <is>
-          <t>2026-02-22 15:16:02</t>
+          <t>2026-02-22 17:26:45</t>
         </is>
       </c>
     </row>
@@ -2511,13 +2511,13 @@
         <v>1.54</v>
       </c>
       <c r="G11" t="n">
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
       <c r="H11" t="n">
-        <v>5</v>
+        <v>7.4</v>
       </c>
       <c r="I11" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="J11" t="n">
         <v>3.7</v>
@@ -2526,16 +2526,16 @@
         <v>4.3</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>2.66</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="P11" t="n">
         <v>1.59</v>
@@ -2544,134 +2544,134 @@
         <v>2.5</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Z11" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB11" t="n">
-        <v>0</v>
+        <v>5.6</v>
       </c>
       <c r="AC11" t="n">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="AD11" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AE11" t="n">
-        <v>0</v>
+        <v>260</v>
       </c>
       <c r="AF11" t="n">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="AG11" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AH11" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AI11" t="n">
-        <v>0</v>
+        <v>260</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AK11" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AL11" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AM11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN11" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AO11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AP11" t="n">
-        <v>0</v>
+        <v>5.9</v>
       </c>
       <c r="AQ11" t="n">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="AR11" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="AS11" t="n">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="AT11" t="n">
-        <v>0</v>
+        <v>5.1</v>
       </c>
       <c r="AU11" t="n">
-        <v>0</v>
+        <v>5.3</v>
       </c>
       <c r="AV11" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="AW11" t="n">
-        <v>0</v>
+        <v>1.99</v>
       </c>
       <c r="AX11" t="n">
-        <v>0</v>
+        <v>6.4</v>
       </c>
       <c r="AY11" t="n">
-        <v>0</v>
+        <v>5.7</v>
       </c>
       <c r="AZ11" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="BA11" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="BB11" t="n">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="BC11" t="n">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="BD11" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="BE11" t="n">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="BF11" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="BG11" t="n">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="BH11" t="inlineStr">
         <is>
-          <t>2026-02-22 15:16:02</t>
+          <t>2026-02-22 17:26:45</t>
         </is>
       </c>
     </row>
@@ -2693,186 +2693,186 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Ghazl El Mahallah</t>
+          <t>ZED FC</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Pyramids</t>
+          <t>Zamalek</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>8.6</v>
+        <v>3.7</v>
       </c>
       <c r="G12" t="n">
-        <v>10.5</v>
+        <v>4.5</v>
       </c>
       <c r="H12" t="n">
-        <v>1.47</v>
+        <v>2.38</v>
       </c>
       <c r="I12" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="J12" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="K12" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N12" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="S12" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="T12" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U12" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="V12" t="n">
         <v>1.6</v>
       </c>
-      <c r="J12" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="K12" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="Q12" t="n">
+      <c r="W12" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X12" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>20</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>55</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>19</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>38</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>26</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>40</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>100</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>100</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AR12" t="n">
         <v>2.3</v>
       </c>
-      <c r="R12" t="n">
-        <v>0</v>
-      </c>
-      <c r="S12" t="n">
-        <v>0</v>
-      </c>
-      <c r="T12" t="n">
-        <v>0</v>
-      </c>
-      <c r="U12" t="n">
-        <v>0</v>
-      </c>
-      <c r="V12" t="n">
-        <v>0</v>
-      </c>
-      <c r="W12" t="n">
-        <v>0</v>
-      </c>
-      <c r="X12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR12" t="n">
-        <v>0</v>
-      </c>
       <c r="AS12" t="n">
-        <v>0</v>
+        <v>2.48</v>
       </c>
       <c r="AT12" t="n">
-        <v>0</v>
+        <v>2.18</v>
       </c>
       <c r="AU12" t="n">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="AV12" t="n">
-        <v>0</v>
+        <v>2.28</v>
       </c>
       <c r="AW12" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="AX12" t="n">
-        <v>0</v>
+        <v>2.42</v>
       </c>
       <c r="AY12" t="n">
-        <v>0</v>
+        <v>2.36</v>
       </c>
       <c r="AZ12" t="n">
-        <v>0</v>
+        <v>2.44</v>
       </c>
       <c r="BA12" t="n">
-        <v>0</v>
+        <v>2.52</v>
       </c>
       <c r="BB12" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="BC12" t="n">
-        <v>0</v>
+        <v>2.52</v>
       </c>
       <c r="BD12" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="BE12" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="BF12" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="BG12" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="BH12" t="inlineStr">
         <is>
-          <t>2026-02-22 15:16:02</t>
+          <t>2026-02-22 17:26:45</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Scottish League Two</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2882,191 +2882,191 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>CA Platense</t>
+          <t>Stirling</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Defensa y Justicia</t>
+          <t>Annan</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.24</v>
+        <v>2.8</v>
       </c>
       <c r="G13" t="n">
-        <v>2.4</v>
+        <v>4.5</v>
       </c>
       <c r="H13" t="n">
-        <v>3.95</v>
+        <v>1.86</v>
       </c>
       <c r="I13" t="n">
-        <v>4.8</v>
+        <v>1000</v>
       </c>
       <c r="J13" t="n">
-        <v>2.9</v>
+        <v>2.86</v>
       </c>
       <c r="K13" t="n">
-        <v>3.15</v>
+        <v>1000</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="P13" t="n">
-        <v>1.44</v>
+        <v>2.04</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.96</v>
+        <v>1.62</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA13" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AB13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AP13" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="AQ13" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="AR13" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="AS13" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AT13" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="AU13" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="AV13" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="AW13" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="AX13" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="AY13" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="AZ13" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="BA13" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="BB13" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="BC13" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="BD13" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="BE13" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="BF13" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="BG13" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="BH13" t="inlineStr">
         <is>
-          <t>2026-02-22 15:16:02</t>
+          <t>2026-02-22 17:26:45</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>Scottish League Two</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -3076,191 +3076,191 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>Elgin City FC</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Qarabag FK</t>
+          <t>Edinburgh City</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.15</v>
+        <v>1.65</v>
       </c>
       <c r="G14" t="n">
-        <v>1.17</v>
+        <v>1.93</v>
       </c>
       <c r="H14" t="n">
-        <v>21</v>
+        <v>3.35</v>
       </c>
       <c r="I14" t="n">
-        <v>23</v>
+        <v>5.9</v>
       </c>
       <c r="J14" t="n">
-        <v>10.5</v>
+        <v>3.15</v>
       </c>
       <c r="K14" t="n">
-        <v>12</v>
+        <v>5.3</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M14" t="n">
         <v>1.01</v>
       </c>
       <c r="N14" t="n">
-        <v>9.800000000000001</v>
+        <v>2.2</v>
       </c>
       <c r="O14" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="P14" t="n">
-        <v>4</v>
+        <v>1.42</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.31</v>
+        <v>1.54</v>
       </c>
       <c r="R14" t="n">
-        <v>2.22</v>
+        <v>1.42</v>
       </c>
       <c r="S14" t="n">
-        <v>1.78</v>
+        <v>1.54</v>
       </c>
       <c r="T14" t="n">
-        <v>2.04</v>
+        <v>1.01</v>
       </c>
       <c r="U14" t="n">
-        <v>1.9</v>
+        <v>1.01</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="X14" t="n">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="Y14" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="Z14" t="n">
-        <v>280</v>
+        <v>55</v>
       </c>
       <c r="AA14" t="n">
         <v>1000</v>
       </c>
       <c r="AB14" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AC14" t="n">
-        <v>29</v>
+        <v>14.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AE14" t="n">
-        <v>360</v>
+        <v>75</v>
       </c>
       <c r="AF14" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AG14" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AH14" t="n">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="AI14" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AJ14" t="n">
-        <v>9.4</v>
+        <v>26</v>
       </c>
       <c r="AK14" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="AL14" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="AM14" t="n">
         <v>1000</v>
       </c>
       <c r="AN14" t="n">
-        <v>2.54</v>
+        <v>1000</v>
       </c>
       <c r="AO14" t="n">
-        <v>360</v>
+        <v>1000</v>
       </c>
       <c r="AP14" t="n">
-        <v>46</v>
+        <v>1.56</v>
       </c>
       <c r="AQ14" t="n">
-        <v>34</v>
+        <v>1.64</v>
       </c>
       <c r="AR14" t="n">
-        <v>48</v>
+        <v>1.59</v>
       </c>
       <c r="AS14" t="n">
-        <v>23</v>
+        <v>1.64</v>
       </c>
       <c r="AT14" t="n">
-        <v>14</v>
+        <v>1.48</v>
       </c>
       <c r="AU14" t="n">
-        <v>19</v>
+        <v>1.47</v>
       </c>
       <c r="AV14" t="n">
-        <v>32</v>
+        <v>1.55</v>
       </c>
       <c r="AW14" t="n">
-        <v>100</v>
+        <v>1.6</v>
       </c>
       <c r="AX14" t="n">
-        <v>9.199999999999999</v>
+        <v>1.64</v>
       </c>
       <c r="AY14" t="n">
-        <v>12.5</v>
+        <v>1.64</v>
       </c>
       <c r="AZ14" t="n">
-        <v>25</v>
+        <v>1.54</v>
       </c>
       <c r="BA14" t="n">
-        <v>46</v>
+        <v>1.6</v>
       </c>
       <c r="BB14" t="n">
-        <v>8.6</v>
+        <v>1.54</v>
       </c>
       <c r="BC14" t="n">
-        <v>12</v>
+        <v>1.53</v>
       </c>
       <c r="BD14" t="n">
-        <v>30</v>
+        <v>1.57</v>
       </c>
       <c r="BE14" t="n">
-        <v>46</v>
+        <v>1.64</v>
       </c>
       <c r="BF14" t="n">
-        <v>2.44</v>
+        <v>1.64</v>
       </c>
       <c r="BG14" t="n">
-        <v>95</v>
+        <v>1.64</v>
       </c>
       <c r="BH14" t="inlineStr">
         <is>
-          <t>2026-02-22 15:16:02</t>
+          <t>2026-02-22 17:26:45</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>Scottish League Two</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3270,191 +3270,191 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Leverkusen</t>
+          <t>Dumbarton</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Olympiakos</t>
+          <t>Clyde</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.82</v>
+        <v>3</v>
       </c>
       <c r="G15" t="n">
-        <v>1.84</v>
+        <v>3.9</v>
       </c>
       <c r="H15" t="n">
-        <v>4.5</v>
+        <v>2.18</v>
       </c>
       <c r="I15" t="n">
-        <v>4.8</v>
+        <v>2.2</v>
       </c>
       <c r="J15" t="n">
-        <v>4.2</v>
+        <v>3.45</v>
       </c>
       <c r="K15" t="n">
-        <v>4.3</v>
+        <v>4.7</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M15" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="N15" t="n">
-        <v>4.9</v>
+        <v>2.02</v>
       </c>
       <c r="O15" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="P15" t="n">
-        <v>2.3</v>
+        <v>1.9</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.72</v>
+        <v>1.65</v>
       </c>
       <c r="R15" t="n">
-        <v>1.52</v>
+        <v>1.08</v>
       </c>
       <c r="S15" t="n">
-        <v>2.78</v>
+        <v>1.65</v>
       </c>
       <c r="T15" t="n">
-        <v>1.71</v>
+        <v>1.01</v>
       </c>
       <c r="U15" t="n">
-        <v>2.32</v>
+        <v>1.01</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="X15" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="Y15" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="Z15" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AA15" t="n">
-        <v>95</v>
+        <v>38</v>
       </c>
       <c r="AB15" t="n">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="AC15" t="n">
-        <v>9.4</v>
+        <v>12.5</v>
       </c>
       <c r="AD15" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AE15" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AF15" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AG15" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AH15" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AI15" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AJ15" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AK15" t="n">
-        <v>17.5</v>
+        <v>60</v>
       </c>
       <c r="AL15" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AM15" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AN15" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="AO15" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AP15" t="n">
-        <v>18.5</v>
+        <v>1.35</v>
       </c>
       <c r="AQ15" t="n">
-        <v>17</v>
+        <v>1.31</v>
       </c>
       <c r="AR15" t="n">
-        <v>28</v>
+        <v>1.42</v>
       </c>
       <c r="AS15" t="n">
-        <v>38</v>
+        <v>1.37</v>
       </c>
       <c r="AT15" t="n">
-        <v>10</v>
+        <v>1.34</v>
       </c>
       <c r="AU15" t="n">
-        <v>8.6</v>
+        <v>1.28</v>
       </c>
       <c r="AV15" t="n">
-        <v>16</v>
+        <v>1.42</v>
       </c>
       <c r="AW15" t="n">
-        <v>44</v>
+        <v>1.42</v>
       </c>
       <c r="AX15" t="n">
-        <v>11</v>
+        <v>1.42</v>
       </c>
       <c r="AY15" t="n">
-        <v>9.6</v>
+        <v>1.42</v>
       </c>
       <c r="AZ15" t="n">
-        <v>15.5</v>
+        <v>1.42</v>
       </c>
       <c r="BA15" t="n">
-        <v>44</v>
+        <v>1.38</v>
       </c>
       <c r="BB15" t="n">
-        <v>17.5</v>
+        <v>1.42</v>
       </c>
       <c r="BC15" t="n">
-        <v>15.5</v>
+        <v>1.39</v>
       </c>
       <c r="BD15" t="n">
-        <v>25</v>
+        <v>1.42</v>
       </c>
       <c r="BE15" t="n">
-        <v>50</v>
+        <v>1.4</v>
       </c>
       <c r="BF15" t="n">
-        <v>8.4</v>
+        <v>1.42</v>
       </c>
       <c r="BG15" t="n">
-        <v>40</v>
+        <v>1.42</v>
       </c>
       <c r="BH15" t="inlineStr">
         <is>
-          <t>2026-02-22 15:16:02</t>
+          <t>2026-02-22 17:26:45</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>Scottish Championship</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3464,191 +3464,191 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Inter</t>
+          <t>Dunfermline</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Bodo Glimt</t>
+          <t>Partick</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.27</v>
+        <v>3.15</v>
       </c>
       <c r="G16" t="n">
-        <v>1.28</v>
+        <v>4.1</v>
       </c>
       <c r="H16" t="n">
-        <v>12</v>
+        <v>2.3</v>
       </c>
       <c r="I16" t="n">
-        <v>12.5</v>
+        <v>2.82</v>
       </c>
       <c r="J16" t="n">
-        <v>7.4</v>
+        <v>3.05</v>
       </c>
       <c r="K16" t="n">
-        <v>7.8</v>
+        <v>4.1</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="M16" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N16" t="n">
-        <v>9.199999999999999</v>
+        <v>3</v>
       </c>
       <c r="O16" t="n">
-        <v>1.1</v>
+        <v>1.39</v>
       </c>
       <c r="P16" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="S16" t="n">
         <v>3.7</v>
       </c>
-      <c r="Q16" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="R16" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="S16" t="n">
-        <v>1.86</v>
-      </c>
       <c r="T16" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="U16" t="n">
-        <v>2.32</v>
+        <v>1.8</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="X16" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>44</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>36</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>28</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>18</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>80</v>
+      </c>
+      <c r="AK16" t="n">
         <v>55</v>
       </c>
-      <c r="Y16" t="n">
+      <c r="AL16" t="n">
+        <v>75</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>150</v>
+      </c>
+      <c r="AN16" t="n">
         <v>65</v>
       </c>
-      <c r="Z16" t="n">
-        <v>150</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>440</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>17</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>19</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>44</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>170</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>28</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>12</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>28</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>3.15</v>
-      </c>
       <c r="AO16" t="n">
-        <v>140</v>
+        <v>34</v>
       </c>
       <c r="AP16" t="n">
-        <v>28</v>
+        <v>3.2</v>
       </c>
       <c r="AQ16" t="n">
-        <v>29</v>
+        <v>3.05</v>
       </c>
       <c r="AR16" t="n">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="AS16" t="n">
-        <v>17</v>
+        <v>3.85</v>
       </c>
       <c r="AT16" t="n">
-        <v>14</v>
+        <v>3.25</v>
       </c>
       <c r="AU16" t="n">
-        <v>16.5</v>
+        <v>2.88</v>
       </c>
       <c r="AV16" t="n">
-        <v>36</v>
+        <v>3.3</v>
       </c>
       <c r="AW16" t="n">
-        <v>42</v>
+        <v>3.8</v>
       </c>
       <c r="AX16" t="n">
-        <v>10</v>
+        <v>3.7</v>
       </c>
       <c r="AY16" t="n">
-        <v>10.5</v>
+        <v>3.45</v>
       </c>
       <c r="AZ16" t="n">
-        <v>22</v>
+        <v>3.6</v>
       </c>
       <c r="BA16" t="n">
-        <v>36</v>
+        <v>3.95</v>
       </c>
       <c r="BB16" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="BC16" t="n">
-        <v>11</v>
+        <v>3.95</v>
       </c>
       <c r="BD16" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="BE16" t="n">
-        <v>55</v>
+        <v>4.1</v>
       </c>
       <c r="BF16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BG16" t="n">
-        <v>40</v>
+        <v>3.75</v>
       </c>
       <c r="BH16" t="inlineStr">
         <is>
-          <t>2026-02-22 15:16:02</t>
+          <t>2026-02-22 17:26:45</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Colombian Primera B</t>
+          <t>Scottish Championship</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -3658,191 +3658,191 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>17:30:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Envigado</t>
+          <t>Queens Park</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Quindio</t>
+          <t>St Johnstone</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.04</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="G17" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="H17" t="n">
-        <v>1.04</v>
+        <v>1.39</v>
       </c>
       <c r="I17" t="n">
-        <v>1000</v>
+        <v>1.49</v>
       </c>
       <c r="J17" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="K17" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="L17" t="n">
         <v>1.01</v>
       </c>
-      <c r="K17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="P17" t="n">
-        <v>1.24</v>
+        <v>2.02</v>
       </c>
       <c r="Q17" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="S17" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="T17" t="n">
         <v>1.01</v>
       </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AP17" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AQ17" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AR17" t="n">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="AS17" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AT17" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AU17" t="n">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="AV17" t="n">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="AW17" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AX17" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AY17" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AZ17" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="BA17" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="BB17" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="BC17" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="BD17" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="BE17" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="BF17" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BG17" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BH17" t="inlineStr">
         <is>
-          <t>2026-02-22 15:16:02</t>
+          <t>2026-02-22 17:26:45</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3852,191 +3852,191 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>19:15:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>San Lorenzo</t>
+          <t>Tamworth FC</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Instituto</t>
+          <t>Altrincham</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.44</v>
+        <v>2.3</v>
       </c>
       <c r="G18" t="n">
-        <v>980</v>
+        <v>2.54</v>
       </c>
       <c r="H18" t="n">
-        <v>1.05</v>
+        <v>2.8</v>
       </c>
       <c r="I18" t="n">
-        <v>1000</v>
+        <v>3.6</v>
       </c>
       <c r="J18" t="n">
-        <v>1.78</v>
+        <v>2.76</v>
       </c>
       <c r="K18" t="n">
-        <v>3.3</v>
+        <v>4.1</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="P18" t="n">
-        <v>1.25</v>
+        <v>2.16</v>
       </c>
       <c r="Q18" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="S18" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="T18" t="n">
         <v>1.01</v>
       </c>
-      <c r="R18" t="n">
-        <v>0</v>
-      </c>
-      <c r="S18" t="n">
-        <v>0</v>
-      </c>
-      <c r="T18" t="n">
-        <v>0</v>
-      </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="Z18" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AA18" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AB18" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AC18" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AD18" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AE18" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AF18" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AG18" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AH18" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AI18" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AJ18" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AK18" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AL18" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AM18" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AN18" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="AO18" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AP18" t="n">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="AQ18" t="n">
-        <v>0</v>
+        <v>3.55</v>
       </c>
       <c r="AR18" t="n">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="AS18" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AT18" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AU18" t="n">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="AV18" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="AW18" t="n">
-        <v>0</v>
+        <v>3.95</v>
       </c>
       <c r="AX18" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AY18" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AZ18" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="BA18" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BB18" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BC18" t="n">
-        <v>0</v>
+        <v>3.85</v>
       </c>
       <c r="BD18" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BE18" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="BF18" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="BG18" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="BH18" t="inlineStr">
         <is>
-          <t>2026-02-22 15:16:02</t>
+          <t>2026-02-22 17:26:45</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Colombian Primera B</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -4046,378 +4046,2512 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>19:30:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Union Magdalena</t>
+          <t>FC Halifax Town</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Tigres FC Zipaquira</t>
+          <t>Rochdale</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.04</v>
+        <v>4.4</v>
       </c>
       <c r="G19" t="n">
-        <v>1000</v>
+        <v>6.2</v>
       </c>
       <c r="H19" t="n">
-        <v>1.04</v>
+        <v>1.74</v>
       </c>
       <c r="I19" t="n">
-        <v>1000</v>
+        <v>1.96</v>
       </c>
       <c r="J19" t="n">
-        <v>1.01</v>
+        <v>3.3</v>
       </c>
       <c r="K19" t="n">
-        <v>1000</v>
+        <v>4.6</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="N19" t="n">
-        <v>1.25</v>
+        <v>3.45</v>
       </c>
       <c r="O19" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="P19" t="n">
-        <v>1.24</v>
+        <v>1.85</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.3</v>
+        <v>1.92</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>1.84</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="Z19" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AA19" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AB19" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AC19" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AD19" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AE19" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AF19" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AG19" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AH19" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AI19" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AJ19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK19" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AL19" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AM19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN19" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AO19" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AP19" t="n">
-        <v>0</v>
+        <v>3.95</v>
       </c>
       <c r="AQ19" t="n">
-        <v>0</v>
+        <v>6.4</v>
       </c>
       <c r="AR19" t="n">
-        <v>0</v>
+        <v>3.65</v>
       </c>
       <c r="AS19" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="AT19" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="AU19" t="n">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="AV19" t="n">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="AW19" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="AX19" t="n">
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="AY19" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="AZ19" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="BA19" t="n">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="BB19" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BC19" t="n">
-        <v>0</v>
+        <v>4.9</v>
       </c>
       <c r="BD19" t="n">
-        <v>0</v>
+        <v>4.9</v>
       </c>
       <c r="BE19" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BF19" t="n">
-        <v>0</v>
+        <v>4.9</v>
       </c>
       <c r="BG19" t="n">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="BH19" t="inlineStr">
         <is>
-          <t>2026-02-22 15:16:02</t>
+          <t>2026-02-22 17:26:45</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
+          <t>English National League</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2026-02-24</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>16:45:00</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Southend</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Boreham Wood</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="G20" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="H20" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I20" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="J20" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K20" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N20" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="P20" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="S20" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="T20" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U20" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V20" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="W20" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="X20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>38</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>85</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>20</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>50</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>44</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AX20" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AY20" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AZ20" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BA20" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BB20" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BC20" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BD20" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BE20" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BF20" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BG20" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BH20" t="inlineStr">
+        <is>
+          <t>2026-02-22 17:26:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>English National League</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2026-02-24</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>16:45:00</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Scunthorpe</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>York City</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="G21" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="I21" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="J21" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="K21" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N21" t="n">
+        <v>5</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="P21" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S21" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="T21" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U21" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="V21" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="W21" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="X21" t="n">
+        <v>34</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>18</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>28</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>27</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>22</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>42</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>32</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>85</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>46</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>46</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>70</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>32</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>150</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AU21" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AV21" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AX21" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AY21" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AZ21" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BA21" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="BB21" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC21" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BD21" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BE21" t="n">
+        <v>4</v>
+      </c>
+      <c r="BF21" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="BG21" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH21" t="inlineStr">
+        <is>
+          <t>2026-02-22 17:26:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>English National League</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2026-02-24</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>16:45:00</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Wealdstone</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Brackley Town</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="G22" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="H22" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="I22" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="J22" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K22" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N22" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="P22" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="S22" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="T22" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="U22" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V22" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="W22" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="X22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>36</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>65</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>20</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>75</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AX22" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AY22" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AZ22" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BA22" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB22" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BC22" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BD22" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BE22" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BF22" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BG22" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BH22" t="inlineStr">
+        <is>
+          <t>2026-02-22 17:26:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>English National League</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2026-02-24</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>16:45:00</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Forest Green</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Boston Utd</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+      <c r="I23" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="J23" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="K23" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N23" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P23" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S23" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="T23" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="U23" t="n">
+        <v>2</v>
+      </c>
+      <c r="V23" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="W23" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="X23" t="n">
+        <v>24</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>30</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>65</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>26</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>95</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>85</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>36</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>110</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>95</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AU23" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AV23" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AW23" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AX23" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AY23" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AZ23" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="BA23" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="BB23" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="BC23" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="BD23" t="n">
+        <v>5</v>
+      </c>
+      <c r="BE23" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BF23" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG23" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="BH23" t="inlineStr">
+        <is>
+          <t>2026-02-22 17:26:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
           <t>Argentinian Primera Division</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B24" t="inlineStr">
         <is>
           <t>2026-02-24</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>CA Platense</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Defensa y Justicia</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="G24" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H24" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="I24" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="J24" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K24" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N24" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P24" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="S24" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="T24" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U24" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="V24" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="W24" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="X24" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>140</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>110</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>140</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>40</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>42</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>90</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>310</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>48</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>170</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>21</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AU24" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AV24" t="n">
+        <v>16</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AX24" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AY24" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ24" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA24" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="BB24" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="BC24" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="BD24" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="BE24" t="n">
+        <v>6</v>
+      </c>
+      <c r="BF24" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="BG24" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="BH24" t="inlineStr">
+        <is>
+          <t>2026-02-22 17:26:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>UEFA Champions League</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2026-02-24</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Newcastle</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Qarabag FK</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="G25" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="H25" t="n">
+        <v>21</v>
+      </c>
+      <c r="I25" t="n">
+        <v>23</v>
+      </c>
+      <c r="J25" t="n">
+        <v>10</v>
+      </c>
+      <c r="K25" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="L25" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N25" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="P25" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="R25" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="S25" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="T25" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="U25" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="V25" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="W25" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="X25" t="n">
+        <v>60</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>90</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>270</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>27</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>80</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>350</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>40</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>13</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>38</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>360</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>46</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>48</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>23</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>14</v>
+      </c>
+      <c r="AU25" t="n">
+        <v>19</v>
+      </c>
+      <c r="AV25" t="n">
+        <v>32</v>
+      </c>
+      <c r="AW25" t="n">
+        <v>100</v>
+      </c>
+      <c r="AX25" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AY25" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AZ25" t="n">
+        <v>25</v>
+      </c>
+      <c r="BA25" t="n">
+        <v>46</v>
+      </c>
+      <c r="BB25" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="BC25" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD25" t="n">
+        <v>30</v>
+      </c>
+      <c r="BE25" t="n">
+        <v>46</v>
+      </c>
+      <c r="BF25" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="BG25" t="n">
+        <v>50</v>
+      </c>
+      <c r="BH25" t="inlineStr">
+        <is>
+          <t>2026-02-22 17:26:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>UEFA Champions League</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2026-02-24</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Leverkusen</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Olympiakos</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="G26" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H26" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="I26" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="J26" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="K26" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="L26" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N26" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="P26" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="R26" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="S26" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="T26" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="U26" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="V26" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="W26" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="X26" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>20</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>38</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>95</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>18</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>28</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>80</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>9</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>48</v>
+      </c>
+      <c r="AP26" t="n">
+        <v>18</v>
+      </c>
+      <c r="AQ26" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AR26" t="n">
+        <v>34</v>
+      </c>
+      <c r="AS26" t="n">
+        <v>38</v>
+      </c>
+      <c r="AT26" t="n">
+        <v>10</v>
+      </c>
+      <c r="AU26" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AV26" t="n">
+        <v>17</v>
+      </c>
+      <c r="AW26" t="n">
+        <v>46</v>
+      </c>
+      <c r="AX26" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY26" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AZ26" t="n">
+        <v>16</v>
+      </c>
+      <c r="BA26" t="n">
+        <v>46</v>
+      </c>
+      <c r="BB26" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="BC26" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="BD26" t="n">
+        <v>26</v>
+      </c>
+      <c r="BE26" t="n">
+        <v>65</v>
+      </c>
+      <c r="BF26" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="BG26" t="n">
+        <v>40</v>
+      </c>
+      <c r="BH26" t="inlineStr">
+        <is>
+          <t>2026-02-22 17:26:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>UEFA Champions League</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2026-02-24</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Inter</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Bodo Glimt</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="G27" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="H27" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="I27" t="n">
+        <v>12</v>
+      </c>
+      <c r="J27" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="K27" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="L27" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N27" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="P27" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="R27" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="S27" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="T27" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="U27" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="V27" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="W27" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="X27" t="n">
+        <v>50</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>65</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>130</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>420</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>42</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>140</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>27</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>95</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>12</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>27</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>95</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>100</v>
+      </c>
+      <c r="AP27" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ27" t="n">
+        <v>55</v>
+      </c>
+      <c r="AR27" t="n">
+        <v>40</v>
+      </c>
+      <c r="AS27" t="n">
+        <v>55</v>
+      </c>
+      <c r="AT27" t="n">
+        <v>15</v>
+      </c>
+      <c r="AU27" t="n">
+        <v>16</v>
+      </c>
+      <c r="AV27" t="n">
+        <v>38</v>
+      </c>
+      <c r="AW27" t="n">
+        <v>110</v>
+      </c>
+      <c r="AX27" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AY27" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AZ27" t="n">
+        <v>23</v>
+      </c>
+      <c r="BA27" t="n">
+        <v>85</v>
+      </c>
+      <c r="BB27" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="BC27" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD27" t="n">
+        <v>22</v>
+      </c>
+      <c r="BE27" t="n">
+        <v>80</v>
+      </c>
+      <c r="BF27" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="BG27" t="n">
+        <v>40</v>
+      </c>
+      <c r="BH27" t="inlineStr">
+        <is>
+          <t>2026-02-22 17:26:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Colombian Primera B</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>2026-02-24</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>17:30:00</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Envigado</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Quindio</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="G28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H28" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="I28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="n">
+        <v>0</v>
+      </c>
+      <c r="X28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH28" t="inlineStr">
+        <is>
+          <t>2026-02-22 17:26:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Argentinian Primera Division</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2026-02-24</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>19:15:00</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>San Lorenzo</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Instituto</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="G29" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="H29" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I29" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J29" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="K29" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0</v>
+      </c>
+      <c r="X29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH29" t="inlineStr">
+        <is>
+          <t>2026-02-22 17:26:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Colombian Primera B</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>2026-02-24</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>19:30:00</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Union Magdalena</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Tigres FC Zipaquira</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="G30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H30" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="I30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J30" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="O30" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P30" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0</v>
+      </c>
+      <c r="T30" t="n">
+        <v>0</v>
+      </c>
+      <c r="U30" t="n">
+        <v>0</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="n">
+        <v>0</v>
+      </c>
+      <c r="X30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH30" t="inlineStr">
+        <is>
+          <t>2026-02-22 17:26:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Argentinian Primera Division</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>2026-02-24</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
         <is>
           <t>19:45:00</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="D31" t="inlineStr">
         <is>
           <t>Central Cordoba (SdE)</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>Talleres</t>
         </is>
       </c>
-      <c r="F20" t="n">
+      <c r="F31" t="n">
         <v>3.3</v>
       </c>
-      <c r="G20" t="n">
+      <c r="G31" t="n">
         <v>3.55</v>
       </c>
-      <c r="H20" t="n">
+      <c r="H31" t="n">
         <v>2.64</v>
       </c>
-      <c r="I20" t="n">
+      <c r="I31" t="n">
         <v>2.68</v>
       </c>
-      <c r="J20" t="n">
+      <c r="J31" t="n">
         <v>2.88</v>
       </c>
-      <c r="K20" t="n">
+      <c r="K31" t="n">
         <v>3.05</v>
       </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
         <v>1.44</v>
       </c>
-      <c r="Q20" t="n">
+      <c r="Q31" t="n">
         <v>2.92</v>
       </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0</v>
-      </c>
-      <c r="X20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH20" t="inlineStr">
-        <is>
-          <t>2026-02-22 15:16:02</t>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="n">
+        <v>0</v>
+      </c>
+      <c r="X31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH31" t="inlineStr">
+        <is>
+          <t>2026-02-22 17:26:45</t>
         </is>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-24.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-24.xlsx
@@ -771,13 +771,13 @@
         <v>1.99</v>
       </c>
       <c r="I2" t="n">
-        <v>2.22</v>
+        <v>2.36</v>
       </c>
       <c r="J2" t="n">
-        <v>2.78</v>
+        <v>2.9</v>
       </c>
       <c r="K2" t="n">
-        <v>3.95</v>
+        <v>3.65</v>
       </c>
       <c r="L2" t="n">
         <v>1.44</v>
@@ -795,7 +795,7 @@
         <v>1.64</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="R2" t="n">
         <v>1.24</v>
@@ -804,13 +804,13 @@
         <v>3.4</v>
       </c>
       <c r="T2" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="U2" t="n">
         <v>1.84</v>
       </c>
       <c r="V2" t="n">
-        <v>1.81</v>
+        <v>1.73</v>
       </c>
       <c r="W2" t="n">
         <v>1.23</v>
@@ -870,25 +870,25 @@
         <v>26</v>
       </c>
       <c r="AP2" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="AQ2" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="AR2" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="AS2" t="n">
         <v>4.4</v>
       </c>
       <c r="AT2" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="AU2" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="AV2" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="AW2" t="n">
         <v>4.4</v>
@@ -897,10 +897,10 @@
         <v>4.5</v>
       </c>
       <c r="AY2" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="AZ2" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="BA2" t="n">
         <v>4.7</v>
@@ -925,7 +925,7 @@
       </c>
       <c r="BH2" t="inlineStr">
         <is>
-          <t>2026-02-22 17:26:45</t>
+          <t>2026-02-22 19:36:32</t>
         </is>
       </c>
     </row>
@@ -959,22 +959,22 @@
         <v>1.51</v>
       </c>
       <c r="G3" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="H3" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="I3" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="J3" t="n">
-        <v>3.55</v>
+        <v>4</v>
       </c>
       <c r="K3" t="n">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="L3" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="M3" t="n">
         <v>1.06</v>
@@ -989,7 +989,7 @@
         <v>1.93</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="R3" t="n">
         <v>1.36</v>
@@ -998,7 +998,7 @@
         <v>3.2</v>
       </c>
       <c r="T3" t="n">
-        <v>1.85</v>
+        <v>1.96</v>
       </c>
       <c r="U3" t="n">
         <v>1.85</v>
@@ -1007,13 +1007,13 @@
         <v>1.13</v>
       </c>
       <c r="W3" t="n">
-        <v>2.5</v>
+        <v>2.58</v>
       </c>
       <c r="X3" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>27</v>
+        <v>980</v>
       </c>
       <c r="Z3" t="n">
         <v>75</v>
@@ -1022,104 +1022,104 @@
         <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AD3" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="AE3" t="n">
         <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AH3" t="n">
-        <v>27</v>
+        <v>980</v>
       </c>
       <c r="AI3" t="n">
         <v>130</v>
       </c>
       <c r="AJ3" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AL3" t="n">
-        <v>46</v>
+        <v>980</v>
       </c>
       <c r="AM3" t="n">
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AO3" t="n">
         <v>1000</v>
       </c>
       <c r="AP3" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="AQ3" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="BC3" t="n">
         <v>4.6</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="AW3" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AX3" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="AY3" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="AZ3" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="BA3" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="BB3" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="BC3" t="n">
-        <v>4.3</v>
       </c>
       <c r="BD3" t="n">
         <v>5</v>
       </c>
       <c r="BE3" t="n">
-        <v>3.45</v>
+        <v>2.66</v>
       </c>
       <c r="BF3" t="n">
         <v>7</v>
       </c>
       <c r="BG3" t="n">
-        <v>3.45</v>
+        <v>2.66</v>
       </c>
       <c r="BH3" t="inlineStr">
         <is>
-          <t>2026-02-22 17:26:45</t>
+          <t>2026-02-22 19:36:32</t>
         </is>
       </c>
     </row>
@@ -1150,16 +1150,16 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="G4" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="H4" t="n">
+        <v>8</v>
+      </c>
+      <c r="I4" t="n">
         <v>8.199999999999999</v>
-      </c>
-      <c r="I4" t="n">
-        <v>8.800000000000001</v>
       </c>
       <c r="J4" t="n">
         <v>6</v>
@@ -1174,13 +1174,13 @@
         <v>1.03</v>
       </c>
       <c r="N4" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="O4" t="n">
         <v>1.16</v>
       </c>
       <c r="P4" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="Q4" t="n">
         <v>1.49</v>
@@ -1198,10 +1198,10 @@
         <v>2.24</v>
       </c>
       <c r="V4" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="W4" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="X4" t="n">
         <v>32</v>
@@ -1219,13 +1219,13 @@
         <v>12.5</v>
       </c>
       <c r="AC4" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AD4" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AE4" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AF4" t="n">
         <v>10.5</v>
@@ -1237,28 +1237,28 @@
         <v>22</v>
       </c>
       <c r="AI4" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AJ4" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK4" t="n">
         <v>12.5</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>13</v>
       </c>
       <c r="AL4" t="n">
         <v>26</v>
       </c>
       <c r="AM4" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AN4" t="n">
         <v>4.6</v>
       </c>
       <c r="AO4" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AP4" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AQ4" t="n">
         <v>34</v>
@@ -1267,7 +1267,7 @@
         <v>65</v>
       </c>
       <c r="AS4" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AT4" t="n">
         <v>11.5</v>
@@ -1279,10 +1279,10 @@
         <v>28</v>
       </c>
       <c r="AW4" t="n">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AX4" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="AY4" t="n">
         <v>9.6</v>
@@ -1294,13 +1294,13 @@
         <v>65</v>
       </c>
       <c r="BB4" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="BC4" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="BD4" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BE4" t="n">
         <v>75</v>
@@ -1309,11 +1309,11 @@
         <v>4.3</v>
       </c>
       <c r="BG4" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="BH4" t="inlineStr">
         <is>
-          <t>2026-02-22 17:26:45</t>
+          <t>2026-02-22 19:36:32</t>
         </is>
       </c>
     </row>
@@ -1353,7 +1353,7 @@
         <v>6.6</v>
       </c>
       <c r="I5" t="n">
-        <v>8.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J5" t="n">
         <v>5.1</v>
@@ -1362,7 +1362,7 @@
         <v>6</v>
       </c>
       <c r="L5" t="n">
-        <v>1.01</v>
+        <v>1.22</v>
       </c>
       <c r="M5" t="n">
         <v>1.02</v>
@@ -1371,10 +1371,10 @@
         <v>6.2</v>
       </c>
       <c r="O5" t="n">
-        <v>1.13</v>
+        <v>1.15</v>
       </c>
       <c r="P5" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="Q5" t="n">
         <v>1.45</v>
@@ -1392,10 +1392,10 @@
         <v>2.24</v>
       </c>
       <c r="V5" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="W5" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="X5" t="n">
         <v>38</v>
@@ -1446,22 +1446,22 @@
         <v>90</v>
       </c>
       <c r="AN5" t="n">
-        <v>7.8</v>
+        <v>4.9</v>
       </c>
       <c r="AO5" t="n">
         <v>80</v>
       </c>
       <c r="AP5" t="n">
-        <v>2.5</v>
+        <v>5.5</v>
       </c>
       <c r="AQ5" t="n">
-        <v>2.52</v>
+        <v>5.6</v>
       </c>
       <c r="AR5" t="n">
-        <v>2.6</v>
+        <v>5.6</v>
       </c>
       <c r="AS5" t="n">
-        <v>2.64</v>
+        <v>5.7</v>
       </c>
       <c r="AT5" t="n">
         <v>11</v>
@@ -1473,7 +1473,7 @@
         <v>20</v>
       </c>
       <c r="AW5" t="n">
-        <v>2.6</v>
+        <v>5.6</v>
       </c>
       <c r="AX5" t="n">
         <v>10</v>
@@ -1485,7 +1485,7 @@
         <v>17.5</v>
       </c>
       <c r="BA5" t="n">
-        <v>2.6</v>
+        <v>5.6</v>
       </c>
       <c r="BB5" t="n">
         <v>12</v>
@@ -1497,17 +1497,17 @@
         <v>19.5</v>
       </c>
       <c r="BE5" t="n">
-        <v>2.6</v>
+        <v>5.6</v>
       </c>
       <c r="BF5" t="n">
         <v>3.85</v>
       </c>
       <c r="BG5" t="n">
-        <v>2.6</v>
+        <v>5.5</v>
       </c>
       <c r="BH5" t="inlineStr">
         <is>
-          <t>2026-02-22 17:26:45</t>
+          <t>2026-02-22 19:36:32</t>
         </is>
       </c>
     </row>
@@ -1538,22 +1538,22 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3.45</v>
+        <v>2.94</v>
       </c>
       <c r="G6" t="n">
-        <v>4.5</v>
+        <v>4.9</v>
       </c>
       <c r="H6" t="n">
-        <v>1.95</v>
+        <v>1.81</v>
       </c>
       <c r="I6" t="n">
-        <v>2.16</v>
+        <v>2.32</v>
       </c>
       <c r="J6" t="n">
-        <v>3.4</v>
+        <v>2.6</v>
       </c>
       <c r="K6" t="n">
-        <v>4.5</v>
+        <v>970</v>
       </c>
       <c r="L6" t="n">
         <v>1.01</v>
@@ -1562,22 +1562,22 @@
         <v>1.04</v>
       </c>
       <c r="N6" t="n">
-        <v>2.38</v>
+        <v>4.4</v>
       </c>
       <c r="O6" t="n">
         <v>1.17</v>
       </c>
       <c r="P6" t="n">
-        <v>2.38</v>
+        <v>2.18</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.58</v>
+        <v>1.5</v>
       </c>
       <c r="R6" t="n">
-        <v>1.25</v>
+        <v>1.48</v>
       </c>
       <c r="S6" t="n">
-        <v>1.59</v>
+        <v>2.24</v>
       </c>
       <c r="T6" t="n">
         <v>1.01</v>
@@ -1586,10 +1586,10 @@
         <v>1.01</v>
       </c>
       <c r="V6" t="n">
-        <v>1.86</v>
+        <v>1.76</v>
       </c>
       <c r="W6" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="X6" t="n">
         <v>1000</v>
@@ -1646,62 +1646,62 @@
         <v>1000</v>
       </c>
       <c r="AP6" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="AQ6" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>20</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU6" t="n">
         <v>1.88</v>
       </c>
-      <c r="AR6" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>1.82</v>
-      </c>
       <c r="AV6" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="AW6" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AX6" t="n">
-        <v>1.99</v>
+        <v>2.04</v>
       </c>
       <c r="AY6" t="n">
-        <v>1.91</v>
+        <v>1.96</v>
       </c>
       <c r="AZ6" t="n">
-        <v>1.91</v>
+        <v>1.96</v>
       </c>
       <c r="BA6" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="BB6" t="n">
-        <v>2.04</v>
+        <v>2.1</v>
       </c>
       <c r="BC6" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="BD6" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="BE6" t="n">
-        <v>2.04</v>
+        <v>2.1</v>
       </c>
       <c r="BF6" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="BG6" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="BH6" t="inlineStr">
         <is>
-          <t>2026-02-22 17:26:45</t>
+          <t>2026-02-22 19:36:32</t>
         </is>
       </c>
     </row>
@@ -1732,22 +1732,22 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>9.199999999999999</v>
+        <v>7.4</v>
       </c>
       <c r="G7" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="H7" t="n">
-        <v>1.35</v>
+        <v>1.31</v>
       </c>
       <c r="I7" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="J7" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="K7" t="n">
-        <v>6.2</v>
+        <v>7.8</v>
       </c>
       <c r="L7" t="n">
         <v>1.01</v>
@@ -1756,146 +1756,146 @@
         <v>1.04</v>
       </c>
       <c r="N7" t="n">
-        <v>2.38</v>
+        <v>1.51</v>
       </c>
       <c r="O7" t="n">
         <v>1.18</v>
       </c>
       <c r="P7" t="n">
-        <v>2.38</v>
+        <v>1.51</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.61</v>
+        <v>1.18</v>
       </c>
       <c r="R7" t="n">
-        <v>1.48</v>
+        <v>1.21</v>
       </c>
       <c r="S7" t="n">
-        <v>1.63</v>
+        <v>2.28</v>
       </c>
       <c r="T7" t="n">
-        <v>1.93</v>
+        <v>1.66</v>
       </c>
       <c r="U7" t="n">
-        <v>1.89</v>
+        <v>1.66</v>
       </c>
       <c r="V7" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="W7" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="X7" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="Y7" t="n">
-        <v>13</v>
+        <v>10.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AA7" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AB7" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AC7" t="n">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>19.5</v>
+        <v>17</v>
       </c>
       <c r="AF7" t="n">
         <v>1000</v>
       </c>
       <c r="AG7" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AH7" t="n">
         <v>32</v>
       </c>
       <c r="AI7" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AJ7" t="n">
-        <v>1000</v>
+        <v>380</v>
       </c>
       <c r="AK7" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AL7" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AM7" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AN7" t="n">
         <v>1000</v>
       </c>
       <c r="AO7" t="n">
-        <v>6.6</v>
+        <v>6</v>
       </c>
       <c r="AP7" t="n">
-        <v>2.44</v>
+        <v>20</v>
       </c>
       <c r="AQ7" t="n">
-        <v>2.06</v>
+        <v>8.4</v>
       </c>
       <c r="AR7" t="n">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="AS7" t="n">
-        <v>2.44</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.32</v>
+        <v>4.8</v>
       </c>
       <c r="AU7" t="n">
-        <v>2.12</v>
+        <v>10.5</v>
       </c>
       <c r="AV7" t="n">
-        <v>2.08</v>
+        <v>9</v>
       </c>
       <c r="AW7" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="AX7" t="n">
-        <v>2.44</v>
+        <v>5.2</v>
       </c>
       <c r="AY7" t="n">
-        <v>2.32</v>
+        <v>4.9</v>
       </c>
       <c r="AZ7" t="n">
-        <v>2.26</v>
+        <v>20</v>
       </c>
       <c r="BA7" t="n">
-        <v>2.32</v>
+        <v>4.8</v>
       </c>
       <c r="BB7" t="n">
-        <v>2.44</v>
+        <v>5.4</v>
       </c>
       <c r="BC7" t="n">
-        <v>2.44</v>
+        <v>5.3</v>
       </c>
       <c r="BD7" t="n">
-        <v>2.44</v>
+        <v>5.2</v>
       </c>
       <c r="BE7" t="n">
-        <v>2.44</v>
+        <v>5.3</v>
       </c>
       <c r="BF7" t="n">
-        <v>2.44</v>
+        <v>5.3</v>
       </c>
       <c r="BG7" t="n">
-        <v>3.85</v>
+        <v>4.6</v>
       </c>
       <c r="BH7" t="inlineStr">
         <is>
-          <t>2026-02-22 17:26:45</t>
+          <t>2026-02-22 19:36:32</t>
         </is>
       </c>
     </row>
@@ -1926,7 +1926,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="G8" t="n">
         <v>2</v>
@@ -1944,7 +1944,7 @@
         <v>4.4</v>
       </c>
       <c r="L8" t="n">
-        <v>1.01</v>
+        <v>1.29</v>
       </c>
       <c r="M8" t="n">
         <v>1.05</v>
@@ -1962,16 +1962,16 @@
         <v>1.67</v>
       </c>
       <c r="R8" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="S8" t="n">
-        <v>2.46</v>
+        <v>2.64</v>
       </c>
       <c r="T8" t="n">
-        <v>1.56</v>
+        <v>1.64</v>
       </c>
       <c r="U8" t="n">
-        <v>2.16</v>
+        <v>2.32</v>
       </c>
       <c r="V8" t="n">
         <v>1.3</v>
@@ -1980,116 +1980,116 @@
         <v>2</v>
       </c>
       <c r="X8" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="Y8" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="Z8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>90</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>46</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>16</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>26</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>32</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>11</v>
+      </c>
+      <c r="AO8" t="n">
         <v>44</v>
       </c>
-      <c r="AA8" t="n">
-        <v>100</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>30</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>1000</v>
-      </c>
       <c r="AP8" t="n">
-        <v>1.24</v>
+        <v>18</v>
       </c>
       <c r="AQ8" t="n">
-        <v>1.24</v>
+        <v>15.5</v>
       </c>
       <c r="AR8" t="n">
-        <v>1.2</v>
+        <v>6</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.22</v>
+        <v>6.2</v>
       </c>
       <c r="AT8" t="n">
-        <v>1.24</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AU8" t="n">
-        <v>1.24</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AV8" t="n">
-        <v>1.24</v>
+        <v>14</v>
       </c>
       <c r="AW8" t="n">
-        <v>1.24</v>
+        <v>6</v>
       </c>
       <c r="AX8" t="n">
-        <v>1.16</v>
+        <v>11.5</v>
       </c>
       <c r="AY8" t="n">
-        <v>1.24</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AZ8" t="n">
-        <v>1.17</v>
+        <v>14</v>
       </c>
       <c r="BA8" t="n">
-        <v>1.21</v>
+        <v>6</v>
       </c>
       <c r="BB8" t="n">
-        <v>1.19</v>
+        <v>19</v>
       </c>
       <c r="BC8" t="n">
-        <v>1.24</v>
+        <v>15.5</v>
       </c>
       <c r="BD8" t="n">
-        <v>1.24</v>
+        <v>20</v>
       </c>
       <c r="BE8" t="n">
-        <v>1.24</v>
+        <v>6.2</v>
       </c>
       <c r="BF8" t="n">
-        <v>1.24</v>
+        <v>8.6</v>
       </c>
       <c r="BG8" t="n">
-        <v>1.24</v>
+        <v>6</v>
       </c>
       <c r="BH8" t="inlineStr">
         <is>
-          <t>2026-02-22 17:26:45</t>
+          <t>2026-02-22 19:36:32</t>
         </is>
       </c>
     </row>
@@ -2120,22 +2120,22 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>6.6</v>
+        <v>1.04</v>
       </c>
       <c r="G9" t="n">
-        <v>9.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="H9" t="n">
-        <v>1.47</v>
+        <v>1.3</v>
       </c>
       <c r="I9" t="n">
-        <v>1.57</v>
+        <v>1.63</v>
       </c>
       <c r="J9" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="K9" t="n">
-        <v>6.2</v>
+        <v>970</v>
       </c>
       <c r="L9" t="n">
         <v>1.01</v>
@@ -2144,22 +2144,22 @@
         <v>1.04</v>
       </c>
       <c r="N9" t="n">
-        <v>2.3</v>
+        <v>4.7</v>
       </c>
       <c r="O9" t="n">
-        <v>1.18</v>
+        <v>1.21</v>
       </c>
       <c r="P9" t="n">
-        <v>2.28</v>
+        <v>2.1</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.61</v>
+        <v>1.51</v>
       </c>
       <c r="R9" t="n">
-        <v>1.21</v>
+        <v>1.52</v>
       </c>
       <c r="S9" t="n">
-        <v>1.62</v>
+        <v>2.54</v>
       </c>
       <c r="T9" t="n">
         <v>1.01</v>
@@ -2168,46 +2168,46 @@
         <v>1.01</v>
       </c>
       <c r="V9" t="n">
-        <v>2.74</v>
+        <v>2.58</v>
       </c>
       <c r="W9" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="X9" t="n">
         <v>1000</v>
       </c>
       <c r="Y9" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AA9" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AB9" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AC9" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AE9" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AF9" t="n">
         <v>1000</v>
       </c>
       <c r="AG9" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AH9" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AI9" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AJ9" t="n">
         <v>1000</v>
@@ -2225,65 +2225,65 @@
         <v>1000</v>
       </c>
       <c r="AO9" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="AP9" t="n">
-        <v>1.01</v>
+        <v>2.54</v>
       </c>
       <c r="AQ9" t="n">
-        <v>1.01</v>
+        <v>2.18</v>
       </c>
       <c r="AR9" t="n">
-        <v>1.01</v>
+        <v>2.18</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.01</v>
+        <v>2.26</v>
       </c>
       <c r="AT9" t="n">
-        <v>1.01</v>
+        <v>2.38</v>
       </c>
       <c r="AU9" t="n">
-        <v>1.01</v>
+        <v>2.2</v>
       </c>
       <c r="AV9" t="n">
-        <v>1.01</v>
+        <v>2.18</v>
       </c>
       <c r="AW9" t="n">
-        <v>1.01</v>
+        <v>2.28</v>
       </c>
       <c r="AX9" t="n">
-        <v>1.01</v>
+        <v>2.48</v>
       </c>
       <c r="AY9" t="n">
-        <v>1.01</v>
+        <v>2.38</v>
       </c>
       <c r="AZ9" t="n">
-        <v>1.01</v>
+        <v>2.34</v>
       </c>
       <c r="BA9" t="n">
-        <v>1.01</v>
+        <v>2.4</v>
       </c>
       <c r="BB9" t="n">
-        <v>1.01</v>
+        <v>2.56</v>
       </c>
       <c r="BC9" t="n">
-        <v>1.01</v>
+        <v>2.56</v>
       </c>
       <c r="BD9" t="n">
-        <v>1.01</v>
+        <v>2.56</v>
       </c>
       <c r="BE9" t="n">
-        <v>1.01</v>
+        <v>2.56</v>
       </c>
       <c r="BF9" t="n">
-        <v>1.01</v>
+        <v>2.54</v>
       </c>
       <c r="BG9" t="n">
-        <v>1.01</v>
+        <v>1.97</v>
       </c>
       <c r="BH9" t="inlineStr">
         <is>
-          <t>2026-02-22 17:26:45</t>
+          <t>2026-02-22 19:36:32</t>
         </is>
       </c>
     </row>
@@ -2314,22 +2314,22 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="G10" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="H10" t="n">
         <v>1.47</v>
       </c>
       <c r="I10" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="J10" t="n">
         <v>4</v>
       </c>
       <c r="K10" t="n">
-        <v>4.6</v>
+        <v>5</v>
       </c>
       <c r="L10" t="n">
         <v>1.42</v>
@@ -2356,13 +2356,13 @@
         <v>4.4</v>
       </c>
       <c r="T10" t="n">
-        <v>2.24</v>
+        <v>2.44</v>
       </c>
       <c r="U10" t="n">
-        <v>1.52</v>
+        <v>1.6</v>
       </c>
       <c r="V10" t="n">
-        <v>2.78</v>
+        <v>2.7</v>
       </c>
       <c r="W10" t="n">
         <v>1.1</v>
@@ -2389,37 +2389,37 @@
         <v>12.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AF10" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AG10" t="n">
-        <v>46</v>
+        <v>970</v>
       </c>
       <c r="AH10" t="n">
-        <v>42</v>
+        <v>970</v>
       </c>
       <c r="AI10" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AJ10" t="n">
-        <v>560</v>
+        <v>500</v>
       </c>
       <c r="AK10" t="n">
-        <v>280</v>
+        <v>250</v>
       </c>
       <c r="AL10" t="n">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="AM10" t="n">
-        <v>350</v>
+        <v>320</v>
       </c>
       <c r="AN10" t="n">
-        <v>580</v>
+        <v>500</v>
       </c>
       <c r="AO10" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AP10" t="n">
         <v>9.800000000000001</v>
@@ -2437,7 +2437,7 @@
         <v>17</v>
       </c>
       <c r="AU10" t="n">
-        <v>8.800000000000001</v>
+        <v>3.95</v>
       </c>
       <c r="AV10" t="n">
         <v>9.4</v>
@@ -2446,38 +2446,38 @@
         <v>17.5</v>
       </c>
       <c r="AX10" t="n">
-        <v>4.9</v>
+        <v>5.7</v>
       </c>
       <c r="AY10" t="n">
-        <v>4.6</v>
+        <v>5.2</v>
       </c>
       <c r="AZ10" t="n">
-        <v>4.6</v>
+        <v>5.2</v>
       </c>
       <c r="BA10" t="n">
-        <v>4.8</v>
+        <v>5.5</v>
       </c>
       <c r="BB10" t="n">
-        <v>5.1</v>
+        <v>6</v>
       </c>
       <c r="BC10" t="n">
-        <v>5.1</v>
+        <v>5.9</v>
       </c>
       <c r="BD10" t="n">
-        <v>5.1</v>
+        <v>5.9</v>
       </c>
       <c r="BE10" t="n">
-        <v>5.1</v>
+        <v>5.9</v>
       </c>
       <c r="BF10" t="n">
-        <v>5.1</v>
+        <v>6</v>
       </c>
       <c r="BG10" t="n">
         <v>9</v>
       </c>
       <c r="BH10" t="inlineStr">
         <is>
-          <t>2026-02-22 17:26:45</t>
+          <t>2026-02-22 19:36:32</t>
         </is>
       </c>
     </row>
@@ -2511,7 +2511,7 @@
         <v>1.54</v>
       </c>
       <c r="G11" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="H11" t="n">
         <v>7.4</v>
@@ -2523,49 +2523,49 @@
         <v>3.7</v>
       </c>
       <c r="K11" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="L11" t="n">
-        <v>1.01</v>
+        <v>1.47</v>
       </c>
       <c r="M11" t="n">
-        <v>1.09</v>
+        <v>1.11</v>
       </c>
       <c r="N11" t="n">
-        <v>2.66</v>
+        <v>2.74</v>
       </c>
       <c r="O11" t="n">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
       <c r="P11" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="R11" t="n">
         <v>1.21</v>
       </c>
       <c r="S11" t="n">
-        <v>4.6</v>
+        <v>5.1</v>
       </c>
       <c r="T11" t="n">
         <v>2.3</v>
       </c>
       <c r="U11" t="n">
-        <v>1.49</v>
+        <v>1.52</v>
       </c>
       <c r="V11" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="W11" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="X11" t="n">
         <v>11.5</v>
       </c>
       <c r="Y11" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="Z11" t="n">
         <v>100</v>
@@ -2574,104 +2574,104 @@
         <v>1000</v>
       </c>
       <c r="AB11" t="n">
-        <v>5.6</v>
+        <v>6.4</v>
       </c>
       <c r="AC11" t="n">
-        <v>9.4</v>
+        <v>11</v>
       </c>
       <c r="AD11" t="n">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="AE11" t="n">
         <v>260</v>
       </c>
       <c r="AF11" t="n">
-        <v>7.6</v>
+        <v>1000</v>
       </c>
       <c r="AG11" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AH11" t="n">
-        <v>36</v>
+        <v>970</v>
       </c>
       <c r="AI11" t="n">
         <v>260</v>
       </c>
       <c r="AJ11" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK11" t="n">
-        <v>23</v>
+        <v>970</v>
       </c>
       <c r="AL11" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AM11" t="n">
         <v>1000</v>
       </c>
       <c r="AN11" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AO11" t="n">
         <v>1000</v>
       </c>
       <c r="AP11" t="n">
-        <v>5.9</v>
+        <v>4.1</v>
       </c>
       <c r="AQ11" t="n">
-        <v>7.4</v>
+        <v>5.3</v>
       </c>
       <c r="AR11" t="n">
-        <v>1.95</v>
+        <v>6.6</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.69</v>
+        <v>3.5</v>
       </c>
       <c r="AT11" t="n">
         <v>5.1</v>
       </c>
       <c r="AU11" t="n">
-        <v>5.3</v>
+        <v>4.3</v>
       </c>
       <c r="AV11" t="n">
-        <v>4.1</v>
+        <v>6.2</v>
       </c>
       <c r="AW11" t="n">
-        <v>1.99</v>
+        <v>3.45</v>
       </c>
       <c r="AX11" t="n">
         <v>6.4</v>
       </c>
       <c r="AY11" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="BC11" t="n">
         <v>5.7</v>
       </c>
-      <c r="AZ11" t="n">
-        <v>9</v>
-      </c>
-      <c r="BA11" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="BB11" t="n">
+      <c r="BD11" t="n">
         <v>6.6</v>
       </c>
-      <c r="BC11" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="BD11" t="n">
-        <v>1.95</v>
-      </c>
       <c r="BE11" t="n">
-        <v>1.69</v>
+        <v>3.5</v>
       </c>
       <c r="BF11" t="n">
         <v>11</v>
       </c>
       <c r="BG11" t="n">
-        <v>1.69</v>
+        <v>3.5</v>
       </c>
       <c r="BH11" t="inlineStr">
         <is>
-          <t>2026-02-22 17:26:45</t>
+          <t>2026-02-22 19:36:32</t>
         </is>
       </c>
     </row>
@@ -2705,13 +2705,13 @@
         <v>3.7</v>
       </c>
       <c r="G12" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="H12" t="n">
         <v>2.38</v>
       </c>
       <c r="I12" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="J12" t="n">
         <v>2.82</v>
@@ -2723,85 +2723,85 @@
         <v>1.01</v>
       </c>
       <c r="M12" t="n">
-        <v>1.01</v>
+        <v>1.15</v>
       </c>
       <c r="N12" t="n">
-        <v>1.44</v>
+        <v>1.26</v>
       </c>
       <c r="O12" t="n">
         <v>1.62</v>
       </c>
       <c r="P12" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.98</v>
+        <v>2.66</v>
       </c>
       <c r="R12" t="n">
-        <v>1.12</v>
+        <v>1.15</v>
       </c>
       <c r="S12" t="n">
-        <v>5.1</v>
+        <v>6.2</v>
       </c>
       <c r="T12" t="n">
         <v>1.01</v>
       </c>
       <c r="U12" t="n">
-        <v>1.49</v>
+        <v>1.01</v>
       </c>
       <c r="V12" t="n">
-        <v>1.6</v>
+        <v>1.63</v>
       </c>
       <c r="W12" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="X12" t="n">
-        <v>9.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="Y12" t="n">
-        <v>9.800000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Z12" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AA12" t="n">
-        <v>55</v>
+        <v>970</v>
       </c>
       <c r="AB12" t="n">
-        <v>13.5</v>
+        <v>11.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>10</v>
+        <v>8.4</v>
       </c>
       <c r="AD12" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AE12" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AF12" t="n">
-        <v>38</v>
+        <v>970</v>
       </c>
       <c r="AG12" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AH12" t="n">
-        <v>40</v>
+        <v>970</v>
       </c>
       <c r="AI12" t="n">
         <v>100</v>
       </c>
       <c r="AJ12" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AK12" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AL12" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AM12" t="n">
-        <v>1000</v>
+        <v>310</v>
       </c>
       <c r="AN12" t="n">
         <v>1000</v>
@@ -2810,62 +2810,62 @@
         <v>1000</v>
       </c>
       <c r="AP12" t="n">
-        <v>2.02</v>
+        <v>6.4</v>
       </c>
       <c r="AQ12" t="n">
-        <v>2.04</v>
+        <v>6</v>
       </c>
       <c r="AR12" t="n">
-        <v>2.3</v>
+        <v>3.65</v>
       </c>
       <c r="AS12" t="n">
-        <v>2.48</v>
+        <v>4.2</v>
       </c>
       <c r="AT12" t="n">
-        <v>2.18</v>
+        <v>3.3</v>
       </c>
       <c r="AU12" t="n">
-        <v>2.06</v>
+        <v>6.2</v>
       </c>
       <c r="AV12" t="n">
-        <v>2.28</v>
+        <v>3.6</v>
       </c>
       <c r="AW12" t="n">
-        <v>2.6</v>
+        <v>4.2</v>
       </c>
       <c r="AX12" t="n">
-        <v>2.42</v>
+        <v>3.95</v>
       </c>
       <c r="AY12" t="n">
-        <v>2.36</v>
+        <v>3.85</v>
       </c>
       <c r="AZ12" t="n">
-        <v>2.44</v>
+        <v>4.1</v>
       </c>
       <c r="BA12" t="n">
-        <v>2.52</v>
+        <v>4.4</v>
       </c>
       <c r="BB12" t="n">
-        <v>2.6</v>
+        <v>4.4</v>
       </c>
       <c r="BC12" t="n">
-        <v>2.52</v>
+        <v>4.4</v>
       </c>
       <c r="BD12" t="n">
-        <v>2.6</v>
+        <v>4.5</v>
       </c>
       <c r="BE12" t="n">
-        <v>2.6</v>
+        <v>4.6</v>
       </c>
       <c r="BF12" t="n">
-        <v>2.6</v>
+        <v>4.5</v>
       </c>
       <c r="BG12" t="n">
-        <v>2.6</v>
+        <v>4.3</v>
       </c>
       <c r="BH12" t="inlineStr">
         <is>
-          <t>2026-02-22 17:26:45</t>
+          <t>2026-02-22 19:36:32</t>
         </is>
       </c>
     </row>
@@ -2896,170 +2896,170 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.8</v>
+        <v>2.92</v>
       </c>
       <c r="G13" t="n">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="H13" t="n">
-        <v>1.86</v>
+        <v>2.08</v>
       </c>
       <c r="I13" t="n">
-        <v>1000</v>
+        <v>2.48</v>
       </c>
       <c r="J13" t="n">
         <v>2.86</v>
       </c>
       <c r="K13" t="n">
-        <v>1000</v>
+        <v>4.6</v>
       </c>
       <c r="L13" t="n">
         <v>1.29</v>
       </c>
       <c r="M13" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N13" t="n">
-        <v>1.02</v>
+        <v>3.75</v>
       </c>
       <c r="O13" t="n">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="P13" t="n">
         <v>2.04</v>
       </c>
       <c r="Q13" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="S13" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="T13" t="n">
         <v>1.62</v>
       </c>
-      <c r="R13" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="S13" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="T13" t="n">
-        <v>1.01</v>
-      </c>
       <c r="U13" t="n">
-        <v>1.01</v>
+        <v>2.3</v>
       </c>
       <c r="V13" t="n">
-        <v>1.01</v>
+        <v>1.68</v>
       </c>
       <c r="W13" t="n">
-        <v>1.28</v>
+        <v>1.32</v>
       </c>
       <c r="X13" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="Y13" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="Z13" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AA13" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="AB13" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AC13" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AD13" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AE13" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AF13" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AG13" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AH13" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AI13" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AJ13" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AK13" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AL13" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AM13" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AN13" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AO13" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AP13" t="n">
-        <v>1.02</v>
+        <v>4.1</v>
       </c>
       <c r="AQ13" t="n">
-        <v>1.02</v>
+        <v>3.7</v>
       </c>
       <c r="AR13" t="n">
-        <v>1.02</v>
+        <v>3.95</v>
       </c>
       <c r="AS13" t="n">
-        <v>20</v>
+        <v>4.3</v>
       </c>
       <c r="AT13" t="n">
-        <v>1.02</v>
+        <v>4</v>
       </c>
       <c r="AU13" t="n">
-        <v>1.02</v>
+        <v>3.4</v>
       </c>
       <c r="AV13" t="n">
-        <v>1.02</v>
+        <v>3.65</v>
       </c>
       <c r="AW13" t="n">
-        <v>1.02</v>
+        <v>4.2</v>
       </c>
       <c r="AX13" t="n">
-        <v>1.02</v>
+        <v>4.3</v>
       </c>
       <c r="AY13" t="n">
-        <v>1.02</v>
+        <v>3.9</v>
       </c>
       <c r="AZ13" t="n">
-        <v>1.02</v>
+        <v>3.95</v>
       </c>
       <c r="BA13" t="n">
-        <v>1.02</v>
+        <v>4.4</v>
       </c>
       <c r="BB13" t="n">
-        <v>1.02</v>
+        <v>4.7</v>
       </c>
       <c r="BC13" t="n">
-        <v>1.02</v>
+        <v>4.5</v>
       </c>
       <c r="BD13" t="n">
-        <v>1.02</v>
+        <v>4.6</v>
       </c>
       <c r="BE13" t="n">
-        <v>1.02</v>
+        <v>4.7</v>
       </c>
       <c r="BF13" t="n">
-        <v>1.02</v>
+        <v>4.4</v>
       </c>
       <c r="BG13" t="n">
-        <v>1.02</v>
+        <v>3.8</v>
       </c>
       <c r="BH13" t="inlineStr">
         <is>
-          <t>2026-02-22 17:26:45</t>
+          <t>2026-02-22 19:36:32</t>
         </is>
       </c>
     </row>
@@ -3090,19 +3090,19 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="G14" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="H14" t="n">
-        <v>3.35</v>
+        <v>3.1</v>
       </c>
       <c r="I14" t="n">
         <v>5.9</v>
       </c>
       <c r="J14" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K14" t="n">
         <v>5.3</v>
@@ -3120,140 +3120,140 @@
         <v>1.2</v>
       </c>
       <c r="P14" t="n">
-        <v>1.42</v>
+        <v>1.53</v>
       </c>
       <c r="Q14" t="n">
         <v>1.54</v>
       </c>
       <c r="R14" t="n">
-        <v>1.42</v>
+        <v>1.53</v>
       </c>
       <c r="S14" t="n">
         <v>1.54</v>
       </c>
       <c r="T14" t="n">
-        <v>1.01</v>
+        <v>1.47</v>
       </c>
       <c r="U14" t="n">
-        <v>1.01</v>
+        <v>1.92</v>
       </c>
       <c r="V14" t="n">
         <v>1.2</v>
       </c>
       <c r="W14" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="X14" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="Y14" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="Z14" t="n">
+        <v>48</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>120</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>65</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>22</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>85</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AO14" t="n">
         <v>55</v>
       </c>
-      <c r="AA14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>16</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>28</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>75</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>25</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>70</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>26</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>40</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>1000</v>
-      </c>
       <c r="AP14" t="n">
-        <v>1.56</v>
+        <v>4.2</v>
       </c>
       <c r="AQ14" t="n">
-        <v>1.64</v>
+        <v>4.2</v>
       </c>
       <c r="AR14" t="n">
-        <v>1.59</v>
+        <v>4.5</v>
       </c>
       <c r="AS14" t="n">
-        <v>1.64</v>
+        <v>4.8</v>
       </c>
       <c r="AT14" t="n">
-        <v>1.48</v>
+        <v>3.65</v>
       </c>
       <c r="AU14" t="n">
-        <v>1.47</v>
+        <v>3.5</v>
       </c>
       <c r="AV14" t="n">
-        <v>1.55</v>
+        <v>4.1</v>
       </c>
       <c r="AW14" t="n">
-        <v>1.6</v>
+        <v>4.6</v>
       </c>
       <c r="AX14" t="n">
-        <v>1.64</v>
+        <v>3.7</v>
       </c>
       <c r="AY14" t="n">
-        <v>1.64</v>
+        <v>3.5</v>
       </c>
       <c r="AZ14" t="n">
-        <v>1.54</v>
+        <v>4</v>
       </c>
       <c r="BA14" t="n">
-        <v>1.6</v>
+        <v>4.6</v>
       </c>
       <c r="BB14" t="n">
-        <v>1.54</v>
+        <v>4</v>
       </c>
       <c r="BC14" t="n">
-        <v>1.53</v>
+        <v>3.95</v>
       </c>
       <c r="BD14" t="n">
-        <v>1.57</v>
+        <v>4.3</v>
       </c>
       <c r="BE14" t="n">
-        <v>1.64</v>
+        <v>4.7</v>
       </c>
       <c r="BF14" t="n">
-        <v>1.64</v>
+        <v>3.25</v>
       </c>
       <c r="BG14" t="n">
-        <v>1.64</v>
+        <v>4.6</v>
       </c>
       <c r="BH14" t="inlineStr">
         <is>
-          <t>2026-02-22 17:26:45</t>
+          <t>2026-02-22 19:36:32</t>
         </is>
       </c>
     </row>
@@ -3296,40 +3296,40 @@
         <v>2.2</v>
       </c>
       <c r="J15" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K15" t="n">
         <v>4.7</v>
       </c>
       <c r="L15" t="n">
-        <v>1.01</v>
+        <v>1.3</v>
       </c>
       <c r="M15" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N15" t="n">
-        <v>2.02</v>
+        <v>3.6</v>
       </c>
       <c r="O15" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="P15" t="n">
-        <v>1.9</v>
+        <v>1.99</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.65</v>
+        <v>1.74</v>
       </c>
       <c r="R15" t="n">
-        <v>1.08</v>
+        <v>1.41</v>
       </c>
       <c r="S15" t="n">
-        <v>1.65</v>
+        <v>2.62</v>
       </c>
       <c r="T15" t="n">
-        <v>1.01</v>
+        <v>1.64</v>
       </c>
       <c r="U15" t="n">
-        <v>1.01</v>
+        <v>2.22</v>
       </c>
       <c r="V15" t="n">
         <v>1.83</v>
@@ -3338,116 +3338,116 @@
         <v>1.34</v>
       </c>
       <c r="X15" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="Y15" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="Z15" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AA15" t="n">
         <v>38</v>
       </c>
       <c r="AB15" t="n">
-        <v>23</v>
+        <v>17.5</v>
       </c>
       <c r="AC15" t="n">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="AD15" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AE15" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AF15" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AG15" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AH15" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AI15" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AJ15" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AK15" t="n">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="AL15" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AM15" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AN15" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AO15" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AP15" t="n">
-        <v>1.35</v>
+        <v>3.6</v>
       </c>
       <c r="AQ15" t="n">
-        <v>1.31</v>
+        <v>3.3</v>
       </c>
       <c r="AR15" t="n">
-        <v>1.42</v>
+        <v>3.55</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.37</v>
+        <v>3.85</v>
       </c>
       <c r="AT15" t="n">
-        <v>1.34</v>
+        <v>3.45</v>
       </c>
       <c r="AU15" t="n">
-        <v>1.28</v>
+        <v>3.05</v>
       </c>
       <c r="AV15" t="n">
-        <v>1.42</v>
+        <v>3.3</v>
       </c>
       <c r="AW15" t="n">
-        <v>1.42</v>
+        <v>3.75</v>
       </c>
       <c r="AX15" t="n">
-        <v>1.42</v>
+        <v>3.75</v>
       </c>
       <c r="AY15" t="n">
-        <v>1.42</v>
+        <v>3.45</v>
       </c>
       <c r="AZ15" t="n">
-        <v>1.42</v>
+        <v>3.55</v>
       </c>
       <c r="BA15" t="n">
-        <v>1.38</v>
+        <v>3.9</v>
       </c>
       <c r="BB15" t="n">
-        <v>1.42</v>
+        <v>4</v>
       </c>
       <c r="BC15" t="n">
-        <v>1.39</v>
+        <v>3.9</v>
       </c>
       <c r="BD15" t="n">
-        <v>1.42</v>
+        <v>3.95</v>
       </c>
       <c r="BE15" t="n">
-        <v>1.4</v>
+        <v>4.1</v>
       </c>
       <c r="BF15" t="n">
-        <v>1.42</v>
+        <v>3.85</v>
       </c>
       <c r="BG15" t="n">
-        <v>1.42</v>
+        <v>3.55</v>
       </c>
       <c r="BH15" t="inlineStr">
         <is>
-          <t>2026-02-22 17:26:45</t>
+          <t>2026-02-22 19:36:32</t>
         </is>
       </c>
     </row>
@@ -3481,22 +3481,22 @@
         <v>3.15</v>
       </c>
       <c r="G16" t="n">
-        <v>4.1</v>
+        <v>3.75</v>
       </c>
       <c r="H16" t="n">
         <v>2.3</v>
       </c>
       <c r="I16" t="n">
-        <v>2.82</v>
+        <v>2.62</v>
       </c>
       <c r="J16" t="n">
         <v>3.05</v>
       </c>
       <c r="K16" t="n">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="L16" t="n">
-        <v>1.39</v>
+        <v>1.46</v>
       </c>
       <c r="M16" t="n">
         <v>1.08</v>
@@ -3511,58 +3511,58 @@
         <v>1.68</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.99</v>
+        <v>2.14</v>
       </c>
       <c r="R16" t="n">
         <v>1.26</v>
       </c>
       <c r="S16" t="n">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="T16" t="n">
-        <v>1.73</v>
+        <v>1.85</v>
       </c>
       <c r="U16" t="n">
-        <v>1.8</v>
+        <v>1.94</v>
       </c>
       <c r="V16" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="W16" t="n">
-        <v>1.32</v>
+        <v>1.36</v>
       </c>
       <c r="X16" t="n">
-        <v>13.5</v>
+        <v>970</v>
       </c>
       <c r="Y16" t="n">
         <v>11</v>
       </c>
       <c r="Z16" t="n">
-        <v>18.5</v>
+        <v>970</v>
       </c>
       <c r="AA16" t="n">
-        <v>44</v>
+        <v>970</v>
       </c>
       <c r="AB16" t="n">
-        <v>14</v>
+        <v>970</v>
       </c>
       <c r="AC16" t="n">
         <v>9</v>
       </c>
       <c r="AD16" t="n">
-        <v>14.5</v>
+        <v>970</v>
       </c>
       <c r="AE16" t="n">
-        <v>36</v>
+        <v>970</v>
       </c>
       <c r="AF16" t="n">
-        <v>28</v>
+        <v>970</v>
       </c>
       <c r="AG16" t="n">
-        <v>18</v>
+        <v>970</v>
       </c>
       <c r="AH16" t="n">
-        <v>24</v>
+        <v>970</v>
       </c>
       <c r="AI16" t="n">
         <v>60</v>
@@ -3583,7 +3583,7 @@
         <v>65</v>
       </c>
       <c r="AO16" t="n">
-        <v>34</v>
+        <v>970</v>
       </c>
       <c r="AP16" t="n">
         <v>3.2</v>
@@ -3641,7 +3641,7 @@
       </c>
       <c r="BH16" t="inlineStr">
         <is>
-          <t>2026-02-22 17:26:45</t>
+          <t>2026-02-22 19:36:32</t>
         </is>
       </c>
     </row>
@@ -3672,170 +3672,170 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>8.199999999999999</v>
+        <v>7.2</v>
       </c>
       <c r="G17" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="H17" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="I17" t="n">
         <v>1.49</v>
       </c>
       <c r="J17" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="K17" t="n">
-        <v>6.2</v>
+        <v>5.6</v>
       </c>
       <c r="L17" t="n">
         <v>1.01</v>
       </c>
       <c r="M17" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N17" t="n">
-        <v>2.02</v>
+        <v>4.4</v>
       </c>
       <c r="O17" t="n">
         <v>1.22</v>
       </c>
       <c r="P17" t="n">
-        <v>2.02</v>
+        <v>2.2</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.22</v>
+        <v>1.66</v>
       </c>
       <c r="R17" t="n">
-        <v>1.25</v>
+        <v>1.47</v>
       </c>
       <c r="S17" t="n">
-        <v>2.42</v>
+        <v>2.66</v>
       </c>
       <c r="T17" t="n">
-        <v>1.01</v>
+        <v>1.91</v>
       </c>
       <c r="U17" t="n">
-        <v>1.01</v>
+        <v>1.88</v>
       </c>
       <c r="V17" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="W17" t="n">
-        <v>1.09</v>
+        <v>1.11</v>
       </c>
       <c r="X17" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="Y17" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="Z17" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AA17" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AB17" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AC17" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AE17" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AF17" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AG17" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AH17" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AI17" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AJ17" t="n">
-        <v>1000</v>
+        <v>340</v>
       </c>
       <c r="AK17" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AL17" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AM17" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AN17" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AO17" t="n">
-        <v>1000</v>
+        <v>7.2</v>
       </c>
       <c r="AP17" t="n">
-        <v>16.5</v>
+        <v>4.4</v>
       </c>
       <c r="AQ17" t="n">
-        <v>7</v>
+        <v>3.6</v>
       </c>
       <c r="AR17" t="n">
-        <v>6.6</v>
+        <v>3.6</v>
       </c>
       <c r="AS17" t="n">
-        <v>9.199999999999999</v>
+        <v>3.95</v>
       </c>
       <c r="AT17" t="n">
-        <v>22</v>
+        <v>4.6</v>
       </c>
       <c r="AU17" t="n">
-        <v>9.4</v>
+        <v>3.85</v>
       </c>
       <c r="AV17" t="n">
-        <v>8.6</v>
+        <v>3.75</v>
       </c>
       <c r="AW17" t="n">
-        <v>11.5</v>
+        <v>4.1</v>
       </c>
       <c r="AX17" t="n">
-        <v>48</v>
+        <v>5.1</v>
       </c>
       <c r="AY17" t="n">
-        <v>25</v>
+        <v>4.7</v>
       </c>
       <c r="AZ17" t="n">
-        <v>21</v>
+        <v>4.5</v>
       </c>
       <c r="BA17" t="n">
-        <v>26</v>
+        <v>4.8</v>
       </c>
       <c r="BB17" t="n">
-        <v>50</v>
+        <v>5.3</v>
       </c>
       <c r="BC17" t="n">
-        <v>50</v>
+        <v>5.3</v>
       </c>
       <c r="BD17" t="n">
-        <v>50</v>
+        <v>5.2</v>
       </c>
       <c r="BE17" t="n">
-        <v>50</v>
+        <v>5.2</v>
       </c>
       <c r="BF17" t="n">
-        <v>1.01</v>
+        <v>5.3</v>
       </c>
       <c r="BG17" t="n">
-        <v>1.01</v>
+        <v>3.1</v>
       </c>
       <c r="BH17" t="inlineStr">
         <is>
-          <t>2026-02-22 17:26:45</t>
+          <t>2026-02-22 19:36:32</t>
         </is>
       </c>
     </row>
@@ -3866,19 +3866,19 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="G18" t="n">
-        <v>2.54</v>
+        <v>2.62</v>
       </c>
       <c r="H18" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="I18" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="J18" t="n">
         <v>3.6</v>
-      </c>
-      <c r="J18" t="n">
-        <v>2.76</v>
       </c>
       <c r="K18" t="n">
         <v>4.1</v>
@@ -3887,7 +3887,7 @@
         <v>1.33</v>
       </c>
       <c r="M18" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N18" t="n">
         <v>4.4</v>
@@ -3902,43 +3902,43 @@
         <v>1.72</v>
       </c>
       <c r="R18" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="S18" t="n">
-        <v>2.74</v>
+        <v>2.8</v>
       </c>
       <c r="T18" t="n">
-        <v>1.01</v>
+        <v>1.61</v>
       </c>
       <c r="U18" t="n">
-        <v>1.01</v>
+        <v>2.3</v>
       </c>
       <c r="V18" t="n">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="W18" t="n">
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
       <c r="X18" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="Y18" t="n">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="Z18" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AA18" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AB18" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="AC18" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AD18" t="n">
-        <v>16.5</v>
+        <v>14</v>
       </c>
       <c r="AE18" t="n">
         <v>38</v>
@@ -3947,13 +3947,13 @@
         <v>22</v>
       </c>
       <c r="AG18" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH18" t="n">
         <v>19</v>
       </c>
       <c r="AI18" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AJ18" t="n">
         <v>40</v>
@@ -3962,28 +3962,28 @@
         <v>30</v>
       </c>
       <c r="AL18" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AM18" t="n">
         <v>75</v>
       </c>
       <c r="AN18" t="n">
-        <v>19.5</v>
+        <v>17</v>
       </c>
       <c r="AO18" t="n">
         <v>29</v>
       </c>
       <c r="AP18" t="n">
-        <v>3.7</v>
+        <v>16</v>
       </c>
       <c r="AQ18" t="n">
-        <v>3.55</v>
+        <v>12.5</v>
       </c>
       <c r="AR18" t="n">
-        <v>3.8</v>
+        <v>19</v>
       </c>
       <c r="AS18" t="n">
-        <v>4</v>
+        <v>5.4</v>
       </c>
       <c r="AT18" t="n">
         <v>10.5</v>
@@ -3992,10 +3992,10 @@
         <v>7.6</v>
       </c>
       <c r="AV18" t="n">
-        <v>3.5</v>
+        <v>11.5</v>
       </c>
       <c r="AW18" t="n">
-        <v>3.95</v>
+        <v>5.1</v>
       </c>
       <c r="AX18" t="n">
         <v>14.5</v>
@@ -4007,19 +4007,19 @@
         <v>13</v>
       </c>
       <c r="BA18" t="n">
-        <v>4</v>
+        <v>5.1</v>
       </c>
       <c r="BB18" t="n">
-        <v>4</v>
+        <v>5.1</v>
       </c>
       <c r="BC18" t="n">
-        <v>3.85</v>
+        <v>20</v>
       </c>
       <c r="BD18" t="n">
-        <v>4</v>
+        <v>5.1</v>
       </c>
       <c r="BE18" t="n">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="BF18" t="n">
         <v>11.5</v>
@@ -4029,7 +4029,7 @@
       </c>
       <c r="BH18" t="inlineStr">
         <is>
-          <t>2026-02-22 17:26:45</t>
+          <t>2026-02-22 19:36:32</t>
         </is>
       </c>
     </row>
@@ -4072,7 +4072,7 @@
         <v>1.96</v>
       </c>
       <c r="J19" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K19" t="n">
         <v>4.6</v>
@@ -4087,7 +4087,7 @@
         <v>3.45</v>
       </c>
       <c r="O19" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="P19" t="n">
         <v>1.85</v>
@@ -4105,49 +4105,49 @@
         <v>1.84</v>
       </c>
       <c r="U19" t="n">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V19" t="n">
         <v>2.04</v>
       </c>
       <c r="W19" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="X19" t="n">
-        <v>16.5</v>
+        <v>970</v>
       </c>
       <c r="Y19" t="n">
-        <v>9.6</v>
+        <v>970</v>
       </c>
       <c r="Z19" t="n">
-        <v>12.5</v>
+        <v>970</v>
       </c>
       <c r="AA19" t="n">
-        <v>23</v>
+        <v>970</v>
       </c>
       <c r="AB19" t="n">
-        <v>20</v>
+        <v>970</v>
       </c>
       <c r="AC19" t="n">
-        <v>10</v>
+        <v>970</v>
       </c>
       <c r="AD19" t="n">
-        <v>12</v>
+        <v>970</v>
       </c>
       <c r="AE19" t="n">
-        <v>23</v>
+        <v>970</v>
       </c>
       <c r="AF19" t="n">
-        <v>46</v>
+        <v>970</v>
       </c>
       <c r="AG19" t="n">
-        <v>24</v>
+        <v>970</v>
       </c>
       <c r="AH19" t="n">
-        <v>24</v>
+        <v>970</v>
       </c>
       <c r="AI19" t="n">
-        <v>44</v>
+        <v>970</v>
       </c>
       <c r="AJ19" t="n">
         <v>1000</v>
@@ -4165,13 +4165,13 @@
         <v>100</v>
       </c>
       <c r="AO19" t="n">
-        <v>14.5</v>
+        <v>970</v>
       </c>
       <c r="AP19" t="n">
         <v>3.95</v>
       </c>
       <c r="AQ19" t="n">
-        <v>6.4</v>
+        <v>3.35</v>
       </c>
       <c r="AR19" t="n">
         <v>3.65</v>
@@ -4183,10 +4183,10 @@
         <v>4.1</v>
       </c>
       <c r="AU19" t="n">
-        <v>6.8</v>
+        <v>3.4</v>
       </c>
       <c r="AV19" t="n">
-        <v>7.8</v>
+        <v>3.6</v>
       </c>
       <c r="AW19" t="n">
         <v>4.2</v>
@@ -4223,7 +4223,7 @@
       </c>
       <c r="BH19" t="inlineStr">
         <is>
-          <t>2026-02-22 17:26:45</t>
+          <t>2026-02-22 19:36:32</t>
         </is>
       </c>
     </row>
@@ -4257,25 +4257,25 @@
         <v>2.1</v>
       </c>
       <c r="G20" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="H20" t="n">
         <v>3.25</v>
       </c>
       <c r="I20" t="n">
-        <v>3.95</v>
+        <v>3.7</v>
       </c>
       <c r="J20" t="n">
-        <v>3.35</v>
+        <v>3.7</v>
       </c>
       <c r="K20" t="n">
-        <v>4.7</v>
+        <v>4.2</v>
       </c>
       <c r="L20" t="n">
         <v>1.01</v>
       </c>
       <c r="M20" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N20" t="n">
         <v>4.5</v>
@@ -4284,64 +4284,64 @@
         <v>1.24</v>
       </c>
       <c r="P20" t="n">
-        <v>2.06</v>
+        <v>2.2</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="R20" t="n">
         <v>1.48</v>
       </c>
       <c r="S20" t="n">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="T20" t="n">
-        <v>1.01</v>
+        <v>1.62</v>
       </c>
       <c r="U20" t="n">
-        <v>1.01</v>
+        <v>2.18</v>
       </c>
       <c r="V20" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="W20" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="X20" t="n">
         <v>1000</v>
       </c>
       <c r="Y20" t="n">
-        <v>23</v>
+        <v>970</v>
       </c>
       <c r="Z20" t="n">
-        <v>38</v>
+        <v>970</v>
       </c>
       <c r="AA20" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="AB20" t="n">
-        <v>17</v>
+        <v>970</v>
       </c>
       <c r="AC20" t="n">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="AD20" t="n">
-        <v>20</v>
+        <v>970</v>
       </c>
       <c r="AE20" t="n">
-        <v>50</v>
+        <v>970</v>
       </c>
       <c r="AF20" t="n">
-        <v>21</v>
+        <v>970</v>
       </c>
       <c r="AG20" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AH20" t="n">
-        <v>22</v>
+        <v>970</v>
       </c>
       <c r="AI20" t="n">
-        <v>55</v>
+        <v>970</v>
       </c>
       <c r="AJ20" t="n">
         <v>1000</v>
@@ -4350,7 +4350,7 @@
         <v>1000</v>
       </c>
       <c r="AL20" t="n">
-        <v>44</v>
+        <v>970</v>
       </c>
       <c r="AM20" t="n">
         <v>1000</v>
@@ -4362,62 +4362,62 @@
         <v>1000</v>
       </c>
       <c r="AP20" t="n">
-        <v>1.73</v>
+        <v>5.4</v>
       </c>
       <c r="AQ20" t="n">
-        <v>1.61</v>
+        <v>5.1</v>
       </c>
       <c r="AR20" t="n">
-        <v>1.66</v>
+        <v>6</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.7</v>
+        <v>4.7</v>
       </c>
       <c r="AT20" t="n">
-        <v>1.57</v>
+        <v>4.6</v>
       </c>
       <c r="AU20" t="n">
-        <v>1.52</v>
+        <v>4.3</v>
       </c>
       <c r="AV20" t="n">
-        <v>1.59</v>
+        <v>5.1</v>
       </c>
       <c r="AW20" t="n">
-        <v>1.67</v>
+        <v>6.2</v>
       </c>
       <c r="AX20" t="n">
-        <v>1.6</v>
+        <v>5</v>
       </c>
       <c r="AY20" t="n">
-        <v>1.73</v>
+        <v>4.7</v>
       </c>
       <c r="AZ20" t="n">
-        <v>1.61</v>
+        <v>5.1</v>
       </c>
       <c r="BA20" t="n">
-        <v>1.68</v>
+        <v>4.6</v>
       </c>
       <c r="BB20" t="n">
-        <v>1.73</v>
+        <v>5.8</v>
       </c>
       <c r="BC20" t="n">
-        <v>1.73</v>
+        <v>5.7</v>
       </c>
       <c r="BD20" t="n">
-        <v>1.67</v>
+        <v>6</v>
       </c>
       <c r="BE20" t="n">
-        <v>1.73</v>
+        <v>6.6</v>
       </c>
       <c r="BF20" t="n">
-        <v>1.73</v>
+        <v>10</v>
       </c>
       <c r="BG20" t="n">
-        <v>1.73</v>
+        <v>5.9</v>
       </c>
       <c r="BH20" t="inlineStr">
         <is>
-          <t>2026-02-22 17:26:45</t>
+          <t>2026-02-22 19:36:32</t>
         </is>
       </c>
     </row>
@@ -4451,7 +4451,7 @@
         <v>3.45</v>
       </c>
       <c r="G21" t="n">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="H21" t="n">
         <v>1.85</v>
@@ -4466,19 +4466,19 @@
         <v>5.5</v>
       </c>
       <c r="L21" t="n">
-        <v>1.01</v>
+        <v>1.22</v>
       </c>
       <c r="M21" t="n">
         <v>1.03</v>
       </c>
       <c r="N21" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="O21" t="n">
         <v>1.16</v>
       </c>
       <c r="P21" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="Q21" t="n">
         <v>1.43</v>
@@ -4487,10 +4487,10 @@
         <v>1.65</v>
       </c>
       <c r="S21" t="n">
-        <v>2.06</v>
+        <v>2.22</v>
       </c>
       <c r="T21" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="U21" t="n">
         <v>2.32</v>
@@ -4499,82 +4499,82 @@
         <v>1.96</v>
       </c>
       <c r="W21" t="n">
-        <v>1.31</v>
+        <v>1.26</v>
       </c>
       <c r="X21" t="n">
-        <v>34</v>
+        <v>970</v>
       </c>
       <c r="Y21" t="n">
-        <v>18</v>
+        <v>970</v>
       </c>
       <c r="Z21" t="n">
-        <v>19</v>
+        <v>970</v>
       </c>
       <c r="AA21" t="n">
-        <v>28</v>
+        <v>970</v>
       </c>
       <c r="AB21" t="n">
-        <v>27</v>
+        <v>970</v>
       </c>
       <c r="AC21" t="n">
-        <v>13</v>
+        <v>970</v>
       </c>
       <c r="AD21" t="n">
-        <v>13.5</v>
+        <v>970</v>
       </c>
       <c r="AE21" t="n">
-        <v>22</v>
+        <v>970</v>
       </c>
       <c r="AF21" t="n">
-        <v>42</v>
+        <v>970</v>
       </c>
       <c r="AG21" t="n">
-        <v>21</v>
+        <v>970</v>
       </c>
       <c r="AH21" t="n">
-        <v>19</v>
+        <v>970</v>
       </c>
       <c r="AI21" t="n">
-        <v>32</v>
+        <v>970</v>
       </c>
       <c r="AJ21" t="n">
         <v>85</v>
       </c>
       <c r="AK21" t="n">
-        <v>46</v>
+        <v>970</v>
       </c>
       <c r="AL21" t="n">
-        <v>46</v>
+        <v>970</v>
       </c>
       <c r="AM21" t="n">
         <v>70</v>
       </c>
       <c r="AN21" t="n">
-        <v>32</v>
+        <v>970</v>
       </c>
       <c r="AO21" t="n">
-        <v>150</v>
+        <v>970</v>
       </c>
       <c r="AP21" t="n">
         <v>3.8</v>
       </c>
       <c r="AQ21" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AR21" t="n">
         <v>3.45</v>
       </c>
-      <c r="AR21" t="n">
-        <v>3.5</v>
-      </c>
       <c r="AS21" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="AT21" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="AU21" t="n">
         <v>3.2</v>
       </c>
       <c r="AV21" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="AW21" t="n">
         <v>3.55</v>
@@ -4583,10 +4583,10 @@
         <v>3.85</v>
       </c>
       <c r="AY21" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="AZ21" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="BA21" t="n">
         <v>3.75</v>
@@ -4595,10 +4595,10 @@
         <v>4</v>
       </c>
       <c r="BC21" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="BD21" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="BE21" t="n">
         <v>4</v>
@@ -4611,7 +4611,7 @@
       </c>
       <c r="BH21" t="inlineStr">
         <is>
-          <t>2026-02-22 17:26:45</t>
+          <t>2026-02-22 19:36:32</t>
         </is>
       </c>
     </row>
@@ -4642,10 +4642,10 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="G22" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="H22" t="n">
         <v>3.35</v>
@@ -4654,46 +4654,46 @@
         <v>4.3</v>
       </c>
       <c r="J22" t="n">
-        <v>3.3</v>
+        <v>3.15</v>
       </c>
       <c r="K22" t="n">
         <v>3.9</v>
       </c>
       <c r="L22" t="n">
-        <v>1.01</v>
+        <v>1.4</v>
       </c>
       <c r="M22" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N22" t="n">
-        <v>1.85</v>
+        <v>3.55</v>
       </c>
       <c r="O22" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="P22" t="n">
         <v>1.85</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="R22" t="n">
-        <v>1.09</v>
+        <v>1.33</v>
       </c>
       <c r="S22" t="n">
-        <v>2.96</v>
+        <v>3.45</v>
       </c>
       <c r="T22" t="n">
-        <v>1.56</v>
+        <v>1.77</v>
       </c>
       <c r="U22" t="n">
-        <v>1.01</v>
+        <v>2.06</v>
       </c>
       <c r="V22" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="W22" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="X22" t="n">
         <v>1000</v>
@@ -4702,43 +4702,43 @@
         <v>1000</v>
       </c>
       <c r="Z22" t="n">
-        <v>36</v>
+        <v>970</v>
       </c>
       <c r="AA22" t="n">
         <v>1000</v>
       </c>
       <c r="AB22" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AC22" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD22" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AE22" t="n">
-        <v>65</v>
+        <v>970</v>
       </c>
       <c r="AF22" t="n">
-        <v>20</v>
+        <v>970</v>
       </c>
       <c r="AG22" t="n">
-        <v>15.5</v>
+        <v>13</v>
       </c>
       <c r="AH22" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AI22" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AJ22" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AK22" t="n">
         <v>1000</v>
       </c>
       <c r="AL22" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AM22" t="n">
         <v>1000</v>
@@ -4750,62 +4750,62 @@
         <v>1000</v>
       </c>
       <c r="AP22" t="n">
-        <v>1.2</v>
+        <v>10.5</v>
       </c>
       <c r="AQ22" t="n">
-        <v>1.2</v>
+        <v>10</v>
       </c>
       <c r="AR22" t="n">
-        <v>1.16</v>
+        <v>4.3</v>
       </c>
       <c r="AS22" t="n">
-        <v>1.2</v>
+        <v>4.7</v>
       </c>
       <c r="AT22" t="n">
-        <v>1.2</v>
+        <v>3.5</v>
       </c>
       <c r="AU22" t="n">
-        <v>1.2</v>
+        <v>6.2</v>
       </c>
       <c r="AV22" t="n">
-        <v>1.2</v>
+        <v>11.5</v>
       </c>
       <c r="AW22" t="n">
-        <v>1.18</v>
+        <v>4.6</v>
       </c>
       <c r="AX22" t="n">
-        <v>1.13</v>
+        <v>11</v>
       </c>
       <c r="AY22" t="n">
-        <v>1.11</v>
+        <v>8.6</v>
       </c>
       <c r="AZ22" t="n">
-        <v>1.2</v>
+        <v>13.5</v>
       </c>
       <c r="BA22" t="n">
-        <v>1.18</v>
+        <v>4.7</v>
       </c>
       <c r="BB22" t="n">
-        <v>1.2</v>
+        <v>4.4</v>
       </c>
       <c r="BC22" t="n">
-        <v>1.2</v>
+        <v>4.3</v>
       </c>
       <c r="BD22" t="n">
-        <v>1.2</v>
+        <v>4.5</v>
       </c>
       <c r="BE22" t="n">
-        <v>1.2</v>
+        <v>4.8</v>
       </c>
       <c r="BF22" t="n">
-        <v>1.2</v>
+        <v>14</v>
       </c>
       <c r="BG22" t="n">
-        <v>1.2</v>
+        <v>4.6</v>
       </c>
       <c r="BH22" t="inlineStr">
         <is>
-          <t>2026-02-22 17:26:45</t>
+          <t>2026-02-22 19:36:32</t>
         </is>
       </c>
     </row>
@@ -4839,10 +4839,10 @@
         <v>1.61</v>
       </c>
       <c r="G23" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="H23" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="I23" t="n">
         <v>7.6</v>
@@ -4851,49 +4851,49 @@
         <v>4.1</v>
       </c>
       <c r="K23" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="L23" t="n">
-        <v>1.28</v>
+        <v>1.32</v>
       </c>
       <c r="M23" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N23" t="n">
         <v>4.2</v>
       </c>
       <c r="O23" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="P23" t="n">
         <v>2.24</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="R23" t="n">
         <v>1.5</v>
       </c>
       <c r="S23" t="n">
-        <v>2.52</v>
+        <v>2.48</v>
       </c>
       <c r="T23" t="n">
-        <v>1.66</v>
+        <v>1.74</v>
       </c>
       <c r="U23" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="V23" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="W23" t="n">
-        <v>2.48</v>
+        <v>2.44</v>
       </c>
       <c r="X23" t="n">
-        <v>24</v>
+        <v>970</v>
       </c>
       <c r="Y23" t="n">
-        <v>30</v>
+        <v>970</v>
       </c>
       <c r="Z23" t="n">
         <v>65</v>
@@ -4902,104 +4902,104 @@
         <v>1000</v>
       </c>
       <c r="AB23" t="n">
-        <v>11.5</v>
+        <v>970</v>
       </c>
       <c r="AC23" t="n">
-        <v>10.5</v>
+        <v>970</v>
       </c>
       <c r="AD23" t="n">
-        <v>26</v>
+        <v>970</v>
       </c>
       <c r="AE23" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AF23" t="n">
-        <v>12.5</v>
+        <v>970</v>
       </c>
       <c r="AG23" t="n">
-        <v>10.5</v>
+        <v>970</v>
       </c>
       <c r="AH23" t="n">
-        <v>22</v>
+        <v>970</v>
       </c>
       <c r="AI23" t="n">
         <v>85</v>
       </c>
       <c r="AJ23" t="n">
-        <v>18.5</v>
+        <v>970</v>
       </c>
       <c r="AK23" t="n">
-        <v>18.5</v>
+        <v>970</v>
       </c>
       <c r="AL23" t="n">
-        <v>36</v>
+        <v>970</v>
       </c>
       <c r="AM23" t="n">
         <v>110</v>
       </c>
       <c r="AN23" t="n">
-        <v>8.800000000000001</v>
+        <v>970</v>
       </c>
       <c r="AO23" t="n">
         <v>95</v>
       </c>
       <c r="AP23" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AU23" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AV23" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AW23" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX23" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AY23" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AZ23" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="BA23" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB23" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BC23" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BD23" t="n">
         <v>4.6</v>
       </c>
-      <c r="AQ23" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="AR23" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AS23" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="AT23" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AU23" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AV23" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="AW23" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="AX23" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AY23" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AZ23" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="BA23" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="BB23" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="BC23" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="BD23" t="n">
-        <v>5</v>
-      </c>
       <c r="BE23" t="n">
-        <v>2.44</v>
+        <v>5.1</v>
       </c>
       <c r="BF23" t="n">
         <v>6</v>
       </c>
       <c r="BG23" t="n">
-        <v>3.15</v>
+        <v>5</v>
       </c>
       <c r="BH23" t="inlineStr">
         <is>
-          <t>2026-02-22 17:26:45</t>
+          <t>2026-02-22 19:36:32</t>
         </is>
       </c>
     </row>
@@ -5030,37 +5030,37 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="G24" t="n">
         <v>2.4</v>
       </c>
       <c r="H24" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="I24" t="n">
-        <v>4.9</v>
+        <v>4.5</v>
       </c>
       <c r="J24" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="K24" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="L24" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="M24" t="n">
-        <v>1.01</v>
+        <v>1.14</v>
       </c>
       <c r="N24" t="n">
-        <v>2.24</v>
+        <v>2.36</v>
       </c>
       <c r="O24" t="n">
-        <v>1.44</v>
+        <v>1.65</v>
       </c>
       <c r="P24" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="Q24" t="n">
         <v>2.96</v>
@@ -5069,13 +5069,13 @@
         <v>1.15</v>
       </c>
       <c r="S24" t="n">
-        <v>5.6</v>
+        <v>6.2</v>
       </c>
       <c r="T24" t="n">
-        <v>2.1</v>
+        <v>2.26</v>
       </c>
       <c r="U24" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="V24" t="n">
         <v>1.28</v>
@@ -5087,10 +5087,10 @@
         <v>8.800000000000001</v>
       </c>
       <c r="Y24" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="Z24" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AA24" t="n">
         <v>140</v>
@@ -5099,22 +5099,22 @@
         <v>7.8</v>
       </c>
       <c r="AC24" t="n">
-        <v>7.6</v>
+        <v>8.6</v>
       </c>
       <c r="AD24" t="n">
         <v>21</v>
       </c>
       <c r="AE24" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AF24" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="AG24" t="n">
         <v>13.5</v>
       </c>
       <c r="AH24" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AI24" t="n">
         <v>140</v>
@@ -5123,7 +5123,7 @@
         <v>40</v>
       </c>
       <c r="AK24" t="n">
-        <v>42</v>
+        <v>970</v>
       </c>
       <c r="AL24" t="n">
         <v>90</v>
@@ -5132,7 +5132,7 @@
         <v>310</v>
       </c>
       <c r="AN24" t="n">
-        <v>48</v>
+        <v>970</v>
       </c>
       <c r="AO24" t="n">
         <v>170</v>
@@ -5144,10 +5144,10 @@
         <v>8.6</v>
       </c>
       <c r="AR24" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AS24" t="n">
-        <v>5.9</v>
+        <v>4.9</v>
       </c>
       <c r="AT24" t="n">
         <v>5.8</v>
@@ -5159,7 +5159,7 @@
         <v>16</v>
       </c>
       <c r="AW24" t="n">
-        <v>5.8</v>
+        <v>4.8</v>
       </c>
       <c r="AX24" t="n">
         <v>10.5</v>
@@ -5168,32 +5168,32 @@
         <v>11</v>
       </c>
       <c r="AZ24" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="BA24" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="BB24" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BC24" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BD24" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="BE24" t="n">
         <v>5</v>
       </c>
-      <c r="BA24" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="BB24" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="BC24" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="BD24" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="BE24" t="n">
-        <v>6</v>
-      </c>
       <c r="BF24" t="n">
-        <v>5.4</v>
+        <v>4.5</v>
       </c>
       <c r="BG24" t="n">
-        <v>5.9</v>
+        <v>4.9</v>
       </c>
       <c r="BH24" t="inlineStr">
         <is>
-          <t>2026-02-22 17:26:45</t>
+          <t>2026-02-22 19:36:32</t>
         </is>
       </c>
     </row>
@@ -5227,13 +5227,13 @@
         <v>1.16</v>
       </c>
       <c r="G25" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="H25" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="I25" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J25" t="n">
         <v>10</v>
@@ -5242,7 +5242,7 @@
         <v>11.5</v>
       </c>
       <c r="L25" t="n">
-        <v>1.16</v>
+        <v>1.18</v>
       </c>
       <c r="M25" t="n">
         <v>1.01</v>
@@ -5263,7 +5263,7 @@
         <v>2.22</v>
       </c>
       <c r="S25" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="T25" t="n">
         <v>2.04</v>
@@ -5272,34 +5272,34 @@
         <v>1.9</v>
       </c>
       <c r="V25" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="W25" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="X25" t="n">
         <v>60</v>
       </c>
       <c r="Y25" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="Z25" t="n">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="AA25" t="n">
         <v>1000</v>
       </c>
       <c r="AB25" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AC25" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AD25" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AE25" t="n">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="AF25" t="n">
         <v>10.5</v>
@@ -5314,25 +5314,25 @@
         <v>1000</v>
       </c>
       <c r="AJ25" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AK25" t="n">
         <v>13</v>
       </c>
       <c r="AL25" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AM25" t="n">
         <v>1000</v>
       </c>
       <c r="AN25" t="n">
-        <v>2.54</v>
+        <v>2.58</v>
       </c>
       <c r="AO25" t="n">
-        <v>360</v>
+        <v>330</v>
       </c>
       <c r="AP25" t="n">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="AQ25" t="n">
         <v>34</v>
@@ -5341,13 +5341,13 @@
         <v>48</v>
       </c>
       <c r="AS25" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AT25" t="n">
         <v>14</v>
       </c>
       <c r="AU25" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AV25" t="n">
         <v>32</v>
@@ -5362,13 +5362,13 @@
         <v>12.5</v>
       </c>
       <c r="AZ25" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="BA25" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="BB25" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="BC25" t="n">
         <v>12</v>
@@ -5377,17 +5377,17 @@
         <v>30</v>
       </c>
       <c r="BE25" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="BF25" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="BG25" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="BH25" t="inlineStr">
         <is>
-          <t>2026-02-22 17:26:45</t>
+          <t>2026-02-22 19:36:32</t>
         </is>
       </c>
     </row>
@@ -5424,19 +5424,19 @@
         <v>1.83</v>
       </c>
       <c r="H26" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="I26" t="n">
         <v>4.9</v>
       </c>
       <c r="J26" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="K26" t="n">
         <v>4.3</v>
       </c>
       <c r="L26" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="M26" t="n">
         <v>1.05</v>
@@ -5445,19 +5445,19 @@
         <v>4.9</v>
       </c>
       <c r="O26" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="P26" t="n">
         <v>2.3</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="R26" t="n">
         <v>1.52</v>
       </c>
       <c r="S26" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="T26" t="n">
         <v>1.71</v>
@@ -5481,7 +5481,7 @@
         <v>38</v>
       </c>
       <c r="AA26" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AB26" t="n">
         <v>11</v>
@@ -5541,7 +5541,7 @@
         <v>10</v>
       </c>
       <c r="AU26" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AV26" t="n">
         <v>17</v>
@@ -5562,7 +5562,7 @@
         <v>46</v>
       </c>
       <c r="BB26" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="BC26" t="n">
         <v>15.5</v>
@@ -5577,11 +5577,11 @@
         <v>8.4</v>
       </c>
       <c r="BG26" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="BH26" t="inlineStr">
         <is>
-          <t>2026-02-22 17:26:45</t>
+          <t>2026-02-22 19:36:32</t>
         </is>
       </c>
     </row>
@@ -5642,7 +5642,7 @@
         <v>1.1</v>
       </c>
       <c r="P27" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="Q27" t="n">
         <v>1.33</v>
@@ -5651,13 +5651,13 @@
         <v>2.12</v>
       </c>
       <c r="S27" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="T27" t="n">
         <v>1.72</v>
       </c>
       <c r="U27" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="V27" t="n">
         <v>1.09</v>
@@ -5675,13 +5675,13 @@
         <v>130</v>
       </c>
       <c r="AA27" t="n">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="AB27" t="n">
         <v>17</v>
       </c>
       <c r="AC27" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AD27" t="n">
         <v>42</v>
@@ -5696,10 +5696,10 @@
         <v>11.5</v>
       </c>
       <c r="AH27" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AI27" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AJ27" t="n">
         <v>11.5</v>
@@ -5708,10 +5708,10 @@
         <v>12</v>
       </c>
       <c r="AL27" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AM27" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AN27" t="n">
         <v>3.15</v>
@@ -5720,10 +5720,10 @@
         <v>100</v>
       </c>
       <c r="AP27" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AQ27" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AR27" t="n">
         <v>40</v>
@@ -5735,13 +5735,13 @@
         <v>15</v>
       </c>
       <c r="AU27" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AV27" t="n">
         <v>38</v>
       </c>
       <c r="AW27" t="n">
-        <v>110</v>
+        <v>42</v>
       </c>
       <c r="AX27" t="n">
         <v>10.5</v>
@@ -5753,7 +5753,7 @@
         <v>23</v>
       </c>
       <c r="BA27" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="BB27" t="n">
         <v>10.5</v>
@@ -5762,7 +5762,7 @@
         <v>11</v>
       </c>
       <c r="BD27" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BE27" t="n">
         <v>80</v>
@@ -5771,11 +5771,11 @@
         <v>3.05</v>
       </c>
       <c r="BG27" t="n">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="BH27" t="inlineStr">
         <is>
-          <t>2026-02-22 17:26:45</t>
+          <t>2026-02-22 19:36:32</t>
         </is>
       </c>
     </row>
@@ -5818,158 +5818,158 @@
         <v>1000</v>
       </c>
       <c r="J28" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="K28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L28" t="n">
         <v>1.01</v>
       </c>
-      <c r="K28" t="n">
-        <v>1000</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="P28" t="n">
         <v>1.24</v>
       </c>
       <c r="Q28" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="R28" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="S28" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="T28" t="n">
         <v>1.01</v>
       </c>
-      <c r="R28" t="n">
-        <v>0</v>
-      </c>
-      <c r="S28" t="n">
-        <v>0</v>
-      </c>
-      <c r="T28" t="n">
-        <v>0</v>
-      </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AP28" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AQ28" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AR28" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AS28" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AT28" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AU28" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AV28" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AW28" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AX28" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AY28" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AZ28" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BA28" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BB28" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BC28" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BD28" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BE28" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BF28" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BG28" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BH28" t="inlineStr">
         <is>
-          <t>2026-02-22 17:26:45</t>
+          <t>2026-02-22 19:36:32</t>
         </is>
       </c>
     </row>
@@ -6000,170 +6000,170 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.32</v>
+        <v>2.38</v>
       </c>
       <c r="G29" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="H29" t="n">
         <v>3.8</v>
       </c>
       <c r="I29" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="J29" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="K29" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="P29" t="n">
         <v>1.35</v>
       </c>
       <c r="Q29" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z29" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AA29" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AB29" t="n">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="AC29" t="n">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="AD29" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AE29" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AF29" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AG29" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AH29" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AI29" t="n">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="AJ29" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AK29" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AL29" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AM29" t="n">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="AN29" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AO29" t="n">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="AP29" t="n">
-        <v>0</v>
+        <v>5.7</v>
       </c>
       <c r="AQ29" t="n">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="AR29" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AS29" t="n">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="AT29" t="n">
-        <v>0</v>
+        <v>5.4</v>
       </c>
       <c r="AU29" t="n">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="AV29" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AW29" t="n">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="AX29" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AY29" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AZ29" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BA29" t="n">
-        <v>0</v>
+        <v>5.6</v>
       </c>
       <c r="BB29" t="n">
-        <v>0</v>
+        <v>5.1</v>
       </c>
       <c r="BC29" t="n">
-        <v>0</v>
+        <v>5.2</v>
       </c>
       <c r="BD29" t="n">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="BE29" t="n">
-        <v>0</v>
+        <v>5.7</v>
       </c>
       <c r="BF29" t="n">
-        <v>0</v>
+        <v>5.3</v>
       </c>
       <c r="BG29" t="n">
-        <v>0</v>
+        <v>5.6</v>
       </c>
       <c r="BH29" t="inlineStr">
         <is>
-          <t>2026-02-22 17:26:45</t>
+          <t>2026-02-22 19:36:32</t>
         </is>
       </c>
     </row>
@@ -6357,7 +6357,7 @@
       </c>
       <c r="BH30" t="inlineStr">
         <is>
-          <t>2026-02-22 17:26:45</t>
+          <t>2026-02-22 19:36:32</t>
         </is>
       </c>
     </row>
@@ -6388,22 +6388,22 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="G31" t="n">
-        <v>3.55</v>
+        <v>3.85</v>
       </c>
       <c r="H31" t="n">
-        <v>2.64</v>
+        <v>2.56</v>
       </c>
       <c r="I31" t="n">
         <v>2.68</v>
       </c>
       <c r="J31" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="K31" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -6418,7 +6418,7 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="Q31" t="n">
         <v>2.92</v>
@@ -6551,7 +6551,7 @@
       </c>
       <c r="BH31" t="inlineStr">
         <is>
-          <t>2026-02-22 17:26:45</t>
+          <t>2026-02-22 19:36:32</t>
         </is>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-24.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-24.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BH31"/>
+  <dimension ref="A1:BH32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -771,7 +771,7 @@
         <v>1.99</v>
       </c>
       <c r="I2" t="n">
-        <v>2.36</v>
+        <v>2.22</v>
       </c>
       <c r="J2" t="n">
         <v>2.9</v>
@@ -795,7 +795,7 @@
         <v>1.64</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="R2" t="n">
         <v>1.24</v>
@@ -810,7 +810,7 @@
         <v>1.84</v>
       </c>
       <c r="V2" t="n">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="W2" t="n">
         <v>1.23</v>
@@ -870,25 +870,25 @@
         <v>26</v>
       </c>
       <c r="AP2" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="AQ2" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="AR2" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="AS2" t="n">
         <v>4.4</v>
       </c>
       <c r="AT2" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="AU2" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="AV2" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="AW2" t="n">
         <v>4.4</v>
@@ -897,10 +897,10 @@
         <v>4.5</v>
       </c>
       <c r="AY2" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AZ2" t="n">
         <v>4.2</v>
-      </c>
-      <c r="AZ2" t="n">
-        <v>4.3</v>
       </c>
       <c r="BA2" t="n">
         <v>4.7</v>
@@ -925,7 +925,7 @@
       </c>
       <c r="BH2" t="inlineStr">
         <is>
-          <t>2026-02-22 19:36:32</t>
+          <t>2026-02-22 21:45:41</t>
         </is>
       </c>
     </row>
@@ -974,7 +974,7 @@
         <v>4.7</v>
       </c>
       <c r="L3" t="n">
-        <v>1.29</v>
+        <v>1.37</v>
       </c>
       <c r="M3" t="n">
         <v>1.06</v>
@@ -1001,7 +1001,7 @@
         <v>1.96</v>
       </c>
       <c r="U3" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="V3" t="n">
         <v>1.13</v>
@@ -1010,7 +1010,7 @@
         <v>2.58</v>
       </c>
       <c r="X3" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Y3" t="n">
         <v>980</v>
@@ -1022,10 +1022,10 @@
         <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AC3" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AD3" t="n">
         <v>980</v>
@@ -1034,10 +1034,10 @@
         <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AG3" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AH3" t="n">
         <v>980</v>
@@ -1046,10 +1046,10 @@
         <v>130</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AK3" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL3" t="n">
         <v>980</v>
@@ -1058,55 +1058,55 @@
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AO3" t="n">
         <v>1000</v>
       </c>
       <c r="AP3" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="AQ3" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="AR3" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="AS3" t="n">
         <v>2.68</v>
       </c>
       <c r="AT3" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="AU3" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="AV3" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="AW3" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="AX3" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="AY3" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="AZ3" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="BA3" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="BB3" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="BC3" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="BD3" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="BE3" t="n">
         <v>2.66</v>
@@ -1115,11 +1115,11 @@
         <v>7</v>
       </c>
       <c r="BG3" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="BH3" t="inlineStr">
         <is>
-          <t>2026-02-22 19:36:32</t>
+          <t>2026-02-22 21:45:41</t>
         </is>
       </c>
     </row>
@@ -1156,16 +1156,16 @@
         <v>1.42</v>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I4" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="J4" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="K4" t="n">
         <v>6</v>
-      </c>
-      <c r="K4" t="n">
-        <v>6.2</v>
       </c>
       <c r="L4" t="n">
         <v>1.25</v>
@@ -1198,7 +1198,7 @@
         <v>2.24</v>
       </c>
       <c r="V4" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="W4" t="n">
         <v>3.4</v>
@@ -1222,7 +1222,7 @@
         <v>13</v>
       </c>
       <c r="AD4" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AE4" t="n">
         <v>95</v>
@@ -1237,7 +1237,7 @@
         <v>22</v>
       </c>
       <c r="AI4" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AJ4" t="n">
         <v>13</v>
@@ -1279,10 +1279,10 @@
         <v>28</v>
       </c>
       <c r="AW4" t="n">
-        <v>80</v>
+        <v>36</v>
       </c>
       <c r="AX4" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AY4" t="n">
         <v>9.6</v>
@@ -1300,7 +1300,7 @@
         <v>12</v>
       </c>
       <c r="BD4" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BE4" t="n">
         <v>75</v>
@@ -1313,7 +1313,7 @@
       </c>
       <c r="BH4" t="inlineStr">
         <is>
-          <t>2026-02-22 19:36:32</t>
+          <t>2026-02-22 21:45:41</t>
         </is>
       </c>
     </row>
@@ -1344,25 +1344,25 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="G5" t="n">
-        <v>1.51</v>
+        <v>1.54</v>
       </c>
       <c r="H5" t="n">
         <v>6.6</v>
       </c>
       <c r="I5" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="J5" t="n">
         <v>5.1</v>
       </c>
       <c r="K5" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="L5" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="M5" t="n">
         <v>1.02</v>
@@ -1374,28 +1374,28 @@
         <v>1.15</v>
       </c>
       <c r="P5" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="Q5" t="n">
         <v>1.45</v>
       </c>
       <c r="R5" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="S5" t="n">
         <v>2.1</v>
       </c>
       <c r="T5" t="n">
-        <v>1.66</v>
+        <v>1.64</v>
       </c>
       <c r="U5" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="V5" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="W5" t="n">
-        <v>2.94</v>
+        <v>2.86</v>
       </c>
       <c r="X5" t="n">
         <v>38</v>
@@ -1404,22 +1404,22 @@
         <v>40</v>
       </c>
       <c r="Z5" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AA5" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="AB5" t="n">
         <v>15.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AD5" t="n">
         <v>32</v>
       </c>
       <c r="AE5" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AF5" t="n">
         <v>13.5</v>
@@ -1428,37 +1428,37 @@
         <v>12.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI5" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AJ5" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AK5" t="n">
         <v>16.5</v>
       </c>
       <c r="AL5" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AM5" t="n">
         <v>90</v>
       </c>
       <c r="AN5" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="AO5" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AP5" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AR5" t="n">
         <v>5.5</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>5.6</v>
       </c>
       <c r="AS5" t="n">
         <v>5.7</v>
@@ -1470,10 +1470,10 @@
         <v>11</v>
       </c>
       <c r="AV5" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AW5" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="AX5" t="n">
         <v>10</v>
@@ -1482,10 +1482,10 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AZ5" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="BA5" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="BB5" t="n">
         <v>12</v>
@@ -1494,20 +1494,20 @@
         <v>12</v>
       </c>
       <c r="BD5" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="BE5" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="BF5" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="BG5" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="BH5" t="inlineStr">
         <is>
-          <t>2026-02-22 19:36:32</t>
+          <t>2026-02-22 21:45:41</t>
         </is>
       </c>
     </row>
@@ -1538,25 +1538,25 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="G6" t="n">
-        <v>4.9</v>
+        <v>4.5</v>
       </c>
       <c r="H6" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="I6" t="n">
-        <v>2.32</v>
+        <v>2.22</v>
       </c>
       <c r="J6" t="n">
-        <v>2.6</v>
+        <v>1.03</v>
       </c>
       <c r="K6" t="n">
-        <v>970</v>
+        <v>950</v>
       </c>
       <c r="L6" t="n">
-        <v>1.01</v>
+        <v>1.26</v>
       </c>
       <c r="M6" t="n">
         <v>1.04</v>
@@ -1574,134 +1574,134 @@
         <v>1.5</v>
       </c>
       <c r="R6" t="n">
-        <v>1.48</v>
+        <v>1.55</v>
       </c>
       <c r="S6" t="n">
-        <v>2.24</v>
+        <v>2.46</v>
       </c>
       <c r="T6" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="U6" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="V6" t="n">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="W6" t="n">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="X6" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="Y6" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Z6" t="n">
         <v>19</v>
       </c>
-      <c r="Z6" t="n">
+      <c r="AA6" t="n">
+        <v>32</v>
+      </c>
+      <c r="AB6" t="n">
         <v>23</v>
       </c>
-      <c r="AA6" t="n">
+      <c r="AC6" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>24</v>
+      </c>
+      <c r="AF6" t="n">
         <v>36</v>
       </c>
-      <c r="AB6" t="n">
-        <v>28</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AD6" t="n">
+      <c r="AG6" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>75</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>44</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>48</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>75</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>32</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AT6" t="n">
         <v>16</v>
       </c>
-      <c r="AE6" t="n">
-        <v>29</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>44</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>23</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>40</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>95</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>55</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>55</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>90</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="AS6" t="n">
+      <c r="AU6" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>24</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA6" t="n">
         <v>20</v>
       </c>
-      <c r="AT6" t="n">
-        <v>2</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="AW6" t="n">
-        <v>2</v>
-      </c>
-      <c r="AX6" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="AY6" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="AZ6" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="BA6" t="n">
-        <v>2.02</v>
-      </c>
       <c r="BB6" t="n">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="BC6" t="n">
-        <v>2.06</v>
+        <v>3.9</v>
       </c>
       <c r="BD6" t="n">
-        <v>2.06</v>
+        <v>3.9</v>
       </c>
       <c r="BE6" t="n">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="BF6" t="n">
-        <v>2.12</v>
+        <v>18.5</v>
       </c>
       <c r="BG6" t="n">
-        <v>2.12</v>
+        <v>7.6</v>
       </c>
       <c r="BH6" t="inlineStr">
         <is>
-          <t>2026-02-22 19:36:32</t>
+          <t>2026-02-22 21:45:41</t>
         </is>
       </c>
     </row>
@@ -1732,7 +1732,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="G7" t="n">
         <v>12.5</v>
@@ -1747,10 +1747,10 @@
         <v>5.4</v>
       </c>
       <c r="K7" t="n">
-        <v>7.8</v>
+        <v>7</v>
       </c>
       <c r="L7" t="n">
-        <v>1.01</v>
+        <v>1.27</v>
       </c>
       <c r="M7" t="n">
         <v>1.04</v>
@@ -1768,10 +1768,10 @@
         <v>1.18</v>
       </c>
       <c r="R7" t="n">
-        <v>1.21</v>
+        <v>1.51</v>
       </c>
       <c r="S7" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="T7" t="n">
         <v>1.66</v>
@@ -1828,7 +1828,7 @@
         <v>170</v>
       </c>
       <c r="AL7" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AM7" t="n">
         <v>160</v>
@@ -1867,10 +1867,10 @@
         <v>5.2</v>
       </c>
       <c r="AY7" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="AZ7" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="BA7" t="n">
         <v>4.8</v>
@@ -1895,7 +1895,7 @@
       </c>
       <c r="BH7" t="inlineStr">
         <is>
-          <t>2026-02-22 19:36:32</t>
+          <t>2026-02-22 21:45:41</t>
         </is>
       </c>
     </row>
@@ -1935,7 +1935,7 @@
         <v>3.9</v>
       </c>
       <c r="I8" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="J8" t="n">
         <v>3.85</v>
@@ -1944,7 +1944,7 @@
         <v>4.4</v>
       </c>
       <c r="L8" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="M8" t="n">
         <v>1.05</v>
@@ -1965,13 +1965,13 @@
         <v>1.5</v>
       </c>
       <c r="S8" t="n">
-        <v>2.64</v>
+        <v>2.46</v>
       </c>
       <c r="T8" t="n">
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
       <c r="U8" t="n">
-        <v>2.32</v>
+        <v>2.28</v>
       </c>
       <c r="V8" t="n">
         <v>1.3</v>
@@ -2025,13 +2025,13 @@
         <v>32</v>
       </c>
       <c r="AM8" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AN8" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AO8" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AP8" t="n">
         <v>18</v>
@@ -2040,10 +2040,10 @@
         <v>15.5</v>
       </c>
       <c r="AR8" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="AS8" t="n">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="AT8" t="n">
         <v>9.800000000000001</v>
@@ -2055,7 +2055,7 @@
         <v>14</v>
       </c>
       <c r="AW8" t="n">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="AX8" t="n">
         <v>11.5</v>
@@ -2067,7 +2067,7 @@
         <v>14</v>
       </c>
       <c r="BA8" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="BB8" t="n">
         <v>19</v>
@@ -2079,7 +2079,7 @@
         <v>20</v>
       </c>
       <c r="BE8" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="BF8" t="n">
         <v>8.6</v>
@@ -2089,7 +2089,7 @@
       </c>
       <c r="BH8" t="inlineStr">
         <is>
-          <t>2026-02-22 19:36:32</t>
+          <t>2026-02-22 21:45:41</t>
         </is>
       </c>
     </row>
@@ -2120,22 +2120,22 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.04</v>
+        <v>6.6</v>
       </c>
       <c r="G9" t="n">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H9" t="n">
-        <v>1.3</v>
+        <v>1.47</v>
       </c>
       <c r="I9" t="n">
-        <v>1.63</v>
+        <v>1.57</v>
       </c>
       <c r="J9" t="n">
         <v>4.5</v>
       </c>
       <c r="K9" t="n">
-        <v>970</v>
+        <v>5.4</v>
       </c>
       <c r="L9" t="n">
         <v>1.01</v>
@@ -2150,10 +2150,10 @@
         <v>1.21</v>
       </c>
       <c r="P9" t="n">
-        <v>2.1</v>
+        <v>2.28</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.51</v>
+        <v>1.61</v>
       </c>
       <c r="R9" t="n">
         <v>1.52</v>
@@ -2162,16 +2162,16 @@
         <v>2.54</v>
       </c>
       <c r="T9" t="n">
-        <v>1.01</v>
+        <v>1.79</v>
       </c>
       <c r="U9" t="n">
-        <v>1.01</v>
+        <v>2.02</v>
       </c>
       <c r="V9" t="n">
-        <v>2.58</v>
+        <v>2.74</v>
       </c>
       <c r="W9" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="X9" t="n">
         <v>1000</v>
@@ -2243,7 +2243,7 @@
         <v>2.38</v>
       </c>
       <c r="AU9" t="n">
-        <v>2.2</v>
+        <v>9.4</v>
       </c>
       <c r="AV9" t="n">
         <v>2.18</v>
@@ -2279,11 +2279,11 @@
         <v>2.54</v>
       </c>
       <c r="BG9" t="n">
-        <v>1.97</v>
+        <v>4.4</v>
       </c>
       <c r="BH9" t="inlineStr">
         <is>
-          <t>2026-02-22 19:36:32</t>
+          <t>2026-02-22 21:45:41</t>
         </is>
       </c>
     </row>
@@ -2305,179 +2305,179 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Ghazl El Mahallah</t>
+          <t>ZED FC</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Pyramids</t>
+          <t>Zamalek</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>8.4</v>
+        <v>3.6</v>
       </c>
       <c r="G10" t="n">
-        <v>11</v>
+        <v>4.8</v>
       </c>
       <c r="H10" t="n">
-        <v>1.47</v>
+        <v>2.04</v>
       </c>
       <c r="I10" t="n">
-        <v>1.57</v>
+        <v>2.94</v>
       </c>
       <c r="J10" t="n">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="K10" t="n">
-        <v>5</v>
+        <v>3.55</v>
       </c>
       <c r="L10" t="n">
-        <v>1.42</v>
+        <v>1.55</v>
       </c>
       <c r="M10" t="n">
-        <v>1.09</v>
+        <v>1.15</v>
       </c>
       <c r="N10" t="n">
-        <v>2.96</v>
+        <v>1.34</v>
       </c>
       <c r="O10" t="n">
-        <v>1.44</v>
+        <v>1.62</v>
       </c>
       <c r="P10" t="n">
-        <v>1.66</v>
+        <v>1.33</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="R10" t="n">
-        <v>1.24</v>
+        <v>1.12</v>
       </c>
       <c r="S10" t="n">
-        <v>4.4</v>
+        <v>5.2</v>
       </c>
       <c r="T10" t="n">
-        <v>2.44</v>
+        <v>1.01</v>
       </c>
       <c r="U10" t="n">
-        <v>1.6</v>
+        <v>1.01</v>
       </c>
       <c r="V10" t="n">
-        <v>2.7</v>
+        <v>1.52</v>
       </c>
       <c r="W10" t="n">
-        <v>1.1</v>
+        <v>1.26</v>
       </c>
       <c r="X10" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="Y10" t="n">
-        <v>6.8</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z10" t="n">
-        <v>8.6</v>
+        <v>20</v>
       </c>
       <c r="AA10" t="n">
-        <v>15.5</v>
+        <v>55</v>
       </c>
       <c r="AB10" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>19</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>60</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>38</v>
+      </c>
+      <c r="AG10" t="n">
         <v>26</v>
       </c>
-      <c r="AC10" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF10" t="n">
+      <c r="AH10" t="n">
+        <v>40</v>
+      </c>
+      <c r="AI10" t="n">
         <v>100</v>
       </c>
-      <c r="AG10" t="n">
-        <v>970</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>970</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>60</v>
-      </c>
       <c r="AJ10" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="AK10" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="AL10" t="n">
-        <v>230</v>
+        <v>1000</v>
       </c>
       <c r="AM10" t="n">
-        <v>320</v>
+        <v>1000</v>
       </c>
       <c r="AN10" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="AO10" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AP10" t="n">
-        <v>9.800000000000001</v>
+        <v>2.1</v>
       </c>
       <c r="AQ10" t="n">
-        <v>5.2</v>
+        <v>1.73</v>
       </c>
       <c r="AR10" t="n">
-        <v>6.6</v>
+        <v>1.9</v>
       </c>
       <c r="AS10" t="n">
-        <v>11.5</v>
+        <v>4.3</v>
       </c>
       <c r="AT10" t="n">
-        <v>17</v>
+        <v>1.82</v>
       </c>
       <c r="AU10" t="n">
-        <v>3.95</v>
+        <v>1.74</v>
       </c>
       <c r="AV10" t="n">
-        <v>9.4</v>
+        <v>10.5</v>
       </c>
       <c r="AW10" t="n">
-        <v>17.5</v>
+        <v>2.02</v>
       </c>
       <c r="AX10" t="n">
-        <v>5.7</v>
+        <v>1.99</v>
       </c>
       <c r="AY10" t="n">
-        <v>5.2</v>
+        <v>1.94</v>
       </c>
       <c r="AZ10" t="n">
-        <v>5.2</v>
+        <v>2</v>
       </c>
       <c r="BA10" t="n">
-        <v>5.5</v>
+        <v>2.06</v>
       </c>
       <c r="BB10" t="n">
-        <v>6</v>
+        <v>2.1</v>
       </c>
       <c r="BC10" t="n">
-        <v>5.9</v>
+        <v>2.06</v>
       </c>
       <c r="BD10" t="n">
-        <v>5.9</v>
+        <v>2.1</v>
       </c>
       <c r="BE10" t="n">
-        <v>5.9</v>
+        <v>2.1</v>
       </c>
       <c r="BF10" t="n">
-        <v>6</v>
+        <v>2.1</v>
       </c>
       <c r="BG10" t="n">
-        <v>9</v>
+        <v>2.1</v>
       </c>
       <c r="BH10" t="inlineStr">
         <is>
-          <t>2026-02-22 19:36:32</t>
+          <t>2026-02-22 21:45:41</t>
         </is>
       </c>
     </row>
@@ -2499,179 +2499,179 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Ceramica Cleopatra</t>
+          <t>Ghazl El Mahallah</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Ismaily</t>
+          <t>Pyramids</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.54</v>
+        <v>8.4</v>
       </c>
       <c r="G11" t="n">
-        <v>1.61</v>
+        <v>11.5</v>
       </c>
       <c r="H11" t="n">
-        <v>7.4</v>
+        <v>1.47</v>
       </c>
       <c r="I11" t="n">
-        <v>11</v>
+        <v>1.6</v>
       </c>
       <c r="J11" t="n">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="K11" t="n">
-        <v>4.4</v>
+        <v>5</v>
       </c>
       <c r="L11" t="n">
-        <v>1.47</v>
+        <v>1.01</v>
       </c>
       <c r="M11" t="n">
-        <v>1.11</v>
+        <v>1.09</v>
       </c>
       <c r="N11" t="n">
-        <v>2.74</v>
+        <v>2.96</v>
       </c>
       <c r="O11" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="P11" t="n">
-        <v>1.58</v>
+        <v>1.66</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.48</v>
+        <v>2.24</v>
       </c>
       <c r="R11" t="n">
-        <v>1.21</v>
+        <v>1.24</v>
       </c>
       <c r="S11" t="n">
-        <v>5.1</v>
+        <v>4.5</v>
       </c>
       <c r="T11" t="n">
-        <v>2.3</v>
+        <v>2.26</v>
       </c>
       <c r="U11" t="n">
-        <v>1.52</v>
+        <v>1.6</v>
       </c>
       <c r="V11" t="n">
-        <v>1.11</v>
+        <v>2.6</v>
       </c>
       <c r="W11" t="n">
-        <v>2.62</v>
+        <v>1.1</v>
       </c>
       <c r="X11" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC11" t="n">
         <v>11.5</v>
       </c>
-      <c r="Y11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z11" t="n">
+      <c r="AD11" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF11" t="n">
         <v>100</v>
       </c>
-      <c r="AA11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>44</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>260</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>1000</v>
-      </c>
       <c r="AG11" t="n">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="AH11" t="n">
-        <v>970</v>
+        <v>36</v>
       </c>
       <c r="AI11" t="n">
-        <v>260</v>
+        <v>60</v>
       </c>
       <c r="AJ11" t="n">
-        <v>17</v>
+        <v>500</v>
       </c>
       <c r="AK11" t="n">
-        <v>970</v>
+        <v>250</v>
       </c>
       <c r="AL11" t="n">
-        <v>80</v>
+        <v>230</v>
       </c>
       <c r="AM11" t="n">
-        <v>1000</v>
+        <v>320</v>
       </c>
       <c r="AN11" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AO11" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AP11" t="n">
-        <v>4.1</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AQ11" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="AR11" t="n">
         <v>6.6</v>
       </c>
       <c r="AS11" t="n">
-        <v>3.5</v>
+        <v>11.5</v>
       </c>
       <c r="AT11" t="n">
-        <v>5.1</v>
+        <v>17</v>
       </c>
       <c r="AU11" t="n">
-        <v>4.3</v>
+        <v>3.95</v>
       </c>
       <c r="AV11" t="n">
-        <v>6.2</v>
+        <v>9.4</v>
       </c>
       <c r="AW11" t="n">
-        <v>3.45</v>
+        <v>17.5</v>
       </c>
       <c r="AX11" t="n">
-        <v>6.4</v>
+        <v>5.7</v>
       </c>
       <c r="AY11" t="n">
-        <v>9.6</v>
+        <v>5.2</v>
       </c>
       <c r="AZ11" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="BB11" t="n">
         <v>6</v>
       </c>
-      <c r="BA11" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="BB11" t="n">
-        <v>5.1</v>
-      </c>
       <c r="BC11" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="BD11" t="n">
-        <v>6.6</v>
+        <v>5.9</v>
       </c>
       <c r="BE11" t="n">
-        <v>3.5</v>
+        <v>5.9</v>
       </c>
       <c r="BF11" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="BG11" t="n">
-        <v>3.5</v>
+        <v>9</v>
       </c>
       <c r="BH11" t="inlineStr">
         <is>
-          <t>2026-02-22 19:36:32</t>
+          <t>2026-02-22 21:45:41</t>
         </is>
       </c>
     </row>
@@ -2693,186 +2693,186 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>ZED FC</t>
+          <t>Ceramica Cleopatra</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Zamalek</t>
+          <t>Ismaily</t>
         </is>
       </c>
       <c r="F12" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="H12" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="I12" t="n">
+        <v>10</v>
+      </c>
+      <c r="J12" t="n">
         <v>3.7</v>
       </c>
-      <c r="G12" t="n">
+      <c r="K12" t="n">
         <v>4.4</v>
-      </c>
-      <c r="H12" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="I12" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="J12" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="K12" t="n">
-        <v>3.25</v>
       </c>
       <c r="L12" t="n">
         <v>1.01</v>
       </c>
       <c r="M12" t="n">
-        <v>1.15</v>
+        <v>1.11</v>
       </c>
       <c r="N12" t="n">
-        <v>1.26</v>
+        <v>2.7</v>
       </c>
       <c r="O12" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="P12" t="n">
-        <v>1.25</v>
+        <v>1.58</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.66</v>
+        <v>2.48</v>
       </c>
       <c r="R12" t="n">
-        <v>1.15</v>
+        <v>1.21</v>
       </c>
       <c r="S12" t="n">
-        <v>6.2</v>
+        <v>5.1</v>
       </c>
       <c r="T12" t="n">
-        <v>1.01</v>
+        <v>2.32</v>
       </c>
       <c r="U12" t="n">
-        <v>1.01</v>
+        <v>1.56</v>
       </c>
       <c r="V12" t="n">
-        <v>1.63</v>
+        <v>1.11</v>
       </c>
       <c r="W12" t="n">
-        <v>1.31</v>
+        <v>2.62</v>
       </c>
       <c r="X12" t="n">
-        <v>8.6</v>
+        <v>11.5</v>
       </c>
       <c r="Y12" t="n">
-        <v>8.199999999999999</v>
+        <v>20</v>
       </c>
       <c r="Z12" t="n">
-        <v>17</v>
+        <v>100</v>
       </c>
       <c r="AA12" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AB12" t="n">
-        <v>11.5</v>
+        <v>6.4</v>
       </c>
       <c r="AC12" t="n">
-        <v>8.4</v>
+        <v>11</v>
       </c>
       <c r="AD12" t="n">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="AE12" t="n">
-        <v>50</v>
+        <v>260</v>
       </c>
       <c r="AF12" t="n">
         <v>970</v>
       </c>
       <c r="AG12" t="n">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="AH12" t="n">
+        <v>36</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>260</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN12" t="n">
         <v>970</v>
       </c>
-      <c r="AI12" t="n">
-        <v>100</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>120</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>90</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>130</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>310</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>1000</v>
-      </c>
       <c r="AO12" t="n">
         <v>1000</v>
       </c>
       <c r="AP12" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AX12" t="n">
         <v>6.4</v>
       </c>
-      <c r="AQ12" t="n">
+      <c r="AY12" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AZ12" t="n">
         <v>6</v>
       </c>
-      <c r="AR12" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="AS12" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="AT12" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="AU12" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="AV12" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AW12" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="AX12" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="AY12" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="AZ12" t="n">
-        <v>4.1</v>
-      </c>
       <c r="BA12" t="n">
-        <v>4.4</v>
+        <v>3.45</v>
       </c>
       <c r="BB12" t="n">
-        <v>4.4</v>
+        <v>5.1</v>
       </c>
       <c r="BC12" t="n">
-        <v>4.4</v>
+        <v>5.7</v>
       </c>
       <c r="BD12" t="n">
-        <v>4.5</v>
+        <v>6.6</v>
       </c>
       <c r="BE12" t="n">
-        <v>4.6</v>
+        <v>3.5</v>
       </c>
       <c r="BF12" t="n">
-        <v>4.5</v>
+        <v>11</v>
       </c>
       <c r="BG12" t="n">
-        <v>4.3</v>
+        <v>3.5</v>
       </c>
       <c r="BH12" t="inlineStr">
         <is>
-          <t>2026-02-22 19:36:32</t>
+          <t>2026-02-22 21:45:41</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Scottish League Two</t>
+          <t>Scottish Championship</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2887,186 +2887,186 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Stirling</t>
+          <t>Dunfermline</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Annan</t>
+          <t>Partick</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.92</v>
+        <v>3.15</v>
       </c>
       <c r="G13" t="n">
-        <v>4.1</v>
+        <v>3.85</v>
       </c>
       <c r="H13" t="n">
-        <v>2.08</v>
+        <v>2.3</v>
       </c>
       <c r="I13" t="n">
-        <v>2.48</v>
+        <v>2.68</v>
       </c>
       <c r="J13" t="n">
-        <v>2.86</v>
+        <v>3.05</v>
       </c>
       <c r="K13" t="n">
-        <v>4.6</v>
+        <v>4</v>
       </c>
       <c r="L13" t="n">
-        <v>1.29</v>
+        <v>1.46</v>
       </c>
       <c r="M13" t="n">
-        <v>1.04</v>
+        <v>1.09</v>
       </c>
       <c r="N13" t="n">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="O13" t="n">
-        <v>1.23</v>
+        <v>1.39</v>
       </c>
       <c r="P13" t="n">
-        <v>2.04</v>
+        <v>1.68</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.68</v>
+        <v>2.16</v>
       </c>
       <c r="R13" t="n">
-        <v>1.46</v>
+        <v>1.26</v>
       </c>
       <c r="S13" t="n">
-        <v>2.52</v>
+        <v>4</v>
       </c>
       <c r="T13" t="n">
-        <v>1.62</v>
+        <v>1.86</v>
       </c>
       <c r="U13" t="n">
-        <v>2.3</v>
+        <v>1.93</v>
       </c>
       <c r="V13" t="n">
-        <v>1.68</v>
+        <v>1.61</v>
       </c>
       <c r="W13" t="n">
-        <v>1.32</v>
+        <v>1.36</v>
       </c>
       <c r="X13" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="Y13" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="Z13" t="n">
+        <v>16</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>44</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>36</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>24</v>
+      </c>
+      <c r="AG13" t="n">
         <v>18</v>
       </c>
-      <c r="AA13" t="n">
-        <v>32</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>19</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>25</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>32</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>17</v>
-      </c>
       <c r="AH13" t="n">
-        <v>18.5</v>
+        <v>20</v>
       </c>
       <c r="AI13" t="n">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="AJ13" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AK13" t="n">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="AL13" t="n">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="AM13" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="AN13" t="n">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="AO13" t="n">
-        <v>15.5</v>
+        <v>29</v>
       </c>
       <c r="AP13" t="n">
-        <v>4.1</v>
+        <v>3.85</v>
       </c>
       <c r="AQ13" t="n">
         <v>3.7</v>
       </c>
       <c r="AR13" t="n">
+        <v>11</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>5</v>
+      </c>
+      <c r="AT13" t="n">
         <v>3.95</v>
       </c>
-      <c r="AS13" t="n">
+      <c r="AU13" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AY13" t="n">
         <v>4.3</v>
       </c>
-      <c r="AT13" t="n">
-        <v>4</v>
-      </c>
-      <c r="AU13" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AV13" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="AW13" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="AX13" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="AY13" t="n">
-        <v>3.9</v>
-      </c>
       <c r="AZ13" t="n">
-        <v>3.95</v>
+        <v>4.4</v>
       </c>
       <c r="BA13" t="n">
-        <v>4.4</v>
+        <v>5.1</v>
       </c>
       <c r="BB13" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="BC13" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="BD13" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="BE13" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="BF13" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="BG13" t="n">
         <v>4.7</v>
       </c>
-      <c r="BC13" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="BD13" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="BE13" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="BF13" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="BG13" t="n">
-        <v>3.8</v>
-      </c>
       <c r="BH13" t="inlineStr">
         <is>
-          <t>2026-02-22 19:36:32</t>
+          <t>2026-02-22 21:45:41</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Scottish League Two</t>
+          <t>Scottish Premiership</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -3081,179 +3081,179 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Elgin City FC</t>
+          <t>Dundee Utd</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Edinburgh City</t>
+          <t>Aberdeen</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.67</v>
+        <v>1.35</v>
       </c>
       <c r="G14" t="n">
-        <v>1.9</v>
+        <v>2.74</v>
       </c>
       <c r="H14" t="n">
-        <v>3.1</v>
+        <v>2.98</v>
       </c>
       <c r="I14" t="n">
-        <v>5.9</v>
+        <v>4</v>
       </c>
       <c r="J14" t="n">
-        <v>3.2</v>
+        <v>2.58</v>
       </c>
       <c r="K14" t="n">
-        <v>5.3</v>
+        <v>110</v>
       </c>
       <c r="L14" t="n">
-        <v>1.01</v>
+        <v>1.38</v>
       </c>
       <c r="M14" t="n">
         <v>1.01</v>
       </c>
       <c r="N14" t="n">
-        <v>2.2</v>
+        <v>1.31</v>
       </c>
       <c r="O14" t="n">
-        <v>1.2</v>
+        <v>1.29</v>
       </c>
       <c r="P14" t="n">
-        <v>1.53</v>
+        <v>1.31</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.54</v>
+        <v>1.29</v>
       </c>
       <c r="R14" t="n">
-        <v>1.53</v>
+        <v>1.31</v>
       </c>
       <c r="S14" t="n">
-        <v>1.54</v>
+        <v>2.92</v>
       </c>
       <c r="T14" t="n">
-        <v>1.47</v>
+        <v>1.51</v>
       </c>
       <c r="U14" t="n">
-        <v>1.92</v>
+        <v>1.82</v>
       </c>
       <c r="V14" t="n">
-        <v>1.2</v>
+        <v>1.33</v>
       </c>
       <c r="W14" t="n">
-        <v>2.1</v>
+        <v>1.57</v>
       </c>
       <c r="X14" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>46</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>18</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>36</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>44</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>10</v>
+      </c>
+      <c r="AW14" t="n">
         <v>27</v>
       </c>
-      <c r="Y14" t="n">
-        <v>26</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>48</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>120</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>23</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>65</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>65</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>22</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>85</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>55</v>
-      </c>
-      <c r="AP14" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="AR14" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AS14" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="AT14" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="AU14" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AV14" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="AW14" t="n">
-        <v>4.6</v>
-      </c>
       <c r="AX14" t="n">
-        <v>3.7</v>
+        <v>2.52</v>
       </c>
       <c r="AY14" t="n">
-        <v>3.5</v>
+        <v>2.4</v>
       </c>
       <c r="AZ14" t="n">
-        <v>4</v>
+        <v>2.62</v>
       </c>
       <c r="BA14" t="n">
-        <v>4.6</v>
+        <v>32</v>
       </c>
       <c r="BB14" t="n">
-        <v>4</v>
+        <v>2.72</v>
       </c>
       <c r="BC14" t="n">
-        <v>3.95</v>
+        <v>2.7</v>
       </c>
       <c r="BD14" t="n">
-        <v>4.3</v>
+        <v>2.76</v>
       </c>
       <c r="BE14" t="n">
-        <v>4.7</v>
+        <v>2.94</v>
       </c>
       <c r="BF14" t="n">
-        <v>3.25</v>
+        <v>2.94</v>
       </c>
       <c r="BG14" t="n">
-        <v>4.6</v>
+        <v>2.94</v>
       </c>
       <c r="BH14" t="inlineStr">
         <is>
-          <t>2026-02-22 19:36:32</t>
+          <t>2026-02-22 21:45:41</t>
         </is>
       </c>
     </row>
@@ -3275,186 +3275,186 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Dumbarton</t>
+          <t>Stirling</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Clyde</t>
+          <t>Annan</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="G15" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="H15" t="n">
-        <v>2.18</v>
+        <v>2.08</v>
       </c>
       <c r="I15" t="n">
-        <v>2.2</v>
+        <v>2.48</v>
       </c>
       <c r="J15" t="n">
-        <v>3.5</v>
+        <v>2.86</v>
       </c>
       <c r="K15" t="n">
-        <v>4.7</v>
+        <v>4.3</v>
       </c>
       <c r="L15" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M15" t="n">
         <v>1.05</v>
       </c>
       <c r="N15" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="O15" t="n">
-        <v>1.26</v>
+        <v>1.23</v>
       </c>
       <c r="P15" t="n">
-        <v>1.99</v>
+        <v>2.06</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.74</v>
+        <v>1.62</v>
       </c>
       <c r="R15" t="n">
-        <v>1.41</v>
+        <v>1.46</v>
       </c>
       <c r="S15" t="n">
-        <v>2.62</v>
+        <v>2.52</v>
       </c>
       <c r="T15" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="U15" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="V15" t="n">
-        <v>1.83</v>
+        <v>1.68</v>
       </c>
       <c r="W15" t="n">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="X15" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Y15" t="n">
         <v>14</v>
       </c>
       <c r="Z15" t="n">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="AA15" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="AB15" t="n">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="AC15" t="n">
         <v>10.5</v>
       </c>
       <c r="AD15" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AE15" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AF15" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AG15" t="n">
         <v>17</v>
       </c>
       <c r="AH15" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="AI15" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="AJ15" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AK15" t="n">
         <v>42</v>
       </c>
       <c r="AL15" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AM15" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="AN15" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AO15" t="n">
-        <v>19.5</v>
+        <v>15.5</v>
       </c>
       <c r="AP15" t="n">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="AQ15" t="n">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="AR15" t="n">
-        <v>3.55</v>
+        <v>3.95</v>
       </c>
       <c r="AS15" t="n">
-        <v>3.85</v>
+        <v>4.4</v>
       </c>
       <c r="AT15" t="n">
-        <v>3.45</v>
+        <v>4</v>
       </c>
       <c r="AU15" t="n">
-        <v>3.05</v>
+        <v>3.4</v>
       </c>
       <c r="AV15" t="n">
-        <v>3.3</v>
+        <v>3.65</v>
       </c>
       <c r="AW15" t="n">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="AX15" t="n">
-        <v>3.75</v>
+        <v>4.4</v>
       </c>
       <c r="AY15" t="n">
-        <v>3.45</v>
+        <v>3.9</v>
       </c>
       <c r="AZ15" t="n">
-        <v>3.55</v>
+        <v>4</v>
       </c>
       <c r="BA15" t="n">
-        <v>3.9</v>
+        <v>4.4</v>
       </c>
       <c r="BB15" t="n">
-        <v>4</v>
+        <v>4.7</v>
       </c>
       <c r="BC15" t="n">
-        <v>3.9</v>
+        <v>4.5</v>
       </c>
       <c r="BD15" t="n">
-        <v>3.95</v>
+        <v>4.6</v>
       </c>
       <c r="BE15" t="n">
-        <v>4.1</v>
+        <v>4.8</v>
       </c>
       <c r="BF15" t="n">
-        <v>3.85</v>
+        <v>4.4</v>
       </c>
       <c r="BG15" t="n">
-        <v>3.55</v>
+        <v>3.8</v>
       </c>
       <c r="BH15" t="inlineStr">
         <is>
-          <t>2026-02-22 19:36:32</t>
+          <t>2026-02-22 21:45:41</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Scottish Championship</t>
+          <t>Scottish League Two</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3469,186 +3469,186 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Dunfermline</t>
+          <t>Elgin City FC</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Partick</t>
+          <t>Edinburgh City</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>3.15</v>
+        <v>1.67</v>
       </c>
       <c r="G16" t="n">
-        <v>3.75</v>
+        <v>1.9</v>
       </c>
       <c r="H16" t="n">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="I16" t="n">
-        <v>2.62</v>
+        <v>5.9</v>
       </c>
       <c r="J16" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="K16" t="n">
-        <v>3.6</v>
+        <v>4.9</v>
       </c>
       <c r="L16" t="n">
-        <v>1.46</v>
+        <v>1.01</v>
       </c>
       <c r="M16" t="n">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
       <c r="N16" t="n">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="O16" t="n">
-        <v>1.39</v>
+        <v>1.2</v>
       </c>
       <c r="P16" t="n">
-        <v>1.68</v>
+        <v>1.53</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.14</v>
+        <v>1.54</v>
       </c>
       <c r="R16" t="n">
-        <v>1.26</v>
+        <v>1.53</v>
       </c>
       <c r="S16" t="n">
-        <v>4</v>
+        <v>1.59</v>
       </c>
       <c r="T16" t="n">
-        <v>1.85</v>
+        <v>1.47</v>
       </c>
       <c r="U16" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="V16" t="n">
-        <v>1.61</v>
+        <v>1.2</v>
       </c>
       <c r="W16" t="n">
-        <v>1.36</v>
+        <v>2.1</v>
       </c>
       <c r="X16" t="n">
-        <v>970</v>
+        <v>27</v>
       </c>
       <c r="Y16" t="n">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="Z16" t="n">
-        <v>970</v>
+        <v>48</v>
       </c>
       <c r="AA16" t="n">
-        <v>970</v>
+        <v>120</v>
       </c>
       <c r="AB16" t="n">
-        <v>970</v>
+        <v>13.5</v>
       </c>
       <c r="AC16" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AD16" t="n">
-        <v>970</v>
+        <v>23</v>
       </c>
       <c r="AE16" t="n">
-        <v>970</v>
+        <v>65</v>
       </c>
       <c r="AF16" t="n">
-        <v>970</v>
+        <v>14.5</v>
       </c>
       <c r="AG16" t="n">
-        <v>970</v>
+        <v>12</v>
       </c>
       <c r="AH16" t="n">
-        <v>970</v>
+        <v>21</v>
       </c>
       <c r="AI16" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AJ16" t="n">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="AK16" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>85</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AO16" t="n">
         <v>55</v>
       </c>
-      <c r="AL16" t="n">
-        <v>75</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>150</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>65</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>970</v>
-      </c>
       <c r="AP16" t="n">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="AQ16" t="n">
-        <v>3.05</v>
+        <v>4.2</v>
       </c>
       <c r="AR16" t="n">
-        <v>11</v>
+        <v>4.5</v>
       </c>
       <c r="AS16" t="n">
-        <v>3.85</v>
+        <v>4.8</v>
       </c>
       <c r="AT16" t="n">
-        <v>3.25</v>
+        <v>3.65</v>
       </c>
       <c r="AU16" t="n">
-        <v>2.88</v>
+        <v>3.55</v>
       </c>
       <c r="AV16" t="n">
-        <v>3.3</v>
+        <v>4.1</v>
       </c>
       <c r="AW16" t="n">
-        <v>3.8</v>
+        <v>4.6</v>
       </c>
       <c r="AX16" t="n">
         <v>3.7</v>
       </c>
       <c r="AY16" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="AZ16" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="BA16" t="n">
-        <v>3.95</v>
+        <v>4.6</v>
       </c>
       <c r="BB16" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BC16" t="n">
         <v>4</v>
       </c>
-      <c r="BC16" t="n">
-        <v>3.95</v>
-      </c>
       <c r="BD16" t="n">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="BE16" t="n">
-        <v>4.1</v>
+        <v>4.7</v>
       </c>
       <c r="BF16" t="n">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="BG16" t="n">
-        <v>3.75</v>
+        <v>4.6</v>
       </c>
       <c r="BH16" t="inlineStr">
         <is>
-          <t>2026-02-22 19:36:32</t>
+          <t>2026-02-22 21:45:41</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Scottish Championship</t>
+          <t>Scottish League Two</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -3663,186 +3663,186 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Queens Park</t>
+          <t>Dumbarton</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>St Johnstone</t>
+          <t>Clyde</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>7.2</v>
+        <v>3.15</v>
       </c>
       <c r="G17" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="H17" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="I17" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="J17" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="K17" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N17" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P17" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="S17" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="T17" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="U17" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W17" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X17" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>38</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AC17" t="n">
         <v>10.5</v>
       </c>
-      <c r="H17" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="I17" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="J17" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="K17" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="L17" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N17" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P17" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="S17" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="T17" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="U17" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="V17" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="W17" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="X17" t="n">
-        <v>24</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>970</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>13.5</v>
-      </c>
       <c r="AD17" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AE17" t="n">
-        <v>17.5</v>
+        <v>28</v>
       </c>
       <c r="AF17" t="n">
-        <v>85</v>
+        <v>29</v>
       </c>
       <c r="AG17" t="n">
-        <v>970</v>
+        <v>17</v>
       </c>
       <c r="AH17" t="n">
-        <v>970</v>
+        <v>20</v>
       </c>
       <c r="AI17" t="n">
         <v>40</v>
       </c>
       <c r="AJ17" t="n">
-        <v>340</v>
+        <v>65</v>
       </c>
       <c r="AK17" t="n">
-        <v>160</v>
+        <v>42</v>
       </c>
       <c r="AL17" t="n">
-        <v>130</v>
+        <v>50</v>
       </c>
       <c r="AM17" t="n">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="AN17" t="n">
-        <v>190</v>
+        <v>29</v>
       </c>
       <c r="AO17" t="n">
-        <v>7.2</v>
+        <v>16</v>
       </c>
       <c r="AP17" t="n">
-        <v>4.4</v>
+        <v>3.9</v>
       </c>
       <c r="AQ17" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="AR17" t="n">
-        <v>3.6</v>
+        <v>3.85</v>
       </c>
       <c r="AS17" t="n">
-        <v>3.95</v>
+        <v>4.2</v>
       </c>
       <c r="AT17" t="n">
-        <v>4.6</v>
+        <v>3.75</v>
       </c>
       <c r="AU17" t="n">
-        <v>3.85</v>
+        <v>3.25</v>
       </c>
       <c r="AV17" t="n">
-        <v>3.75</v>
+        <v>3.55</v>
       </c>
       <c r="AW17" t="n">
         <v>4.1</v>
       </c>
       <c r="AX17" t="n">
-        <v>5.1</v>
+        <v>4.1</v>
       </c>
       <c r="AY17" t="n">
-        <v>4.7</v>
+        <v>3.7</v>
       </c>
       <c r="AZ17" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="BA17" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BB17" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="BC17" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="BD17" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="BE17" t="n">
         <v>4.5</v>
       </c>
-      <c r="BA17" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="BB17" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="BC17" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="BD17" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="BE17" t="n">
-        <v>5.2</v>
-      </c>
       <c r="BF17" t="n">
-        <v>5.3</v>
+        <v>4.1</v>
       </c>
       <c r="BG17" t="n">
-        <v>3.1</v>
+        <v>3.65</v>
       </c>
       <c r="BH17" t="inlineStr">
         <is>
-          <t>2026-02-22 19:36:32</t>
+          <t>2026-02-22 21:45:41</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>Scottish Championship</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3857,179 +3857,179 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Tamworth FC</t>
+          <t>Queens Park</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Altrincham</t>
+          <t>St Johnstone</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.34</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="G18" t="n">
-        <v>2.62</v>
+        <v>10</v>
       </c>
       <c r="H18" t="n">
-        <v>2.88</v>
+        <v>1.4</v>
       </c>
       <c r="I18" t="n">
-        <v>3.25</v>
+        <v>1.48</v>
       </c>
       <c r="J18" t="n">
-        <v>3.6</v>
+        <v>4.6</v>
       </c>
       <c r="K18" t="n">
-        <v>4.1</v>
+        <v>5.6</v>
       </c>
       <c r="L18" t="n">
-        <v>1.33</v>
+        <v>1.01</v>
       </c>
       <c r="M18" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N18" t="n">
         <v>4.4</v>
       </c>
       <c r="O18" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="P18" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.72</v>
+        <v>1.66</v>
       </c>
       <c r="R18" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="S18" t="n">
-        <v>2.8</v>
+        <v>2.68</v>
       </c>
       <c r="T18" t="n">
-        <v>1.61</v>
+        <v>1.91</v>
       </c>
       <c r="U18" t="n">
-        <v>2.3</v>
+        <v>1.88</v>
       </c>
       <c r="V18" t="n">
-        <v>1.44</v>
+        <v>3.05</v>
       </c>
       <c r="W18" t="n">
-        <v>1.62</v>
+        <v>1.11</v>
       </c>
       <c r="X18" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="Y18" t="n">
-        <v>15.5</v>
+        <v>10.5</v>
       </c>
       <c r="Z18" t="n">
-        <v>24</v>
+        <v>10.5</v>
       </c>
       <c r="AA18" t="n">
-        <v>60</v>
+        <v>14.5</v>
       </c>
       <c r="AB18" t="n">
+        <v>32</v>
+      </c>
+      <c r="AC18" t="n">
         <v>13.5</v>
       </c>
-      <c r="AC18" t="n">
-        <v>11</v>
-      </c>
       <c r="AD18" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AE18" t="n">
-        <v>38</v>
+        <v>17.5</v>
       </c>
       <c r="AF18" t="n">
-        <v>22</v>
+        <v>85</v>
       </c>
       <c r="AG18" t="n">
-        <v>12.5</v>
+        <v>36</v>
       </c>
       <c r="AH18" t="n">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="AI18" t="n">
         <v>40</v>
       </c>
       <c r="AJ18" t="n">
-        <v>40</v>
+        <v>340</v>
       </c>
       <c r="AK18" t="n">
-        <v>30</v>
+        <v>160</v>
       </c>
       <c r="AL18" t="n">
-        <v>36</v>
+        <v>130</v>
       </c>
       <c r="AM18" t="n">
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="AN18" t="n">
-        <v>17</v>
+        <v>190</v>
       </c>
       <c r="AO18" t="n">
-        <v>29</v>
+        <v>7.2</v>
       </c>
       <c r="AP18" t="n">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="AQ18" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AW18" t="n">
         <v>12.5</v>
       </c>
-      <c r="AR18" t="n">
-        <v>19</v>
-      </c>
-      <c r="AS18" t="n">
+      <c r="AX18" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AY18" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AZ18" t="n">
+        <v>21</v>
+      </c>
+      <c r="BA18" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="BB18" t="n">
         <v>5.4</v>
       </c>
-      <c r="AT18" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AU18" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AV18" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AW18" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="AX18" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AY18" t="n">
-        <v>10</v>
-      </c>
-      <c r="AZ18" t="n">
-        <v>13</v>
-      </c>
-      <c r="BA18" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="BB18" t="n">
-        <v>5.1</v>
-      </c>
       <c r="BC18" t="n">
-        <v>20</v>
+        <v>5.3</v>
       </c>
       <c r="BD18" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="BE18" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="BF18" t="n">
-        <v>11.5</v>
+        <v>5.3</v>
       </c>
       <c r="BG18" t="n">
-        <v>17</v>
+        <v>5.4</v>
       </c>
       <c r="BH18" t="inlineStr">
         <is>
-          <t>2026-02-22 19:36:32</t>
+          <t>2026-02-22 21:45:41</t>
         </is>
       </c>
     </row>
@@ -4060,7 +4060,7 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="G19" t="n">
         <v>6.2</v>
@@ -4069,25 +4069,25 @@
         <v>1.74</v>
       </c>
       <c r="I19" t="n">
-        <v>1.96</v>
+        <v>1.99</v>
       </c>
       <c r="J19" t="n">
         <v>3.35</v>
       </c>
       <c r="K19" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="L19" t="n">
         <v>1.39</v>
       </c>
       <c r="M19" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N19" t="n">
         <v>3.45</v>
       </c>
       <c r="O19" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="P19" t="n">
         <v>1.85</v>
@@ -4108,10 +4108,10 @@
         <v>1.95</v>
       </c>
       <c r="V19" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="W19" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="X19" t="n">
         <v>970</v>
@@ -4123,7 +4123,7 @@
         <v>970</v>
       </c>
       <c r="AA19" t="n">
-        <v>970</v>
+        <v>23</v>
       </c>
       <c r="AB19" t="n">
         <v>970</v>
@@ -4135,19 +4135,19 @@
         <v>970</v>
       </c>
       <c r="AE19" t="n">
-        <v>970</v>
+        <v>23</v>
       </c>
       <c r="AF19" t="n">
-        <v>970</v>
+        <v>46</v>
       </c>
       <c r="AG19" t="n">
-        <v>970</v>
+        <v>24</v>
       </c>
       <c r="AH19" t="n">
-        <v>970</v>
+        <v>24</v>
       </c>
       <c r="AI19" t="n">
-        <v>970</v>
+        <v>44</v>
       </c>
       <c r="AJ19" t="n">
         <v>1000</v>
@@ -4171,10 +4171,10 @@
         <v>3.95</v>
       </c>
       <c r="AQ19" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="AR19" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="AS19" t="n">
         <v>4.2</v>
@@ -4183,10 +4183,10 @@
         <v>4.1</v>
       </c>
       <c r="AU19" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="AV19" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="AW19" t="n">
         <v>4.2</v>
@@ -4201,7 +4201,7 @@
         <v>4.3</v>
       </c>
       <c r="BA19" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="BB19" t="n">
         <v>5</v>
@@ -4216,14 +4216,14 @@
         <v>5</v>
       </c>
       <c r="BF19" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="BG19" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="BH19" t="inlineStr">
         <is>
-          <t>2026-02-22 19:36:32</t>
+          <t>2026-02-22 21:45:41</t>
         </is>
       </c>
     </row>
@@ -4245,179 +4245,179 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Southend</t>
+          <t>Tamworth FC</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Boreham Wood</t>
+          <t>Altrincham</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.1</v>
+        <v>2.34</v>
       </c>
       <c r="G20" t="n">
-        <v>2.3</v>
+        <v>2.54</v>
       </c>
       <c r="H20" t="n">
-        <v>3.25</v>
+        <v>2.88</v>
       </c>
       <c r="I20" t="n">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
       <c r="J20" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="K20" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L20" t="n">
-        <v>1.01</v>
+        <v>1.28</v>
       </c>
       <c r="M20" t="n">
         <v>1.05</v>
       </c>
       <c r="N20" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="O20" t="n">
         <v>1.24</v>
       </c>
       <c r="P20" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="R20" t="n">
-        <v>1.48</v>
+        <v>1.46</v>
       </c>
       <c r="S20" t="n">
-        <v>2.74</v>
+        <v>2.8</v>
       </c>
       <c r="T20" t="n">
         <v>1.62</v>
       </c>
       <c r="U20" t="n">
-        <v>2.18</v>
+        <v>2.3</v>
       </c>
       <c r="V20" t="n">
-        <v>1.37</v>
+        <v>1.46</v>
       </c>
       <c r="W20" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="X20" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="Y20" t="n">
-        <v>970</v>
+        <v>15.5</v>
       </c>
       <c r="Z20" t="n">
-        <v>970</v>
+        <v>24</v>
       </c>
       <c r="AA20" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AB20" t="n">
-        <v>970</v>
+        <v>13.5</v>
       </c>
       <c r="AC20" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>38</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>22</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>40</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>40</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>30</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>36</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>75</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>17</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>29</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>16</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>19</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AT20" t="n">
         <v>10.5</v>
       </c>
-      <c r="AD20" t="n">
-        <v>970</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>970</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>970</v>
-      </c>
-      <c r="AG20" t="n">
+      <c r="AU20" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AX20" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AY20" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ20" t="n">
         <v>13</v>
       </c>
-      <c r="AH20" t="n">
-        <v>970</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>970</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>970</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AP20" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="AQ20" t="n">
+      <c r="BA20" t="n">
         <v>5.1</v>
       </c>
-      <c r="AR20" t="n">
-        <v>6</v>
-      </c>
-      <c r="AS20" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="AT20" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="AU20" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="AV20" t="n">
+      <c r="BB20" t="n">
         <v>5.1</v>
       </c>
-      <c r="AW20" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="AX20" t="n">
-        <v>5</v>
-      </c>
-      <c r="AY20" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="AZ20" t="n">
+      <c r="BC20" t="n">
+        <v>20</v>
+      </c>
+      <c r="BD20" t="n">
         <v>5.1</v>
       </c>
-      <c r="BA20" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="BB20" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="BC20" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="BD20" t="n">
-        <v>6</v>
-      </c>
       <c r="BE20" t="n">
-        <v>6.6</v>
+        <v>5.5</v>
       </c>
       <c r="BF20" t="n">
-        <v>10</v>
+        <v>11.5</v>
       </c>
       <c r="BG20" t="n">
-        <v>5.9</v>
+        <v>17</v>
       </c>
       <c r="BH20" t="inlineStr">
         <is>
-          <t>2026-02-22 19:36:32</t>
+          <t>2026-02-22 21:45:41</t>
         </is>
       </c>
     </row>
@@ -4439,179 +4439,179 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Scunthorpe</t>
+          <t>Southend</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>York City</t>
+          <t>Boreham Wood</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>3.45</v>
+        <v>2.1</v>
       </c>
       <c r="G21" t="n">
-        <v>4.8</v>
+        <v>2.3</v>
       </c>
       <c r="H21" t="n">
-        <v>1.85</v>
+        <v>3.25</v>
       </c>
       <c r="I21" t="n">
-        <v>2.04</v>
+        <v>3.7</v>
       </c>
       <c r="J21" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K21" t="n">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="L21" t="n">
-        <v>1.22</v>
+        <v>1.33</v>
       </c>
       <c r="M21" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N21" t="n">
-        <v>5.1</v>
+        <v>4.5</v>
       </c>
       <c r="O21" t="n">
-        <v>1.16</v>
+        <v>1.24</v>
       </c>
       <c r="P21" t="n">
-        <v>2.64</v>
+        <v>2.2</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.43</v>
+        <v>1.7</v>
       </c>
       <c r="R21" t="n">
-        <v>1.65</v>
+        <v>1.48</v>
       </c>
       <c r="S21" t="n">
-        <v>2.22</v>
+        <v>2.74</v>
       </c>
       <c r="T21" t="n">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="U21" t="n">
-        <v>2.32</v>
+        <v>2.18</v>
       </c>
       <c r="V21" t="n">
-        <v>1.96</v>
+        <v>1.37</v>
       </c>
       <c r="W21" t="n">
-        <v>1.26</v>
+        <v>1.77</v>
       </c>
       <c r="X21" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="Y21" t="n">
         <v>970</v>
       </c>
       <c r="Z21" t="n">
-        <v>970</v>
+        <v>32</v>
       </c>
       <c r="AA21" t="n">
-        <v>970</v>
+        <v>70</v>
       </c>
       <c r="AB21" t="n">
         <v>970</v>
       </c>
       <c r="AC21" t="n">
-        <v>970</v>
+        <v>10.5</v>
       </c>
       <c r="AD21" t="n">
         <v>970</v>
       </c>
       <c r="AE21" t="n">
-        <v>970</v>
+        <v>48</v>
       </c>
       <c r="AF21" t="n">
         <v>970</v>
       </c>
       <c r="AG21" t="n">
-        <v>970</v>
+        <v>13</v>
       </c>
       <c r="AH21" t="n">
         <v>970</v>
       </c>
       <c r="AI21" t="n">
-        <v>970</v>
+        <v>48</v>
       </c>
       <c r="AJ21" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AK21" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AL21" t="n">
-        <v>970</v>
+        <v>42</v>
       </c>
       <c r="AM21" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AN21" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AO21" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AP21" t="n">
-        <v>3.8</v>
+        <v>5.4</v>
       </c>
       <c r="AQ21" t="n">
-        <v>3.4</v>
+        <v>5.1</v>
       </c>
       <c r="AR21" t="n">
-        <v>3.45</v>
+        <v>6</v>
       </c>
       <c r="AS21" t="n">
-        <v>3.65</v>
+        <v>5.8</v>
       </c>
       <c r="AT21" t="n">
-        <v>3.65</v>
+        <v>4.6</v>
       </c>
       <c r="AU21" t="n">
-        <v>3.2</v>
+        <v>4.3</v>
       </c>
       <c r="AV21" t="n">
-        <v>3.2</v>
+        <v>5.1</v>
       </c>
       <c r="AW21" t="n">
-        <v>3.55</v>
+        <v>6.2</v>
       </c>
       <c r="AX21" t="n">
-        <v>3.85</v>
+        <v>5</v>
       </c>
       <c r="AY21" t="n">
-        <v>3.5</v>
+        <v>4.7</v>
       </c>
       <c r="AZ21" t="n">
-        <v>3.45</v>
+        <v>5.1</v>
       </c>
       <c r="BA21" t="n">
-        <v>3.75</v>
+        <v>6.4</v>
       </c>
       <c r="BB21" t="n">
-        <v>4</v>
+        <v>5.8</v>
       </c>
       <c r="BC21" t="n">
-        <v>3.85</v>
+        <v>5.7</v>
       </c>
       <c r="BD21" t="n">
-        <v>3.85</v>
+        <v>6</v>
       </c>
       <c r="BE21" t="n">
-        <v>4</v>
+        <v>6.6</v>
       </c>
       <c r="BF21" t="n">
-        <v>3.75</v>
+        <v>10</v>
       </c>
       <c r="BG21" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="BH21" t="inlineStr">
         <is>
-          <t>2026-02-22 19:36:32</t>
+          <t>2026-02-22 21:45:41</t>
         </is>
       </c>
     </row>
@@ -4633,179 +4633,179 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Wealdstone</t>
+          <t>Scunthorpe</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Brackley Town</t>
+          <t>York City</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.14</v>
+        <v>3.45</v>
       </c>
       <c r="G22" t="n">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="H22" t="n">
-        <v>3.35</v>
+        <v>1.85</v>
       </c>
       <c r="I22" t="n">
-        <v>4.3</v>
+        <v>2.04</v>
       </c>
       <c r="J22" t="n">
-        <v>3.15</v>
+        <v>3.7</v>
       </c>
       <c r="K22" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N22" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="P22" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="S22" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="T22" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="U22" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="V22" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="W22" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X22" t="n">
+        <v>34</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>18</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>28</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>27</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>22</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>42</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>32</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>85</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>46</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>46</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>70</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>32</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>380</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AX22" t="n">
         <v>3.9</v>
       </c>
-      <c r="L22" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="M22" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N22" t="n">
+      <c r="AY22" t="n">
         <v>3.55</v>
       </c>
-      <c r="O22" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="P22" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="R22" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="S22" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="T22" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="U22" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="V22" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="W22" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="X22" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>970</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>970</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>970</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>970</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>970</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>970</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>970</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN22" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO22" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AP22" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AQ22" t="n">
-        <v>10</v>
-      </c>
-      <c r="AR22" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="AS22" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="AT22" t="n">
+      <c r="AZ22" t="n">
         <v>3.5</v>
       </c>
-      <c r="AU22" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="AV22" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AW22" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="AX22" t="n">
-        <v>11</v>
-      </c>
-      <c r="AY22" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AZ22" t="n">
-        <v>13.5</v>
-      </c>
       <c r="BA22" t="n">
-        <v>4.7</v>
+        <v>3.8</v>
       </c>
       <c r="BB22" t="n">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="BC22" t="n">
-        <v>4.3</v>
+        <v>3.95</v>
       </c>
       <c r="BD22" t="n">
-        <v>4.5</v>
+        <v>3.95</v>
       </c>
       <c r="BE22" t="n">
-        <v>4.8</v>
+        <v>4</v>
       </c>
       <c r="BF22" t="n">
-        <v>14</v>
+        <v>3.8</v>
       </c>
       <c r="BG22" t="n">
-        <v>4.6</v>
+        <v>6</v>
       </c>
       <c r="BH22" t="inlineStr">
         <is>
-          <t>2026-02-22 19:36:32</t>
+          <t>2026-02-22 21:45:41</t>
         </is>
       </c>
     </row>
@@ -4827,186 +4827,186 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Forest Green</t>
+          <t>Wealdstone</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Boston Utd</t>
+          <t>Brackley Town</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.61</v>
+        <v>2.1</v>
       </c>
       <c r="G23" t="n">
-        <v>1.68</v>
+        <v>2.46</v>
       </c>
       <c r="H23" t="n">
-        <v>5.8</v>
+        <v>3.35</v>
       </c>
       <c r="I23" t="n">
-        <v>7.6</v>
+        <v>4.3</v>
       </c>
       <c r="J23" t="n">
-        <v>4.1</v>
+        <v>3.15</v>
       </c>
       <c r="K23" t="n">
-        <v>4.7</v>
+        <v>3.9</v>
       </c>
       <c r="L23" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N23" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="O23" t="n">
         <v>1.32</v>
       </c>
-      <c r="M23" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N23" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="O23" t="n">
-        <v>1.23</v>
-      </c>
       <c r="P23" t="n">
-        <v>2.24</v>
+        <v>1.87</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.67</v>
+        <v>1.94</v>
       </c>
       <c r="R23" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="S23" t="n">
-        <v>2.48</v>
+        <v>3.35</v>
       </c>
       <c r="T23" t="n">
-        <v>1.74</v>
+        <v>1.77</v>
       </c>
       <c r="U23" t="n">
-        <v>2.14</v>
+        <v>2.08</v>
       </c>
       <c r="V23" t="n">
-        <v>1.16</v>
+        <v>1.3</v>
       </c>
       <c r="W23" t="n">
-        <v>2.44</v>
+        <v>1.7</v>
       </c>
       <c r="X23" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="Y23" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="Z23" t="n">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="AA23" t="n">
         <v>1000</v>
       </c>
       <c r="AB23" t="n">
-        <v>970</v>
+        <v>11.5</v>
       </c>
       <c r="AC23" t="n">
-        <v>970</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD23" t="n">
         <v>970</v>
       </c>
       <c r="AE23" t="n">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="AF23" t="n">
         <v>970</v>
       </c>
       <c r="AG23" t="n">
-        <v>970</v>
+        <v>13</v>
       </c>
       <c r="AH23" t="n">
-        <v>970</v>
+        <v>21</v>
       </c>
       <c r="AI23" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AJ23" t="n">
-        <v>970</v>
+        <v>34</v>
       </c>
       <c r="AK23" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AL23" t="n">
-        <v>970</v>
+        <v>46</v>
       </c>
       <c r="AM23" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AN23" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AO23" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AP23" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>10</v>
+      </c>
+      <c r="AR23" t="n">
         <v>4.3</v>
       </c>
-      <c r="AQ23" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AR23" t="n">
-        <v>4.9</v>
-      </c>
       <c r="AS23" t="n">
-        <v>5.2</v>
+        <v>4.7</v>
       </c>
       <c r="AT23" t="n">
-        <v>3.65</v>
+        <v>7.6</v>
       </c>
       <c r="AU23" t="n">
-        <v>3.65</v>
+        <v>6.2</v>
       </c>
       <c r="AV23" t="n">
-        <v>4.5</v>
+        <v>11.5</v>
       </c>
       <c r="AW23" t="n">
-        <v>5</v>
+        <v>4.6</v>
       </c>
       <c r="AX23" t="n">
-        <v>3.75</v>
+        <v>11</v>
       </c>
       <c r="AY23" t="n">
         <v>3.65</v>
       </c>
       <c r="AZ23" t="n">
+        <v>4</v>
+      </c>
+      <c r="BA23" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="BB23" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="BC23" t="n">
         <v>4.3</v>
       </c>
-      <c r="BA23" t="n">
-        <v>5</v>
-      </c>
-      <c r="BB23" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="BC23" t="n">
-        <v>4.1</v>
-      </c>
       <c r="BD23" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BE23" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="BF23" t="n">
+        <v>14</v>
+      </c>
+      <c r="BG23" t="n">
         <v>4.6</v>
       </c>
-      <c r="BE23" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="BF23" t="n">
-        <v>6</v>
-      </c>
-      <c r="BG23" t="n">
-        <v>5</v>
-      </c>
       <c r="BH23" t="inlineStr">
         <is>
-          <t>2026-02-22 19:36:32</t>
+          <t>2026-02-22 21:45:41</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -5016,191 +5016,191 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>CA Platense</t>
+          <t>Forest Green</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Defensa y Justicia</t>
+          <t>Boston Utd</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.2</v>
+        <v>1.61</v>
       </c>
       <c r="G24" t="n">
-        <v>2.4</v>
+        <v>1.66</v>
       </c>
       <c r="H24" t="n">
-        <v>4</v>
+        <v>5.8</v>
       </c>
       <c r="I24" t="n">
-        <v>4.5</v>
+        <v>7.6</v>
       </c>
       <c r="J24" t="n">
-        <v>2.9</v>
+        <v>4.1</v>
       </c>
       <c r="K24" t="n">
-        <v>3.1</v>
+        <v>4.9</v>
       </c>
       <c r="L24" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N24" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="P24" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="Q24" t="n">
         <v>1.65</v>
       </c>
-      <c r="M24" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="N24" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="O24" t="n">
+      <c r="R24" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="S24" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="T24" t="n">
         <v>1.65</v>
       </c>
-      <c r="P24" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="R24" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="S24" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="T24" t="n">
-        <v>2.26</v>
-      </c>
       <c r="U24" t="n">
-        <v>1.67</v>
+        <v>2.14</v>
       </c>
       <c r="V24" t="n">
-        <v>1.28</v>
+        <v>1.16</v>
       </c>
       <c r="W24" t="n">
-        <v>1.71</v>
+        <v>2.5</v>
       </c>
       <c r="X24" t="n">
-        <v>8.800000000000001</v>
+        <v>23</v>
       </c>
       <c r="Y24" t="n">
-        <v>12.5</v>
+        <v>30</v>
       </c>
       <c r="Z24" t="n">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="AA24" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AB24" t="n">
-        <v>7.8</v>
+        <v>970</v>
       </c>
       <c r="AC24" t="n">
-        <v>8.6</v>
+        <v>970</v>
       </c>
       <c r="AD24" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AE24" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AF24" t="n">
-        <v>15</v>
+        <v>970</v>
       </c>
       <c r="AG24" t="n">
-        <v>13.5</v>
+        <v>970</v>
       </c>
       <c r="AH24" t="n">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="AI24" t="n">
-        <v>140</v>
+        <v>85</v>
       </c>
       <c r="AJ24" t="n">
-        <v>40</v>
+        <v>970</v>
       </c>
       <c r="AK24" t="n">
         <v>970</v>
       </c>
       <c r="AL24" t="n">
-        <v>90</v>
+        <v>32</v>
       </c>
       <c r="AM24" t="n">
-        <v>310</v>
+        <v>100</v>
       </c>
       <c r="AN24" t="n">
         <v>970</v>
       </c>
       <c r="AO24" t="n">
-        <v>170</v>
+        <v>90</v>
       </c>
       <c r="AP24" t="n">
-        <v>6.6</v>
+        <v>4.4</v>
       </c>
       <c r="AQ24" t="n">
-        <v>8.6</v>
+        <v>4.7</v>
       </c>
       <c r="AR24" t="n">
-        <v>19</v>
+        <v>5.1</v>
       </c>
       <c r="AS24" t="n">
-        <v>4.9</v>
+        <v>4.6</v>
       </c>
       <c r="AT24" t="n">
-        <v>5.8</v>
+        <v>3.75</v>
       </c>
       <c r="AU24" t="n">
-        <v>6.4</v>
+        <v>3.75</v>
       </c>
       <c r="AV24" t="n">
-        <v>16</v>
+        <v>4.6</v>
       </c>
       <c r="AW24" t="n">
-        <v>4.8</v>
+        <v>5.2</v>
       </c>
       <c r="AX24" t="n">
-        <v>10.5</v>
+        <v>3.85</v>
       </c>
       <c r="AY24" t="n">
-        <v>11</v>
+        <v>3.75</v>
       </c>
       <c r="AZ24" t="n">
         <v>4.4</v>
       </c>
       <c r="BA24" t="n">
-        <v>4.9</v>
+        <v>5.2</v>
       </c>
       <c r="BB24" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BC24" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BD24" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="BE24" t="n">
         <v>4.5</v>
       </c>
-      <c r="BC24" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="BD24" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="BE24" t="n">
-        <v>5</v>
-      </c>
       <c r="BF24" t="n">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="BG24" t="n">
-        <v>4.9</v>
+        <v>5.2</v>
       </c>
       <c r="BH24" t="inlineStr">
         <is>
-          <t>2026-02-22 19:36:32</t>
+          <t>2026-02-22 21:45:41</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -5215,179 +5215,179 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Newcastle</t>
+          <t>CA Platense</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Qarabag FK</t>
+          <t>Defensa y Justicia</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.16</v>
+        <v>2.22</v>
       </c>
       <c r="G25" t="n">
-        <v>1.18</v>
+        <v>2.4</v>
       </c>
       <c r="H25" t="n">
-        <v>19.5</v>
+        <v>4</v>
       </c>
       <c r="I25" t="n">
-        <v>22</v>
+        <v>4.5</v>
       </c>
       <c r="J25" t="n">
-        <v>10</v>
+        <v>2.9</v>
       </c>
       <c r="K25" t="n">
-        <v>11.5</v>
+        <v>3.1</v>
       </c>
       <c r="L25" t="n">
-        <v>1.18</v>
+        <v>1.65</v>
       </c>
       <c r="M25" t="n">
-        <v>1.01</v>
+        <v>1.14</v>
       </c>
       <c r="N25" t="n">
-        <v>9.800000000000001</v>
+        <v>2.36</v>
       </c>
       <c r="O25" t="n">
-        <v>1.1</v>
+        <v>1.65</v>
       </c>
       <c r="P25" t="n">
-        <v>4</v>
+        <v>1.45</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.31</v>
+        <v>2.96</v>
       </c>
       <c r="R25" t="n">
-        <v>2.22</v>
+        <v>1.15</v>
       </c>
       <c r="S25" t="n">
-        <v>1.79</v>
+        <v>6.2</v>
       </c>
       <c r="T25" t="n">
-        <v>2.04</v>
+        <v>2.26</v>
       </c>
       <c r="U25" t="n">
-        <v>1.9</v>
+        <v>1.67</v>
       </c>
       <c r="V25" t="n">
-        <v>1.05</v>
+        <v>1.28</v>
       </c>
       <c r="W25" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="X25" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>140</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>100</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>140</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>36</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>38</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>90</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>310</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>42</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>170</v>
+      </c>
+      <c r="AP25" t="n">
         <v>6.6</v>
       </c>
-      <c r="X25" t="n">
-        <v>60</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>85</v>
-      </c>
-      <c r="Z25" t="n">
-        <v>260</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB25" t="n">
+      <c r="AQ25" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>19</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AU25" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AV25" t="n">
         <v>16</v>
       </c>
-      <c r="AC25" t="n">
-        <v>26</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>75</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>340</v>
-      </c>
-      <c r="AF25" t="n">
+      <c r="AW25" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AX25" t="n">
         <v>10.5</v>
       </c>
-      <c r="AG25" t="n">
-        <v>14</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>40</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AK25" t="n">
-        <v>13</v>
-      </c>
-      <c r="AL25" t="n">
-        <v>36</v>
-      </c>
-      <c r="AM25" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN25" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="AO25" t="n">
-        <v>330</v>
-      </c>
-      <c r="AP25" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ25" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR25" t="n">
-        <v>48</v>
-      </c>
-      <c r="AS25" t="n">
-        <v>24</v>
-      </c>
-      <c r="AT25" t="n">
-        <v>14</v>
-      </c>
-      <c r="AU25" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AV25" t="n">
-        <v>32</v>
-      </c>
-      <c r="AW25" t="n">
-        <v>100</v>
-      </c>
-      <c r="AX25" t="n">
-        <v>9.199999999999999</v>
-      </c>
       <c r="AY25" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AZ25" t="n">
-        <v>29</v>
+        <v>4.6</v>
       </c>
       <c r="BA25" t="n">
-        <v>44</v>
+        <v>5.1</v>
       </c>
       <c r="BB25" t="n">
-        <v>8.800000000000001</v>
+        <v>4.6</v>
       </c>
       <c r="BC25" t="n">
-        <v>12</v>
+        <v>4.7</v>
       </c>
       <c r="BD25" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="BE25" t="n">
-        <v>44</v>
+        <v>5.2</v>
       </c>
       <c r="BF25" t="n">
-        <v>2.48</v>
+        <v>4.7</v>
       </c>
       <c r="BG25" t="n">
-        <v>100</v>
+        <v>5.2</v>
       </c>
       <c r="BH25" t="inlineStr">
         <is>
-          <t>2026-02-22 19:36:32</t>
+          <t>2026-02-22 21:45:41</t>
         </is>
       </c>
     </row>
@@ -5409,179 +5409,179 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Leverkusen</t>
+          <t>Newcastle</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Olympiakos</t>
+          <t>Qarabag FK</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.81</v>
+        <v>1.17</v>
       </c>
       <c r="G26" t="n">
-        <v>1.83</v>
+        <v>1.18</v>
       </c>
       <c r="H26" t="n">
-        <v>4.7</v>
+        <v>19</v>
       </c>
       <c r="I26" t="n">
-        <v>4.9</v>
+        <v>21</v>
       </c>
       <c r="J26" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="K26" t="n">
-        <v>4.3</v>
+        <v>11</v>
       </c>
       <c r="L26" t="n">
-        <v>1.33</v>
+        <v>1.19</v>
       </c>
       <c r="M26" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N26" t="n">
+        <v>10</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="P26" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="R26" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S26" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="T26" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="U26" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="V26" t="n">
         <v>1.05</v>
       </c>
-      <c r="N26" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="O26" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="P26" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="R26" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="S26" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="T26" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="U26" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="V26" t="n">
-        <v>1.26</v>
-      </c>
       <c r="W26" t="n">
-        <v>2.2</v>
+        <v>6.6</v>
       </c>
       <c r="X26" t="n">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="Y26" t="n">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="Z26" t="n">
+        <v>260</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>16</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>26</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>75</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>330</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>40</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>13</v>
+      </c>
+      <c r="AL26" t="n">
         <v>38</v>
       </c>
-      <c r="AA26" t="n">
+      <c r="AM26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>330</v>
+      </c>
+      <c r="AP26" t="n">
+        <v>44</v>
+      </c>
+      <c r="AQ26" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR26" t="n">
+        <v>48</v>
+      </c>
+      <c r="AS26" t="n">
+        <v>24</v>
+      </c>
+      <c r="AT26" t="n">
+        <v>14</v>
+      </c>
+      <c r="AU26" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AV26" t="n">
+        <v>32</v>
+      </c>
+      <c r="AW26" t="n">
         <v>100</v>
       </c>
-      <c r="AB26" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>18</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>55</v>
-      </c>
-      <c r="AF26" t="n">
+      <c r="AX26" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AY26" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AZ26" t="n">
+        <v>34</v>
+      </c>
+      <c r="BA26" t="n">
+        <v>44</v>
+      </c>
+      <c r="BB26" t="n">
+        <v>9</v>
+      </c>
+      <c r="BC26" t="n">
         <v>12</v>
       </c>
-      <c r="AG26" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AI26" t="n">
-        <v>55</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>17</v>
-      </c>
-      <c r="AL26" t="n">
-        <v>28</v>
-      </c>
-      <c r="AM26" t="n">
-        <v>80</v>
-      </c>
-      <c r="AN26" t="n">
-        <v>9</v>
-      </c>
-      <c r="AO26" t="n">
-        <v>48</v>
-      </c>
-      <c r="AP26" t="n">
-        <v>18</v>
-      </c>
-      <c r="AQ26" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AR26" t="n">
-        <v>34</v>
-      </c>
-      <c r="AS26" t="n">
-        <v>38</v>
-      </c>
-      <c r="AT26" t="n">
-        <v>10</v>
-      </c>
-      <c r="AU26" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AV26" t="n">
-        <v>17</v>
-      </c>
-      <c r="AW26" t="n">
-        <v>46</v>
-      </c>
-      <c r="AX26" t="n">
-        <v>11</v>
-      </c>
-      <c r="AY26" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AZ26" t="n">
-        <v>16</v>
-      </c>
-      <c r="BA26" t="n">
-        <v>46</v>
-      </c>
-      <c r="BB26" t="n">
-        <v>18</v>
-      </c>
-      <c r="BC26" t="n">
-        <v>15.5</v>
-      </c>
       <c r="BD26" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="BE26" t="n">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="BF26" t="n">
-        <v>8.4</v>
+        <v>2.52</v>
       </c>
       <c r="BG26" t="n">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="BH26" t="inlineStr">
         <is>
-          <t>2026-02-22 19:36:32</t>
+          <t>2026-02-22 21:45:41</t>
         </is>
       </c>
     </row>
@@ -5603,186 +5603,186 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Inter</t>
+          <t>Leverkusen</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Bodo Glimt</t>
+          <t>Olympiakos</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.28</v>
+        <v>1.84</v>
       </c>
       <c r="G27" t="n">
-        <v>1.29</v>
+        <v>1.86</v>
       </c>
       <c r="H27" t="n">
-        <v>11.5</v>
+        <v>4.5</v>
       </c>
       <c r="I27" t="n">
-        <v>12</v>
+        <v>4.7</v>
       </c>
       <c r="J27" t="n">
-        <v>7.4</v>
+        <v>4</v>
       </c>
       <c r="K27" t="n">
-        <v>7.6</v>
+        <v>4.2</v>
       </c>
       <c r="L27" t="n">
-        <v>1.16</v>
+        <v>1.34</v>
       </c>
       <c r="M27" t="n">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="N27" t="n">
-        <v>9.6</v>
+        <v>4.9</v>
       </c>
       <c r="O27" t="n">
-        <v>1.1</v>
+        <v>1.24</v>
       </c>
       <c r="P27" t="n">
-        <v>3.8</v>
+        <v>2.32</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.33</v>
+        <v>1.73</v>
       </c>
       <c r="R27" t="n">
-        <v>2.12</v>
+        <v>1.52</v>
       </c>
       <c r="S27" t="n">
-        <v>1.84</v>
+        <v>2.84</v>
       </c>
       <c r="T27" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="U27" t="n">
         <v>2.32</v>
       </c>
       <c r="V27" t="n">
-        <v>1.09</v>
+        <v>1.27</v>
       </c>
       <c r="W27" t="n">
-        <v>4.5</v>
+        <v>2.16</v>
       </c>
       <c r="X27" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>20</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>36</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>95</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AE27" t="n">
         <v>50</v>
       </c>
-      <c r="Y27" t="n">
+      <c r="AF27" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>28</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>80</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>9</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>48</v>
+      </c>
+      <c r="AP27" t="n">
+        <v>18</v>
+      </c>
+      <c r="AQ27" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AR27" t="n">
+        <v>34</v>
+      </c>
+      <c r="AS27" t="n">
+        <v>85</v>
+      </c>
+      <c r="AT27" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AU27" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AV27" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AW27" t="n">
+        <v>46</v>
+      </c>
+      <c r="AX27" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AY27" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AZ27" t="n">
+        <v>16</v>
+      </c>
+      <c r="BA27" t="n">
+        <v>48</v>
+      </c>
+      <c r="BB27" t="n">
+        <v>19</v>
+      </c>
+      <c r="BC27" t="n">
+        <v>16</v>
+      </c>
+      <c r="BD27" t="n">
+        <v>26</v>
+      </c>
+      <c r="BE27" t="n">
         <v>65</v>
       </c>
-      <c r="Z27" t="n">
-        <v>130</v>
-      </c>
-      <c r="AA27" t="n">
-        <v>430</v>
-      </c>
-      <c r="AB27" t="n">
-        <v>17</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>18</v>
-      </c>
-      <c r="AD27" t="n">
+      <c r="BF27" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="BG27" t="n">
         <v>42</v>
       </c>
-      <c r="AE27" t="n">
-        <v>140</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH27" t="n">
-        <v>25</v>
-      </c>
-      <c r="AI27" t="n">
-        <v>100</v>
-      </c>
-      <c r="AJ27" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AK27" t="n">
-        <v>12</v>
-      </c>
-      <c r="AL27" t="n">
-        <v>25</v>
-      </c>
-      <c r="AM27" t="n">
-        <v>90</v>
-      </c>
-      <c r="AN27" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="AO27" t="n">
-        <v>100</v>
-      </c>
-      <c r="AP27" t="n">
-        <v>28</v>
-      </c>
-      <c r="AQ27" t="n">
-        <v>50</v>
-      </c>
-      <c r="AR27" t="n">
-        <v>40</v>
-      </c>
-      <c r="AS27" t="n">
-        <v>55</v>
-      </c>
-      <c r="AT27" t="n">
-        <v>15</v>
-      </c>
-      <c r="AU27" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AV27" t="n">
-        <v>38</v>
-      </c>
-      <c r="AW27" t="n">
-        <v>42</v>
-      </c>
-      <c r="AX27" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AY27" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AZ27" t="n">
-        <v>23</v>
-      </c>
-      <c r="BA27" t="n">
-        <v>80</v>
-      </c>
-      <c r="BB27" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="BC27" t="n">
-        <v>11</v>
-      </c>
-      <c r="BD27" t="n">
-        <v>23</v>
-      </c>
-      <c r="BE27" t="n">
-        <v>80</v>
-      </c>
-      <c r="BF27" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="BG27" t="n">
-        <v>65</v>
-      </c>
       <c r="BH27" t="inlineStr">
         <is>
-          <t>2026-02-22 19:36:32</t>
+          <t>2026-02-22 21:45:41</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Colombian Primera B</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -5792,191 +5792,191 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>17:30:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Envigado</t>
+          <t>Inter</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Quindio</t>
+          <t>Bodo Glimt</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.04</v>
+        <v>1.27</v>
       </c>
       <c r="G28" t="n">
-        <v>1000</v>
+        <v>1.28</v>
       </c>
       <c r="H28" t="n">
-        <v>1.04</v>
+        <v>11.5</v>
       </c>
       <c r="I28" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="J28" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="K28" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="L28" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="M28" t="n">
         <v>1.02</v>
       </c>
-      <c r="K28" t="n">
-        <v>1000</v>
-      </c>
-      <c r="L28" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M28" t="n">
-        <v>1.01</v>
-      </c>
       <c r="N28" t="n">
-        <v>1.25</v>
+        <v>9.6</v>
       </c>
       <c r="O28" t="n">
-        <v>1.35</v>
+        <v>1.1</v>
       </c>
       <c r="P28" t="n">
-        <v>1.24</v>
+        <v>3.8</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="R28" t="n">
-        <v>1.13</v>
+        <v>2.12</v>
       </c>
       <c r="S28" t="n">
-        <v>1.35</v>
+        <v>1.86</v>
       </c>
       <c r="T28" t="n">
-        <v>1.01</v>
+        <v>1.72</v>
       </c>
       <c r="U28" t="n">
-        <v>1.01</v>
+        <v>2.32</v>
       </c>
       <c r="V28" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="W28" t="n">
-        <v>1.01</v>
+        <v>4.5</v>
       </c>
       <c r="X28" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="Y28" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="Z28" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AA28" t="n">
-        <v>1000</v>
+        <v>510</v>
       </c>
       <c r="AB28" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AC28" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AD28" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AE28" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AF28" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AG28" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AH28" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AI28" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AJ28" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AK28" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AL28" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AM28" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AN28" t="n">
-        <v>1000</v>
+        <v>3.15</v>
       </c>
       <c r="AO28" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AP28" t="n">
-        <v>1.01</v>
+        <v>42</v>
       </c>
       <c r="AQ28" t="n">
-        <v>1.01</v>
+        <v>50</v>
       </c>
       <c r="AR28" t="n">
-        <v>1.01</v>
+        <v>40</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.01</v>
+        <v>55</v>
       </c>
       <c r="AT28" t="n">
-        <v>1.01</v>
+        <v>15.5</v>
       </c>
       <c r="AU28" t="n">
-        <v>1.01</v>
+        <v>16.5</v>
       </c>
       <c r="AV28" t="n">
-        <v>1.01</v>
+        <v>38</v>
       </c>
       <c r="AW28" t="n">
-        <v>1.01</v>
+        <v>42</v>
       </c>
       <c r="AX28" t="n">
-        <v>1.01</v>
+        <v>10.5</v>
       </c>
       <c r="AY28" t="n">
-        <v>1.01</v>
+        <v>10.5</v>
       </c>
       <c r="AZ28" t="n">
-        <v>1.01</v>
+        <v>23</v>
       </c>
       <c r="BA28" t="n">
-        <v>1.01</v>
+        <v>80</v>
       </c>
       <c r="BB28" t="n">
-        <v>1.01</v>
+        <v>10.5</v>
       </c>
       <c r="BC28" t="n">
-        <v>1.01</v>
+        <v>11</v>
       </c>
       <c r="BD28" t="n">
-        <v>1.01</v>
+        <v>23</v>
       </c>
       <c r="BE28" t="n">
-        <v>1.01</v>
+        <v>80</v>
       </c>
       <c r="BF28" t="n">
-        <v>1.01</v>
+        <v>3.05</v>
       </c>
       <c r="BG28" t="n">
-        <v>1.01</v>
+        <v>65</v>
       </c>
       <c r="BH28" t="inlineStr">
         <is>
-          <t>2026-02-22 19:36:32</t>
+          <t>2026-02-22 21:45:41</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Colombian Primera B</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -5986,191 +5986,191 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>19:15:00</t>
+          <t>17:30:00</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>San Lorenzo</t>
+          <t>Envigado</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Instituto</t>
+          <t>Quindio</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.38</v>
+        <v>1.04</v>
       </c>
       <c r="G29" t="n">
-        <v>2.58</v>
+        <v>1000</v>
       </c>
       <c r="H29" t="n">
-        <v>3.8</v>
+        <v>1.04</v>
       </c>
       <c r="I29" t="n">
-        <v>4.2</v>
+        <v>1000</v>
       </c>
       <c r="J29" t="n">
-        <v>2.88</v>
+        <v>1.02</v>
       </c>
       <c r="K29" t="n">
-        <v>3.05</v>
+        <v>1000</v>
       </c>
       <c r="L29" t="n">
-        <v>1.77</v>
+        <v>1.01</v>
       </c>
       <c r="M29" t="n">
-        <v>1.18</v>
+        <v>1.01</v>
       </c>
       <c r="N29" t="n">
-        <v>2.08</v>
+        <v>1.24</v>
       </c>
       <c r="O29" t="n">
-        <v>1.81</v>
+        <v>1.35</v>
       </c>
       <c r="P29" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Q29" t="n">
         <v>1.35</v>
       </c>
-      <c r="Q29" t="n">
-        <v>3.5</v>
-      </c>
       <c r="R29" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="S29" t="n">
-        <v>7.4</v>
+        <v>1.35</v>
       </c>
       <c r="T29" t="n">
-        <v>2.38</v>
+        <v>1.05</v>
       </c>
       <c r="U29" t="n">
-        <v>1.55</v>
+        <v>1.05</v>
       </c>
       <c r="V29" t="n">
-        <v>1.33</v>
+        <v>1.01</v>
       </c>
       <c r="W29" t="n">
-        <v>1.63</v>
+        <v>1.01</v>
       </c>
       <c r="X29" t="n">
-        <v>7.2</v>
+        <v>1000</v>
       </c>
       <c r="Y29" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="Z29" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AA29" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AB29" t="n">
-        <v>6.8</v>
+        <v>1000</v>
       </c>
       <c r="AC29" t="n">
-        <v>8.6</v>
+        <v>1000</v>
       </c>
       <c r="AD29" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AE29" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AF29" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AG29" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AH29" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AI29" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AJ29" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AK29" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AL29" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AM29" t="n">
-        <v>450</v>
+        <v>1000</v>
       </c>
       <c r="AN29" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AO29" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="AP29" t="n">
-        <v>5.7</v>
+        <v>1.01</v>
       </c>
       <c r="AQ29" t="n">
-        <v>7.6</v>
+        <v>1.01</v>
       </c>
       <c r="AR29" t="n">
-        <v>22</v>
+        <v>1.01</v>
       </c>
       <c r="AS29" t="n">
-        <v>5.5</v>
+        <v>1.01</v>
       </c>
       <c r="AT29" t="n">
-        <v>5.4</v>
+        <v>1.01</v>
       </c>
       <c r="AU29" t="n">
-        <v>6.6</v>
+        <v>1.01</v>
       </c>
       <c r="AV29" t="n">
-        <v>17.5</v>
+        <v>1.01</v>
       </c>
       <c r="AW29" t="n">
-        <v>5.5</v>
+        <v>1.01</v>
       </c>
       <c r="AX29" t="n">
-        <v>11.5</v>
+        <v>1.01</v>
       </c>
       <c r="AY29" t="n">
-        <v>12</v>
+        <v>1.01</v>
       </c>
       <c r="AZ29" t="n">
-        <v>5</v>
+        <v>1.01</v>
       </c>
       <c r="BA29" t="n">
-        <v>5.6</v>
+        <v>1.01</v>
       </c>
       <c r="BB29" t="n">
-        <v>5.1</v>
+        <v>1.01</v>
       </c>
       <c r="BC29" t="n">
-        <v>5.2</v>
+        <v>1.01</v>
       </c>
       <c r="BD29" t="n">
-        <v>5.5</v>
+        <v>1.01</v>
       </c>
       <c r="BE29" t="n">
-        <v>5.7</v>
+        <v>1.01</v>
       </c>
       <c r="BF29" t="n">
-        <v>5.3</v>
+        <v>1.01</v>
       </c>
       <c r="BG29" t="n">
-        <v>5.6</v>
+        <v>1.01</v>
       </c>
       <c r="BH29" t="inlineStr">
         <is>
-          <t>2026-02-22 19:36:32</t>
+          <t>2026-02-22 21:45:41</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Colombian Primera B</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -6180,378 +6180,572 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>19:30:00</t>
+          <t>19:15:00</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Union Magdalena</t>
+          <t>San Lorenzo</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Tigres FC Zipaquira</t>
+          <t>Instituto</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.04</v>
+        <v>2.38</v>
       </c>
       <c r="G30" t="n">
-        <v>1000</v>
+        <v>2.54</v>
       </c>
       <c r="H30" t="n">
-        <v>1.04</v>
+        <v>3.8</v>
       </c>
       <c r="I30" t="n">
-        <v>1000</v>
+        <v>4.2</v>
       </c>
       <c r="J30" t="n">
-        <v>1.01</v>
+        <v>2.9</v>
       </c>
       <c r="K30" t="n">
-        <v>1000</v>
+        <v>3.05</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="N30" t="n">
-        <v>1.25</v>
+        <v>2.06</v>
       </c>
       <c r="O30" t="n">
-        <v>1.3</v>
+        <v>1.81</v>
       </c>
       <c r="P30" t="n">
-        <v>1.24</v>
+        <v>1.35</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.3</v>
+        <v>3.5</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>2.36</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z30" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AA30" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AB30" t="n">
-        <v>0</v>
+        <v>6.2</v>
       </c>
       <c r="AC30" t="n">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="AD30" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AE30" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AF30" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AG30" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AH30" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AI30" t="n">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="AJ30" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AK30" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AL30" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AM30" t="n">
-        <v>0</v>
+        <v>460</v>
       </c>
       <c r="AN30" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AO30" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AP30" t="n">
-        <v>0</v>
+        <v>5.6</v>
       </c>
       <c r="AQ30" t="n">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="AR30" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="AS30" t="n">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="AT30" t="n">
-        <v>0</v>
+        <v>5.4</v>
       </c>
       <c r="AU30" t="n">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="AV30" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AW30" t="n">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="AX30" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AY30" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AZ30" t="n">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="BA30" t="n">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="BB30" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="BC30" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="BD30" t="n">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="BE30" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="BF30" t="n">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="BG30" t="n">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="BH30" t="inlineStr">
         <is>
-          <t>2026-02-22 19:36:32</t>
+          <t>2026-02-22 21:45:41</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
+          <t>Colombian Primera B</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>2026-02-24</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>19:30:00</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Union Magdalena</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Tigres FC Zipaquira</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="G31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H31" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="I31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J31" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="K31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L31" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N31" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="O31" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P31" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="R31" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="S31" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T31" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U31" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V31" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="W31" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="X31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AP31" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AQ31" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AR31" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AS31" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AT31" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AU31" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AV31" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AW31" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AX31" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AY31" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AZ31" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BA31" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BB31" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BC31" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BD31" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BE31" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BF31" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BG31" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BH31" t="inlineStr">
+        <is>
+          <t>2026-02-22 21:45:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
           <t>Argentinian Primera Division</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B32" t="inlineStr">
         <is>
           <t>2026-02-24</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="C32" t="inlineStr">
         <is>
           <t>19:45:00</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="D32" t="inlineStr">
         <is>
           <t>Central Cordoba (SdE)</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>Talleres</t>
         </is>
       </c>
-      <c r="F31" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="G31" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="H31" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="I31" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="J31" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="K31" t="n">
+      <c r="F32" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="G32" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="H32" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="I32" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="J32" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="K32" t="n">
         <v>3</v>
       </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" t="n">
-        <v>0</v>
-      </c>
-      <c r="P31" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="Q31" t="n">
+      <c r="L32" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="N32" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="O32" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="P32" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Q32" t="n">
         <v>2.92</v>
       </c>
-      <c r="R31" t="n">
-        <v>0</v>
-      </c>
-      <c r="S31" t="n">
-        <v>0</v>
-      </c>
-      <c r="T31" t="n">
-        <v>0</v>
-      </c>
-      <c r="U31" t="n">
-        <v>0</v>
-      </c>
-      <c r="V31" t="n">
-        <v>0</v>
-      </c>
-      <c r="W31" t="n">
-        <v>0</v>
-      </c>
-      <c r="X31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ31" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA31" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB31" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC31" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD31" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE31" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF31" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG31" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH31" t="inlineStr">
-        <is>
-          <t>2026-02-22 19:36:32</t>
+      <c r="R32" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="S32" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="T32" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="U32" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="V32" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="W32" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="X32" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>7</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>970</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>42</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>16</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>42</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>18</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>27</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>80</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>70</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>130</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>290</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO32" t="n">
+        <v>60</v>
+      </c>
+      <c r="AP32" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AQ32" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AR32" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AS32" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AT32" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AU32" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AV32" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AW32" t="n">
+        <v>34</v>
+      </c>
+      <c r="AX32" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AY32" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ32" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="BA32" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="BB32" t="n">
+        <v>10</v>
+      </c>
+      <c r="BC32" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="BD32" t="n">
+        <v>10</v>
+      </c>
+      <c r="BE32" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="BF32" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG32" t="n">
+        <v>34</v>
+      </c>
+      <c r="BH32" t="inlineStr">
+        <is>
+          <t>2026-02-22 21:45:41</t>
         </is>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-24.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-24.xlsx
@@ -774,7 +774,7 @@
         <v>2.22</v>
       </c>
       <c r="J2" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="K2" t="n">
         <v>3.65</v>
@@ -783,34 +783,34 @@
         <v>1.44</v>
       </c>
       <c r="M2" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N2" t="n">
-        <v>2.68</v>
+        <v>2.34</v>
       </c>
       <c r="O2" t="n">
-        <v>1.43</v>
+        <v>1.08</v>
       </c>
       <c r="P2" t="n">
-        <v>1.64</v>
+        <v>1.4</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="R2" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="S2" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="T2" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="U2" t="n">
         <v>1.84</v>
       </c>
       <c r="V2" t="n">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="W2" t="n">
         <v>1.23</v>
@@ -925,7 +925,7 @@
       </c>
       <c r="BH2" t="inlineStr">
         <is>
-          <t>2026-02-22 21:45:41</t>
+          <t>2026-02-22 23:54:08</t>
         </is>
       </c>
     </row>
@@ -974,7 +974,7 @@
         <v>4.7</v>
       </c>
       <c r="L3" t="n">
-        <v>1.37</v>
+        <v>1.33</v>
       </c>
       <c r="M3" t="n">
         <v>1.06</v>
@@ -1064,62 +1064,62 @@
         <v>1000</v>
       </c>
       <c r="AP3" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU3" t="n">
         <v>4.4</v>
       </c>
-      <c r="AQ3" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>3.9</v>
-      </c>
       <c r="AV3" t="n">
-        <v>4.9</v>
+        <v>3.05</v>
       </c>
       <c r="AW3" t="n">
-        <v>2.66</v>
+        <v>1.46</v>
       </c>
       <c r="AX3" t="n">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="AY3" t="n">
-        <v>3.75</v>
+        <v>4.4</v>
       </c>
       <c r="AZ3" t="n">
-        <v>4.8</v>
+        <v>3.05</v>
       </c>
       <c r="BA3" t="n">
-        <v>2.66</v>
+        <v>1.46</v>
       </c>
       <c r="BB3" t="n">
-        <v>4.3</v>
+        <v>5</v>
       </c>
       <c r="BC3" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="BD3" t="n">
-        <v>3.5</v>
+        <v>2.4</v>
       </c>
       <c r="BE3" t="n">
-        <v>2.66</v>
+        <v>1.46</v>
       </c>
       <c r="BF3" t="n">
         <v>7</v>
       </c>
       <c r="BG3" t="n">
-        <v>2.68</v>
+        <v>1.46</v>
       </c>
       <c r="BH3" t="inlineStr">
         <is>
-          <t>2026-02-22 21:45:41</t>
+          <t>2026-02-22 23:54:08</t>
         </is>
       </c>
     </row>
@@ -1150,22 +1150,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="G4" t="n">
         <v>1.42</v>
       </c>
       <c r="H4" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="I4" t="n">
         <v>8.4</v>
       </c>
       <c r="J4" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="K4" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="L4" t="n">
         <v>1.25</v>
@@ -1189,7 +1189,7 @@
         <v>1.78</v>
       </c>
       <c r="S4" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="T4" t="n">
         <v>1.75</v>
@@ -1225,7 +1225,7 @@
         <v>30</v>
       </c>
       <c r="AE4" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AF4" t="n">
         <v>10.5</v>
@@ -1313,7 +1313,7 @@
       </c>
       <c r="BH4" t="inlineStr">
         <is>
-          <t>2026-02-22 21:45:41</t>
+          <t>2026-02-22 23:54:08</t>
         </is>
       </c>
     </row>
@@ -1507,7 +1507,7 @@
       </c>
       <c r="BH5" t="inlineStr">
         <is>
-          <t>2026-02-22 21:45:41</t>
+          <t>2026-02-22 23:54:08</t>
         </is>
       </c>
     </row>
@@ -1541,22 +1541,22 @@
         <v>2.96</v>
       </c>
       <c r="G6" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="H6" t="n">
-        <v>1.83</v>
+        <v>1.97</v>
       </c>
       <c r="I6" t="n">
         <v>2.22</v>
       </c>
       <c r="J6" t="n">
-        <v>1.03</v>
+        <v>3.15</v>
       </c>
       <c r="K6" t="n">
         <v>950</v>
       </c>
       <c r="L6" t="n">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="M6" t="n">
         <v>1.04</v>
@@ -1568,13 +1568,13 @@
         <v>1.17</v>
       </c>
       <c r="P6" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="Q6" t="n">
         <v>1.5</v>
       </c>
       <c r="R6" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="S6" t="n">
         <v>2.46</v>
@@ -1589,7 +1589,7 @@
         <v>1.83</v>
       </c>
       <c r="W6" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="X6" t="n">
         <v>29</v>
@@ -1701,7 +1701,7 @@
       </c>
       <c r="BH6" t="inlineStr">
         <is>
-          <t>2026-02-22 21:45:41</t>
+          <t>2026-02-22 23:54:08</t>
         </is>
       </c>
     </row>
@@ -1750,19 +1750,19 @@
         <v>7</v>
       </c>
       <c r="L7" t="n">
-        <v>1.27</v>
+        <v>1.01</v>
       </c>
       <c r="M7" t="n">
         <v>1.04</v>
       </c>
       <c r="N7" t="n">
-        <v>1.51</v>
+        <v>2.08</v>
       </c>
       <c r="O7" t="n">
         <v>1.18</v>
       </c>
       <c r="P7" t="n">
-        <v>1.51</v>
+        <v>2.04</v>
       </c>
       <c r="Q7" t="n">
         <v>1.18</v>
@@ -1895,7 +1895,7 @@
       </c>
       <c r="BH7" t="inlineStr">
         <is>
-          <t>2026-02-22 21:45:41</t>
+          <t>2026-02-22 23:54:08</t>
         </is>
       </c>
     </row>
@@ -1935,7 +1935,7 @@
         <v>3.9</v>
       </c>
       <c r="I8" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="J8" t="n">
         <v>3.85</v>
@@ -1962,10 +1962,10 @@
         <v>1.67</v>
       </c>
       <c r="R8" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="S8" t="n">
-        <v>2.46</v>
+        <v>2.54</v>
       </c>
       <c r="T8" t="n">
         <v>1.62</v>
@@ -2089,7 +2089,7 @@
       </c>
       <c r="BH8" t="inlineStr">
         <is>
-          <t>2026-02-22 21:45:41</t>
+          <t>2026-02-22 23:54:08</t>
         </is>
       </c>
     </row>
@@ -2147,7 +2147,7 @@
         <v>4.7</v>
       </c>
       <c r="O9" t="n">
-        <v>1.21</v>
+        <v>1.18</v>
       </c>
       <c r="P9" t="n">
         <v>2.28</v>
@@ -2234,7 +2234,7 @@
         <v>2.18</v>
       </c>
       <c r="AR9" t="n">
-        <v>2.18</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AS9" t="n">
         <v>2.26</v>
@@ -2243,7 +2243,7 @@
         <v>2.38</v>
       </c>
       <c r="AU9" t="n">
-        <v>9.4</v>
+        <v>2.2</v>
       </c>
       <c r="AV9" t="n">
         <v>2.18</v>
@@ -2255,7 +2255,7 @@
         <v>2.48</v>
       </c>
       <c r="AY9" t="n">
-        <v>2.38</v>
+        <v>21</v>
       </c>
       <c r="AZ9" t="n">
         <v>2.34</v>
@@ -2283,7 +2283,7 @@
       </c>
       <c r="BH9" t="inlineStr">
         <is>
-          <t>2026-02-22 21:45:41</t>
+          <t>2026-02-22 23:54:08</t>
         </is>
       </c>
     </row>
@@ -2320,7 +2320,7 @@
         <v>4.8</v>
       </c>
       <c r="H10" t="n">
-        <v>2.04</v>
+        <v>2.1</v>
       </c>
       <c r="I10" t="n">
         <v>2.94</v>
@@ -2332,13 +2332,13 @@
         <v>3.55</v>
       </c>
       <c r="L10" t="n">
-        <v>1.55</v>
+        <v>1.01</v>
       </c>
       <c r="M10" t="n">
         <v>1.15</v>
       </c>
       <c r="N10" t="n">
-        <v>1.34</v>
+        <v>2</v>
       </c>
       <c r="O10" t="n">
         <v>1.62</v>
@@ -2356,10 +2356,10 @@
         <v>5.2</v>
       </c>
       <c r="T10" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="U10" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="V10" t="n">
         <v>1.52</v>
@@ -2431,7 +2431,7 @@
         <v>1.9</v>
       </c>
       <c r="AS10" t="n">
-        <v>4.3</v>
+        <v>2.02</v>
       </c>
       <c r="AT10" t="n">
         <v>1.82</v>
@@ -2446,10 +2446,10 @@
         <v>2.02</v>
       </c>
       <c r="AX10" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="AY10" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="AZ10" t="n">
         <v>2</v>
@@ -2477,7 +2477,7 @@
       </c>
       <c r="BH10" t="inlineStr">
         <is>
-          <t>2026-02-22 21:45:41</t>
+          <t>2026-02-22 23:54:08</t>
         </is>
       </c>
     </row>
@@ -2526,13 +2526,13 @@
         <v>5</v>
       </c>
       <c r="L11" t="n">
-        <v>1.01</v>
+        <v>1.49</v>
       </c>
       <c r="M11" t="n">
         <v>1.09</v>
       </c>
       <c r="N11" t="n">
-        <v>2.96</v>
+        <v>2.9</v>
       </c>
       <c r="O11" t="n">
         <v>1.44</v>
@@ -2550,13 +2550,13 @@
         <v>4.5</v>
       </c>
       <c r="T11" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="U11" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="V11" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="W11" t="n">
         <v>1.1</v>
@@ -2586,7 +2586,7 @@
         <v>21</v>
       </c>
       <c r="AF11" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AG11" t="n">
         <v>40</v>
@@ -2619,7 +2619,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AQ11" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="AR11" t="n">
         <v>6.6</v>
@@ -2631,7 +2631,7 @@
         <v>17</v>
       </c>
       <c r="AU11" t="n">
-        <v>3.95</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AV11" t="n">
         <v>9.4</v>
@@ -2643,7 +2643,7 @@
         <v>5.7</v>
       </c>
       <c r="AY11" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="AZ11" t="n">
         <v>5.2</v>
@@ -2661,7 +2661,7 @@
         <v>5.9</v>
       </c>
       <c r="BE11" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="BF11" t="n">
         <v>6</v>
@@ -2671,7 +2671,7 @@
       </c>
       <c r="BH11" t="inlineStr">
         <is>
-          <t>2026-02-22 21:45:41</t>
+          <t>2026-02-22 23:54:08</t>
         </is>
       </c>
     </row>
@@ -2726,7 +2726,7 @@
         <v>1.11</v>
       </c>
       <c r="N12" t="n">
-        <v>2.7</v>
+        <v>2.74</v>
       </c>
       <c r="O12" t="n">
         <v>1.5</v>
@@ -2744,7 +2744,7 @@
         <v>5.1</v>
       </c>
       <c r="T12" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="U12" t="n">
         <v>1.56</v>
@@ -2789,7 +2789,7 @@
         <v>36</v>
       </c>
       <c r="AI12" t="n">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="AJ12" t="n">
         <v>17</v>
@@ -2810,7 +2810,7 @@
         <v>1000</v>
       </c>
       <c r="AP12" t="n">
-        <v>8.6</v>
+        <v>4.1</v>
       </c>
       <c r="AQ12" t="n">
         <v>5.3</v>
@@ -2822,7 +2822,7 @@
         <v>3.5</v>
       </c>
       <c r="AT12" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="AU12" t="n">
         <v>4.3</v>
@@ -2837,7 +2837,7 @@
         <v>6.4</v>
       </c>
       <c r="AY12" t="n">
-        <v>4.6</v>
+        <v>9.6</v>
       </c>
       <c r="AZ12" t="n">
         <v>6</v>
@@ -2865,7 +2865,7 @@
       </c>
       <c r="BH12" t="inlineStr">
         <is>
-          <t>2026-02-22 21:45:41</t>
+          <t>2026-02-22 23:54:08</t>
         </is>
       </c>
     </row>
@@ -2899,13 +2899,13 @@
         <v>3.15</v>
       </c>
       <c r="G13" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="H13" t="n">
         <v>2.3</v>
       </c>
       <c r="I13" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="J13" t="n">
         <v>3.05</v>
@@ -2992,7 +2992,7 @@
         <v>55</v>
       </c>
       <c r="AL13" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AM13" t="n">
         <v>150</v>
@@ -3007,7 +3007,7 @@
         <v>3.85</v>
       </c>
       <c r="AQ13" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="AR13" t="n">
         <v>11</v>
@@ -3016,19 +3016,19 @@
         <v>5</v>
       </c>
       <c r="AT13" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="AU13" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="AV13" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="AW13" t="n">
         <v>4.9</v>
       </c>
       <c r="AX13" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="AY13" t="n">
         <v>4.3</v>
@@ -3037,19 +3037,19 @@
         <v>4.4</v>
       </c>
       <c r="BA13" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="BB13" t="n">
         <v>5.3</v>
       </c>
       <c r="BC13" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="BD13" t="n">
         <v>5.2</v>
       </c>
       <c r="BE13" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="BF13" t="n">
         <v>5.2</v>
@@ -3059,7 +3059,7 @@
       </c>
       <c r="BH13" t="inlineStr">
         <is>
-          <t>2026-02-22 21:45:41</t>
+          <t>2026-02-22 23:54:08</t>
         </is>
       </c>
     </row>
@@ -3090,22 +3090,22 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.35</v>
+        <v>1.84</v>
       </c>
       <c r="G14" t="n">
-        <v>2.74</v>
+        <v>2.68</v>
       </c>
       <c r="H14" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="I14" t="n">
         <v>4</v>
       </c>
       <c r="J14" t="n">
-        <v>2.58</v>
+        <v>2.66</v>
       </c>
       <c r="K14" t="n">
-        <v>110</v>
+        <v>4.9</v>
       </c>
       <c r="L14" t="n">
         <v>1.38</v>
@@ -3114,22 +3114,22 @@
         <v>1.01</v>
       </c>
       <c r="N14" t="n">
-        <v>1.31</v>
+        <v>2.6</v>
       </c>
       <c r="O14" t="n">
         <v>1.29</v>
       </c>
       <c r="P14" t="n">
-        <v>1.31</v>
+        <v>1.73</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.29</v>
+        <v>1.57</v>
       </c>
       <c r="R14" t="n">
         <v>1.31</v>
       </c>
       <c r="S14" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="T14" t="n">
         <v>1.51</v>
@@ -3141,7 +3141,7 @@
         <v>1.33</v>
       </c>
       <c r="W14" t="n">
-        <v>1.57</v>
+        <v>1.59</v>
       </c>
       <c r="X14" t="n">
         <v>21</v>
@@ -3198,22 +3198,22 @@
         <v>1000</v>
       </c>
       <c r="AP14" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="AQ14" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="AR14" t="n">
-        <v>2.7</v>
+        <v>2.74</v>
       </c>
       <c r="AS14" t="n">
-        <v>2.94</v>
+        <v>2.98</v>
       </c>
       <c r="AT14" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="AU14" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="AV14" t="n">
         <v>10</v>
@@ -3222,38 +3222,38 @@
         <v>27</v>
       </c>
       <c r="AX14" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="AY14" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="AZ14" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="BA14" t="n">
         <v>32</v>
       </c>
       <c r="BB14" t="n">
-        <v>2.72</v>
+        <v>2.76</v>
       </c>
       <c r="BC14" t="n">
-        <v>2.7</v>
+        <v>2.74</v>
       </c>
       <c r="BD14" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="BE14" t="n">
-        <v>2.94</v>
+        <v>2.98</v>
       </c>
       <c r="BF14" t="n">
-        <v>2.94</v>
+        <v>2.98</v>
       </c>
       <c r="BG14" t="n">
-        <v>2.94</v>
+        <v>2.98</v>
       </c>
       <c r="BH14" t="inlineStr">
         <is>
-          <t>2026-02-22 21:45:41</t>
+          <t>2026-02-22 23:54:08</t>
         </is>
       </c>
     </row>
@@ -3293,10 +3293,10 @@
         <v>2.08</v>
       </c>
       <c r="I15" t="n">
-        <v>2.48</v>
+        <v>2.34</v>
       </c>
       <c r="J15" t="n">
-        <v>2.86</v>
+        <v>3.05</v>
       </c>
       <c r="K15" t="n">
         <v>4.3</v>
@@ -3314,10 +3314,10 @@
         <v>1.23</v>
       </c>
       <c r="P15" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.62</v>
+        <v>1.68</v>
       </c>
       <c r="R15" t="n">
         <v>1.46</v>
@@ -3326,7 +3326,7 @@
         <v>2.52</v>
       </c>
       <c r="T15" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="U15" t="n">
         <v>2.3</v>
@@ -3447,7 +3447,7 @@
       </c>
       <c r="BH15" t="inlineStr">
         <is>
-          <t>2026-02-22 21:45:41</t>
+          <t>2026-02-22 23:54:08</t>
         </is>
       </c>
     </row>
@@ -3517,7 +3517,7 @@
         <v>1.53</v>
       </c>
       <c r="S16" t="n">
-        <v>1.59</v>
+        <v>1.54</v>
       </c>
       <c r="T16" t="n">
         <v>1.47</v>
@@ -3641,7 +3641,7 @@
       </c>
       <c r="BH16" t="inlineStr">
         <is>
-          <t>2026-02-22 21:45:41</t>
+          <t>2026-02-22 23:54:08</t>
         </is>
       </c>
     </row>
@@ -3675,7 +3675,7 @@
         <v>3.15</v>
       </c>
       <c r="G17" t="n">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="H17" t="n">
         <v>2.18</v>
@@ -3723,7 +3723,7 @@
         <v>1.83</v>
       </c>
       <c r="W17" t="n">
-        <v>1.35</v>
+        <v>1.41</v>
       </c>
       <c r="X17" t="n">
         <v>22</v>
@@ -3835,7 +3835,7 @@
       </c>
       <c r="BH17" t="inlineStr">
         <is>
-          <t>2026-02-22 21:45:41</t>
+          <t>2026-02-22 23:54:08</t>
         </is>
       </c>
     </row>
@@ -3872,7 +3872,7 @@
         <v>10</v>
       </c>
       <c r="H18" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="I18" t="n">
         <v>1.48</v>
@@ -3902,7 +3902,7 @@
         <v>1.66</v>
       </c>
       <c r="R18" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="S18" t="n">
         <v>2.68</v>
@@ -4029,7 +4029,7 @@
       </c>
       <c r="BH18" t="inlineStr">
         <is>
-          <t>2026-02-22 21:45:41</t>
+          <t>2026-02-22 23:54:08</t>
         </is>
       </c>
     </row>
@@ -4060,25 +4060,25 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>4.7</v>
+        <v>4.3</v>
       </c>
       <c r="G19" t="n">
-        <v>6.2</v>
+        <v>5.7</v>
       </c>
       <c r="H19" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="I19" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="J19" t="n">
         <v>3.35</v>
       </c>
       <c r="K19" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="L19" t="n">
-        <v>1.39</v>
+        <v>1.36</v>
       </c>
       <c r="M19" t="n">
         <v>1.07</v>
@@ -4096,10 +4096,10 @@
         <v>1.92</v>
       </c>
       <c r="R19" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="S19" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="T19" t="n">
         <v>1.84</v>
@@ -4108,10 +4108,10 @@
         <v>1.95</v>
       </c>
       <c r="V19" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="W19" t="n">
-        <v>1.19</v>
+        <v>1.21</v>
       </c>
       <c r="X19" t="n">
         <v>970</v>
@@ -4141,7 +4141,7 @@
         <v>46</v>
       </c>
       <c r="AG19" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AH19" t="n">
         <v>24</v>
@@ -4168,62 +4168,62 @@
         <v>970</v>
       </c>
       <c r="AP19" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="AQ19" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="AR19" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="AS19" t="n">
         <v>4.2</v>
       </c>
       <c r="AT19" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="AU19" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="AV19" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="AW19" t="n">
         <v>4.2</v>
       </c>
       <c r="AX19" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="AY19" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="AZ19" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="BA19" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="BB19" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="BC19" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="BD19" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="BE19" t="n">
         <v>4.9</v>
       </c>
-      <c r="BD19" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="BE19" t="n">
-        <v>5</v>
-      </c>
       <c r="BF19" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="BG19" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="BH19" t="inlineStr">
         <is>
-          <t>2026-02-22 21:45:41</t>
+          <t>2026-02-22 23:54:08</t>
         </is>
       </c>
     </row>
@@ -4417,7 +4417,7 @@
       </c>
       <c r="BH20" t="inlineStr">
         <is>
-          <t>2026-02-22 21:45:41</t>
+          <t>2026-02-22 23:54:08</t>
         </is>
       </c>
     </row>
@@ -4466,7 +4466,7 @@
         <v>4.2</v>
       </c>
       <c r="L21" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="M21" t="n">
         <v>1.05</v>
@@ -4505,7 +4505,7 @@
         <v>1000</v>
       </c>
       <c r="Y21" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="Z21" t="n">
         <v>32</v>
@@ -4514,25 +4514,25 @@
         <v>70</v>
       </c>
       <c r="AB21" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AC21" t="n">
         <v>10.5</v>
       </c>
       <c r="AD21" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AE21" t="n">
         <v>48</v>
       </c>
       <c r="AF21" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AG21" t="n">
         <v>13</v>
       </c>
       <c r="AH21" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AI21" t="n">
         <v>48</v>
@@ -4611,7 +4611,7 @@
       </c>
       <c r="BH21" t="inlineStr">
         <is>
-          <t>2026-02-22 21:45:41</t>
+          <t>2026-02-22 23:54:08</t>
         </is>
       </c>
     </row>
@@ -4699,10 +4699,10 @@
         <v>34</v>
       </c>
       <c r="Y22" t="n">
-        <v>18</v>
+        <v>970</v>
       </c>
       <c r="Z22" t="n">
-        <v>19</v>
+        <v>970</v>
       </c>
       <c r="AA22" t="n">
         <v>28</v>
@@ -4711,10 +4711,10 @@
         <v>27</v>
       </c>
       <c r="AC22" t="n">
-        <v>13</v>
+        <v>970</v>
       </c>
       <c r="AD22" t="n">
-        <v>13.5</v>
+        <v>970</v>
       </c>
       <c r="AE22" t="n">
         <v>22</v>
@@ -4726,7 +4726,7 @@
         <v>21</v>
       </c>
       <c r="AH22" t="n">
-        <v>19</v>
+        <v>970</v>
       </c>
       <c r="AI22" t="n">
         <v>32</v>
@@ -4747,7 +4747,7 @@
         <v>32</v>
       </c>
       <c r="AO22" t="n">
-        <v>380</v>
+        <v>970</v>
       </c>
       <c r="AP22" t="n">
         <v>3.8</v>
@@ -4805,7 +4805,7 @@
       </c>
       <c r="BH22" t="inlineStr">
         <is>
-          <t>2026-02-22 21:45:41</t>
+          <t>2026-02-22 23:54:08</t>
         </is>
       </c>
     </row>
@@ -4836,7 +4836,7 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="G23" t="n">
         <v>2.46</v>
@@ -4869,7 +4869,7 @@
         <v>1.87</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.94</v>
+        <v>1.85</v>
       </c>
       <c r="R23" t="n">
         <v>1.33</v>
@@ -4878,10 +4878,10 @@
         <v>3.35</v>
       </c>
       <c r="T23" t="n">
-        <v>1.77</v>
+        <v>1.75</v>
       </c>
       <c r="U23" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="V23" t="n">
         <v>1.3</v>
@@ -4956,10 +4956,10 @@
         <v>4.7</v>
       </c>
       <c r="AT23" t="n">
-        <v>7.6</v>
+        <v>3.5</v>
       </c>
       <c r="AU23" t="n">
-        <v>6.2</v>
+        <v>6.8</v>
       </c>
       <c r="AV23" t="n">
         <v>11.5</v>
@@ -4999,7 +4999,7 @@
       </c>
       <c r="BH23" t="inlineStr">
         <is>
-          <t>2026-02-22 21:45:41</t>
+          <t>2026-02-22 23:54:08</t>
         </is>
       </c>
     </row>
@@ -5033,7 +5033,7 @@
         <v>1.61</v>
       </c>
       <c r="G24" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="H24" t="n">
         <v>5.8</v>
@@ -5048,7 +5048,7 @@
         <v>4.9</v>
       </c>
       <c r="L24" t="n">
-        <v>1.32</v>
+        <v>1.28</v>
       </c>
       <c r="M24" t="n">
         <v>1.05</v>
@@ -5057,19 +5057,19 @@
         <v>4.3</v>
       </c>
       <c r="O24" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="P24" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="Q24" t="n">
         <v>1.65</v>
       </c>
       <c r="R24" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="S24" t="n">
-        <v>2.48</v>
+        <v>2.52</v>
       </c>
       <c r="T24" t="n">
         <v>1.65</v>
@@ -5081,7 +5081,7 @@
         <v>1.16</v>
       </c>
       <c r="W24" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="X24" t="n">
         <v>23</v>
@@ -5132,7 +5132,7 @@
         <v>100</v>
       </c>
       <c r="AN24" t="n">
-        <v>970</v>
+        <v>8.6</v>
       </c>
       <c r="AO24" t="n">
         <v>90</v>
@@ -5193,7 +5193,7 @@
       </c>
       <c r="BH24" t="inlineStr">
         <is>
-          <t>2026-02-22 21:45:41</t>
+          <t>2026-02-22 23:54:08</t>
         </is>
       </c>
     </row>
@@ -5387,7 +5387,7 @@
       </c>
       <c r="BH25" t="inlineStr">
         <is>
-          <t>2026-02-22 21:45:41</t>
+          <t>2026-02-22 23:54:08</t>
         </is>
       </c>
     </row>
@@ -5424,7 +5424,7 @@
         <v>1.18</v>
       </c>
       <c r="H26" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="I26" t="n">
         <v>21</v>
@@ -5433,7 +5433,7 @@
         <v>10</v>
       </c>
       <c r="K26" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="L26" t="n">
         <v>1.19</v>
@@ -5448,7 +5448,7 @@
         <v>1.1</v>
       </c>
       <c r="P26" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="Q26" t="n">
         <v>1.32</v>
@@ -5463,7 +5463,7 @@
         <v>2.04</v>
       </c>
       <c r="U26" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="V26" t="n">
         <v>1.05</v>
@@ -5520,13 +5520,13 @@
         <v>1000</v>
       </c>
       <c r="AN26" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="AO26" t="n">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="AP26" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="AQ26" t="n">
         <v>34</v>
@@ -5535,13 +5535,13 @@
         <v>48</v>
       </c>
       <c r="AS26" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AT26" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AU26" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AV26" t="n">
         <v>32</v>
@@ -5581,7 +5581,7 @@
       </c>
       <c r="BH26" t="inlineStr">
         <is>
-          <t>2026-02-22 21:45:41</t>
+          <t>2026-02-22 23:54:08</t>
         </is>
       </c>
     </row>
@@ -5775,7 +5775,7 @@
       </c>
       <c r="BH27" t="inlineStr">
         <is>
-          <t>2026-02-22 21:45:41</t>
+          <t>2026-02-22 23:54:08</t>
         </is>
       </c>
     </row>
@@ -5815,7 +5815,7 @@
         <v>11.5</v>
       </c>
       <c r="I28" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="J28" t="n">
         <v>7.6</v>
@@ -5836,10 +5836,10 @@
         <v>1.1</v>
       </c>
       <c r="P28" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="R28" t="n">
         <v>2.12</v>
@@ -5854,7 +5854,7 @@
         <v>2.32</v>
       </c>
       <c r="V28" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="W28" t="n">
         <v>4.5</v>
@@ -5872,7 +5872,7 @@
         <v>510</v>
       </c>
       <c r="AB28" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AC28" t="n">
         <v>18</v>
@@ -5893,7 +5893,7 @@
         <v>25</v>
       </c>
       <c r="AI28" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AJ28" t="n">
         <v>11.5</v>
@@ -5914,13 +5914,13 @@
         <v>100</v>
       </c>
       <c r="AP28" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AQ28" t="n">
         <v>50</v>
       </c>
       <c r="AR28" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="AS28" t="n">
         <v>55</v>
@@ -5929,7 +5929,7 @@
         <v>15.5</v>
       </c>
       <c r="AU28" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AV28" t="n">
         <v>38</v>
@@ -5965,11 +5965,11 @@
         <v>3.05</v>
       </c>
       <c r="BG28" t="n">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="BH28" t="inlineStr">
         <is>
-          <t>2026-02-22 21:45:41</t>
+          <t>2026-02-22 23:54:08</t>
         </is>
       </c>
     </row>
@@ -6163,7 +6163,7 @@
       </c>
       <c r="BH29" t="inlineStr">
         <is>
-          <t>2026-02-22 21:45:41</t>
+          <t>2026-02-22 23:54:08</t>
         </is>
       </c>
     </row>
@@ -6197,7 +6197,7 @@
         <v>2.38</v>
       </c>
       <c r="G30" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="H30" t="n">
         <v>3.8</v>
@@ -6206,46 +6206,46 @@
         <v>4.2</v>
       </c>
       <c r="J30" t="n">
-        <v>2.9</v>
+        <v>2.82</v>
       </c>
       <c r="K30" t="n">
         <v>3.05</v>
       </c>
       <c r="L30" t="n">
-        <v>1.77</v>
+        <v>1.74</v>
       </c>
       <c r="M30" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="N30" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="O30" t="n">
-        <v>1.81</v>
+        <v>1.78</v>
       </c>
       <c r="P30" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="Q30" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="R30" t="n">
         <v>1.12</v>
       </c>
       <c r="S30" t="n">
-        <v>7.4</v>
+        <v>8.6</v>
       </c>
       <c r="T30" t="n">
-        <v>2.36</v>
+        <v>2.52</v>
       </c>
       <c r="U30" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="V30" t="n">
         <v>1.31</v>
       </c>
       <c r="W30" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="X30" t="n">
         <v>7.2</v>
@@ -6266,7 +6266,7 @@
         <v>7.4</v>
       </c>
       <c r="AD30" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AE30" t="n">
         <v>110</v>
@@ -6278,22 +6278,22 @@
         <v>14.5</v>
       </c>
       <c r="AH30" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AI30" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AJ30" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AK30" t="n">
         <v>55</v>
       </c>
       <c r="AL30" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AM30" t="n">
-        <v>460</v>
+        <v>410</v>
       </c>
       <c r="AN30" t="n">
         <v>65</v>
@@ -6311,7 +6311,7 @@
         <v>19.5</v>
       </c>
       <c r="AS30" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="AT30" t="n">
         <v>5.4</v>
@@ -6323,41 +6323,41 @@
         <v>17.5</v>
       </c>
       <c r="AW30" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AX30" t="n">
         <v>12</v>
       </c>
       <c r="AY30" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AZ30" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="BA30" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB30" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="BC30" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="BD30" t="n">
         <v>7.8</v>
       </c>
-      <c r="BB30" t="n">
-        <v>7</v>
-      </c>
-      <c r="BC30" t="n">
-        <v>7</v>
-      </c>
-      <c r="BD30" t="n">
-        <v>7.6</v>
-      </c>
       <c r="BE30" t="n">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="BF30" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="BG30" t="n">
-        <v>7.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="BH30" t="inlineStr">
         <is>
-          <t>2026-02-22 21:45:41</t>
+          <t>2026-02-22 23:54:08</t>
         </is>
       </c>
     </row>
@@ -6427,13 +6427,13 @@
         <v>1.13</v>
       </c>
       <c r="S31" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="T31" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="U31" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="V31" t="n">
         <v>1.01</v>
@@ -6551,7 +6551,7 @@
       </c>
       <c r="BH31" t="inlineStr">
         <is>
-          <t>2026-02-22 21:45:41</t>
+          <t>2026-02-22 23:54:08</t>
         </is>
       </c>
     </row>
@@ -6585,16 +6585,16 @@
         <v>3.6</v>
       </c>
       <c r="G32" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="H32" t="n">
         <v>2.44</v>
       </c>
       <c r="I32" t="n">
-        <v>2.64</v>
+        <v>2.68</v>
       </c>
       <c r="J32" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="K32" t="n">
         <v>3</v>
@@ -6633,7 +6633,7 @@
         <v>1.6</v>
       </c>
       <c r="W32" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="X32" t="n">
         <v>7.4</v>
@@ -6714,7 +6714,7 @@
         <v>34</v>
       </c>
       <c r="AX32" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AY32" t="n">
         <v>15</v>
@@ -6745,7 +6745,7 @@
       </c>
       <c r="BH32" t="inlineStr">
         <is>
-          <t>2026-02-22 21:45:41</t>
+          <t>2026-02-22 23:54:08</t>
         </is>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-24.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-24.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BH32"/>
+  <dimension ref="A1:BH34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -780,10 +780,10 @@
         <v>3.65</v>
       </c>
       <c r="L2" t="n">
-        <v>1.44</v>
+        <v>1.01</v>
       </c>
       <c r="M2" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N2" t="n">
         <v>2.34</v>
@@ -804,13 +804,13 @@
         <v>3.5</v>
       </c>
       <c r="T2" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="U2" t="n">
         <v>1.84</v>
       </c>
       <c r="V2" t="n">
-        <v>1.76</v>
+        <v>1.81</v>
       </c>
       <c r="W2" t="n">
         <v>1.23</v>
@@ -925,7 +925,7 @@
       </c>
       <c r="BH2" t="inlineStr">
         <is>
-          <t>2026-02-22 23:54:08</t>
+          <t>2026-02-23 02:03:30</t>
         </is>
       </c>
     </row>
@@ -956,7 +956,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="G3" t="n">
         <v>1.63</v>
@@ -1007,7 +1007,7 @@
         <v>1.13</v>
       </c>
       <c r="W3" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="X3" t="n">
         <v>980</v>
@@ -1119,7 +1119,7 @@
       </c>
       <c r="BH3" t="inlineStr">
         <is>
-          <t>2026-02-22 23:54:08</t>
+          <t>2026-02-23 02:03:30</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
         <v>8</v>
       </c>
       <c r="I4" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J4" t="n">
         <v>6</v>
@@ -1180,16 +1180,16 @@
         <v>1.16</v>
       </c>
       <c r="P4" t="n">
-        <v>2.96</v>
+        <v>2.94</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="R4" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="S4" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="T4" t="n">
         <v>1.75</v>
@@ -1207,7 +1207,7 @@
         <v>32</v>
       </c>
       <c r="Y4" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Z4" t="n">
         <v>80</v>
@@ -1222,10 +1222,10 @@
         <v>13</v>
       </c>
       <c r="AD4" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AE4" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AF4" t="n">
         <v>10.5</v>
@@ -1234,10 +1234,10 @@
         <v>10</v>
       </c>
       <c r="AH4" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI4" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AJ4" t="n">
         <v>13</v>
@@ -1246,7 +1246,7 @@
         <v>12.5</v>
       </c>
       <c r="AL4" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AM4" t="n">
         <v>90</v>
@@ -1258,16 +1258,16 @@
         <v>80</v>
       </c>
       <c r="AP4" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AQ4" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AR4" t="n">
         <v>65</v>
       </c>
       <c r="AS4" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AT4" t="n">
         <v>11.5</v>
@@ -1279,7 +1279,7 @@
         <v>28</v>
       </c>
       <c r="AW4" t="n">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="AX4" t="n">
         <v>9.800000000000001</v>
@@ -1306,14 +1306,14 @@
         <v>75</v>
       </c>
       <c r="BF4" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="BG4" t="n">
         <v>65</v>
       </c>
       <c r="BH4" t="inlineStr">
         <is>
-          <t>2026-02-22 23:54:08</t>
+          <t>2026-02-23 02:03:30</t>
         </is>
       </c>
     </row>
@@ -1353,7 +1353,7 @@
         <v>6.6</v>
       </c>
       <c r="I5" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="J5" t="n">
         <v>5.1</v>
@@ -1362,7 +1362,7 @@
         <v>5.9</v>
       </c>
       <c r="L5" t="n">
-        <v>1.24</v>
+        <v>1.01</v>
       </c>
       <c r="M5" t="n">
         <v>1.02</v>
@@ -1507,7 +1507,7 @@
       </c>
       <c r="BH5" t="inlineStr">
         <is>
-          <t>2026-02-22 23:54:08</t>
+          <t>2026-02-23 02:03:30</t>
         </is>
       </c>
     </row>
@@ -1547,16 +1547,16 @@
         <v>1.97</v>
       </c>
       <c r="I6" t="n">
-        <v>2.22</v>
+        <v>2.42</v>
       </c>
       <c r="J6" t="n">
-        <v>3.15</v>
+        <v>2.82</v>
       </c>
       <c r="K6" t="n">
         <v>950</v>
       </c>
       <c r="L6" t="n">
-        <v>1.29</v>
+        <v>1.26</v>
       </c>
       <c r="M6" t="n">
         <v>1.04</v>
@@ -1565,13 +1565,13 @@
         <v>4.4</v>
       </c>
       <c r="O6" t="n">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="P6" t="n">
         <v>2.2</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="R6" t="n">
         <v>1.56</v>
@@ -1586,7 +1586,7 @@
         <v>1.05</v>
       </c>
       <c r="V6" t="n">
-        <v>1.83</v>
+        <v>1.7</v>
       </c>
       <c r="W6" t="n">
         <v>1.3</v>
@@ -1701,7 +1701,7 @@
       </c>
       <c r="BH6" t="inlineStr">
         <is>
-          <t>2026-02-22 23:54:08</t>
+          <t>2026-02-23 02:03:30</t>
         </is>
       </c>
     </row>
@@ -1735,7 +1735,7 @@
         <v>7.8</v>
       </c>
       <c r="G7" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="H7" t="n">
         <v>1.31</v>
@@ -1759,13 +1759,13 @@
         <v>2.08</v>
       </c>
       <c r="O7" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="P7" t="n">
         <v>2.04</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="R7" t="n">
         <v>1.51</v>
@@ -1774,7 +1774,7 @@
         <v>2.3</v>
       </c>
       <c r="T7" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="U7" t="n">
         <v>1.66</v>
@@ -1804,7 +1804,7 @@
         <v>14.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AE7" t="n">
         <v>17</v>
@@ -1816,7 +1816,7 @@
         <v>42</v>
       </c>
       <c r="AH7" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AI7" t="n">
         <v>40</v>
@@ -1852,7 +1852,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AT7" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="AU7" t="n">
         <v>10.5</v>
@@ -1864,38 +1864,38 @@
         <v>12</v>
       </c>
       <c r="AX7" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="AY7" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="AZ7" t="n">
         <v>19.5</v>
       </c>
       <c r="BA7" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="BB7" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="BD7" t="n">
         <v>5.4</v>
       </c>
-      <c r="BC7" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="BD7" t="n">
-        <v>5.2</v>
-      </c>
       <c r="BE7" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="BF7" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="BG7" t="n">
         <v>4.6</v>
       </c>
       <c r="BH7" t="inlineStr">
         <is>
-          <t>2026-02-22 23:54:08</t>
+          <t>2026-02-23 02:03:30</t>
         </is>
       </c>
     </row>
@@ -1944,7 +1944,7 @@
         <v>4.4</v>
       </c>
       <c r="L8" t="n">
-        <v>1.28</v>
+        <v>1.01</v>
       </c>
       <c r="M8" t="n">
         <v>1.05</v>
@@ -1956,7 +1956,7 @@
         <v>1.22</v>
       </c>
       <c r="P8" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="Q8" t="n">
         <v>1.67</v>
@@ -1968,10 +1968,10 @@
         <v>2.54</v>
       </c>
       <c r="T8" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="U8" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="V8" t="n">
         <v>1.3</v>
@@ -2089,7 +2089,7 @@
       </c>
       <c r="BH8" t="inlineStr">
         <is>
-          <t>2026-02-22 23:54:08</t>
+          <t>2026-02-23 02:03:30</t>
         </is>
       </c>
     </row>
@@ -2147,13 +2147,13 @@
         <v>4.7</v>
       </c>
       <c r="O9" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="P9" t="n">
         <v>2.28</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="R9" t="n">
         <v>1.52</v>
@@ -2225,65 +2225,65 @@
         <v>1000</v>
       </c>
       <c r="AO9" t="n">
-        <v>8.6</v>
+        <v>1000</v>
       </c>
       <c r="AP9" t="n">
-        <v>2.54</v>
+        <v>1.97</v>
       </c>
       <c r="AQ9" t="n">
-        <v>2.18</v>
+        <v>1.74</v>
       </c>
       <c r="AR9" t="n">
-        <v>8.199999999999999</v>
+        <v>1.74</v>
       </c>
       <c r="AS9" t="n">
-        <v>2.26</v>
+        <v>1.8</v>
       </c>
       <c r="AT9" t="n">
-        <v>2.38</v>
+        <v>1.88</v>
       </c>
       <c r="AU9" t="n">
-        <v>2.2</v>
+        <v>1.76</v>
       </c>
       <c r="AV9" t="n">
-        <v>2.18</v>
+        <v>1.74</v>
       </c>
       <c r="AW9" t="n">
-        <v>2.28</v>
+        <v>1.81</v>
       </c>
       <c r="AX9" t="n">
-        <v>2.48</v>
+        <v>1.94</v>
       </c>
       <c r="AY9" t="n">
         <v>21</v>
       </c>
       <c r="AZ9" t="n">
-        <v>2.34</v>
+        <v>1.85</v>
       </c>
       <c r="BA9" t="n">
-        <v>2.4</v>
+        <v>1.89</v>
       </c>
       <c r="BB9" t="n">
-        <v>2.56</v>
+        <v>1.97</v>
       </c>
       <c r="BC9" t="n">
-        <v>2.56</v>
+        <v>1.97</v>
       </c>
       <c r="BD9" t="n">
-        <v>2.56</v>
+        <v>1.97</v>
       </c>
       <c r="BE9" t="n">
-        <v>2.56</v>
+        <v>1.97</v>
       </c>
       <c r="BF9" t="n">
-        <v>2.54</v>
+        <v>1.97</v>
       </c>
       <c r="BG9" t="n">
-        <v>4.4</v>
+        <v>1.97</v>
       </c>
       <c r="BH9" t="inlineStr">
         <is>
-          <t>2026-02-22 23:54:08</t>
+          <t>2026-02-23 02:03:30</t>
         </is>
       </c>
     </row>
@@ -2320,7 +2320,7 @@
         <v>4.8</v>
       </c>
       <c r="H10" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="I10" t="n">
         <v>2.94</v>
@@ -2341,7 +2341,7 @@
         <v>2</v>
       </c>
       <c r="O10" t="n">
-        <v>1.62</v>
+        <v>1.36</v>
       </c>
       <c r="P10" t="n">
         <v>1.33</v>
@@ -2440,7 +2440,7 @@
         <v>1.74</v>
       </c>
       <c r="AV10" t="n">
-        <v>10.5</v>
+        <v>1.9</v>
       </c>
       <c r="AW10" t="n">
         <v>2.02</v>
@@ -2477,7 +2477,7 @@
       </c>
       <c r="BH10" t="inlineStr">
         <is>
-          <t>2026-02-22 23:54:08</t>
+          <t>2026-02-23 02:03:30</t>
         </is>
       </c>
     </row>
@@ -2508,7 +2508,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>8.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="G11" t="n">
         <v>11.5</v>
@@ -2517,28 +2517,28 @@
         <v>1.47</v>
       </c>
       <c r="I11" t="n">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="J11" t="n">
         <v>3.4</v>
       </c>
       <c r="K11" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="L11" t="n">
         <v>1.49</v>
       </c>
       <c r="M11" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N11" t="n">
-        <v>2.9</v>
+        <v>2.96</v>
       </c>
       <c r="O11" t="n">
         <v>1.44</v>
       </c>
       <c r="P11" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="Q11" t="n">
         <v>2.24</v>
@@ -2550,13 +2550,13 @@
         <v>4.5</v>
       </c>
       <c r="T11" t="n">
-        <v>2.24</v>
+        <v>2.44</v>
       </c>
       <c r="U11" t="n">
         <v>1.59</v>
       </c>
       <c r="V11" t="n">
-        <v>2.7</v>
+        <v>2.74</v>
       </c>
       <c r="W11" t="n">
         <v>1.1</v>
@@ -2568,7 +2568,7 @@
         <v>6.8</v>
       </c>
       <c r="Z11" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AA11" t="n">
         <v>15.5</v>
@@ -2619,7 +2619,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AQ11" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="AR11" t="n">
         <v>6.6</v>
@@ -2628,37 +2628,37 @@
         <v>11.5</v>
       </c>
       <c r="AT11" t="n">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="AU11" t="n">
-        <v>8.800000000000001</v>
+        <v>4</v>
       </c>
       <c r="AV11" t="n">
         <v>9.4</v>
       </c>
       <c r="AW11" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AX11" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="AY11" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AZ11" t="n">
         <v>5.3</v>
       </c>
-      <c r="AZ11" t="n">
-        <v>5.2</v>
-      </c>
       <c r="BA11" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="BB11" t="n">
         <v>6</v>
       </c>
       <c r="BC11" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="BD11" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="BE11" t="n">
         <v>6</v>
@@ -2671,7 +2671,7 @@
       </c>
       <c r="BH11" t="inlineStr">
         <is>
-          <t>2026-02-22 23:54:08</t>
+          <t>2026-02-23 02:03:30</t>
         </is>
       </c>
     </row>
@@ -2708,7 +2708,7 @@
         <v>1.61</v>
       </c>
       <c r="H12" t="n">
-        <v>7.4</v>
+        <v>8</v>
       </c>
       <c r="I12" t="n">
         <v>10</v>
@@ -2744,7 +2744,7 @@
         <v>5.1</v>
       </c>
       <c r="T12" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="U12" t="n">
         <v>1.56</v>
@@ -2822,7 +2822,7 @@
         <v>3.5</v>
       </c>
       <c r="AT12" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="AU12" t="n">
         <v>4.3</v>
@@ -2865,7 +2865,7 @@
       </c>
       <c r="BH12" t="inlineStr">
         <is>
-          <t>2026-02-22 23:54:08</t>
+          <t>2026-02-23 02:03:30</t>
         </is>
       </c>
     </row>
@@ -2896,19 +2896,19 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="G13" t="n">
-        <v>3.8</v>
+        <v>3.95</v>
       </c>
       <c r="H13" t="n">
         <v>2.3</v>
       </c>
       <c r="I13" t="n">
-        <v>2.66</v>
+        <v>2.62</v>
       </c>
       <c r="J13" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="K13" t="n">
         <v>4</v>
@@ -2926,7 +2926,7 @@
         <v>1.39</v>
       </c>
       <c r="P13" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="Q13" t="n">
         <v>2.16</v>
@@ -2941,25 +2941,25 @@
         <v>1.86</v>
       </c>
       <c r="U13" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="V13" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="W13" t="n">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="X13" t="n">
         <v>12</v>
       </c>
       <c r="Y13" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Z13" t="n">
         <v>16</v>
       </c>
       <c r="AA13" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AB13" t="n">
         <v>13.5</v>
@@ -2968,13 +2968,13 @@
         <v>7.8</v>
       </c>
       <c r="AD13" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AE13" t="n">
         <v>36</v>
       </c>
       <c r="AF13" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AG13" t="n">
         <v>18</v>
@@ -3004,62 +3004,62 @@
         <v>29</v>
       </c>
       <c r="AP13" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="AQ13" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="AR13" t="n">
         <v>11</v>
       </c>
       <c r="AS13" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="AT13" t="n">
-        <v>4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AU13" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="AV13" t="n">
         <v>4.1</v>
       </c>
       <c r="AW13" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BA13" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="BC13" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="BD13" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="BE13" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="BF13" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="BG13" t="n">
         <v>4.9</v>
       </c>
-      <c r="AX13" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="AY13" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="AZ13" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="BA13" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="BB13" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="BC13" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="BD13" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="BE13" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="BF13" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="BG13" t="n">
-        <v>4.7</v>
-      </c>
       <c r="BH13" t="inlineStr">
         <is>
-          <t>2026-02-22 23:54:08</t>
+          <t>2026-02-23 02:03:30</t>
         </is>
       </c>
     </row>
@@ -3090,22 +3090,22 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.84</v>
+        <v>2.22</v>
       </c>
       <c r="G14" t="n">
-        <v>2.68</v>
+        <v>2.5</v>
       </c>
       <c r="H14" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="I14" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="J14" t="n">
-        <v>2.66</v>
+        <v>3.35</v>
       </c>
       <c r="K14" t="n">
-        <v>4.9</v>
+        <v>4.3</v>
       </c>
       <c r="L14" t="n">
         <v>1.38</v>
@@ -3114,7 +3114,7 @@
         <v>1.01</v>
       </c>
       <c r="N14" t="n">
-        <v>2.6</v>
+        <v>3.7</v>
       </c>
       <c r="O14" t="n">
         <v>1.29</v>
@@ -3126,10 +3126,10 @@
         <v>1.57</v>
       </c>
       <c r="R14" t="n">
-        <v>1.31</v>
+        <v>1.27</v>
       </c>
       <c r="S14" t="n">
-        <v>2.94</v>
+        <v>3.25</v>
       </c>
       <c r="T14" t="n">
         <v>1.51</v>
@@ -3253,7 +3253,7 @@
       </c>
       <c r="BH14" t="inlineStr">
         <is>
-          <t>2026-02-22 23:54:08</t>
+          <t>2026-02-23 02:03:30</t>
         </is>
       </c>
     </row>
@@ -3284,7 +3284,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.96</v>
+        <v>3.1</v>
       </c>
       <c r="G15" t="n">
         <v>4.1</v>
@@ -3293,10 +3293,10 @@
         <v>2.08</v>
       </c>
       <c r="I15" t="n">
-        <v>2.34</v>
+        <v>2.48</v>
       </c>
       <c r="J15" t="n">
-        <v>3.05</v>
+        <v>2.86</v>
       </c>
       <c r="K15" t="n">
         <v>4.3</v>
@@ -3305,10 +3305,10 @@
         <v>1.29</v>
       </c>
       <c r="M15" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N15" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="O15" t="n">
         <v>1.23</v>
@@ -3323,13 +3323,13 @@
         <v>1.46</v>
       </c>
       <c r="S15" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="T15" t="n">
-        <v>1.62</v>
+        <v>1.45</v>
       </c>
       <c r="U15" t="n">
-        <v>2.3</v>
+        <v>1.98</v>
       </c>
       <c r="V15" t="n">
         <v>1.68</v>
@@ -3338,116 +3338,116 @@
         <v>1.32</v>
       </c>
       <c r="X15" t="n">
+        <v>28</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>38</v>
+      </c>
+      <c r="AB15" t="n">
         <v>23</v>
       </c>
-      <c r="Y15" t="n">
-        <v>14</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>18</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>32</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>19</v>
-      </c>
       <c r="AC15" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AD15" t="n">
-        <v>13</v>
+        <v>15.5</v>
       </c>
       <c r="AE15" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="AF15" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="AG15" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AH15" t="n">
-        <v>18.5</v>
+        <v>22</v>
       </c>
       <c r="AI15" t="n">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="AJ15" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AK15" t="n">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AL15" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AM15" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AN15" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AO15" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AP15" t="n">
-        <v>4.1</v>
+        <v>1.93</v>
       </c>
       <c r="AQ15" t="n">
-        <v>3.75</v>
+        <v>1.85</v>
       </c>
       <c r="AR15" t="n">
-        <v>3.95</v>
+        <v>1.89</v>
       </c>
       <c r="AS15" t="n">
-        <v>4.4</v>
+        <v>1.97</v>
       </c>
       <c r="AT15" t="n">
-        <v>4</v>
+        <v>1.9</v>
       </c>
       <c r="AU15" t="n">
-        <v>3.4</v>
+        <v>2.06</v>
       </c>
       <c r="AV15" t="n">
-        <v>3.65</v>
+        <v>1.83</v>
       </c>
       <c r="AW15" t="n">
-        <v>4.2</v>
+        <v>1.94</v>
       </c>
       <c r="AX15" t="n">
-        <v>4.4</v>
+        <v>1.97</v>
       </c>
       <c r="AY15" t="n">
-        <v>3.9</v>
+        <v>1.88</v>
       </c>
       <c r="AZ15" t="n">
-        <v>4</v>
+        <v>1.89</v>
       </c>
       <c r="BA15" t="n">
-        <v>4.4</v>
+        <v>1.98</v>
       </c>
       <c r="BB15" t="n">
-        <v>4.7</v>
+        <v>2.02</v>
       </c>
       <c r="BC15" t="n">
-        <v>4.5</v>
+        <v>1.99</v>
       </c>
       <c r="BD15" t="n">
-        <v>4.6</v>
+        <v>2</v>
       </c>
       <c r="BE15" t="n">
-        <v>4.8</v>
+        <v>2.02</v>
       </c>
       <c r="BF15" t="n">
-        <v>4.4</v>
+        <v>2.06</v>
       </c>
       <c r="BG15" t="n">
-        <v>3.8</v>
+        <v>2.06</v>
       </c>
       <c r="BH15" t="inlineStr">
         <is>
-          <t>2026-02-22 23:54:08</t>
+          <t>2026-02-23 02:03:30</t>
         </is>
       </c>
     </row>
@@ -3484,16 +3484,16 @@
         <v>1.9</v>
       </c>
       <c r="H16" t="n">
-        <v>3.1</v>
+        <v>3.7</v>
       </c>
       <c r="I16" t="n">
         <v>5.9</v>
       </c>
       <c r="J16" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="K16" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="L16" t="n">
         <v>1.01</v>
@@ -3502,13 +3502,13 @@
         <v>1.01</v>
       </c>
       <c r="N16" t="n">
-        <v>2.2</v>
+        <v>2.44</v>
       </c>
       <c r="O16" t="n">
         <v>1.2</v>
       </c>
       <c r="P16" t="n">
-        <v>1.53</v>
+        <v>1.95</v>
       </c>
       <c r="Q16" t="n">
         <v>1.54</v>
@@ -3517,13 +3517,13 @@
         <v>1.53</v>
       </c>
       <c r="S16" t="n">
-        <v>1.54</v>
+        <v>2</v>
       </c>
       <c r="T16" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="U16" t="n">
-        <v>1.92</v>
+        <v>1.96</v>
       </c>
       <c r="V16" t="n">
         <v>1.2</v>
@@ -3565,7 +3565,7 @@
         <v>21</v>
       </c>
       <c r="AI16" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AJ16" t="n">
         <v>22</v>
@@ -3607,10 +3607,10 @@
         <v>4.1</v>
       </c>
       <c r="AW16" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="AX16" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="AY16" t="n">
         <v>3.55</v>
@@ -3628,7 +3628,7 @@
         <v>4</v>
       </c>
       <c r="BD16" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="BE16" t="n">
         <v>4.7</v>
@@ -3641,7 +3641,7 @@
       </c>
       <c r="BH16" t="inlineStr">
         <is>
-          <t>2026-02-22 23:54:08</t>
+          <t>2026-02-23 02:03:30</t>
         </is>
       </c>
     </row>
@@ -3675,7 +3675,7 @@
         <v>3.15</v>
       </c>
       <c r="G17" t="n">
-        <v>3.5</v>
+        <v>1000</v>
       </c>
       <c r="H17" t="n">
         <v>2.18</v>
@@ -3684,19 +3684,19 @@
         <v>2.2</v>
       </c>
       <c r="J17" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="K17" t="n">
         <v>4.3</v>
       </c>
       <c r="L17" t="n">
-        <v>1.29</v>
+        <v>1.01</v>
       </c>
       <c r="M17" t="n">
         <v>1.05</v>
       </c>
       <c r="N17" t="n">
-        <v>3.7</v>
+        <v>1.1</v>
       </c>
       <c r="O17" t="n">
         <v>1.25</v>
@@ -3705,13 +3705,13 @@
         <v>2.04</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.74</v>
+        <v>1.61</v>
       </c>
       <c r="R17" t="n">
-        <v>1.43</v>
+        <v>1.35</v>
       </c>
       <c r="S17" t="n">
-        <v>2.62</v>
+        <v>1.05</v>
       </c>
       <c r="T17" t="n">
         <v>1.62</v>
@@ -3723,119 +3723,119 @@
         <v>1.83</v>
       </c>
       <c r="W17" t="n">
-        <v>1.41</v>
+        <v>1.34</v>
       </c>
       <c r="X17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>46</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>34</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>48</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>50</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>40</v>
+      </c>
+      <c r="AO17" t="n">
         <v>22</v>
       </c>
-      <c r="Y17" t="n">
-        <v>14</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>38</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>14</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>28</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>29</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>17</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>20</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>40</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>65</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>42</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>50</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>80</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>29</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>16</v>
-      </c>
       <c r="AP17" t="n">
-        <v>3.9</v>
+        <v>2.18</v>
       </c>
       <c r="AQ17" t="n">
-        <v>3.55</v>
+        <v>1.95</v>
       </c>
       <c r="AR17" t="n">
-        <v>3.85</v>
+        <v>2</v>
       </c>
       <c r="AS17" t="n">
-        <v>4.2</v>
+        <v>2.1</v>
       </c>
       <c r="AT17" t="n">
-        <v>3.75</v>
+        <v>1.99</v>
       </c>
       <c r="AU17" t="n">
-        <v>3.25</v>
+        <v>1.88</v>
       </c>
       <c r="AV17" t="n">
-        <v>3.55</v>
+        <v>1.95</v>
       </c>
       <c r="AW17" t="n">
-        <v>4.1</v>
+        <v>2.06</v>
       </c>
       <c r="AX17" t="n">
-        <v>4.1</v>
+        <v>2.06</v>
       </c>
       <c r="AY17" t="n">
-        <v>3.7</v>
+        <v>2.18</v>
       </c>
       <c r="AZ17" t="n">
-        <v>3.85</v>
+        <v>2</v>
       </c>
       <c r="BA17" t="n">
-        <v>4.2</v>
+        <v>2.1</v>
       </c>
       <c r="BB17" t="n">
-        <v>4.4</v>
+        <v>2.18</v>
       </c>
       <c r="BC17" t="n">
-        <v>4.3</v>
+        <v>2.1</v>
       </c>
       <c r="BD17" t="n">
-        <v>4.3</v>
+        <v>2.12</v>
       </c>
       <c r="BE17" t="n">
-        <v>4.5</v>
+        <v>2.14</v>
       </c>
       <c r="BF17" t="n">
-        <v>4.1</v>
+        <v>2.08</v>
       </c>
       <c r="BG17" t="n">
-        <v>3.65</v>
+        <v>2</v>
       </c>
       <c r="BH17" t="inlineStr">
         <is>
-          <t>2026-02-22 23:54:08</t>
+          <t>2026-02-23 02:03:30</t>
         </is>
       </c>
     </row>
@@ -3869,7 +3869,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="G18" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="H18" t="n">
         <v>1.39</v>
@@ -3878,7 +3878,7 @@
         <v>1.48</v>
       </c>
       <c r="J18" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="K18" t="n">
         <v>5.6</v>
@@ -3902,19 +3902,19 @@
         <v>1.66</v>
       </c>
       <c r="R18" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="S18" t="n">
         <v>2.68</v>
       </c>
       <c r="T18" t="n">
-        <v>1.91</v>
+        <v>1.94</v>
       </c>
       <c r="U18" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="V18" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="W18" t="n">
         <v>1.11</v>
@@ -3926,7 +3926,7 @@
         <v>10.5</v>
       </c>
       <c r="Z18" t="n">
-        <v>10.5</v>
+        <v>9.4</v>
       </c>
       <c r="AA18" t="n">
         <v>14.5</v>
@@ -3944,7 +3944,7 @@
         <v>17.5</v>
       </c>
       <c r="AF18" t="n">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="AG18" t="n">
         <v>36</v>
@@ -3986,7 +3986,7 @@
         <v>10.5</v>
       </c>
       <c r="AT18" t="n">
-        <v>4.9</v>
+        <v>5.2</v>
       </c>
       <c r="AU18" t="n">
         <v>9.800000000000001</v>
@@ -3998,38 +3998,38 @@
         <v>12.5</v>
       </c>
       <c r="AX18" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AY18" t="n">
         <v>5.1</v>
-      </c>
-      <c r="AY18" t="n">
-        <v>4.8</v>
       </c>
       <c r="AZ18" t="n">
         <v>21</v>
       </c>
       <c r="BA18" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="BB18" t="n">
-        <v>5.4</v>
+        <v>5.7</v>
       </c>
       <c r="BC18" t="n">
-        <v>5.3</v>
+        <v>5.6</v>
       </c>
       <c r="BD18" t="n">
-        <v>5.2</v>
+        <v>5.5</v>
       </c>
       <c r="BE18" t="n">
-        <v>5.3</v>
+        <v>5.6</v>
       </c>
       <c r="BF18" t="n">
-        <v>5.3</v>
+        <v>5.6</v>
       </c>
       <c r="BG18" t="n">
         <v>5.4</v>
       </c>
       <c r="BH18" t="inlineStr">
         <is>
-          <t>2026-02-22 23:54:08</t>
+          <t>2026-02-23 02:03:30</t>
         </is>
       </c>
     </row>
@@ -4051,79 +4051,79 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>FC Halifax Town</t>
+          <t>Forest Green</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Rochdale</t>
+          <t>Boston Utd</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>4.3</v>
+        <v>1.61</v>
       </c>
       <c r="G19" t="n">
-        <v>5.7</v>
+        <v>1.66</v>
       </c>
       <c r="H19" t="n">
-        <v>1.75</v>
+        <v>5.9</v>
       </c>
       <c r="I19" t="n">
-        <v>1.98</v>
+        <v>7.2</v>
       </c>
       <c r="J19" t="n">
-        <v>3.35</v>
+        <v>4.1</v>
       </c>
       <c r="K19" t="n">
-        <v>4.6</v>
+        <v>4.9</v>
       </c>
       <c r="L19" t="n">
-        <v>1.36</v>
+        <v>1.28</v>
       </c>
       <c r="M19" t="n">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="N19" t="n">
-        <v>3.45</v>
+        <v>4.4</v>
       </c>
       <c r="O19" t="n">
-        <v>1.31</v>
+        <v>1.22</v>
       </c>
       <c r="P19" t="n">
-        <v>1.85</v>
+        <v>2.28</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.92</v>
+        <v>1.65</v>
       </c>
       <c r="R19" t="n">
-        <v>1.32</v>
+        <v>1.52</v>
       </c>
       <c r="S19" t="n">
-        <v>3.2</v>
+        <v>2.52</v>
       </c>
       <c r="T19" t="n">
-        <v>1.84</v>
+        <v>1.65</v>
       </c>
       <c r="U19" t="n">
-        <v>1.95</v>
+        <v>2.14</v>
       </c>
       <c r="V19" t="n">
-        <v>2.02</v>
+        <v>1.17</v>
       </c>
       <c r="W19" t="n">
-        <v>1.21</v>
+        <v>2.5</v>
       </c>
       <c r="X19" t="n">
-        <v>970</v>
+        <v>23</v>
       </c>
       <c r="Y19" t="n">
-        <v>970</v>
+        <v>30</v>
       </c>
       <c r="Z19" t="n">
-        <v>970</v>
+        <v>65</v>
       </c>
       <c r="AA19" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AB19" t="n">
         <v>970</v>
@@ -4132,98 +4132,98 @@
         <v>970</v>
       </c>
       <c r="AD19" t="n">
+        <v>29</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>90</v>
+      </c>
+      <c r="AF19" t="n">
         <v>970</v>
       </c>
-      <c r="AE19" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>46</v>
-      </c>
       <c r="AG19" t="n">
-        <v>23</v>
+        <v>970</v>
       </c>
       <c r="AH19" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AI19" t="n">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="AJ19" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AK19" t="n">
-        <v>85</v>
+        <v>970</v>
       </c>
       <c r="AL19" t="n">
-        <v>85</v>
+        <v>32</v>
       </c>
       <c r="AM19" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AN19" t="n">
-        <v>100</v>
+        <v>970</v>
       </c>
       <c r="AO19" t="n">
-        <v>970</v>
+        <v>90</v>
       </c>
       <c r="AP19" t="n">
-        <v>3.9</v>
+        <v>4.8</v>
       </c>
       <c r="AQ19" t="n">
-        <v>3.35</v>
+        <v>3</v>
       </c>
       <c r="AR19" t="n">
-        <v>3.65</v>
+        <v>3.2</v>
       </c>
       <c r="AS19" t="n">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="AT19" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AX19" t="n">
         <v>4</v>
       </c>
-      <c r="AU19" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="AV19" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AW19" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="AX19" t="n">
-        <v>4.6</v>
-      </c>
       <c r="AY19" t="n">
-        <v>4.2</v>
+        <v>3.95</v>
       </c>
       <c r="AZ19" t="n">
-        <v>4.2</v>
+        <v>4.7</v>
       </c>
       <c r="BA19" t="n">
-        <v>4.6</v>
+        <v>3.25</v>
       </c>
       <c r="BB19" t="n">
-        <v>4.9</v>
+        <v>4.5</v>
       </c>
       <c r="BC19" t="n">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="BD19" t="n">
-        <v>4.8</v>
+        <v>3.05</v>
       </c>
       <c r="BE19" t="n">
-        <v>4.9</v>
+        <v>3.25</v>
       </c>
       <c r="BF19" t="n">
-        <v>4.8</v>
+        <v>6</v>
       </c>
       <c r="BG19" t="n">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="BH19" t="inlineStr">
         <is>
-          <t>2026-02-22 23:54:08</t>
+          <t>2026-02-23 02:03:30</t>
         </is>
       </c>
     </row>
@@ -4245,179 +4245,179 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Tamworth FC</t>
+          <t>FC Halifax Town</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Altrincham</t>
+          <t>Rochdale</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.34</v>
+        <v>4.4</v>
       </c>
       <c r="G20" t="n">
-        <v>2.54</v>
+        <v>5.8</v>
       </c>
       <c r="H20" t="n">
-        <v>2.88</v>
+        <v>1.79</v>
       </c>
       <c r="I20" t="n">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="J20" t="n">
-        <v>3.6</v>
+        <v>3.35</v>
       </c>
       <c r="K20" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N20" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="S20" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="T20" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="U20" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="V20" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="W20" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="X20" t="n">
+        <v>970</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>970</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>970</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>24</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>970</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>970</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>970</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>24</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>44</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>23</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>46</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>80</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>85</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>95</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>970</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AT20" t="n">
         <v>4.1</v>
       </c>
-      <c r="L20" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="M20" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N20" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="P20" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="R20" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="S20" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="T20" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="U20" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="V20" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="W20" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="X20" t="n">
-        <v>20</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>24</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>60</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>14</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>38</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>22</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>40</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>40</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>30</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>36</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>75</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>17</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>29</v>
-      </c>
-      <c r="AP20" t="n">
-        <v>16</v>
-      </c>
-      <c r="AQ20" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AR20" t="n">
-        <v>19</v>
-      </c>
-      <c r="AS20" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="AT20" t="n">
-        <v>10.5</v>
-      </c>
       <c r="AU20" t="n">
-        <v>7.6</v>
+        <v>3.4</v>
       </c>
       <c r="AV20" t="n">
-        <v>11.5</v>
+        <v>3.65</v>
       </c>
       <c r="AW20" t="n">
-        <v>5.1</v>
+        <v>4.3</v>
       </c>
       <c r="AX20" t="n">
-        <v>14.5</v>
+        <v>4.7</v>
       </c>
       <c r="AY20" t="n">
-        <v>10</v>
+        <v>4.2</v>
       </c>
       <c r="AZ20" t="n">
-        <v>13</v>
+        <v>4.2</v>
       </c>
       <c r="BA20" t="n">
-        <v>5.1</v>
+        <v>4.7</v>
       </c>
       <c r="BB20" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="BC20" t="n">
-        <v>20</v>
+        <v>4.9</v>
       </c>
       <c r="BD20" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="BE20" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="BF20" t="n">
-        <v>11.5</v>
+        <v>4.9</v>
       </c>
       <c r="BG20" t="n">
-        <v>17</v>
+        <v>3.9</v>
       </c>
       <c r="BH20" t="inlineStr">
         <is>
-          <t>2026-02-22 23:54:08</t>
+          <t>2026-02-23 02:03:30</t>
         </is>
       </c>
     </row>
@@ -4439,179 +4439,179 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Southend</t>
+          <t>Tamworth FC</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Boreham Wood</t>
+          <t>Altrincham</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.1</v>
+        <v>2.34</v>
       </c>
       <c r="G21" t="n">
-        <v>2.3</v>
+        <v>2.54</v>
       </c>
       <c r="H21" t="n">
-        <v>3.25</v>
+        <v>2.88</v>
       </c>
       <c r="I21" t="n">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
       <c r="J21" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="K21" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L21" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="M21" t="n">
         <v>1.05</v>
       </c>
       <c r="N21" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="O21" t="n">
         <v>1.24</v>
       </c>
       <c r="P21" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="R21" t="n">
-        <v>1.48</v>
+        <v>1.46</v>
       </c>
       <c r="S21" t="n">
-        <v>2.74</v>
+        <v>2.8</v>
       </c>
       <c r="T21" t="n">
         <v>1.62</v>
       </c>
       <c r="U21" t="n">
-        <v>2.18</v>
+        <v>2.3</v>
       </c>
       <c r="V21" t="n">
-        <v>1.37</v>
+        <v>1.46</v>
       </c>
       <c r="W21" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="X21" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="Y21" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="Z21" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="AA21" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AB21" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AC21" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>38</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>40</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>38</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>36</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>75</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>17</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>29</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>16</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>19</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AT21" t="n">
         <v>10.5</v>
       </c>
-      <c r="AD21" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>48</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG21" t="n">
+      <c r="AU21" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AV21" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AX21" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AY21" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ21" t="n">
         <v>13</v>
       </c>
-      <c r="AH21" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>48</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>42</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AP21" t="n">
+      <c r="BA21" t="n">
+        <v>30</v>
+      </c>
+      <c r="BB21" t="n">
         <v>5.4</v>
       </c>
-      <c r="AQ21" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="AR21" t="n">
-        <v>6</v>
-      </c>
-      <c r="AS21" t="n">
+      <c r="BC21" t="n">
+        <v>20</v>
+      </c>
+      <c r="BD21" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="BE21" t="n">
         <v>5.8</v>
       </c>
-      <c r="AT21" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="AU21" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="AV21" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="AW21" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="AX21" t="n">
-        <v>5</v>
-      </c>
-      <c r="AY21" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="AZ21" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="BA21" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="BB21" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="BC21" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="BD21" t="n">
-        <v>6</v>
-      </c>
-      <c r="BE21" t="n">
-        <v>6.6</v>
-      </c>
       <c r="BF21" t="n">
-        <v>10</v>
+        <v>11.5</v>
       </c>
       <c r="BG21" t="n">
-        <v>5.9</v>
+        <v>20</v>
       </c>
       <c r="BH21" t="inlineStr">
         <is>
-          <t>2026-02-22 23:54:08</t>
+          <t>2026-02-23 02:03:30</t>
         </is>
       </c>
     </row>
@@ -4633,179 +4633,179 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Scunthorpe</t>
+          <t>Southend</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>York City</t>
+          <t>Boreham Wood</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>3.45</v>
+        <v>2.1</v>
       </c>
       <c r="G22" t="n">
-        <v>4.5</v>
+        <v>2.3</v>
       </c>
       <c r="H22" t="n">
-        <v>1.85</v>
+        <v>3.25</v>
       </c>
       <c r="I22" t="n">
-        <v>2.04</v>
+        <v>3.65</v>
       </c>
       <c r="J22" t="n">
         <v>3.7</v>
       </c>
       <c r="K22" t="n">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="L22" t="n">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="M22" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N22" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="P22" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="S22" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="T22" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="U22" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="V22" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="W22" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="X22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>70</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>48</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>48</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>42</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AQ22" t="n">
         <v>5.1</v>
       </c>
-      <c r="O22" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="P22" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="R22" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="S22" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="T22" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="U22" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="V22" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="W22" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="X22" t="n">
-        <v>34</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>970</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>970</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>28</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>27</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>970</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>970</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>22</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>42</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>21</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>970</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>32</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>85</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>46</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>46</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>70</v>
-      </c>
-      <c r="AN22" t="n">
-        <v>32</v>
-      </c>
-      <c r="AO22" t="n">
-        <v>970</v>
-      </c>
-      <c r="AP22" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="AQ22" t="n">
-        <v>3.45</v>
-      </c>
       <c r="AR22" t="n">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="AS22" t="n">
-        <v>3.75</v>
+        <v>5.8</v>
       </c>
       <c r="AT22" t="n">
-        <v>3.7</v>
+        <v>4.6</v>
       </c>
       <c r="AU22" t="n">
-        <v>3.25</v>
+        <v>4.3</v>
       </c>
       <c r="AV22" t="n">
-        <v>3.25</v>
+        <v>5.1</v>
       </c>
       <c r="AW22" t="n">
-        <v>3.6</v>
+        <v>6.2</v>
       </c>
       <c r="AX22" t="n">
-        <v>3.9</v>
+        <v>5</v>
       </c>
       <c r="AY22" t="n">
-        <v>3.55</v>
+        <v>4.7</v>
       </c>
       <c r="AZ22" t="n">
-        <v>3.5</v>
+        <v>5.1</v>
       </c>
       <c r="BA22" t="n">
-        <v>3.8</v>
+        <v>6.4</v>
       </c>
       <c r="BB22" t="n">
-        <v>4.1</v>
+        <v>5.8</v>
       </c>
       <c r="BC22" t="n">
-        <v>3.95</v>
+        <v>5.7</v>
       </c>
       <c r="BD22" t="n">
-        <v>3.95</v>
+        <v>6</v>
       </c>
       <c r="BE22" t="n">
-        <v>4</v>
+        <v>6.6</v>
       </c>
       <c r="BF22" t="n">
-        <v>3.8</v>
+        <v>10</v>
       </c>
       <c r="BG22" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="BH22" t="inlineStr">
         <is>
-          <t>2026-02-22 23:54:08</t>
+          <t>2026-02-23 02:03:30</t>
         </is>
       </c>
     </row>
@@ -4827,179 +4827,179 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Wealdstone</t>
+          <t>Scunthorpe</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Brackley Town</t>
+          <t>York City</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.14</v>
+        <v>3.45</v>
       </c>
       <c r="G23" t="n">
-        <v>2.46</v>
+        <v>4.5</v>
       </c>
       <c r="H23" t="n">
-        <v>3.35</v>
+        <v>1.85</v>
       </c>
       <c r="I23" t="n">
-        <v>4.3</v>
+        <v>2.04</v>
       </c>
       <c r="J23" t="n">
-        <v>3.15</v>
+        <v>3.7</v>
       </c>
       <c r="K23" t="n">
-        <v>3.9</v>
+        <v>5.5</v>
       </c>
       <c r="L23" t="n">
-        <v>1.01</v>
+        <v>1.22</v>
       </c>
       <c r="M23" t="n">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="N23" t="n">
-        <v>3.55</v>
+        <v>5.2</v>
       </c>
       <c r="O23" t="n">
-        <v>1.32</v>
+        <v>1.16</v>
       </c>
       <c r="P23" t="n">
-        <v>1.87</v>
+        <v>2.66</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.85</v>
+        <v>1.44</v>
       </c>
       <c r="R23" t="n">
-        <v>1.33</v>
+        <v>1.67</v>
       </c>
       <c r="S23" t="n">
-        <v>3.35</v>
+        <v>2.08</v>
       </c>
       <c r="T23" t="n">
-        <v>1.75</v>
+        <v>1.53</v>
       </c>
       <c r="U23" t="n">
-        <v>2.06</v>
+        <v>2.34</v>
       </c>
       <c r="V23" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="W23" t="n">
         <v>1.3</v>
       </c>
-      <c r="W23" t="n">
-        <v>1.7</v>
-      </c>
       <c r="X23" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="Y23" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Z23" t="n">
-        <v>30</v>
+        <v>970</v>
       </c>
       <c r="AA23" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AB23" t="n">
-        <v>11.5</v>
+        <v>27</v>
       </c>
       <c r="AC23" t="n">
-        <v>9.199999999999999</v>
+        <v>970</v>
       </c>
       <c r="AD23" t="n">
         <v>970</v>
       </c>
       <c r="AE23" t="n">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="AF23" t="n">
+        <v>42</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH23" t="n">
         <v>970</v>
       </c>
-      <c r="AG23" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>21</v>
-      </c>
       <c r="AI23" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AJ23" t="n">
-        <v>34</v>
+        <v>85</v>
       </c>
       <c r="AK23" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AL23" t="n">
         <v>46</v>
       </c>
       <c r="AM23" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AN23" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AO23" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AP23" t="n">
         <v>3.85</v>
       </c>
       <c r="AQ23" t="n">
-        <v>10</v>
+        <v>3.5</v>
       </c>
       <c r="AR23" t="n">
-        <v>4.3</v>
+        <v>3.55</v>
       </c>
       <c r="AS23" t="n">
-        <v>4.7</v>
+        <v>3.8</v>
       </c>
       <c r="AT23" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="AU23" t="n">
-        <v>6.8</v>
+        <v>3.25</v>
       </c>
       <c r="AV23" t="n">
-        <v>11.5</v>
+        <v>3.3</v>
       </c>
       <c r="AW23" t="n">
-        <v>4.6</v>
+        <v>3.65</v>
       </c>
       <c r="AX23" t="n">
-        <v>11</v>
+        <v>3.95</v>
       </c>
       <c r="AY23" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="AZ23" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="BA23" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="BB23" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BC23" t="n">
         <v>4</v>
       </c>
-      <c r="BA23" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="BB23" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="BC23" t="n">
-        <v>4.3</v>
-      </c>
       <c r="BD23" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="BE23" t="n">
-        <v>4.8</v>
+        <v>4.1</v>
       </c>
       <c r="BF23" t="n">
-        <v>14</v>
+        <v>3.8</v>
       </c>
       <c r="BG23" t="n">
-        <v>4.6</v>
+        <v>6</v>
       </c>
       <c r="BH23" t="inlineStr">
         <is>
-          <t>2026-02-22 23:54:08</t>
+          <t>2026-02-23 02:03:30</t>
         </is>
       </c>
     </row>
@@ -5021,179 +5021,179 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Forest Green</t>
+          <t>Wealdstone</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Boston Utd</t>
+          <t>Brackley Town</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.61</v>
+        <v>2.1</v>
       </c>
       <c r="G24" t="n">
-        <v>1.67</v>
+        <v>2.4</v>
       </c>
       <c r="H24" t="n">
-        <v>5.8</v>
+        <v>3.35</v>
       </c>
       <c r="I24" t="n">
-        <v>7.6</v>
+        <v>4.3</v>
       </c>
       <c r="J24" t="n">
-        <v>4.1</v>
+        <v>3.15</v>
       </c>
       <c r="K24" t="n">
-        <v>4.9</v>
+        <v>3.9</v>
       </c>
       <c r="L24" t="n">
-        <v>1.28</v>
+        <v>1.01</v>
       </c>
       <c r="M24" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N24" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="P24" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="S24" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="T24" t="n">
         <v>1.05</v>
       </c>
-      <c r="N24" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="O24" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P24" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="R24" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="S24" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="T24" t="n">
-        <v>1.65</v>
-      </c>
       <c r="U24" t="n">
-        <v>2.14</v>
+        <v>1.05</v>
       </c>
       <c r="V24" t="n">
-        <v>1.16</v>
+        <v>1.3</v>
       </c>
       <c r="W24" t="n">
-        <v>2.48</v>
+        <v>1.68</v>
       </c>
       <c r="X24" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="Y24" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="Z24" t="n">
+        <v>36</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>970</v>
+      </c>
+      <c r="AE24" t="n">
         <v>65</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>970</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>970</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>29</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>90</v>
       </c>
       <c r="AF24" t="n">
         <v>970</v>
       </c>
       <c r="AG24" t="n">
-        <v>970</v>
+        <v>15.5</v>
       </c>
       <c r="AH24" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AI24" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AJ24" t="n">
-        <v>970</v>
+        <v>40</v>
       </c>
       <c r="AK24" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AL24" t="n">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="AM24" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AN24" t="n">
-        <v>8.6</v>
+        <v>1000</v>
       </c>
       <c r="AO24" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AP24" t="n">
-        <v>4.4</v>
+        <v>1.75</v>
       </c>
       <c r="AQ24" t="n">
-        <v>4.7</v>
+        <v>1.75</v>
       </c>
       <c r="AR24" t="n">
-        <v>5.1</v>
+        <v>1.67</v>
       </c>
       <c r="AS24" t="n">
-        <v>4.6</v>
+        <v>1.75</v>
       </c>
       <c r="AT24" t="n">
-        <v>3.75</v>
+        <v>1.75</v>
       </c>
       <c r="AU24" t="n">
-        <v>3.75</v>
+        <v>1.51</v>
       </c>
       <c r="AV24" t="n">
-        <v>4.6</v>
+        <v>1.61</v>
       </c>
       <c r="AW24" t="n">
-        <v>5.2</v>
+        <v>1.7</v>
       </c>
       <c r="AX24" t="n">
-        <v>3.85</v>
+        <v>10</v>
       </c>
       <c r="AY24" t="n">
-        <v>3.75</v>
+        <v>1.57</v>
       </c>
       <c r="AZ24" t="n">
-        <v>4.4</v>
+        <v>1.63</v>
       </c>
       <c r="BA24" t="n">
-        <v>5.2</v>
+        <v>1.71</v>
       </c>
       <c r="BB24" t="n">
-        <v>4.2</v>
+        <v>1.68</v>
       </c>
       <c r="BC24" t="n">
-        <v>4.2</v>
+        <v>1.66</v>
       </c>
       <c r="BD24" t="n">
-        <v>4.7</v>
+        <v>1.7</v>
       </c>
       <c r="BE24" t="n">
-        <v>4.5</v>
+        <v>1.75</v>
       </c>
       <c r="BF24" t="n">
-        <v>6</v>
+        <v>1.75</v>
       </c>
       <c r="BG24" t="n">
-        <v>5.2</v>
+        <v>1.75</v>
       </c>
       <c r="BH24" t="inlineStr">
         <is>
-          <t>2026-02-22 23:54:08</t>
+          <t>2026-02-23 02:03:30</t>
         </is>
       </c>
     </row>
@@ -5233,7 +5233,7 @@
         <v>4</v>
       </c>
       <c r="I25" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="J25" t="n">
         <v>2.9</v>
@@ -5387,7 +5387,7 @@
       </c>
       <c r="BH25" t="inlineStr">
         <is>
-          <t>2026-02-22 23:54:08</t>
+          <t>2026-02-23 02:03:30</t>
         </is>
       </c>
     </row>
@@ -5430,7 +5430,7 @@
         <v>21</v>
       </c>
       <c r="J26" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="K26" t="n">
         <v>10.5</v>
@@ -5448,28 +5448,28 @@
         <v>1.1</v>
       </c>
       <c r="P26" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="R26" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="S26" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="T26" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="U26" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="V26" t="n">
         <v>1.05</v>
       </c>
       <c r="W26" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="X26" t="n">
         <v>55</v>
@@ -5478,64 +5478,64 @@
         <v>85</v>
       </c>
       <c r="Z26" t="n">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="AA26" t="n">
         <v>1000</v>
       </c>
       <c r="AB26" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AC26" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AD26" t="n">
         <v>75</v>
       </c>
       <c r="AE26" t="n">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="AF26" t="n">
         <v>10.5</v>
       </c>
       <c r="AG26" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AH26" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AI26" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AJ26" t="n">
         <v>9.4</v>
       </c>
       <c r="AK26" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AL26" t="n">
+        <v>36</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>310</v>
+      </c>
+      <c r="AP26" t="n">
         <v>38</v>
       </c>
-      <c r="AM26" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN26" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="AO26" t="n">
-        <v>340</v>
-      </c>
-      <c r="AP26" t="n">
-        <v>48</v>
-      </c>
       <c r="AQ26" t="n">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="AR26" t="n">
         <v>48</v>
       </c>
       <c r="AS26" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AT26" t="n">
         <v>14.5</v>
@@ -5550,19 +5550,19 @@
         <v>100</v>
       </c>
       <c r="AX26" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AY26" t="n">
         <v>12.5</v>
       </c>
       <c r="AZ26" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="BA26" t="n">
-        <v>44</v>
+        <v>90</v>
       </c>
       <c r="BB26" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="BC26" t="n">
         <v>12</v>
@@ -5571,17 +5571,17 @@
         <v>30</v>
       </c>
       <c r="BE26" t="n">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="BF26" t="n">
-        <v>2.52</v>
+        <v>2.48</v>
       </c>
       <c r="BG26" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="BH26" t="inlineStr">
         <is>
-          <t>2026-02-22 23:54:08</t>
+          <t>2026-02-23 02:03:30</t>
         </is>
       </c>
     </row>
@@ -5615,7 +5615,7 @@
         <v>1.84</v>
       </c>
       <c r="G27" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="H27" t="n">
         <v>4.5</v>
@@ -5642,7 +5642,7 @@
         <v>1.24</v>
       </c>
       <c r="P27" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="Q27" t="n">
         <v>1.73</v>
@@ -5666,7 +5666,7 @@
         <v>2.16</v>
       </c>
       <c r="X27" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Y27" t="n">
         <v>20</v>
@@ -5696,7 +5696,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AH27" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AI27" t="n">
         <v>55</v>
@@ -5714,13 +5714,13 @@
         <v>80</v>
       </c>
       <c r="AN27" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AO27" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AP27" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AQ27" t="n">
         <v>18.5</v>
@@ -5729,7 +5729,7 @@
         <v>34</v>
       </c>
       <c r="AS27" t="n">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="AT27" t="n">
         <v>10.5</v>
@@ -5771,11 +5771,11 @@
         <v>8.800000000000001</v>
       </c>
       <c r="BG27" t="n">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="BH27" t="inlineStr">
         <is>
-          <t>2026-02-22 23:54:08</t>
+          <t>2026-02-23 02:03:30</t>
         </is>
       </c>
     </row>
@@ -5812,10 +5812,10 @@
         <v>1.28</v>
       </c>
       <c r="H28" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="I28" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="J28" t="n">
         <v>7.6</v>
@@ -5833,13 +5833,13 @@
         <v>9.6</v>
       </c>
       <c r="O28" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="P28" t="n">
         <v>3.75</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="R28" t="n">
         <v>2.12</v>
@@ -5851,16 +5851,16 @@
         <v>1.72</v>
       </c>
       <c r="U28" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="V28" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="W28" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="X28" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Y28" t="n">
         <v>65</v>
@@ -5875,7 +5875,7 @@
         <v>16.5</v>
       </c>
       <c r="AC28" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AD28" t="n">
         <v>42</v>
@@ -5902,7 +5902,7 @@
         <v>12</v>
       </c>
       <c r="AL28" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AM28" t="n">
         <v>90</v>
@@ -5911,31 +5911,31 @@
         <v>3.15</v>
       </c>
       <c r="AO28" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AP28" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AQ28" t="n">
         <v>50</v>
       </c>
       <c r="AR28" t="n">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="AS28" t="n">
-        <v>55</v>
+        <v>120</v>
       </c>
       <c r="AT28" t="n">
         <v>15.5</v>
       </c>
       <c r="AU28" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AV28" t="n">
         <v>38</v>
       </c>
       <c r="AW28" t="n">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="AX28" t="n">
         <v>10.5</v>
@@ -5965,11 +5965,11 @@
         <v>3.05</v>
       </c>
       <c r="BG28" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="BH28" t="inlineStr">
         <is>
-          <t>2026-02-22 23:54:08</t>
+          <t>2026-02-23 02:03:30</t>
         </is>
       </c>
     </row>
@@ -6163,7 +6163,7 @@
       </c>
       <c r="BH29" t="inlineStr">
         <is>
-          <t>2026-02-22 23:54:08</t>
+          <t>2026-02-23 02:03:30</t>
         </is>
       </c>
     </row>
@@ -6197,7 +6197,7 @@
         <v>2.38</v>
       </c>
       <c r="G30" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="H30" t="n">
         <v>3.8</v>
@@ -6206,13 +6206,13 @@
         <v>4.2</v>
       </c>
       <c r="J30" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="K30" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="L30" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="M30" t="n">
         <v>1.18</v>
@@ -6221,10 +6221,10 @@
         <v>2.12</v>
       </c>
       <c r="O30" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="P30" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="Q30" t="n">
         <v>3.55</v>
@@ -6236,7 +6236,7 @@
         <v>8.6</v>
       </c>
       <c r="T30" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="U30" t="n">
         <v>1.57</v>
@@ -6245,13 +6245,13 @@
         <v>1.31</v>
       </c>
       <c r="W30" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="X30" t="n">
         <v>7.2</v>
       </c>
       <c r="Y30" t="n">
-        <v>8.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="Z30" t="n">
         <v>27</v>
@@ -6272,7 +6272,7 @@
         <v>110</v>
       </c>
       <c r="AF30" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="AG30" t="n">
         <v>14.5</v>
@@ -6311,7 +6311,7 @@
         <v>19.5</v>
       </c>
       <c r="AS30" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="AT30" t="n">
         <v>5.4</v>
@@ -6323,7 +6323,7 @@
         <v>17.5</v>
       </c>
       <c r="AW30" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AX30" t="n">
         <v>12</v>
@@ -6332,32 +6332,32 @@
         <v>12</v>
       </c>
       <c r="AZ30" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="BA30" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="BB30" t="n">
         <v>7</v>
       </c>
-      <c r="BA30" t="n">
+      <c r="BC30" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="BD30" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="BE30" t="n">
         <v>8</v>
       </c>
-      <c r="BB30" t="n">
+      <c r="BF30" t="n">
         <v>7.2</v>
       </c>
-      <c r="BC30" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="BD30" t="n">
+      <c r="BG30" t="n">
         <v>7.8</v>
       </c>
-      <c r="BE30" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="BF30" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="BG30" t="n">
-        <v>8.199999999999999</v>
-      </c>
       <c r="BH30" t="inlineStr">
         <is>
-          <t>2026-02-22 23:54:08</t>
+          <t>2026-02-23 02:03:30</t>
         </is>
       </c>
     </row>
@@ -6551,7 +6551,7 @@
       </c>
       <c r="BH31" t="inlineStr">
         <is>
-          <t>2026-02-22 23:54:08</t>
+          <t>2026-02-23 02:03:30</t>
         </is>
       </c>
     </row>
@@ -6582,19 +6582,19 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="G32" t="n">
         <v>4</v>
       </c>
       <c r="H32" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="I32" t="n">
-        <v>2.68</v>
+        <v>2.62</v>
       </c>
       <c r="J32" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="K32" t="n">
         <v>3</v>
@@ -6624,13 +6624,13 @@
         <v>6.4</v>
       </c>
       <c r="T32" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="U32" t="n">
         <v>1.69</v>
       </c>
       <c r="V32" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="W32" t="n">
         <v>1.33</v>
@@ -6687,7 +6687,7 @@
         <v>1000</v>
       </c>
       <c r="AO32" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AP32" t="n">
         <v>6.4</v>
@@ -6699,7 +6699,7 @@
         <v>12.5</v>
       </c>
       <c r="AS32" t="n">
-        <v>8.6</v>
+        <v>27</v>
       </c>
       <c r="AT32" t="n">
         <v>8.199999999999999</v>
@@ -6720,16 +6720,16 @@
         <v>15</v>
       </c>
       <c r="AZ32" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="BA32" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="BB32" t="n">
         <v>10</v>
       </c>
       <c r="BC32" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="BD32" t="n">
         <v>10</v>
@@ -6745,7 +6745,395 @@
       </c>
       <c r="BH32" t="inlineStr">
         <is>
-          <t>2026-02-22 23:54:08</t>
+          <t>2026-02-23 02:03:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Argentinian Primera Division</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>2026-02-24</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>21:30:00</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Belgrano</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Atl Tucuman</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="G33" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="H33" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="J33" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="K33" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="L33" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N33" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="O33" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="P33" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="R33" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S33" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="T33" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="U33" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V33" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="W33" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="X33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>48</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>26</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>30</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>27</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>30</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>65</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AP33" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AQ33" t="n">
+        <v>10</v>
+      </c>
+      <c r="AR33" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AS33" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="AT33" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AU33" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AV33" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="AW33" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="AX33" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AY33" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AZ33" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="BA33" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="BB33" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="BC33" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="BD33" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BE33" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="BF33" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="BG33" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="BH33" t="inlineStr">
+        <is>
+          <t>2026-02-23 02:03:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Argentinian Primera Division</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>2026-02-24</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>22:00:00</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Gimnasia Mendoza</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>CA Independiente</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="G34" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="H34" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="I34" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="J34" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K34" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="L34" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="N34" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="O34" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P34" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="R34" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="S34" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="T34" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="U34" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="V34" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="W34" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="X34" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>38</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>27</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>27</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>75</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>120</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>75</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>130</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>280</v>
+      </c>
+      <c r="AN34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO34" t="n">
+        <v>55</v>
+      </c>
+      <c r="AP34" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AQ34" t="n">
+        <v>6</v>
+      </c>
+      <c r="AR34" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AS34" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AT34" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AU34" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AV34" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AW34" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AX34" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AY34" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AZ34" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="BA34" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BB34" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BC34" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BD34" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BE34" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BF34" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BG34" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH34" t="inlineStr">
+        <is>
+          <t>2026-02-23 02:03:30</t>
         </is>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-24.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-24.xlsx
@@ -771,16 +771,16 @@
         <v>1.99</v>
       </c>
       <c r="I2" t="n">
-        <v>2.22</v>
+        <v>2.34</v>
       </c>
       <c r="J2" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="K2" t="n">
         <v>3.65</v>
       </c>
       <c r="L2" t="n">
-        <v>1.01</v>
+        <v>1.38</v>
       </c>
       <c r="M2" t="n">
         <v>1.07</v>
@@ -789,10 +789,10 @@
         <v>2.34</v>
       </c>
       <c r="O2" t="n">
-        <v>1.08</v>
+        <v>1.4</v>
       </c>
       <c r="P2" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="Q2" t="n">
         <v>2.16</v>
@@ -804,7 +804,7 @@
         <v>3.5</v>
       </c>
       <c r="T2" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="U2" t="n">
         <v>1.84</v>
@@ -925,7 +925,7 @@
       </c>
       <c r="BH2" t="inlineStr">
         <is>
-          <t>2026-02-23 02:03:30</t>
+          <t>2026-02-23 04:12:35</t>
         </is>
       </c>
     </row>
@@ -956,7 +956,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="G3" t="n">
         <v>1.63</v>
@@ -1001,13 +1001,13 @@
         <v>1.96</v>
       </c>
       <c r="U3" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="V3" t="n">
         <v>1.13</v>
       </c>
       <c r="W3" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="X3" t="n">
         <v>980</v>
@@ -1119,7 +1119,7 @@
       </c>
       <c r="BH3" t="inlineStr">
         <is>
-          <t>2026-02-23 02:03:30</t>
+          <t>2026-02-23 04:12:35</t>
         </is>
       </c>
     </row>
@@ -1153,7 +1153,7 @@
         <v>1.4</v>
       </c>
       <c r="G4" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="H4" t="n">
         <v>8</v>
@@ -1180,22 +1180,22 @@
         <v>1.16</v>
       </c>
       <c r="P4" t="n">
-        <v>2.94</v>
+        <v>2.98</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="R4" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="S4" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="T4" t="n">
         <v>1.75</v>
       </c>
       <c r="U4" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="V4" t="n">
         <v>1.13</v>
@@ -1204,10 +1204,10 @@
         <v>3.4</v>
       </c>
       <c r="X4" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Y4" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="Z4" t="n">
         <v>80</v>
@@ -1219,7 +1219,7 @@
         <v>12.5</v>
       </c>
       <c r="AC4" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AD4" t="n">
         <v>29</v>
@@ -1243,7 +1243,7 @@
         <v>13</v>
       </c>
       <c r="AK4" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AL4" t="n">
         <v>25</v>
@@ -1258,7 +1258,7 @@
         <v>80</v>
       </c>
       <c r="AP4" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AQ4" t="n">
         <v>32</v>
@@ -1267,7 +1267,7 @@
         <v>65</v>
       </c>
       <c r="AS4" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AT4" t="n">
         <v>11.5</v>
@@ -1300,20 +1300,20 @@
         <v>12</v>
       </c>
       <c r="BD4" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BE4" t="n">
         <v>75</v>
       </c>
       <c r="BF4" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="BG4" t="n">
         <v>65</v>
       </c>
       <c r="BH4" t="inlineStr">
         <is>
-          <t>2026-02-23 02:03:30</t>
+          <t>2026-02-23 04:12:35</t>
         </is>
       </c>
     </row>
@@ -1395,7 +1395,7 @@
         <v>1.13</v>
       </c>
       <c r="W5" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="X5" t="n">
         <v>38</v>
@@ -1446,7 +1446,7 @@
         <v>90</v>
       </c>
       <c r="AN5" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="AO5" t="n">
         <v>75</v>
@@ -1461,7 +1461,7 @@
         <v>5.5</v>
       </c>
       <c r="AS5" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="AT5" t="n">
         <v>11</v>
@@ -1473,7 +1473,7 @@
         <v>21</v>
       </c>
       <c r="AW5" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="AX5" t="n">
         <v>10</v>
@@ -1497,17 +1497,17 @@
         <v>20</v>
       </c>
       <c r="BE5" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="BF5" t="n">
         <v>3.95</v>
       </c>
       <c r="BG5" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="BH5" t="inlineStr">
         <is>
-          <t>2026-02-23 02:03:30</t>
+          <t>2026-02-23 04:12:35</t>
         </is>
       </c>
     </row>
@@ -1538,25 +1538,25 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="G6" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="H6" t="n">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="I6" t="n">
-        <v>2.42</v>
+        <v>2.18</v>
       </c>
       <c r="J6" t="n">
-        <v>2.82</v>
+        <v>1.01</v>
       </c>
       <c r="K6" t="n">
         <v>950</v>
       </c>
       <c r="L6" t="n">
-        <v>1.26</v>
+        <v>1.01</v>
       </c>
       <c r="M6" t="n">
         <v>1.04</v>
@@ -1577,7 +1577,7 @@
         <v>1.56</v>
       </c>
       <c r="S6" t="n">
-        <v>2.46</v>
+        <v>2.24</v>
       </c>
       <c r="T6" t="n">
         <v>1.05</v>
@@ -1586,10 +1586,10 @@
         <v>1.05</v>
       </c>
       <c r="V6" t="n">
-        <v>1.7</v>
+        <v>1.86</v>
       </c>
       <c r="W6" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="X6" t="n">
         <v>29</v>
@@ -1601,7 +1601,7 @@
         <v>19</v>
       </c>
       <c r="AA6" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AB6" t="n">
         <v>23</v>
@@ -1628,10 +1628,10 @@
         <v>34</v>
       </c>
       <c r="AJ6" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AK6" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AL6" t="n">
         <v>48</v>
@@ -1640,7 +1640,7 @@
         <v>75</v>
       </c>
       <c r="AN6" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AO6" t="n">
         <v>12.5</v>
@@ -1670,13 +1670,13 @@
         <v>16.5</v>
       </c>
       <c r="AX6" t="n">
-        <v>24</v>
+        <v>3.8</v>
       </c>
       <c r="AY6" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AZ6" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="BA6" t="n">
         <v>20</v>
@@ -1694,14 +1694,14 @@
         <v>4</v>
       </c>
       <c r="BF6" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="BG6" t="n">
         <v>7.6</v>
       </c>
       <c r="BH6" t="inlineStr">
         <is>
-          <t>2026-02-23 02:03:30</t>
+          <t>2026-02-23 04:12:35</t>
         </is>
       </c>
     </row>
@@ -1837,7 +1837,7 @@
         <v>1000</v>
       </c>
       <c r="AO7" t="n">
-        <v>6</v>
+        <v>5.6</v>
       </c>
       <c r="AP7" t="n">
         <v>20</v>
@@ -1852,7 +1852,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AT7" t="n">
-        <v>4.9</v>
+        <v>5.2</v>
       </c>
       <c r="AU7" t="n">
         <v>10.5</v>
@@ -1864,38 +1864,38 @@
         <v>12</v>
       </c>
       <c r="AX7" t="n">
-        <v>5.4</v>
+        <v>5.7</v>
       </c>
       <c r="AY7" t="n">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="AZ7" t="n">
         <v>19.5</v>
       </c>
       <c r="BA7" t="n">
-        <v>4.9</v>
+        <v>5.2</v>
       </c>
       <c r="BB7" t="n">
-        <v>5.6</v>
+        <v>6</v>
       </c>
       <c r="BC7" t="n">
-        <v>5.5</v>
+        <v>5.8</v>
       </c>
       <c r="BD7" t="n">
-        <v>5.4</v>
+        <v>5.8</v>
       </c>
       <c r="BE7" t="n">
-        <v>5.4</v>
+        <v>5.8</v>
       </c>
       <c r="BF7" t="n">
-        <v>5.5</v>
+        <v>5.9</v>
       </c>
       <c r="BG7" t="n">
         <v>4.6</v>
       </c>
       <c r="BH7" t="inlineStr">
         <is>
-          <t>2026-02-23 02:03:30</t>
+          <t>2026-02-23 04:12:35</t>
         </is>
       </c>
     </row>
@@ -1950,13 +1950,13 @@
         <v>1.05</v>
       </c>
       <c r="N8" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="O8" t="n">
         <v>1.22</v>
       </c>
       <c r="P8" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="Q8" t="n">
         <v>1.67</v>
@@ -1965,13 +1965,13 @@
         <v>1.51</v>
       </c>
       <c r="S8" t="n">
-        <v>2.54</v>
+        <v>2.62</v>
       </c>
       <c r="T8" t="n">
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
       <c r="U8" t="n">
-        <v>2.32</v>
+        <v>2.28</v>
       </c>
       <c r="V8" t="n">
         <v>1.3</v>
@@ -2089,7 +2089,7 @@
       </c>
       <c r="BH8" t="inlineStr">
         <is>
-          <t>2026-02-23 02:03:30</t>
+          <t>2026-02-23 04:12:35</t>
         </is>
       </c>
     </row>
@@ -2123,7 +2123,7 @@
         <v>6.6</v>
       </c>
       <c r="G9" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="H9" t="n">
         <v>1.47</v>
@@ -2144,13 +2144,13 @@
         <v>1.04</v>
       </c>
       <c r="N9" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="O9" t="n">
         <v>1.19</v>
       </c>
       <c r="P9" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="Q9" t="n">
         <v>1.62</v>
@@ -2159,7 +2159,7 @@
         <v>1.52</v>
       </c>
       <c r="S9" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="T9" t="n">
         <v>1.79</v>
@@ -2171,7 +2171,7 @@
         <v>2.74</v>
       </c>
       <c r="W9" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="X9" t="n">
         <v>1000</v>
@@ -2255,7 +2255,7 @@
         <v>1.94</v>
       </c>
       <c r="AY9" t="n">
-        <v>21</v>
+        <v>1.88</v>
       </c>
       <c r="AZ9" t="n">
         <v>1.85</v>
@@ -2283,7 +2283,7 @@
       </c>
       <c r="BH9" t="inlineStr">
         <is>
-          <t>2026-02-23 02:03:30</t>
+          <t>2026-02-23 04:12:35</t>
         </is>
       </c>
     </row>
@@ -2477,7 +2477,7 @@
       </c>
       <c r="BH10" t="inlineStr">
         <is>
-          <t>2026-02-23 02:03:30</t>
+          <t>2026-02-23 04:12:35</t>
         </is>
       </c>
     </row>
@@ -2511,16 +2511,16 @@
         <v>8.800000000000001</v>
       </c>
       <c r="G11" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="H11" t="n">
         <v>1.47</v>
       </c>
       <c r="I11" t="n">
-        <v>1.58</v>
+        <v>1.55</v>
       </c>
       <c r="J11" t="n">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="K11" t="n">
         <v>4.9</v>
@@ -2538,10 +2538,10 @@
         <v>1.44</v>
       </c>
       <c r="P11" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.24</v>
+        <v>2.3</v>
       </c>
       <c r="R11" t="n">
         <v>1.24</v>
@@ -2556,7 +2556,7 @@
         <v>1.59</v>
       </c>
       <c r="V11" t="n">
-        <v>2.74</v>
+        <v>2.8</v>
       </c>
       <c r="W11" t="n">
         <v>1.1</v>
@@ -2568,7 +2568,7 @@
         <v>6.8</v>
       </c>
       <c r="Z11" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AA11" t="n">
         <v>15.5</v>
@@ -2577,7 +2577,7 @@
         <v>26</v>
       </c>
       <c r="AC11" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AD11" t="n">
         <v>12.5</v>
@@ -2619,7 +2619,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AQ11" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="AR11" t="n">
         <v>6.6</v>
@@ -2628,10 +2628,10 @@
         <v>11.5</v>
       </c>
       <c r="AT11" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="AU11" t="n">
-        <v>4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AV11" t="n">
         <v>9.4</v>
@@ -2640,38 +2640,38 @@
         <v>17</v>
       </c>
       <c r="AX11" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>32</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="BA11" t="n">
         <v>5.8</v>
       </c>
-      <c r="AY11" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="AZ11" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="BA11" t="n">
-        <v>5.6</v>
-      </c>
       <c r="BB11" t="n">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="BC11" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="BD11" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="BE11" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="BF11" t="n">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="BG11" t="n">
         <v>9</v>
       </c>
       <c r="BH11" t="inlineStr">
         <is>
-          <t>2026-02-23 02:03:30</t>
+          <t>2026-02-23 04:12:35</t>
         </is>
       </c>
     </row>
@@ -2865,7 +2865,7 @@
       </c>
       <c r="BH12" t="inlineStr">
         <is>
-          <t>2026-02-23 02:03:30</t>
+          <t>2026-02-23 04:12:35</t>
         </is>
       </c>
     </row>
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="G13" t="n">
         <v>3.95</v>
@@ -2905,16 +2905,16 @@
         <v>2.3</v>
       </c>
       <c r="I13" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="J13" t="n">
         <v>3.1</v>
       </c>
       <c r="K13" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="L13" t="n">
-        <v>1.46</v>
+        <v>1.39</v>
       </c>
       <c r="M13" t="n">
         <v>1.09</v>
@@ -2944,7 +2944,7 @@
         <v>1.94</v>
       </c>
       <c r="V13" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="W13" t="n">
         <v>1.34</v>
@@ -3059,7 +3059,7 @@
       </c>
       <c r="BH13" t="inlineStr">
         <is>
-          <t>2026-02-23 02:03:30</t>
+          <t>2026-02-23 04:12:35</t>
         </is>
       </c>
     </row>
@@ -3090,106 +3090,106 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="G14" t="n">
-        <v>2.5</v>
+        <v>2.44</v>
       </c>
       <c r="H14" t="n">
         <v>3.2</v>
       </c>
       <c r="I14" t="n">
-        <v>3.95</v>
+        <v>3.55</v>
       </c>
       <c r="J14" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="K14" t="n">
-        <v>4.3</v>
+        <v>3.85</v>
       </c>
       <c r="L14" t="n">
         <v>1.38</v>
       </c>
       <c r="M14" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N14" t="n">
         <v>3.7</v>
       </c>
       <c r="O14" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P14" t="n">
-        <v>1.73</v>
+        <v>1.93</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.57</v>
+        <v>1.82</v>
       </c>
       <c r="R14" t="n">
-        <v>1.27</v>
+        <v>1.36</v>
       </c>
       <c r="S14" t="n">
         <v>3.25</v>
       </c>
       <c r="T14" t="n">
-        <v>1.51</v>
+        <v>1.05</v>
       </c>
       <c r="U14" t="n">
-        <v>1.82</v>
+        <v>1.05</v>
       </c>
       <c r="V14" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="W14" t="n">
-        <v>1.59</v>
+        <v>1.69</v>
       </c>
       <c r="X14" t="n">
-        <v>21</v>
+        <v>15.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="Z14" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="AA14" t="n">
         <v>1000</v>
       </c>
       <c r="AB14" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AC14" t="n">
-        <v>11</v>
+        <v>8.4</v>
       </c>
       <c r="AD14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>40</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH14" t="n">
         <v>17.5</v>
       </c>
-      <c r="AE14" t="n">
-        <v>46</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>18</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>24</v>
-      </c>
       <c r="AI14" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AJ14" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AK14" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="AL14" t="n">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AM14" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AN14" t="n">
         <v>1000</v>
@@ -3198,62 +3198,62 @@
         <v>1000</v>
       </c>
       <c r="AP14" t="n">
-        <v>2.6</v>
+        <v>6.2</v>
       </c>
       <c r="AQ14" t="n">
-        <v>2.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AR14" t="n">
-        <v>2.74</v>
+        <v>7.4</v>
       </c>
       <c r="AS14" t="n">
-        <v>2.98</v>
+        <v>9.4</v>
       </c>
       <c r="AT14" t="n">
-        <v>2.4</v>
+        <v>5.4</v>
       </c>
       <c r="AU14" t="n">
-        <v>2.34</v>
+        <v>6.6</v>
       </c>
       <c r="AV14" t="n">
-        <v>10</v>
+        <v>6.2</v>
       </c>
       <c r="AW14" t="n">
-        <v>27</v>
+        <v>8.4</v>
       </c>
       <c r="AX14" t="n">
-        <v>2.56</v>
+        <v>6.2</v>
       </c>
       <c r="AY14" t="n">
-        <v>2.42</v>
+        <v>5.5</v>
       </c>
       <c r="AZ14" t="n">
-        <v>2.64</v>
+        <v>6.6</v>
       </c>
       <c r="BA14" t="n">
-        <v>32</v>
+        <v>8.6</v>
       </c>
       <c r="BB14" t="n">
-        <v>2.76</v>
+        <v>8</v>
       </c>
       <c r="BC14" t="n">
-        <v>2.74</v>
+        <v>7.4</v>
       </c>
       <c r="BD14" t="n">
-        <v>2.78</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="BE14" t="n">
-        <v>2.98</v>
+        <v>9.6</v>
       </c>
       <c r="BF14" t="n">
-        <v>2.98</v>
+        <v>13.5</v>
       </c>
       <c r="BG14" t="n">
-        <v>2.98</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="BH14" t="inlineStr">
         <is>
-          <t>2026-02-23 02:03:30</t>
+          <t>2026-02-23 04:12:35</t>
         </is>
       </c>
     </row>
@@ -3284,7 +3284,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>3.1</v>
+        <v>2.96</v>
       </c>
       <c r="G15" t="n">
         <v>4.1</v>
@@ -3293,10 +3293,10 @@
         <v>2.08</v>
       </c>
       <c r="I15" t="n">
-        <v>2.48</v>
+        <v>2.34</v>
       </c>
       <c r="J15" t="n">
-        <v>2.86</v>
+        <v>3</v>
       </c>
       <c r="K15" t="n">
         <v>4.3</v>
@@ -3308,7 +3308,7 @@
         <v>1.03</v>
       </c>
       <c r="N15" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="O15" t="n">
         <v>1.23</v>
@@ -3317,19 +3317,19 @@
         <v>2.1</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.68</v>
+        <v>1.62</v>
       </c>
       <c r="R15" t="n">
         <v>1.46</v>
       </c>
       <c r="S15" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="T15" t="n">
         <v>1.45</v>
       </c>
       <c r="U15" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="V15" t="n">
         <v>1.68</v>
@@ -3338,116 +3338,116 @@
         <v>1.32</v>
       </c>
       <c r="X15" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="Y15" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>18</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>32</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>25</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>32</v>
+      </c>
+      <c r="AG15" t="n">
         <v>17</v>
       </c>
-      <c r="Z15" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>38</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD15" t="n">
+      <c r="AH15" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>36</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>70</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>42</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>48</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>80</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>34</v>
+      </c>
+      <c r="AO15" t="n">
         <v>15.5</v>
       </c>
-      <c r="AE15" t="n">
-        <v>30</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>38</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>20</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>44</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>50</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>1000</v>
-      </c>
       <c r="AP15" t="n">
-        <v>1.93</v>
+        <v>4.1</v>
       </c>
       <c r="AQ15" t="n">
-        <v>1.85</v>
+        <v>3.75</v>
       </c>
       <c r="AR15" t="n">
-        <v>1.89</v>
+        <v>3.95</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.97</v>
+        <v>4.4</v>
       </c>
       <c r="AT15" t="n">
-        <v>1.9</v>
+        <v>4</v>
       </c>
       <c r="AU15" t="n">
-        <v>2.06</v>
+        <v>3.4</v>
       </c>
       <c r="AV15" t="n">
-        <v>1.83</v>
+        <v>3.65</v>
       </c>
       <c r="AW15" t="n">
-        <v>1.94</v>
+        <v>4.2</v>
       </c>
       <c r="AX15" t="n">
-        <v>1.97</v>
+        <v>4.4</v>
       </c>
       <c r="AY15" t="n">
-        <v>1.88</v>
+        <v>3.9</v>
       </c>
       <c r="AZ15" t="n">
-        <v>1.89</v>
+        <v>4</v>
       </c>
       <c r="BA15" t="n">
-        <v>1.98</v>
+        <v>4.4</v>
       </c>
       <c r="BB15" t="n">
-        <v>2.02</v>
+        <v>4.7</v>
       </c>
       <c r="BC15" t="n">
-        <v>1.99</v>
+        <v>4.5</v>
       </c>
       <c r="BD15" t="n">
-        <v>2</v>
+        <v>4.6</v>
       </c>
       <c r="BE15" t="n">
-        <v>2.02</v>
+        <v>4.8</v>
       </c>
       <c r="BF15" t="n">
-        <v>2.06</v>
+        <v>4.4</v>
       </c>
       <c r="BG15" t="n">
-        <v>2.06</v>
+        <v>3.8</v>
       </c>
       <c r="BH15" t="inlineStr">
         <is>
-          <t>2026-02-23 02:03:30</t>
+          <t>2026-02-23 04:12:35</t>
         </is>
       </c>
     </row>
@@ -3484,7 +3484,7 @@
         <v>1.9</v>
       </c>
       <c r="H16" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="I16" t="n">
         <v>5.9</v>
@@ -3517,13 +3517,13 @@
         <v>1.53</v>
       </c>
       <c r="S16" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="T16" t="n">
         <v>1.48</v>
       </c>
       <c r="U16" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="V16" t="n">
         <v>1.2</v>
@@ -3541,7 +3541,7 @@
         <v>48</v>
       </c>
       <c r="AA16" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AB16" t="n">
         <v>13.5</v>
@@ -3641,7 +3641,7 @@
       </c>
       <c r="BH16" t="inlineStr">
         <is>
-          <t>2026-02-23 02:03:30</t>
+          <t>2026-02-23 04:12:35</t>
         </is>
       </c>
     </row>
@@ -3675,7 +3675,7 @@
         <v>3.15</v>
       </c>
       <c r="G17" t="n">
-        <v>1000</v>
+        <v>3.9</v>
       </c>
       <c r="H17" t="n">
         <v>2.18</v>
@@ -3684,7 +3684,7 @@
         <v>2.2</v>
       </c>
       <c r="J17" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="K17" t="n">
         <v>4.3</v>
@@ -3696,7 +3696,7 @@
         <v>1.05</v>
       </c>
       <c r="N17" t="n">
-        <v>1.1</v>
+        <v>3.7</v>
       </c>
       <c r="O17" t="n">
         <v>1.25</v>
@@ -3705,13 +3705,13 @@
         <v>2.04</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.61</v>
+        <v>1.71</v>
       </c>
       <c r="R17" t="n">
-        <v>1.35</v>
+        <v>1.43</v>
       </c>
       <c r="S17" t="n">
-        <v>1.05</v>
+        <v>2.56</v>
       </c>
       <c r="T17" t="n">
         <v>1.62</v>
@@ -3723,119 +3723,119 @@
         <v>1.83</v>
       </c>
       <c r="W17" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="X17" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="Y17" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Z17" t="n">
         <v>17.5</v>
       </c>
-      <c r="Z17" t="n">
-        <v>24</v>
-      </c>
       <c r="AA17" t="n">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="AB17" t="n">
-        <v>21</v>
+        <v>15.5</v>
       </c>
       <c r="AC17" t="n">
-        <v>13</v>
+        <v>9.4</v>
       </c>
       <c r="AD17" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>25</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG17" t="n">
         <v>17</v>
       </c>
-      <c r="AE17" t="n">
-        <v>34</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>1000</v>
-      </c>
       <c r="AH17" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="AI17" t="n">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="AJ17" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AK17" t="n">
+        <v>36</v>
+      </c>
+      <c r="AL17" t="n">
         <v>50</v>
       </c>
-      <c r="AL17" t="n">
-        <v>1000</v>
-      </c>
       <c r="AM17" t="n">
         <v>1000</v>
       </c>
       <c r="AN17" t="n">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="AO17" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="AP17" t="n">
-        <v>2.18</v>
+        <v>5.2</v>
       </c>
       <c r="AQ17" t="n">
-        <v>1.95</v>
+        <v>4.8</v>
       </c>
       <c r="AR17" t="n">
-        <v>2</v>
+        <v>5.1</v>
       </c>
       <c r="AS17" t="n">
-        <v>2.1</v>
+        <v>5.9</v>
       </c>
       <c r="AT17" t="n">
-        <v>1.99</v>
+        <v>4.9</v>
       </c>
       <c r="AU17" t="n">
-        <v>1.88</v>
+        <v>4</v>
       </c>
       <c r="AV17" t="n">
-        <v>1.95</v>
+        <v>4.5</v>
       </c>
       <c r="AW17" t="n">
-        <v>2.06</v>
+        <v>5.6</v>
       </c>
       <c r="AX17" t="n">
-        <v>2.06</v>
+        <v>5.6</v>
       </c>
       <c r="AY17" t="n">
-        <v>2.18</v>
+        <v>5</v>
       </c>
       <c r="AZ17" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BA17" t="n">
-        <v>2.1</v>
+        <v>6</v>
       </c>
       <c r="BB17" t="n">
-        <v>2.18</v>
+        <v>6.4</v>
       </c>
       <c r="BC17" t="n">
-        <v>2.1</v>
+        <v>6</v>
       </c>
       <c r="BD17" t="n">
-        <v>2.12</v>
+        <v>6.2</v>
       </c>
       <c r="BE17" t="n">
-        <v>2.14</v>
+        <v>6.6</v>
       </c>
       <c r="BF17" t="n">
-        <v>2.08</v>
+        <v>5.7</v>
       </c>
       <c r="BG17" t="n">
-        <v>2</v>
+        <v>4.9</v>
       </c>
       <c r="BH17" t="inlineStr">
         <is>
-          <t>2026-02-23 02:03:30</t>
+          <t>2026-02-23 04:12:35</t>
         </is>
       </c>
     </row>
@@ -3869,10 +3869,10 @@
         <v>8.199999999999999</v>
       </c>
       <c r="G18" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="H18" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="I18" t="n">
         <v>1.48</v>
@@ -4029,7 +4029,7 @@
       </c>
       <c r="BH18" t="inlineStr">
         <is>
-          <t>2026-02-23 02:03:30</t>
+          <t>2026-02-23 04:12:35</t>
         </is>
       </c>
     </row>
@@ -4063,10 +4063,10 @@
         <v>1.61</v>
       </c>
       <c r="G19" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="H19" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="I19" t="n">
         <v>7.2</v>
@@ -4075,7 +4075,7 @@
         <v>4.1</v>
       </c>
       <c r="K19" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="L19" t="n">
         <v>1.28</v>
@@ -4111,7 +4111,7 @@
         <v>1.17</v>
       </c>
       <c r="W19" t="n">
-        <v>2.5</v>
+        <v>2.46</v>
       </c>
       <c r="X19" t="n">
         <v>23</v>
@@ -4120,7 +4120,7 @@
         <v>30</v>
       </c>
       <c r="Z19" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AA19" t="n">
         <v>1000</v>
@@ -4132,22 +4132,22 @@
         <v>970</v>
       </c>
       <c r="AD19" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AE19" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AF19" t="n">
         <v>970</v>
       </c>
       <c r="AG19" t="n">
-        <v>970</v>
+        <v>11.5</v>
       </c>
       <c r="AH19" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI19" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AJ19" t="n">
         <v>970</v>
@@ -4165,65 +4165,65 @@
         <v>970</v>
       </c>
       <c r="AO19" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AP19" t="n">
-        <v>4.8</v>
+        <v>3.05</v>
       </c>
       <c r="AQ19" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AX19" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AY19" t="n">
+        <v>4</v>
+      </c>
+      <c r="AZ19" t="n">
         <v>3</v>
       </c>
-      <c r="AR19" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AS19" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="AT19" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="AU19" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="AV19" t="n">
-        <v>5</v>
-      </c>
-      <c r="AW19" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AX19" t="n">
-        <v>4</v>
-      </c>
-      <c r="AY19" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="AZ19" t="n">
+      <c r="BA19" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="BB19" t="n">
         <v>4.7</v>
       </c>
-      <c r="BA19" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="BB19" t="n">
-        <v>4.5</v>
-      </c>
       <c r="BC19" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="BD19" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="BE19" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="BF19" t="n">
         <v>6</v>
       </c>
       <c r="BG19" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="BH19" t="inlineStr">
         <is>
-          <t>2026-02-23 02:03:30</t>
+          <t>2026-02-23 04:12:35</t>
         </is>
       </c>
     </row>
@@ -4254,16 +4254,16 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="G20" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="H20" t="n">
         <v>1.79</v>
       </c>
       <c r="I20" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="J20" t="n">
         <v>3.35</v>
@@ -4272,31 +4272,31 @@
         <v>4.5</v>
       </c>
       <c r="L20" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="M20" t="n">
         <v>1.07</v>
       </c>
       <c r="N20" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="O20" t="n">
         <v>1.32</v>
       </c>
       <c r="P20" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="R20" t="n">
         <v>1.32</v>
       </c>
       <c r="S20" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="T20" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="U20" t="n">
         <v>1.96</v>
@@ -4335,13 +4335,13 @@
         <v>44</v>
       </c>
       <c r="AG20" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AH20" t="n">
         <v>23</v>
       </c>
       <c r="AI20" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AJ20" t="n">
         <v>1000</v>
@@ -4386,7 +4386,7 @@
         <v>4.3</v>
       </c>
       <c r="AX20" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="AY20" t="n">
         <v>4.2</v>
@@ -4395,7 +4395,7 @@
         <v>4.2</v>
       </c>
       <c r="BA20" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="BB20" t="n">
         <v>5</v>
@@ -4417,7 +4417,7 @@
       </c>
       <c r="BH20" t="inlineStr">
         <is>
-          <t>2026-02-23 02:03:30</t>
+          <t>2026-02-23 04:12:35</t>
         </is>
       </c>
     </row>
@@ -4611,7 +4611,7 @@
       </c>
       <c r="BH21" t="inlineStr">
         <is>
-          <t>2026-02-23 02:03:30</t>
+          <t>2026-02-23 04:12:35</t>
         </is>
       </c>
     </row>
@@ -4642,25 +4642,25 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="G22" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="H22" t="n">
         <v>3.25</v>
       </c>
       <c r="I22" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="J22" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K22" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="L22" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="M22" t="n">
         <v>1.05</v>
@@ -4669,31 +4669,31 @@
         <v>4.5</v>
       </c>
       <c r="O22" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="P22" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S22" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="T22" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="U22" t="n">
         <v>2.2</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="R22" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="S22" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="T22" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="U22" t="n">
-        <v>2.18</v>
       </c>
       <c r="V22" t="n">
         <v>1.37</v>
       </c>
       <c r="W22" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="X22" t="n">
         <v>1000</v>
@@ -4729,7 +4729,7 @@
         <v>1000</v>
       </c>
       <c r="AI22" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AJ22" t="n">
         <v>1000</v>
@@ -4750,62 +4750,62 @@
         <v>1000</v>
       </c>
       <c r="AP22" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="AQ22" t="n">
         <v>5.1</v>
       </c>
       <c r="AR22" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="AS22" t="n">
-        <v>5.8</v>
+        <v>5.1</v>
       </c>
       <c r="AT22" t="n">
-        <v>4.6</v>
+        <v>10.5</v>
       </c>
       <c r="AU22" t="n">
         <v>4.3</v>
       </c>
       <c r="AV22" t="n">
-        <v>5.1</v>
+        <v>12.5</v>
       </c>
       <c r="AW22" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="AX22" t="n">
         <v>5</v>
       </c>
       <c r="AY22" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="AZ22" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="BA22" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="BB22" t="n">
         <v>5.8</v>
       </c>
       <c r="BC22" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="BD22" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="BE22" t="n">
-        <v>6.6</v>
+        <v>5.1</v>
       </c>
       <c r="BF22" t="n">
         <v>10</v>
       </c>
       <c r="BG22" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="BH22" t="inlineStr">
         <is>
-          <t>2026-02-23 02:03:30</t>
+          <t>2026-02-23 04:12:35</t>
         </is>
       </c>
     </row>
@@ -4999,7 +4999,7 @@
       </c>
       <c r="BH23" t="inlineStr">
         <is>
-          <t>2026-02-23 02:03:30</t>
+          <t>2026-02-23 04:12:35</t>
         </is>
       </c>
     </row>
@@ -5051,19 +5051,19 @@
         <v>1.01</v>
       </c>
       <c r="M24" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N24" t="n">
-        <v>2.56</v>
+        <v>2.78</v>
       </c>
       <c r="O24" t="n">
         <v>1.31</v>
       </c>
       <c r="P24" t="n">
-        <v>1.66</v>
+        <v>1.87</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.81</v>
+        <v>1.96</v>
       </c>
       <c r="R24" t="n">
         <v>1.27</v>
@@ -5081,7 +5081,7 @@
         <v>1.3</v>
       </c>
       <c r="W24" t="n">
-        <v>1.68</v>
+        <v>1.71</v>
       </c>
       <c r="X24" t="n">
         <v>1000</v>
@@ -5090,7 +5090,7 @@
         <v>1000</v>
       </c>
       <c r="Z24" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AA24" t="n">
         <v>1000</v>
@@ -5102,31 +5102,31 @@
         <v>11</v>
       </c>
       <c r="AD24" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AE24" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AF24" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AG24" t="n">
         <v>15.5</v>
       </c>
       <c r="AH24" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AI24" t="n">
         <v>1000</v>
       </c>
       <c r="AJ24" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AK24" t="n">
         <v>1000</v>
       </c>
       <c r="AL24" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM24" t="n">
         <v>1000</v>
@@ -5193,7 +5193,7 @@
       </c>
       <c r="BH24" t="inlineStr">
         <is>
-          <t>2026-02-23 02:03:30</t>
+          <t>2026-02-23 04:12:35</t>
         </is>
       </c>
     </row>
@@ -5233,13 +5233,13 @@
         <v>4</v>
       </c>
       <c r="I25" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="J25" t="n">
-        <v>2.9</v>
+        <v>2.94</v>
       </c>
       <c r="K25" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="L25" t="n">
         <v>1.65</v>
@@ -5290,7 +5290,7 @@
         <v>140</v>
       </c>
       <c r="AB25" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AC25" t="n">
         <v>8.6</v>
@@ -5314,7 +5314,7 @@
         <v>140</v>
       </c>
       <c r="AJ25" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AK25" t="n">
         <v>38</v>
@@ -5341,7 +5341,7 @@
         <v>19</v>
       </c>
       <c r="AS25" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="AT25" t="n">
         <v>5.8</v>
@@ -5353,7 +5353,7 @@
         <v>16</v>
       </c>
       <c r="AW25" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="AX25" t="n">
         <v>10.5</v>
@@ -5362,32 +5362,32 @@
         <v>11</v>
       </c>
       <c r="AZ25" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="BA25" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="BB25" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="BC25" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="BD25" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="BE25" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="BF25" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="BG25" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="BH25" t="inlineStr">
         <is>
-          <t>2026-02-23 02:03:30</t>
+          <t>2026-02-23 04:12:35</t>
         </is>
       </c>
     </row>
@@ -5424,13 +5424,13 @@
         <v>1.18</v>
       </c>
       <c r="H26" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="I26" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J26" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="K26" t="n">
         <v>10.5</v>
@@ -5454,16 +5454,16 @@
         <v>1.31</v>
       </c>
       <c r="R26" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="S26" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="T26" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="U26" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="V26" t="n">
         <v>1.05</v>
@@ -5475,22 +5475,22 @@
         <v>55</v>
       </c>
       <c r="Y26" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="Z26" t="n">
-        <v>250</v>
+        <v>210</v>
       </c>
       <c r="AA26" t="n">
         <v>1000</v>
       </c>
       <c r="AB26" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AC26" t="n">
         <v>25</v>
       </c>
       <c r="AD26" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AE26" t="n">
         <v>320</v>
@@ -5502,7 +5502,7 @@
         <v>14.5</v>
       </c>
       <c r="AH26" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AI26" t="n">
         <v>170</v>
@@ -5511,13 +5511,13 @@
         <v>9.4</v>
       </c>
       <c r="AK26" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AL26" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AM26" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AN26" t="n">
         <v>2.58</v>
@@ -5526,19 +5526,19 @@
         <v>310</v>
       </c>
       <c r="AP26" t="n">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="AQ26" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR26" t="n">
         <v>60</v>
       </c>
-      <c r="AR26" t="n">
-        <v>48</v>
-      </c>
       <c r="AS26" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AT26" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AU26" t="n">
         <v>21</v>
@@ -5556,13 +5556,13 @@
         <v>12.5</v>
       </c>
       <c r="AZ26" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="BA26" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="BB26" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="BC26" t="n">
         <v>12</v>
@@ -5571,17 +5571,17 @@
         <v>30</v>
       </c>
       <c r="BE26" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="BF26" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="BG26" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="BH26" t="inlineStr">
         <is>
-          <t>2026-02-23 02:03:30</t>
+          <t>2026-02-23 04:12:35</t>
         </is>
       </c>
     </row>
@@ -5615,7 +5615,7 @@
         <v>1.84</v>
       </c>
       <c r="G27" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="H27" t="n">
         <v>4.5</v>
@@ -5642,13 +5642,13 @@
         <v>1.24</v>
       </c>
       <c r="P27" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="Q27" t="n">
         <v>1.73</v>
       </c>
       <c r="R27" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="S27" t="n">
         <v>2.84</v>
@@ -5702,7 +5702,7 @@
         <v>55</v>
       </c>
       <c r="AJ27" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AK27" t="n">
         <v>17</v>
@@ -5729,7 +5729,7 @@
         <v>34</v>
       </c>
       <c r="AS27" t="n">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="AT27" t="n">
         <v>10.5</v>
@@ -5771,11 +5771,11 @@
         <v>8.800000000000001</v>
       </c>
       <c r="BG27" t="n">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="BH27" t="inlineStr">
         <is>
-          <t>2026-02-23 02:03:30</t>
+          <t>2026-02-23 04:12:35</t>
         </is>
       </c>
     </row>
@@ -5812,10 +5812,10 @@
         <v>1.28</v>
       </c>
       <c r="H28" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="I28" t="n">
         <v>12</v>
-      </c>
-      <c r="I28" t="n">
-        <v>12.5</v>
       </c>
       <c r="J28" t="n">
         <v>7.6</v>
@@ -5833,19 +5833,19 @@
         <v>9.6</v>
       </c>
       <c r="O28" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="P28" t="n">
         <v>3.75</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="R28" t="n">
         <v>2.12</v>
       </c>
       <c r="S28" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="T28" t="n">
         <v>1.72</v>
@@ -5854,10 +5854,10 @@
         <v>2.3</v>
       </c>
       <c r="V28" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="W28" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="X28" t="n">
         <v>48</v>
@@ -5902,7 +5902,7 @@
         <v>12</v>
       </c>
       <c r="AL28" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AM28" t="n">
         <v>90</v>
@@ -5920,22 +5920,22 @@
         <v>50</v>
       </c>
       <c r="AR28" t="n">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="AS28" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AT28" t="n">
         <v>15.5</v>
       </c>
       <c r="AU28" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AV28" t="n">
         <v>38</v>
       </c>
       <c r="AW28" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="AX28" t="n">
         <v>10.5</v>
@@ -5953,23 +5953,23 @@
         <v>10.5</v>
       </c>
       <c r="BC28" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="BD28" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BE28" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="BF28" t="n">
         <v>3.05</v>
       </c>
       <c r="BG28" t="n">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="BH28" t="inlineStr">
         <is>
-          <t>2026-02-23 02:03:30</t>
+          <t>2026-02-23 04:12:35</t>
         </is>
       </c>
     </row>
@@ -6000,46 +6000,46 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.04</v>
+        <v>1.86</v>
       </c>
       <c r="G29" t="n">
-        <v>1000</v>
+        <v>2.08</v>
       </c>
       <c r="H29" t="n">
-        <v>1.04</v>
+        <v>4.3</v>
       </c>
       <c r="I29" t="n">
-        <v>1000</v>
+        <v>5.6</v>
       </c>
       <c r="J29" t="n">
-        <v>1.02</v>
+        <v>3.15</v>
       </c>
       <c r="K29" t="n">
-        <v>1000</v>
+        <v>3.65</v>
       </c>
       <c r="L29" t="n">
         <v>1.01</v>
       </c>
       <c r="M29" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="N29" t="n">
-        <v>1.24</v>
+        <v>2.8</v>
       </c>
       <c r="O29" t="n">
-        <v>1.35</v>
+        <v>1.46</v>
       </c>
       <c r="P29" t="n">
-        <v>1.24</v>
+        <v>1.61</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.35</v>
+        <v>2.32</v>
       </c>
       <c r="R29" t="n">
-        <v>1.13</v>
+        <v>1.22</v>
       </c>
       <c r="S29" t="n">
-        <v>1.35</v>
+        <v>4.5</v>
       </c>
       <c r="T29" t="n">
         <v>1.05</v>
@@ -6048,129 +6048,129 @@
         <v>1.05</v>
       </c>
       <c r="V29" t="n">
-        <v>1.01</v>
+        <v>1.22</v>
       </c>
       <c r="W29" t="n">
-        <v>1.01</v>
+        <v>1.92</v>
       </c>
       <c r="X29" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="Y29" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="Z29" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AA29" t="n">
         <v>1000</v>
       </c>
       <c r="AB29" t="n">
-        <v>1000</v>
+        <v>7.2</v>
       </c>
       <c r="AC29" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD29" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AE29" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AF29" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AG29" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AH29" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AI29" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AJ29" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AK29" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AL29" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM29" t="n">
         <v>1000</v>
       </c>
       <c r="AN29" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AO29" t="n">
         <v>1000</v>
       </c>
       <c r="AP29" t="n">
-        <v>1.01</v>
+        <v>5</v>
       </c>
       <c r="AQ29" t="n">
-        <v>1.01</v>
+        <v>5.3</v>
       </c>
       <c r="AR29" t="n">
-        <v>1.01</v>
+        <v>7</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.01</v>
+        <v>8</v>
       </c>
       <c r="AT29" t="n">
-        <v>1.01</v>
+        <v>3.9</v>
       </c>
       <c r="AU29" t="n">
-        <v>1.01</v>
+        <v>4.1</v>
       </c>
       <c r="AV29" t="n">
-        <v>1.01</v>
+        <v>6</v>
       </c>
       <c r="AW29" t="n">
-        <v>1.01</v>
+        <v>7.8</v>
       </c>
       <c r="AX29" t="n">
-        <v>1.01</v>
+        <v>4.9</v>
       </c>
       <c r="AY29" t="n">
-        <v>1.01</v>
+        <v>4.9</v>
       </c>
       <c r="AZ29" t="n">
-        <v>1.01</v>
+        <v>6.2</v>
       </c>
       <c r="BA29" t="n">
-        <v>1.01</v>
+        <v>8</v>
       </c>
       <c r="BB29" t="n">
-        <v>1.01</v>
+        <v>6.2</v>
       </c>
       <c r="BC29" t="n">
-        <v>1.01</v>
+        <v>6.4</v>
       </c>
       <c r="BD29" t="n">
-        <v>1.01</v>
+        <v>7.4</v>
       </c>
       <c r="BE29" t="n">
-        <v>1.01</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="BF29" t="n">
-        <v>1.01</v>
+        <v>6</v>
       </c>
       <c r="BG29" t="n">
-        <v>1.01</v>
+        <v>8</v>
       </c>
       <c r="BH29" t="inlineStr">
         <is>
-          <t>2026-02-23 02:03:30</t>
+          <t>2026-02-23 04:12:35</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Colombian Primera B</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -6180,191 +6180,191 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>19:15:00</t>
+          <t>18:00:00</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>San Lorenzo</t>
+          <t>Union Magdalena</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Instituto</t>
+          <t>Tigres FC Zipaquira</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2.38</v>
+        <v>1.52</v>
       </c>
       <c r="G30" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="H30" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="I30" t="n">
+        <v>9</v>
+      </c>
+      <c r="J30" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K30" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="L30" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N30" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="O30" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="P30" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R30" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="S30" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="T30" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="U30" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="V30" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="W30" t="n">
         <v>2.54</v>
       </c>
-      <c r="H30" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="I30" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="J30" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="K30" t="n">
-        <v>3</v>
-      </c>
-      <c r="L30" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="M30" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="N30" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="O30" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="P30" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="R30" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="S30" t="n">
+      <c r="X30" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>22</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>34</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF30" t="n">
         <v>8.6</v>
       </c>
-      <c r="T30" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="U30" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="V30" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="W30" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="X30" t="n">
+      <c r="AG30" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>20</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AO30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AP30" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AQ30" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AR30" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AS30" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AT30" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AU30" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV30" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AW30" t="n">
         <v>7.2</v>
       </c>
-      <c r="Y30" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z30" t="n">
-        <v>27</v>
-      </c>
-      <c r="AA30" t="n">
-        <v>130</v>
-      </c>
-      <c r="AB30" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="AC30" t="n">
+      <c r="AX30" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AY30" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AZ30" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA30" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="BB30" t="n">
+        <v>12</v>
+      </c>
+      <c r="BC30" t="n">
+        <v>16</v>
+      </c>
+      <c r="BD30" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="BE30" t="n">
         <v>7.4</v>
       </c>
-      <c r="AD30" t="n">
-        <v>23</v>
-      </c>
-      <c r="AE30" t="n">
-        <v>110</v>
-      </c>
-      <c r="AF30" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AG30" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AH30" t="n">
-        <v>38</v>
-      </c>
-      <c r="AI30" t="n">
-        <v>160</v>
-      </c>
-      <c r="AJ30" t="n">
-        <v>48</v>
-      </c>
-      <c r="AK30" t="n">
-        <v>55</v>
-      </c>
-      <c r="AL30" t="n">
-        <v>110</v>
-      </c>
-      <c r="AM30" t="n">
-        <v>410</v>
-      </c>
-      <c r="AN30" t="n">
-        <v>65</v>
-      </c>
-      <c r="AO30" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AP30" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="AQ30" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AR30" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AS30" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AT30" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="AU30" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AV30" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AW30" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AX30" t="n">
-        <v>12</v>
-      </c>
-      <c r="AY30" t="n">
-        <v>12</v>
-      </c>
-      <c r="AZ30" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="BA30" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="BB30" t="n">
-        <v>7</v>
-      </c>
-      <c r="BC30" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="BD30" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="BE30" t="n">
-        <v>8</v>
-      </c>
       <c r="BF30" t="n">
-        <v>7.2</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="BG30" t="n">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="BH30" t="inlineStr">
         <is>
-          <t>2026-02-23 02:03:30</t>
+          <t>2026-02-23 04:12:35</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Colombian Primera B</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -6374,184 +6374,184 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>19:30:00</t>
+          <t>19:15:00</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Union Magdalena</t>
+          <t>San Lorenzo</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Tigres FC Zipaquira</t>
+          <t>Instituto</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.04</v>
+        <v>2.34</v>
       </c>
       <c r="G31" t="n">
-        <v>1000</v>
+        <v>2.5</v>
       </c>
       <c r="H31" t="n">
-        <v>1.04</v>
+        <v>3.85</v>
       </c>
       <c r="I31" t="n">
-        <v>1000</v>
+        <v>4.2</v>
       </c>
       <c r="J31" t="n">
-        <v>1.02</v>
+        <v>2.9</v>
       </c>
       <c r="K31" t="n">
-        <v>1000</v>
+        <v>3.05</v>
       </c>
       <c r="L31" t="n">
-        <v>1.01</v>
+        <v>1.75</v>
       </c>
       <c r="M31" t="n">
-        <v>1.01</v>
+        <v>1.18</v>
       </c>
       <c r="N31" t="n">
-        <v>1.25</v>
+        <v>2.12</v>
       </c>
       <c r="O31" t="n">
-        <v>1.3</v>
+        <v>1.79</v>
       </c>
       <c r="P31" t="n">
-        <v>1.24</v>
+        <v>1.37</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.3</v>
+        <v>3.4</v>
       </c>
       <c r="R31" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="S31" t="n">
-        <v>1.29</v>
+        <v>8.4</v>
       </c>
       <c r="T31" t="n">
-        <v>1.05</v>
+        <v>2.56</v>
       </c>
       <c r="U31" t="n">
-        <v>1.05</v>
+        <v>1.57</v>
       </c>
       <c r="V31" t="n">
-        <v>1.01</v>
+        <v>1.31</v>
       </c>
       <c r="W31" t="n">
-        <v>1.01</v>
+        <v>1.67</v>
       </c>
       <c r="X31" t="n">
-        <v>1000</v>
+        <v>7.2</v>
       </c>
       <c r="Y31" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="Z31" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AA31" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AB31" t="n">
-        <v>1000</v>
+        <v>6.2</v>
       </c>
       <c r="AC31" t="n">
-        <v>1000</v>
+        <v>7.4</v>
       </c>
       <c r="AD31" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AE31" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AF31" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AG31" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AH31" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AI31" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AJ31" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AK31" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AL31" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AM31" t="n">
-        <v>1000</v>
+        <v>410</v>
       </c>
       <c r="AN31" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AO31" t="n">
         <v>1000</v>
       </c>
       <c r="AP31" t="n">
-        <v>1.01</v>
+        <v>5.8</v>
       </c>
       <c r="AQ31" t="n">
-        <v>1.01</v>
+        <v>7.6</v>
       </c>
       <c r="AR31" t="n">
-        <v>1.01</v>
+        <v>18</v>
       </c>
       <c r="AS31" t="n">
-        <v>1.01</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AT31" t="n">
-        <v>1.01</v>
+        <v>5.4</v>
       </c>
       <c r="AU31" t="n">
-        <v>1.01</v>
+        <v>6.6</v>
       </c>
       <c r="AV31" t="n">
-        <v>1.01</v>
+        <v>17.5</v>
       </c>
       <c r="AW31" t="n">
-        <v>1.01</v>
+        <v>8</v>
       </c>
       <c r="AX31" t="n">
-        <v>1.01</v>
+        <v>11.5</v>
       </c>
       <c r="AY31" t="n">
-        <v>1.01</v>
+        <v>12</v>
       </c>
       <c r="AZ31" t="n">
-        <v>1.01</v>
+        <v>7</v>
       </c>
       <c r="BA31" t="n">
-        <v>1.01</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="BB31" t="n">
-        <v>1.01</v>
+        <v>7.2</v>
       </c>
       <c r="BC31" t="n">
-        <v>1.01</v>
+        <v>7.2</v>
       </c>
       <c r="BD31" t="n">
-        <v>1.01</v>
+        <v>8</v>
       </c>
       <c r="BE31" t="n">
-        <v>1.01</v>
+        <v>8.4</v>
       </c>
       <c r="BF31" t="n">
-        <v>1.01</v>
+        <v>7.6</v>
       </c>
       <c r="BG31" t="n">
-        <v>1.01</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="BH31" t="inlineStr">
         <is>
-          <t>2026-02-23 02:03:30</t>
+          <t>2026-02-23 04:12:35</t>
         </is>
       </c>
     </row>
@@ -6582,7 +6582,7 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="G32" t="n">
         <v>4</v>
@@ -6633,7 +6633,7 @@
         <v>1.61</v>
       </c>
       <c r="W32" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="X32" t="n">
         <v>7.4</v>
@@ -6687,7 +6687,7 @@
         <v>1000</v>
       </c>
       <c r="AO32" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AP32" t="n">
         <v>6.4</v>
@@ -6720,16 +6720,16 @@
         <v>15</v>
       </c>
       <c r="AZ32" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="BA32" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="BB32" t="n">
         <v>10</v>
       </c>
       <c r="BC32" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="BD32" t="n">
         <v>10</v>
@@ -6745,7 +6745,7 @@
       </c>
       <c r="BH32" t="inlineStr">
         <is>
-          <t>2026-02-23 02:03:30</t>
+          <t>2026-02-23 04:12:35</t>
         </is>
       </c>
     </row>
@@ -6800,10 +6800,10 @@
         <v>1.11</v>
       </c>
       <c r="N33" t="n">
-        <v>1.61</v>
+        <v>2.82</v>
       </c>
       <c r="O33" t="n">
-        <v>1.45</v>
+        <v>1.49</v>
       </c>
       <c r="P33" t="n">
         <v>1.61</v>
@@ -6812,16 +6812,16 @@
         <v>2.42</v>
       </c>
       <c r="R33" t="n">
-        <v>1.18</v>
+        <v>1.21</v>
       </c>
       <c r="S33" t="n">
-        <v>4.2</v>
+        <v>4.8</v>
       </c>
       <c r="T33" t="n">
-        <v>1.8</v>
+        <v>2.12</v>
       </c>
       <c r="U33" t="n">
-        <v>1.62</v>
+        <v>1.75</v>
       </c>
       <c r="V33" t="n">
         <v>1.21</v>
@@ -6830,116 +6830,116 @@
         <v>2.04</v>
       </c>
       <c r="X33" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="Y33" t="n">
-        <v>19.5</v>
+        <v>15</v>
       </c>
       <c r="Z33" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AA33" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AB33" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>120</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>980</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>130</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>23</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>230</v>
+      </c>
+      <c r="AN33" t="n">
+        <v>21</v>
+      </c>
+      <c r="AO33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AP33" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AQ33" t="n">
+        <v>12</v>
+      </c>
+      <c r="AR33" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AS33" t="n">
         <v>7.8</v>
       </c>
-      <c r="AC33" t="n">
+      <c r="AT33" t="n">
+        <v>6</v>
+      </c>
+      <c r="AU33" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AV33" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AW33" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AX33" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AY33" t="n">
         <v>9.4</v>
       </c>
-      <c r="AD33" t="n">
-        <v>26</v>
-      </c>
-      <c r="AE33" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF33" t="n">
+      <c r="AZ33" t="n">
+        <v>21</v>
+      </c>
+      <c r="BA33" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="BB33" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="BC33" t="n">
+        <v>20</v>
+      </c>
+      <c r="BD33" t="n">
+        <v>7</v>
+      </c>
+      <c r="BE33" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="BF33" t="n">
         <v>14.5</v>
       </c>
-      <c r="AG33" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH33" t="n">
-        <v>30</v>
-      </c>
-      <c r="AI33" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ33" t="n">
-        <v>27</v>
-      </c>
-      <c r="AK33" t="n">
-        <v>30</v>
-      </c>
-      <c r="AL33" t="n">
-        <v>65</v>
-      </c>
-      <c r="AM33" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN33" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO33" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AP33" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="AQ33" t="n">
-        <v>10</v>
-      </c>
-      <c r="AR33" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="AS33" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="AT33" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="AU33" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AV33" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="AW33" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="AX33" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AY33" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="AZ33" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="BA33" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="BB33" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="BC33" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="BD33" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="BE33" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="BF33" t="n">
-        <v>2.56</v>
-      </c>
       <c r="BG33" t="n">
-        <v>2.56</v>
+        <v>7.6</v>
       </c>
       <c r="BH33" t="inlineStr">
         <is>
-          <t>2026-02-23 02:03:30</t>
+          <t>2026-02-23 04:12:35</t>
         </is>
       </c>
     </row>
@@ -6973,7 +6973,7 @@
         <v>3.75</v>
       </c>
       <c r="G34" t="n">
-        <v>4.6</v>
+        <v>4.3</v>
       </c>
       <c r="H34" t="n">
         <v>2.3</v>
@@ -6994,10 +6994,10 @@
         <v>1.14</v>
       </c>
       <c r="N34" t="n">
-        <v>1.46</v>
+        <v>2.38</v>
       </c>
       <c r="O34" t="n">
-        <v>1.14</v>
+        <v>1.62</v>
       </c>
       <c r="P34" t="n">
         <v>1.46</v>
@@ -7006,22 +7006,22 @@
         <v>2.84</v>
       </c>
       <c r="R34" t="n">
-        <v>1.12</v>
+        <v>1.16</v>
       </c>
       <c r="S34" t="n">
-        <v>5.5</v>
+        <v>6.2</v>
       </c>
       <c r="T34" t="n">
-        <v>1.84</v>
+        <v>2.26</v>
       </c>
       <c r="U34" t="n">
-        <v>1.48</v>
+        <v>1.69</v>
       </c>
       <c r="V34" t="n">
         <v>1.66</v>
       </c>
       <c r="W34" t="n">
-        <v>1.27</v>
+        <v>1.31</v>
       </c>
       <c r="X34" t="n">
         <v>9.199999999999999</v>
@@ -7102,7 +7102,7 @@
         <v>7.6</v>
       </c>
       <c r="AX34" t="n">
-        <v>6.8</v>
+        <v>22</v>
       </c>
       <c r="AY34" t="n">
         <v>6.2</v>
@@ -7133,7 +7133,7 @@
       </c>
       <c r="BH34" t="inlineStr">
         <is>
-          <t>2026-02-23 02:03:30</t>
+          <t>2026-02-23 04:12:35</t>
         </is>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-24.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-24.xlsx
@@ -771,10 +771,10 @@
         <v>1.99</v>
       </c>
       <c r="I2" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="J2" t="n">
-        <v>2.9</v>
+        <v>2.58</v>
       </c>
       <c r="K2" t="n">
         <v>3.65</v>
@@ -804,7 +804,7 @@
         <v>3.5</v>
       </c>
       <c r="T2" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="U2" t="n">
         <v>1.84</v>
@@ -925,7 +925,7 @@
       </c>
       <c r="BH2" t="inlineStr">
         <is>
-          <t>2026-02-23 04:12:35</t>
+          <t>2026-02-23 06:21:43</t>
         </is>
       </c>
     </row>
@@ -965,7 +965,7 @@
         <v>6.4</v>
       </c>
       <c r="I3" t="n">
-        <v>9.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="J3" t="n">
         <v>4</v>
@@ -986,7 +986,7 @@
         <v>1.29</v>
       </c>
       <c r="P3" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="Q3" t="n">
         <v>1.86</v>
@@ -1064,62 +1064,62 @@
         <v>1000</v>
       </c>
       <c r="AP3" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BB3" t="n">
         <v>5.2</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>4</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="AW3" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="AX3" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="AY3" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="AZ3" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="BA3" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="BB3" t="n">
-        <v>5</v>
       </c>
       <c r="BC3" t="n">
         <v>5.5</v>
       </c>
       <c r="BD3" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="BE3" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="BF3" t="n">
         <v>7</v>
       </c>
       <c r="BG3" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="BH3" t="inlineStr">
         <is>
-          <t>2026-02-23 04:12:35</t>
+          <t>2026-02-23 06:21:43</t>
         </is>
       </c>
     </row>
@@ -1150,22 +1150,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="G4" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="I4" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="J4" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="K4" t="n">
         <v>6</v>
-      </c>
-      <c r="K4" t="n">
-        <v>6.2</v>
       </c>
       <c r="L4" t="n">
         <v>1.25</v>
@@ -1186,22 +1186,22 @@
         <v>1.49</v>
       </c>
       <c r="R4" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="S4" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="T4" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="U4" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="V4" t="n">
         <v>1.13</v>
       </c>
       <c r="W4" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="X4" t="n">
         <v>34</v>
@@ -1249,7 +1249,7 @@
         <v>25</v>
       </c>
       <c r="AM4" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AN4" t="n">
         <v>4.6</v>
@@ -1261,7 +1261,7 @@
         <v>30</v>
       </c>
       <c r="AQ4" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AR4" t="n">
         <v>65</v>
@@ -1276,7 +1276,7 @@
         <v>12.5</v>
       </c>
       <c r="AV4" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AW4" t="n">
         <v>80</v>
@@ -1309,11 +1309,11 @@
         <v>4.4</v>
       </c>
       <c r="BG4" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="BH4" t="inlineStr">
         <is>
-          <t>2026-02-23 04:12:35</t>
+          <t>2026-02-23 06:21:43</t>
         </is>
       </c>
     </row>
@@ -1347,7 +1347,7 @@
         <v>1.45</v>
       </c>
       <c r="G5" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="H5" t="n">
         <v>6.6</v>
@@ -1374,7 +1374,7 @@
         <v>1.15</v>
       </c>
       <c r="P5" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="Q5" t="n">
         <v>1.45</v>
@@ -1507,7 +1507,7 @@
       </c>
       <c r="BH5" t="inlineStr">
         <is>
-          <t>2026-02-23 04:12:35</t>
+          <t>2026-02-23 06:21:43</t>
         </is>
       </c>
     </row>
@@ -1544,10 +1544,10 @@
         <v>4.4</v>
       </c>
       <c r="H6" t="n">
-        <v>1.95</v>
+        <v>1.81</v>
       </c>
       <c r="I6" t="n">
-        <v>2.18</v>
+        <v>2.38</v>
       </c>
       <c r="J6" t="n">
         <v>1.01</v>
@@ -1568,7 +1568,7 @@
         <v>1.19</v>
       </c>
       <c r="P6" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="Q6" t="n">
         <v>1.51</v>
@@ -1577,7 +1577,7 @@
         <v>1.56</v>
       </c>
       <c r="S6" t="n">
-        <v>2.24</v>
+        <v>2.46</v>
       </c>
       <c r="T6" t="n">
         <v>1.05</v>
@@ -1586,7 +1586,7 @@
         <v>1.05</v>
       </c>
       <c r="V6" t="n">
-        <v>1.86</v>
+        <v>1.72</v>
       </c>
       <c r="W6" t="n">
         <v>1.29</v>
@@ -1616,7 +1616,7 @@
         <v>24</v>
       </c>
       <c r="AF6" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AG6" t="n">
         <v>19</v>
@@ -1685,10 +1685,10 @@
         <v>4</v>
       </c>
       <c r="BC6" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="BD6" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="BE6" t="n">
         <v>4</v>
@@ -1701,7 +1701,7 @@
       </c>
       <c r="BH6" t="inlineStr">
         <is>
-          <t>2026-02-23 04:12:35</t>
+          <t>2026-02-23 06:21:43</t>
         </is>
       </c>
     </row>
@@ -1895,7 +1895,7 @@
       </c>
       <c r="BH7" t="inlineStr">
         <is>
-          <t>2026-02-23 04:12:35</t>
+          <t>2026-02-23 06:21:43</t>
         </is>
       </c>
     </row>
@@ -1929,7 +1929,7 @@
         <v>1.91</v>
       </c>
       <c r="G8" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="H8" t="n">
         <v>3.9</v>
@@ -1941,7 +1941,7 @@
         <v>3.85</v>
       </c>
       <c r="K8" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L8" t="n">
         <v>1.01</v>
@@ -1965,13 +1965,13 @@
         <v>1.51</v>
       </c>
       <c r="S8" t="n">
-        <v>2.62</v>
+        <v>2.54</v>
       </c>
       <c r="T8" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="U8" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="V8" t="n">
         <v>1.3</v>
@@ -2089,7 +2089,7 @@
       </c>
       <c r="BH8" t="inlineStr">
         <is>
-          <t>2026-02-23 04:12:35</t>
+          <t>2026-02-23 06:21:43</t>
         </is>
       </c>
     </row>
@@ -2283,7 +2283,7 @@
       </c>
       <c r="BH9" t="inlineStr">
         <is>
-          <t>2026-02-23 04:12:35</t>
+          <t>2026-02-23 06:21:43</t>
         </is>
       </c>
     </row>
@@ -2326,7 +2326,7 @@
         <v>2.94</v>
       </c>
       <c r="J10" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="K10" t="n">
         <v>3.55</v>
@@ -2341,7 +2341,7 @@
         <v>2</v>
       </c>
       <c r="O10" t="n">
-        <v>1.36</v>
+        <v>1.62</v>
       </c>
       <c r="P10" t="n">
         <v>1.33</v>
@@ -2477,7 +2477,7 @@
       </c>
       <c r="BH10" t="inlineStr">
         <is>
-          <t>2026-02-23 04:12:35</t>
+          <t>2026-02-23 06:21:43</t>
         </is>
       </c>
     </row>
@@ -2526,7 +2526,7 @@
         <v>4.9</v>
       </c>
       <c r="L11" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="M11" t="n">
         <v>1.1</v>
@@ -2553,10 +2553,10 @@
         <v>2.44</v>
       </c>
       <c r="U11" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="V11" t="n">
-        <v>2.8</v>
+        <v>2.74</v>
       </c>
       <c r="W11" t="n">
         <v>1.1</v>
@@ -2592,7 +2592,7 @@
         <v>40</v>
       </c>
       <c r="AH11" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AI11" t="n">
         <v>60</v>
@@ -2649,19 +2649,19 @@
         <v>5.5</v>
       </c>
       <c r="BA11" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="BB11" t="n">
         <v>6.4</v>
       </c>
       <c r="BC11" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="BD11" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="BE11" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="BF11" t="n">
         <v>6.4</v>
@@ -2671,7 +2671,7 @@
       </c>
       <c r="BH11" t="inlineStr">
         <is>
-          <t>2026-02-23 04:12:35</t>
+          <t>2026-02-23 06:21:43</t>
         </is>
       </c>
     </row>
@@ -2702,10 +2702,10 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="G12" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="H12" t="n">
         <v>8</v>
@@ -2865,7 +2865,7 @@
       </c>
       <c r="BH12" t="inlineStr">
         <is>
-          <t>2026-02-23 04:12:35</t>
+          <t>2026-02-23 06:21:43</t>
         </is>
       </c>
     </row>
@@ -2896,25 +2896,25 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="G13" t="n">
-        <v>3.95</v>
+        <v>3.6</v>
       </c>
       <c r="H13" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="I13" t="n">
-        <v>2.64</v>
+        <v>2.7</v>
       </c>
       <c r="J13" t="n">
         <v>3.1</v>
       </c>
       <c r="K13" t="n">
-        <v>3.9</v>
+        <v>3.55</v>
       </c>
       <c r="L13" t="n">
-        <v>1.39</v>
+        <v>1.46</v>
       </c>
       <c r="M13" t="n">
         <v>1.09</v>
@@ -2923,13 +2923,13 @@
         <v>3</v>
       </c>
       <c r="O13" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="P13" t="n">
         <v>1.69</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="R13" t="n">
         <v>1.26</v>
@@ -2941,13 +2941,13 @@
         <v>1.86</v>
       </c>
       <c r="U13" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="V13" t="n">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="W13" t="n">
-        <v>1.34</v>
+        <v>1.38</v>
       </c>
       <c r="X13" t="n">
         <v>12</v>
@@ -2971,13 +2971,13 @@
         <v>14</v>
       </c>
       <c r="AE13" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AF13" t="n">
         <v>25</v>
       </c>
       <c r="AG13" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AH13" t="n">
         <v>20</v>
@@ -2986,10 +2986,10 @@
         <v>60</v>
       </c>
       <c r="AJ13" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AK13" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="AL13" t="n">
         <v>65</v>
@@ -2998,68 +2998,68 @@
         <v>150</v>
       </c>
       <c r="AN13" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AO13" t="n">
         <v>29</v>
       </c>
       <c r="AP13" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AQ13" t="n">
         <v>3.95</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>3.8</v>
       </c>
       <c r="AR13" t="n">
         <v>11</v>
       </c>
       <c r="AS13" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="BA13" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="BC13" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="BD13" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="BE13" t="n">
+        <v>6</v>
+      </c>
+      <c r="BF13" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="BG13" t="n">
         <v>5.2</v>
       </c>
-      <c r="AT13" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AU13" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="AV13" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="AW13" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="AX13" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="AY13" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="AZ13" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="BA13" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="BB13" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="BC13" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="BD13" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="BE13" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="BF13" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="BG13" t="n">
-        <v>4.9</v>
-      </c>
       <c r="BH13" t="inlineStr">
         <is>
-          <t>2026-02-23 04:12:35</t>
+          <t>2026-02-23 06:21:43</t>
         </is>
       </c>
     </row>
@@ -3090,16 +3090,16 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.24</v>
+        <v>2.32</v>
       </c>
       <c r="G14" t="n">
-        <v>2.44</v>
+        <v>2.52</v>
       </c>
       <c r="H14" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I14" t="n">
-        <v>3.55</v>
+        <v>3.25</v>
       </c>
       <c r="J14" t="n">
         <v>3.45</v>
@@ -3111,37 +3111,37 @@
         <v>1.38</v>
       </c>
       <c r="M14" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N14" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="O14" t="n">
         <v>1.3</v>
       </c>
       <c r="P14" t="n">
-        <v>1.93</v>
+        <v>1.96</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="R14" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="S14" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="T14" t="n">
-        <v>1.05</v>
+        <v>1.72</v>
       </c>
       <c r="U14" t="n">
-        <v>1.05</v>
+        <v>2.16</v>
       </c>
       <c r="V14" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="W14" t="n">
-        <v>1.69</v>
+        <v>1.66</v>
       </c>
       <c r="X14" t="n">
         <v>15.5</v>
@@ -3150,7 +3150,7 @@
         <v>14</v>
       </c>
       <c r="Z14" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AA14" t="n">
         <v>1000</v>
@@ -3159,16 +3159,16 @@
         <v>11</v>
       </c>
       <c r="AC14" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD14" t="n">
         <v>15</v>
       </c>
       <c r="AE14" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AF14" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AG14" t="n">
         <v>11.5</v>
@@ -3177,7 +3177,7 @@
         <v>17.5</v>
       </c>
       <c r="AI14" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AJ14" t="n">
         <v>32</v>
@@ -3186,7 +3186,7 @@
         <v>25</v>
       </c>
       <c r="AL14" t="n">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="AM14" t="n">
         <v>110</v>
@@ -3195,65 +3195,65 @@
         <v>1000</v>
       </c>
       <c r="AO14" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AP14" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="AQ14" t="n">
-        <v>9.800000000000001</v>
+        <v>11</v>
       </c>
       <c r="AR14" t="n">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="AS14" t="n">
-        <v>9.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AT14" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="AU14" t="n">
         <v>6.6</v>
       </c>
       <c r="AV14" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="AW14" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AX14" t="n">
         <v>6.2</v>
       </c>
       <c r="AY14" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="AZ14" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="BA14" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="BB14" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="BC14" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="BD14" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="BE14" t="n">
-        <v>9.6</v>
+        <v>4.3</v>
       </c>
       <c r="BF14" t="n">
         <v>13.5</v>
       </c>
       <c r="BG14" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="BH14" t="inlineStr">
         <is>
-          <t>2026-02-23 04:12:35</t>
+          <t>2026-02-23 06:21:43</t>
         </is>
       </c>
     </row>
@@ -3305,10 +3305,10 @@
         <v>1.29</v>
       </c>
       <c r="M15" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N15" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="O15" t="n">
         <v>1.23</v>
@@ -3326,13 +3326,13 @@
         <v>2.52</v>
       </c>
       <c r="T15" t="n">
-        <v>1.45</v>
+        <v>1.6</v>
       </c>
       <c r="U15" t="n">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="V15" t="n">
-        <v>1.68</v>
+        <v>1.74</v>
       </c>
       <c r="W15" t="n">
         <v>1.32</v>
@@ -3447,7 +3447,7 @@
       </c>
       <c r="BH15" t="inlineStr">
         <is>
-          <t>2026-02-23 04:12:35</t>
+          <t>2026-02-23 06:21:43</t>
         </is>
       </c>
     </row>
@@ -3478,19 +3478,19 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.67</v>
+        <v>1.71</v>
       </c>
       <c r="G16" t="n">
-        <v>1.9</v>
+        <v>1.94</v>
       </c>
       <c r="H16" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="I16" t="n">
-        <v>5.9</v>
+        <v>5.6</v>
       </c>
       <c r="J16" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="K16" t="n">
         <v>4.8</v>
@@ -3499,10 +3499,10 @@
         <v>1.01</v>
       </c>
       <c r="M16" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N16" t="n">
-        <v>2.44</v>
+        <v>2.16</v>
       </c>
       <c r="O16" t="n">
         <v>1.2</v>
@@ -3511,13 +3511,13 @@
         <v>1.95</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.54</v>
+        <v>1.6</v>
       </c>
       <c r="R16" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="S16" t="n">
-        <v>1.99</v>
+        <v>2.04</v>
       </c>
       <c r="T16" t="n">
         <v>1.48</v>
@@ -3526,19 +3526,19 @@
         <v>1.98</v>
       </c>
       <c r="V16" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="W16" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="X16" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Y16" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Z16" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AA16" t="n">
         <v>1000</v>
@@ -3547,31 +3547,31 @@
         <v>13.5</v>
       </c>
       <c r="AC16" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AD16" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AE16" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AF16" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AG16" t="n">
         <v>12</v>
       </c>
       <c r="AH16" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI16" t="n">
         <v>60</v>
       </c>
       <c r="AJ16" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AK16" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AL16" t="n">
         <v>34</v>
@@ -3580,25 +3580,25 @@
         <v>85</v>
       </c>
       <c r="AN16" t="n">
-        <v>9.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="AO16" t="n">
         <v>55</v>
       </c>
       <c r="AP16" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="AQ16" t="n">
         <v>4.2</v>
       </c>
       <c r="AR16" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="AS16" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="AT16" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="AU16" t="n">
         <v>3.55</v>
@@ -3610,38 +3610,38 @@
         <v>4.7</v>
       </c>
       <c r="AX16" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="AY16" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="AZ16" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="BA16" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="BB16" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BC16" t="n">
         <v>4.1</v>
-      </c>
-      <c r="BC16" t="n">
-        <v>4</v>
       </c>
       <c r="BD16" t="n">
         <v>4.4</v>
       </c>
       <c r="BE16" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="BF16" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="BG16" t="n">
         <v>4.7</v>
       </c>
-      <c r="BF16" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="BG16" t="n">
-        <v>4.6</v>
-      </c>
       <c r="BH16" t="inlineStr">
         <is>
-          <t>2026-02-23 04:12:35</t>
+          <t>2026-02-23 06:21:43</t>
         </is>
       </c>
     </row>
@@ -3675,7 +3675,7 @@
         <v>3.15</v>
       </c>
       <c r="G17" t="n">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="H17" t="n">
         <v>2.18</v>
@@ -3684,7 +3684,7 @@
         <v>2.2</v>
       </c>
       <c r="J17" t="n">
-        <v>3.55</v>
+        <v>3.85</v>
       </c>
       <c r="K17" t="n">
         <v>4.3</v>
@@ -3723,7 +3723,7 @@
         <v>1.83</v>
       </c>
       <c r="W17" t="n">
-        <v>1.35</v>
+        <v>1.4</v>
       </c>
       <c r="X17" t="n">
         <v>19.5</v>
@@ -3835,7 +3835,7 @@
       </c>
       <c r="BH17" t="inlineStr">
         <is>
-          <t>2026-02-23 04:12:35</t>
+          <t>2026-02-23 06:21:43</t>
         </is>
       </c>
     </row>
@@ -3875,7 +3875,7 @@
         <v>1.4</v>
       </c>
       <c r="I18" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="J18" t="n">
         <v>4.7</v>
@@ -3893,28 +3893,28 @@
         <v>4.4</v>
       </c>
       <c r="O18" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="P18" t="n">
         <v>2.2</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="R18" t="n">
         <v>1.47</v>
       </c>
       <c r="S18" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="T18" t="n">
         <v>1.94</v>
       </c>
       <c r="U18" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="V18" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="W18" t="n">
         <v>1.11</v>
@@ -3956,7 +3956,7 @@
         <v>40</v>
       </c>
       <c r="AJ18" t="n">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="AK18" t="n">
         <v>160</v>
@@ -4029,7 +4029,7 @@
       </c>
       <c r="BH18" t="inlineStr">
         <is>
-          <t>2026-02-23 04:12:35</t>
+          <t>2026-02-23 06:21:43</t>
         </is>
       </c>
     </row>
@@ -4063,19 +4063,19 @@
         <v>1.61</v>
       </c>
       <c r="G19" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="H19" t="n">
         <v>5.8</v>
       </c>
       <c r="I19" t="n">
-        <v>7.2</v>
+        <v>6.8</v>
       </c>
       <c r="J19" t="n">
         <v>4.1</v>
       </c>
       <c r="K19" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="L19" t="n">
         <v>1.28</v>
@@ -4093,7 +4093,7 @@
         <v>2.28</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="R19" t="n">
         <v>1.52</v>
@@ -4111,13 +4111,13 @@
         <v>1.17</v>
       </c>
       <c r="W19" t="n">
-        <v>2.46</v>
+        <v>2.42</v>
       </c>
       <c r="X19" t="n">
         <v>23</v>
       </c>
       <c r="Y19" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Z19" t="n">
         <v>60</v>
@@ -4132,7 +4132,7 @@
         <v>970</v>
       </c>
       <c r="AD19" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AE19" t="n">
         <v>85</v>
@@ -4168,62 +4168,62 @@
         <v>85</v>
       </c>
       <c r="AP19" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="AQ19" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="AR19" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="AS19" t="n">
-        <v>3.45</v>
+        <v>2.68</v>
       </c>
       <c r="AT19" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="AU19" t="n">
         <v>4.1</v>
       </c>
       <c r="AV19" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AX19" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AY19" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AZ19" t="n">
         <v>3.1</v>
       </c>
-      <c r="AW19" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="AX19" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="AY19" t="n">
-        <v>4</v>
-      </c>
-      <c r="AZ19" t="n">
-        <v>3</v>
-      </c>
       <c r="BA19" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="BB19" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="BC19" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="BD19" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="BE19" t="n">
-        <v>3.4</v>
+        <v>2.64</v>
       </c>
       <c r="BF19" t="n">
         <v>6</v>
       </c>
       <c r="BG19" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="BH19" t="inlineStr">
         <is>
-          <t>2026-02-23 04:12:35</t>
+          <t>2026-02-23 06:21:43</t>
         </is>
       </c>
     </row>
@@ -4254,16 +4254,16 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="G20" t="n">
-        <v>5.9</v>
+        <v>5.5</v>
       </c>
       <c r="H20" t="n">
         <v>1.79</v>
       </c>
       <c r="I20" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="J20" t="n">
         <v>3.35</v>
@@ -4284,16 +4284,16 @@
         <v>1.32</v>
       </c>
       <c r="P20" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="R20" t="n">
         <v>1.32</v>
       </c>
       <c r="S20" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="T20" t="n">
         <v>1.83</v>
@@ -4302,10 +4302,10 @@
         <v>1.96</v>
       </c>
       <c r="V20" t="n">
-        <v>2.02</v>
+        <v>1.99</v>
       </c>
       <c r="W20" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="X20" t="n">
         <v>970</v>
@@ -4335,7 +4335,7 @@
         <v>44</v>
       </c>
       <c r="AG20" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AH20" t="n">
         <v>23</v>
@@ -4353,7 +4353,7 @@
         <v>85</v>
       </c>
       <c r="AM20" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AN20" t="n">
         <v>95</v>
@@ -4362,62 +4362,62 @@
         <v>970</v>
       </c>
       <c r="AP20" t="n">
-        <v>3.95</v>
+        <v>10.5</v>
       </c>
       <c r="AQ20" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="AR20" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AV20" t="n">
         <v>3.7</v>
       </c>
-      <c r="AS20" t="n">
+      <c r="AW20" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AX20" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AY20" t="n">
         <v>4.3</v>
       </c>
-      <c r="AT20" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="AU20" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AV20" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="AW20" t="n">
+      <c r="AZ20" t="n">
         <v>4.3</v>
       </c>
-      <c r="AX20" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="AY20" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="AZ20" t="n">
-        <v>4.2</v>
-      </c>
       <c r="BA20" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="BB20" t="n">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="BC20" t="n">
-        <v>4.9</v>
+        <v>3.7</v>
       </c>
       <c r="BD20" t="n">
-        <v>4.9</v>
+        <v>3.7</v>
       </c>
       <c r="BE20" t="n">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="BF20" t="n">
-        <v>4.9</v>
+        <v>3.75</v>
       </c>
       <c r="BG20" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="BH20" t="inlineStr">
         <is>
-          <t>2026-02-23 04:12:35</t>
+          <t>2026-02-23 06:21:43</t>
         </is>
       </c>
     </row>
@@ -4538,7 +4538,7 @@
         <v>40</v>
       </c>
       <c r="AJ21" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AK21" t="n">
         <v>26</v>
@@ -4565,7 +4565,7 @@
         <v>19</v>
       </c>
       <c r="AS21" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="AT21" t="n">
         <v>10.5</v>
@@ -4577,7 +4577,7 @@
         <v>11.5</v>
       </c>
       <c r="AW21" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="AX21" t="n">
         <v>14.5</v>
@@ -4598,10 +4598,10 @@
         <v>20</v>
       </c>
       <c r="BD21" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="BE21" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="BF21" t="n">
         <v>11.5</v>
@@ -4611,7 +4611,7 @@
       </c>
       <c r="BH21" t="inlineStr">
         <is>
-          <t>2026-02-23 04:12:35</t>
+          <t>2026-02-23 06:21:43</t>
         </is>
       </c>
     </row>
@@ -4645,19 +4645,19 @@
         <v>2.08</v>
       </c>
       <c r="G22" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="H22" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I22" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="J22" t="n">
         <v>3.75</v>
       </c>
       <c r="K22" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L22" t="n">
         <v>1.28</v>
@@ -4684,16 +4684,16 @@
         <v>2.66</v>
       </c>
       <c r="T22" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="U22" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="V22" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="W22" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="X22" t="n">
         <v>1000</v>
@@ -4756,7 +4756,7 @@
         <v>5.1</v>
       </c>
       <c r="AR22" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="AS22" t="n">
         <v>5.1</v>
@@ -4771,19 +4771,19 @@
         <v>12.5</v>
       </c>
       <c r="AW22" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="AX22" t="n">
         <v>5</v>
       </c>
       <c r="AY22" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="AZ22" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="BA22" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="BB22" t="n">
         <v>5.8</v>
@@ -4792,7 +4792,7 @@
         <v>5.6</v>
       </c>
       <c r="BD22" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="BE22" t="n">
         <v>5.1</v>
@@ -4805,7 +4805,7 @@
       </c>
       <c r="BH22" t="inlineStr">
         <is>
-          <t>2026-02-23 04:12:35</t>
+          <t>2026-02-23 06:21:43</t>
         </is>
       </c>
     </row>
@@ -4836,22 +4836,22 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="G23" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="H23" t="n">
         <v>1.85</v>
       </c>
       <c r="I23" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="J23" t="n">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="K23" t="n">
-        <v>5.5</v>
+        <v>4.8</v>
       </c>
       <c r="L23" t="n">
         <v>1.22</v>
@@ -4869,25 +4869,25 @@
         <v>2.66</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.44</v>
+        <v>1.49</v>
       </c>
       <c r="R23" t="n">
         <v>1.67</v>
       </c>
       <c r="S23" t="n">
-        <v>2.08</v>
+        <v>2.22</v>
       </c>
       <c r="T23" t="n">
-        <v>1.53</v>
+        <v>1.51</v>
       </c>
       <c r="U23" t="n">
-        <v>2.34</v>
+        <v>2.56</v>
       </c>
       <c r="V23" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="W23" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="X23" t="n">
         <v>34</v>
@@ -4999,7 +4999,7 @@
       </c>
       <c r="BH23" t="inlineStr">
         <is>
-          <t>2026-02-23 04:12:35</t>
+          <t>2026-02-23 06:21:43</t>
         </is>
       </c>
     </row>
@@ -5033,13 +5033,13 @@
         <v>2.1</v>
       </c>
       <c r="G24" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="H24" t="n">
         <v>3.35</v>
       </c>
       <c r="I24" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="J24" t="n">
         <v>3.15</v>
@@ -5051,40 +5051,40 @@
         <v>1.01</v>
       </c>
       <c r="M24" t="n">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="N24" t="n">
-        <v>2.78</v>
+        <v>3.55</v>
       </c>
       <c r="O24" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="P24" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="R24" t="n">
-        <v>1.27</v>
+        <v>1.34</v>
       </c>
       <c r="S24" t="n">
-        <v>2.96</v>
+        <v>3.4</v>
       </c>
       <c r="T24" t="n">
-        <v>1.05</v>
+        <v>1.75</v>
       </c>
       <c r="U24" t="n">
-        <v>1.05</v>
+        <v>2.06</v>
       </c>
       <c r="V24" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="W24" t="n">
-        <v>1.71</v>
+        <v>1.69</v>
       </c>
       <c r="X24" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="Y24" t="n">
         <v>1000</v>
@@ -5096,104 +5096,104 @@
         <v>1000</v>
       </c>
       <c r="AB24" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AC24" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>10</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AU24" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AV24" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AX24" t="n">
         <v>11</v>
       </c>
-      <c r="AD24" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM24" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN24" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO24" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AP24" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AQ24" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AR24" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AS24" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AT24" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AU24" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="AV24" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="AW24" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="AX24" t="n">
-        <v>10</v>
-      </c>
       <c r="AY24" t="n">
-        <v>1.57</v>
+        <v>3.65</v>
       </c>
       <c r="AZ24" t="n">
-        <v>1.63</v>
+        <v>13.5</v>
       </c>
       <c r="BA24" t="n">
-        <v>1.71</v>
+        <v>4.7</v>
       </c>
       <c r="BB24" t="n">
-        <v>1.68</v>
+        <v>4.4</v>
       </c>
       <c r="BC24" t="n">
-        <v>1.66</v>
+        <v>4.3</v>
       </c>
       <c r="BD24" t="n">
-        <v>1.7</v>
+        <v>4.5</v>
       </c>
       <c r="BE24" t="n">
-        <v>1.75</v>
+        <v>4.8</v>
       </c>
       <c r="BF24" t="n">
-        <v>1.75</v>
+        <v>14</v>
       </c>
       <c r="BG24" t="n">
-        <v>1.75</v>
+        <v>4.6</v>
       </c>
       <c r="BH24" t="inlineStr">
         <is>
-          <t>2026-02-23 04:12:35</t>
+          <t>2026-02-23 06:21:43</t>
         </is>
       </c>
     </row>
@@ -5227,7 +5227,7 @@
         <v>2.22</v>
       </c>
       <c r="G25" t="n">
-        <v>2.4</v>
+        <v>2.36</v>
       </c>
       <c r="H25" t="n">
         <v>4</v>
@@ -5275,7 +5275,7 @@
         <v>1.28</v>
       </c>
       <c r="W25" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="X25" t="n">
         <v>8.800000000000001</v>
@@ -5387,7 +5387,7 @@
       </c>
       <c r="BH25" t="inlineStr">
         <is>
-          <t>2026-02-23 04:12:35</t>
+          <t>2026-02-23 06:21:43</t>
         </is>
       </c>
     </row>
@@ -5418,22 +5418,22 @@
         </is>
       </c>
       <c r="F26" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="G26" t="n">
         <v>1.17</v>
       </c>
-      <c r="G26" t="n">
-        <v>1.18</v>
-      </c>
       <c r="H26" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I26" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J26" t="n">
         <v>10</v>
       </c>
       <c r="K26" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="L26" t="n">
         <v>1.19</v>
@@ -5451,7 +5451,7 @@
         <v>3.95</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="R26" t="n">
         <v>2.2</v>
@@ -5469,22 +5469,22 @@
         <v>1.05</v>
       </c>
       <c r="W26" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="X26" t="n">
         <v>55</v>
       </c>
       <c r="Y26" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="Z26" t="n">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="AA26" t="n">
         <v>1000</v>
       </c>
       <c r="AB26" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AC26" t="n">
         <v>25</v>
@@ -5493,49 +5493,49 @@
         <v>70</v>
       </c>
       <c r="AE26" t="n">
-        <v>320</v>
+        <v>340</v>
       </c>
       <c r="AF26" t="n">
         <v>10.5</v>
       </c>
       <c r="AG26" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AH26" t="n">
         <v>40</v>
       </c>
       <c r="AI26" t="n">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="AJ26" t="n">
         <v>9.4</v>
       </c>
       <c r="AK26" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AL26" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AM26" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="AN26" t="n">
         <v>2.58</v>
       </c>
       <c r="AO26" t="n">
-        <v>310</v>
+        <v>330</v>
       </c>
       <c r="AP26" t="n">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="AQ26" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="AR26" t="n">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="AS26" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AT26" t="n">
         <v>14</v>
@@ -5544,10 +5544,10 @@
         <v>21</v>
       </c>
       <c r="AV26" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AW26" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="AX26" t="n">
         <v>9.6</v>
@@ -5556,7 +5556,7 @@
         <v>12.5</v>
       </c>
       <c r="AZ26" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="BA26" t="n">
         <v>85</v>
@@ -5571,17 +5571,17 @@
         <v>30</v>
       </c>
       <c r="BE26" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="BF26" t="n">
-        <v>2.5</v>
+        <v>2.46</v>
       </c>
       <c r="BG26" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="BH26" t="inlineStr">
         <is>
-          <t>2026-02-23 04:12:35</t>
+          <t>2026-02-23 06:21:43</t>
         </is>
       </c>
     </row>
@@ -5612,10 +5612,10 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="G27" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="H27" t="n">
         <v>4.5</v>
@@ -5669,7 +5669,7 @@
         <v>18</v>
       </c>
       <c r="Y27" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="Z27" t="n">
         <v>36</v>
@@ -5690,7 +5690,7 @@
         <v>50</v>
       </c>
       <c r="AF27" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AG27" t="n">
         <v>9.800000000000001</v>
@@ -5726,10 +5726,10 @@
         <v>18.5</v>
       </c>
       <c r="AR27" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AS27" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AT27" t="n">
         <v>10.5</v>
@@ -5775,7 +5775,7 @@
       </c>
       <c r="BH27" t="inlineStr">
         <is>
-          <t>2026-02-23 04:12:35</t>
+          <t>2026-02-23 06:21:43</t>
         </is>
       </c>
     </row>
@@ -5806,10 +5806,10 @@
         </is>
       </c>
       <c r="F28" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="G28" t="n">
         <v>1.27</v>
-      </c>
-      <c r="G28" t="n">
-        <v>1.28</v>
       </c>
       <c r="H28" t="n">
         <v>11.5</v>
@@ -5818,10 +5818,10 @@
         <v>12</v>
       </c>
       <c r="J28" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="K28" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="L28" t="n">
         <v>1.2</v>
@@ -5848,7 +5848,7 @@
         <v>1.87</v>
       </c>
       <c r="T28" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="U28" t="n">
         <v>2.3</v>
@@ -5857,7 +5857,7 @@
         <v>1.09</v>
       </c>
       <c r="W28" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="X28" t="n">
         <v>48</v>
@@ -5869,7 +5869,7 @@
         <v>130</v>
       </c>
       <c r="AA28" t="n">
-        <v>510</v>
+        <v>370</v>
       </c>
       <c r="AB28" t="n">
         <v>16.5</v>
@@ -5905,13 +5905,13 @@
         <v>25</v>
       </c>
       <c r="AM28" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AN28" t="n">
         <v>3.15</v>
       </c>
       <c r="AO28" t="n">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="AP28" t="n">
         <v>42</v>
@@ -5923,7 +5923,7 @@
         <v>100</v>
       </c>
       <c r="AS28" t="n">
-        <v>110</v>
+        <v>65</v>
       </c>
       <c r="AT28" t="n">
         <v>15.5</v>
@@ -5935,7 +5935,7 @@
         <v>38</v>
       </c>
       <c r="AW28" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="AX28" t="n">
         <v>10.5</v>
@@ -5959,7 +5959,7 @@
         <v>24</v>
       </c>
       <c r="BE28" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="BF28" t="n">
         <v>3.05</v>
@@ -5969,7 +5969,7 @@
       </c>
       <c r="BH28" t="inlineStr">
         <is>
-          <t>2026-02-23 04:12:35</t>
+          <t>2026-02-23 06:21:43</t>
         </is>
       </c>
     </row>
@@ -6000,19 +6000,19 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="G29" t="n">
-        <v>2.08</v>
+        <v>2.02</v>
       </c>
       <c r="H29" t="n">
-        <v>4.3</v>
+        <v>4.7</v>
       </c>
       <c r="I29" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="J29" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="K29" t="n">
         <v>3.65</v>
@@ -6024,16 +6024,16 @@
         <v>1.1</v>
       </c>
       <c r="N29" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="O29" t="n">
         <v>1.46</v>
       </c>
       <c r="P29" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="R29" t="n">
         <v>1.22</v>
@@ -6042,16 +6042,16 @@
         <v>4.5</v>
       </c>
       <c r="T29" t="n">
-        <v>1.05</v>
+        <v>2.08</v>
       </c>
       <c r="U29" t="n">
-        <v>1.05</v>
+        <v>1.79</v>
       </c>
       <c r="V29" t="n">
         <v>1.22</v>
       </c>
       <c r="W29" t="n">
-        <v>1.92</v>
+        <v>1.98</v>
       </c>
       <c r="X29" t="n">
         <v>12</v>
@@ -6060,7 +6060,7 @@
         <v>14.5</v>
       </c>
       <c r="Z29" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AA29" t="n">
         <v>1000</v>
@@ -6075,7 +6075,7 @@
         <v>22</v>
       </c>
       <c r="AE29" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AF29" t="n">
         <v>11.5</v>
@@ -6084,7 +6084,7 @@
         <v>11.5</v>
       </c>
       <c r="AH29" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AI29" t="n">
         <v>120</v>
@@ -6108,62 +6108,62 @@
         <v>1000</v>
       </c>
       <c r="AP29" t="n">
-        <v>5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AQ29" t="n">
-        <v>5.3</v>
+        <v>11.5</v>
       </c>
       <c r="AR29" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="AS29" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AT29" t="n">
-        <v>3.9</v>
+        <v>6</v>
       </c>
       <c r="AU29" t="n">
-        <v>4.1</v>
+        <v>6.6</v>
       </c>
       <c r="AV29" t="n">
-        <v>6</v>
+        <v>17.5</v>
       </c>
       <c r="AW29" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AX29" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AY29" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AZ29" t="n">
+        <v>20</v>
+      </c>
+      <c r="BA29" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="BB29" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="BC29" t="n">
+        <v>21</v>
+      </c>
+      <c r="BD29" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="BE29" t="n">
         <v>7.8</v>
       </c>
-      <c r="AX29" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="AY29" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="AZ29" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="BA29" t="n">
-        <v>8</v>
-      </c>
-      <c r="BB29" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="BC29" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="BD29" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="BE29" t="n">
-        <v>8.199999999999999</v>
-      </c>
       <c r="BF29" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="BG29" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="BH29" t="inlineStr">
         <is>
-          <t>2026-02-23 04:12:35</t>
+          <t>2026-02-23 06:21:43</t>
         </is>
       </c>
     </row>
@@ -6194,7 +6194,7 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="G30" t="n">
         <v>1.65</v>
@@ -6206,7 +6206,7 @@
         <v>9</v>
       </c>
       <c r="J30" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="K30" t="n">
         <v>4.5</v>
@@ -6233,7 +6233,7 @@
         <v>1.27</v>
       </c>
       <c r="S30" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="T30" t="n">
         <v>2.16</v>
@@ -6290,7 +6290,7 @@
         <v>20</v>
       </c>
       <c r="AL30" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM30" t="n">
         <v>1000</v>
@@ -6311,7 +6311,7 @@
         <v>6.8</v>
       </c>
       <c r="AS30" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AT30" t="n">
         <v>5.8</v>
@@ -6320,13 +6320,13 @@
         <v>8</v>
       </c>
       <c r="AV30" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="AW30" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AX30" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AY30" t="n">
         <v>8.800000000000001</v>
@@ -6347,17 +6347,17 @@
         <v>6.6</v>
       </c>
       <c r="BE30" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="BF30" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="BG30" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="BH30" t="inlineStr">
         <is>
-          <t>2026-02-23 04:12:35</t>
+          <t>2026-02-23 06:21:43</t>
         </is>
       </c>
     </row>
@@ -6388,16 +6388,16 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="G31" t="n">
-        <v>2.5</v>
+        <v>2.46</v>
       </c>
       <c r="H31" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="I31" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="J31" t="n">
         <v>2.9</v>
@@ -6427,7 +6427,7 @@
         <v>1.12</v>
       </c>
       <c r="S31" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="T31" t="n">
         <v>2.56</v>
@@ -6439,7 +6439,7 @@
         <v>1.31</v>
       </c>
       <c r="W31" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="X31" t="n">
         <v>7.2</v>
@@ -6448,7 +6448,7 @@
         <v>10</v>
       </c>
       <c r="Z31" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AA31" t="n">
         <v>130</v>
@@ -6469,7 +6469,7 @@
         <v>13.5</v>
       </c>
       <c r="AG31" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AH31" t="n">
         <v>38</v>
@@ -6490,7 +6490,7 @@
         <v>410</v>
       </c>
       <c r="AN31" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AO31" t="n">
         <v>1000</v>
@@ -6499,10 +6499,10 @@
         <v>5.8</v>
       </c>
       <c r="AQ31" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="AR31" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="AS31" t="n">
         <v>8.199999999999999</v>
@@ -6517,7 +6517,7 @@
         <v>17.5</v>
       </c>
       <c r="AW31" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AX31" t="n">
         <v>11.5</v>
@@ -6526,32 +6526,32 @@
         <v>12</v>
       </c>
       <c r="AZ31" t="n">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="BA31" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="BB31" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="BC31" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="BD31" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="BB31" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="BC31" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="BD31" t="n">
-        <v>8</v>
-      </c>
       <c r="BE31" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="BF31" t="n">
         <v>7.6</v>
       </c>
       <c r="BG31" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="BH31" t="inlineStr">
         <is>
-          <t>2026-02-23 04:12:35</t>
+          <t>2026-02-23 06:21:43</t>
         </is>
       </c>
     </row>
@@ -6745,7 +6745,7 @@
       </c>
       <c r="BH32" t="inlineStr">
         <is>
-          <t>2026-02-23 04:12:35</t>
+          <t>2026-02-23 06:21:43</t>
         </is>
       </c>
     </row>
@@ -6776,10 +6776,10 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="G33" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="H33" t="n">
         <v>5.1</v>
@@ -6788,10 +6788,10 @@
         <v>5.7</v>
       </c>
       <c r="J33" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="K33" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="L33" t="n">
         <v>1.01</v>
@@ -6800,16 +6800,16 @@
         <v>1.11</v>
       </c>
       <c r="N33" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="O33" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="P33" t="n">
         <v>1.61</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="R33" t="n">
         <v>1.21</v>
@@ -6827,7 +6827,7 @@
         <v>1.21</v>
       </c>
       <c r="W33" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="X33" t="n">
         <v>12</v>
@@ -6839,7 +6839,7 @@
         <v>1000</v>
       </c>
       <c r="AA33" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="AB33" t="n">
         <v>7</v>
@@ -6935,11 +6935,11 @@
         <v>14.5</v>
       </c>
       <c r="BG33" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="BH33" t="inlineStr">
         <is>
-          <t>2026-02-23 04:12:35</t>
+          <t>2026-02-23 06:21:43</t>
         </is>
       </c>
     </row>
@@ -6973,16 +6973,16 @@
         <v>3.75</v>
       </c>
       <c r="G34" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="H34" t="n">
         <v>2.3</v>
       </c>
       <c r="I34" t="n">
-        <v>2.5</v>
+        <v>2.46</v>
       </c>
       <c r="J34" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K34" t="n">
         <v>3.15</v>
@@ -6991,13 +6991,13 @@
         <v>1.01</v>
       </c>
       <c r="M34" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="N34" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="O34" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="P34" t="n">
         <v>1.46</v>
@@ -7012,37 +7012,37 @@
         <v>6.2</v>
       </c>
       <c r="T34" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="U34" t="n">
         <v>1.69</v>
       </c>
       <c r="V34" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="W34" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="X34" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="Y34" t="n">
-        <v>6.8</v>
+        <v>970</v>
       </c>
       <c r="Z34" t="n">
-        <v>13.5</v>
+        <v>970</v>
       </c>
       <c r="AA34" t="n">
         <v>38</v>
       </c>
       <c r="AB34" t="n">
-        <v>10</v>
+        <v>970</v>
       </c>
       <c r="AC34" t="n">
-        <v>7.2</v>
+        <v>970</v>
       </c>
       <c r="AD34" t="n">
-        <v>13</v>
+        <v>970</v>
       </c>
       <c r="AE34" t="n">
         <v>1000</v>
@@ -7051,7 +7051,7 @@
         <v>27</v>
       </c>
       <c r="AG34" t="n">
-        <v>18.5</v>
+        <v>970</v>
       </c>
       <c r="AH34" t="n">
         <v>27</v>
@@ -7066,7 +7066,7 @@
         <v>75</v>
       </c>
       <c r="AL34" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AM34" t="n">
         <v>280</v>
@@ -7087,7 +7087,7 @@
         <v>9.6</v>
       </c>
       <c r="AS34" t="n">
-        <v>7.4</v>
+        <v>8.6</v>
       </c>
       <c r="AT34" t="n">
         <v>8.4</v>
@@ -7096,44 +7096,44 @@
         <v>6.2</v>
       </c>
       <c r="AV34" t="n">
-        <v>5.4</v>
+        <v>6</v>
       </c>
       <c r="AW34" t="n">
-        <v>7.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AX34" t="n">
         <v>22</v>
       </c>
       <c r="AY34" t="n">
-        <v>6.2</v>
+        <v>6.8</v>
       </c>
       <c r="AZ34" t="n">
-        <v>6.8</v>
+        <v>7.8</v>
       </c>
       <c r="BA34" t="n">
-        <v>8.199999999999999</v>
+        <v>3.8</v>
       </c>
       <c r="BB34" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BC34" t="n">
         <v>3.8</v>
       </c>
-      <c r="BC34" t="n">
-        <v>8.199999999999999</v>
-      </c>
       <c r="BD34" t="n">
-        <v>3.8</v>
+        <v>2.52</v>
       </c>
       <c r="BE34" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BF34" t="n">
         <v>2.52</v>
       </c>
-      <c r="BF34" t="n">
-        <v>3.8</v>
-      </c>
       <c r="BG34" t="n">
-        <v>8</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="BH34" t="inlineStr">
         <is>
-          <t>2026-02-23 04:12:35</t>
+          <t>2026-02-23 06:21:43</t>
         </is>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-24.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-24.xlsx
@@ -771,10 +771,10 @@
         <v>1.99</v>
       </c>
       <c r="I2" t="n">
-        <v>2.32</v>
+        <v>2.22</v>
       </c>
       <c r="J2" t="n">
-        <v>2.58</v>
+        <v>2.92</v>
       </c>
       <c r="K2" t="n">
         <v>3.65</v>
@@ -786,16 +786,16 @@
         <v>1.07</v>
       </c>
       <c r="N2" t="n">
-        <v>2.34</v>
+        <v>2.04</v>
       </c>
       <c r="O2" t="n">
-        <v>1.4</v>
+        <v>1.08</v>
       </c>
       <c r="P2" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="R2" t="n">
         <v>1.17</v>
@@ -804,7 +804,7 @@
         <v>3.5</v>
       </c>
       <c r="T2" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="U2" t="n">
         <v>1.84</v>
@@ -816,116 +816,116 @@
         <v>1.23</v>
       </c>
       <c r="X2" t="n">
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="Z2" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AA2" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AD2" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AE2" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AH2" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AI2" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AL2" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AM2" t="n">
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AP2" t="n">
-        <v>3.65</v>
+        <v>1.28</v>
       </c>
       <c r="AQ2" t="n">
-        <v>3.25</v>
+        <v>1.41</v>
       </c>
       <c r="AR2" t="n">
-        <v>3.75</v>
+        <v>1.41</v>
       </c>
       <c r="AS2" t="n">
-        <v>4.4</v>
+        <v>1.32</v>
       </c>
       <c r="AT2" t="n">
-        <v>3.8</v>
+        <v>1.41</v>
       </c>
       <c r="AU2" t="n">
-        <v>3.25</v>
+        <v>1.41</v>
       </c>
       <c r="AV2" t="n">
-        <v>3.65</v>
+        <v>1.41</v>
       </c>
       <c r="AW2" t="n">
-        <v>4.4</v>
+        <v>1.34</v>
       </c>
       <c r="AX2" t="n">
-        <v>4.5</v>
+        <v>1.35</v>
       </c>
       <c r="AY2" t="n">
-        <v>4.1</v>
+        <v>1.32</v>
       </c>
       <c r="AZ2" t="n">
-        <v>4.2</v>
+        <v>1.33</v>
       </c>
       <c r="BA2" t="n">
-        <v>4.7</v>
+        <v>1.38</v>
       </c>
       <c r="BB2" t="n">
-        <v>4.9</v>
+        <v>1.41</v>
       </c>
       <c r="BC2" t="n">
-        <v>4.8</v>
+        <v>1.41</v>
       </c>
       <c r="BD2" t="n">
-        <v>4.9</v>
+        <v>1.41</v>
       </c>
       <c r="BE2" t="n">
-        <v>5</v>
+        <v>1.41</v>
       </c>
       <c r="BF2" t="n">
-        <v>4.9</v>
+        <v>1.32</v>
       </c>
       <c r="BG2" t="n">
-        <v>4.3</v>
+        <v>1.33</v>
       </c>
       <c r="BH2" t="inlineStr">
         <is>
-          <t>2026-02-23 06:21:43</t>
+          <t>2026-02-23 08:31:48</t>
         </is>
       </c>
     </row>
@@ -965,10 +965,10 @@
         <v>6.4</v>
       </c>
       <c r="I3" t="n">
-        <v>8.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J3" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K3" t="n">
         <v>4.7</v>
@@ -989,7 +989,7 @@
         <v>1.94</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.86</v>
+        <v>1.79</v>
       </c>
       <c r="R3" t="n">
         <v>1.36</v>
@@ -998,10 +998,10 @@
         <v>3.2</v>
       </c>
       <c r="T3" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="U3" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="V3" t="n">
         <v>1.13</v>
@@ -1022,10 +1022,10 @@
         <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>980</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC3" t="n">
-        <v>980</v>
+        <v>11.5</v>
       </c>
       <c r="AD3" t="n">
         <v>980</v>
@@ -1034,10 +1034,10 @@
         <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>980</v>
+        <v>10.5</v>
       </c>
       <c r="AG3" t="n">
-        <v>980</v>
+        <v>11.5</v>
       </c>
       <c r="AH3" t="n">
         <v>980</v>
@@ -1058,68 +1058,68 @@
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>980</v>
+        <v>10.5</v>
       </c>
       <c r="AO3" t="n">
         <v>1000</v>
       </c>
       <c r="AP3" t="n">
-        <v>5.4</v>
+        <v>4.1</v>
       </c>
       <c r="AQ3" t="n">
-        <v>3.1</v>
+        <v>4.3</v>
       </c>
       <c r="AR3" t="n">
-        <v>1.6</v>
+        <v>4.8</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.62</v>
+        <v>5.1</v>
       </c>
       <c r="AT3" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="AU3" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AV3" t="n">
         <v>4.5</v>
       </c>
-      <c r="AV3" t="n">
-        <v>3.15</v>
-      </c>
       <c r="AW3" t="n">
-        <v>1.47</v>
+        <v>5</v>
       </c>
       <c r="AX3" t="n">
-        <v>4.3</v>
+        <v>3.6</v>
       </c>
       <c r="AY3" t="n">
-        <v>4.5</v>
+        <v>3.65</v>
       </c>
       <c r="AZ3" t="n">
-        <v>3.1</v>
+        <v>4.4</v>
       </c>
       <c r="BA3" t="n">
-        <v>1.47</v>
+        <v>5</v>
       </c>
       <c r="BB3" t="n">
-        <v>5.2</v>
+        <v>3.95</v>
       </c>
       <c r="BC3" t="n">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="BD3" t="n">
-        <v>2.42</v>
+        <v>4.6</v>
       </c>
       <c r="BE3" t="n">
-        <v>1.47</v>
+        <v>5</v>
       </c>
       <c r="BF3" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="BG3" t="n">
-        <v>1.48</v>
+        <v>5</v>
       </c>
       <c r="BH3" t="inlineStr">
         <is>
-          <t>2026-02-23 06:21:43</t>
+          <t>2026-02-23 08:31:48</t>
         </is>
       </c>
     </row>
@@ -1153,7 +1153,7 @@
         <v>1.41</v>
       </c>
       <c r="G4" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="H4" t="n">
         <v>7.8</v>
@@ -1174,7 +1174,7 @@
         <v>1.03</v>
       </c>
       <c r="N4" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="O4" t="n">
         <v>1.16</v>
@@ -1186,52 +1186,52 @@
         <v>1.49</v>
       </c>
       <c r="R4" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="S4" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="T4" t="n">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="U4" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="V4" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="W4" t="n">
         <v>3.35</v>
       </c>
       <c r="X4" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Y4" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Z4" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AA4" t="n">
-        <v>270</v>
+        <v>240</v>
       </c>
       <c r="AB4" t="n">
         <v>12.5</v>
       </c>
       <c r="AC4" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AD4" t="n">
         <v>29</v>
       </c>
       <c r="AE4" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AF4" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH4" t="n">
         <v>21</v>
@@ -1240,31 +1240,31 @@
         <v>75</v>
       </c>
       <c r="AJ4" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AK4" t="n">
         <v>13</v>
       </c>
       <c r="AL4" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AM4" t="n">
         <v>85</v>
       </c>
       <c r="AN4" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="AO4" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AP4" t="n">
         <v>30</v>
       </c>
       <c r="AQ4" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AR4" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AS4" t="n">
         <v>65</v>
@@ -1273,31 +1273,31 @@
         <v>11.5</v>
       </c>
       <c r="AU4" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AV4" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AW4" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AX4" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AY4" t="n">
         <v>9.6</v>
       </c>
       <c r="AZ4" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="BA4" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="BB4" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="BC4" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="BD4" t="n">
         <v>23</v>
@@ -1306,14 +1306,14 @@
         <v>75</v>
       </c>
       <c r="BF4" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="BG4" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="BH4" t="inlineStr">
         <is>
-          <t>2026-02-23 06:21:43</t>
+          <t>2026-02-23 08:31:48</t>
         </is>
       </c>
     </row>
@@ -1350,10 +1350,10 @@
         <v>1.53</v>
       </c>
       <c r="H5" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="I5" t="n">
-        <v>8.4</v>
+        <v>7.6</v>
       </c>
       <c r="J5" t="n">
         <v>5.1</v>
@@ -1392,7 +1392,7 @@
         <v>2.26</v>
       </c>
       <c r="V5" t="n">
-        <v>1.13</v>
+        <v>1.15</v>
       </c>
       <c r="W5" t="n">
         <v>2.88</v>
@@ -1422,7 +1422,7 @@
         <v>90</v>
       </c>
       <c r="AF5" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AG5" t="n">
         <v>12.5</v>
@@ -1440,7 +1440,7 @@
         <v>16.5</v>
       </c>
       <c r="AL5" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AM5" t="n">
         <v>90</v>
@@ -1452,34 +1452,34 @@
         <v>75</v>
       </c>
       <c r="AP5" t="n">
-        <v>5.2</v>
+        <v>5.6</v>
       </c>
       <c r="AQ5" t="n">
-        <v>5.2</v>
+        <v>5.7</v>
       </c>
       <c r="AR5" t="n">
         <v>5.5</v>
       </c>
       <c r="AS5" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="AT5" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AU5" t="n">
         <v>11</v>
       </c>
       <c r="AV5" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AW5" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="AX5" t="n">
         <v>10</v>
       </c>
       <c r="AY5" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AZ5" t="n">
         <v>17</v>
@@ -1494,20 +1494,20 @@
         <v>12</v>
       </c>
       <c r="BD5" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="BE5" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="BF5" t="n">
-        <v>3.95</v>
+        <v>4.3</v>
       </c>
       <c r="BG5" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="BH5" t="inlineStr">
         <is>
-          <t>2026-02-23 06:21:43</t>
+          <t>2026-02-23 08:31:48</t>
         </is>
       </c>
     </row>
@@ -1544,10 +1544,10 @@
         <v>4.4</v>
       </c>
       <c r="H6" t="n">
-        <v>1.81</v>
+        <v>1.95</v>
       </c>
       <c r="I6" t="n">
-        <v>2.38</v>
+        <v>2.18</v>
       </c>
       <c r="J6" t="n">
         <v>1.01</v>
@@ -1586,7 +1586,7 @@
         <v>1.05</v>
       </c>
       <c r="V6" t="n">
-        <v>1.72</v>
+        <v>1.86</v>
       </c>
       <c r="W6" t="n">
         <v>1.29</v>
@@ -1616,7 +1616,7 @@
         <v>24</v>
       </c>
       <c r="AF6" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AG6" t="n">
         <v>19</v>
@@ -1685,10 +1685,10 @@
         <v>4</v>
       </c>
       <c r="BC6" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="BD6" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="BE6" t="n">
         <v>4</v>
@@ -1701,7 +1701,7 @@
       </c>
       <c r="BH6" t="inlineStr">
         <is>
-          <t>2026-02-23 06:21:43</t>
+          <t>2026-02-23 08:31:48</t>
         </is>
       </c>
     </row>
@@ -1732,13 +1732,13 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>7.8</v>
+        <v>6.6</v>
       </c>
       <c r="G7" t="n">
-        <v>12</v>
+        <v>14.5</v>
       </c>
       <c r="H7" t="n">
-        <v>1.31</v>
+        <v>1.26</v>
       </c>
       <c r="I7" t="n">
         <v>1.44</v>
@@ -1747,7 +1747,7 @@
         <v>5.4</v>
       </c>
       <c r="K7" t="n">
-        <v>7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="L7" t="n">
         <v>1.01</v>
@@ -1756,146 +1756,146 @@
         <v>1.04</v>
       </c>
       <c r="N7" t="n">
-        <v>2.08</v>
+        <v>2.2</v>
       </c>
       <c r="O7" t="n">
         <v>1.19</v>
       </c>
       <c r="P7" t="n">
-        <v>2.04</v>
+        <v>2.2</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.2</v>
+        <v>1.48</v>
       </c>
       <c r="R7" t="n">
-        <v>1.51</v>
+        <v>1.41</v>
       </c>
       <c r="S7" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="T7" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="U7" t="n">
-        <v>1.66</v>
+        <v>1.05</v>
       </c>
       <c r="V7" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="W7" t="n">
-        <v>1.09</v>
+        <v>1.07</v>
       </c>
       <c r="X7" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="Y7" t="n">
-        <v>10.5</v>
+        <v>970</v>
       </c>
       <c r="Z7" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AA7" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AC7" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AD7" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AE7" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AF7" t="n">
         <v>1000</v>
       </c>
       <c r="AG7" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AH7" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AI7" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AJ7" t="n">
-        <v>380</v>
+        <v>1000</v>
       </c>
       <c r="AK7" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AL7" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AM7" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AN7" t="n">
         <v>1000</v>
       </c>
       <c r="AO7" t="n">
-        <v>5.6</v>
+        <v>1000</v>
       </c>
       <c r="AP7" t="n">
-        <v>20</v>
+        <v>1.18</v>
       </c>
       <c r="AQ7" t="n">
-        <v>8.4</v>
+        <v>1.23</v>
       </c>
       <c r="AR7" t="n">
-        <v>7.8</v>
+        <v>1.23</v>
       </c>
       <c r="AS7" t="n">
-        <v>9.800000000000001</v>
+        <v>1.23</v>
       </c>
       <c r="AT7" t="n">
-        <v>5.2</v>
+        <v>1.12</v>
       </c>
       <c r="AU7" t="n">
-        <v>10.5</v>
+        <v>1.23</v>
       </c>
       <c r="AV7" t="n">
-        <v>9</v>
+        <v>1.23</v>
       </c>
       <c r="AW7" t="n">
-        <v>12</v>
+        <v>1.15</v>
       </c>
       <c r="AX7" t="n">
-        <v>5.7</v>
+        <v>1.15</v>
       </c>
       <c r="AY7" t="n">
-        <v>5.3</v>
+        <v>1.15</v>
       </c>
       <c r="AZ7" t="n">
-        <v>19.5</v>
+        <v>1.11</v>
       </c>
       <c r="BA7" t="n">
-        <v>5.2</v>
+        <v>1.12</v>
       </c>
       <c r="BB7" t="n">
-        <v>6</v>
+        <v>1.15</v>
       </c>
       <c r="BC7" t="n">
-        <v>5.8</v>
+        <v>1.15</v>
       </c>
       <c r="BD7" t="n">
-        <v>5.8</v>
+        <v>1.15</v>
       </c>
       <c r="BE7" t="n">
-        <v>5.8</v>
+        <v>1.15</v>
       </c>
       <c r="BF7" t="n">
-        <v>5.9</v>
+        <v>1.15</v>
       </c>
       <c r="BG7" t="n">
-        <v>4.6</v>
+        <v>1.15</v>
       </c>
       <c r="BH7" t="inlineStr">
         <is>
-          <t>2026-02-23 06:21:43</t>
+          <t>2026-02-23 08:31:48</t>
         </is>
       </c>
     </row>
@@ -1956,7 +1956,7 @@
         <v>1.22</v>
       </c>
       <c r="P8" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="Q8" t="n">
         <v>1.67</v>
@@ -1965,13 +1965,13 @@
         <v>1.51</v>
       </c>
       <c r="S8" t="n">
-        <v>2.54</v>
+        <v>2.62</v>
       </c>
       <c r="T8" t="n">
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
       <c r="U8" t="n">
-        <v>2.32</v>
+        <v>2.28</v>
       </c>
       <c r="V8" t="n">
         <v>1.3</v>
@@ -1983,55 +1983,55 @@
         <v>24</v>
       </c>
       <c r="Y8" t="n">
-        <v>19.5</v>
+        <v>22</v>
       </c>
       <c r="Z8" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="AA8" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AB8" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD8" t="n">
         <v>19.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="AF8" t="n">
         <v>16</v>
       </c>
       <c r="AG8" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>17.5</v>
+        <v>19.5</v>
       </c>
       <c r="AI8" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ8" t="n">
         <v>26</v>
       </c>
       <c r="AK8" t="n">
-        <v>19.5</v>
+        <v>22</v>
       </c>
       <c r="AL8" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AM8" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AN8" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="AO8" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AP8" t="n">
         <v>18</v>
@@ -2040,10 +2040,10 @@
         <v>15.5</v>
       </c>
       <c r="AR8" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="AS8" t="n">
-        <v>6.6</v>
+        <v>5.2</v>
       </c>
       <c r="AT8" t="n">
         <v>9.800000000000001</v>
@@ -2055,7 +2055,7 @@
         <v>14</v>
       </c>
       <c r="AW8" t="n">
-        <v>36</v>
+        <v>5.3</v>
       </c>
       <c r="AX8" t="n">
         <v>11.5</v>
@@ -2067,7 +2067,7 @@
         <v>14</v>
       </c>
       <c r="BA8" t="n">
-        <v>6.2</v>
+        <v>5.3</v>
       </c>
       <c r="BB8" t="n">
         <v>19</v>
@@ -2079,17 +2079,17 @@
         <v>20</v>
       </c>
       <c r="BE8" t="n">
-        <v>6.4</v>
+        <v>5.2</v>
       </c>
       <c r="BF8" t="n">
         <v>8.6</v>
       </c>
       <c r="BG8" t="n">
-        <v>6</v>
+        <v>5.2</v>
       </c>
       <c r="BH8" t="inlineStr">
         <is>
-          <t>2026-02-23 06:21:43</t>
+          <t>2026-02-23 08:31:48</t>
         </is>
       </c>
     </row>
@@ -2123,7 +2123,7 @@
         <v>6.6</v>
       </c>
       <c r="G9" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H9" t="n">
         <v>1.47</v>
@@ -2132,13 +2132,13 @@
         <v>1.57</v>
       </c>
       <c r="J9" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="K9" t="n">
         <v>5.4</v>
       </c>
       <c r="L9" t="n">
-        <v>1.01</v>
+        <v>1.27</v>
       </c>
       <c r="M9" t="n">
         <v>1.04</v>
@@ -2162,7 +2162,7 @@
         <v>2.56</v>
       </c>
       <c r="T9" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="U9" t="n">
         <v>2.02</v>
@@ -2171,119 +2171,119 @@
         <v>2.74</v>
       </c>
       <c r="W9" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="X9" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="Y9" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="AA9" t="n">
-        <v>19.5</v>
+        <v>17</v>
       </c>
       <c r="AB9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>27</v>
+      </c>
+      <c r="AI9" t="n">
         <v>38</v>
       </c>
-      <c r="AC9" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AE9" t="n">
+      <c r="AJ9" t="n">
+        <v>240</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>120</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>100</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>130</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>22</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY9" t="n">
         <v>21</v>
       </c>
-      <c r="AF9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>38</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>30</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>44</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="AW9" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="AX9" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="AY9" t="n">
-        <v>1.88</v>
-      </c>
       <c r="AZ9" t="n">
-        <v>1.85</v>
+        <v>18.5</v>
       </c>
       <c r="BA9" t="n">
-        <v>1.89</v>
+        <v>23</v>
       </c>
       <c r="BB9" t="n">
-        <v>1.97</v>
+        <v>4.2</v>
       </c>
       <c r="BC9" t="n">
-        <v>1.97</v>
+        <v>4.1</v>
       </c>
       <c r="BD9" t="n">
-        <v>1.97</v>
+        <v>4.1</v>
       </c>
       <c r="BE9" t="n">
-        <v>1.97</v>
+        <v>4.1</v>
       </c>
       <c r="BF9" t="n">
-        <v>1.97</v>
+        <v>4.1</v>
       </c>
       <c r="BG9" t="n">
-        <v>1.97</v>
+        <v>4.8</v>
       </c>
       <c r="BH9" t="inlineStr">
         <is>
-          <t>2026-02-23 06:21:43</t>
+          <t>2026-02-23 08:31:48</t>
         </is>
       </c>
     </row>
@@ -2335,13 +2335,13 @@
         <v>1.01</v>
       </c>
       <c r="M10" t="n">
-        <v>1.15</v>
+        <v>1.13</v>
       </c>
       <c r="N10" t="n">
         <v>2</v>
       </c>
       <c r="O10" t="n">
-        <v>1.62</v>
+        <v>1.36</v>
       </c>
       <c r="P10" t="n">
         <v>1.33</v>
@@ -2368,7 +2368,7 @@
         <v>1.26</v>
       </c>
       <c r="X10" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="Y10" t="n">
         <v>9.800000000000001</v>
@@ -2389,7 +2389,7 @@
         <v>19</v>
       </c>
       <c r="AE10" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AF10" t="n">
         <v>38</v>
@@ -2398,7 +2398,7 @@
         <v>26</v>
       </c>
       <c r="AH10" t="n">
-        <v>40</v>
+        <v>970</v>
       </c>
       <c r="AI10" t="n">
         <v>100</v>
@@ -2422,62 +2422,62 @@
         <v>1000</v>
       </c>
       <c r="AP10" t="n">
-        <v>2.1</v>
+        <v>2.32</v>
       </c>
       <c r="AQ10" t="n">
-        <v>1.73</v>
+        <v>2.56</v>
       </c>
       <c r="AR10" t="n">
-        <v>1.9</v>
+        <v>2.72</v>
       </c>
       <c r="AS10" t="n">
-        <v>2.02</v>
+        <v>4</v>
       </c>
       <c r="AT10" t="n">
-        <v>1.82</v>
+        <v>2.6</v>
       </c>
       <c r="AU10" t="n">
-        <v>1.74</v>
+        <v>2.5</v>
       </c>
       <c r="AV10" t="n">
-        <v>1.9</v>
+        <v>10.5</v>
       </c>
       <c r="AW10" t="n">
-        <v>2.02</v>
+        <v>2.84</v>
       </c>
       <c r="AX10" t="n">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="AY10" t="n">
-        <v>1.95</v>
+        <v>3.65</v>
       </c>
       <c r="AZ10" t="n">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="BA10" t="n">
-        <v>2.06</v>
+        <v>3.1</v>
       </c>
       <c r="BB10" t="n">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="BC10" t="n">
-        <v>2.06</v>
+        <v>3.1</v>
       </c>
       <c r="BD10" t="n">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="BE10" t="n">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="BF10" t="n">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="BG10" t="n">
-        <v>2.1</v>
+        <v>3.25</v>
       </c>
       <c r="BH10" t="inlineStr">
         <is>
-          <t>2026-02-23 06:21:43</t>
+          <t>2026-02-23 08:31:48</t>
         </is>
       </c>
     </row>
@@ -2508,22 +2508,22 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="G11" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="H11" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="I11" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="J11" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="K11" t="n">
-        <v>4.9</v>
+        <v>4.5</v>
       </c>
       <c r="L11" t="n">
         <v>1.48</v>
@@ -2532,7 +2532,7 @@
         <v>1.1</v>
       </c>
       <c r="N11" t="n">
-        <v>2.96</v>
+        <v>2.94</v>
       </c>
       <c r="O11" t="n">
         <v>1.44</v>
@@ -2547,7 +2547,7 @@
         <v>1.24</v>
       </c>
       <c r="S11" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="T11" t="n">
         <v>2.44</v>
@@ -2556,19 +2556,19 @@
         <v>1.6</v>
       </c>
       <c r="V11" t="n">
-        <v>2.74</v>
+        <v>2.7</v>
       </c>
       <c r="W11" t="n">
         <v>1.1</v>
       </c>
       <c r="X11" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Y11" t="n">
         <v>6.8</v>
       </c>
       <c r="Z11" t="n">
-        <v>8.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="AA11" t="n">
         <v>15.5</v>
@@ -2577,46 +2577,46 @@
         <v>26</v>
       </c>
       <c r="AC11" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AD11" t="n">
         <v>12.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AF11" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AG11" t="n">
+        <v>44</v>
+      </c>
+      <c r="AH11" t="n">
         <v>40</v>
       </c>
-      <c r="AH11" t="n">
-        <v>34</v>
-      </c>
       <c r="AI11" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AJ11" t="n">
-        <v>500</v>
+        <v>520</v>
       </c>
       <c r="AK11" t="n">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="AL11" t="n">
         <v>230</v>
       </c>
       <c r="AM11" t="n">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="AN11" t="n">
-        <v>500</v>
+        <v>510</v>
       </c>
       <c r="AO11" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="AP11" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AQ11" t="n">
         <v>5.3</v>
@@ -2628,50 +2628,50 @@
         <v>11.5</v>
       </c>
       <c r="AT11" t="n">
-        <v>5.2</v>
+        <v>18.5</v>
       </c>
       <c r="AU11" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AV11" t="n">
         <v>9.4</v>
       </c>
       <c r="AW11" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AX11" t="n">
-        <v>6</v>
+        <v>5.2</v>
       </c>
       <c r="AY11" t="n">
-        <v>32</v>
+        <v>4.9</v>
       </c>
       <c r="AZ11" t="n">
-        <v>5.5</v>
+        <v>4.8</v>
       </c>
       <c r="BA11" t="n">
-        <v>5.9</v>
+        <v>5</v>
       </c>
       <c r="BB11" t="n">
-        <v>6.4</v>
+        <v>5.4</v>
       </c>
       <c r="BC11" t="n">
-        <v>6.4</v>
+        <v>5.3</v>
       </c>
       <c r="BD11" t="n">
-        <v>6.4</v>
+        <v>5.3</v>
       </c>
       <c r="BE11" t="n">
-        <v>6.4</v>
+        <v>5.4</v>
       </c>
       <c r="BF11" t="n">
-        <v>6.4</v>
+        <v>5.4</v>
       </c>
       <c r="BG11" t="n">
         <v>9</v>
       </c>
       <c r="BH11" t="inlineStr">
         <is>
-          <t>2026-02-23 06:21:43</t>
+          <t>2026-02-23 08:31:48</t>
         </is>
       </c>
     </row>
@@ -2702,7 +2702,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="G12" t="n">
         <v>1.6</v>
@@ -2711,28 +2711,28 @@
         <v>8</v>
       </c>
       <c r="I12" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="J12" t="n">
         <v>3.7</v>
       </c>
       <c r="K12" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="L12" t="n">
         <v>1.01</v>
       </c>
       <c r="M12" t="n">
-        <v>1.11</v>
+        <v>1.09</v>
       </c>
       <c r="N12" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="O12" t="n">
         <v>1.5</v>
       </c>
       <c r="P12" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="Q12" t="n">
         <v>2.48</v>
@@ -2741,28 +2741,28 @@
         <v>1.21</v>
       </c>
       <c r="S12" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="T12" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="U12" t="n">
-        <v>1.56</v>
+        <v>1.51</v>
       </c>
       <c r="V12" t="n">
         <v>1.11</v>
       </c>
       <c r="W12" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="X12" t="n">
         <v>11.5</v>
       </c>
       <c r="Y12" t="n">
-        <v>20</v>
+        <v>970</v>
       </c>
       <c r="Z12" t="n">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="AA12" t="n">
         <v>1000</v>
@@ -2774,7 +2774,7 @@
         <v>11</v>
       </c>
       <c r="AD12" t="n">
-        <v>44</v>
+        <v>970</v>
       </c>
       <c r="AE12" t="n">
         <v>260</v>
@@ -2783,10 +2783,10 @@
         <v>970</v>
       </c>
       <c r="AG12" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>36</v>
+        <v>970</v>
       </c>
       <c r="AI12" t="n">
         <v>250</v>
@@ -2798,10 +2798,10 @@
         <v>26</v>
       </c>
       <c r="AL12" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AM12" t="n">
-        <v>1000</v>
+        <v>380</v>
       </c>
       <c r="AN12" t="n">
         <v>970</v>
@@ -2810,62 +2810,62 @@
         <v>1000</v>
       </c>
       <c r="AP12" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="AQ12" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="AR12" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="AS12" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="AT12" t="n">
         <v>5.1</v>
       </c>
       <c r="AU12" t="n">
-        <v>4.3</v>
+        <v>4.7</v>
       </c>
       <c r="AV12" t="n">
-        <v>6.2</v>
+        <v>5.8</v>
       </c>
       <c r="AW12" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="AX12" t="n">
         <v>6.4</v>
       </c>
       <c r="AY12" t="n">
-        <v>9.6</v>
+        <v>5.1</v>
       </c>
       <c r="AZ12" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="BA12" t="n">
-        <v>3.45</v>
+        <v>6.6</v>
       </c>
       <c r="BB12" t="n">
-        <v>5.1</v>
+        <v>12.5</v>
       </c>
       <c r="BC12" t="n">
-        <v>5.7</v>
+        <v>5.4</v>
       </c>
       <c r="BD12" t="n">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="BE12" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="BF12" t="n">
         <v>11</v>
       </c>
       <c r="BG12" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="BH12" t="inlineStr">
         <is>
-          <t>2026-02-23 06:21:43</t>
+          <t>2026-02-23 08:31:48</t>
         </is>
       </c>
     </row>
@@ -2899,22 +2899,22 @@
         <v>3.1</v>
       </c>
       <c r="G13" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="H13" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="I13" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="J13" t="n">
         <v>3.1</v>
       </c>
       <c r="K13" t="n">
-        <v>3.55</v>
+        <v>3.3</v>
       </c>
       <c r="L13" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="M13" t="n">
         <v>1.09</v>
@@ -2926,7 +2926,7 @@
         <v>1.4</v>
       </c>
       <c r="P13" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="Q13" t="n">
         <v>2.18</v>
@@ -2935,64 +2935,64 @@
         <v>1.26</v>
       </c>
       <c r="S13" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="T13" t="n">
         <v>1.86</v>
       </c>
       <c r="U13" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="V13" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="W13" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="X13" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AA13" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="AB13" t="n">
         <v>13.5</v>
       </c>
       <c r="AC13" t="n">
-        <v>7.8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD13" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="AF13" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AG13" t="n">
         <v>17.5</v>
       </c>
       <c r="AH13" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AI13" t="n">
         <v>60</v>
       </c>
       <c r="AJ13" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AK13" t="n">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="AL13" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AM13" t="n">
         <v>150</v>
@@ -3001,65 +3001,65 @@
         <v>60</v>
       </c>
       <c r="AO13" t="n">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="AP13" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>8</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>10</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>22</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BA13" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB13" t="n">
         <v>4.1</v>
       </c>
-      <c r="AQ13" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="AR13" t="n">
-        <v>11</v>
-      </c>
-      <c r="AS13" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AT13" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AU13" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AV13" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AW13" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="AX13" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="AY13" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="AZ13" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="BA13" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="BB13" t="n">
-        <v>5.9</v>
-      </c>
       <c r="BC13" t="n">
-        <v>5.6</v>
+        <v>4</v>
       </c>
       <c r="BD13" t="n">
-        <v>5.8</v>
+        <v>4</v>
       </c>
       <c r="BE13" t="n">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="BF13" t="n">
-        <v>5.8</v>
+        <v>34</v>
       </c>
       <c r="BG13" t="n">
-        <v>5.2</v>
+        <v>20</v>
       </c>
       <c r="BH13" t="inlineStr">
         <is>
-          <t>2026-02-23 06:21:43</t>
+          <t>2026-02-23 08:31:48</t>
         </is>
       </c>
     </row>
@@ -3093,7 +3093,7 @@
         <v>2.32</v>
       </c>
       <c r="G14" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="H14" t="n">
         <v>3.1</v>
@@ -3120,7 +3120,7 @@
         <v>1.3</v>
       </c>
       <c r="P14" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="Q14" t="n">
         <v>1.89</v>
@@ -3129,61 +3129,61 @@
         <v>1.37</v>
       </c>
       <c r="S14" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="T14" t="n">
         <v>1.72</v>
       </c>
       <c r="U14" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="V14" t="n">
         <v>1.44</v>
       </c>
       <c r="W14" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="X14" t="n">
-        <v>15.5</v>
+        <v>18.5</v>
       </c>
       <c r="Y14" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>28</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>44</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AG14" t="n">
         <v>14</v>
       </c>
-      <c r="Z14" t="n">
-        <v>24</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>15</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>46</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>16</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>11.5</v>
-      </c>
       <c r="AH14" t="n">
-        <v>17.5</v>
+        <v>21</v>
       </c>
       <c r="AI14" t="n">
         <v>55</v>
       </c>
       <c r="AJ14" t="n">
+        <v>40</v>
+      </c>
+      <c r="AK14" t="n">
         <v>32</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>25</v>
       </c>
       <c r="AL14" t="n">
         <v>46</v>
@@ -3192,68 +3192,68 @@
         <v>110</v>
       </c>
       <c r="AN14" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AO14" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AP14" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="AQ14" t="n">
         <v>11</v>
       </c>
       <c r="AR14" t="n">
-        <v>7</v>
+        <v>3.8</v>
       </c>
       <c r="AS14" t="n">
-        <v>8.800000000000001</v>
+        <v>4.1</v>
       </c>
       <c r="AT14" t="n">
-        <v>5.2</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AU14" t="n">
-        <v>6.6</v>
+        <v>7.2</v>
       </c>
       <c r="AV14" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AW14" t="n">
-        <v>8.199999999999999</v>
+        <v>4</v>
       </c>
       <c r="AX14" t="n">
-        <v>6.2</v>
+        <v>3.6</v>
       </c>
       <c r="AY14" t="n">
-        <v>5.3</v>
+        <v>10</v>
       </c>
       <c r="AZ14" t="n">
-        <v>6.4</v>
+        <v>3.65</v>
       </c>
       <c r="BA14" t="n">
-        <v>8.4</v>
+        <v>4.1</v>
       </c>
       <c r="BB14" t="n">
-        <v>7.6</v>
+        <v>4</v>
       </c>
       <c r="BC14" t="n">
-        <v>7.2</v>
+        <v>3.9</v>
       </c>
       <c r="BD14" t="n">
-        <v>8.199999999999999</v>
+        <v>4</v>
       </c>
       <c r="BE14" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="BF14" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="BG14" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="BH14" t="inlineStr">
         <is>
-          <t>2026-02-23 06:21:43</t>
+          <t>2026-02-23 08:31:48</t>
         </is>
       </c>
     </row>
@@ -3284,7 +3284,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.96</v>
+        <v>3.15</v>
       </c>
       <c r="G15" t="n">
         <v>4.1</v>
@@ -3293,10 +3293,10 @@
         <v>2.08</v>
       </c>
       <c r="I15" t="n">
-        <v>2.34</v>
+        <v>2.48</v>
       </c>
       <c r="J15" t="n">
-        <v>3</v>
+        <v>2.86</v>
       </c>
       <c r="K15" t="n">
         <v>4.3</v>
@@ -3314,7 +3314,7 @@
         <v>1.23</v>
       </c>
       <c r="P15" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="Q15" t="n">
         <v>1.62</v>
@@ -3326,13 +3326,13 @@
         <v>2.52</v>
       </c>
       <c r="T15" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="U15" t="n">
         <v>2.3</v>
       </c>
       <c r="V15" t="n">
-        <v>1.74</v>
+        <v>1.68</v>
       </c>
       <c r="W15" t="n">
         <v>1.32</v>
@@ -3447,7 +3447,7 @@
       </c>
       <c r="BH15" t="inlineStr">
         <is>
-          <t>2026-02-23 06:21:43</t>
+          <t>2026-02-23 08:31:48</t>
         </is>
       </c>
     </row>
@@ -3481,22 +3481,22 @@
         <v>1.71</v>
       </c>
       <c r="G16" t="n">
-        <v>1.94</v>
+        <v>1.9</v>
       </c>
       <c r="H16" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="I16" t="n">
         <v>5.6</v>
       </c>
       <c r="J16" t="n">
-        <v>3.1</v>
+        <v>3.35</v>
       </c>
       <c r="K16" t="n">
         <v>4.8</v>
       </c>
       <c r="L16" t="n">
-        <v>1.01</v>
+        <v>1.22</v>
       </c>
       <c r="M16" t="n">
         <v>1.03</v>
@@ -3511,7 +3511,7 @@
         <v>1.95</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="R16" t="n">
         <v>1.52</v>
@@ -3520,128 +3520,128 @@
         <v>2.04</v>
       </c>
       <c r="T16" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="U16" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="V16" t="n">
         <v>1.21</v>
       </c>
       <c r="W16" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="X16" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="Y16" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="Z16" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AA16" t="n">
         <v>1000</v>
       </c>
       <c r="AB16" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AC16" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AD16" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AE16" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AF16" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AG16" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AH16" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AI16" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AJ16" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AK16" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AL16" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AM16" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AN16" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="AO16" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AP16" t="n">
-        <v>4.3</v>
+        <v>1.01</v>
       </c>
       <c r="AQ16" t="n">
-        <v>4.2</v>
+        <v>1.01</v>
       </c>
       <c r="AR16" t="n">
-        <v>4.6</v>
+        <v>1.01</v>
       </c>
       <c r="AS16" t="n">
-        <v>4.9</v>
+        <v>1.01</v>
       </c>
       <c r="AT16" t="n">
-        <v>3.7</v>
+        <v>1.01</v>
       </c>
       <c r="AU16" t="n">
-        <v>3.55</v>
+        <v>1.01</v>
       </c>
       <c r="AV16" t="n">
-        <v>4.1</v>
+        <v>1.01</v>
       </c>
       <c r="AW16" t="n">
-        <v>4.7</v>
+        <v>1.01</v>
       </c>
       <c r="AX16" t="n">
-        <v>3.85</v>
+        <v>1.01</v>
       </c>
       <c r="AY16" t="n">
-        <v>3.6</v>
+        <v>1.01</v>
       </c>
       <c r="AZ16" t="n">
-        <v>4.1</v>
+        <v>1.01</v>
       </c>
       <c r="BA16" t="n">
-        <v>4.7</v>
+        <v>1.01</v>
       </c>
       <c r="BB16" t="n">
-        <v>4.2</v>
+        <v>1.01</v>
       </c>
       <c r="BC16" t="n">
-        <v>4.1</v>
+        <v>1.01</v>
       </c>
       <c r="BD16" t="n">
-        <v>4.4</v>
+        <v>1.01</v>
       </c>
       <c r="BE16" t="n">
-        <v>4.8</v>
+        <v>1.01</v>
       </c>
       <c r="BF16" t="n">
-        <v>3.35</v>
+        <v>1.01</v>
       </c>
       <c r="BG16" t="n">
-        <v>4.7</v>
+        <v>1.01</v>
       </c>
       <c r="BH16" t="inlineStr">
         <is>
-          <t>2026-02-23 06:21:43</t>
+          <t>2026-02-23 08:31:48</t>
         </is>
       </c>
     </row>
@@ -3672,170 +3672,170 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="G17" t="n">
-        <v>3.5</v>
+        <v>3.85</v>
       </c>
       <c r="H17" t="n">
-        <v>2.18</v>
+        <v>2.04</v>
       </c>
       <c r="I17" t="n">
         <v>2.2</v>
       </c>
       <c r="J17" t="n">
-        <v>3.85</v>
+        <v>3.5</v>
       </c>
       <c r="K17" t="n">
         <v>4.3</v>
       </c>
       <c r="L17" t="n">
-        <v>1.01</v>
+        <v>1.23</v>
       </c>
       <c r="M17" t="n">
         <v>1.05</v>
       </c>
       <c r="N17" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="O17" t="n">
         <v>1.25</v>
       </c>
       <c r="P17" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.71</v>
+        <v>1.62</v>
       </c>
       <c r="R17" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="S17" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="T17" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="U17" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="V17" t="n">
         <v>1.83</v>
       </c>
       <c r="W17" t="n">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="X17" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="Y17" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Z17" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AA17" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF17" t="n">
         <v>32</v>
       </c>
-      <c r="AB17" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>25</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>25</v>
-      </c>
       <c r="AG17" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AH17" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AI17" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="AJ17" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AK17" t="n">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="AL17" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AM17" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AN17" t="n">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="AO17" t="n">
         <v>16</v>
       </c>
       <c r="AP17" t="n">
-        <v>5.2</v>
+        <v>3.65</v>
       </c>
       <c r="AQ17" t="n">
-        <v>4.8</v>
+        <v>3.35</v>
       </c>
       <c r="AR17" t="n">
-        <v>5.1</v>
+        <v>3.6</v>
       </c>
       <c r="AS17" t="n">
-        <v>5.9</v>
+        <v>3.95</v>
       </c>
       <c r="AT17" t="n">
-        <v>4.9</v>
+        <v>3.6</v>
       </c>
       <c r="AU17" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AX17" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AY17" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AZ17" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BA17" t="n">
         <v>4</v>
       </c>
-      <c r="AV17" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AW17" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="AX17" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="AY17" t="n">
-        <v>5</v>
-      </c>
-      <c r="AZ17" t="n">
-        <v>5</v>
-      </c>
-      <c r="BA17" t="n">
-        <v>6</v>
-      </c>
       <c r="BB17" t="n">
-        <v>6.4</v>
+        <v>4.2</v>
       </c>
       <c r="BC17" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BD17" t="n">
-        <v>6.2</v>
+        <v>4.1</v>
       </c>
       <c r="BE17" t="n">
-        <v>6.6</v>
+        <v>4.2</v>
       </c>
       <c r="BF17" t="n">
-        <v>5.7</v>
+        <v>4</v>
       </c>
       <c r="BG17" t="n">
-        <v>4.9</v>
+        <v>3.5</v>
       </c>
       <c r="BH17" t="inlineStr">
         <is>
-          <t>2026-02-23 06:21:43</t>
+          <t>2026-02-23 08:31:48</t>
         </is>
       </c>
     </row>
@@ -3869,16 +3869,16 @@
         <v>8.199999999999999</v>
       </c>
       <c r="G18" t="n">
-        <v>10</v>
+        <v>8.6</v>
       </c>
       <c r="H18" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="I18" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="J18" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="K18" t="n">
         <v>5.6</v>
@@ -3896,7 +3896,7 @@
         <v>1.23</v>
       </c>
       <c r="P18" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="Q18" t="n">
         <v>1.67</v>
@@ -3908,7 +3908,7 @@
         <v>2.7</v>
       </c>
       <c r="T18" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="U18" t="n">
         <v>1.89</v>
@@ -3917,119 +3917,119 @@
         <v>3.05</v>
       </c>
       <c r="W18" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="X18" t="n">
-        <v>24</v>
+        <v>970</v>
       </c>
       <c r="Y18" t="n">
-        <v>10.5</v>
+        <v>12.5</v>
       </c>
       <c r="Z18" t="n">
-        <v>9.4</v>
+        <v>12.5</v>
       </c>
       <c r="AA18" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>40</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>16</v>
+      </c>
+      <c r="AD18" t="n">
         <v>14.5</v>
       </c>
-      <c r="AB18" t="n">
-        <v>32</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>12</v>
-      </c>
       <c r="AE18" t="n">
-        <v>17.5</v>
+        <v>21</v>
       </c>
       <c r="AF18" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AG18" t="n">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="AH18" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AI18" t="n">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AJ18" t="n">
-        <v>330</v>
+        <v>1000</v>
       </c>
       <c r="AK18" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AL18" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AM18" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AN18" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="AO18" t="n">
-        <v>7.2</v>
+        <v>8.6</v>
       </c>
       <c r="AP18" t="n">
-        <v>17.5</v>
+        <v>2.72</v>
       </c>
       <c r="AQ18" t="n">
-        <v>7.6</v>
+        <v>2.24</v>
       </c>
       <c r="AR18" t="n">
-        <v>7.6</v>
+        <v>2.46</v>
       </c>
       <c r="AS18" t="n">
-        <v>10.5</v>
+        <v>2.62</v>
       </c>
       <c r="AT18" t="n">
-        <v>5.2</v>
+        <v>2.54</v>
       </c>
       <c r="AU18" t="n">
-        <v>9.800000000000001</v>
+        <v>2.58</v>
       </c>
       <c r="AV18" t="n">
-        <v>8.6</v>
+        <v>2.28</v>
       </c>
       <c r="AW18" t="n">
-        <v>12.5</v>
+        <v>2.68</v>
       </c>
       <c r="AX18" t="n">
-        <v>5.4</v>
+        <v>2.64</v>
       </c>
       <c r="AY18" t="n">
-        <v>5.1</v>
+        <v>2.56</v>
       </c>
       <c r="AZ18" t="n">
-        <v>21</v>
+        <v>2.5</v>
       </c>
       <c r="BA18" t="n">
-        <v>5.1</v>
+        <v>2.54</v>
       </c>
       <c r="BB18" t="n">
-        <v>5.7</v>
+        <v>2.72</v>
       </c>
       <c r="BC18" t="n">
-        <v>5.6</v>
+        <v>2.72</v>
       </c>
       <c r="BD18" t="n">
-        <v>5.5</v>
+        <v>2.72</v>
       </c>
       <c r="BE18" t="n">
-        <v>5.6</v>
+        <v>2.72</v>
       </c>
       <c r="BF18" t="n">
-        <v>5.6</v>
+        <v>2.7</v>
       </c>
       <c r="BG18" t="n">
-        <v>5.4</v>
+        <v>4.3</v>
       </c>
       <c r="BH18" t="inlineStr">
         <is>
-          <t>2026-02-23 06:21:43</t>
+          <t>2026-02-23 08:31:48</t>
         </is>
       </c>
     </row>
@@ -4063,19 +4063,19 @@
         <v>1.61</v>
       </c>
       <c r="G19" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="H19" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="I19" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="J19" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="K19" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="L19" t="n">
         <v>1.28</v>
@@ -4084,7 +4084,7 @@
         <v>1.04</v>
       </c>
       <c r="N19" t="n">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="O19" t="n">
         <v>1.22</v>
@@ -4099,55 +4099,55 @@
         <v>1.52</v>
       </c>
       <c r="S19" t="n">
-        <v>2.52</v>
+        <v>2.66</v>
       </c>
       <c r="T19" t="n">
-        <v>1.65</v>
+        <v>1.74</v>
       </c>
       <c r="U19" t="n">
         <v>2.14</v>
       </c>
       <c r="V19" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="W19" t="n">
-        <v>2.42</v>
+        <v>2.48</v>
       </c>
       <c r="X19" t="n">
-        <v>23</v>
+        <v>970</v>
       </c>
       <c r="Y19" t="n">
-        <v>29</v>
+        <v>970</v>
       </c>
       <c r="Z19" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AA19" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AB19" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD19" t="n">
         <v>970</v>
       </c>
-      <c r="AC19" t="n">
+      <c r="AE19" t="n">
+        <v>90</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG19" t="n">
         <v>970</v>
       </c>
-      <c r="AD19" t="n">
-        <v>27</v>
-      </c>
-      <c r="AE19" t="n">
+      <c r="AH19" t="n">
+        <v>970</v>
+      </c>
+      <c r="AI19" t="n">
         <v>85</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>970</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>80</v>
       </c>
       <c r="AJ19" t="n">
         <v>970</v>
@@ -4156,74 +4156,74 @@
         <v>970</v>
       </c>
       <c r="AL19" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AM19" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AN19" t="n">
-        <v>970</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AO19" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AP19" t="n">
-        <v>3.15</v>
+        <v>4.2</v>
       </c>
       <c r="AQ19" t="n">
-        <v>3.25</v>
+        <v>19</v>
       </c>
       <c r="AR19" t="n">
-        <v>3.45</v>
+        <v>4.8</v>
       </c>
       <c r="AS19" t="n">
-        <v>2.68</v>
+        <v>4.9</v>
       </c>
       <c r="AT19" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AX19" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AY19" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AZ19" t="n">
         <v>4.2</v>
       </c>
-      <c r="AU19" t="n">
+      <c r="BA19" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="BB19" t="n">
         <v>4.1</v>
       </c>
-      <c r="AV19" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AW19" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AX19" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="AY19" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="AZ19" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="BA19" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="BB19" t="n">
-        <v>5</v>
-      </c>
       <c r="BC19" t="n">
-        <v>4.9</v>
+        <v>4.1</v>
       </c>
       <c r="BD19" t="n">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="BE19" t="n">
-        <v>2.64</v>
+        <v>4.8</v>
       </c>
       <c r="BF19" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="BG19" t="n">
-        <v>3.5</v>
+        <v>4.8</v>
       </c>
       <c r="BH19" t="inlineStr">
         <is>
-          <t>2026-02-23 06:21:43</t>
+          <t>2026-02-23 08:31:48</t>
         </is>
       </c>
     </row>
@@ -4254,10 +4254,10 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="G20" t="n">
-        <v>5.5</v>
+        <v>5.9</v>
       </c>
       <c r="H20" t="n">
         <v>1.79</v>
@@ -4266,13 +4266,13 @@
         <v>2.02</v>
       </c>
       <c r="J20" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="K20" t="n">
         <v>4.5</v>
       </c>
       <c r="L20" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="M20" t="n">
         <v>1.07</v>
@@ -4293,7 +4293,7 @@
         <v>1.32</v>
       </c>
       <c r="S20" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="T20" t="n">
         <v>1.83</v>
@@ -4335,10 +4335,10 @@
         <v>44</v>
       </c>
       <c r="AG20" t="n">
-        <v>23</v>
+        <v>970</v>
       </c>
       <c r="AH20" t="n">
-        <v>23</v>
+        <v>970</v>
       </c>
       <c r="AI20" t="n">
         <v>44</v>
@@ -4365,59 +4365,59 @@
         <v>10.5</v>
       </c>
       <c r="AQ20" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="AR20" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="AS20" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="AT20" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AW20" t="n">
         <v>4.2</v>
       </c>
-      <c r="AU20" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="AV20" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="AW20" t="n">
-        <v>4.4</v>
-      </c>
       <c r="AX20" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AY20" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AZ20" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BA20" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="BB20" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC20" t="n">
         <v>4.8</v>
       </c>
-      <c r="AY20" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="AZ20" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="BA20" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="BB20" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="BC20" t="n">
-        <v>3.7</v>
-      </c>
       <c r="BD20" t="n">
-        <v>3.7</v>
+        <v>4.9</v>
       </c>
       <c r="BE20" t="n">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="BF20" t="n">
-        <v>3.75</v>
+        <v>4.9</v>
       </c>
       <c r="BG20" t="n">
         <v>3.85</v>
       </c>
       <c r="BH20" t="inlineStr">
         <is>
-          <t>2026-02-23 06:21:43</t>
+          <t>2026-02-23 08:31:48</t>
         </is>
       </c>
     </row>
@@ -4463,7 +4463,7 @@
         <v>3.6</v>
       </c>
       <c r="K21" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L21" t="n">
         <v>1.28</v>
@@ -4478,19 +4478,19 @@
         <v>1.24</v>
       </c>
       <c r="P21" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="Q21" t="n">
         <v>1.72</v>
       </c>
       <c r="R21" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="S21" t="n">
-        <v>2.8</v>
+        <v>2.76</v>
       </c>
       <c r="T21" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="U21" t="n">
         <v>2.3</v>
@@ -4502,55 +4502,55 @@
         <v>1.64</v>
       </c>
       <c r="X21" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="Y21" t="n">
-        <v>15.5</v>
+        <v>18</v>
       </c>
       <c r="Z21" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AA21" t="n">
         <v>60</v>
       </c>
       <c r="AB21" t="n">
-        <v>13.5</v>
+        <v>15.5</v>
       </c>
       <c r="AC21" t="n">
         <v>11</v>
       </c>
       <c r="AD21" t="n">
-        <v>14</v>
+        <v>16.5</v>
       </c>
       <c r="AE21" t="n">
         <v>38</v>
       </c>
       <c r="AF21" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG21" t="n">
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
       <c r="AH21" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AI21" t="n">
+        <v>46</v>
+      </c>
+      <c r="AJ21" t="n">
         <v>40</v>
       </c>
-      <c r="AJ21" t="n">
-        <v>34</v>
-      </c>
       <c r="AK21" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="AL21" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="AM21" t="n">
         <v>75</v>
       </c>
       <c r="AN21" t="n">
-        <v>17</v>
+        <v>19.5</v>
       </c>
       <c r="AO21" t="n">
         <v>29</v>
@@ -4559,16 +4559,16 @@
         <v>16</v>
       </c>
       <c r="AQ21" t="n">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="AR21" t="n">
         <v>19</v>
       </c>
       <c r="AS21" t="n">
-        <v>5.8</v>
+        <v>4</v>
       </c>
       <c r="AT21" t="n">
-        <v>10.5</v>
+        <v>9.4</v>
       </c>
       <c r="AU21" t="n">
         <v>7.6</v>
@@ -4577,10 +4577,10 @@
         <v>11.5</v>
       </c>
       <c r="AW21" t="n">
-        <v>5.5</v>
+        <v>22</v>
       </c>
       <c r="AX21" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="AY21" t="n">
         <v>10</v>
@@ -4589,29 +4589,29 @@
         <v>13</v>
       </c>
       <c r="BA21" t="n">
-        <v>30</v>
+        <v>3.9</v>
       </c>
       <c r="BB21" t="n">
-        <v>5.4</v>
+        <v>3.85</v>
       </c>
       <c r="BC21" t="n">
-        <v>20</v>
+        <v>17.5</v>
       </c>
       <c r="BD21" t="n">
-        <v>5.4</v>
+        <v>3.85</v>
       </c>
       <c r="BE21" t="n">
-        <v>5.9</v>
+        <v>4</v>
       </c>
       <c r="BF21" t="n">
         <v>11.5</v>
       </c>
       <c r="BG21" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="BH21" t="inlineStr">
         <is>
-          <t>2026-02-23 06:21:43</t>
+          <t>2026-02-23 08:31:48</t>
         </is>
       </c>
     </row>
@@ -4651,7 +4651,7 @@
         <v>3.3</v>
       </c>
       <c r="I22" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="J22" t="n">
         <v>3.75</v>
@@ -4666,28 +4666,28 @@
         <v>1.05</v>
       </c>
       <c r="N22" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="O22" t="n">
         <v>1.23</v>
       </c>
       <c r="P22" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="R22" t="n">
         <v>1.5</v>
       </c>
       <c r="S22" t="n">
-        <v>2.66</v>
+        <v>2.62</v>
       </c>
       <c r="T22" t="n">
         <v>1.61</v>
       </c>
       <c r="U22" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="V22" t="n">
         <v>1.38</v>
@@ -4696,10 +4696,10 @@
         <v>1.79</v>
       </c>
       <c r="X22" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="Y22" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="Z22" t="n">
         <v>32</v>
@@ -4708,34 +4708,34 @@
         <v>70</v>
       </c>
       <c r="AB22" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AC22" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AD22" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AE22" t="n">
         <v>48</v>
       </c>
       <c r="AF22" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AG22" t="n">
         <v>13</v>
       </c>
       <c r="AH22" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AI22" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AJ22" t="n">
         <v>1000</v>
       </c>
       <c r="AK22" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AL22" t="n">
         <v>42</v>
@@ -4744,68 +4744,68 @@
         <v>1000</v>
       </c>
       <c r="AN22" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AO22" t="n">
         <v>1000</v>
       </c>
       <c r="AP22" t="n">
-        <v>5.6</v>
+        <v>4.1</v>
       </c>
       <c r="AQ22" t="n">
-        <v>5.1</v>
+        <v>4</v>
       </c>
       <c r="AR22" t="n">
-        <v>6</v>
+        <v>4.3</v>
       </c>
       <c r="AS22" t="n">
-        <v>5.1</v>
+        <v>4.6</v>
       </c>
       <c r="AT22" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AX22" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AY22" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AZ22" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA22" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="BB22" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="BC22" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="BD22" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="BE22" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="BF22" t="n">
         <v>10.5</v>
       </c>
-      <c r="AU22" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="AV22" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AW22" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="AX22" t="n">
-        <v>5</v>
-      </c>
-      <c r="AY22" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="AZ22" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="BA22" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="BB22" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="BC22" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="BD22" t="n">
-        <v>6</v>
-      </c>
-      <c r="BE22" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="BF22" t="n">
-        <v>10</v>
-      </c>
       <c r="BG22" t="n">
-        <v>5.8</v>
+        <v>21</v>
       </c>
       <c r="BH22" t="inlineStr">
         <is>
-          <t>2026-02-23 06:21:43</t>
+          <t>2026-02-23 08:31:48</t>
         </is>
       </c>
     </row>
@@ -4842,7 +4842,7 @@
         <v>4.2</v>
       </c>
       <c r="H23" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="I23" t="n">
         <v>2.02</v>
@@ -4860,28 +4860,28 @@
         <v>1.03</v>
       </c>
       <c r="N23" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="O23" t="n">
         <v>1.16</v>
       </c>
       <c r="P23" t="n">
-        <v>2.66</v>
+        <v>2.62</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.49</v>
+        <v>1.44</v>
       </c>
       <c r="R23" t="n">
         <v>1.67</v>
       </c>
       <c r="S23" t="n">
-        <v>2.22</v>
+        <v>2.12</v>
       </c>
       <c r="T23" t="n">
         <v>1.51</v>
       </c>
       <c r="U23" t="n">
-        <v>2.56</v>
+        <v>2.52</v>
       </c>
       <c r="V23" t="n">
         <v>1.98</v>
@@ -4890,7 +4890,7 @@
         <v>1.31</v>
       </c>
       <c r="X23" t="n">
-        <v>34</v>
+        <v>970</v>
       </c>
       <c r="Y23" t="n">
         <v>970</v>
@@ -4902,7 +4902,7 @@
         <v>28</v>
       </c>
       <c r="AB23" t="n">
-        <v>27</v>
+        <v>970</v>
       </c>
       <c r="AC23" t="n">
         <v>970</v>
@@ -4917,7 +4917,7 @@
         <v>42</v>
       </c>
       <c r="AG23" t="n">
-        <v>21</v>
+        <v>970</v>
       </c>
       <c r="AH23" t="n">
         <v>970</v>
@@ -4935,71 +4935,71 @@
         <v>46</v>
       </c>
       <c r="AM23" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AN23" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AO23" t="n">
-        <v>970</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AP23" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AU23" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AV23" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AW23" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AX23" t="n">
         <v>3.85</v>
       </c>
-      <c r="AQ23" t="n">
+      <c r="AY23" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AZ23" t="n">
         <v>3.5</v>
       </c>
-      <c r="AR23" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="AS23" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="AT23" t="n">
+      <c r="BA23" t="n">
         <v>3.75</v>
       </c>
-      <c r="AU23" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AV23" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="AW23" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="AX23" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="AY23" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AZ23" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="BA23" t="n">
-        <v>3.85</v>
-      </c>
       <c r="BB23" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="BC23" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BD23" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BE23" t="n">
         <v>4</v>
       </c>
-      <c r="BD23" t="n">
-        <v>4</v>
-      </c>
-      <c r="BE23" t="n">
-        <v>4.1</v>
-      </c>
       <c r="BF23" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="BG23" t="n">
         <v>6</v>
       </c>
       <c r="BH23" t="inlineStr">
         <is>
-          <t>2026-02-23 06:21:43</t>
+          <t>2026-02-23 08:31:48</t>
         </is>
       </c>
     </row>
@@ -5042,13 +5042,13 @@
         <v>4.1</v>
       </c>
       <c r="J24" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="K24" t="n">
         <v>3.9</v>
       </c>
       <c r="L24" t="n">
-        <v>1.01</v>
+        <v>1.41</v>
       </c>
       <c r="M24" t="n">
         <v>1.07</v>
@@ -5060,16 +5060,16 @@
         <v>1.32</v>
       </c>
       <c r="P24" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="R24" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="S24" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="T24" t="n">
         <v>1.75</v>
@@ -5081,13 +5081,13 @@
         <v>1.33</v>
       </c>
       <c r="W24" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="X24" t="n">
         <v>16</v>
       </c>
       <c r="Y24" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="Z24" t="n">
         <v>1000</v>
@@ -5102,19 +5102,19 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AD24" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AE24" t="n">
         <v>1000</v>
       </c>
       <c r="AF24" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AG24" t="n">
         <v>13</v>
       </c>
       <c r="AH24" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AI24" t="n">
         <v>1000</v>
@@ -5132,7 +5132,7 @@
         <v>1000</v>
       </c>
       <c r="AN24" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AO24" t="n">
         <v>1000</v>
@@ -5144,7 +5144,7 @@
         <v>10</v>
       </c>
       <c r="AR24" t="n">
-        <v>4.3</v>
+        <v>19.5</v>
       </c>
       <c r="AS24" t="n">
         <v>4.7</v>
@@ -5153,7 +5153,7 @@
         <v>7.6</v>
       </c>
       <c r="AU24" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="AV24" t="n">
         <v>11.5</v>
@@ -5165,7 +5165,7 @@
         <v>11</v>
       </c>
       <c r="AY24" t="n">
-        <v>3.65</v>
+        <v>8.6</v>
       </c>
       <c r="AZ24" t="n">
         <v>13.5</v>
@@ -5177,7 +5177,7 @@
         <v>4.4</v>
       </c>
       <c r="BC24" t="n">
-        <v>4.3</v>
+        <v>18.5</v>
       </c>
       <c r="BD24" t="n">
         <v>4.5</v>
@@ -5193,7 +5193,7 @@
       </c>
       <c r="BH24" t="inlineStr">
         <is>
-          <t>2026-02-23 06:21:43</t>
+          <t>2026-02-23 08:31:48</t>
         </is>
       </c>
     </row>
@@ -5230,7 +5230,7 @@
         <v>2.36</v>
       </c>
       <c r="H25" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I25" t="n">
         <v>4.5</v>
@@ -5239,7 +5239,7 @@
         <v>2.94</v>
       </c>
       <c r="K25" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="L25" t="n">
         <v>1.65</v>
@@ -5257,7 +5257,7 @@
         <v>1.45</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="R25" t="n">
         <v>1.15</v>
@@ -5266,10 +5266,10 @@
         <v>6.2</v>
       </c>
       <c r="T25" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="U25" t="n">
-        <v>1.67</v>
+        <v>1.64</v>
       </c>
       <c r="V25" t="n">
         <v>1.28</v>
@@ -5278,10 +5278,10 @@
         <v>1.73</v>
       </c>
       <c r="X25" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="Y25" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="Z25" t="n">
         <v>30</v>
@@ -5290,7 +5290,7 @@
         <v>140</v>
       </c>
       <c r="AB25" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AC25" t="n">
         <v>8.6</v>
@@ -5302,10 +5302,10 @@
         <v>100</v>
       </c>
       <c r="AF25" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG25" t="n">
         <v>15</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>13</v>
       </c>
       <c r="AH25" t="n">
         <v>34</v>
@@ -5314,13 +5314,13 @@
         <v>140</v>
       </c>
       <c r="AJ25" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="AK25" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AL25" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AM25" t="n">
         <v>310</v>
@@ -5350,10 +5350,10 @@
         <v>6.4</v>
       </c>
       <c r="AV25" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AW25" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="AX25" t="n">
         <v>10.5</v>
@@ -5362,32 +5362,32 @@
         <v>11</v>
       </c>
       <c r="AZ25" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="BA25" t="n">
         <v>5.3</v>
       </c>
       <c r="BB25" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="BC25" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="BD25" t="n">
         <v>5.2</v>
       </c>
       <c r="BE25" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="BF25" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="BG25" t="n">
         <v>5.4</v>
       </c>
-      <c r="BF25" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="BG25" t="n">
-        <v>5.3</v>
-      </c>
       <c r="BH25" t="inlineStr">
         <is>
-          <t>2026-02-23 06:21:43</t>
+          <t>2026-02-23 08:31:48</t>
         </is>
       </c>
     </row>
@@ -5424,16 +5424,16 @@
         <v>1.17</v>
       </c>
       <c r="H26" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="I26" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J26" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="K26" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="L26" t="n">
         <v>1.19</v>
@@ -5448,22 +5448,22 @@
         <v>1.1</v>
       </c>
       <c r="P26" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="R26" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="S26" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="T26" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="U26" t="n">
-        <v>1.9</v>
+        <v>1.94</v>
       </c>
       <c r="V26" t="n">
         <v>1.05</v>
@@ -5472,7 +5472,7 @@
         <v>6.8</v>
       </c>
       <c r="X26" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="Y26" t="n">
         <v>85</v>
@@ -5484,16 +5484,16 @@
         <v>1000</v>
       </c>
       <c r="AB26" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AC26" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AD26" t="n">
         <v>70</v>
       </c>
       <c r="AE26" t="n">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="AF26" t="n">
         <v>10.5</v>
@@ -5502,10 +5502,10 @@
         <v>14</v>
       </c>
       <c r="AH26" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AI26" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AJ26" t="n">
         <v>9.4</v>
@@ -5520,31 +5520,31 @@
         <v>170</v>
       </c>
       <c r="AN26" t="n">
-        <v>2.58</v>
+        <v>2.52</v>
       </c>
       <c r="AO26" t="n">
         <v>330</v>
       </c>
       <c r="AP26" t="n">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="AQ26" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="AR26" t="n">
         <v>48</v>
       </c>
       <c r="AS26" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="AT26" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AU26" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AV26" t="n">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="AW26" t="n">
         <v>50</v>
@@ -5556,13 +5556,13 @@
         <v>12.5</v>
       </c>
       <c r="AZ26" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="BA26" t="n">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="BB26" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="BC26" t="n">
         <v>12</v>
@@ -5571,17 +5571,17 @@
         <v>30</v>
       </c>
       <c r="BE26" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="BF26" t="n">
         <v>2.46</v>
       </c>
       <c r="BG26" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="BH26" t="inlineStr">
         <is>
-          <t>2026-02-23 06:21:43</t>
+          <t>2026-02-23 08:31:48</t>
         </is>
       </c>
     </row>
@@ -5612,10 +5612,10 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="G27" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="H27" t="n">
         <v>4.5</v>
@@ -5624,10 +5624,10 @@
         <v>4.7</v>
       </c>
       <c r="J27" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K27" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="L27" t="n">
         <v>1.34</v>
@@ -5636,25 +5636,25 @@
         <v>1.05</v>
       </c>
       <c r="N27" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="O27" t="n">
         <v>1.24</v>
       </c>
       <c r="P27" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="R27" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="S27" t="n">
-        <v>2.84</v>
+        <v>2.8</v>
       </c>
       <c r="T27" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="U27" t="n">
         <v>2.32</v>
@@ -5666,10 +5666,10 @@
         <v>2.16</v>
       </c>
       <c r="X27" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Y27" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="Z27" t="n">
         <v>36</v>
@@ -5678,10 +5678,10 @@
         <v>95</v>
       </c>
       <c r="AB27" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AC27" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AD27" t="n">
         <v>17.5</v>
@@ -5690,10 +5690,10 @@
         <v>50</v>
       </c>
       <c r="AF27" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AG27" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AH27" t="n">
         <v>17</v>
@@ -5711,16 +5711,16 @@
         <v>28</v>
       </c>
       <c r="AM27" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AN27" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AO27" t="n">
         <v>44</v>
       </c>
       <c r="AP27" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AQ27" t="n">
         <v>18.5</v>
@@ -5741,7 +5741,7 @@
         <v>16.5</v>
       </c>
       <c r="AW27" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AX27" t="n">
         <v>11.5</v>
@@ -5753,7 +5753,7 @@
         <v>16</v>
       </c>
       <c r="BA27" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="BB27" t="n">
         <v>19</v>
@@ -5768,14 +5768,14 @@
         <v>65</v>
       </c>
       <c r="BF27" t="n">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="BG27" t="n">
         <v>40</v>
       </c>
       <c r="BH27" t="inlineStr">
         <is>
-          <t>2026-02-23 06:21:43</t>
+          <t>2026-02-23 08:31:48</t>
         </is>
       </c>
     </row>
@@ -5806,22 +5806,22 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="G28" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="H28" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="I28" t="n">
         <v>12</v>
       </c>
       <c r="J28" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="K28" t="n">
         <v>7.8</v>
-      </c>
-      <c r="K28" t="n">
-        <v>8</v>
       </c>
       <c r="L28" t="n">
         <v>1.2</v>
@@ -5830,13 +5830,13 @@
         <v>1.02</v>
       </c>
       <c r="N28" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="O28" t="n">
         <v>1.1</v>
       </c>
       <c r="P28" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="Q28" t="n">
         <v>1.34</v>
@@ -5845,7 +5845,7 @@
         <v>2.12</v>
       </c>
       <c r="S28" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="T28" t="n">
         <v>1.73</v>
@@ -5857,19 +5857,19 @@
         <v>1.09</v>
       </c>
       <c r="W28" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="X28" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="Y28" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="Z28" t="n">
         <v>130</v>
       </c>
       <c r="AA28" t="n">
-        <v>370</v>
+        <v>510</v>
       </c>
       <c r="AB28" t="n">
         <v>16.5</v>
@@ -5908,10 +5908,10 @@
         <v>95</v>
       </c>
       <c r="AN28" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="AO28" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AP28" t="n">
         <v>42</v>
@@ -5950,7 +5950,7 @@
         <v>80</v>
       </c>
       <c r="BB28" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="BC28" t="n">
         <v>11.5</v>
@@ -5959,17 +5959,17 @@
         <v>24</v>
       </c>
       <c r="BE28" t="n">
+        <v>75</v>
+      </c>
+      <c r="BF28" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BG28" t="n">
         <v>80</v>
       </c>
-      <c r="BF28" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="BG28" t="n">
-        <v>65</v>
-      </c>
       <c r="BH28" t="inlineStr">
         <is>
-          <t>2026-02-23 06:21:43</t>
+          <t>2026-02-23 08:31:48</t>
         </is>
       </c>
     </row>
@@ -6000,16 +6000,16 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="G29" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="H29" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="I29" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="J29" t="n">
         <v>3.25</v>
@@ -6018,43 +6018,43 @@
         <v>3.65</v>
       </c>
       <c r="L29" t="n">
-        <v>1.01</v>
+        <v>1.46</v>
       </c>
       <c r="M29" t="n">
         <v>1.1</v>
       </c>
       <c r="N29" t="n">
-        <v>2.84</v>
+        <v>2.76</v>
       </c>
       <c r="O29" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="P29" t="n">
         <v>1.6</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.34</v>
+        <v>2.4</v>
       </c>
       <c r="R29" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="S29" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="T29" t="n">
         <v>2.08</v>
       </c>
       <c r="U29" t="n">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="V29" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="W29" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="X29" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="Y29" t="n">
         <v>14.5</v>
@@ -6108,31 +6108,31 @@
         <v>1000</v>
       </c>
       <c r="AP29" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AQ29" t="n">
         <v>11.5</v>
       </c>
       <c r="AR29" t="n">
-        <v>30</v>
+        <v>7.4</v>
       </c>
       <c r="AS29" t="n">
-        <v>7.8</v>
+        <v>8.6</v>
       </c>
       <c r="AT29" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="AU29" t="n">
         <v>6.6</v>
       </c>
       <c r="AV29" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AW29" t="n">
-        <v>7.6</v>
+        <v>8.4</v>
       </c>
       <c r="AX29" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AY29" t="n">
         <v>9.199999999999999</v>
@@ -6141,29 +6141,29 @@
         <v>20</v>
       </c>
       <c r="BA29" t="n">
-        <v>7.6</v>
+        <v>8.4</v>
       </c>
       <c r="BB29" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="BC29" t="n">
         <v>21</v>
       </c>
       <c r="BD29" t="n">
-        <v>7.2</v>
+        <v>7.8</v>
       </c>
       <c r="BE29" t="n">
-        <v>7.8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="BF29" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="BG29" t="n">
-        <v>7.8</v>
+        <v>8.6</v>
       </c>
       <c r="BH29" t="inlineStr">
         <is>
-          <t>2026-02-23 06:21:43</t>
+          <t>2026-02-23 08:31:48</t>
         </is>
       </c>
     </row>
@@ -6194,19 +6194,19 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="G30" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="H30" t="n">
         <v>7.4</v>
       </c>
       <c r="I30" t="n">
-        <v>9</v>
+        <v>9.6</v>
       </c>
       <c r="J30" t="n">
-        <v>3.45</v>
+        <v>3.75</v>
       </c>
       <c r="K30" t="n">
         <v>4.5</v>
@@ -6218,37 +6218,37 @@
         <v>1.08</v>
       </c>
       <c r="N30" t="n">
-        <v>3.15</v>
+        <v>3</v>
       </c>
       <c r="O30" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="P30" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.1</v>
+        <v>2.16</v>
       </c>
       <c r="R30" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="S30" t="n">
-        <v>3.85</v>
+        <v>4.1</v>
       </c>
       <c r="T30" t="n">
-        <v>2.16</v>
+        <v>2.22</v>
       </c>
       <c r="U30" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="V30" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="W30" t="n">
-        <v>2.54</v>
+        <v>2.48</v>
       </c>
       <c r="X30" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Y30" t="n">
         <v>22</v>
@@ -6260,7 +6260,7 @@
         <v>1000</v>
       </c>
       <c r="AB30" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="AC30" t="n">
         <v>9.800000000000001</v>
@@ -6278,7 +6278,7 @@
         <v>11</v>
       </c>
       <c r="AH30" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AI30" t="n">
         <v>1000</v>
@@ -6302,28 +6302,28 @@
         <v>1000</v>
       </c>
       <c r="AP30" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AQ30" t="n">
         <v>17.5</v>
       </c>
       <c r="AR30" t="n">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="AS30" t="n">
-        <v>7.2</v>
+        <v>8</v>
       </c>
       <c r="AT30" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="AU30" t="n">
         <v>8</v>
       </c>
       <c r="AV30" t="n">
-        <v>6</v>
+        <v>6.6</v>
       </c>
       <c r="AW30" t="n">
-        <v>7</v>
+        <v>7.8</v>
       </c>
       <c r="AX30" t="n">
         <v>7</v>
@@ -6332,32 +6332,32 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AZ30" t="n">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="BA30" t="n">
-        <v>7.2</v>
+        <v>7.8</v>
       </c>
       <c r="BB30" t="n">
         <v>12</v>
       </c>
       <c r="BC30" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="BD30" t="n">
-        <v>6.6</v>
+        <v>7.2</v>
       </c>
       <c r="BE30" t="n">
-        <v>7.2</v>
+        <v>7.8</v>
       </c>
       <c r="BF30" t="n">
-        <v>8.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="BG30" t="n">
-        <v>7.2</v>
+        <v>7.8</v>
       </c>
       <c r="BH30" t="inlineStr">
         <is>
-          <t>2026-02-23 06:21:43</t>
+          <t>2026-02-23 08:31:48</t>
         </is>
       </c>
     </row>
@@ -6388,7 +6388,7 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="G31" t="n">
         <v>2.46</v>
@@ -6403,7 +6403,7 @@
         <v>2.9</v>
       </c>
       <c r="K31" t="n">
-        <v>3.05</v>
+        <v>2.98</v>
       </c>
       <c r="L31" t="n">
         <v>1.75</v>
@@ -6439,10 +6439,10 @@
         <v>1.31</v>
       </c>
       <c r="W31" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="X31" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="Y31" t="n">
         <v>10</v>
@@ -6466,7 +6466,7 @@
         <v>110</v>
       </c>
       <c r="AF31" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AG31" t="n">
         <v>14</v>
@@ -6541,17 +6541,17 @@
         <v>8.199999999999999</v>
       </c>
       <c r="BE31" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="BF31" t="n">
         <v>7.6</v>
       </c>
       <c r="BG31" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="BH31" t="inlineStr">
         <is>
-          <t>2026-02-23 06:21:43</t>
+          <t>2026-02-23 08:31:48</t>
         </is>
       </c>
     </row>
@@ -6588,164 +6588,164 @@
         <v>4</v>
       </c>
       <c r="H32" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="I32" t="n">
-        <v>2.62</v>
+        <v>2.68</v>
       </c>
       <c r="J32" t="n">
-        <v>2.78</v>
+        <v>2.74</v>
       </c>
       <c r="K32" t="n">
-        <v>3</v>
+        <v>2.94</v>
       </c>
       <c r="L32" t="n">
-        <v>1.01</v>
+        <v>1.69</v>
       </c>
       <c r="M32" t="n">
-        <v>1.15</v>
+        <v>1.17</v>
       </c>
       <c r="N32" t="n">
-        <v>2.34</v>
+        <v>2.24</v>
       </c>
       <c r="O32" t="n">
-        <v>1.64</v>
+        <v>1.69</v>
       </c>
       <c r="P32" t="n">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.92</v>
+        <v>3.35</v>
       </c>
       <c r="R32" t="n">
-        <v>1.15</v>
+        <v>1.13</v>
       </c>
       <c r="S32" t="n">
-        <v>6.4</v>
+        <v>7.6</v>
       </c>
       <c r="T32" t="n">
-        <v>2.26</v>
+        <v>2.4</v>
       </c>
       <c r="U32" t="n">
-        <v>1.69</v>
+        <v>1.62</v>
       </c>
       <c r="V32" t="n">
-        <v>1.61</v>
+        <v>1.59</v>
       </c>
       <c r="W32" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="X32" t="n">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="Y32" t="n">
-        <v>7</v>
+        <v>7.6</v>
       </c>
       <c r="Z32" t="n">
-        <v>970</v>
+        <v>16</v>
       </c>
       <c r="AA32" t="n">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="AB32" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="AC32" t="n">
-        <v>7</v>
+        <v>7.6</v>
       </c>
       <c r="AD32" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AE32" t="n">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="AF32" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AG32" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="AH32" t="n">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="AI32" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="AJ32" t="n">
         <v>1000</v>
       </c>
       <c r="AK32" t="n">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="AL32" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="AM32" t="n">
-        <v>290</v>
+        <v>350</v>
       </c>
       <c r="AN32" t="n">
         <v>1000</v>
       </c>
       <c r="AO32" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AP32" t="n">
-        <v>6.4</v>
+        <v>6</v>
       </c>
       <c r="AQ32" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="AR32" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AS32" t="n">
-        <v>27</v>
+        <v>4.8</v>
       </c>
       <c r="AT32" t="n">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="AU32" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="AV32" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="AW32" t="n">
-        <v>34</v>
+        <v>4.8</v>
       </c>
       <c r="AX32" t="n">
-        <v>16.5</v>
+        <v>4.4</v>
       </c>
       <c r="AY32" t="n">
-        <v>15</v>
+        <v>4.3</v>
       </c>
       <c r="AZ32" t="n">
-        <v>7.8</v>
+        <v>4.6</v>
       </c>
       <c r="BA32" t="n">
-        <v>9.6</v>
+        <v>5.1</v>
       </c>
       <c r="BB32" t="n">
-        <v>10</v>
+        <v>5.1</v>
       </c>
       <c r="BC32" t="n">
-        <v>9.4</v>
+        <v>5</v>
       </c>
       <c r="BD32" t="n">
-        <v>10</v>
+        <v>5.1</v>
       </c>
       <c r="BE32" t="n">
-        <v>10.5</v>
+        <v>5.2</v>
       </c>
       <c r="BF32" t="n">
-        <v>10</v>
+        <v>5.1</v>
       </c>
       <c r="BG32" t="n">
-        <v>34</v>
+        <v>4.9</v>
       </c>
       <c r="BH32" t="inlineStr">
         <is>
-          <t>2026-02-23 06:21:43</t>
+          <t>2026-02-23 08:31:48</t>
         </is>
       </c>
     </row>
@@ -6776,7 +6776,7 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="G33" t="n">
         <v>1.94</v>
@@ -6803,19 +6803,19 @@
         <v>2.84</v>
       </c>
       <c r="O33" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="P33" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.44</v>
+        <v>2.36</v>
       </c>
       <c r="R33" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="S33" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="T33" t="n">
         <v>2.12</v>
@@ -6830,25 +6830,25 @@
         <v>2.06</v>
       </c>
       <c r="X33" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="Y33" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Z33" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AA33" t="n">
         <v>190</v>
       </c>
       <c r="AB33" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AC33" t="n">
-        <v>8.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AD33" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AE33" t="n">
         <v>120</v>
@@ -6860,19 +6860,19 @@
         <v>11.5</v>
       </c>
       <c r="AH33" t="n">
-        <v>980</v>
+        <v>29</v>
       </c>
       <c r="AI33" t="n">
         <v>130</v>
       </c>
       <c r="AJ33" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AK33" t="n">
         <v>26</v>
       </c>
       <c r="AL33" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AM33" t="n">
         <v>230</v>
@@ -6884,19 +6884,19 @@
         <v>1000</v>
       </c>
       <c r="AP33" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AQ33" t="n">
         <v>12</v>
       </c>
       <c r="AR33" t="n">
-        <v>6.8</v>
+        <v>32</v>
       </c>
       <c r="AS33" t="n">
-        <v>7.8</v>
+        <v>5.3</v>
       </c>
       <c r="AT33" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="AU33" t="n">
         <v>6.8</v>
@@ -6905,19 +6905,19 @@
         <v>18.5</v>
       </c>
       <c r="AW33" t="n">
-        <v>7.6</v>
+        <v>5.2</v>
       </c>
       <c r="AX33" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AY33" t="n">
         <v>9.4</v>
       </c>
       <c r="AZ33" t="n">
-        <v>21</v>
+        <v>4.6</v>
       </c>
       <c r="BA33" t="n">
-        <v>7.6</v>
+        <v>5.3</v>
       </c>
       <c r="BB33" t="n">
         <v>18.5</v>
@@ -6926,20 +6926,20 @@
         <v>20</v>
       </c>
       <c r="BD33" t="n">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="BE33" t="n">
-        <v>7.8</v>
+        <v>5.3</v>
       </c>
       <c r="BF33" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="BG33" t="n">
-        <v>7.8</v>
+        <v>5.3</v>
       </c>
       <c r="BH33" t="inlineStr">
         <is>
-          <t>2026-02-23 06:21:43</t>
+          <t>2026-02-23 08:31:48</t>
         </is>
       </c>
     </row>
@@ -6970,7 +6970,7 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="G34" t="n">
         <v>4.2</v>
@@ -6982,7 +6982,7 @@
         <v>2.46</v>
       </c>
       <c r="J34" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="K34" t="n">
         <v>3.15</v>
@@ -7003,7 +7003,7 @@
         <v>1.46</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.84</v>
+        <v>2.9</v>
       </c>
       <c r="R34" t="n">
         <v>1.16</v>
@@ -7012,49 +7012,49 @@
         <v>6.2</v>
       </c>
       <c r="T34" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="U34" t="n">
         <v>1.69</v>
       </c>
       <c r="V34" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="W34" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="X34" t="n">
         <v>9</v>
       </c>
       <c r="Y34" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>46</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>32</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>22</v>
+      </c>
+      <c r="AH34" t="n">
         <v>970</v>
-      </c>
-      <c r="Z34" t="n">
-        <v>970</v>
-      </c>
-      <c r="AA34" t="n">
-        <v>38</v>
-      </c>
-      <c r="AB34" t="n">
-        <v>970</v>
-      </c>
-      <c r="AC34" t="n">
-        <v>970</v>
-      </c>
-      <c r="AD34" t="n">
-        <v>970</v>
-      </c>
-      <c r="AE34" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF34" t="n">
-        <v>27</v>
-      </c>
-      <c r="AG34" t="n">
-        <v>970</v>
-      </c>
-      <c r="AH34" t="n">
-        <v>27</v>
       </c>
       <c r="AI34" t="n">
         <v>75</v>
@@ -7063,13 +7063,13 @@
         <v>120</v>
       </c>
       <c r="AK34" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AL34" t="n">
         <v>120</v>
       </c>
       <c r="AM34" t="n">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="AN34" t="n">
         <v>1000</v>
@@ -7078,7 +7078,7 @@
         <v>55</v>
       </c>
       <c r="AP34" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="AQ34" t="n">
         <v>6</v>
@@ -7087,53 +7087,53 @@
         <v>9.6</v>
       </c>
       <c r="AS34" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AT34" t="n">
         <v>8.6</v>
-      </c>
-      <c r="AT34" t="n">
-        <v>8.4</v>
       </c>
       <c r="AU34" t="n">
         <v>6.2</v>
       </c>
       <c r="AV34" t="n">
-        <v>6</v>
+        <v>3.8</v>
       </c>
       <c r="AW34" t="n">
-        <v>8.800000000000001</v>
+        <v>4.5</v>
       </c>
       <c r="AX34" t="n">
-        <v>22</v>
+        <v>4.3</v>
       </c>
       <c r="AY34" t="n">
-        <v>6.8</v>
+        <v>15</v>
       </c>
       <c r="AZ34" t="n">
-        <v>7.8</v>
+        <v>4.2</v>
       </c>
       <c r="BA34" t="n">
-        <v>3.8</v>
+        <v>4.7</v>
       </c>
       <c r="BB34" t="n">
-        <v>2.52</v>
+        <v>55</v>
       </c>
       <c r="BC34" t="n">
-        <v>3.8</v>
+        <v>4.8</v>
       </c>
       <c r="BD34" t="n">
-        <v>2.52</v>
+        <v>4.8</v>
       </c>
       <c r="BE34" t="n">
-        <v>2.14</v>
+        <v>5</v>
       </c>
       <c r="BF34" t="n">
-        <v>2.52</v>
+        <v>4.9</v>
       </c>
       <c r="BG34" t="n">
-        <v>9.199999999999999</v>
+        <v>4.6</v>
       </c>
       <c r="BH34" t="inlineStr">
         <is>
-          <t>2026-02-23 06:21:43</t>
+          <t>2026-02-23 08:31:48</t>
         </is>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-24.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-24.xlsx
@@ -762,91 +762,91 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3.85</v>
+        <v>4.5</v>
       </c>
       <c r="G2" t="n">
-        <v>7.2</v>
+        <v>5.7</v>
       </c>
       <c r="H2" t="n">
-        <v>1.76</v>
+        <v>1.93</v>
       </c>
       <c r="I2" t="n">
-        <v>2.3</v>
+        <v>2.22</v>
       </c>
       <c r="J2" t="n">
-        <v>2.76</v>
+        <v>3</v>
       </c>
       <c r="K2" t="n">
-        <v>5.7</v>
+        <v>3.5</v>
       </c>
       <c r="L2" t="n">
         <v>1.01</v>
       </c>
       <c r="M2" t="n">
-        <v>1.01</v>
+        <v>1.12</v>
       </c>
       <c r="N2" t="n">
-        <v>1.95</v>
+        <v>2.5</v>
       </c>
       <c r="O2" t="n">
-        <v>1.26</v>
+        <v>1.52</v>
       </c>
       <c r="P2" t="n">
-        <v>1.41</v>
+        <v>1.51</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.3</v>
+        <v>2.54</v>
       </c>
       <c r="R2" t="n">
         <v>1.18</v>
       </c>
       <c r="S2" t="n">
-        <v>2.72</v>
+        <v>4.7</v>
       </c>
       <c r="T2" t="n">
-        <v>1.05</v>
+        <v>2.16</v>
       </c>
       <c r="U2" t="n">
-        <v>1.05</v>
+        <v>1.68</v>
       </c>
       <c r="V2" t="n">
-        <v>1.76</v>
+        <v>1.82</v>
       </c>
       <c r="W2" t="n">
-        <v>1.16</v>
+        <v>1.21</v>
       </c>
       <c r="X2" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
       <c r="Z2" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AA2" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AB2" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AC2" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AD2" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AF2" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AG2" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AH2" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AI2" t="n">
         <v>1000</v>
@@ -867,65 +867,65 @@
         <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AP2" t="n">
-        <v>1.01</v>
+        <v>7.2</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1.01</v>
+        <v>5.6</v>
       </c>
       <c r="AR2" t="n">
-        <v>1.01</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.01</v>
+        <v>21</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.01</v>
+        <v>10.5</v>
       </c>
       <c r="AU2" t="n">
-        <v>1.01</v>
+        <v>6.4</v>
       </c>
       <c r="AV2" t="n">
-        <v>1.01</v>
+        <v>9.4</v>
       </c>
       <c r="AW2" t="n">
-        <v>1.01</v>
+        <v>3.95</v>
       </c>
       <c r="AX2" t="n">
-        <v>1.01</v>
+        <v>4</v>
       </c>
       <c r="AY2" t="n">
-        <v>1.01</v>
+        <v>17.5</v>
       </c>
       <c r="AZ2" t="n">
-        <v>1.01</v>
+        <v>21</v>
       </c>
       <c r="BA2" t="n">
-        <v>1.01</v>
+        <v>4.2</v>
       </c>
       <c r="BB2" t="n">
-        <v>1.01</v>
+        <v>4.3</v>
       </c>
       <c r="BC2" t="n">
-        <v>1.01</v>
+        <v>4.2</v>
       </c>
       <c r="BD2" t="n">
-        <v>1.01</v>
+        <v>4.3</v>
       </c>
       <c r="BE2" t="n">
-        <v>1.01</v>
+        <v>4.3</v>
       </c>
       <c r="BF2" t="n">
-        <v>1.01</v>
+        <v>4.3</v>
       </c>
       <c r="BG2" t="n">
-        <v>1.01</v>
+        <v>19</v>
       </c>
       <c r="BH2" t="inlineStr">
         <is>
-          <t>2026-02-23 10:41:59</t>
+          <t>2026-02-23 12:51:28</t>
         </is>
       </c>
     </row>
@@ -956,22 +956,22 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.6</v>
+        <v>2.96</v>
       </c>
       <c r="G3" t="n">
-        <v>5.3</v>
+        <v>6.2</v>
       </c>
       <c r="H3" t="n">
-        <v>1.99</v>
+        <v>1.83</v>
       </c>
       <c r="I3" t="n">
-        <v>2.34</v>
+        <v>2.48</v>
       </c>
       <c r="J3" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="K3" t="n">
-        <v>3.65</v>
+        <v>19</v>
       </c>
       <c r="L3" t="n">
         <v>1.38</v>
@@ -980,37 +980,37 @@
         <v>1.07</v>
       </c>
       <c r="N3" t="n">
-        <v>2.36</v>
+        <v>2.04</v>
       </c>
       <c r="O3" t="n">
-        <v>1.08</v>
+        <v>1.4</v>
       </c>
       <c r="P3" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="Q3" t="n">
         <v>2.18</v>
       </c>
       <c r="R3" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="S3" t="n">
-        <v>3.5</v>
+        <v>2.92</v>
       </c>
       <c r="T3" t="n">
-        <v>1.97</v>
+        <v>1.05</v>
       </c>
       <c r="U3" t="n">
-        <v>1.84</v>
+        <v>1.05</v>
       </c>
       <c r="V3" t="n">
-        <v>1.74</v>
+        <v>1.67</v>
       </c>
       <c r="W3" t="n">
-        <v>1.23</v>
+        <v>1.19</v>
       </c>
       <c r="X3" t="n">
-        <v>14.5</v>
+        <v>970</v>
       </c>
       <c r="Y3" t="n">
         <v>1000</v>
@@ -1119,7 +1119,7 @@
       </c>
       <c r="BH3" t="inlineStr">
         <is>
-          <t>2026-02-23 10:41:59</t>
+          <t>2026-02-23 12:51:28</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
         <v>1.29</v>
       </c>
       <c r="P4" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="Q4" t="n">
         <v>1.79</v>
@@ -1201,7 +1201,7 @@
         <v>1.13</v>
       </c>
       <c r="W4" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="X4" t="n">
         <v>980</v>
@@ -1261,7 +1261,7 @@
         <v>4.1</v>
       </c>
       <c r="AQ4" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="AR4" t="n">
         <v>4.8</v>
@@ -1270,7 +1270,7 @@
         <v>5.1</v>
       </c>
       <c r="AT4" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="AU4" t="n">
         <v>3.65</v>
@@ -1313,7 +1313,7 @@
       </c>
       <c r="BH4" t="inlineStr">
         <is>
-          <t>2026-02-23 10:41:59</t>
+          <t>2026-02-23 12:51:28</t>
         </is>
       </c>
     </row>
@@ -1350,7 +1350,7 @@
         <v>1.44</v>
       </c>
       <c r="H5" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="I5" t="n">
         <v>7.8</v>
@@ -1368,7 +1368,7 @@
         <v>1.03</v>
       </c>
       <c r="N5" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="O5" t="n">
         <v>1.16</v>
@@ -1377,13 +1377,13 @@
         <v>2.98</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="R5" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="S5" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="T5" t="n">
         <v>1.72</v>
@@ -1395,7 +1395,7 @@
         <v>1.15</v>
       </c>
       <c r="W5" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="X5" t="n">
         <v>36</v>
@@ -1410,10 +1410,10 @@
         <v>220</v>
       </c>
       <c r="AB5" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AC5" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AD5" t="n">
         <v>28</v>
@@ -1437,7 +1437,7 @@
         <v>13.5</v>
       </c>
       <c r="AK5" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AL5" t="n">
         <v>25</v>
@@ -1449,7 +1449,7 @@
         <v>4.7</v>
       </c>
       <c r="AO5" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AP5" t="n">
         <v>30</v>
@@ -1461,7 +1461,7 @@
         <v>60</v>
       </c>
       <c r="AS5" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AT5" t="n">
         <v>11.5</v>
@@ -1473,7 +1473,7 @@
         <v>26</v>
       </c>
       <c r="AW5" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AX5" t="n">
         <v>10</v>
@@ -1497,17 +1497,17 @@
         <v>23</v>
       </c>
       <c r="BE5" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="BF5" t="n">
         <v>4.5</v>
       </c>
       <c r="BG5" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="BH5" t="inlineStr">
         <is>
-          <t>2026-02-23 10:41:59</t>
+          <t>2026-02-23 12:51:28</t>
         </is>
       </c>
     </row>
@@ -1538,170 +1538,170 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.68</v>
+        <v>2.74</v>
       </c>
       <c r="G6" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="I6" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="K6" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N6" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="P6" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S6" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="T6" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="U6" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="W6" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="X6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>4</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>4</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AX6" t="n">
         <v>4.2</v>
       </c>
-      <c r="H6" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="I6" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="J6" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="K6" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N6" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="S6" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="T6" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="W6" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="X6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="AW6" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="AX6" t="n">
-        <v>1.01</v>
-      </c>
       <c r="AY6" t="n">
-        <v>1.01</v>
+        <v>3.85</v>
       </c>
       <c r="AZ6" t="n">
-        <v>1.01</v>
+        <v>4</v>
       </c>
       <c r="BA6" t="n">
-        <v>1.01</v>
+        <v>4.5</v>
       </c>
       <c r="BB6" t="n">
-        <v>1.01</v>
+        <v>4.6</v>
       </c>
       <c r="BC6" t="n">
-        <v>1.01</v>
+        <v>4.5</v>
       </c>
       <c r="BD6" t="n">
-        <v>1.01</v>
+        <v>4.6</v>
       </c>
       <c r="BE6" t="n">
-        <v>1.01</v>
+        <v>4.8</v>
       </c>
       <c r="BF6" t="n">
-        <v>1.01</v>
+        <v>4.4</v>
       </c>
       <c r="BG6" t="n">
-        <v>1.01</v>
+        <v>4</v>
       </c>
       <c r="BH6" t="inlineStr">
         <is>
-          <t>2026-02-23 10:41:59</t>
+          <t>2026-02-23 12:51:28</t>
         </is>
       </c>
     </row>
@@ -1732,170 +1732,170 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.8</v>
+        <v>2.58</v>
       </c>
       <c r="G7" t="n">
-        <v>3.8</v>
+        <v>3.65</v>
       </c>
       <c r="H7" t="n">
         <v>2.16</v>
       </c>
       <c r="I7" t="n">
-        <v>2.86</v>
+        <v>2.94</v>
       </c>
       <c r="J7" t="n">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="K7" t="n">
-        <v>5.5</v>
+        <v>4.1</v>
       </c>
       <c r="L7" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="M7" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N7" t="n">
-        <v>1.85</v>
+        <v>3.55</v>
       </c>
       <c r="O7" t="n">
         <v>1.26</v>
       </c>
       <c r="P7" t="n">
-        <v>1.86</v>
+        <v>1.95</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.71</v>
+        <v>1.75</v>
       </c>
       <c r="R7" t="n">
-        <v>1.25</v>
+        <v>1.42</v>
       </c>
       <c r="S7" t="n">
-        <v>2.36</v>
+        <v>2.64</v>
       </c>
       <c r="T7" t="n">
-        <v>1.05</v>
+        <v>1.63</v>
       </c>
       <c r="U7" t="n">
-        <v>1.05</v>
+        <v>2.26</v>
       </c>
       <c r="V7" t="n">
-        <v>1.54</v>
+        <v>1.52</v>
       </c>
       <c r="W7" t="n">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="X7" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="Y7" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="Z7" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AA7" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AB7" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AC7" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AF7" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AG7" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AI7" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AJ7" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AK7" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AL7" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AM7" t="n">
         <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AO7" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AP7" t="n">
-        <v>1.01</v>
+        <v>3.5</v>
       </c>
       <c r="AQ7" t="n">
-        <v>1.01</v>
+        <v>3.3</v>
       </c>
       <c r="AR7" t="n">
-        <v>1.01</v>
+        <v>3.5</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.01</v>
+        <v>3.8</v>
       </c>
       <c r="AT7" t="n">
-        <v>1.01</v>
+        <v>3.35</v>
       </c>
       <c r="AU7" t="n">
-        <v>1.01</v>
+        <v>3</v>
       </c>
       <c r="AV7" t="n">
-        <v>1.01</v>
+        <v>3.25</v>
       </c>
       <c r="AW7" t="n">
-        <v>1.01</v>
+        <v>3.7</v>
       </c>
       <c r="AX7" t="n">
-        <v>1.01</v>
+        <v>3.65</v>
       </c>
       <c r="AY7" t="n">
-        <v>1.01</v>
+        <v>3.35</v>
       </c>
       <c r="AZ7" t="n">
-        <v>1.01</v>
+        <v>3.45</v>
       </c>
       <c r="BA7" t="n">
-        <v>1.01</v>
+        <v>3.8</v>
       </c>
       <c r="BB7" t="n">
-        <v>1.01</v>
+        <v>3.95</v>
       </c>
       <c r="BC7" t="n">
-        <v>1.01</v>
+        <v>3.8</v>
       </c>
       <c r="BD7" t="n">
-        <v>1.01</v>
+        <v>3.85</v>
       </c>
       <c r="BE7" t="n">
-        <v>1.01</v>
+        <v>4</v>
       </c>
       <c r="BF7" t="n">
-        <v>1.01</v>
+        <v>3.7</v>
       </c>
       <c r="BG7" t="n">
-        <v>1.01</v>
+        <v>3.55</v>
       </c>
       <c r="BH7" t="inlineStr">
         <is>
-          <t>2026-02-23 10:41:59</t>
+          <t>2026-02-23 12:51:28</t>
         </is>
       </c>
     </row>
@@ -1950,10 +1950,10 @@
         <v>1.01</v>
       </c>
       <c r="N8" t="n">
-        <v>1.1</v>
+        <v>3.15</v>
       </c>
       <c r="O8" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="P8" t="n">
         <v>2.06</v>
@@ -2089,7 +2089,7 @@
       </c>
       <c r="BH8" t="inlineStr">
         <is>
-          <t>2026-02-23 10:41:59</t>
+          <t>2026-02-23 12:51:28</t>
         </is>
       </c>
     </row>
@@ -2120,170 +2120,170 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="G9" t="n">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="H9" t="n">
-        <v>7.6</v>
+        <v>6.2</v>
       </c>
       <c r="I9" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="J9" t="n">
-        <v>5.1</v>
+        <v>4.5</v>
       </c>
       <c r="K9" t="n">
-        <v>18.5</v>
+        <v>7.4</v>
       </c>
       <c r="L9" t="n">
-        <v>1.01</v>
+        <v>1.2</v>
       </c>
       <c r="M9" t="n">
         <v>1.01</v>
       </c>
       <c r="N9" t="n">
-        <v>2.5</v>
+        <v>1.1</v>
       </c>
       <c r="O9" t="n">
         <v>1.14</v>
       </c>
       <c r="P9" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.33</v>
+        <v>1.43</v>
       </c>
       <c r="R9" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="S9" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="T9" t="n">
-        <v>1.05</v>
+        <v>1.86</v>
       </c>
       <c r="U9" t="n">
-        <v>1.05</v>
+        <v>1.98</v>
       </c>
       <c r="V9" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="W9" t="n">
-        <v>3.05</v>
+        <v>3.4</v>
       </c>
       <c r="X9" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="Y9" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="Z9" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AA9" t="n">
         <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AC9" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AD9" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AE9" t="n">
         <v>1000</v>
       </c>
       <c r="AF9" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AG9" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AH9" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AI9" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AJ9" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AK9" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AL9" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AM9" t="n">
         <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>1000</v>
+        <v>4.5</v>
       </c>
       <c r="AO9" t="n">
         <v>1000</v>
       </c>
       <c r="AP9" t="n">
-        <v>1.01</v>
+        <v>4.1</v>
       </c>
       <c r="AQ9" t="n">
-        <v>1.01</v>
+        <v>4.2</v>
       </c>
       <c r="AR9" t="n">
-        <v>1.01</v>
+        <v>4.4</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.01</v>
+        <v>4.5</v>
       </c>
       <c r="AT9" t="n">
-        <v>1.01</v>
+        <v>3.5</v>
       </c>
       <c r="AU9" t="n">
-        <v>1.01</v>
+        <v>3.65</v>
       </c>
       <c r="AV9" t="n">
-        <v>1.01</v>
+        <v>4.1</v>
       </c>
       <c r="AW9" t="n">
-        <v>1.01</v>
+        <v>4.4</v>
       </c>
       <c r="AX9" t="n">
-        <v>1.01</v>
+        <v>3.3</v>
       </c>
       <c r="AY9" t="n">
-        <v>1.01</v>
+        <v>3.4</v>
       </c>
       <c r="AZ9" t="n">
-        <v>1.01</v>
+        <v>4</v>
       </c>
       <c r="BA9" t="n">
-        <v>1.01</v>
+        <v>4.4</v>
       </c>
       <c r="BB9" t="n">
-        <v>1.01</v>
+        <v>3.4</v>
       </c>
       <c r="BC9" t="n">
-        <v>1.01</v>
+        <v>3.55</v>
       </c>
       <c r="BD9" t="n">
-        <v>1.01</v>
+        <v>4</v>
       </c>
       <c r="BE9" t="n">
-        <v>1.01</v>
+        <v>4.4</v>
       </c>
       <c r="BF9" t="n">
-        <v>1.01</v>
+        <v>3</v>
       </c>
       <c r="BG9" t="n">
-        <v>1.01</v>
+        <v>4.4</v>
       </c>
       <c r="BH9" t="inlineStr">
         <is>
-          <t>2026-02-23 10:41:59</t>
+          <t>2026-02-23 12:51:28</t>
         </is>
       </c>
     </row>
@@ -2314,170 +2314,170 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.86</v>
+        <v>1.99</v>
       </c>
       <c r="G10" t="n">
-        <v>2.42</v>
+        <v>2.36</v>
       </c>
       <c r="H10" t="n">
-        <v>3.25</v>
+        <v>3.55</v>
       </c>
       <c r="I10" t="n">
-        <v>5.4</v>
+        <v>4.8</v>
       </c>
       <c r="J10" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="K10" t="n">
-        <v>6.4</v>
+        <v>3.75</v>
       </c>
       <c r="L10" t="n">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="M10" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N10" t="n">
-        <v>1.64</v>
+        <v>3.3</v>
       </c>
       <c r="O10" t="n">
-        <v>1.01</v>
+        <v>1.36</v>
       </c>
       <c r="P10" t="n">
-        <v>1.64</v>
+        <v>1.8</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.88</v>
+        <v>2.06</v>
       </c>
       <c r="R10" t="n">
-        <v>1.18</v>
+        <v>1.3</v>
       </c>
       <c r="S10" t="n">
-        <v>2.58</v>
+        <v>3.4</v>
       </c>
       <c r="T10" t="n">
-        <v>1.05</v>
+        <v>1.84</v>
       </c>
       <c r="U10" t="n">
-        <v>1.05</v>
+        <v>2</v>
       </c>
       <c r="V10" t="n">
-        <v>1.23</v>
+        <v>1.26</v>
       </c>
       <c r="W10" t="n">
-        <v>1.71</v>
+        <v>1.74</v>
       </c>
       <c r="X10" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="Y10" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="Z10" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AA10" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AB10" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AC10" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD10" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AF10" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AG10" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH10" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AI10" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AJ10" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AK10" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AL10" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AM10" t="n">
         <v>1000</v>
       </c>
       <c r="AN10" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AO10" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AP10" t="n">
-        <v>1.01</v>
+        <v>3.8</v>
       </c>
       <c r="AQ10" t="n">
-        <v>1.01</v>
+        <v>3.85</v>
       </c>
       <c r="AR10" t="n">
-        <v>1.01</v>
+        <v>4.5</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.01</v>
+        <v>4.9</v>
       </c>
       <c r="AT10" t="n">
-        <v>1.01</v>
+        <v>3.35</v>
       </c>
       <c r="AU10" t="n">
-        <v>1.01</v>
+        <v>3.3</v>
       </c>
       <c r="AV10" t="n">
-        <v>1.01</v>
+        <v>4</v>
       </c>
       <c r="AW10" t="n">
-        <v>1.01</v>
+        <v>4.7</v>
       </c>
       <c r="AX10" t="n">
-        <v>1.01</v>
+        <v>3.8</v>
       </c>
       <c r="AY10" t="n">
-        <v>1.01</v>
+        <v>3.6</v>
       </c>
       <c r="AZ10" t="n">
-        <v>1.01</v>
+        <v>4.1</v>
       </c>
       <c r="BA10" t="n">
-        <v>1.01</v>
+        <v>4.8</v>
       </c>
       <c r="BB10" t="n">
-        <v>1.01</v>
+        <v>4.3</v>
       </c>
       <c r="BC10" t="n">
-        <v>1.01</v>
+        <v>4.3</v>
       </c>
       <c r="BD10" t="n">
-        <v>1.01</v>
+        <v>4.6</v>
       </c>
       <c r="BE10" t="n">
-        <v>1.01</v>
+        <v>4.9</v>
       </c>
       <c r="BF10" t="n">
-        <v>1.01</v>
+        <v>4.1</v>
       </c>
       <c r="BG10" t="n">
-        <v>1.01</v>
+        <v>4.8</v>
       </c>
       <c r="BH10" t="inlineStr">
         <is>
-          <t>2026-02-23 10:41:59</t>
+          <t>2026-02-23 12:51:28</t>
         </is>
       </c>
     </row>
@@ -2550,7 +2550,7 @@
         <v>2.56</v>
       </c>
       <c r="T11" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="U11" t="n">
         <v>2.02</v>
@@ -2667,11 +2667,11 @@
         <v>4.1</v>
       </c>
       <c r="BG11" t="n">
-        <v>4.9</v>
+        <v>5.5</v>
       </c>
       <c r="BH11" t="inlineStr">
         <is>
-          <t>2026-02-23 10:41:59</t>
+          <t>2026-02-23 12:51:28</t>
         </is>
       </c>
     </row>
@@ -2702,7 +2702,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="G12" t="n">
         <v>2</v>
@@ -2732,7 +2732,7 @@
         <v>1.22</v>
       </c>
       <c r="P12" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="Q12" t="n">
         <v>1.67</v>
@@ -2741,7 +2741,7 @@
         <v>1.51</v>
       </c>
       <c r="S12" t="n">
-        <v>2.46</v>
+        <v>2.68</v>
       </c>
       <c r="T12" t="n">
         <v>1.64</v>
@@ -2750,7 +2750,7 @@
         <v>2.32</v>
       </c>
       <c r="V12" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="W12" t="n">
         <v>2</v>
@@ -2858,14 +2858,14 @@
         <v>4.8</v>
       </c>
       <c r="BF12" t="n">
-        <v>8.6</v>
+        <v>7.8</v>
       </c>
       <c r="BG12" t="n">
         <v>4.8</v>
       </c>
       <c r="BH12" t="inlineStr">
         <is>
-          <t>2026-02-23 10:41:59</t>
+          <t>2026-02-23 12:51:28</t>
         </is>
       </c>
     </row>
@@ -2896,22 +2896,22 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="G13" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="H13" t="n">
         <v>1.26</v>
       </c>
       <c r="I13" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="J13" t="n">
         <v>5.4</v>
       </c>
       <c r="K13" t="n">
-        <v>8.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="L13" t="n">
         <v>1.01</v>
@@ -2923,19 +2923,19 @@
         <v>5.1</v>
       </c>
       <c r="O13" t="n">
-        <v>1.19</v>
+        <v>1.17</v>
       </c>
       <c r="P13" t="n">
-        <v>2.34</v>
+        <v>2.46</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="R13" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="S13" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="T13" t="n">
         <v>1.05</v>
@@ -2944,7 +2944,7 @@
         <v>1.05</v>
       </c>
       <c r="V13" t="n">
-        <v>3.05</v>
+        <v>3.6</v>
       </c>
       <c r="W13" t="n">
         <v>1.07</v>
@@ -3059,7 +3059,7 @@
       </c>
       <c r="BH13" t="inlineStr">
         <is>
-          <t>2026-02-23 10:41:59</t>
+          <t>2026-02-23 12:51:28</t>
         </is>
       </c>
     </row>
@@ -3090,19 +3090,19 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="G14" t="n">
         <v>4.4</v>
       </c>
       <c r="H14" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="I14" t="n">
-        <v>2.38</v>
+        <v>2.16</v>
       </c>
       <c r="J14" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="K14" t="n">
         <v>950</v>
@@ -3117,13 +3117,13 @@
         <v>4.4</v>
       </c>
       <c r="O14" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="P14" t="n">
         <v>2.18</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="R14" t="n">
         <v>1.56</v>
@@ -3138,7 +3138,7 @@
         <v>1.05</v>
       </c>
       <c r="V14" t="n">
-        <v>1.72</v>
+        <v>1.87</v>
       </c>
       <c r="W14" t="n">
         <v>1.29</v>
@@ -3222,7 +3222,7 @@
         <v>16.5</v>
       </c>
       <c r="AX14" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="AY14" t="n">
         <v>13.5</v>
@@ -3237,23 +3237,23 @@
         <v>4.2</v>
       </c>
       <c r="BC14" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="BD14" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="BE14" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="BF14" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="BG14" t="n">
-        <v>8.800000000000001</v>
+        <v>7.6</v>
       </c>
       <c r="BH14" t="inlineStr">
         <is>
-          <t>2026-02-23 10:41:59</t>
+          <t>2026-02-23 12:51:28</t>
         </is>
       </c>
     </row>
@@ -3335,7 +3335,7 @@
         <v>1.15</v>
       </c>
       <c r="W15" t="n">
-        <v>2.88</v>
+        <v>2.86</v>
       </c>
       <c r="X15" t="n">
         <v>38</v>
@@ -3386,7 +3386,7 @@
         <v>90</v>
       </c>
       <c r="AN15" t="n">
-        <v>5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AO15" t="n">
         <v>75</v>
@@ -3398,10 +3398,10 @@
         <v>5.8</v>
       </c>
       <c r="AR15" t="n">
-        <v>5.5</v>
+        <v>2.68</v>
       </c>
       <c r="AS15" t="n">
-        <v>5.7</v>
+        <v>2.72</v>
       </c>
       <c r="AT15" t="n">
         <v>11.5</v>
@@ -3413,7 +3413,7 @@
         <v>20</v>
       </c>
       <c r="AW15" t="n">
-        <v>5.5</v>
+        <v>2.68</v>
       </c>
       <c r="AX15" t="n">
         <v>10</v>
@@ -3425,7 +3425,7 @@
         <v>17</v>
       </c>
       <c r="BA15" t="n">
-        <v>5.5</v>
+        <v>2.68</v>
       </c>
       <c r="BB15" t="n">
         <v>12</v>
@@ -3437,17 +3437,17 @@
         <v>19.5</v>
       </c>
       <c r="BE15" t="n">
-        <v>5.5</v>
+        <v>2.68</v>
       </c>
       <c r="BF15" t="n">
         <v>4.3</v>
       </c>
       <c r="BG15" t="n">
-        <v>5.4</v>
+        <v>2.66</v>
       </c>
       <c r="BH15" t="inlineStr">
         <is>
-          <t>2026-02-23 10:41:59</t>
+          <t>2026-02-23 12:51:28</t>
         </is>
       </c>
     </row>
@@ -3490,7 +3490,7 @@
         <v>1.56</v>
       </c>
       <c r="J16" t="n">
-        <v>3.95</v>
+        <v>3.75</v>
       </c>
       <c r="K16" t="n">
         <v>4.5</v>
@@ -3505,19 +3505,19 @@
         <v>3</v>
       </c>
       <c r="O16" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="P16" t="n">
-        <v>1.68</v>
+        <v>1.56</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="R16" t="n">
         <v>1.25</v>
       </c>
       <c r="S16" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="T16" t="n">
         <v>2.38</v>
@@ -3565,7 +3565,7 @@
         <v>40</v>
       </c>
       <c r="AI16" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AJ16" t="n">
         <v>510</v>
@@ -3580,7 +3580,7 @@
         <v>320</v>
       </c>
       <c r="AN16" t="n">
-        <v>510</v>
+        <v>500</v>
       </c>
       <c r="AO16" t="n">
         <v>13</v>
@@ -3616,7 +3616,7 @@
         <v>5</v>
       </c>
       <c r="AZ16" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="BA16" t="n">
         <v>5.2</v>
@@ -3637,11 +3637,11 @@
         <v>5.6</v>
       </c>
       <c r="BG16" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BH16" t="inlineStr">
         <is>
-          <t>2026-02-23 10:41:59</t>
+          <t>2026-02-23 12:51:28</t>
         </is>
       </c>
     </row>
@@ -3672,19 +3672,19 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="G17" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="H17" t="n">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="I17" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="J17" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K17" t="n">
         <v>4.1</v>
@@ -3702,7 +3702,7 @@
         <v>1.5</v>
       </c>
       <c r="P17" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="Q17" t="n">
         <v>2.48</v>
@@ -3711,19 +3711,19 @@
         <v>1.21</v>
       </c>
       <c r="S17" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="T17" t="n">
         <v>2.48</v>
       </c>
       <c r="U17" t="n">
-        <v>1.51</v>
+        <v>1.58</v>
       </c>
       <c r="V17" t="n">
         <v>1.11</v>
       </c>
       <c r="W17" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="X17" t="n">
         <v>11.5</v>
@@ -3765,7 +3765,7 @@
         <v>16</v>
       </c>
       <c r="AK17" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AL17" t="n">
         <v>70</v>
@@ -3780,46 +3780,46 @@
         <v>1000</v>
       </c>
       <c r="AP17" t="n">
-        <v>8.800000000000001</v>
+        <v>4.7</v>
       </c>
       <c r="AQ17" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="AR17" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AS17" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="AT17" t="n">
         <v>5.2</v>
       </c>
       <c r="AU17" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="AV17" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="AW17" t="n">
-        <v>3.7</v>
+        <v>7</v>
       </c>
       <c r="AX17" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="AY17" t="n">
-        <v>9.6</v>
+        <v>4.9</v>
       </c>
       <c r="AZ17" t="n">
         <v>6</v>
       </c>
       <c r="BA17" t="n">
-        <v>3.7</v>
+        <v>7</v>
       </c>
       <c r="BB17" t="n">
         <v>12.5</v>
       </c>
       <c r="BC17" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="BD17" t="n">
         <v>6.6</v>
@@ -3828,14 +3828,14 @@
         <v>3.7</v>
       </c>
       <c r="BF17" t="n">
-        <v>5.3</v>
+        <v>12</v>
       </c>
       <c r="BG17" t="n">
         <v>3.7</v>
       </c>
       <c r="BH17" t="inlineStr">
         <is>
-          <t>2026-02-23 10:41:59</t>
+          <t>2026-02-23 12:51:28</t>
         </is>
       </c>
     </row>
@@ -3866,22 +3866,22 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>3.15</v>
+        <v>3.6</v>
       </c>
       <c r="G18" t="n">
         <v>4.8</v>
       </c>
       <c r="H18" t="n">
-        <v>2.14</v>
+        <v>2.38</v>
       </c>
       <c r="I18" t="n">
-        <v>2.94</v>
+        <v>2.92</v>
       </c>
       <c r="J18" t="n">
         <v>2.56</v>
       </c>
       <c r="K18" t="n">
-        <v>3.55</v>
+        <v>3.35</v>
       </c>
       <c r="L18" t="n">
         <v>1.01</v>
@@ -3893,7 +3893,7 @@
         <v>2</v>
       </c>
       <c r="O18" t="n">
-        <v>1.12</v>
+        <v>1.62</v>
       </c>
       <c r="P18" t="n">
         <v>1.35</v>
@@ -4029,7 +4029,7 @@
       </c>
       <c r="BH18" t="inlineStr">
         <is>
-          <t>2026-02-23 10:41:59</t>
+          <t>2026-02-23 12:51:28</t>
         </is>
       </c>
     </row>
@@ -4063,22 +4063,22 @@
         <v>2.22</v>
       </c>
       <c r="G19" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="H19" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="I19" t="n">
         <v>3.6</v>
       </c>
       <c r="J19" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="K19" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="L19" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="M19" t="n">
         <v>1.06</v>
@@ -4093,7 +4093,7 @@
         <v>1.96</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="R19" t="n">
         <v>1.37</v>
@@ -4102,22 +4102,22 @@
         <v>3.25</v>
       </c>
       <c r="T19" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="U19" t="n">
         <v>2.18</v>
       </c>
       <c r="V19" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="W19" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="X19" t="n">
-        <v>18.5</v>
+        <v>970</v>
       </c>
       <c r="Y19" t="n">
-        <v>970</v>
+        <v>16.5</v>
       </c>
       <c r="Z19" t="n">
         <v>30</v>
@@ -4129,31 +4129,31 @@
         <v>11</v>
       </c>
       <c r="AC19" t="n">
-        <v>8.4</v>
+        <v>10</v>
       </c>
       <c r="AD19" t="n">
-        <v>970</v>
+        <v>17</v>
       </c>
       <c r="AE19" t="n">
+        <v>40</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI19" t="n">
         <v>48</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>970</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>970</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>60</v>
       </c>
       <c r="AJ19" t="n">
         <v>36</v>
       </c>
       <c r="AK19" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="AL19" t="n">
         <v>46</v>
@@ -4168,16 +4168,16 @@
         <v>46</v>
       </c>
       <c r="AP19" t="n">
-        <v>13</v>
+        <v>3.85</v>
       </c>
       <c r="AQ19" t="n">
-        <v>9.800000000000001</v>
+        <v>3.95</v>
       </c>
       <c r="AR19" t="n">
-        <v>6.6</v>
+        <v>4.4</v>
       </c>
       <c r="AS19" t="n">
-        <v>7.6</v>
+        <v>4.8</v>
       </c>
       <c r="AT19" t="n">
         <v>9.4</v>
@@ -4186,44 +4186,44 @@
         <v>7.2</v>
       </c>
       <c r="AV19" t="n">
-        <v>10</v>
+        <v>3.95</v>
       </c>
       <c r="AW19" t="n">
-        <v>7.2</v>
+        <v>4.5</v>
       </c>
       <c r="AX19" t="n">
         <v>11.5</v>
       </c>
       <c r="AY19" t="n">
-        <v>9.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AZ19" t="n">
-        <v>5.6</v>
+        <v>4.1</v>
       </c>
       <c r="BA19" t="n">
-        <v>7.2</v>
+        <v>4.6</v>
       </c>
       <c r="BB19" t="n">
-        <v>6.8</v>
+        <v>4.5</v>
       </c>
       <c r="BC19" t="n">
-        <v>20</v>
+        <v>4.4</v>
       </c>
       <c r="BD19" t="n">
-        <v>30</v>
+        <v>4.6</v>
       </c>
       <c r="BE19" t="n">
-        <v>7.8</v>
+        <v>4.9</v>
       </c>
       <c r="BF19" t="n">
         <v>12.5</v>
       </c>
       <c r="BG19" t="n">
-        <v>26</v>
+        <v>4.6</v>
       </c>
       <c r="BH19" t="inlineStr">
         <is>
-          <t>2026-02-23 10:41:59</t>
+          <t>2026-02-23 12:51:28</t>
         </is>
       </c>
     </row>
@@ -4257,7 +4257,7 @@
         <v>3.15</v>
       </c>
       <c r="G20" t="n">
-        <v>4.1</v>
+        <v>3.75</v>
       </c>
       <c r="H20" t="n">
         <v>2.08</v>
@@ -4266,10 +4266,10 @@
         <v>2.34</v>
       </c>
       <c r="J20" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="K20" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L20" t="n">
         <v>1.29</v>
@@ -4284,10 +4284,10 @@
         <v>1.23</v>
       </c>
       <c r="P20" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="R20" t="n">
         <v>1.46</v>
@@ -4296,7 +4296,7 @@
         <v>2.52</v>
       </c>
       <c r="T20" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="U20" t="n">
         <v>2.3</v>
@@ -4305,7 +4305,7 @@
         <v>1.74</v>
       </c>
       <c r="W20" t="n">
-        <v>1.32</v>
+        <v>1.36</v>
       </c>
       <c r="X20" t="n">
         <v>23</v>
@@ -4417,7 +4417,7 @@
       </c>
       <c r="BH20" t="inlineStr">
         <is>
-          <t>2026-02-23 10:41:59</t>
+          <t>2026-02-23 12:51:28</t>
         </is>
       </c>
     </row>
@@ -4460,7 +4460,7 @@
         <v>5.6</v>
       </c>
       <c r="J21" t="n">
-        <v>3.35</v>
+        <v>3.1</v>
       </c>
       <c r="K21" t="n">
         <v>4.8</v>
@@ -4481,13 +4481,13 @@
         <v>2.16</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="R21" t="n">
         <v>1.52</v>
       </c>
       <c r="S21" t="n">
-        <v>2.38</v>
+        <v>2.02</v>
       </c>
       <c r="T21" t="n">
         <v>1.49</v>
@@ -4502,116 +4502,116 @@
         <v>2.1</v>
       </c>
       <c r="X21" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="Y21" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="Z21" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AA21" t="n">
         <v>1000</v>
       </c>
       <c r="AB21" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AC21" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AD21" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AE21" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AF21" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AG21" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AH21" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AI21" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AJ21" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AK21" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AL21" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AM21" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AN21" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AO21" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AP21" t="n">
-        <v>1.01</v>
+        <v>4.3</v>
       </c>
       <c r="AQ21" t="n">
-        <v>1.01</v>
+        <v>4.2</v>
       </c>
       <c r="AR21" t="n">
-        <v>1.01</v>
+        <v>4.6</v>
       </c>
       <c r="AS21" t="n">
-        <v>1.01</v>
+        <v>4.9</v>
       </c>
       <c r="AT21" t="n">
-        <v>1.01</v>
+        <v>3.7</v>
       </c>
       <c r="AU21" t="n">
-        <v>1.01</v>
+        <v>3.55</v>
       </c>
       <c r="AV21" t="n">
-        <v>1.01</v>
+        <v>4.1</v>
       </c>
       <c r="AW21" t="n">
-        <v>1.01</v>
+        <v>4.7</v>
       </c>
       <c r="AX21" t="n">
-        <v>1.01</v>
+        <v>3.85</v>
       </c>
       <c r="AY21" t="n">
-        <v>1.01</v>
+        <v>3.6</v>
       </c>
       <c r="AZ21" t="n">
-        <v>1.01</v>
+        <v>4.1</v>
       </c>
       <c r="BA21" t="n">
-        <v>1.01</v>
+        <v>4.7</v>
       </c>
       <c r="BB21" t="n">
-        <v>1.01</v>
+        <v>4.2</v>
       </c>
       <c r="BC21" t="n">
-        <v>1.01</v>
+        <v>4.1</v>
       </c>
       <c r="BD21" t="n">
-        <v>1.01</v>
+        <v>4.4</v>
       </c>
       <c r="BE21" t="n">
-        <v>1.01</v>
+        <v>4.8</v>
       </c>
       <c r="BF21" t="n">
-        <v>1.01</v>
+        <v>3.35</v>
       </c>
       <c r="BG21" t="n">
-        <v>1.01</v>
+        <v>4.7</v>
       </c>
       <c r="BH21" t="inlineStr">
         <is>
-          <t>2026-02-23 10:41:59</t>
+          <t>2026-02-23 12:51:28</t>
         </is>
       </c>
     </row>
@@ -4660,34 +4660,34 @@
         <v>4.3</v>
       </c>
       <c r="L22" t="n">
-        <v>1.23</v>
+        <v>1.28</v>
       </c>
       <c r="M22" t="n">
         <v>1.05</v>
       </c>
       <c r="N22" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="O22" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="P22" t="n">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.7</v>
+        <v>1.61</v>
       </c>
       <c r="R22" t="n">
         <v>1.44</v>
       </c>
       <c r="S22" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="T22" t="n">
         <v>1.63</v>
       </c>
       <c r="U22" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="V22" t="n">
         <v>1.83</v>
@@ -4696,7 +4696,7 @@
         <v>1.35</v>
       </c>
       <c r="X22" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="Y22" t="n">
         <v>14</v>
@@ -4753,59 +4753,59 @@
         <v>3.65</v>
       </c>
       <c r="AQ22" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="AR22" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AS22" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AX22" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AY22" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AZ22" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="BA22" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BB22" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BC22" t="n">
         <v>3.95</v>
       </c>
-      <c r="AT22" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AU22" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="AV22" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="AW22" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="AX22" t="n">
+      <c r="BD22" t="n">
+        <v>4</v>
+      </c>
+      <c r="BE22" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BF22" t="n">
         <v>3.9</v>
       </c>
-      <c r="AY22" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="AZ22" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="BA22" t="n">
-        <v>4</v>
-      </c>
-      <c r="BB22" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="BC22" t="n">
-        <v>4</v>
-      </c>
-      <c r="BD22" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="BE22" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="BF22" t="n">
-        <v>4</v>
-      </c>
       <c r="BG22" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="BH22" t="inlineStr">
         <is>
-          <t>2026-02-23 10:41:59</t>
+          <t>2026-02-23 12:51:28</t>
         </is>
       </c>
     </row>
@@ -4854,7 +4854,7 @@
         <v>3.3</v>
       </c>
       <c r="L23" t="n">
-        <v>1.46</v>
+        <v>1.4</v>
       </c>
       <c r="M23" t="n">
         <v>1.09</v>
@@ -4866,10 +4866,10 @@
         <v>1.4</v>
       </c>
       <c r="P23" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="R23" t="n">
         <v>1.26</v>
@@ -4878,7 +4878,7 @@
         <v>4.1</v>
       </c>
       <c r="T23" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="U23" t="n">
         <v>1.94</v>
@@ -4899,10 +4899,10 @@
         <v>19</v>
       </c>
       <c r="AA23" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AB23" t="n">
-        <v>13.5</v>
+        <v>970</v>
       </c>
       <c r="AC23" t="n">
         <v>8.800000000000001</v>
@@ -4911,19 +4911,19 @@
         <v>14.5</v>
       </c>
       <c r="AE23" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AF23" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AG23" t="n">
-        <v>17.5</v>
+        <v>970</v>
       </c>
       <c r="AH23" t="n">
         <v>23</v>
       </c>
       <c r="AI23" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AJ23" t="n">
         <v>75</v>
@@ -4950,56 +4950,56 @@
         <v>7.8</v>
       </c>
       <c r="AR23" t="n">
-        <v>3.9</v>
+        <v>4.5</v>
       </c>
       <c r="AS23" t="n">
-        <v>4.4</v>
+        <v>5</v>
       </c>
       <c r="AT23" t="n">
-        <v>3.6</v>
+        <v>3.95</v>
       </c>
       <c r="AU23" t="n">
-        <v>3.15</v>
+        <v>3.55</v>
       </c>
       <c r="AV23" t="n">
         <v>10</v>
       </c>
       <c r="AW23" t="n">
-        <v>4.3</v>
+        <v>22</v>
       </c>
       <c r="AX23" t="n">
-        <v>3.95</v>
+        <v>4.4</v>
       </c>
       <c r="AY23" t="n">
-        <v>3.85</v>
+        <v>4.1</v>
       </c>
       <c r="AZ23" t="n">
-        <v>3.8</v>
+        <v>4.4</v>
       </c>
       <c r="BA23" t="n">
-        <v>4.2</v>
+        <v>4.9</v>
       </c>
       <c r="BB23" t="n">
-        <v>4.3</v>
+        <v>5</v>
       </c>
       <c r="BC23" t="n">
-        <v>4.2</v>
+        <v>4.8</v>
       </c>
       <c r="BD23" t="n">
-        <v>4.3</v>
+        <v>40</v>
       </c>
       <c r="BE23" t="n">
-        <v>4.3</v>
+        <v>5.2</v>
       </c>
       <c r="BF23" t="n">
-        <v>4.2</v>
+        <v>34</v>
       </c>
       <c r="BG23" t="n">
         <v>20</v>
       </c>
       <c r="BH23" t="inlineStr">
         <is>
-          <t>2026-02-23 10:41:59</t>
+          <t>2026-02-23 12:51:28</t>
         </is>
       </c>
     </row>
@@ -5036,16 +5036,16 @@
         <v>8.6</v>
       </c>
       <c r="H24" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="I24" t="n">
         <v>1.48</v>
       </c>
       <c r="J24" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="K24" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="L24" t="n">
         <v>1.01</v>
@@ -5150,22 +5150,22 @@
         <v>2.36</v>
       </c>
       <c r="AT24" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="AU24" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="AV24" t="n">
-        <v>2.28</v>
+        <v>6.6</v>
       </c>
       <c r="AW24" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="AX24" t="n">
         <v>2.64</v>
       </c>
       <c r="AY24" t="n">
-        <v>2.54</v>
+        <v>3.75</v>
       </c>
       <c r="AZ24" t="n">
         <v>2.5</v>
@@ -5177,7 +5177,7 @@
         <v>2.7</v>
       </c>
       <c r="BC24" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="BD24" t="n">
         <v>2.7</v>
@@ -5193,7 +5193,7 @@
       </c>
       <c r="BH24" t="inlineStr">
         <is>
-          <t>2026-02-23 10:41:59</t>
+          <t>2026-02-23 12:51:28</t>
         </is>
       </c>
     </row>
@@ -5263,7 +5263,7 @@
         <v>1.5</v>
       </c>
       <c r="S25" t="n">
-        <v>2.52</v>
+        <v>2.62</v>
       </c>
       <c r="T25" t="n">
         <v>1.61</v>
@@ -5272,7 +5272,7 @@
         <v>2.2</v>
       </c>
       <c r="V25" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="W25" t="n">
         <v>1.79</v>
@@ -5320,7 +5320,7 @@
         <v>25</v>
       </c>
       <c r="AL25" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AM25" t="n">
         <v>1000</v>
@@ -5332,19 +5332,19 @@
         <v>1000</v>
       </c>
       <c r="AP25" t="n">
-        <v>15.5</v>
+        <v>4.3</v>
       </c>
       <c r="AQ25" t="n">
         <v>4.2</v>
       </c>
       <c r="AR25" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="AS25" t="n">
         <v>4.7</v>
       </c>
       <c r="AT25" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="AU25" t="n">
         <v>8</v>
@@ -5353,7 +5353,7 @@
         <v>4.1</v>
       </c>
       <c r="AW25" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="AX25" t="n">
         <v>4.2</v>
@@ -5365,10 +5365,10 @@
         <v>4.3</v>
       </c>
       <c r="BA25" t="n">
-        <v>5.3</v>
+        <v>4.9</v>
       </c>
       <c r="BB25" t="n">
-        <v>20</v>
+        <v>4.5</v>
       </c>
       <c r="BC25" t="n">
         <v>4.3</v>
@@ -5377,7 +5377,7 @@
         <v>5</v>
       </c>
       <c r="BE25" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="BF25" t="n">
         <v>9.6</v>
@@ -5387,7 +5387,7 @@
       </c>
       <c r="BH25" t="inlineStr">
         <is>
-          <t>2026-02-23 10:41:59</t>
+          <t>2026-02-23 12:51:28</t>
         </is>
       </c>
     </row>
@@ -5418,7 +5418,7 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="G26" t="n">
         <v>5.9</v>
@@ -5430,37 +5430,37 @@
         <v>2.02</v>
       </c>
       <c r="J26" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="K26" t="n">
         <v>4.5</v>
       </c>
       <c r="L26" t="n">
-        <v>1.36</v>
+        <v>1.41</v>
       </c>
       <c r="M26" t="n">
         <v>1.07</v>
       </c>
       <c r="N26" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="O26" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="P26" t="n">
         <v>1.85</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="R26" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="S26" t="n">
         <v>3.25</v>
       </c>
       <c r="T26" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="U26" t="n">
         <v>1.96</v>
@@ -5469,7 +5469,7 @@
         <v>1.99</v>
       </c>
       <c r="W26" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="X26" t="n">
         <v>970</v>
@@ -5529,25 +5529,25 @@
         <v>10.5</v>
       </c>
       <c r="AQ26" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="AR26" t="n">
         <v>3.7</v>
       </c>
       <c r="AS26" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="AT26" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="AU26" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="AV26" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="AW26" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="AX26" t="n">
         <v>4.6</v>
@@ -5565,7 +5565,7 @@
         <v>5</v>
       </c>
       <c r="BC26" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="BD26" t="n">
         <v>4.9</v>
@@ -5577,11 +5577,11 @@
         <v>4.9</v>
       </c>
       <c r="BG26" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="BH26" t="inlineStr">
         <is>
-          <t>2026-02-23 10:41:59</t>
+          <t>2026-02-23 12:51:28</t>
         </is>
       </c>
     </row>
@@ -5612,7 +5612,7 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="G27" t="n">
         <v>2.54</v>
@@ -5636,25 +5636,25 @@
         <v>1.05</v>
       </c>
       <c r="N27" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="O27" t="n">
         <v>1.24</v>
       </c>
       <c r="P27" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.61</v>
+        <v>1.72</v>
       </c>
       <c r="R27" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="S27" t="n">
-        <v>2.74</v>
+        <v>2.56</v>
       </c>
       <c r="T27" t="n">
-        <v>1.6</v>
+        <v>1.63</v>
       </c>
       <c r="U27" t="n">
         <v>2.3</v>
@@ -5669,7 +5669,7 @@
         <v>23</v>
       </c>
       <c r="Y27" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="Z27" t="n">
         <v>27</v>
@@ -5681,7 +5681,7 @@
         <v>15.5</v>
       </c>
       <c r="AC27" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AD27" t="n">
         <v>16.5</v>
@@ -5729,7 +5729,7 @@
         <v>19</v>
       </c>
       <c r="AS27" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="AT27" t="n">
         <v>9.4</v>
@@ -5741,7 +5741,7 @@
         <v>11.5</v>
       </c>
       <c r="AW27" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="AX27" t="n">
         <v>12.5</v>
@@ -5753,7 +5753,7 @@
         <v>13</v>
       </c>
       <c r="BA27" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="BB27" t="n">
         <v>4</v>
@@ -5765,7 +5765,7 @@
         <v>4</v>
       </c>
       <c r="BE27" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="BF27" t="n">
         <v>11.5</v>
@@ -5775,7 +5775,7 @@
       </c>
       <c r="BH27" t="inlineStr">
         <is>
-          <t>2026-02-23 10:41:59</t>
+          <t>2026-02-23 12:51:28</t>
         </is>
       </c>
     </row>
@@ -5836,16 +5836,16 @@
         <v>1.16</v>
       </c>
       <c r="P28" t="n">
-        <v>2.62</v>
+        <v>2.68</v>
       </c>
       <c r="Q28" t="n">
         <v>1.44</v>
       </c>
       <c r="R28" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="S28" t="n">
-        <v>2.14</v>
+        <v>2.08</v>
       </c>
       <c r="T28" t="n">
         <v>1.5</v>
@@ -5908,46 +5908,46 @@
         <v>65</v>
       </c>
       <c r="AN28" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AO28" t="n">
         <v>9.6</v>
       </c>
       <c r="AP28" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="AQ28" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="AR28" t="n">
-        <v>3.5</v>
+        <v>11.5</v>
       </c>
       <c r="AS28" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AT28" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AU28" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AV28" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AW28" t="n">
         <v>3.7</v>
       </c>
-      <c r="AT28" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="AU28" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AV28" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AW28" t="n">
-        <v>3.6</v>
-      </c>
       <c r="AX28" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="AY28" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AZ28" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="BA28" t="n">
         <v>3.9</v>
-      </c>
-      <c r="AY28" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="AZ28" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="BA28" t="n">
-        <v>3.75</v>
       </c>
       <c r="BB28" t="n">
         <v>4.1</v>
@@ -5956,20 +5956,20 @@
         <v>3.95</v>
       </c>
       <c r="BD28" t="n">
-        <v>3.95</v>
+        <v>4.4</v>
       </c>
       <c r="BE28" t="n">
         <v>4</v>
       </c>
       <c r="BF28" t="n">
-        <v>3.75</v>
+        <v>4.1</v>
       </c>
       <c r="BG28" t="n">
         <v>6</v>
       </c>
       <c r="BH28" t="inlineStr">
         <is>
-          <t>2026-02-23 10:41:59</t>
+          <t>2026-02-23 12:51:28</t>
         </is>
       </c>
     </row>
@@ -6000,7 +6000,7 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="G29" t="n">
         <v>2.4</v>
@@ -6009,7 +6009,7 @@
         <v>3.35</v>
       </c>
       <c r="I29" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="J29" t="n">
         <v>3.3</v>
@@ -6018,7 +6018,7 @@
         <v>3.9</v>
       </c>
       <c r="L29" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="M29" t="n">
         <v>1.07</v>
@@ -6030,16 +6030,16 @@
         <v>1.32</v>
       </c>
       <c r="P29" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="R29" t="n">
         <v>1.33</v>
       </c>
       <c r="S29" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="T29" t="n">
         <v>1.75</v>
@@ -6108,7 +6108,7 @@
         <v>1000</v>
       </c>
       <c r="AP29" t="n">
-        <v>10.5</v>
+        <v>3.85</v>
       </c>
       <c r="AQ29" t="n">
         <v>10</v>
@@ -6120,10 +6120,10 @@
         <v>4.7</v>
       </c>
       <c r="AT29" t="n">
-        <v>8.199999999999999</v>
+        <v>7.4</v>
       </c>
       <c r="AU29" t="n">
-        <v>6.8</v>
+        <v>6.2</v>
       </c>
       <c r="AV29" t="n">
         <v>11.5</v>
@@ -6135,10 +6135,10 @@
         <v>11</v>
       </c>
       <c r="AY29" t="n">
-        <v>8.6</v>
+        <v>9.4</v>
       </c>
       <c r="AZ29" t="n">
-        <v>13.5</v>
+        <v>4</v>
       </c>
       <c r="BA29" t="n">
         <v>4.7</v>
@@ -6150,7 +6150,7 @@
         <v>18.5</v>
       </c>
       <c r="BD29" t="n">
-        <v>29</v>
+        <v>4.5</v>
       </c>
       <c r="BE29" t="n">
         <v>4.8</v>
@@ -6163,7 +6163,7 @@
       </c>
       <c r="BH29" t="inlineStr">
         <is>
-          <t>2026-02-23 10:41:59</t>
+          <t>2026-02-23 12:51:28</t>
         </is>
       </c>
     </row>
@@ -6200,7 +6200,7 @@
         <v>1.66</v>
       </c>
       <c r="H30" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="I30" t="n">
         <v>6.4</v>
@@ -6209,7 +6209,7 @@
         <v>4.2</v>
       </c>
       <c r="K30" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="L30" t="n">
         <v>1.28</v>
@@ -6221,7 +6221,7 @@
         <v>4.7</v>
       </c>
       <c r="O30" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="P30" t="n">
         <v>2.28</v>
@@ -6254,10 +6254,10 @@
         <v>970</v>
       </c>
       <c r="Z30" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AA30" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
       <c r="AB30" t="n">
         <v>12</v>
@@ -6281,7 +6281,7 @@
         <v>970</v>
       </c>
       <c r="AI30" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AJ30" t="n">
         <v>970</v>
@@ -6302,62 +6302,62 @@
         <v>90</v>
       </c>
       <c r="AP30" t="n">
-        <v>4.6</v>
+        <v>4.3</v>
       </c>
       <c r="AQ30" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AR30" t="n">
         <v>4.8</v>
       </c>
-      <c r="AR30" t="n">
-        <v>4.9</v>
-      </c>
       <c r="AS30" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="AT30" t="n">
-        <v>3.95</v>
+        <v>3.7</v>
       </c>
       <c r="AU30" t="n">
-        <v>3.95</v>
+        <v>3.75</v>
       </c>
       <c r="AV30" t="n">
-        <v>4.7</v>
+        <v>4.4</v>
       </c>
       <c r="AW30" t="n">
-        <v>5.4</v>
+        <v>5</v>
       </c>
       <c r="AX30" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AY30" t="n">
+        <v>4</v>
+      </c>
+      <c r="AZ30" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BA30" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB30" t="n">
         <v>4.1</v>
       </c>
-      <c r="AY30" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="AZ30" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="BA30" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="BB30" t="n">
-        <v>4.4</v>
-      </c>
       <c r="BC30" t="n">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="BD30" t="n">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="BE30" t="n">
-        <v>5.3</v>
+        <v>5</v>
       </c>
       <c r="BF30" t="n">
         <v>5.9</v>
       </c>
       <c r="BG30" t="n">
-        <v>5.2</v>
+        <v>4.9</v>
       </c>
       <c r="BH30" t="inlineStr">
         <is>
-          <t>2026-02-23 10:41:59</t>
+          <t>2026-02-23 12:51:28</t>
         </is>
       </c>
     </row>
@@ -6394,7 +6394,7 @@
         <v>2.36</v>
       </c>
       <c r="H31" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I31" t="n">
         <v>4.5</v>
@@ -6406,22 +6406,22 @@
         <v>3.1</v>
       </c>
       <c r="L31" t="n">
-        <v>1.65</v>
+        <v>1.01</v>
       </c>
       <c r="M31" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="N31" t="n">
         <v>2.36</v>
       </c>
       <c r="O31" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="P31" t="n">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="Q31" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="R31" t="n">
         <v>1.15</v>
@@ -6430,7 +6430,7 @@
         <v>6.2</v>
       </c>
       <c r="T31" t="n">
-        <v>2.3</v>
+        <v>2.24</v>
       </c>
       <c r="U31" t="n">
         <v>1.64</v>
@@ -6445,10 +6445,10 @@
         <v>9</v>
       </c>
       <c r="Y31" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="Z31" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="AA31" t="n">
         <v>140</v>
@@ -6457,46 +6457,46 @@
         <v>7.8</v>
       </c>
       <c r="AC31" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD31" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AE31" t="n">
         <v>100</v>
       </c>
       <c r="AF31" t="n">
-        <v>13</v>
+        <v>15.5</v>
       </c>
       <c r="AG31" t="n">
         <v>15</v>
       </c>
       <c r="AH31" t="n">
-        <v>970</v>
+        <v>34</v>
       </c>
       <c r="AI31" t="n">
         <v>140</v>
       </c>
       <c r="AJ31" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AK31" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AL31" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AM31" t="n">
         <v>310</v>
       </c>
       <c r="AN31" t="n">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AO31" t="n">
         <v>170</v>
       </c>
       <c r="AP31" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="AQ31" t="n">
         <v>8.6</v>
@@ -6505,19 +6505,19 @@
         <v>19</v>
       </c>
       <c r="AS31" t="n">
-        <v>5.5</v>
+        <v>4.3</v>
       </c>
       <c r="AT31" t="n">
         <v>5.8</v>
       </c>
       <c r="AU31" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="AV31" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AW31" t="n">
-        <v>5.4</v>
+        <v>4.2</v>
       </c>
       <c r="AX31" t="n">
         <v>10.5</v>
@@ -6526,32 +6526,32 @@
         <v>11</v>
       </c>
       <c r="AZ31" t="n">
-        <v>4.8</v>
+        <v>3.9</v>
       </c>
       <c r="BA31" t="n">
-        <v>5.5</v>
+        <v>4.3</v>
       </c>
       <c r="BB31" t="n">
-        <v>4.9</v>
+        <v>4</v>
       </c>
       <c r="BC31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BD31" t="n">
-        <v>5.3</v>
+        <v>4.2</v>
       </c>
       <c r="BE31" t="n">
-        <v>5.6</v>
+        <v>4.3</v>
       </c>
       <c r="BF31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BG31" t="n">
-        <v>5.5</v>
+        <v>4.3</v>
       </c>
       <c r="BH31" t="inlineStr">
         <is>
-          <t>2026-02-23 10:41:59</t>
+          <t>2026-02-23 12:51:28</t>
         </is>
       </c>
     </row>
@@ -6582,16 +6582,16 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="G32" t="n">
         <v>1.17</v>
       </c>
       <c r="H32" t="n">
+        <v>20</v>
+      </c>
+      <c r="I32" t="n">
         <v>21</v>
-      </c>
-      <c r="I32" t="n">
-        <v>23</v>
       </c>
       <c r="J32" t="n">
         <v>10.5</v>
@@ -6600,46 +6600,46 @@
         <v>11.5</v>
       </c>
       <c r="L32" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="M32" t="n">
         <v>1.01</v>
       </c>
       <c r="N32" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="O32" t="n">
         <v>1.1</v>
       </c>
       <c r="P32" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="R32" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="S32" t="n">
         <v>1.77</v>
       </c>
       <c r="T32" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="U32" t="n">
         <v>1.94</v>
       </c>
       <c r="V32" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="W32" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="X32" t="n">
         <v>60</v>
       </c>
       <c r="Y32" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="Z32" t="n">
         <v>220</v>
@@ -6648,7 +6648,7 @@
         <v>1000</v>
       </c>
       <c r="AB32" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AC32" t="n">
         <v>26</v>
@@ -6660,22 +6660,22 @@
         <v>330</v>
       </c>
       <c r="AF32" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AG32" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AH32" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AI32" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
       <c r="AJ32" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AK32" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AL32" t="n">
         <v>36</v>
@@ -6693,13 +6693,13 @@
         <v>50</v>
       </c>
       <c r="AQ32" t="n">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="AR32" t="n">
         <v>48</v>
       </c>
       <c r="AS32" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AT32" t="n">
         <v>14.5</v>
@@ -6708,25 +6708,25 @@
         <v>23</v>
       </c>
       <c r="AV32" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AW32" t="n">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="AX32" t="n">
         <v>9.6</v>
       </c>
       <c r="AY32" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AZ32" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="BA32" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="BB32" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="BC32" t="n">
         <v>12</v>
@@ -6735,17 +6735,17 @@
         <v>30</v>
       </c>
       <c r="BE32" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="BF32" t="n">
-        <v>2.46</v>
+        <v>2.42</v>
       </c>
       <c r="BG32" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="BH32" t="inlineStr">
         <is>
-          <t>2026-02-23 10:41:59</t>
+          <t>2026-02-23 12:51:28</t>
         </is>
       </c>
     </row>
@@ -6779,19 +6779,19 @@
         <v>1.84</v>
       </c>
       <c r="G33" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="H33" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I33" t="n">
         <v>4.6</v>
       </c>
-      <c r="I33" t="n">
-        <v>4.7</v>
-      </c>
       <c r="J33" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="K33" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="L33" t="n">
         <v>1.34</v>
@@ -6806,16 +6806,16 @@
         <v>1.24</v>
       </c>
       <c r="P33" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="R33" t="n">
         <v>1.54</v>
       </c>
       <c r="S33" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="T33" t="n">
         <v>1.7</v>
@@ -6824,13 +6824,13 @@
         <v>2.32</v>
       </c>
       <c r="V33" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="W33" t="n">
         <v>2.16</v>
       </c>
       <c r="X33" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Y33" t="n">
         <v>20</v>
@@ -6851,10 +6851,10 @@
         <v>17.5</v>
       </c>
       <c r="AE33" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AF33" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AG33" t="n">
         <v>10.5</v>
@@ -6863,7 +6863,7 @@
         <v>17</v>
       </c>
       <c r="AI33" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AJ33" t="n">
         <v>20</v>
@@ -6896,10 +6896,10 @@
         <v>75</v>
       </c>
       <c r="AT33" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AU33" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AV33" t="n">
         <v>16.5</v>
@@ -6939,7 +6939,7 @@
       </c>
       <c r="BH33" t="inlineStr">
         <is>
-          <t>2026-02-23 10:41:59</t>
+          <t>2026-02-23 12:51:28</t>
         </is>
       </c>
     </row>
@@ -6970,10 +6970,10 @@
         </is>
       </c>
       <c r="F34" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="G34" t="n">
         <v>1.27</v>
-      </c>
-      <c r="G34" t="n">
-        <v>1.28</v>
       </c>
       <c r="H34" t="n">
         <v>11.5</v>
@@ -7000,7 +7000,7 @@
         <v>1.1</v>
       </c>
       <c r="P34" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="Q34" t="n">
         <v>1.34</v>
@@ -7009,7 +7009,7 @@
         <v>2.12</v>
       </c>
       <c r="S34" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="T34" t="n">
         <v>1.73</v>
@@ -7021,7 +7021,7 @@
         <v>1.09</v>
       </c>
       <c r="W34" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="X34" t="n">
         <v>55</v>
@@ -7048,7 +7048,7 @@
         <v>140</v>
       </c>
       <c r="AF34" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AG34" t="n">
         <v>11.5</v>
@@ -7057,7 +7057,7 @@
         <v>25</v>
       </c>
       <c r="AI34" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AJ34" t="n">
         <v>11.5</v>
@@ -7075,7 +7075,7 @@
         <v>3.2</v>
       </c>
       <c r="AO34" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AP34" t="n">
         <v>42</v>
@@ -7099,7 +7099,7 @@
         <v>38</v>
       </c>
       <c r="AW34" t="n">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="AX34" t="n">
         <v>10.5</v>
@@ -7114,13 +7114,13 @@
         <v>80</v>
       </c>
       <c r="BB34" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="BC34" t="n">
         <v>11.5</v>
       </c>
       <c r="BD34" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BE34" t="n">
         <v>80</v>
@@ -7133,7 +7133,7 @@
       </c>
       <c r="BH34" t="inlineStr">
         <is>
-          <t>2026-02-23 10:41:59</t>
+          <t>2026-02-23 12:51:28</t>
         </is>
       </c>
     </row>
@@ -7164,31 +7164,31 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="G35" t="n">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="H35" t="n">
-        <v>4.8</v>
+        <v>4.4</v>
       </c>
       <c r="I35" t="n">
-        <v>5.7</v>
+        <v>6</v>
       </c>
       <c r="J35" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K35" t="n">
-        <v>3.65</v>
+        <v>4.1</v>
       </c>
       <c r="L35" t="n">
-        <v>1.51</v>
+        <v>1.46</v>
       </c>
       <c r="M35" t="n">
         <v>1.1</v>
       </c>
       <c r="N35" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="O35" t="n">
         <v>1.49</v>
@@ -7197,13 +7197,13 @@
         <v>1.6</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="R35" t="n">
         <v>1.21</v>
       </c>
       <c r="S35" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="T35" t="n">
         <v>2.08</v>
@@ -7212,10 +7212,10 @@
         <v>1.73</v>
       </c>
       <c r="V35" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="W35" t="n">
-        <v>1.94</v>
+        <v>1.98</v>
       </c>
       <c r="X35" t="n">
         <v>10.5</v>
@@ -7224,7 +7224,7 @@
         <v>14.5</v>
       </c>
       <c r="Z35" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AA35" t="n">
         <v>1000</v>
@@ -7236,10 +7236,10 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AD35" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AE35" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AF35" t="n">
         <v>11</v>
@@ -7248,25 +7248,25 @@
         <v>11.5</v>
       </c>
       <c r="AH35" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AI35" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AJ35" t="n">
         <v>24</v>
       </c>
       <c r="AK35" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AL35" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AM35" t="n">
         <v>1000</v>
       </c>
       <c r="AN35" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AO35" t="n">
         <v>1000</v>
@@ -7278,22 +7278,22 @@
         <v>11.5</v>
       </c>
       <c r="AR35" t="n">
-        <v>7.8</v>
+        <v>7.2</v>
       </c>
       <c r="AS35" t="n">
-        <v>9.199999999999999</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AT35" t="n">
         <v>5.8</v>
       </c>
       <c r="AU35" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="AV35" t="n">
         <v>18</v>
       </c>
       <c r="AW35" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AX35" t="n">
         <v>8.800000000000001</v>
@@ -7305,7 +7305,7 @@
         <v>21</v>
       </c>
       <c r="BA35" t="n">
-        <v>9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="BB35" t="n">
         <v>19</v>
@@ -7314,20 +7314,20 @@
         <v>21</v>
       </c>
       <c r="BD35" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="BE35" t="n">
         <v>8.4</v>
-      </c>
-      <c r="BE35" t="n">
-        <v>9.4</v>
       </c>
       <c r="BF35" t="n">
         <v>15.5</v>
       </c>
       <c r="BG35" t="n">
-        <v>9.199999999999999</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="BH35" t="inlineStr">
         <is>
-          <t>2026-02-23 10:41:59</t>
+          <t>2026-02-23 12:51:28</t>
         </is>
       </c>
     </row>
@@ -7358,22 +7358,22 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1.53</v>
+        <v>1.48</v>
       </c>
       <c r="G36" t="n">
-        <v>1.69</v>
+        <v>1.83</v>
       </c>
       <c r="H36" t="n">
-        <v>6.4</v>
+        <v>6</v>
       </c>
       <c r="I36" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J36" t="n">
-        <v>3.4</v>
+        <v>1.1</v>
       </c>
       <c r="K36" t="n">
-        <v>4.5</v>
+        <v>500</v>
       </c>
       <c r="L36" t="n">
         <v>1.01</v>
@@ -7382,7 +7382,7 @@
         <v>1.08</v>
       </c>
       <c r="N36" t="n">
-        <v>3</v>
+        <v>2.72</v>
       </c>
       <c r="O36" t="n">
         <v>1.39</v>
@@ -7391,115 +7391,115 @@
         <v>1.69</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.16</v>
+        <v>2</v>
       </c>
       <c r="R36" t="n">
         <v>1.25</v>
       </c>
       <c r="S36" t="n">
-        <v>4.1</v>
+        <v>3.65</v>
       </c>
       <c r="T36" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="U36" t="n">
         <v>1.67</v>
       </c>
       <c r="V36" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="W36" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="X36" t="n">
         <v>14.5</v>
       </c>
       <c r="Y36" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="Z36" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AA36" t="n">
         <v>1000</v>
       </c>
       <c r="AB36" t="n">
-        <v>6.6</v>
+        <v>7.6</v>
       </c>
       <c r="AC36" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>40</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF36" t="n">
         <v>9.800000000000001</v>
       </c>
-      <c r="AD36" t="n">
-        <v>34</v>
-      </c>
-      <c r="AE36" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF36" t="n">
-        <v>8.6</v>
-      </c>
       <c r="AG36" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="AH36" t="n">
-        <v>970</v>
+        <v>36</v>
       </c>
       <c r="AI36" t="n">
         <v>1000</v>
       </c>
       <c r="AJ36" t="n">
-        <v>15.5</v>
+        <v>17.5</v>
       </c>
       <c r="AK36" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AL36" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AM36" t="n">
         <v>1000</v>
       </c>
       <c r="AN36" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AO36" t="n">
         <v>1000</v>
       </c>
       <c r="AP36" t="n">
-        <v>5.2</v>
+        <v>10</v>
       </c>
       <c r="AQ36" t="n">
         <v>17.5</v>
       </c>
       <c r="AR36" t="n">
-        <v>7.2</v>
+        <v>4.2</v>
       </c>
       <c r="AS36" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AT36" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AU36" t="n">
         <v>8</v>
       </c>
-      <c r="AT36" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="AU36" t="n">
+      <c r="AV36" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AW36" t="n">
         <v>4.4</v>
-      </c>
-      <c r="AV36" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AW36" t="n">
-        <v>7.8</v>
       </c>
       <c r="AX36" t="n">
         <v>7</v>
       </c>
       <c r="AY36" t="n">
-        <v>4.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AZ36" t="n">
-        <v>6.4</v>
+        <v>5</v>
       </c>
       <c r="BA36" t="n">
-        <v>7.8</v>
+        <v>4.4</v>
       </c>
       <c r="BB36" t="n">
         <v>12</v>
@@ -7508,20 +7508,20 @@
         <v>16.5</v>
       </c>
       <c r="BD36" t="n">
-        <v>7.2</v>
+        <v>4.1</v>
       </c>
       <c r="BE36" t="n">
-        <v>7.8</v>
+        <v>4.4</v>
       </c>
       <c r="BF36" t="n">
         <v>8.6</v>
       </c>
       <c r="BG36" t="n">
-        <v>7.8</v>
+        <v>4.4</v>
       </c>
       <c r="BH36" t="inlineStr">
         <is>
-          <t>2026-02-23 10:41:59</t>
+          <t>2026-02-23 12:51:28</t>
         </is>
       </c>
     </row>
@@ -7555,10 +7555,10 @@
         <v>2.32</v>
       </c>
       <c r="G37" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="H37" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="I37" t="n">
         <v>4.3</v>
@@ -7576,13 +7576,13 @@
         <v>1.18</v>
       </c>
       <c r="N37" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="O37" t="n">
         <v>1.79</v>
       </c>
       <c r="P37" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="Q37" t="n">
         <v>3.4</v>
@@ -7591,7 +7591,7 @@
         <v>1.12</v>
       </c>
       <c r="S37" t="n">
-        <v>8</v>
+        <v>7.2</v>
       </c>
       <c r="T37" t="n">
         <v>2.52</v>
@@ -7603,10 +7603,10 @@
         <v>1.3</v>
       </c>
       <c r="W37" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="X37" t="n">
-        <v>7.4</v>
+        <v>6.4</v>
       </c>
       <c r="Y37" t="n">
         <v>10</v>
@@ -7645,7 +7645,7 @@
         <v>40</v>
       </c>
       <c r="AK37" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AL37" t="n">
         <v>110</v>
@@ -7654,7 +7654,7 @@
         <v>410</v>
       </c>
       <c r="AN37" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AO37" t="n">
         <v>1000</v>
@@ -7669,7 +7669,7 @@
         <v>23</v>
       </c>
       <c r="AS37" t="n">
-        <v>8.800000000000001</v>
+        <v>11</v>
       </c>
       <c r="AT37" t="n">
         <v>5.4</v>
@@ -7681,7 +7681,7 @@
         <v>17.5</v>
       </c>
       <c r="AW37" t="n">
-        <v>8.800000000000001</v>
+        <v>11</v>
       </c>
       <c r="AX37" t="n">
         <v>11.5</v>
@@ -7693,29 +7693,29 @@
         <v>28</v>
       </c>
       <c r="BA37" t="n">
-        <v>8.800000000000001</v>
+        <v>11</v>
       </c>
       <c r="BB37" t="n">
-        <v>7.6</v>
+        <v>9.4</v>
       </c>
       <c r="BC37" t="n">
-        <v>7.8</v>
+        <v>9.6</v>
       </c>
       <c r="BD37" t="n">
-        <v>8.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="BE37" t="n">
-        <v>9.199999999999999</v>
+        <v>11.5</v>
       </c>
       <c r="BF37" t="n">
-        <v>8.199999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="BG37" t="n">
-        <v>8.800000000000001</v>
+        <v>11</v>
       </c>
       <c r="BH37" t="inlineStr">
         <is>
-          <t>2026-02-23 10:41:59</t>
+          <t>2026-02-23 12:51:28</t>
         </is>
       </c>
     </row>
@@ -7749,7 +7749,7 @@
         <v>3.55</v>
       </c>
       <c r="G38" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="H38" t="n">
         <v>2.52</v>
@@ -7758,10 +7758,10 @@
         <v>2.66</v>
       </c>
       <c r="J38" t="n">
-        <v>2.76</v>
+        <v>2.7</v>
       </c>
       <c r="K38" t="n">
-        <v>2.92</v>
+        <v>2.98</v>
       </c>
       <c r="L38" t="n">
         <v>1.71</v>
@@ -7770,7 +7770,7 @@
         <v>1.17</v>
       </c>
       <c r="N38" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="O38" t="n">
         <v>1.71</v>
@@ -7785,10 +7785,10 @@
         <v>1.12</v>
       </c>
       <c r="S38" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="T38" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="U38" t="n">
         <v>1.62</v>
@@ -7797,7 +7797,7 @@
         <v>1.6</v>
       </c>
       <c r="W38" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="X38" t="n">
         <v>6.8</v>
@@ -7863,7 +7863,7 @@
         <v>12</v>
       </c>
       <c r="AS38" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AT38" t="n">
         <v>7.8</v>
@@ -7875,7 +7875,7 @@
         <v>12.5</v>
       </c>
       <c r="AW38" t="n">
-        <v>40</v>
+        <v>7.4</v>
       </c>
       <c r="AX38" t="n">
         <v>20</v>
@@ -7887,13 +7887,13 @@
         <v>25</v>
       </c>
       <c r="BA38" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="BB38" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="BC38" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="BD38" t="n">
         <v>8.199999999999999</v>
@@ -7902,14 +7902,14 @@
         <v>8.6</v>
       </c>
       <c r="BF38" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="BG38" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="BH38" t="inlineStr">
         <is>
-          <t>2026-02-23 10:41:59</t>
+          <t>2026-02-23 12:51:28</t>
         </is>
       </c>
     </row>
@@ -7952,7 +7952,7 @@
         <v>5.5</v>
       </c>
       <c r="J39" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="K39" t="n">
         <v>3.65</v>
@@ -7970,13 +7970,13 @@
         <v>1.49</v>
       </c>
       <c r="P39" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="Q39" t="n">
         <v>2.46</v>
       </c>
       <c r="R39" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="S39" t="n">
         <v>4.9</v>
@@ -7985,7 +7985,7 @@
         <v>2.22</v>
       </c>
       <c r="U39" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="V39" t="n">
         <v>1.22</v>
@@ -8103,7 +8103,7 @@
       </c>
       <c r="BH39" t="inlineStr">
         <is>
-          <t>2026-02-23 10:41:59</t>
+          <t>2026-02-23 12:51:28</t>
         </is>
       </c>
     </row>
@@ -8143,7 +8143,7 @@
         <v>2.34</v>
       </c>
       <c r="I40" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="J40" t="n">
         <v>3.05</v>
@@ -8155,31 +8155,31 @@
         <v>1.01</v>
       </c>
       <c r="M40" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="N40" t="n">
         <v>2.4</v>
       </c>
       <c r="O40" t="n">
-        <v>1.53</v>
+        <v>1.59</v>
       </c>
       <c r="P40" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="Q40" t="n">
-        <v>2.56</v>
+        <v>2.8</v>
       </c>
       <c r="R40" t="n">
         <v>1.16</v>
       </c>
       <c r="S40" t="n">
-        <v>6.2</v>
+        <v>5.4</v>
       </c>
       <c r="T40" t="n">
-        <v>2.24</v>
+        <v>2.2</v>
       </c>
       <c r="U40" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="V40" t="n">
         <v>1.67</v>
@@ -8194,7 +8194,7 @@
         <v>7</v>
       </c>
       <c r="Z40" t="n">
-        <v>15.5</v>
+        <v>970</v>
       </c>
       <c r="AA40" t="n">
         <v>46</v>
@@ -8206,7 +8206,7 @@
         <v>8.6</v>
       </c>
       <c r="AD40" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AE40" t="n">
         <v>1000</v>
@@ -8239,7 +8239,7 @@
         <v>1000</v>
       </c>
       <c r="AO40" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AP40" t="n">
         <v>6.8</v>
@@ -8248,13 +8248,13 @@
         <v>6</v>
       </c>
       <c r="AR40" t="n">
-        <v>9.6</v>
+        <v>11.5</v>
       </c>
       <c r="AS40" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="AT40" t="n">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AU40" t="n">
         <v>6.2</v>
@@ -8263,41 +8263,41 @@
         <v>11</v>
       </c>
       <c r="AW40" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="AX40" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AY40" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ40" t="n">
         <v>4.9</v>
       </c>
-      <c r="AY40" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AZ40" t="n">
-        <v>4.8</v>
-      </c>
       <c r="BA40" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="BB40" t="n">
-        <v>5.5</v>
+        <v>5.8</v>
       </c>
       <c r="BC40" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="BD40" t="n">
-        <v>5.5</v>
+        <v>5.8</v>
       </c>
       <c r="BE40" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="BF40" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="BG40" t="n">
         <v>5.3</v>
       </c>
       <c r="BH40" t="inlineStr">
         <is>
-          <t>2026-02-23 10:41:59</t>
+          <t>2026-02-23 12:51:28</t>
         </is>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-24.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-24.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BH40"/>
+  <dimension ref="A1:BH41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -771,7 +771,7 @@
         <v>1.93</v>
       </c>
       <c r="I2" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="J2" t="n">
         <v>3</v>
@@ -789,28 +789,28 @@
         <v>2.5</v>
       </c>
       <c r="O2" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="P2" t="n">
         <v>1.51</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.54</v>
+        <v>2.58</v>
       </c>
       <c r="R2" t="n">
         <v>1.18</v>
       </c>
       <c r="S2" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="T2" t="n">
         <v>2.16</v>
       </c>
       <c r="U2" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="V2" t="n">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="W2" t="n">
         <v>1.21</v>
@@ -870,7 +870,7 @@
         <v>32</v>
       </c>
       <c r="AP2" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AQ2" t="n">
         <v>5.6</v>
@@ -888,7 +888,7 @@
         <v>6.4</v>
       </c>
       <c r="AV2" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AW2" t="n">
         <v>3.95</v>
@@ -921,11 +921,11 @@
         <v>4.3</v>
       </c>
       <c r="BG2" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="BH2" t="inlineStr">
         <is>
-          <t>2026-02-23 12:51:28</t>
+          <t>2026-02-23 15:00:26</t>
         </is>
       </c>
     </row>
@@ -956,10 +956,10 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.96</v>
+        <v>3.35</v>
       </c>
       <c r="G3" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="H3" t="n">
         <v>1.83</v>
@@ -971,7 +971,7 @@
         <v>2.8</v>
       </c>
       <c r="K3" t="n">
-        <v>19</v>
+        <v>6.4</v>
       </c>
       <c r="L3" t="n">
         <v>1.38</v>
@@ -980,7 +980,7 @@
         <v>1.07</v>
       </c>
       <c r="N3" t="n">
-        <v>2.04</v>
+        <v>2.1</v>
       </c>
       <c r="O3" t="n">
         <v>1.4</v>
@@ -995,7 +995,7 @@
         <v>1.15</v>
       </c>
       <c r="S3" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="T3" t="n">
         <v>1.05</v>
@@ -1007,10 +1007,10 @@
         <v>1.67</v>
       </c>
       <c r="W3" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="X3" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="Y3" t="n">
         <v>1000</v>
@@ -1067,59 +1067,59 @@
         <v>1.01</v>
       </c>
       <c r="AQ3" t="n">
-        <v>1.09</v>
+        <v>1.01</v>
       </c>
       <c r="AR3" t="n">
-        <v>1.09</v>
+        <v>1.01</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.09</v>
+        <v>1.01</v>
       </c>
       <c r="AT3" t="n">
-        <v>1.09</v>
+        <v>1.01</v>
       </c>
       <c r="AU3" t="n">
-        <v>1.09</v>
+        <v>1.01</v>
       </c>
       <c r="AV3" t="n">
-        <v>1.09</v>
+        <v>1.01</v>
       </c>
       <c r="AW3" t="n">
-        <v>1.09</v>
+        <v>1.01</v>
       </c>
       <c r="AX3" t="n">
-        <v>1.09</v>
+        <v>1.01</v>
       </c>
       <c r="AY3" t="n">
-        <v>1.09</v>
+        <v>1.01</v>
       </c>
       <c r="AZ3" t="n">
-        <v>1.09</v>
+        <v>1.01</v>
       </c>
       <c r="BA3" t="n">
-        <v>1.09</v>
+        <v>1.01</v>
       </c>
       <c r="BB3" t="n">
-        <v>1.09</v>
+        <v>1.01</v>
       </c>
       <c r="BC3" t="n">
-        <v>1.09</v>
+        <v>1.01</v>
       </c>
       <c r="BD3" t="n">
-        <v>1.09</v>
+        <v>1.01</v>
       </c>
       <c r="BE3" t="n">
-        <v>1.09</v>
+        <v>1.01</v>
       </c>
       <c r="BF3" t="n">
-        <v>1.09</v>
+        <v>1.01</v>
       </c>
       <c r="BG3" t="n">
-        <v>1.09</v>
+        <v>1.01</v>
       </c>
       <c r="BH3" t="inlineStr">
         <is>
-          <t>2026-02-23 12:51:28</t>
+          <t>2026-02-23 15:00:26</t>
         </is>
       </c>
     </row>
@@ -1150,19 +1150,19 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="G4" t="n">
-        <v>1.63</v>
+        <v>1.6</v>
       </c>
       <c r="H4" t="n">
         <v>6.4</v>
       </c>
       <c r="I4" t="n">
-        <v>9.199999999999999</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J4" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="K4" t="n">
         <v>4.7</v>
@@ -1174,16 +1174,16 @@
         <v>1.06</v>
       </c>
       <c r="N4" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="O4" t="n">
         <v>1.29</v>
       </c>
       <c r="P4" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.79</v>
+        <v>1.86</v>
       </c>
       <c r="R4" t="n">
         <v>1.36</v>
@@ -1192,16 +1192,16 @@
         <v>3.2</v>
       </c>
       <c r="T4" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="U4" t="n">
         <v>1.84</v>
       </c>
       <c r="V4" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="W4" t="n">
-        <v>2.58</v>
+        <v>2.66</v>
       </c>
       <c r="X4" t="n">
         <v>980</v>
@@ -1252,68 +1252,68 @@
         <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>10.5</v>
+        <v>980</v>
       </c>
       <c r="AO4" t="n">
         <v>1000</v>
       </c>
       <c r="AP4" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="BB4" t="n">
         <v>4.1</v>
       </c>
-      <c r="AQ4" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AY4" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="AZ4" t="n">
+      <c r="BC4" t="n">
         <v>4.4</v>
       </c>
-      <c r="BA4" t="n">
-        <v>5</v>
-      </c>
-      <c r="BB4" t="n">
-        <v>4</v>
-      </c>
-      <c r="BC4" t="n">
-        <v>4.2</v>
-      </c>
       <c r="BD4" t="n">
-        <v>4.6</v>
+        <v>4.9</v>
       </c>
       <c r="BE4" t="n">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="BF4" t="n">
         <v>6.8</v>
       </c>
       <c r="BG4" t="n">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="BH4" t="inlineStr">
         <is>
-          <t>2026-02-23 12:51:28</t>
+          <t>2026-02-23 15:00:26</t>
         </is>
       </c>
     </row>
@@ -1356,7 +1356,7 @@
         <v>7.8</v>
       </c>
       <c r="J5" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="K5" t="n">
         <v>6</v>
@@ -1374,7 +1374,7 @@
         <v>1.16</v>
       </c>
       <c r="P5" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="Q5" t="n">
         <v>1.48</v>
@@ -1386,16 +1386,16 @@
         <v>2.22</v>
       </c>
       <c r="T5" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="U5" t="n">
         <v>2.32</v>
       </c>
       <c r="V5" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="W5" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="X5" t="n">
         <v>36</v>
@@ -1410,7 +1410,7 @@
         <v>220</v>
       </c>
       <c r="AB5" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AC5" t="n">
         <v>13.5</v>
@@ -1428,7 +1428,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AH5" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI5" t="n">
         <v>70</v>
@@ -1464,7 +1464,7 @@
         <v>55</v>
       </c>
       <c r="AT5" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AU5" t="n">
         <v>12.5</v>
@@ -1482,7 +1482,7 @@
         <v>9.6</v>
       </c>
       <c r="AZ5" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="BA5" t="n">
         <v>60</v>
@@ -1507,7 +1507,7 @@
       </c>
       <c r="BH5" t="inlineStr">
         <is>
-          <t>2026-02-23 12:51:28</t>
+          <t>2026-02-23 15:00:26</t>
         </is>
       </c>
     </row>
@@ -1547,16 +1547,16 @@
         <v>2.14</v>
       </c>
       <c r="I6" t="n">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="J6" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="K6" t="n">
         <v>4.1</v>
       </c>
       <c r="L6" t="n">
-        <v>1.32</v>
+        <v>1.36</v>
       </c>
       <c r="M6" t="n">
         <v>1.06</v>
@@ -1580,10 +1580,10 @@
         <v>2.78</v>
       </c>
       <c r="T6" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="U6" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="V6" t="n">
         <v>1.57</v>
@@ -1701,7 +1701,7 @@
       </c>
       <c r="BH6" t="inlineStr">
         <is>
-          <t>2026-02-23 12:51:28</t>
+          <t>2026-02-23 15:00:26</t>
         </is>
       </c>
     </row>
@@ -1732,19 +1732,19 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="G7" t="n">
-        <v>3.65</v>
+        <v>3.3</v>
       </c>
       <c r="H7" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="I7" t="n">
         <v>2.94</v>
       </c>
       <c r="J7" t="n">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="K7" t="n">
         <v>4.1</v>
@@ -1756,16 +1756,16 @@
         <v>1.05</v>
       </c>
       <c r="N7" t="n">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="O7" t="n">
         <v>1.26</v>
       </c>
       <c r="P7" t="n">
-        <v>1.95</v>
+        <v>1.99</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="R7" t="n">
         <v>1.42</v>
@@ -1774,16 +1774,16 @@
         <v>2.64</v>
       </c>
       <c r="T7" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="U7" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="V7" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="W7" t="n">
-        <v>1.38</v>
+        <v>1.43</v>
       </c>
       <c r="X7" t="n">
         <v>21</v>
@@ -1855,7 +1855,7 @@
         <v>3.35</v>
       </c>
       <c r="AU7" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="AV7" t="n">
         <v>3.25</v>
@@ -1895,7 +1895,7 @@
       </c>
       <c r="BH7" t="inlineStr">
         <is>
-          <t>2026-02-23 12:51:28</t>
+          <t>2026-02-23 15:00:26</t>
         </is>
       </c>
     </row>
@@ -2089,7 +2089,7 @@
       </c>
       <c r="BH8" t="inlineStr">
         <is>
-          <t>2026-02-23 12:51:28</t>
+          <t>2026-02-23 15:00:26</t>
         </is>
       </c>
     </row>
@@ -2120,52 +2120,52 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="G9" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="H9" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="I9" t="n">
         <v>15</v>
       </c>
       <c r="J9" t="n">
-        <v>4.5</v>
+        <v>5.4</v>
       </c>
       <c r="K9" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="L9" t="n">
         <v>1.2</v>
       </c>
       <c r="M9" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N9" t="n">
         <v>1.1</v>
       </c>
       <c r="O9" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="P9" t="n">
-        <v>2.6</v>
+        <v>2.52</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="R9" t="n">
-        <v>1.78</v>
+        <v>1.74</v>
       </c>
       <c r="S9" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T9" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="U9" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="V9" t="n">
         <v>1.07</v>
@@ -2174,10 +2174,10 @@
         <v>3.4</v>
       </c>
       <c r="X9" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="Y9" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="Z9" t="n">
         <v>140</v>
@@ -2186,7 +2186,7 @@
         <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AC9" t="n">
         <v>19</v>
@@ -2222,13 +2222,13 @@
         <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="AO9" t="n">
         <v>1000</v>
       </c>
       <c r="AP9" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="AQ9" t="n">
         <v>4.2</v>
@@ -2240,7 +2240,7 @@
         <v>4.5</v>
       </c>
       <c r="AT9" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="AU9" t="n">
         <v>3.65</v>
@@ -2276,14 +2276,14 @@
         <v>4.4</v>
       </c>
       <c r="BF9" t="n">
-        <v>3</v>
+        <v>2.28</v>
       </c>
       <c r="BG9" t="n">
         <v>4.4</v>
       </c>
       <c r="BH9" t="inlineStr">
         <is>
-          <t>2026-02-23 12:51:28</t>
+          <t>2026-02-23 15:00:26</t>
         </is>
       </c>
     </row>
@@ -2317,22 +2317,22 @@
         <v>1.99</v>
       </c>
       <c r="G10" t="n">
-        <v>2.36</v>
+        <v>2.26</v>
       </c>
       <c r="H10" t="n">
         <v>3.55</v>
       </c>
       <c r="I10" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="J10" t="n">
-        <v>3</v>
+        <v>2.84</v>
       </c>
       <c r="K10" t="n">
         <v>3.75</v>
       </c>
       <c r="L10" t="n">
-        <v>1.38</v>
+        <v>1.44</v>
       </c>
       <c r="M10" t="n">
         <v>1.08</v>
@@ -2362,10 +2362,10 @@
         <v>2</v>
       </c>
       <c r="V10" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="W10" t="n">
-        <v>1.74</v>
+        <v>1.8</v>
       </c>
       <c r="X10" t="n">
         <v>15</v>
@@ -2422,62 +2422,62 @@
         <v>75</v>
       </c>
       <c r="AP10" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="AQ10" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="AR10" t="n">
         <v>4.5</v>
       </c>
       <c r="AS10" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="AT10" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="AU10" t="n">
         <v>3.3</v>
       </c>
       <c r="AV10" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="AW10" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="BD10" t="n">
         <v>4.7</v>
       </c>
-      <c r="AX10" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="AY10" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AZ10" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="BA10" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="BB10" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="BC10" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="BD10" t="n">
-        <v>4.6</v>
-      </c>
       <c r="BE10" t="n">
+        <v>5</v>
+      </c>
+      <c r="BF10" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BG10" t="n">
         <v>4.9</v>
       </c>
-      <c r="BF10" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="BG10" t="n">
-        <v>4.8</v>
-      </c>
       <c r="BH10" t="inlineStr">
         <is>
-          <t>2026-02-23 12:51:28</t>
+          <t>2026-02-23 15:00:26</t>
         </is>
       </c>
     </row>
@@ -2508,31 +2508,31 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="G11" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="H11" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="I11" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="J11" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="K11" t="n">
-        <v>5.4</v>
+        <v>4.9</v>
       </c>
       <c r="L11" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="M11" t="n">
         <v>1.04</v>
       </c>
       <c r="N11" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="O11" t="n">
         <v>1.19</v>
@@ -2547,22 +2547,22 @@
         <v>1.52</v>
       </c>
       <c r="S11" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="T11" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="U11" t="n">
         <v>2.02</v>
       </c>
       <c r="V11" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="W11" t="n">
         <v>1.12</v>
       </c>
       <c r="X11" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Y11" t="n">
         <v>12.5</v>
@@ -2589,10 +2589,10 @@
         <v>1000</v>
       </c>
       <c r="AG11" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AH11" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI11" t="n">
         <v>38</v>
@@ -2640,38 +2640,38 @@
         <v>12.5</v>
       </c>
       <c r="AX11" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="AY11" t="n">
         <v>21</v>
       </c>
       <c r="AZ11" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="BA11" t="n">
         <v>23</v>
       </c>
       <c r="BB11" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="BC11" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="BD11" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="BE11" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="BF11" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="BG11" t="n">
         <v>5.5</v>
       </c>
       <c r="BH11" t="inlineStr">
         <is>
-          <t>2026-02-23 12:51:28</t>
+          <t>2026-02-23 15:00:26</t>
         </is>
       </c>
     </row>
@@ -2702,7 +2702,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="G12" t="n">
         <v>2</v>
@@ -2717,7 +2717,7 @@
         <v>3.85</v>
       </c>
       <c r="K12" t="n">
-        <v>4.4</v>
+        <v>4</v>
       </c>
       <c r="L12" t="n">
         <v>1.01</v>
@@ -2744,10 +2744,10 @@
         <v>2.68</v>
       </c>
       <c r="T12" t="n">
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
       <c r="U12" t="n">
-        <v>2.32</v>
+        <v>2.28</v>
       </c>
       <c r="V12" t="n">
         <v>1.29</v>
@@ -2858,14 +2858,14 @@
         <v>4.8</v>
       </c>
       <c r="BF12" t="n">
-        <v>7.8</v>
+        <v>8.6</v>
       </c>
       <c r="BG12" t="n">
         <v>4.8</v>
       </c>
       <c r="BH12" t="inlineStr">
         <is>
-          <t>2026-02-23 12:51:28</t>
+          <t>2026-02-23 15:00:26</t>
         </is>
       </c>
     </row>
@@ -2902,7 +2902,7 @@
         <v>14.5</v>
       </c>
       <c r="H13" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="I13" t="n">
         <v>1.38</v>
@@ -2926,19 +2926,19 @@
         <v>1.17</v>
       </c>
       <c r="P13" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.48</v>
+        <v>1.41</v>
       </c>
       <c r="R13" t="n">
         <v>1.57</v>
       </c>
       <c r="S13" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="T13" t="n">
-        <v>1.05</v>
+        <v>1.77</v>
       </c>
       <c r="U13" t="n">
         <v>1.05</v>
@@ -3059,7 +3059,7 @@
       </c>
       <c r="BH13" t="inlineStr">
         <is>
-          <t>2026-02-23 12:51:28</t>
+          <t>2026-02-23 15:00:26</t>
         </is>
       </c>
     </row>
@@ -3093,19 +3093,19 @@
         <v>3.05</v>
       </c>
       <c r="G14" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="H14" t="n">
-        <v>1.81</v>
+        <v>1.97</v>
       </c>
       <c r="I14" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="J14" t="n">
-        <v>1.1</v>
+        <v>3.2</v>
       </c>
       <c r="K14" t="n">
-        <v>950</v>
+        <v>7.2</v>
       </c>
       <c r="L14" t="n">
         <v>1.01</v>
@@ -3222,7 +3222,7 @@
         <v>16.5</v>
       </c>
       <c r="AX14" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="AY14" t="n">
         <v>13.5</v>
@@ -3237,23 +3237,23 @@
         <v>4.2</v>
       </c>
       <c r="BC14" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="BD14" t="n">
         <v>4.4</v>
       </c>
       <c r="BE14" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="BF14" t="n">
         <v>19</v>
       </c>
       <c r="BG14" t="n">
-        <v>7.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="BH14" t="inlineStr">
         <is>
-          <t>2026-02-23 12:51:28</t>
+          <t>2026-02-23 15:00:26</t>
         </is>
       </c>
     </row>
@@ -3314,7 +3314,7 @@
         <v>1.15</v>
       </c>
       <c r="P15" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="Q15" t="n">
         <v>1.45</v>
@@ -3386,22 +3386,22 @@
         <v>90</v>
       </c>
       <c r="AN15" t="n">
-        <v>8.199999999999999</v>
+        <v>5</v>
       </c>
       <c r="AO15" t="n">
         <v>75</v>
       </c>
       <c r="AP15" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AQ15" t="n">
         <v>5.7</v>
       </c>
-      <c r="AQ15" t="n">
-        <v>5.8</v>
-      </c>
       <c r="AR15" t="n">
-        <v>2.68</v>
+        <v>5.6</v>
       </c>
       <c r="AS15" t="n">
-        <v>2.72</v>
+        <v>5.7</v>
       </c>
       <c r="AT15" t="n">
         <v>11.5</v>
@@ -3413,7 +3413,7 @@
         <v>20</v>
       </c>
       <c r="AW15" t="n">
-        <v>2.68</v>
+        <v>5.6</v>
       </c>
       <c r="AX15" t="n">
         <v>10</v>
@@ -3425,7 +3425,7 @@
         <v>17</v>
       </c>
       <c r="BA15" t="n">
-        <v>2.68</v>
+        <v>5.6</v>
       </c>
       <c r="BB15" t="n">
         <v>12</v>
@@ -3437,17 +3437,17 @@
         <v>19.5</v>
       </c>
       <c r="BE15" t="n">
-        <v>2.68</v>
+        <v>5.6</v>
       </c>
       <c r="BF15" t="n">
         <v>4.3</v>
       </c>
       <c r="BG15" t="n">
-        <v>2.66</v>
+        <v>5.4</v>
       </c>
       <c r="BH15" t="inlineStr">
         <is>
-          <t>2026-02-23 12:51:28</t>
+          <t>2026-02-23 15:00:26</t>
         </is>
       </c>
     </row>
@@ -3496,7 +3496,7 @@
         <v>4.5</v>
       </c>
       <c r="L16" t="n">
-        <v>1.41</v>
+        <v>1.48</v>
       </c>
       <c r="M16" t="n">
         <v>1.1</v>
@@ -3517,7 +3517,7 @@
         <v>1.25</v>
       </c>
       <c r="S16" t="n">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="T16" t="n">
         <v>2.38</v>
@@ -3598,7 +3598,7 @@
         <v>11.5</v>
       </c>
       <c r="AT16" t="n">
-        <v>17</v>
+        <v>4.6</v>
       </c>
       <c r="AU16" t="n">
         <v>8.6</v>
@@ -3616,7 +3616,7 @@
         <v>5</v>
       </c>
       <c r="AZ16" t="n">
-        <v>5.4</v>
+        <v>28</v>
       </c>
       <c r="BA16" t="n">
         <v>5.2</v>
@@ -3641,7 +3641,7 @@
       </c>
       <c r="BH16" t="inlineStr">
         <is>
-          <t>2026-02-23 12:51:28</t>
+          <t>2026-02-23 15:00:26</t>
         </is>
       </c>
     </row>
@@ -3675,7 +3675,7 @@
         <v>1.55</v>
       </c>
       <c r="G17" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="H17" t="n">
         <v>8.4</v>
@@ -3696,13 +3696,13 @@
         <v>1.11</v>
       </c>
       <c r="N17" t="n">
-        <v>2.78</v>
+        <v>2.72</v>
       </c>
       <c r="O17" t="n">
         <v>1.5</v>
       </c>
       <c r="P17" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="Q17" t="n">
         <v>2.48</v>
@@ -3753,7 +3753,7 @@
         <v>970</v>
       </c>
       <c r="AG17" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AH17" t="n">
         <v>970</v>
@@ -3780,62 +3780,62 @@
         <v>1000</v>
       </c>
       <c r="AP17" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="AQ17" t="n">
-        <v>5.4</v>
+        <v>17</v>
       </c>
       <c r="AR17" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AV17" t="n">
         <v>6.6</v>
       </c>
-      <c r="AS17" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="AT17" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="AU17" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="AV17" t="n">
-        <v>6</v>
-      </c>
       <c r="AW17" t="n">
-        <v>7</v>
+        <v>3.85</v>
       </c>
       <c r="AX17" t="n">
         <v>6.8</v>
       </c>
       <c r="AY17" t="n">
-        <v>4.9</v>
+        <v>9.6</v>
       </c>
       <c r="AZ17" t="n">
-        <v>6</v>
+        <v>6.6</v>
       </c>
       <c r="BA17" t="n">
-        <v>7</v>
+        <v>3.85</v>
       </c>
       <c r="BB17" t="n">
         <v>12.5</v>
       </c>
       <c r="BC17" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="BD17" t="n">
-        <v>6.6</v>
+        <v>7.2</v>
       </c>
       <c r="BE17" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="BF17" t="n">
         <v>12</v>
       </c>
       <c r="BG17" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="BH17" t="inlineStr">
         <is>
-          <t>2026-02-23 12:51:28</t>
+          <t>2026-02-23 15:00:26</t>
         </is>
       </c>
     </row>
@@ -3875,7 +3875,7 @@
         <v>2.38</v>
       </c>
       <c r="I18" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="J18" t="n">
         <v>2.56</v>
@@ -3914,7 +3914,7 @@
         <v>1.05</v>
       </c>
       <c r="V18" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="W18" t="n">
         <v>1.26</v>
@@ -4029,7 +4029,7 @@
       </c>
       <c r="BH18" t="inlineStr">
         <is>
-          <t>2026-02-23 12:51:28</t>
+          <t>2026-02-23 15:00:26</t>
         </is>
       </c>
     </row>
@@ -4060,7 +4060,7 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="G19" t="n">
         <v>2.38</v>
@@ -4069,13 +4069,13 @@
         <v>3.3</v>
       </c>
       <c r="I19" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="J19" t="n">
         <v>3.55</v>
       </c>
       <c r="K19" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="L19" t="n">
         <v>1.39</v>
@@ -4090,10 +4090,10 @@
         <v>1.3</v>
       </c>
       <c r="P19" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="R19" t="n">
         <v>1.37</v>
@@ -4105,13 +4105,13 @@
         <v>1.72</v>
       </c>
       <c r="U19" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="V19" t="n">
         <v>1.39</v>
       </c>
       <c r="W19" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="X19" t="n">
         <v>970</v>
@@ -4165,19 +4165,19 @@
         <v>21</v>
       </c>
       <c r="AO19" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AP19" t="n">
-        <v>3.85</v>
+        <v>4.2</v>
       </c>
       <c r="AQ19" t="n">
-        <v>3.95</v>
+        <v>4.2</v>
       </c>
       <c r="AR19" t="n">
-        <v>4.4</v>
+        <v>4.8</v>
       </c>
       <c r="AS19" t="n">
-        <v>4.8</v>
+        <v>5.3</v>
       </c>
       <c r="AT19" t="n">
         <v>9.4</v>
@@ -4186,10 +4186,10 @@
         <v>7.2</v>
       </c>
       <c r="AV19" t="n">
-        <v>3.95</v>
+        <v>4.3</v>
       </c>
       <c r="AW19" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="AX19" t="n">
         <v>11.5</v>
@@ -4198,32 +4198,32 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AZ19" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="BA19" t="n">
-        <v>4.6</v>
+        <v>5.1</v>
       </c>
       <c r="BB19" t="n">
-        <v>4.5</v>
+        <v>4.9</v>
       </c>
       <c r="BC19" t="n">
-        <v>4.4</v>
+        <v>4.8</v>
       </c>
       <c r="BD19" t="n">
-        <v>4.6</v>
+        <v>5.1</v>
       </c>
       <c r="BE19" t="n">
-        <v>4.9</v>
+        <v>5.4</v>
       </c>
       <c r="BF19" t="n">
         <v>12.5</v>
       </c>
       <c r="BG19" t="n">
-        <v>4.6</v>
+        <v>5</v>
       </c>
       <c r="BH19" t="inlineStr">
         <is>
-          <t>2026-02-23 12:51:28</t>
+          <t>2026-02-23 15:00:26</t>
         </is>
       </c>
     </row>
@@ -4257,7 +4257,7 @@
         <v>3.15</v>
       </c>
       <c r="G20" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="H20" t="n">
         <v>2.08</v>
@@ -4266,7 +4266,7 @@
         <v>2.34</v>
       </c>
       <c r="J20" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K20" t="n">
         <v>4.2</v>
@@ -4284,10 +4284,10 @@
         <v>1.23</v>
       </c>
       <c r="P20" t="n">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="R20" t="n">
         <v>1.46</v>
@@ -4296,7 +4296,7 @@
         <v>2.52</v>
       </c>
       <c r="T20" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="U20" t="n">
         <v>2.3</v>
@@ -4305,7 +4305,7 @@
         <v>1.74</v>
       </c>
       <c r="W20" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="X20" t="n">
         <v>23</v>
@@ -4417,7 +4417,7 @@
       </c>
       <c r="BH20" t="inlineStr">
         <is>
-          <t>2026-02-23 12:51:28</t>
+          <t>2026-02-23 15:00:26</t>
         </is>
       </c>
     </row>
@@ -4457,10 +4457,10 @@
         <v>3.8</v>
       </c>
       <c r="I21" t="n">
-        <v>5.6</v>
+        <v>5.2</v>
       </c>
       <c r="J21" t="n">
-        <v>3.1</v>
+        <v>3.55</v>
       </c>
       <c r="K21" t="n">
         <v>4.8</v>
@@ -4481,7 +4481,7 @@
         <v>2.16</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="R21" t="n">
         <v>1.52</v>
@@ -4496,7 +4496,7 @@
         <v>2</v>
       </c>
       <c r="V21" t="n">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="W21" t="n">
         <v>2.1</v>
@@ -4611,7 +4611,7 @@
       </c>
       <c r="BH21" t="inlineStr">
         <is>
-          <t>2026-02-23 12:51:28</t>
+          <t>2026-02-23 15:00:26</t>
         </is>
       </c>
     </row>
@@ -4666,22 +4666,22 @@
         <v>1.05</v>
       </c>
       <c r="N22" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="O22" t="n">
         <v>1.24</v>
       </c>
       <c r="P22" t="n">
-        <v>2.02</v>
+        <v>2.12</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.61</v>
+        <v>1.7</v>
       </c>
       <c r="R22" t="n">
         <v>1.44</v>
       </c>
       <c r="S22" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="T22" t="n">
         <v>1.63</v>
@@ -4696,7 +4696,7 @@
         <v>1.35</v>
       </c>
       <c r="X22" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="Y22" t="n">
         <v>14</v>
@@ -4753,59 +4753,59 @@
         <v>3.65</v>
       </c>
       <c r="AQ22" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="AR22" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AX22" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AY22" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AZ22" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BA22" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB22" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BC22" t="n">
+        <v>4</v>
+      </c>
+      <c r="BD22" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BE22" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BF22" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG22" t="n">
         <v>3.5</v>
       </c>
-      <c r="AS22" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="AT22" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AU22" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AV22" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AW22" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="AX22" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="AY22" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AZ22" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="BA22" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="BB22" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="BC22" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="BD22" t="n">
-        <v>4</v>
-      </c>
-      <c r="BE22" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="BF22" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="BG22" t="n">
-        <v>3.4</v>
-      </c>
       <c r="BH22" t="inlineStr">
         <is>
-          <t>2026-02-23 12:51:28</t>
+          <t>2026-02-23 15:00:26</t>
         </is>
       </c>
     </row>
@@ -4866,7 +4866,7 @@
         <v>1.4</v>
       </c>
       <c r="P23" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="Q23" t="n">
         <v>2.16</v>
@@ -4953,10 +4953,10 @@
         <v>4.5</v>
       </c>
       <c r="AS23" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="AT23" t="n">
-        <v>3.95</v>
+        <v>9.4</v>
       </c>
       <c r="AU23" t="n">
         <v>3.55</v>
@@ -4965,10 +4965,10 @@
         <v>10</v>
       </c>
       <c r="AW23" t="n">
-        <v>22</v>
+        <v>4.6</v>
       </c>
       <c r="AX23" t="n">
-        <v>4.4</v>
+        <v>18.5</v>
       </c>
       <c r="AY23" t="n">
         <v>4.1</v>
@@ -4983,23 +4983,23 @@
         <v>5</v>
       </c>
       <c r="BC23" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="BD23" t="n">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="BE23" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="BF23" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="BG23" t="n">
         <v>20</v>
       </c>
       <c r="BH23" t="inlineStr">
         <is>
-          <t>2026-02-23 12:51:28</t>
+          <t>2026-02-23 15:00:26</t>
         </is>
       </c>
     </row>
@@ -5033,7 +5033,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="G24" t="n">
-        <v>8.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H24" t="n">
         <v>1.43</v>
@@ -5147,25 +5147,25 @@
         <v>2.24</v>
       </c>
       <c r="AS24" t="n">
-        <v>2.36</v>
+        <v>9.6</v>
       </c>
       <c r="AT24" t="n">
         <v>2.52</v>
       </c>
       <c r="AU24" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="AV24" t="n">
         <v>6.6</v>
       </c>
       <c r="AW24" t="n">
-        <v>2.42</v>
+        <v>12</v>
       </c>
       <c r="AX24" t="n">
         <v>2.64</v>
       </c>
       <c r="AY24" t="n">
-        <v>3.75</v>
+        <v>2.66</v>
       </c>
       <c r="AZ24" t="n">
         <v>2.5</v>
@@ -5177,7 +5177,7 @@
         <v>2.7</v>
       </c>
       <c r="BC24" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="BD24" t="n">
         <v>2.7</v>
@@ -5189,11 +5189,11 @@
         <v>2.7</v>
       </c>
       <c r="BG24" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="BH24" t="inlineStr">
         <is>
-          <t>2026-02-23 12:51:28</t>
+          <t>2026-02-23 15:00:26</t>
         </is>
       </c>
     </row>
@@ -5224,16 +5224,16 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.08</v>
+        <v>2.2</v>
       </c>
       <c r="G25" t="n">
         <v>2.26</v>
       </c>
       <c r="H25" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I25" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="J25" t="n">
         <v>3.75</v>
@@ -5269,10 +5269,10 @@
         <v>1.61</v>
       </c>
       <c r="U25" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="V25" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="W25" t="n">
         <v>1.79</v>
@@ -5293,10 +5293,10 @@
         <v>14.5</v>
       </c>
       <c r="AC25" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AD25" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AE25" t="n">
         <v>42</v>
@@ -5320,7 +5320,7 @@
         <v>25</v>
       </c>
       <c r="AL25" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AM25" t="n">
         <v>1000</v>
@@ -5332,62 +5332,62 @@
         <v>1000</v>
       </c>
       <c r="AP25" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AQ25" t="n">
         <v>4.3</v>
-      </c>
-      <c r="AQ25" t="n">
-        <v>4.2</v>
       </c>
       <c r="AR25" t="n">
         <v>4.5</v>
       </c>
       <c r="AS25" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="AT25" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="AU25" t="n">
         <v>8</v>
       </c>
       <c r="AV25" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="AW25" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="AX25" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="AY25" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="AZ25" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="BA25" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="BB25" t="n">
         <v>4.5</v>
       </c>
       <c r="BC25" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="BD25" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="BE25" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="BF25" t="n">
-        <v>9.6</v>
+        <v>4.1</v>
       </c>
       <c r="BG25" t="n">
         <v>21</v>
       </c>
       <c r="BH25" t="inlineStr">
         <is>
-          <t>2026-02-23 12:51:28</t>
+          <t>2026-02-23 15:00:26</t>
         </is>
       </c>
     </row>
@@ -5418,16 +5418,16 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="G26" t="n">
-        <v>5.9</v>
+        <v>5.5</v>
       </c>
       <c r="H26" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="I26" t="n">
-        <v>2.02</v>
+        <v>1.99</v>
       </c>
       <c r="J26" t="n">
         <v>3.5</v>
@@ -5436,7 +5436,7 @@
         <v>4.5</v>
       </c>
       <c r="L26" t="n">
-        <v>1.41</v>
+        <v>1.36</v>
       </c>
       <c r="M26" t="n">
         <v>1.07</v>
@@ -5445,10 +5445,10 @@
         <v>3.5</v>
       </c>
       <c r="O26" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="P26" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="Q26" t="n">
         <v>1.96</v>
@@ -5457,7 +5457,7 @@
         <v>1.33</v>
       </c>
       <c r="S26" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="T26" t="n">
         <v>1.84</v>
@@ -5466,7 +5466,7 @@
         <v>1.96</v>
       </c>
       <c r="V26" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="W26" t="n">
         <v>1.22</v>
@@ -5505,7 +5505,7 @@
         <v>970</v>
       </c>
       <c r="AI26" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AJ26" t="n">
         <v>1000</v>
@@ -5529,25 +5529,25 @@
         <v>10.5</v>
       </c>
       <c r="AQ26" t="n">
-        <v>3.4</v>
+        <v>3.65</v>
       </c>
       <c r="AR26" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="AS26" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="AT26" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="AU26" t="n">
-        <v>3.4</v>
+        <v>3.65</v>
       </c>
       <c r="AV26" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="AW26" t="n">
-        <v>4.3</v>
+        <v>4.7</v>
       </c>
       <c r="AX26" t="n">
         <v>4.6</v>
@@ -5562,26 +5562,26 @@
         <v>4.6</v>
       </c>
       <c r="BB26" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="BC26" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="BD26" t="n">
         <v>4.9</v>
       </c>
       <c r="BE26" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="BF26" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="BG26" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="BH26" t="inlineStr">
         <is>
-          <t>2026-02-23 12:51:28</t>
+          <t>2026-02-23 15:00:26</t>
         </is>
       </c>
     </row>
@@ -5645,19 +5645,19 @@
         <v>2.12</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="R27" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="S27" t="n">
-        <v>2.56</v>
+        <v>2.76</v>
       </c>
       <c r="T27" t="n">
-        <v>1.63</v>
+        <v>1.6</v>
       </c>
       <c r="U27" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="V27" t="n">
         <v>1.46</v>
@@ -5729,7 +5729,7 @@
         <v>19</v>
       </c>
       <c r="AS27" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="AT27" t="n">
         <v>9.4</v>
@@ -5741,7 +5741,7 @@
         <v>11.5</v>
       </c>
       <c r="AW27" t="n">
-        <v>3.95</v>
+        <v>4.5</v>
       </c>
       <c r="AX27" t="n">
         <v>12.5</v>
@@ -5753,19 +5753,19 @@
         <v>13</v>
       </c>
       <c r="BA27" t="n">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="BB27" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="BC27" t="n">
         <v>17.5</v>
       </c>
       <c r="BD27" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="BE27" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="BF27" t="n">
         <v>11.5</v>
@@ -5775,7 +5775,7 @@
       </c>
       <c r="BH27" t="inlineStr">
         <is>
-          <t>2026-02-23 12:51:28</t>
+          <t>2026-02-23 15:00:26</t>
         </is>
       </c>
     </row>
@@ -5830,13 +5830,13 @@
         <v>1.03</v>
       </c>
       <c r="N28" t="n">
-        <v>5.7</v>
+        <v>6</v>
       </c>
       <c r="O28" t="n">
         <v>1.16</v>
       </c>
       <c r="P28" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="Q28" t="n">
         <v>1.44</v>
@@ -5851,7 +5851,7 @@
         <v>1.5</v>
       </c>
       <c r="U28" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="V28" t="n">
         <v>1.96</v>
@@ -5875,10 +5875,10 @@
         <v>970</v>
       </c>
       <c r="AC28" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD28" t="n">
         <v>13.5</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>970</v>
       </c>
       <c r="AE28" t="n">
         <v>22</v>
@@ -5902,22 +5902,22 @@
         <v>46</v>
       </c>
       <c r="AL28" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AM28" t="n">
         <v>65</v>
       </c>
       <c r="AN28" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AO28" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AP28" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="AQ28" t="n">
-        <v>3.6</v>
+        <v>11.5</v>
       </c>
       <c r="AR28" t="n">
         <v>11.5</v>
@@ -5932,44 +5932,44 @@
         <v>3.45</v>
       </c>
       <c r="AV28" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="AW28" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AX28" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY28" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AZ28" t="n">
         <v>3.7</v>
       </c>
-      <c r="AX28" t="n">
+      <c r="BA28" t="n">
         <v>3.95</v>
       </c>
-      <c r="AY28" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="AZ28" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="BA28" t="n">
-        <v>3.9</v>
-      </c>
       <c r="BB28" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="BC28" t="n">
         <v>4.1</v>
       </c>
-      <c r="BC28" t="n">
-        <v>3.95</v>
-      </c>
       <c r="BD28" t="n">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="BE28" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="BF28" t="n">
         <v>4.1</v>
       </c>
       <c r="BG28" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="BH28" t="inlineStr">
         <is>
-          <t>2026-02-23 12:51:28</t>
+          <t>2026-02-23 15:00:26</t>
         </is>
       </c>
     </row>
@@ -6018,7 +6018,7 @@
         <v>3.9</v>
       </c>
       <c r="L29" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="M29" t="n">
         <v>1.07</v>
@@ -6030,16 +6030,16 @@
         <v>1.32</v>
       </c>
       <c r="P29" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.96</v>
+        <v>1.85</v>
       </c>
       <c r="R29" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="S29" t="n">
-        <v>3.15</v>
+        <v>3.4</v>
       </c>
       <c r="T29" t="n">
         <v>1.75</v>
@@ -6051,7 +6051,7 @@
         <v>1.32</v>
       </c>
       <c r="W29" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="X29" t="n">
         <v>16</v>
@@ -6108,7 +6108,7 @@
         <v>1000</v>
       </c>
       <c r="AP29" t="n">
-        <v>3.85</v>
+        <v>11.5</v>
       </c>
       <c r="AQ29" t="n">
         <v>10</v>
@@ -6117,19 +6117,19 @@
         <v>19.5</v>
       </c>
       <c r="AS29" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="AT29" t="n">
-        <v>7.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AU29" t="n">
-        <v>6.2</v>
+        <v>6.8</v>
       </c>
       <c r="AV29" t="n">
         <v>11.5</v>
       </c>
       <c r="AW29" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="AX29" t="n">
         <v>11</v>
@@ -6138,32 +6138,32 @@
         <v>9.4</v>
       </c>
       <c r="AZ29" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="BA29" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="BB29" t="n">
-        <v>4.4</v>
+        <v>5</v>
       </c>
       <c r="BC29" t="n">
         <v>18.5</v>
       </c>
       <c r="BD29" t="n">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="BE29" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="BF29" t="n">
         <v>14</v>
       </c>
       <c r="BG29" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="BH29" t="inlineStr">
         <is>
-          <t>2026-02-23 12:51:28</t>
+          <t>2026-02-23 15:00:26</t>
         </is>
       </c>
     </row>
@@ -6218,13 +6218,13 @@
         <v>1.04</v>
       </c>
       <c r="N30" t="n">
-        <v>4.7</v>
+        <v>4.3</v>
       </c>
       <c r="O30" t="n">
         <v>1.23</v>
       </c>
       <c r="P30" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="Q30" t="n">
         <v>1.66</v>
@@ -6272,7 +6272,7 @@
         <v>90</v>
       </c>
       <c r="AF30" t="n">
-        <v>13</v>
+        <v>970</v>
       </c>
       <c r="AG30" t="n">
         <v>11.5</v>
@@ -6296,68 +6296,68 @@
         <v>110</v>
       </c>
       <c r="AN30" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AO30" t="n">
         <v>90</v>
       </c>
       <c r="AP30" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AQ30" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AR30" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AS30" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AT30" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AU30" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AV30" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AW30" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AX30" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="AY30" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="AZ30" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BA30" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="BB30" t="n">
         <v>4.3</v>
       </c>
-      <c r="AQ30" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="AR30" t="n">
+      <c r="BC30" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="BD30" t="n">
         <v>4.8</v>
       </c>
-      <c r="AS30" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="AT30" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="AU30" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AV30" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="AW30" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX30" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="AY30" t="n">
-        <v>4</v>
-      </c>
-      <c r="AZ30" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="BA30" t="n">
-        <v>5</v>
-      </c>
-      <c r="BB30" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="BC30" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="BD30" t="n">
-        <v>4.5</v>
-      </c>
       <c r="BE30" t="n">
-        <v>5</v>
+        <v>5.4</v>
       </c>
       <c r="BF30" t="n">
         <v>5.9</v>
       </c>
       <c r="BG30" t="n">
-        <v>4.9</v>
+        <v>5.3</v>
       </c>
       <c r="BH30" t="inlineStr">
         <is>
-          <t>2026-02-23 12:51:28</t>
+          <t>2026-02-23 15:00:26</t>
         </is>
       </c>
     </row>
@@ -6415,10 +6415,10 @@
         <v>2.36</v>
       </c>
       <c r="O31" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="P31" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="Q31" t="n">
         <v>2.96</v>
@@ -6430,10 +6430,10 @@
         <v>6.2</v>
       </c>
       <c r="T31" t="n">
-        <v>2.24</v>
+        <v>2.3</v>
       </c>
       <c r="U31" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="V31" t="n">
         <v>1.28</v>
@@ -6442,10 +6442,10 @@
         <v>1.73</v>
       </c>
       <c r="X31" t="n">
-        <v>9</v>
+        <v>7.8</v>
       </c>
       <c r="Y31" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="Z31" t="n">
         <v>36</v>
@@ -6460,13 +6460,13 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AD31" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AE31" t="n">
         <v>100</v>
       </c>
       <c r="AF31" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="AG31" t="n">
         <v>15</v>
@@ -6481,16 +6481,16 @@
         <v>42</v>
       </c>
       <c r="AK31" t="n">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AL31" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AM31" t="n">
         <v>310</v>
       </c>
       <c r="AN31" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AO31" t="n">
         <v>170</v>
@@ -6505,7 +6505,7 @@
         <v>19</v>
       </c>
       <c r="AS31" t="n">
-        <v>4.3</v>
+        <v>5.4</v>
       </c>
       <c r="AT31" t="n">
         <v>5.8</v>
@@ -6517,7 +6517,7 @@
         <v>16</v>
       </c>
       <c r="AW31" t="n">
-        <v>4.2</v>
+        <v>5.4</v>
       </c>
       <c r="AX31" t="n">
         <v>10.5</v>
@@ -6526,32 +6526,32 @@
         <v>11</v>
       </c>
       <c r="AZ31" t="n">
-        <v>3.9</v>
+        <v>4.8</v>
       </c>
       <c r="BA31" t="n">
-        <v>4.3</v>
+        <v>5.4</v>
       </c>
       <c r="BB31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BC31" t="n">
-        <v>4</v>
+        <v>4.9</v>
       </c>
       <c r="BD31" t="n">
-        <v>4.2</v>
+        <v>5.3</v>
       </c>
       <c r="BE31" t="n">
-        <v>4.3</v>
+        <v>5.6</v>
       </c>
       <c r="BF31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BG31" t="n">
-        <v>4.3</v>
+        <v>5.5</v>
       </c>
       <c r="BH31" t="inlineStr">
         <is>
-          <t>2026-02-23 12:51:28</t>
+          <t>2026-02-23 15:00:26</t>
         </is>
       </c>
     </row>
@@ -6588,16 +6588,16 @@
         <v>1.17</v>
       </c>
       <c r="H32" t="n">
+        <v>19</v>
+      </c>
+      <c r="I32" t="n">
         <v>20</v>
-      </c>
-      <c r="I32" t="n">
-        <v>21</v>
       </c>
       <c r="J32" t="n">
         <v>10.5</v>
       </c>
       <c r="K32" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="L32" t="n">
         <v>1.18</v>
@@ -6609,7 +6609,7 @@
         <v>10.5</v>
       </c>
       <c r="O32" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="P32" t="n">
         <v>4.1</v>
@@ -6621,13 +6621,13 @@
         <v>2.28</v>
       </c>
       <c r="S32" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="T32" t="n">
-        <v>2.02</v>
+        <v>1.99</v>
       </c>
       <c r="U32" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="V32" t="n">
         <v>1.05</v>
@@ -6636,10 +6636,10 @@
         <v>6.8</v>
       </c>
       <c r="X32" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="Y32" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="Z32" t="n">
         <v>220</v>
@@ -6648,31 +6648,31 @@
         <v>1000</v>
       </c>
       <c r="AB32" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AC32" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AD32" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AE32" t="n">
-        <v>330</v>
+        <v>300</v>
       </c>
       <c r="AF32" t="n">
         <v>11</v>
       </c>
       <c r="AG32" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AH32" t="n">
         <v>40</v>
       </c>
       <c r="AI32" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AJ32" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AK32" t="n">
         <v>13</v>
@@ -6684,46 +6684,46 @@
         <v>1000</v>
       </c>
       <c r="AN32" t="n">
-        <v>2.52</v>
+        <v>2.46</v>
       </c>
       <c r="AO32" t="n">
-        <v>320</v>
+        <v>280</v>
       </c>
       <c r="AP32" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AQ32" t="n">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="AR32" t="n">
         <v>48</v>
       </c>
       <c r="AS32" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="AT32" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AU32" t="n">
         <v>23</v>
       </c>
       <c r="AV32" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AW32" t="n">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="AX32" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="AY32" t="n">
         <v>13</v>
       </c>
       <c r="AZ32" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="BA32" t="n">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="BB32" t="n">
         <v>9</v>
@@ -6732,20 +6732,20 @@
         <v>12</v>
       </c>
       <c r="BD32" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="BE32" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="BF32" t="n">
         <v>2.42</v>
       </c>
       <c r="BG32" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="BH32" t="inlineStr">
         <is>
-          <t>2026-02-23 12:51:28</t>
+          <t>2026-02-23 15:00:26</t>
         </is>
       </c>
     </row>
@@ -6794,7 +6794,7 @@
         <v>4.3</v>
       </c>
       <c r="L33" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="M33" t="n">
         <v>1.05</v>
@@ -6803,7 +6803,7 @@
         <v>5</v>
       </c>
       <c r="O33" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="P33" t="n">
         <v>2.36</v>
@@ -6821,16 +6821,16 @@
         <v>1.7</v>
       </c>
       <c r="U33" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="V33" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="W33" t="n">
         <v>2.16</v>
       </c>
       <c r="X33" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Y33" t="n">
         <v>20</v>
@@ -6845,7 +6845,7 @@
         <v>11.5</v>
       </c>
       <c r="AC33" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AD33" t="n">
         <v>17.5</v>
@@ -6866,10 +6866,10 @@
         <v>50</v>
       </c>
       <c r="AJ33" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AK33" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AL33" t="n">
         <v>28</v>
@@ -6884,7 +6884,7 @@
         <v>44</v>
       </c>
       <c r="AP33" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AQ33" t="n">
         <v>19.5</v>
@@ -6899,7 +6899,7 @@
         <v>11</v>
       </c>
       <c r="AU33" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AV33" t="n">
         <v>16.5</v>
@@ -6932,14 +6932,14 @@
         <v>65</v>
       </c>
       <c r="BF33" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="BG33" t="n">
         <v>38</v>
       </c>
       <c r="BH33" t="inlineStr">
         <is>
-          <t>2026-02-23 12:51:28</t>
+          <t>2026-02-23 15:00:26</t>
         </is>
       </c>
     </row>
@@ -7000,16 +7000,16 @@
         <v>1.1</v>
       </c>
       <c r="P34" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="Q34" t="n">
         <v>1.34</v>
       </c>
       <c r="R34" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="S34" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="T34" t="n">
         <v>1.73</v>
@@ -7072,7 +7072,7 @@
         <v>95</v>
       </c>
       <c r="AN34" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="AO34" t="n">
         <v>110</v>
@@ -7084,10 +7084,10 @@
         <v>50</v>
       </c>
       <c r="AR34" t="n">
-        <v>100</v>
+        <v>42</v>
       </c>
       <c r="AS34" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AT34" t="n">
         <v>15.5</v>
@@ -7108,7 +7108,7 @@
         <v>10.5</v>
       </c>
       <c r="AZ34" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BA34" t="n">
         <v>80</v>
@@ -7133,7 +7133,7 @@
       </c>
       <c r="BH34" t="inlineStr">
         <is>
-          <t>2026-02-23 12:51:28</t>
+          <t>2026-02-23 15:00:26</t>
         </is>
       </c>
     </row>
@@ -7164,109 +7164,109 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="G35" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="H35" t="n">
-        <v>4.4</v>
+        <v>4.8</v>
       </c>
       <c r="I35" t="n">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="J35" t="n">
-        <v>3.3</v>
+        <v>3.05</v>
       </c>
       <c r="K35" t="n">
-        <v>4.1</v>
+        <v>3.7</v>
       </c>
       <c r="L35" t="n">
-        <v>1.46</v>
+        <v>1.51</v>
       </c>
       <c r="M35" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N35" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="O35" t="n">
         <v>1.1</v>
       </c>
-      <c r="N35" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="O35" t="n">
-        <v>1.49</v>
-      </c>
       <c r="P35" t="n">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.42</v>
+        <v>2.36</v>
       </c>
       <c r="R35" t="n">
         <v>1.21</v>
       </c>
       <c r="S35" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="T35" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="U35" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="V35" t="n">
-        <v>1.2</v>
+        <v>1.01</v>
       </c>
       <c r="W35" t="n">
-        <v>1.98</v>
+        <v>1.01</v>
       </c>
       <c r="X35" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="Y35" t="n">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="Z35" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="AA35" t="n">
         <v>1000</v>
       </c>
       <c r="AB35" t="n">
-        <v>7</v>
+        <v>7.8</v>
       </c>
       <c r="AC35" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="AD35" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AE35" t="n">
         <v>110</v>
       </c>
       <c r="AF35" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG35" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH35" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AI35" t="n">
         <v>130</v>
       </c>
       <c r="AJ35" t="n">
+        <v>26</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL35" t="n">
+        <v>65</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN35" t="n">
         <v>24</v>
-      </c>
-      <c r="AK35" t="n">
-        <v>27</v>
-      </c>
-      <c r="AL35" t="n">
-        <v>60</v>
-      </c>
-      <c r="AM35" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN35" t="n">
-        <v>22</v>
       </c>
       <c r="AO35" t="n">
         <v>1000</v>
@@ -7278,10 +7278,10 @@
         <v>11.5</v>
       </c>
       <c r="AR35" t="n">
-        <v>7.2</v>
+        <v>5</v>
       </c>
       <c r="AS35" t="n">
-        <v>8.199999999999999</v>
+        <v>5.4</v>
       </c>
       <c r="AT35" t="n">
         <v>5.8</v>
@@ -7293,7 +7293,7 @@
         <v>18</v>
       </c>
       <c r="AW35" t="n">
-        <v>8</v>
+        <v>5.3</v>
       </c>
       <c r="AX35" t="n">
         <v>8.800000000000001</v>
@@ -7305,7 +7305,7 @@
         <v>21</v>
       </c>
       <c r="BA35" t="n">
-        <v>8.199999999999999</v>
+        <v>5.3</v>
       </c>
       <c r="BB35" t="n">
         <v>19</v>
@@ -7314,20 +7314,20 @@
         <v>21</v>
       </c>
       <c r="BD35" t="n">
-        <v>7.6</v>
+        <v>5.1</v>
       </c>
       <c r="BE35" t="n">
-        <v>8.4</v>
+        <v>5.4</v>
       </c>
       <c r="BF35" t="n">
         <v>15.5</v>
       </c>
       <c r="BG35" t="n">
-        <v>8.199999999999999</v>
+        <v>5.4</v>
       </c>
       <c r="BH35" t="inlineStr">
         <is>
-          <t>2026-02-23 12:51:28</t>
+          <t>2026-02-23 15:00:26</t>
         </is>
       </c>
     </row>
@@ -7358,22 +7358,22 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1.48</v>
+        <v>1.52</v>
       </c>
       <c r="G36" t="n">
-        <v>1.83</v>
+        <v>1.64</v>
       </c>
       <c r="H36" t="n">
-        <v>6</v>
+        <v>7.4</v>
       </c>
       <c r="I36" t="n">
-        <v>11</v>
+        <v>9.6</v>
       </c>
       <c r="J36" t="n">
-        <v>1.1</v>
+        <v>3.75</v>
       </c>
       <c r="K36" t="n">
-        <v>500</v>
+        <v>4.5</v>
       </c>
       <c r="L36" t="n">
         <v>1.01</v>
@@ -7382,7 +7382,7 @@
         <v>1.08</v>
       </c>
       <c r="N36" t="n">
-        <v>2.72</v>
+        <v>3</v>
       </c>
       <c r="O36" t="n">
         <v>1.39</v>
@@ -7391,25 +7391,25 @@
         <v>1.69</v>
       </c>
       <c r="Q36" t="n">
-        <v>2</v>
+        <v>2.16</v>
       </c>
       <c r="R36" t="n">
         <v>1.25</v>
       </c>
       <c r="S36" t="n">
-        <v>3.65</v>
+        <v>4.1</v>
       </c>
       <c r="T36" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="U36" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="V36" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="W36" t="n">
-        <v>2.42</v>
+        <v>2.56</v>
       </c>
       <c r="X36" t="n">
         <v>14.5</v>
@@ -7424,10 +7424,10 @@
         <v>1000</v>
       </c>
       <c r="AB36" t="n">
-        <v>7.6</v>
+        <v>6.8</v>
       </c>
       <c r="AC36" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AD36" t="n">
         <v>40</v>
@@ -7439,7 +7439,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AG36" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AH36" t="n">
         <v>36</v>
@@ -7454,7 +7454,7 @@
         <v>24</v>
       </c>
       <c r="AL36" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM36" t="n">
         <v>1000</v>
@@ -7472,10 +7472,10 @@
         <v>17.5</v>
       </c>
       <c r="AR36" t="n">
-        <v>4.2</v>
+        <v>4.9</v>
       </c>
       <c r="AS36" t="n">
-        <v>4.4</v>
+        <v>5.2</v>
       </c>
       <c r="AT36" t="n">
         <v>5.6</v>
@@ -7484,10 +7484,10 @@
         <v>8</v>
       </c>
       <c r="AV36" t="n">
-        <v>4.1</v>
+        <v>4.8</v>
       </c>
       <c r="AW36" t="n">
-        <v>4.4</v>
+        <v>5.1</v>
       </c>
       <c r="AX36" t="n">
         <v>7</v>
@@ -7496,10 +7496,10 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AZ36" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="BA36" t="n">
-        <v>4.4</v>
+        <v>5.1</v>
       </c>
       <c r="BB36" t="n">
         <v>12</v>
@@ -7508,20 +7508,20 @@
         <v>16.5</v>
       </c>
       <c r="BD36" t="n">
-        <v>4.1</v>
+        <v>6.6</v>
       </c>
       <c r="BE36" t="n">
-        <v>4.4</v>
+        <v>5.1</v>
       </c>
       <c r="BF36" t="n">
         <v>8.6</v>
       </c>
       <c r="BG36" t="n">
-        <v>4.4</v>
+        <v>5.2</v>
       </c>
       <c r="BH36" t="inlineStr">
         <is>
-          <t>2026-02-23 12:51:28</t>
+          <t>2026-02-23 15:00:26</t>
         </is>
       </c>
     </row>
@@ -7555,7 +7555,7 @@
         <v>2.32</v>
       </c>
       <c r="G37" t="n">
-        <v>2.46</v>
+        <v>2.42</v>
       </c>
       <c r="H37" t="n">
         <v>4</v>
@@ -7582,7 +7582,7 @@
         <v>1.79</v>
       </c>
       <c r="P37" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="Q37" t="n">
         <v>3.4</v>
@@ -7591,10 +7591,10 @@
         <v>1.12</v>
       </c>
       <c r="S37" t="n">
-        <v>7.2</v>
+        <v>8</v>
       </c>
       <c r="T37" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="U37" t="n">
         <v>1.56</v>
@@ -7603,7 +7603,7 @@
         <v>1.3</v>
       </c>
       <c r="W37" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="X37" t="n">
         <v>6.4</v>
@@ -7633,7 +7633,7 @@
         <v>13</v>
       </c>
       <c r="AG37" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AH37" t="n">
         <v>38</v>
@@ -7669,7 +7669,7 @@
         <v>23</v>
       </c>
       <c r="AS37" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AT37" t="n">
         <v>5.4</v>
@@ -7681,7 +7681,7 @@
         <v>17.5</v>
       </c>
       <c r="AW37" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AX37" t="n">
         <v>11.5</v>
@@ -7693,29 +7693,29 @@
         <v>28</v>
       </c>
       <c r="BA37" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="BB37" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="BC37" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="BD37" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="BE37" t="n">
+        <v>12</v>
+      </c>
+      <c r="BF37" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG37" t="n">
         <v>11.5</v>
       </c>
-      <c r="BF37" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="BG37" t="n">
-        <v>11</v>
-      </c>
       <c r="BH37" t="inlineStr">
         <is>
-          <t>2026-02-23 12:51:28</t>
+          <t>2026-02-23 15:00:26</t>
         </is>
       </c>
     </row>
@@ -7749,19 +7749,19 @@
         <v>3.55</v>
       </c>
       <c r="G38" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="H38" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="I38" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="J38" t="n">
-        <v>2.7</v>
+        <v>2.74</v>
       </c>
       <c r="K38" t="n">
-        <v>2.98</v>
+        <v>2.96</v>
       </c>
       <c r="L38" t="n">
         <v>1.71</v>
@@ -7770,13 +7770,13 @@
         <v>1.17</v>
       </c>
       <c r="N38" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="O38" t="n">
         <v>1.71</v>
       </c>
       <c r="P38" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="Q38" t="n">
         <v>3.3</v>
@@ -7785,10 +7785,10 @@
         <v>1.12</v>
       </c>
       <c r="S38" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="T38" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="U38" t="n">
         <v>1.62</v>
@@ -7797,13 +7797,13 @@
         <v>1.6</v>
       </c>
       <c r="W38" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="X38" t="n">
         <v>6.8</v>
       </c>
       <c r="Y38" t="n">
-        <v>7.6</v>
+        <v>7</v>
       </c>
       <c r="Z38" t="n">
         <v>14.5</v>
@@ -7863,7 +7863,7 @@
         <v>12</v>
       </c>
       <c r="AS38" t="n">
-        <v>7.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AT38" t="n">
         <v>7.8</v>
@@ -7875,10 +7875,10 @@
         <v>12.5</v>
       </c>
       <c r="AW38" t="n">
-        <v>7.4</v>
+        <v>40</v>
       </c>
       <c r="AX38" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AY38" t="n">
         <v>16.5</v>
@@ -7887,29 +7887,29 @@
         <v>25</v>
       </c>
       <c r="BA38" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BB38" t="n">
-        <v>8.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="BC38" t="n">
-        <v>7.8</v>
+        <v>8.6</v>
       </c>
       <c r="BD38" t="n">
-        <v>8.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="BE38" t="n">
-        <v>8.6</v>
+        <v>9.4</v>
       </c>
       <c r="BF38" t="n">
-        <v>8.199999999999999</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="BG38" t="n">
-        <v>7.6</v>
+        <v>8.4</v>
       </c>
       <c r="BH38" t="inlineStr">
         <is>
-          <t>2026-02-23 12:51:28</t>
+          <t>2026-02-23 15:00:26</t>
         </is>
       </c>
     </row>
@@ -7943,7 +7943,7 @@
         <v>1.87</v>
       </c>
       <c r="G39" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="H39" t="n">
         <v>5.1</v>
@@ -7970,7 +7970,7 @@
         <v>1.49</v>
       </c>
       <c r="P39" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="Q39" t="n">
         <v>2.46</v>
@@ -7985,13 +7985,13 @@
         <v>2.22</v>
       </c>
       <c r="U39" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="V39" t="n">
         <v>1.22</v>
       </c>
       <c r="W39" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="X39" t="n">
         <v>11</v>
@@ -8000,7 +8000,7 @@
         <v>15</v>
       </c>
       <c r="Z39" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AA39" t="n">
         <v>160</v>
@@ -8054,7 +8054,7 @@
         <v>12</v>
       </c>
       <c r="AR39" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="AS39" t="n">
         <v>42</v>
@@ -8103,7 +8103,7 @@
       </c>
       <c r="BH39" t="inlineStr">
         <is>
-          <t>2026-02-23 12:51:28</t>
+          <t>2026-02-23 15:00:26</t>
         </is>
       </c>
     </row>
@@ -8161,7 +8161,7 @@
         <v>2.4</v>
       </c>
       <c r="O40" t="n">
-        <v>1.59</v>
+        <v>1.61</v>
       </c>
       <c r="P40" t="n">
         <v>1.47</v>
@@ -8173,10 +8173,10 @@
         <v>1.16</v>
       </c>
       <c r="S40" t="n">
-        <v>5.4</v>
+        <v>6</v>
       </c>
       <c r="T40" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="U40" t="n">
         <v>1.71</v>
@@ -8254,7 +8254,7 @@
         <v>5.4</v>
       </c>
       <c r="AT40" t="n">
-        <v>8.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="AU40" t="n">
         <v>6.2</v>
@@ -8297,7 +8297,201 @@
       </c>
       <c r="BH40" t="inlineStr">
         <is>
-          <t>2026-02-23 12:51:28</t>
+          <t>2026-02-23 15:00:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Honduras Liga Nacional</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>2026-02-24</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>22:00:00</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>CD Victoria</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Olancho</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="G41" t="n">
+        <v>990</v>
+      </c>
+      <c r="H41" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="I41" t="n">
+        <v>990</v>
+      </c>
+      <c r="J41" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="K41" t="n">
+        <v>500</v>
+      </c>
+      <c r="L41" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M41" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N41" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="O41" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P41" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="R41" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S41" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T41" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="U41" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="V41" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="W41" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="X41" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI41" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ41" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK41" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL41" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM41" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN41" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO41" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AP41" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AQ41" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AR41" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AS41" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AT41" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AU41" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AV41" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AW41" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AX41" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AY41" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AZ41" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BA41" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BB41" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BC41" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BD41" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BE41" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BF41" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BG41" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BH41" t="inlineStr">
+        <is>
+          <t>2026-02-23 15:00:26</t>
         </is>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-24.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-24.xlsx
@@ -762,13 +762,13 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="G2" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="H2" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="I2" t="n">
         <v>2.18</v>
@@ -780,7 +780,7 @@
         <v>3.5</v>
       </c>
       <c r="L2" t="n">
-        <v>1.01</v>
+        <v>1.4</v>
       </c>
       <c r="M2" t="n">
         <v>1.12</v>
@@ -789,10 +789,10 @@
         <v>2.5</v>
       </c>
       <c r="O2" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="P2" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="Q2" t="n">
         <v>2.58</v>
@@ -801,7 +801,7 @@
         <v>1.18</v>
       </c>
       <c r="S2" t="n">
-        <v>4.8</v>
+        <v>5.3</v>
       </c>
       <c r="T2" t="n">
         <v>2.16</v>
@@ -810,10 +810,10 @@
         <v>1.69</v>
       </c>
       <c r="V2" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="W2" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="X2" t="n">
         <v>10.5</v>
@@ -828,7 +828,7 @@
         <v>32</v>
       </c>
       <c r="AB2" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AC2" t="n">
         <v>9</v>
@@ -843,7 +843,7 @@
         <v>44</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AH2" t="n">
         <v>32</v>
@@ -870,19 +870,19 @@
         <v>32</v>
       </c>
       <c r="AP2" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AQ2" t="n">
         <v>5.6</v>
       </c>
       <c r="AR2" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AS2" t="n">
-        <v>21</v>
+        <v>3.95</v>
       </c>
       <c r="AT2" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AU2" t="n">
         <v>6.4</v>
@@ -891,10 +891,10 @@
         <v>9.6</v>
       </c>
       <c r="AW2" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="AX2" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="AY2" t="n">
         <v>17.5</v>
@@ -906,26 +906,26 @@
         <v>4.2</v>
       </c>
       <c r="BB2" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="BC2" t="n">
         <v>4.3</v>
       </c>
-      <c r="BC2" t="n">
-        <v>4.2</v>
-      </c>
       <c r="BD2" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="BE2" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="BF2" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="BG2" t="n">
-        <v>18.5</v>
+        <v>3.95</v>
       </c>
       <c r="BH2" t="inlineStr">
         <is>
-          <t>2026-02-23 15:00:26</t>
+          <t>2026-02-23 17:09:24</t>
         </is>
       </c>
     </row>
@@ -1119,7 +1119,7 @@
       </c>
       <c r="BH3" t="inlineStr">
         <is>
-          <t>2026-02-23 15:00:26</t>
+          <t>2026-02-23 17:09:24</t>
         </is>
       </c>
     </row>
@@ -1150,19 +1150,19 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="G4" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="H4" t="n">
         <v>6.4</v>
       </c>
       <c r="I4" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="J4" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K4" t="n">
         <v>4.7</v>
@@ -1198,10 +1198,10 @@
         <v>1.84</v>
       </c>
       <c r="V4" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="W4" t="n">
-        <v>2.66</v>
+        <v>2.6</v>
       </c>
       <c r="X4" t="n">
         <v>980</v>
@@ -1240,7 +1240,7 @@
         <v>130</v>
       </c>
       <c r="AJ4" t="n">
-        <v>980</v>
+        <v>16.5</v>
       </c>
       <c r="AK4" t="n">
         <v>980</v>
@@ -1258,62 +1258,62 @@
         <v>1000</v>
       </c>
       <c r="AP4" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="AQ4" t="n">
-        <v>4.6</v>
+        <v>5</v>
       </c>
       <c r="AR4" t="n">
-        <v>5.1</v>
+        <v>5.6</v>
       </c>
       <c r="AS4" t="n">
+        <v>6</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>4</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="BD4" t="n">
         <v>5.4</v>
       </c>
-      <c r="AT4" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AY4" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="AZ4" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="BA4" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="BB4" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="BC4" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="BD4" t="n">
-        <v>4.9</v>
-      </c>
       <c r="BE4" t="n">
-        <v>5.3</v>
+        <v>5.9</v>
       </c>
       <c r="BF4" t="n">
         <v>6.8</v>
       </c>
       <c r="BG4" t="n">
-        <v>5.3</v>
+        <v>5.9</v>
       </c>
       <c r="BH4" t="inlineStr">
         <is>
-          <t>2026-02-23 15:00:26</t>
+          <t>2026-02-23 17:09:24</t>
         </is>
       </c>
     </row>
@@ -1344,10 +1344,10 @@
         </is>
       </c>
       <c r="F5" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="G5" t="n">
         <v>1.43</v>
-      </c>
-      <c r="G5" t="n">
-        <v>1.44</v>
       </c>
       <c r="H5" t="n">
         <v>7.6</v>
@@ -1359,7 +1359,7 @@
         <v>5.8</v>
       </c>
       <c r="K5" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="L5" t="n">
         <v>1.25</v>
@@ -1380,7 +1380,7 @@
         <v>1.48</v>
       </c>
       <c r="R5" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="S5" t="n">
         <v>2.22</v>
@@ -1395,7 +1395,7 @@
         <v>1.14</v>
       </c>
       <c r="W5" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="X5" t="n">
         <v>36</v>
@@ -1428,10 +1428,10 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AH5" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AI5" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AJ5" t="n">
         <v>13.5</v>
@@ -1440,7 +1440,7 @@
         <v>13.5</v>
       </c>
       <c r="AL5" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AM5" t="n">
         <v>80</v>
@@ -1449,7 +1449,7 @@
         <v>4.7</v>
       </c>
       <c r="AO5" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AP5" t="n">
         <v>30</v>
@@ -1473,7 +1473,7 @@
         <v>26</v>
       </c>
       <c r="AW5" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AX5" t="n">
         <v>10</v>
@@ -1497,17 +1497,17 @@
         <v>23</v>
       </c>
       <c r="BE5" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="BF5" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="BG5" t="n">
         <v>60</v>
       </c>
       <c r="BH5" t="inlineStr">
         <is>
-          <t>2026-02-23 15:00:26</t>
+          <t>2026-02-23 17:09:24</t>
         </is>
       </c>
     </row>
@@ -1538,7 +1538,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.74</v>
+        <v>2.94</v>
       </c>
       <c r="G6" t="n">
         <v>3.7</v>
@@ -1547,46 +1547,46 @@
         <v>2.14</v>
       </c>
       <c r="I6" t="n">
-        <v>2.74</v>
+        <v>2.58</v>
       </c>
       <c r="J6" t="n">
-        <v>2.74</v>
+        <v>2.92</v>
       </c>
       <c r="K6" t="n">
         <v>4.1</v>
       </c>
       <c r="L6" t="n">
-        <v>1.36</v>
+        <v>1.32</v>
       </c>
       <c r="M6" t="n">
         <v>1.06</v>
       </c>
       <c r="N6" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="O6" t="n">
         <v>1.27</v>
       </c>
       <c r="P6" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="R6" t="n">
         <v>1.4</v>
       </c>
       <c r="S6" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="T6" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="U6" t="n">
         <v>2.24</v>
       </c>
       <c r="V6" t="n">
-        <v>1.57</v>
+        <v>1.63</v>
       </c>
       <c r="W6" t="n">
         <v>1.37</v>
@@ -1595,7 +1595,7 @@
         <v>1000</v>
       </c>
       <c r="Y6" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="Z6" t="n">
         <v>1000</v>
@@ -1604,13 +1604,13 @@
         <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AC6" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AD6" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AE6" t="n">
         <v>1000</v>
@@ -1619,10 +1619,10 @@
         <v>1000</v>
       </c>
       <c r="AG6" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AH6" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AI6" t="n">
         <v>1000</v>
@@ -1701,7 +1701,7 @@
       </c>
       <c r="BH6" t="inlineStr">
         <is>
-          <t>2026-02-23 15:00:26</t>
+          <t>2026-02-23 17:09:24</t>
         </is>
       </c>
     </row>
@@ -1738,49 +1738,49 @@
         <v>3.3</v>
       </c>
       <c r="H7" t="n">
-        <v>2.2</v>
+        <v>2.32</v>
       </c>
       <c r="I7" t="n">
-        <v>2.94</v>
+        <v>2.86</v>
       </c>
       <c r="J7" t="n">
-        <v>2.8</v>
+        <v>3.15</v>
       </c>
       <c r="K7" t="n">
         <v>4.1</v>
       </c>
       <c r="L7" t="n">
-        <v>1.3</v>
+        <v>1.35</v>
       </c>
       <c r="M7" t="n">
         <v>1.05</v>
       </c>
       <c r="N7" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="O7" t="n">
         <v>1.26</v>
       </c>
       <c r="P7" t="n">
-        <v>1.99</v>
+        <v>2.06</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.65</v>
+        <v>1.76</v>
       </c>
       <c r="R7" t="n">
         <v>1.42</v>
       </c>
       <c r="S7" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="T7" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="U7" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="V7" t="n">
-        <v>1.51</v>
+        <v>1.54</v>
       </c>
       <c r="W7" t="n">
         <v>1.43</v>
@@ -1895,7 +1895,7 @@
       </c>
       <c r="BH7" t="inlineStr">
         <is>
-          <t>2026-02-23 15:00:26</t>
+          <t>2026-02-23 17:09:24</t>
         </is>
       </c>
     </row>
@@ -1926,22 +1926,22 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.38</v>
+        <v>1.41</v>
       </c>
       <c r="G8" t="n">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
       <c r="H8" t="n">
         <v>5.7</v>
       </c>
       <c r="I8" t="n">
-        <v>990</v>
+        <v>24</v>
       </c>
       <c r="J8" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L8" t="n">
         <v>1.01</v>
@@ -1959,10 +1959,10 @@
         <v>2.06</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="R8" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="S8" t="n">
         <v>2.28</v>
@@ -1974,10 +1974,10 @@
         <v>1.05</v>
       </c>
       <c r="V8" t="n">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="W8" t="n">
-        <v>2.44</v>
+        <v>2.48</v>
       </c>
       <c r="X8" t="n">
         <v>1000</v>
@@ -2089,7 +2089,7 @@
       </c>
       <c r="BH8" t="inlineStr">
         <is>
-          <t>2026-02-23 15:00:26</t>
+          <t>2026-02-23 17:09:24</t>
         </is>
       </c>
     </row>
@@ -2123,7 +2123,7 @@
         <v>1.26</v>
       </c>
       <c r="G9" t="n">
-        <v>1.41</v>
+        <v>1.37</v>
       </c>
       <c r="H9" t="n">
         <v>6.4</v>
@@ -2132,7 +2132,7 @@
         <v>15</v>
       </c>
       <c r="J9" t="n">
-        <v>5.4</v>
+        <v>1.01</v>
       </c>
       <c r="K9" t="n">
         <v>7.2</v>
@@ -2159,7 +2159,7 @@
         <v>1.74</v>
       </c>
       <c r="S9" t="n">
-        <v>2</v>
+        <v>2.12</v>
       </c>
       <c r="T9" t="n">
         <v>1.87</v>
@@ -2283,7 +2283,7 @@
       </c>
       <c r="BH9" t="inlineStr">
         <is>
-          <t>2026-02-23 15:00:26</t>
+          <t>2026-02-23 17:09:24</t>
         </is>
       </c>
     </row>
@@ -2326,7 +2326,7 @@
         <v>4.6</v>
       </c>
       <c r="J10" t="n">
-        <v>2.84</v>
+        <v>2.92</v>
       </c>
       <c r="K10" t="n">
         <v>3.75</v>
@@ -2344,7 +2344,7 @@
         <v>1.36</v>
       </c>
       <c r="P10" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="Q10" t="n">
         <v>2.06</v>
@@ -2353,7 +2353,7 @@
         <v>1.3</v>
       </c>
       <c r="S10" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="T10" t="n">
         <v>1.84</v>
@@ -2477,7 +2477,7 @@
       </c>
       <c r="BH10" t="inlineStr">
         <is>
-          <t>2026-02-23 15:00:26</t>
+          <t>2026-02-23 17:09:24</t>
         </is>
       </c>
     </row>
@@ -2511,28 +2511,28 @@
         <v>6.4</v>
       </c>
       <c r="G11" t="n">
-        <v>9.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="H11" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="I11" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="J11" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="K11" t="n">
-        <v>4.9</v>
+        <v>5.3</v>
       </c>
       <c r="L11" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="M11" t="n">
         <v>1.04</v>
       </c>
       <c r="N11" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="O11" t="n">
         <v>1.19</v>
@@ -2550,16 +2550,16 @@
         <v>2.58</v>
       </c>
       <c r="T11" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="U11" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="V11" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="W11" t="n">
-        <v>1.12</v>
+        <v>1.14</v>
       </c>
       <c r="X11" t="n">
         <v>27</v>
@@ -2574,13 +2574,13 @@
         <v>17</v>
       </c>
       <c r="AB11" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC11" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AD11" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AE11" t="n">
         <v>18.5</v>
@@ -2595,7 +2595,7 @@
         <v>26</v>
       </c>
       <c r="AI11" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AJ11" t="n">
         <v>240</v>
@@ -2613,13 +2613,13 @@
         <v>1000</v>
       </c>
       <c r="AO11" t="n">
-        <v>7.6</v>
+        <v>6.8</v>
       </c>
       <c r="AP11" t="n">
         <v>19</v>
       </c>
       <c r="AQ11" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AR11" t="n">
         <v>8.6</v>
@@ -2640,7 +2640,7 @@
         <v>12.5</v>
       </c>
       <c r="AX11" t="n">
-        <v>4.2</v>
+        <v>5.3</v>
       </c>
       <c r="AY11" t="n">
         <v>21</v>
@@ -2652,26 +2652,26 @@
         <v>23</v>
       </c>
       <c r="BB11" t="n">
-        <v>4.4</v>
+        <v>5.5</v>
       </c>
       <c r="BC11" t="n">
-        <v>4.3</v>
+        <v>5.4</v>
       </c>
       <c r="BD11" t="n">
-        <v>4.3</v>
+        <v>5.3</v>
       </c>
       <c r="BE11" t="n">
-        <v>4.3</v>
+        <v>5.4</v>
       </c>
       <c r="BF11" t="n">
-        <v>4.3</v>
+        <v>5.4</v>
       </c>
       <c r="BG11" t="n">
         <v>5.5</v>
       </c>
       <c r="BH11" t="inlineStr">
         <is>
-          <t>2026-02-23 15:00:26</t>
+          <t>2026-02-23 17:09:24</t>
         </is>
       </c>
     </row>
@@ -2702,13 +2702,13 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="G12" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="H12" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="I12" t="n">
         <v>4.4</v>
@@ -2726,40 +2726,40 @@
         <v>1.05</v>
       </c>
       <c r="N12" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="O12" t="n">
         <v>1.22</v>
       </c>
       <c r="P12" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="R12" t="n">
-        <v>1.51</v>
+        <v>1.49</v>
       </c>
       <c r="S12" t="n">
         <v>2.68</v>
       </c>
       <c r="T12" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="U12" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="V12" t="n">
         <v>1.29</v>
       </c>
       <c r="W12" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="X12" t="n">
         <v>24</v>
       </c>
       <c r="Y12" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Z12" t="n">
         <v>38</v>
@@ -2768,58 +2768,58 @@
         <v>90</v>
       </c>
       <c r="AB12" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AC12" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AD12" t="n">
-        <v>19.5</v>
+        <v>17.5</v>
       </c>
       <c r="AE12" t="n">
         <v>55</v>
       </c>
       <c r="AF12" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AG12" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>19.5</v>
+        <v>17.5</v>
       </c>
       <c r="AI12" t="n">
         <v>55</v>
       </c>
       <c r="AJ12" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AK12" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL12" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AM12" t="n">
         <v>85</v>
       </c>
       <c r="AN12" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AO12" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AP12" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AQ12" t="n">
         <v>15.5</v>
       </c>
       <c r="AR12" t="n">
-        <v>5.1</v>
+        <v>25</v>
       </c>
       <c r="AS12" t="n">
-        <v>4.9</v>
+        <v>5.7</v>
       </c>
       <c r="AT12" t="n">
         <v>9.800000000000001</v>
@@ -2831,7 +2831,7 @@
         <v>14</v>
       </c>
       <c r="AW12" t="n">
-        <v>4.9</v>
+        <v>5.5</v>
       </c>
       <c r="AX12" t="n">
         <v>11.5</v>
@@ -2843,29 +2843,29 @@
         <v>14</v>
       </c>
       <c r="BA12" t="n">
-        <v>5</v>
+        <v>5.6</v>
       </c>
       <c r="BB12" t="n">
         <v>19</v>
       </c>
       <c r="BC12" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="BD12" t="n">
         <v>20</v>
       </c>
       <c r="BE12" t="n">
-        <v>4.8</v>
+        <v>5.7</v>
       </c>
       <c r="BF12" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="BG12" t="n">
-        <v>4.8</v>
+        <v>28</v>
       </c>
       <c r="BH12" t="inlineStr">
         <is>
-          <t>2026-02-23 15:00:26</t>
+          <t>2026-02-23 17:09:24</t>
         </is>
       </c>
     </row>
@@ -2896,82 +2896,82 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>6.8</v>
+        <v>9</v>
       </c>
       <c r="G13" t="n">
-        <v>14.5</v>
+        <v>11</v>
       </c>
       <c r="H13" t="n">
-        <v>1.27</v>
+        <v>1.33</v>
       </c>
       <c r="I13" t="n">
         <v>1.38</v>
       </c>
       <c r="J13" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="K13" t="n">
-        <v>8.6</v>
+        <v>6.6</v>
       </c>
       <c r="L13" t="n">
         <v>1.01</v>
       </c>
       <c r="M13" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N13" t="n">
-        <v>5.1</v>
+        <v>5.7</v>
       </c>
       <c r="O13" t="n">
         <v>1.17</v>
       </c>
       <c r="P13" t="n">
-        <v>2.48</v>
+        <v>2.62</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.41</v>
+        <v>1.49</v>
       </c>
       <c r="R13" t="n">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="S13" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="T13" t="n">
-        <v>1.77</v>
+        <v>1.83</v>
       </c>
       <c r="U13" t="n">
-        <v>1.05</v>
+        <v>2</v>
       </c>
       <c r="V13" t="n">
         <v>3.6</v>
       </c>
       <c r="W13" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="X13" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="Y13" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="Z13" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AA13" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AB13" t="n">
         <v>1000</v>
       </c>
       <c r="AC13" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AD13" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AF13" t="n">
         <v>1000</v>
@@ -2980,86 +2980,86 @@
         <v>1000</v>
       </c>
       <c r="AH13" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AI13" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AJ13" t="n">
-        <v>1000</v>
+        <v>340</v>
       </c>
       <c r="AK13" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AL13" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AM13" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AN13" t="n">
         <v>1000</v>
       </c>
       <c r="AO13" t="n">
-        <v>1000</v>
+        <v>4.8</v>
       </c>
       <c r="AP13" t="n">
-        <v>1.01</v>
+        <v>22</v>
       </c>
       <c r="AQ13" t="n">
-        <v>1.01</v>
+        <v>9.6</v>
       </c>
       <c r="AR13" t="n">
-        <v>1.01</v>
+        <v>8.4</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.01</v>
+        <v>10</v>
       </c>
       <c r="AT13" t="n">
-        <v>1.01</v>
+        <v>30</v>
       </c>
       <c r="AU13" t="n">
-        <v>1.01</v>
+        <v>11.5</v>
       </c>
       <c r="AV13" t="n">
-        <v>1.01</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AW13" t="n">
-        <v>1.01</v>
+        <v>11.5</v>
       </c>
       <c r="AX13" t="n">
-        <v>1.01</v>
+        <v>7.8</v>
       </c>
       <c r="AY13" t="n">
-        <v>1.01</v>
+        <v>6.8</v>
       </c>
       <c r="AZ13" t="n">
-        <v>1.01</v>
+        <v>20</v>
       </c>
       <c r="BA13" t="n">
-        <v>1.01</v>
+        <v>25</v>
       </c>
       <c r="BB13" t="n">
-        <v>1.01</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="BC13" t="n">
-        <v>1.01</v>
+        <v>8</v>
       </c>
       <c r="BD13" t="n">
-        <v>1.01</v>
+        <v>7.8</v>
       </c>
       <c r="BE13" t="n">
-        <v>1.01</v>
+        <v>7.8</v>
       </c>
       <c r="BF13" t="n">
-        <v>1.01</v>
+        <v>7.8</v>
       </c>
       <c r="BG13" t="n">
-        <v>1.01</v>
+        <v>3.75</v>
       </c>
       <c r="BH13" t="inlineStr">
         <is>
-          <t>2026-02-23 15:00:26</t>
+          <t>2026-02-23 17:09:24</t>
         </is>
       </c>
     </row>
@@ -3093,19 +3093,19 @@
         <v>3.05</v>
       </c>
       <c r="G14" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="H14" t="n">
-        <v>1.97</v>
+        <v>1.81</v>
       </c>
       <c r="I14" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="J14" t="n">
-        <v>3.2</v>
+        <v>1.1</v>
       </c>
       <c r="K14" t="n">
-        <v>7.2</v>
+        <v>950</v>
       </c>
       <c r="L14" t="n">
         <v>1.01</v>
@@ -3114,19 +3114,19 @@
         <v>1.04</v>
       </c>
       <c r="N14" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="O14" t="n">
         <v>1.18</v>
       </c>
       <c r="P14" t="n">
-        <v>2.18</v>
+        <v>2.38</v>
       </c>
       <c r="Q14" t="n">
         <v>1.5</v>
       </c>
       <c r="R14" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="S14" t="n">
         <v>2.46</v>
@@ -3156,7 +3156,7 @@
         <v>30</v>
       </c>
       <c r="AB14" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AC14" t="n">
         <v>12</v>
@@ -3165,13 +3165,13 @@
         <v>13.5</v>
       </c>
       <c r="AE14" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AF14" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AG14" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AH14" t="n">
         <v>19</v>
@@ -3195,7 +3195,7 @@
         <v>34</v>
       </c>
       <c r="AO14" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AP14" t="n">
         <v>19.5</v>
@@ -3204,16 +3204,16 @@
         <v>11.5</v>
       </c>
       <c r="AR14" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AS14" t="n">
         <v>21</v>
       </c>
       <c r="AT14" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AU14" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AV14" t="n">
         <v>9.6</v>
@@ -3237,23 +3237,23 @@
         <v>4.2</v>
       </c>
       <c r="BC14" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="BD14" t="n">
         <v>4.4</v>
       </c>
       <c r="BE14" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="BF14" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="BG14" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="BH14" t="inlineStr">
         <is>
-          <t>2026-02-23 15:00:26</t>
+          <t>2026-02-23 17:09:24</t>
         </is>
       </c>
     </row>
@@ -3284,22 +3284,22 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.45</v>
+        <v>1.41</v>
       </c>
       <c r="G15" t="n">
-        <v>1.53</v>
+        <v>1.47</v>
       </c>
       <c r="H15" t="n">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="I15" t="n">
-        <v>7.6</v>
+        <v>8.4</v>
       </c>
       <c r="J15" t="n">
-        <v>5.1</v>
+        <v>5.4</v>
       </c>
       <c r="K15" t="n">
-        <v>5.9</v>
+        <v>6.2</v>
       </c>
       <c r="L15" t="n">
         <v>1.01</v>
@@ -3308,34 +3308,34 @@
         <v>1.02</v>
       </c>
       <c r="N15" t="n">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="O15" t="n">
         <v>1.15</v>
       </c>
       <c r="P15" t="n">
-        <v>2.82</v>
+        <v>2.92</v>
       </c>
       <c r="Q15" t="n">
         <v>1.45</v>
       </c>
       <c r="R15" t="n">
-        <v>1.73</v>
+        <v>1.79</v>
       </c>
       <c r="S15" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="T15" t="n">
-        <v>1.64</v>
+        <v>1.67</v>
       </c>
       <c r="U15" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="V15" t="n">
-        <v>1.15</v>
+        <v>1.13</v>
       </c>
       <c r="W15" t="n">
-        <v>2.86</v>
+        <v>3.05</v>
       </c>
       <c r="X15" t="n">
         <v>38</v>
@@ -3362,7 +3362,7 @@
         <v>90</v>
       </c>
       <c r="AF15" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AG15" t="n">
         <v>12.5</v>
@@ -3374,10 +3374,10 @@
         <v>75</v>
       </c>
       <c r="AJ15" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AK15" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AL15" t="n">
         <v>32</v>
@@ -3392,16 +3392,16 @@
         <v>75</v>
       </c>
       <c r="AP15" t="n">
-        <v>5.6</v>
+        <v>6</v>
       </c>
       <c r="AQ15" t="n">
-        <v>5.7</v>
+        <v>6</v>
       </c>
       <c r="AR15" t="n">
-        <v>5.6</v>
+        <v>5.9</v>
       </c>
       <c r="AS15" t="n">
-        <v>5.7</v>
+        <v>6</v>
       </c>
       <c r="AT15" t="n">
         <v>11.5</v>
@@ -3413,7 +3413,7 @@
         <v>20</v>
       </c>
       <c r="AW15" t="n">
-        <v>5.6</v>
+        <v>5.9</v>
       </c>
       <c r="AX15" t="n">
         <v>10</v>
@@ -3425,7 +3425,7 @@
         <v>17</v>
       </c>
       <c r="BA15" t="n">
-        <v>5.6</v>
+        <v>5.9</v>
       </c>
       <c r="BB15" t="n">
         <v>12</v>
@@ -3437,17 +3437,17 @@
         <v>19.5</v>
       </c>
       <c r="BE15" t="n">
-        <v>5.6</v>
+        <v>5.9</v>
       </c>
       <c r="BF15" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="BG15" t="n">
-        <v>5.4</v>
+        <v>5.7</v>
       </c>
       <c r="BH15" t="inlineStr">
         <is>
-          <t>2026-02-23 15:00:26</t>
+          <t>2026-02-23 17:09:24</t>
         </is>
       </c>
     </row>
@@ -3478,49 +3478,49 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>8.6</v>
+        <v>9</v>
       </c>
       <c r="G16" t="n">
         <v>10.5</v>
       </c>
       <c r="H16" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="I16" t="n">
         <v>1.56</v>
       </c>
       <c r="J16" t="n">
-        <v>3.75</v>
+        <v>3.95</v>
       </c>
       <c r="K16" t="n">
         <v>4.5</v>
       </c>
       <c r="L16" t="n">
-        <v>1.48</v>
+        <v>1.01</v>
       </c>
       <c r="M16" t="n">
         <v>1.1</v>
       </c>
       <c r="N16" t="n">
-        <v>3</v>
+        <v>2.92</v>
       </c>
       <c r="O16" t="n">
         <v>1.43</v>
       </c>
       <c r="P16" t="n">
-        <v>1.56</v>
+        <v>1.64</v>
       </c>
       <c r="Q16" t="n">
         <v>2.26</v>
       </c>
       <c r="R16" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="S16" t="n">
         <v>4.3</v>
       </c>
       <c r="T16" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="U16" t="n">
         <v>1.62</v>
@@ -3538,13 +3538,13 @@
         <v>6.8</v>
       </c>
       <c r="Z16" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AA16" t="n">
         <v>15.5</v>
       </c>
       <c r="AB16" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AC16" t="n">
         <v>11.5</v>
@@ -3556,7 +3556,7 @@
         <v>23</v>
       </c>
       <c r="AF16" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AG16" t="n">
         <v>44</v>
@@ -3568,7 +3568,7 @@
         <v>60</v>
       </c>
       <c r="AJ16" t="n">
-        <v>510</v>
+        <v>520</v>
       </c>
       <c r="AK16" t="n">
         <v>250</v>
@@ -3598,7 +3598,7 @@
         <v>11.5</v>
       </c>
       <c r="AT16" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="AU16" t="n">
         <v>8.6</v>
@@ -3610,38 +3610,38 @@
         <v>17.5</v>
       </c>
       <c r="AX16" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AY16" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AZ16" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="BA16" t="n">
         <v>5.3</v>
       </c>
-      <c r="AY16" t="n">
-        <v>5</v>
-      </c>
-      <c r="AZ16" t="n">
-        <v>28</v>
-      </c>
-      <c r="BA16" t="n">
-        <v>5.2</v>
-      </c>
       <c r="BB16" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="BC16" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="BD16" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="BE16" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="BF16" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="BG16" t="n">
         <v>10</v>
       </c>
       <c r="BH16" t="inlineStr">
         <is>
-          <t>2026-02-23 15:00:26</t>
+          <t>2026-02-23 17:09:24</t>
         </is>
       </c>
     </row>
@@ -3672,22 +3672,22 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="G17" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="H17" t="n">
-        <v>8.4</v>
+        <v>9</v>
       </c>
       <c r="I17" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="J17" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="K17" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="L17" t="n">
         <v>1.01</v>
@@ -3696,19 +3696,19 @@
         <v>1.11</v>
       </c>
       <c r="N17" t="n">
-        <v>2.72</v>
+        <v>2.84</v>
       </c>
       <c r="O17" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="P17" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.48</v>
+        <v>2.44</v>
       </c>
       <c r="R17" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="S17" t="n">
         <v>5</v>
@@ -3717,16 +3717,16 @@
         <v>2.48</v>
       </c>
       <c r="U17" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="V17" t="n">
         <v>1.11</v>
       </c>
       <c r="W17" t="n">
-        <v>2.62</v>
+        <v>2.74</v>
       </c>
       <c r="X17" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="Y17" t="n">
         <v>970</v>
@@ -3738,10 +3738,10 @@
         <v>1000</v>
       </c>
       <c r="AB17" t="n">
-        <v>6.4</v>
+        <v>5.8</v>
       </c>
       <c r="AC17" t="n">
-        <v>11</v>
+        <v>9.6</v>
       </c>
       <c r="AD17" t="n">
         <v>970</v>
@@ -3750,7 +3750,7 @@
         <v>260</v>
       </c>
       <c r="AF17" t="n">
-        <v>970</v>
+        <v>7.4</v>
       </c>
       <c r="AG17" t="n">
         <v>11</v>
@@ -3762,80 +3762,80 @@
         <v>250</v>
       </c>
       <c r="AJ17" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="AK17" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AL17" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AM17" t="n">
         <v>370</v>
       </c>
       <c r="AN17" t="n">
-        <v>970</v>
+        <v>13.5</v>
       </c>
       <c r="AO17" t="n">
         <v>1000</v>
       </c>
       <c r="AP17" t="n">
-        <v>4.9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AQ17" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AR17" t="n">
-        <v>7.4</v>
+        <v>12</v>
       </c>
       <c r="AS17" t="n">
-        <v>3.9</v>
+        <v>4.8</v>
       </c>
       <c r="AT17" t="n">
-        <v>3.55</v>
+        <v>5.1</v>
       </c>
       <c r="AU17" t="n">
-        <v>4.8</v>
+        <v>8.4</v>
       </c>
       <c r="AV17" t="n">
+        <v>10</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AX17" t="n">
         <v>6.6</v>
-      </c>
-      <c r="AW17" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="AX17" t="n">
-        <v>6.8</v>
       </c>
       <c r="AY17" t="n">
         <v>9.6</v>
       </c>
       <c r="AZ17" t="n">
-        <v>6.6</v>
+        <v>10</v>
       </c>
       <c r="BA17" t="n">
-        <v>3.85</v>
+        <v>13.5</v>
       </c>
       <c r="BB17" t="n">
         <v>12.5</v>
       </c>
       <c r="BC17" t="n">
-        <v>6</v>
+        <v>8.4</v>
       </c>
       <c r="BD17" t="n">
-        <v>7.2</v>
+        <v>11.5</v>
       </c>
       <c r="BE17" t="n">
-        <v>3.9</v>
+        <v>13.5</v>
       </c>
       <c r="BF17" t="n">
         <v>12</v>
       </c>
       <c r="BG17" t="n">
-        <v>3.9</v>
+        <v>4.8</v>
       </c>
       <c r="BH17" t="inlineStr">
         <is>
-          <t>2026-02-23 15:00:26</t>
+          <t>2026-02-23 17:09:24</t>
         </is>
       </c>
     </row>
@@ -3872,16 +3872,16 @@
         <v>4.8</v>
       </c>
       <c r="H18" t="n">
-        <v>2.38</v>
+        <v>2.16</v>
       </c>
       <c r="I18" t="n">
-        <v>2.96</v>
+        <v>2.94</v>
       </c>
       <c r="J18" t="n">
         <v>2.56</v>
       </c>
       <c r="K18" t="n">
-        <v>3.35</v>
+        <v>3.55</v>
       </c>
       <c r="L18" t="n">
         <v>1.01</v>
@@ -3890,16 +3890,16 @@
         <v>1.12</v>
       </c>
       <c r="N18" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="O18" t="n">
         <v>1.62</v>
       </c>
       <c r="P18" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.7</v>
+        <v>2.66</v>
       </c>
       <c r="R18" t="n">
         <v>1.12</v>
@@ -3911,7 +3911,7 @@
         <v>1.05</v>
       </c>
       <c r="U18" t="n">
-        <v>1.05</v>
+        <v>1.63</v>
       </c>
       <c r="V18" t="n">
         <v>1.51</v>
@@ -3977,22 +3977,22 @@
         <v>2.22</v>
       </c>
       <c r="AQ18" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="AR18" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="AS18" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="AT18" t="n">
-        <v>2.48</v>
+        <v>8</v>
       </c>
       <c r="AU18" t="n">
         <v>2.32</v>
       </c>
       <c r="AV18" t="n">
-        <v>2.6</v>
+        <v>10.5</v>
       </c>
       <c r="AW18" t="n">
         <v>2.84</v>
@@ -4001,19 +4001,19 @@
         <v>2.78</v>
       </c>
       <c r="AY18" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="AZ18" t="n">
         <v>2.78</v>
       </c>
       <c r="BA18" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="BB18" t="n">
         <v>3</v>
       </c>
       <c r="BC18" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="BD18" t="n">
         <v>3</v>
@@ -4022,14 +4022,14 @@
         <v>3</v>
       </c>
       <c r="BF18" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="BG18" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="BH18" t="inlineStr">
         <is>
-          <t>2026-02-23 15:00:26</t>
+          <t>2026-02-23 17:09:24</t>
         </is>
       </c>
     </row>
@@ -4063,19 +4063,19 @@
         <v>2.24</v>
       </c>
       <c r="G19" t="n">
-        <v>2.38</v>
+        <v>2.32</v>
       </c>
       <c r="H19" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I19" t="n">
         <v>3.55</v>
       </c>
       <c r="J19" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="K19" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="L19" t="n">
         <v>1.39</v>
@@ -4084,7 +4084,7 @@
         <v>1.06</v>
       </c>
       <c r="N19" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="O19" t="n">
         <v>1.3</v>
@@ -4102,7 +4102,7 @@
         <v>3.25</v>
       </c>
       <c r="T19" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="U19" t="n">
         <v>2.2</v>
@@ -4111,7 +4111,7 @@
         <v>1.39</v>
       </c>
       <c r="W19" t="n">
-        <v>1.72</v>
+        <v>1.76</v>
       </c>
       <c r="X19" t="n">
         <v>970</v>
@@ -4123,7 +4123,7 @@
         <v>30</v>
       </c>
       <c r="AA19" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AB19" t="n">
         <v>11</v>
@@ -4135,10 +4135,10 @@
         <v>17</v>
       </c>
       <c r="AE19" t="n">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AF19" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AG19" t="n">
         <v>13.5</v>
@@ -4174,7 +4174,7 @@
         <v>4.2</v>
       </c>
       <c r="AR19" t="n">
-        <v>4.8</v>
+        <v>21</v>
       </c>
       <c r="AS19" t="n">
         <v>5.3</v>
@@ -4189,7 +4189,7 @@
         <v>4.3</v>
       </c>
       <c r="AW19" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="AX19" t="n">
         <v>11.5</v>
@@ -4198,7 +4198,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AZ19" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="BA19" t="n">
         <v>5.1</v>
@@ -4213,17 +4213,17 @@
         <v>5.1</v>
       </c>
       <c r="BE19" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="BF19" t="n">
         <v>12.5</v>
       </c>
       <c r="BG19" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="BH19" t="inlineStr">
         <is>
-          <t>2026-02-23 15:00:26</t>
+          <t>2026-02-23 17:09:24</t>
         </is>
       </c>
     </row>
@@ -4254,19 +4254,19 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="G20" t="n">
         <v>3.65</v>
       </c>
       <c r="H20" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="I20" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="J20" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K20" t="n">
         <v>4.2</v>
@@ -4284,10 +4284,10 @@
         <v>1.23</v>
       </c>
       <c r="P20" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.62</v>
+        <v>1.68</v>
       </c>
       <c r="R20" t="n">
         <v>1.46</v>
@@ -4296,13 +4296,13 @@
         <v>2.52</v>
       </c>
       <c r="T20" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="U20" t="n">
         <v>2.3</v>
       </c>
       <c r="V20" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="W20" t="n">
         <v>1.37</v>
@@ -4344,10 +4344,10 @@
         <v>36</v>
       </c>
       <c r="AJ20" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AK20" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AL20" t="n">
         <v>48</v>
@@ -4359,65 +4359,65 @@
         <v>34</v>
       </c>
       <c r="AO20" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="AP20" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="AQ20" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AR20" t="n">
-        <v>3.95</v>
+        <v>4.2</v>
       </c>
       <c r="AS20" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="AT20" t="n">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="AU20" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="AV20" t="n">
-        <v>3.65</v>
+        <v>3.9</v>
       </c>
       <c r="AW20" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AX20" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AY20" t="n">
         <v>4.2</v>
       </c>
-      <c r="AX20" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="AY20" t="n">
+      <c r="AZ20" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BA20" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="BB20" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="BC20" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="BD20" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="BE20" t="n">
+        <v>5</v>
+      </c>
+      <c r="BF20" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="BG20" t="n">
         <v>3.9</v>
       </c>
-      <c r="AZ20" t="n">
-        <v>4</v>
-      </c>
-      <c r="BA20" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="BB20" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="BC20" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="BD20" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="BE20" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="BF20" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="BG20" t="n">
-        <v>3.8</v>
-      </c>
       <c r="BH20" t="inlineStr">
         <is>
-          <t>2026-02-23 15:00:26</t>
+          <t>2026-02-23 17:09:24</t>
         </is>
       </c>
     </row>
@@ -4448,19 +4448,19 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="G21" t="n">
         <v>1.9</v>
       </c>
       <c r="H21" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="I21" t="n">
         <v>5.2</v>
       </c>
       <c r="J21" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="K21" t="n">
         <v>4.8</v>
@@ -4469,7 +4469,7 @@
         <v>1.22</v>
       </c>
       <c r="M21" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N21" t="n">
         <v>1.1</v>
@@ -4481,22 +4481,22 @@
         <v>2.16</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="R21" t="n">
         <v>1.52</v>
       </c>
       <c r="S21" t="n">
-        <v>2.02</v>
+        <v>2.22</v>
       </c>
       <c r="T21" t="n">
-        <v>1.49</v>
+        <v>1.63</v>
       </c>
       <c r="U21" t="n">
-        <v>2</v>
+        <v>2.24</v>
       </c>
       <c r="V21" t="n">
-        <v>1.23</v>
+        <v>1.27</v>
       </c>
       <c r="W21" t="n">
         <v>2.1</v>
@@ -4556,62 +4556,62 @@
         <v>55</v>
       </c>
       <c r="AP21" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>5</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AU21" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AV21" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AX21" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="AY21" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AZ21" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BA21" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="BB21" t="n">
         <v>4.3</v>
       </c>
-      <c r="AQ21" t="n">
+      <c r="BC21" t="n">
         <v>4.2</v>
       </c>
-      <c r="AR21" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="AS21" t="n">
+      <c r="BD21" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BE21" t="n">
         <v>4.9</v>
       </c>
-      <c r="AT21" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="AU21" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="AV21" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="AW21" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="AX21" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="AY21" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AZ21" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="BA21" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="BB21" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="BC21" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="BD21" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="BE21" t="n">
-        <v>4.8</v>
-      </c>
       <c r="BF21" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="BG21" t="n">
         <v>4.7</v>
       </c>
       <c r="BH21" t="inlineStr">
         <is>
-          <t>2026-02-23 15:00:26</t>
+          <t>2026-02-23 17:09:24</t>
         </is>
       </c>
     </row>
@@ -4642,19 +4642,19 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="G22" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="H22" t="n">
         <v>2.04</v>
       </c>
       <c r="I22" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="J22" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K22" t="n">
         <v>4.3</v>
@@ -4690,7 +4690,7 @@
         <v>2.26</v>
       </c>
       <c r="V22" t="n">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="W22" t="n">
         <v>1.35</v>
@@ -4699,10 +4699,10 @@
         <v>20</v>
       </c>
       <c r="Y22" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Z22" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AA22" t="n">
         <v>34</v>
@@ -4717,7 +4717,7 @@
         <v>13.5</v>
       </c>
       <c r="AE22" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AF22" t="n">
         <v>32</v>
@@ -4738,74 +4738,74 @@
         <v>46</v>
       </c>
       <c r="AL22" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AM22" t="n">
         <v>90</v>
       </c>
       <c r="AN22" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AO22" t="n">
         <v>16</v>
       </c>
       <c r="AP22" t="n">
-        <v>3.65</v>
+        <v>3.85</v>
       </c>
       <c r="AQ22" t="n">
-        <v>3.35</v>
+        <v>3.6</v>
       </c>
       <c r="AR22" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AV22" t="n">
         <v>3.6</v>
       </c>
-      <c r="AS22" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="AT22" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AU22" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="AV22" t="n">
-        <v>3.35</v>
-      </c>
       <c r="AW22" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX22" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AY22" t="n">
         <v>3.8</v>
       </c>
-      <c r="AX22" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="AY22" t="n">
-        <v>3.55</v>
-      </c>
       <c r="AZ22" t="n">
-        <v>3.65</v>
+        <v>3.85</v>
       </c>
       <c r="BA22" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="BB22" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="BC22" t="n">
         <v>4.2</v>
       </c>
-      <c r="BC22" t="n">
-        <v>4</v>
-      </c>
       <c r="BD22" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="BE22" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="BF22" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="BG22" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="BH22" t="inlineStr">
         <is>
-          <t>2026-02-23 15:00:26</t>
+          <t>2026-02-23 17:09:24</t>
         </is>
       </c>
     </row>
@@ -4869,7 +4869,7 @@
         <v>1.69</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="R23" t="n">
         <v>1.26</v>
@@ -4878,10 +4878,10 @@
         <v>4.1</v>
       </c>
       <c r="T23" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="U23" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="V23" t="n">
         <v>1.59</v>
@@ -4911,7 +4911,7 @@
         <v>14.5</v>
       </c>
       <c r="AE23" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AF23" t="n">
         <v>24</v>
@@ -4950,16 +4950,16 @@
         <v>7.8</v>
       </c>
       <c r="AR23" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="AS23" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="AT23" t="n">
-        <v>9.4</v>
+        <v>4</v>
       </c>
       <c r="AU23" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="AV23" t="n">
         <v>10</v>
@@ -4968,13 +4968,13 @@
         <v>4.6</v>
       </c>
       <c r="AX23" t="n">
-        <v>18.5</v>
+        <v>4.5</v>
       </c>
       <c r="AY23" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="AZ23" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="BA23" t="n">
         <v>4.9</v>
@@ -4992,14 +4992,14 @@
         <v>5.1</v>
       </c>
       <c r="BF23" t="n">
-        <v>30</v>
+        <v>4.9</v>
       </c>
       <c r="BG23" t="n">
         <v>20</v>
       </c>
       <c r="BH23" t="inlineStr">
         <is>
-          <t>2026-02-23 15:00:26</t>
+          <t>2026-02-23 17:09:24</t>
         </is>
       </c>
     </row>
@@ -5054,13 +5054,13 @@
         <v>1.04</v>
       </c>
       <c r="N24" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="O24" t="n">
         <v>1.23</v>
       </c>
       <c r="P24" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="Q24" t="n">
         <v>1.67</v>
@@ -5165,7 +5165,7 @@
         <v>2.64</v>
       </c>
       <c r="AY24" t="n">
-        <v>2.66</v>
+        <v>20</v>
       </c>
       <c r="AZ24" t="n">
         <v>2.5</v>
@@ -5193,7 +5193,7 @@
       </c>
       <c r="BH24" t="inlineStr">
         <is>
-          <t>2026-02-23 15:00:26</t>
+          <t>2026-02-23 17:09:24</t>
         </is>
       </c>
     </row>
@@ -5227,19 +5227,19 @@
         <v>2.2</v>
       </c>
       <c r="G25" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="H25" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I25" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="J25" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="K25" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L25" t="n">
         <v>1.28</v>
@@ -5248,40 +5248,40 @@
         <v>1.05</v>
       </c>
       <c r="N25" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="O25" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="P25" t="n">
-        <v>2.24</v>
+        <v>2.36</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="R25" t="n">
-        <v>1.5</v>
+        <v>1.54</v>
       </c>
       <c r="S25" t="n">
-        <v>2.62</v>
+        <v>2.5</v>
       </c>
       <c r="T25" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="U25" t="n">
-        <v>2.22</v>
+        <v>2.44</v>
       </c>
       <c r="V25" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="W25" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="X25" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Y25" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="Z25" t="n">
         <v>32</v>
@@ -5299,7 +5299,7 @@
         <v>17</v>
       </c>
       <c r="AE25" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AF25" t="n">
         <v>18</v>
@@ -5308,16 +5308,16 @@
         <v>13</v>
       </c>
       <c r="AH25" t="n">
-        <v>18.5</v>
+        <v>16.5</v>
       </c>
       <c r="AI25" t="n">
         <v>48</v>
       </c>
       <c r="AJ25" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AK25" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AL25" t="n">
         <v>32</v>
@@ -5326,68 +5326,68 @@
         <v>1000</v>
       </c>
       <c r="AN25" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AO25" t="n">
         <v>1000</v>
       </c>
       <c r="AP25" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AU25" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AV25" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AW25" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AX25" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AY25" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AZ25" t="n">
         <v>4.5</v>
       </c>
-      <c r="AQ25" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="AR25" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AS25" t="n">
+      <c r="BA25" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="BB25" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="BC25" t="n">
         <v>4.9</v>
-      </c>
-      <c r="AT25" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="AU25" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV25" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="AW25" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="AX25" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="AY25" t="n">
-        <v>4</v>
-      </c>
-      <c r="AZ25" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="BA25" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="BB25" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="BC25" t="n">
-        <v>4.5</v>
       </c>
       <c r="BD25" t="n">
         <v>5.1</v>
       </c>
       <c r="BE25" t="n">
-        <v>4.9</v>
+        <v>5.6</v>
       </c>
       <c r="BF25" t="n">
-        <v>4.1</v>
+        <v>9</v>
       </c>
       <c r="BG25" t="n">
-        <v>21</v>
+        <v>5.1</v>
       </c>
       <c r="BH25" t="inlineStr">
         <is>
-          <t>2026-02-23 15:00:26</t>
+          <t>2026-02-23 17:09:24</t>
         </is>
       </c>
     </row>
@@ -5424,19 +5424,19 @@
         <v>5.5</v>
       </c>
       <c r="H26" t="n">
-        <v>1.78</v>
+        <v>1.81</v>
       </c>
       <c r="I26" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="J26" t="n">
         <v>3.5</v>
       </c>
       <c r="K26" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="L26" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="M26" t="n">
         <v>1.07</v>
@@ -5463,10 +5463,10 @@
         <v>1.84</v>
       </c>
       <c r="U26" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="V26" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="W26" t="n">
         <v>1.22</v>
@@ -5484,19 +5484,19 @@
         <v>24</v>
       </c>
       <c r="AB26" t="n">
-        <v>970</v>
+        <v>19</v>
       </c>
       <c r="AC26" t="n">
-        <v>970</v>
+        <v>9.6</v>
       </c>
       <c r="AD26" t="n">
         <v>970</v>
       </c>
       <c r="AE26" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AF26" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AG26" t="n">
         <v>970</v>
@@ -5505,7 +5505,7 @@
         <v>970</v>
       </c>
       <c r="AI26" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AJ26" t="n">
         <v>1000</v>
@@ -5517,7 +5517,7 @@
         <v>85</v>
       </c>
       <c r="AM26" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AN26" t="n">
         <v>95</v>
@@ -5529,59 +5529,59 @@
         <v>10.5</v>
       </c>
       <c r="AQ26" t="n">
-        <v>3.65</v>
+        <v>4</v>
       </c>
       <c r="AR26" t="n">
-        <v>3.8</v>
+        <v>9.4</v>
       </c>
       <c r="AS26" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AT26" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AU26" t="n">
         <v>4.2</v>
       </c>
-      <c r="AT26" t="n">
+      <c r="AV26" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AW26" t="n">
+        <v>15</v>
+      </c>
+      <c r="AX26" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AY26" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AZ26" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="BA26" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="BB26" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="BC26" t="n">
         <v>4</v>
       </c>
-      <c r="AU26" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="AV26" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AW26" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="AX26" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="AY26" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="AZ26" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="BA26" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="BB26" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="BC26" t="n">
-        <v>4.8</v>
-      </c>
       <c r="BD26" t="n">
-        <v>4.9</v>
+        <v>6.2</v>
       </c>
       <c r="BE26" t="n">
-        <v>4.9</v>
+        <v>3.95</v>
       </c>
       <c r="BF26" t="n">
-        <v>4.8</v>
+        <v>4</v>
       </c>
       <c r="BG26" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="BH26" t="inlineStr">
         <is>
-          <t>2026-02-23 15:00:26</t>
+          <t>2026-02-23 17:09:24</t>
         </is>
       </c>
     </row>
@@ -5618,19 +5618,19 @@
         <v>2.54</v>
       </c>
       <c r="H27" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="I27" t="n">
         <v>3.2</v>
       </c>
       <c r="J27" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K27" t="n">
         <v>4.1</v>
       </c>
       <c r="L27" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="M27" t="n">
         <v>1.05</v>
@@ -5642,7 +5642,7 @@
         <v>1.24</v>
       </c>
       <c r="P27" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="Q27" t="n">
         <v>1.74</v>
@@ -5657,13 +5657,13 @@
         <v>1.6</v>
       </c>
       <c r="U27" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="V27" t="n">
         <v>1.46</v>
       </c>
       <c r="W27" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="X27" t="n">
         <v>23</v>
@@ -5705,7 +5705,7 @@
         <v>40</v>
       </c>
       <c r="AK27" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AL27" t="n">
         <v>40</v>
@@ -5729,7 +5729,7 @@
         <v>19</v>
       </c>
       <c r="AS27" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="AT27" t="n">
         <v>9.4</v>
@@ -5753,19 +5753,19 @@
         <v>13</v>
       </c>
       <c r="BA27" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="BB27" t="n">
         <v>4.5</v>
       </c>
       <c r="BC27" t="n">
-        <v>17.5</v>
+        <v>20</v>
       </c>
       <c r="BD27" t="n">
         <v>4.5</v>
       </c>
       <c r="BE27" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="BF27" t="n">
         <v>11.5</v>
@@ -5775,7 +5775,7 @@
       </c>
       <c r="BH27" t="inlineStr">
         <is>
-          <t>2026-02-23 15:00:26</t>
+          <t>2026-02-23 17:09:24</t>
         </is>
       </c>
     </row>
@@ -5806,22 +5806,22 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="G28" t="n">
-        <v>4.2</v>
+        <v>3.95</v>
       </c>
       <c r="H28" t="n">
-        <v>1.88</v>
+        <v>1.97</v>
       </c>
       <c r="I28" t="n">
-        <v>2.04</v>
+        <v>2.1</v>
       </c>
       <c r="J28" t="n">
         <v>4</v>
       </c>
       <c r="K28" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="L28" t="n">
         <v>1.21</v>
@@ -5836,28 +5836,28 @@
         <v>1.16</v>
       </c>
       <c r="P28" t="n">
-        <v>2.7</v>
+        <v>2.58</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="R28" t="n">
         <v>1.7</v>
       </c>
       <c r="S28" t="n">
-        <v>2.08</v>
+        <v>2.18</v>
       </c>
       <c r="T28" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="U28" t="n">
         <v>2.6</v>
       </c>
       <c r="V28" t="n">
-        <v>1.96</v>
+        <v>1.9</v>
       </c>
       <c r="W28" t="n">
-        <v>1.31</v>
+        <v>1.34</v>
       </c>
       <c r="X28" t="n">
         <v>970</v>
@@ -5869,22 +5869,22 @@
         <v>970</v>
       </c>
       <c r="AA28" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AB28" t="n">
         <v>970</v>
       </c>
       <c r="AC28" t="n">
-        <v>13</v>
+        <v>970</v>
       </c>
       <c r="AD28" t="n">
-        <v>13.5</v>
+        <v>970</v>
       </c>
       <c r="AE28" t="n">
-        <v>22</v>
+        <v>970</v>
       </c>
       <c r="AF28" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AG28" t="n">
         <v>970</v>
@@ -5893,28 +5893,28 @@
         <v>970</v>
       </c>
       <c r="AI28" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AJ28" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AK28" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AL28" t="n">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AM28" t="n">
         <v>65</v>
       </c>
       <c r="AN28" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AO28" t="n">
         <v>9.4</v>
       </c>
       <c r="AP28" t="n">
-        <v>4.1</v>
+        <v>6</v>
       </c>
       <c r="AQ28" t="n">
         <v>11.5</v>
@@ -5923,53 +5923,53 @@
         <v>11.5</v>
       </c>
       <c r="AS28" t="n">
-        <v>16.5</v>
+        <v>5.7</v>
       </c>
       <c r="AT28" t="n">
-        <v>16.5</v>
+        <v>5.5</v>
       </c>
       <c r="AU28" t="n">
-        <v>3.45</v>
+        <v>4.4</v>
       </c>
       <c r="AV28" t="n">
-        <v>3.5</v>
+        <v>4.6</v>
       </c>
       <c r="AW28" t="n">
-        <v>3.8</v>
+        <v>5.3</v>
       </c>
       <c r="AX28" t="n">
-        <v>4</v>
+        <v>5.9</v>
       </c>
       <c r="AY28" t="n">
-        <v>3.75</v>
+        <v>5.1</v>
       </c>
       <c r="AZ28" t="n">
-        <v>3.7</v>
+        <v>5</v>
       </c>
       <c r="BA28" t="n">
-        <v>3.95</v>
+        <v>5.7</v>
       </c>
       <c r="BB28" t="n">
-        <v>4.3</v>
+        <v>6</v>
       </c>
       <c r="BC28" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD28" t="n">
+        <v>6</v>
+      </c>
+      <c r="BE28" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="BF28" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="BG28" t="n">
         <v>4.1</v>
       </c>
-      <c r="BD28" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="BE28" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="BF28" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="BG28" t="n">
-        <v>6.2</v>
-      </c>
       <c r="BH28" t="inlineStr">
         <is>
-          <t>2026-02-23 15:00:26</t>
+          <t>2026-02-23 17:09:24</t>
         </is>
       </c>
     </row>
@@ -6000,16 +6000,16 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="G29" t="n">
         <v>2.4</v>
       </c>
       <c r="H29" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="I29" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="J29" t="n">
         <v>3.3</v>
@@ -6018,7 +6018,7 @@
         <v>3.9</v>
       </c>
       <c r="L29" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="M29" t="n">
         <v>1.07</v>
@@ -6033,10 +6033,10 @@
         <v>1.85</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.85</v>
+        <v>1.94</v>
       </c>
       <c r="R29" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="S29" t="n">
         <v>3.4</v>
@@ -6048,7 +6048,7 @@
         <v>2.06</v>
       </c>
       <c r="V29" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="W29" t="n">
         <v>1.72</v>
@@ -6111,10 +6111,10 @@
         <v>11.5</v>
       </c>
       <c r="AQ29" t="n">
-        <v>10</v>
+        <v>4.1</v>
       </c>
       <c r="AR29" t="n">
-        <v>19.5</v>
+        <v>4.8</v>
       </c>
       <c r="AS29" t="n">
         <v>4.8</v>
@@ -6126,13 +6126,13 @@
         <v>6.8</v>
       </c>
       <c r="AV29" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AW29" t="n">
         <v>4.8</v>
       </c>
       <c r="AX29" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AY29" t="n">
         <v>9.4</v>
@@ -6147,7 +6147,7 @@
         <v>5</v>
       </c>
       <c r="BC29" t="n">
-        <v>18.5</v>
+        <v>4.7</v>
       </c>
       <c r="BD29" t="n">
         <v>4.8</v>
@@ -6156,14 +6156,14 @@
         <v>4.9</v>
       </c>
       <c r="BF29" t="n">
-        <v>14</v>
+        <v>4.6</v>
       </c>
       <c r="BG29" t="n">
         <v>4.8</v>
       </c>
       <c r="BH29" t="inlineStr">
         <is>
-          <t>2026-02-23 15:00:26</t>
+          <t>2026-02-23 17:09:24</t>
         </is>
       </c>
     </row>
@@ -6194,22 +6194,22 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.61</v>
+        <v>1.59</v>
       </c>
       <c r="G30" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="H30" t="n">
-        <v>5.8</v>
+        <v>5.5</v>
       </c>
       <c r="I30" t="n">
         <v>6.4</v>
       </c>
       <c r="J30" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="K30" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="L30" t="n">
         <v>1.28</v>
@@ -6218,16 +6218,16 @@
         <v>1.04</v>
       </c>
       <c r="N30" t="n">
-        <v>4.3</v>
+        <v>4.7</v>
       </c>
       <c r="O30" t="n">
         <v>1.23</v>
       </c>
       <c r="P30" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="R30" t="n">
         <v>1.52</v>
@@ -6242,10 +6242,10 @@
         <v>2.14</v>
       </c>
       <c r="V30" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="W30" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="X30" t="n">
         <v>970</v>
@@ -6269,7 +6269,7 @@
         <v>970</v>
       </c>
       <c r="AE30" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AF30" t="n">
         <v>970</v>
@@ -6284,80 +6284,80 @@
         <v>80</v>
       </c>
       <c r="AJ30" t="n">
-        <v>970</v>
+        <v>18</v>
       </c>
       <c r="AK30" t="n">
-        <v>970</v>
+        <v>18</v>
       </c>
       <c r="AL30" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AM30" t="n">
         <v>110</v>
       </c>
       <c r="AN30" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AO30" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AP30" t="n">
-        <v>4.5</v>
+        <v>5.1</v>
       </c>
       <c r="AQ30" t="n">
-        <v>4.7</v>
+        <v>5.3</v>
       </c>
       <c r="AR30" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AS30" t="n">
+        <v>6</v>
+      </c>
+      <c r="AT30" t="n">
+        <v>9</v>
+      </c>
+      <c r="AU30" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AV30" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AW30" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AX30" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AY30" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AZ30" t="n">
         <v>5.1</v>
       </c>
-      <c r="AS30" t="n">
+      <c r="BA30" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="BB30" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="BC30" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="BD30" t="n">
         <v>5.5</v>
       </c>
-      <c r="AT30" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="AU30" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="AV30" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="AW30" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="AX30" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="AY30" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="AZ30" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="BA30" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="BB30" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="BC30" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="BD30" t="n">
-        <v>4.8</v>
-      </c>
       <c r="BE30" t="n">
-        <v>5.4</v>
+        <v>6.2</v>
       </c>
       <c r="BF30" t="n">
         <v>5.9</v>
       </c>
       <c r="BG30" t="n">
-        <v>5.3</v>
+        <v>6</v>
       </c>
       <c r="BH30" t="inlineStr">
         <is>
-          <t>2026-02-23 15:00:26</t>
+          <t>2026-02-23 17:09:24</t>
         </is>
       </c>
     </row>
@@ -6400,19 +6400,19 @@
         <v>4.5</v>
       </c>
       <c r="J31" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="K31" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="L31" t="n">
-        <v>1.01</v>
+        <v>1.64</v>
       </c>
       <c r="M31" t="n">
         <v>1.15</v>
       </c>
       <c r="N31" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="O31" t="n">
         <v>1.65</v>
@@ -6430,7 +6430,7 @@
         <v>6.2</v>
       </c>
       <c r="T31" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="U31" t="n">
         <v>1.66</v>
@@ -6448,7 +6448,7 @@
         <v>11</v>
       </c>
       <c r="Z31" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AA31" t="n">
         <v>140</v>
@@ -6460,7 +6460,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AD31" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AE31" t="n">
         <v>100</v>
@@ -6505,7 +6505,7 @@
         <v>19</v>
       </c>
       <c r="AS31" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="AT31" t="n">
         <v>5.8</v>
@@ -6517,7 +6517,7 @@
         <v>16</v>
       </c>
       <c r="AW31" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="AX31" t="n">
         <v>10.5</v>
@@ -6526,32 +6526,32 @@
         <v>11</v>
       </c>
       <c r="AZ31" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="BA31" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="BB31" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="BC31" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="BD31" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="BE31" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="BF31" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="BG31" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="BH31" t="inlineStr">
         <is>
-          <t>2026-02-23 15:00:26</t>
+          <t>2026-02-23 17:09:24</t>
         </is>
       </c>
     </row>
@@ -6588,16 +6588,16 @@
         <v>1.17</v>
       </c>
       <c r="H32" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I32" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J32" t="n">
         <v>10.5</v>
       </c>
       <c r="K32" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="L32" t="n">
         <v>1.18</v>
@@ -6621,7 +6621,7 @@
         <v>2.28</v>
       </c>
       <c r="S32" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="T32" t="n">
         <v>1.99</v>
@@ -6639,7 +6639,7 @@
         <v>65</v>
       </c>
       <c r="Y32" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="Z32" t="n">
         <v>220</v>
@@ -6651,31 +6651,31 @@
         <v>17</v>
       </c>
       <c r="AC32" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AD32" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AE32" t="n">
-        <v>300</v>
+        <v>320</v>
       </c>
       <c r="AF32" t="n">
         <v>11</v>
       </c>
       <c r="AG32" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AH32" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AI32" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="AJ32" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AK32" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AL32" t="n">
         <v>36</v>
@@ -6684,22 +6684,22 @@
         <v>1000</v>
       </c>
       <c r="AN32" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="AO32" t="n">
         <v>280</v>
       </c>
       <c r="AP32" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AQ32" t="n">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AR32" t="n">
         <v>48</v>
       </c>
       <c r="AS32" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AT32" t="n">
         <v>15</v>
@@ -6711,7 +6711,7 @@
         <v>36</v>
       </c>
       <c r="AW32" t="n">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="AX32" t="n">
         <v>10</v>
@@ -6723,7 +6723,7 @@
         <v>34</v>
       </c>
       <c r="BA32" t="n">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="BB32" t="n">
         <v>9</v>
@@ -6732,20 +6732,20 @@
         <v>12</v>
       </c>
       <c r="BD32" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="BE32" t="n">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="BF32" t="n">
         <v>2.42</v>
       </c>
       <c r="BG32" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="BH32" t="inlineStr">
         <is>
-          <t>2026-02-23 15:00:26</t>
+          <t>2026-02-23 17:09:24</t>
         </is>
       </c>
     </row>
@@ -6779,7 +6779,7 @@
         <v>1.84</v>
       </c>
       <c r="G33" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="H33" t="n">
         <v>4.5</v>
@@ -6788,7 +6788,7 @@
         <v>4.6</v>
       </c>
       <c r="J33" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="K33" t="n">
         <v>4.3</v>
@@ -6812,7 +6812,7 @@
         <v>1.71</v>
       </c>
       <c r="R33" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="S33" t="n">
         <v>2.78</v>
@@ -6824,13 +6824,13 @@
         <v>2.34</v>
       </c>
       <c r="V33" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="W33" t="n">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="X33" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Y33" t="n">
         <v>20</v>
@@ -6845,7 +6845,7 @@
         <v>11.5</v>
       </c>
       <c r="AC33" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AD33" t="n">
         <v>17.5</v>
@@ -6869,7 +6869,7 @@
         <v>19.5</v>
       </c>
       <c r="AK33" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AL33" t="n">
         <v>28</v>
@@ -6881,13 +6881,13 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AO33" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AP33" t="n">
         <v>18</v>
       </c>
       <c r="AQ33" t="n">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="AR33" t="n">
         <v>32</v>
@@ -6896,7 +6896,7 @@
         <v>75</v>
       </c>
       <c r="AT33" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AU33" t="n">
         <v>9.199999999999999</v>
@@ -6911,7 +6911,7 @@
         <v>11.5</v>
       </c>
       <c r="AY33" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AZ33" t="n">
         <v>16</v>
@@ -6939,7 +6939,7 @@
       </c>
       <c r="BH33" t="inlineStr">
         <is>
-          <t>2026-02-23 15:00:26</t>
+          <t>2026-02-23 17:09:24</t>
         </is>
       </c>
     </row>
@@ -6985,7 +6985,7 @@
         <v>7.6</v>
       </c>
       <c r="K34" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="L34" t="n">
         <v>1.2</v>
@@ -6994,7 +6994,7 @@
         <v>1.02</v>
       </c>
       <c r="N34" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="O34" t="n">
         <v>1.1</v>
@@ -7006,16 +7006,16 @@
         <v>1.34</v>
       </c>
       <c r="R34" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="S34" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="T34" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="U34" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="V34" t="n">
         <v>1.09</v>
@@ -7027,19 +7027,19 @@
         <v>55</v>
       </c>
       <c r="Y34" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="Z34" t="n">
         <v>130</v>
       </c>
       <c r="AA34" t="n">
-        <v>360</v>
+        <v>510</v>
       </c>
       <c r="AB34" t="n">
         <v>16.5</v>
       </c>
       <c r="AC34" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AD34" t="n">
         <v>42</v>
@@ -7054,7 +7054,7 @@
         <v>11.5</v>
       </c>
       <c r="AH34" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AI34" t="n">
         <v>100</v>
@@ -7066,28 +7066,28 @@
         <v>12</v>
       </c>
       <c r="AL34" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AM34" t="n">
         <v>95</v>
       </c>
       <c r="AN34" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="AO34" t="n">
         <v>110</v>
       </c>
       <c r="AP34" t="n">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AQ34" t="n">
         <v>50</v>
       </c>
       <c r="AR34" t="n">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="AS34" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AT34" t="n">
         <v>15.5</v>
@@ -7105,10 +7105,10 @@
         <v>10.5</v>
       </c>
       <c r="AY34" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AZ34" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BA34" t="n">
         <v>80</v>
@@ -7120,20 +7120,20 @@
         <v>11.5</v>
       </c>
       <c r="BD34" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BE34" t="n">
         <v>80</v>
       </c>
       <c r="BF34" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="BG34" t="n">
         <v>80</v>
       </c>
       <c r="BH34" t="inlineStr">
         <is>
-          <t>2026-02-23 15:00:26</t>
+          <t>2026-02-23 17:09:24</t>
         </is>
       </c>
     </row>
@@ -7164,10 +7164,10 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="G35" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="H35" t="n">
         <v>4.8</v>
@@ -7176,46 +7176,46 @@
         <v>6.4</v>
       </c>
       <c r="J35" t="n">
-        <v>3.05</v>
+        <v>3.25</v>
       </c>
       <c r="K35" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="L35" t="n">
-        <v>1.51</v>
+        <v>1.46</v>
       </c>
       <c r="M35" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N35" t="n">
-        <v>1.25</v>
+        <v>2.78</v>
       </c>
       <c r="O35" t="n">
-        <v>1.1</v>
+        <v>1.48</v>
       </c>
       <c r="P35" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="R35" t="n">
         <v>1.21</v>
       </c>
       <c r="S35" t="n">
-        <v>4.3</v>
+        <v>4.7</v>
       </c>
       <c r="T35" t="n">
-        <v>2.12</v>
+        <v>1.05</v>
       </c>
       <c r="U35" t="n">
-        <v>1.75</v>
+        <v>1.05</v>
       </c>
       <c r="V35" t="n">
-        <v>1.01</v>
+        <v>1.2</v>
       </c>
       <c r="W35" t="n">
-        <v>1.01</v>
+        <v>1.96</v>
       </c>
       <c r="X35" t="n">
         <v>11.5</v>
@@ -7230,7 +7230,7 @@
         <v>1000</v>
       </c>
       <c r="AB35" t="n">
-        <v>7.8</v>
+        <v>1000</v>
       </c>
       <c r="AC35" t="n">
         <v>8.199999999999999</v>
@@ -7272,62 +7272,62 @@
         <v>1000</v>
       </c>
       <c r="AP35" t="n">
-        <v>8.6</v>
+        <v>2.54</v>
       </c>
       <c r="AQ35" t="n">
-        <v>11.5</v>
+        <v>2.7</v>
       </c>
       <c r="AR35" t="n">
-        <v>5</v>
+        <v>3.05</v>
       </c>
       <c r="AS35" t="n">
-        <v>5.4</v>
+        <v>3.2</v>
       </c>
       <c r="AT35" t="n">
-        <v>5.8</v>
+        <v>3.25</v>
       </c>
       <c r="AU35" t="n">
-        <v>6.8</v>
+        <v>2.34</v>
       </c>
       <c r="AV35" t="n">
-        <v>18</v>
+        <v>2.88</v>
       </c>
       <c r="AW35" t="n">
-        <v>5.3</v>
+        <v>3.15</v>
       </c>
       <c r="AX35" t="n">
-        <v>8.800000000000001</v>
+        <v>2.56</v>
       </c>
       <c r="AY35" t="n">
-        <v>9.199999999999999</v>
+        <v>2.58</v>
       </c>
       <c r="AZ35" t="n">
-        <v>21</v>
+        <v>2.94</v>
       </c>
       <c r="BA35" t="n">
-        <v>5.3</v>
+        <v>3.15</v>
       </c>
       <c r="BB35" t="n">
-        <v>19</v>
+        <v>2.9</v>
       </c>
       <c r="BC35" t="n">
-        <v>21</v>
+        <v>2.94</v>
       </c>
       <c r="BD35" t="n">
-        <v>5.1</v>
+        <v>3.1</v>
       </c>
       <c r="BE35" t="n">
-        <v>5.4</v>
+        <v>3.2</v>
       </c>
       <c r="BF35" t="n">
-        <v>15.5</v>
+        <v>2.88</v>
       </c>
       <c r="BG35" t="n">
-        <v>5.4</v>
+        <v>3.2</v>
       </c>
       <c r="BH35" t="inlineStr">
         <is>
-          <t>2026-02-23 15:00:26</t>
+          <t>2026-02-23 17:09:24</t>
         </is>
       </c>
     </row>
@@ -7367,7 +7367,7 @@
         <v>7.4</v>
       </c>
       <c r="I36" t="n">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J36" t="n">
         <v>3.75</v>
@@ -7403,22 +7403,22 @@
         <v>2.22</v>
       </c>
       <c r="U36" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="V36" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="W36" t="n">
-        <v>2.56</v>
+        <v>2.46</v>
       </c>
       <c r="X36" t="n">
         <v>14.5</v>
       </c>
       <c r="Y36" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="Z36" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AA36" t="n">
         <v>1000</v>
@@ -7427,10 +7427,10 @@
         <v>6.8</v>
       </c>
       <c r="AC36" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AD36" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AE36" t="n">
         <v>1000</v>
@@ -7442,25 +7442,25 @@
         <v>11</v>
       </c>
       <c r="AH36" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AI36" t="n">
         <v>1000</v>
       </c>
       <c r="AJ36" t="n">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="AK36" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AL36" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AM36" t="n">
         <v>1000</v>
       </c>
       <c r="AN36" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="AO36" t="n">
         <v>1000</v>
@@ -7472,10 +7472,10 @@
         <v>17.5</v>
       </c>
       <c r="AR36" t="n">
-        <v>4.9</v>
+        <v>5.9</v>
       </c>
       <c r="AS36" t="n">
-        <v>5.2</v>
+        <v>6</v>
       </c>
       <c r="AT36" t="n">
         <v>5.6</v>
@@ -7484,10 +7484,10 @@
         <v>8</v>
       </c>
       <c r="AV36" t="n">
-        <v>4.8</v>
+        <v>5.5</v>
       </c>
       <c r="AW36" t="n">
-        <v>5.1</v>
+        <v>6</v>
       </c>
       <c r="AX36" t="n">
         <v>7</v>
@@ -7496,10 +7496,10 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AZ36" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="BA36" t="n">
-        <v>5.1</v>
+        <v>6</v>
       </c>
       <c r="BB36" t="n">
         <v>12</v>
@@ -7508,20 +7508,20 @@
         <v>16.5</v>
       </c>
       <c r="BD36" t="n">
-        <v>6.6</v>
+        <v>5.7</v>
       </c>
       <c r="BE36" t="n">
-        <v>5.1</v>
+        <v>6.2</v>
       </c>
       <c r="BF36" t="n">
         <v>8.6</v>
       </c>
       <c r="BG36" t="n">
-        <v>5.2</v>
+        <v>6.2</v>
       </c>
       <c r="BH36" t="inlineStr">
         <is>
-          <t>2026-02-23 15:00:26</t>
+          <t>2026-02-23 17:09:24</t>
         </is>
       </c>
     </row>
@@ -7561,13 +7561,13 @@
         <v>4</v>
       </c>
       <c r="I37" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="J37" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="K37" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="L37" t="n">
         <v>1.75</v>
@@ -7585,13 +7585,13 @@
         <v>1.37</v>
       </c>
       <c r="Q37" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="R37" t="n">
         <v>1.12</v>
       </c>
       <c r="S37" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="T37" t="n">
         <v>2.56</v>
@@ -7606,10 +7606,10 @@
         <v>1.7</v>
       </c>
       <c r="X37" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="Y37" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="Z37" t="n">
         <v>28</v>
@@ -7624,7 +7624,7 @@
         <v>7.4</v>
       </c>
       <c r="AD37" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AE37" t="n">
         <v>110</v>
@@ -7681,7 +7681,7 @@
         <v>17.5</v>
       </c>
       <c r="AW37" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AX37" t="n">
         <v>11.5</v>
@@ -7702,7 +7702,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="BD37" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="BE37" t="n">
         <v>12</v>
@@ -7715,7 +7715,7 @@
       </c>
       <c r="BH37" t="inlineStr">
         <is>
-          <t>2026-02-23 15:00:26</t>
+          <t>2026-02-23 17:09:24</t>
         </is>
       </c>
     </row>
@@ -7752,16 +7752,16 @@
         <v>3.9</v>
       </c>
       <c r="H38" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="I38" t="n">
-        <v>2.64</v>
+        <v>2.7</v>
       </c>
       <c r="J38" t="n">
         <v>2.74</v>
       </c>
       <c r="K38" t="n">
-        <v>2.96</v>
+        <v>2.94</v>
       </c>
       <c r="L38" t="n">
         <v>1.71</v>
@@ -7776,7 +7776,7 @@
         <v>1.71</v>
       </c>
       <c r="P38" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="Q38" t="n">
         <v>3.3</v>
@@ -7788,13 +7788,13 @@
         <v>7.6</v>
       </c>
       <c r="T38" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="U38" t="n">
         <v>1.62</v>
       </c>
       <c r="V38" t="n">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="W38" t="n">
         <v>1.34</v>
@@ -7806,7 +7806,7 @@
         <v>7</v>
       </c>
       <c r="Z38" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AA38" t="n">
         <v>55</v>
@@ -7815,13 +7815,13 @@
         <v>10</v>
       </c>
       <c r="AC38" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AD38" t="n">
         <v>14.5</v>
       </c>
       <c r="AE38" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AF38" t="n">
         <v>23</v>
@@ -7839,7 +7839,7 @@
         <v>1000</v>
       </c>
       <c r="AK38" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AL38" t="n">
         <v>140</v>
@@ -7863,7 +7863,7 @@
         <v>12</v>
       </c>
       <c r="AS38" t="n">
-        <v>8.199999999999999</v>
+        <v>38</v>
       </c>
       <c r="AT38" t="n">
         <v>7.8</v>
@@ -7887,29 +7887,29 @@
         <v>25</v>
       </c>
       <c r="BA38" t="n">
-        <v>9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="BB38" t="n">
-        <v>9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="BC38" t="n">
-        <v>8.6</v>
+        <v>9.4</v>
       </c>
       <c r="BD38" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BE38" t="n">
-        <v>9.4</v>
+        <v>10</v>
       </c>
       <c r="BF38" t="n">
-        <v>9.199999999999999</v>
+        <v>10</v>
       </c>
       <c r="BG38" t="n">
-        <v>8.4</v>
+        <v>42</v>
       </c>
       <c r="BH38" t="inlineStr">
         <is>
-          <t>2026-02-23 15:00:26</t>
+          <t>2026-02-23 17:09:24</t>
         </is>
       </c>
     </row>
@@ -7940,31 +7940,31 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="G39" t="n">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="H39" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="I39" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="J39" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K39" t="n">
         <v>3.65</v>
       </c>
       <c r="L39" t="n">
-        <v>1.01</v>
+        <v>1.5</v>
       </c>
       <c r="M39" t="n">
         <v>1.11</v>
       </c>
       <c r="N39" t="n">
-        <v>2.84</v>
+        <v>2.88</v>
       </c>
       <c r="O39" t="n">
         <v>1.49</v>
@@ -7985,88 +7985,88 @@
         <v>2.22</v>
       </c>
       <c r="U39" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="V39" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="W39" t="n">
-        <v>2.08</v>
+        <v>2.16</v>
       </c>
       <c r="X39" t="n">
         <v>11</v>
       </c>
       <c r="Y39" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Z39" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AA39" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="AB39" t="n">
         <v>6.6</v>
       </c>
       <c r="AC39" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AD39" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AE39" t="n">
         <v>1000</v>
       </c>
       <c r="AF39" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG39" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH39" t="n">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="AI39" t="n">
         <v>120</v>
       </c>
       <c r="AJ39" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="AK39" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL39" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AM39" t="n">
         <v>210</v>
       </c>
       <c r="AN39" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AO39" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AP39" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AQ39" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AR39" t="n">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="AS39" t="n">
-        <v>42</v>
+        <v>12.5</v>
       </c>
       <c r="AT39" t="n">
-        <v>5.9</v>
+        <v>6.2</v>
       </c>
       <c r="AU39" t="n">
         <v>7.4</v>
       </c>
       <c r="AV39" t="n">
-        <v>18.5</v>
+        <v>20</v>
       </c>
       <c r="AW39" t="n">
         <v>36</v>
@@ -8078,19 +8078,19 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AZ39" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="BA39" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="BB39" t="n">
         <v>18.5</v>
       </c>
       <c r="BC39" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BD39" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="BE39" t="n">
         <v>48</v>
@@ -8099,11 +8099,11 @@
         <v>16.5</v>
       </c>
       <c r="BG39" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="BH39" t="inlineStr">
         <is>
-          <t>2026-02-23 15:00:26</t>
+          <t>2026-02-23 17:09:24</t>
         </is>
       </c>
     </row>
@@ -8161,7 +8161,7 @@
         <v>2.4</v>
       </c>
       <c r="O40" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="P40" t="n">
         <v>1.47</v>
@@ -8176,7 +8176,7 @@
         <v>6</v>
       </c>
       <c r="T40" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="U40" t="n">
         <v>1.71</v>
@@ -8197,13 +8197,13 @@
         <v>970</v>
       </c>
       <c r="AA40" t="n">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="AB40" t="n">
         <v>12</v>
       </c>
       <c r="AC40" t="n">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD40" t="n">
         <v>13</v>
@@ -8251,10 +8251,10 @@
         <v>11.5</v>
       </c>
       <c r="AS40" t="n">
-        <v>5.4</v>
+        <v>6.2</v>
       </c>
       <c r="AT40" t="n">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AU40" t="n">
         <v>6.2</v>
@@ -8263,41 +8263,41 @@
         <v>11</v>
       </c>
       <c r="AW40" t="n">
-        <v>5.4</v>
+        <v>6.2</v>
       </c>
       <c r="AX40" t="n">
-        <v>5.1</v>
+        <v>5.9</v>
       </c>
       <c r="AY40" t="n">
         <v>15</v>
       </c>
       <c r="AZ40" t="n">
-        <v>4.9</v>
+        <v>5.4</v>
       </c>
       <c r="BA40" t="n">
-        <v>5.6</v>
+        <v>6.2</v>
       </c>
       <c r="BB40" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="BC40" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="BD40" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="BE40" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="BF40" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="BG40" t="n">
         <v>5.8</v>
       </c>
-      <c r="BC40" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="BD40" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="BE40" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="BF40" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="BG40" t="n">
-        <v>5.3</v>
-      </c>
       <c r="BH40" t="inlineStr">
         <is>
-          <t>2026-02-23 15:00:26</t>
+          <t>2026-02-23 17:09:24</t>
         </is>
       </c>
     </row>
@@ -8343,7 +8343,7 @@
         <v>1.02</v>
       </c>
       <c r="K41" t="n">
-        <v>500</v>
+        <v>950</v>
       </c>
       <c r="L41" t="n">
         <v>1.01</v>
@@ -8361,7 +8361,7 @@
         <v>1.24</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.01</v>
+        <v>1.29</v>
       </c>
       <c r="R41" t="n">
         <v>1.18</v>
@@ -8491,7 +8491,7 @@
       </c>
       <c r="BH41" t="inlineStr">
         <is>
-          <t>2026-02-23 15:00:26</t>
+          <t>2026-02-23 17:09:24</t>
         </is>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-24.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-24.xlsx
@@ -774,7 +774,7 @@
         <v>2.18</v>
       </c>
       <c r="J2" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="K2" t="n">
         <v>3.5</v>
@@ -789,13 +789,13 @@
         <v>2.5</v>
       </c>
       <c r="O2" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="P2" t="n">
         <v>1.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="R2" t="n">
         <v>1.18</v>
@@ -804,13 +804,13 @@
         <v>5.3</v>
       </c>
       <c r="T2" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="U2" t="n">
         <v>1.69</v>
       </c>
       <c r="V2" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="W2" t="n">
         <v>1.22</v>
@@ -870,7 +870,7 @@
         <v>32</v>
       </c>
       <c r="AP2" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AQ2" t="n">
         <v>5.6</v>
@@ -879,7 +879,7 @@
         <v>9.4</v>
       </c>
       <c r="AS2" t="n">
-        <v>3.95</v>
+        <v>4.4</v>
       </c>
       <c r="AT2" t="n">
         <v>10</v>
@@ -891,10 +891,10 @@
         <v>9.6</v>
       </c>
       <c r="AW2" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="AX2" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="AY2" t="n">
         <v>17.5</v>
@@ -903,13 +903,13 @@
         <v>21</v>
       </c>
       <c r="BA2" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="BB2" t="n">
         <v>4.4</v>
       </c>
       <c r="BC2" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="BD2" t="n">
         <v>4.4</v>
@@ -921,11 +921,11 @@
         <v>4.4</v>
       </c>
       <c r="BG2" t="n">
-        <v>3.95</v>
+        <v>4.4</v>
       </c>
       <c r="BH2" t="inlineStr">
         <is>
-          <t>2026-02-23 17:09:24</t>
+          <t>2026-02-23 19:17:22</t>
         </is>
       </c>
     </row>
@@ -980,7 +980,7 @@
         <v>1.07</v>
       </c>
       <c r="N3" t="n">
-        <v>2.1</v>
+        <v>2.38</v>
       </c>
       <c r="O3" t="n">
         <v>1.4</v>
@@ -1067,59 +1067,59 @@
         <v>1.01</v>
       </c>
       <c r="AQ3" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="AR3" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="AT3" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="AU3" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="AV3" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="AW3" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="AX3" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="AY3" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="AZ3" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="BA3" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="BB3" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="BC3" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="BD3" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="BE3" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="BF3" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="BG3" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="BH3" t="inlineStr">
         <is>
-          <t>2026-02-23 17:09:24</t>
+          <t>2026-02-23 19:17:22</t>
         </is>
       </c>
     </row>
@@ -1150,16 +1150,16 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="G4" t="n">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="H4" t="n">
         <v>6.4</v>
       </c>
       <c r="I4" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J4" t="n">
         <v>4.1</v>
@@ -1192,16 +1192,16 @@
         <v>3.2</v>
       </c>
       <c r="T4" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="U4" t="n">
         <v>1.84</v>
       </c>
       <c r="V4" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="W4" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="X4" t="n">
         <v>980</v>
@@ -1216,10 +1216,10 @@
         <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>9.199999999999999</v>
+        <v>980</v>
       </c>
       <c r="AC4" t="n">
-        <v>11.5</v>
+        <v>980</v>
       </c>
       <c r="AD4" t="n">
         <v>980</v>
@@ -1228,10 +1228,10 @@
         <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>10.5</v>
+        <v>980</v>
       </c>
       <c r="AG4" t="n">
-        <v>11.5</v>
+        <v>980</v>
       </c>
       <c r="AH4" t="n">
         <v>980</v>
@@ -1240,7 +1240,7 @@
         <v>130</v>
       </c>
       <c r="AJ4" t="n">
-        <v>16.5</v>
+        <v>980</v>
       </c>
       <c r="AK4" t="n">
         <v>980</v>
@@ -1258,62 +1258,62 @@
         <v>1000</v>
       </c>
       <c r="AP4" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AX4" t="n">
         <v>4.5</v>
       </c>
-      <c r="AQ4" t="n">
-        <v>5</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>6</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>4</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>3.9</v>
-      </c>
       <c r="AY4" t="n">
-        <v>4</v>
+        <v>4.6</v>
       </c>
       <c r="AZ4" t="n">
-        <v>5</v>
+        <v>6.2</v>
       </c>
       <c r="BA4" t="n">
-        <v>5.9</v>
+        <v>3.05</v>
       </c>
       <c r="BB4" t="n">
-        <v>4.4</v>
+        <v>5.3</v>
       </c>
       <c r="BC4" t="n">
-        <v>4.7</v>
+        <v>5.7</v>
       </c>
       <c r="BD4" t="n">
-        <v>5.4</v>
+        <v>7</v>
       </c>
       <c r="BE4" t="n">
-        <v>5.9</v>
+        <v>2.24</v>
       </c>
       <c r="BF4" t="n">
         <v>6.8</v>
       </c>
       <c r="BG4" t="n">
-        <v>5.9</v>
+        <v>2.24</v>
       </c>
       <c r="BH4" t="inlineStr">
         <is>
-          <t>2026-02-23 17:09:24</t>
+          <t>2026-02-23 19:17:22</t>
         </is>
       </c>
     </row>
@@ -1356,10 +1356,10 @@
         <v>7.8</v>
       </c>
       <c r="J5" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="K5" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="L5" t="n">
         <v>1.25</v>
@@ -1371,25 +1371,25 @@
         <v>6.8</v>
       </c>
       <c r="O5" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="P5" t="n">
         <v>3</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="R5" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="S5" t="n">
         <v>2.22</v>
       </c>
       <c r="T5" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="U5" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="V5" t="n">
         <v>1.14</v>
@@ -1398,10 +1398,10 @@
         <v>3.3</v>
       </c>
       <c r="X5" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Y5" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="Z5" t="n">
         <v>75</v>
@@ -1410,7 +1410,7 @@
         <v>220</v>
       </c>
       <c r="AB5" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AC5" t="n">
         <v>13.5</v>
@@ -1419,7 +1419,7 @@
         <v>28</v>
       </c>
       <c r="AE5" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AF5" t="n">
         <v>11</v>
@@ -1431,7 +1431,7 @@
         <v>21</v>
       </c>
       <c r="AI5" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AJ5" t="n">
         <v>13.5</v>
@@ -1446,7 +1446,7 @@
         <v>80</v>
       </c>
       <c r="AN5" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="AO5" t="n">
         <v>75</v>
@@ -1461,7 +1461,7 @@
         <v>60</v>
       </c>
       <c r="AS5" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AT5" t="n">
         <v>12</v>
@@ -1473,7 +1473,7 @@
         <v>26</v>
       </c>
       <c r="AW5" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AX5" t="n">
         <v>10</v>
@@ -1482,10 +1482,10 @@
         <v>9.6</v>
       </c>
       <c r="AZ5" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BA5" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="BB5" t="n">
         <v>12.5</v>
@@ -1494,20 +1494,20 @@
         <v>12.5</v>
       </c>
       <c r="BD5" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BE5" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="BF5" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="BG5" t="n">
         <v>60</v>
       </c>
       <c r="BH5" t="inlineStr">
         <is>
-          <t>2026-02-23 17:09:24</t>
+          <t>2026-02-23 19:17:22</t>
         </is>
       </c>
     </row>
@@ -1544,13 +1544,13 @@
         <v>3.7</v>
       </c>
       <c r="H6" t="n">
-        <v>2.14</v>
+        <v>2.26</v>
       </c>
       <c r="I6" t="n">
         <v>2.58</v>
       </c>
       <c r="J6" t="n">
-        <v>2.92</v>
+        <v>3.4</v>
       </c>
       <c r="K6" t="n">
         <v>4.1</v>
@@ -1580,7 +1580,7 @@
         <v>2.8</v>
       </c>
       <c r="T6" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="U6" t="n">
         <v>2.24</v>
@@ -1592,7 +1592,7 @@
         <v>1.37</v>
       </c>
       <c r="X6" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="Y6" t="n">
         <v>13.5</v>
@@ -1701,7 +1701,7 @@
       </c>
       <c r="BH6" t="inlineStr">
         <is>
-          <t>2026-02-23 17:09:24</t>
+          <t>2026-02-23 19:17:22</t>
         </is>
       </c>
     </row>
@@ -1732,7 +1732,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.56</v>
+        <v>2.86</v>
       </c>
       <c r="G7" t="n">
         <v>3.3</v>
@@ -1741,52 +1741,52 @@
         <v>2.32</v>
       </c>
       <c r="I7" t="n">
-        <v>2.86</v>
+        <v>2.62</v>
       </c>
       <c r="J7" t="n">
-        <v>3.15</v>
+        <v>3.5</v>
       </c>
       <c r="K7" t="n">
         <v>4.1</v>
       </c>
       <c r="L7" t="n">
-        <v>1.35</v>
+        <v>1.29</v>
       </c>
       <c r="M7" t="n">
         <v>1.05</v>
       </c>
       <c r="N7" t="n">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="O7" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="P7" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="Q7" t="n">
         <v>1.76</v>
       </c>
       <c r="R7" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="S7" t="n">
-        <v>2.66</v>
+        <v>2.9</v>
       </c>
       <c r="T7" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="U7" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="V7" t="n">
-        <v>1.54</v>
+        <v>1.61</v>
       </c>
       <c r="W7" t="n">
         <v>1.43</v>
       </c>
       <c r="X7" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Y7" t="n">
         <v>15</v>
@@ -1807,7 +1807,7 @@
         <v>14.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AF7" t="n">
         <v>27</v>
@@ -1837,65 +1837,65 @@
         <v>32</v>
       </c>
       <c r="AO7" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AP7" t="n">
-        <v>3.5</v>
+        <v>12.5</v>
       </c>
       <c r="AQ7" t="n">
-        <v>3.3</v>
+        <v>9</v>
       </c>
       <c r="AR7" t="n">
-        <v>3.5</v>
+        <v>12.5</v>
       </c>
       <c r="AS7" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="AT7" t="n">
-        <v>3.35</v>
+        <v>10</v>
       </c>
       <c r="AU7" t="n">
-        <v>3.05</v>
+        <v>7.4</v>
       </c>
       <c r="AV7" t="n">
-        <v>3.25</v>
+        <v>8.6</v>
       </c>
       <c r="AW7" t="n">
-        <v>3.7</v>
+        <v>18</v>
       </c>
       <c r="AX7" t="n">
-        <v>3.65</v>
+        <v>18.5</v>
       </c>
       <c r="AY7" t="n">
-        <v>3.35</v>
+        <v>10</v>
       </c>
       <c r="AZ7" t="n">
-        <v>3.45</v>
+        <v>11.5</v>
       </c>
       <c r="BA7" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="BB7" t="n">
         <v>3.95</v>
       </c>
       <c r="BC7" t="n">
-        <v>3.8</v>
+        <v>23</v>
       </c>
       <c r="BD7" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="BE7" t="n">
         <v>4</v>
       </c>
       <c r="BF7" t="n">
-        <v>3.7</v>
+        <v>18.5</v>
       </c>
       <c r="BG7" t="n">
-        <v>3.55</v>
+        <v>12.5</v>
       </c>
       <c r="BH7" t="inlineStr">
         <is>
-          <t>2026-02-23 17:09:24</t>
+          <t>2026-02-23 19:17:22</t>
         </is>
       </c>
     </row>
@@ -1950,7 +1950,7 @@
         <v>1.01</v>
       </c>
       <c r="N8" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="O8" t="n">
         <v>1.21</v>
@@ -1959,13 +1959,13 @@
         <v>2.06</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.51</v>
+        <v>1.55</v>
       </c>
       <c r="R8" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="S8" t="n">
-        <v>2.28</v>
+        <v>2.34</v>
       </c>
       <c r="T8" t="n">
         <v>1.05</v>
@@ -2037,59 +2037,59 @@
         <v>1.01</v>
       </c>
       <c r="AQ8" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="AR8" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="AT8" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="AU8" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="AV8" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="AW8" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="AX8" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="AY8" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="AZ8" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="BA8" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="BB8" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="BC8" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="BD8" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="BE8" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="BF8" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="BG8" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="BH8" t="inlineStr">
         <is>
-          <t>2026-02-23 17:09:24</t>
+          <t>2026-02-23 19:17:22</t>
         </is>
       </c>
     </row>
@@ -2120,16 +2120,16 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="G9" t="n">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="H9" t="n">
-        <v>6.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="I9" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J9" t="n">
         <v>1.01</v>
@@ -2283,7 +2283,7 @@
       </c>
       <c r="BH9" t="inlineStr">
         <is>
-          <t>2026-02-23 17:09:24</t>
+          <t>2026-02-23 19:17:22</t>
         </is>
       </c>
     </row>
@@ -2314,19 +2314,19 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="G10" t="n">
-        <v>2.26</v>
+        <v>2.22</v>
       </c>
       <c r="H10" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="I10" t="n">
         <v>4.6</v>
       </c>
       <c r="J10" t="n">
-        <v>2.92</v>
+        <v>3.35</v>
       </c>
       <c r="K10" t="n">
         <v>3.75</v>
@@ -2353,25 +2353,25 @@
         <v>1.3</v>
       </c>
       <c r="S10" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="T10" t="n">
         <v>1.84</v>
       </c>
       <c r="U10" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="V10" t="n">
         <v>1.28</v>
       </c>
       <c r="W10" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="X10" t="n">
         <v>15</v>
       </c>
       <c r="Y10" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="Z10" t="n">
         <v>36</v>
@@ -2407,7 +2407,7 @@
         <v>30</v>
       </c>
       <c r="AK10" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AL10" t="n">
         <v>48</v>
@@ -2422,16 +2422,16 @@
         <v>75</v>
       </c>
       <c r="AP10" t="n">
-        <v>3.9</v>
+        <v>3.15</v>
       </c>
       <c r="AQ10" t="n">
         <v>3.95</v>
       </c>
       <c r="AR10" t="n">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="AS10" t="n">
-        <v>5</v>
+        <v>3.85</v>
       </c>
       <c r="AT10" t="n">
         <v>3.4</v>
@@ -2440,44 +2440,44 @@
         <v>3.3</v>
       </c>
       <c r="AV10" t="n">
-        <v>4.1</v>
+        <v>3.3</v>
       </c>
       <c r="AW10" t="n">
-        <v>4.8</v>
+        <v>3.75</v>
       </c>
       <c r="AX10" t="n">
-        <v>3.9</v>
+        <v>3.15</v>
       </c>
       <c r="AY10" t="n">
         <v>3.7</v>
       </c>
       <c r="AZ10" t="n">
-        <v>4.2</v>
+        <v>3.35</v>
       </c>
       <c r="BA10" t="n">
-        <v>4.9</v>
+        <v>3.8</v>
       </c>
       <c r="BB10" t="n">
-        <v>4.4</v>
+        <v>3.5</v>
       </c>
       <c r="BC10" t="n">
-        <v>4.4</v>
+        <v>3.45</v>
       </c>
       <c r="BD10" t="n">
-        <v>4.7</v>
+        <v>3.7</v>
       </c>
       <c r="BE10" t="n">
-        <v>5</v>
+        <v>3.85</v>
       </c>
       <c r="BF10" t="n">
-        <v>4.2</v>
+        <v>3.35</v>
       </c>
       <c r="BG10" t="n">
-        <v>4.9</v>
+        <v>3.8</v>
       </c>
       <c r="BH10" t="inlineStr">
         <is>
-          <t>2026-02-23 17:09:24</t>
+          <t>2026-02-23 19:17:22</t>
         </is>
       </c>
     </row>
@@ -2508,25 +2508,25 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="G11" t="n">
         <v>8</v>
       </c>
       <c r="H11" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="I11" t="n">
         <v>1.57</v>
       </c>
       <c r="J11" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="K11" t="n">
         <v>5.3</v>
       </c>
       <c r="L11" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="M11" t="n">
         <v>1.04</v>
@@ -2553,7 +2553,7 @@
         <v>1.78</v>
       </c>
       <c r="U11" t="n">
-        <v>2.04</v>
+        <v>2.16</v>
       </c>
       <c r="V11" t="n">
         <v>2.74</v>
@@ -2658,10 +2658,10 @@
         <v>5.4</v>
       </c>
       <c r="BD11" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="BE11" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="BF11" t="n">
         <v>5.4</v>
@@ -2671,7 +2671,7 @@
       </c>
       <c r="BH11" t="inlineStr">
         <is>
-          <t>2026-02-23 17:09:24</t>
+          <t>2026-02-23 19:17:22</t>
         </is>
       </c>
     </row>
@@ -2702,7 +2702,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.92</v>
+        <v>1.97</v>
       </c>
       <c r="G12" t="n">
         <v>2.02</v>
@@ -2711,7 +2711,7 @@
         <v>3.85</v>
       </c>
       <c r="I12" t="n">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="J12" t="n">
         <v>3.85</v>
@@ -2744,13 +2744,13 @@
         <v>2.68</v>
       </c>
       <c r="T12" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="U12" t="n">
         <v>2.32</v>
       </c>
       <c r="V12" t="n">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="W12" t="n">
         <v>1.98</v>
@@ -2759,19 +2759,19 @@
         <v>24</v>
       </c>
       <c r="Y12" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AA12" t="n">
         <v>90</v>
       </c>
       <c r="AB12" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD12" t="n">
         <v>17.5</v>
@@ -2780,7 +2780,7 @@
         <v>55</v>
       </c>
       <c r="AF12" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AG12" t="n">
         <v>11.5</v>
@@ -2792,22 +2792,22 @@
         <v>55</v>
       </c>
       <c r="AJ12" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AK12" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AL12" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AM12" t="n">
         <v>85</v>
       </c>
       <c r="AN12" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AO12" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AP12" t="n">
         <v>17.5</v>
@@ -2819,7 +2819,7 @@
         <v>25</v>
       </c>
       <c r="AS12" t="n">
-        <v>5.7</v>
+        <v>7.4</v>
       </c>
       <c r="AT12" t="n">
         <v>9.800000000000001</v>
@@ -2831,7 +2831,7 @@
         <v>14</v>
       </c>
       <c r="AW12" t="n">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="AX12" t="n">
         <v>11.5</v>
@@ -2843,7 +2843,7 @@
         <v>14</v>
       </c>
       <c r="BA12" t="n">
-        <v>5.6</v>
+        <v>7.2</v>
       </c>
       <c r="BB12" t="n">
         <v>19</v>
@@ -2855,17 +2855,17 @@
         <v>20</v>
       </c>
       <c r="BE12" t="n">
-        <v>5.7</v>
+        <v>7.4</v>
       </c>
       <c r="BF12" t="n">
-        <v>8.4</v>
+        <v>9</v>
       </c>
       <c r="BG12" t="n">
-        <v>28</v>
+        <v>6.6</v>
       </c>
       <c r="BH12" t="inlineStr">
         <is>
-          <t>2026-02-23 17:09:24</t>
+          <t>2026-02-23 19:17:22</t>
         </is>
       </c>
     </row>
@@ -2896,22 +2896,22 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G13" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H13" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="I13" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="J13" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="K13" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="L13" t="n">
         <v>1.01</v>
@@ -2926,28 +2926,28 @@
         <v>1.17</v>
       </c>
       <c r="P13" t="n">
-        <v>2.62</v>
+        <v>2.68</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.49</v>
+        <v>1.51</v>
       </c>
       <c r="R13" t="n">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="S13" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="T13" t="n">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="U13" t="n">
         <v>2</v>
       </c>
       <c r="V13" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="W13" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="X13" t="n">
         <v>34</v>
@@ -2956,37 +2956,37 @@
         <v>12</v>
       </c>
       <c r="Z13" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AB13" t="n">
         <v>1000</v>
       </c>
       <c r="AC13" t="n">
+        <v>14</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE13" t="n">
         <v>14.5</v>
       </c>
-      <c r="AD13" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>15</v>
-      </c>
       <c r="AF13" t="n">
         <v>1000</v>
       </c>
       <c r="AG13" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AH13" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI13" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AJ13" t="n">
-        <v>340</v>
+        <v>360</v>
       </c>
       <c r="AK13" t="n">
         <v>150</v>
@@ -2995,13 +2995,13 @@
         <v>120</v>
       </c>
       <c r="AM13" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AN13" t="n">
         <v>1000</v>
       </c>
       <c r="AO13" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="AP13" t="n">
         <v>22</v>
@@ -3016,7 +3016,7 @@
         <v>10</v>
       </c>
       <c r="AT13" t="n">
-        <v>30</v>
+        <v>8.4</v>
       </c>
       <c r="AU13" t="n">
         <v>11.5</v>
@@ -3028,38 +3028,38 @@
         <v>11.5</v>
       </c>
       <c r="AX13" t="n">
-        <v>7.8</v>
+        <v>9.4</v>
       </c>
       <c r="AY13" t="n">
-        <v>6.8</v>
+        <v>8.4</v>
       </c>
       <c r="AZ13" t="n">
         <v>20</v>
       </c>
       <c r="BA13" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BB13" t="n">
-        <v>8.199999999999999</v>
+        <v>10</v>
       </c>
       <c r="BC13" t="n">
-        <v>8</v>
+        <v>9.6</v>
       </c>
       <c r="BD13" t="n">
-        <v>7.8</v>
+        <v>9.4</v>
       </c>
       <c r="BE13" t="n">
-        <v>7.8</v>
+        <v>9.4</v>
       </c>
       <c r="BF13" t="n">
-        <v>7.8</v>
+        <v>9.6</v>
       </c>
       <c r="BG13" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="BH13" t="inlineStr">
         <is>
-          <t>2026-02-23 17:09:24</t>
+          <t>2026-02-23 19:17:22</t>
         </is>
       </c>
     </row>
@@ -3096,13 +3096,13 @@
         <v>4.4</v>
       </c>
       <c r="H14" t="n">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="I14" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="J14" t="n">
-        <v>1.1</v>
+        <v>3.3</v>
       </c>
       <c r="K14" t="n">
         <v>950</v>
@@ -3120,7 +3120,7 @@
         <v>1.18</v>
       </c>
       <c r="P14" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="Q14" t="n">
         <v>1.5</v>
@@ -3138,7 +3138,7 @@
         <v>1.05</v>
       </c>
       <c r="V14" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="W14" t="n">
         <v>1.29</v>
@@ -3222,7 +3222,7 @@
         <v>16.5</v>
       </c>
       <c r="AX14" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="AY14" t="n">
         <v>13.5</v>
@@ -3237,23 +3237,23 @@
         <v>4.2</v>
       </c>
       <c r="BC14" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BD14" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="BE14" t="n">
         <v>4.2</v>
-      </c>
-      <c r="BD14" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="BE14" t="n">
-        <v>4.3</v>
       </c>
       <c r="BF14" t="n">
         <v>19.5</v>
       </c>
       <c r="BG14" t="n">
-        <v>8.6</v>
+        <v>7.4</v>
       </c>
       <c r="BH14" t="inlineStr">
         <is>
-          <t>2026-02-23 17:09:24</t>
+          <t>2026-02-23 19:17:22</t>
         </is>
       </c>
     </row>
@@ -3323,7 +3323,7 @@
         <v>1.79</v>
       </c>
       <c r="S15" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="T15" t="n">
         <v>1.67</v>
@@ -3392,7 +3392,7 @@
         <v>75</v>
       </c>
       <c r="AP15" t="n">
-        <v>6</v>
+        <v>9.6</v>
       </c>
       <c r="AQ15" t="n">
         <v>6</v>
@@ -3447,7 +3447,7 @@
       </c>
       <c r="BH15" t="inlineStr">
         <is>
-          <t>2026-02-23 17:09:24</t>
+          <t>2026-02-23 19:17:22</t>
         </is>
       </c>
     </row>
@@ -3478,64 +3478,64 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="G16" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="H16" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="I16" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="J16" t="n">
         <v>3.95</v>
       </c>
       <c r="K16" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L16" t="n">
-        <v>1.01</v>
+        <v>1.41</v>
       </c>
       <c r="M16" t="n">
         <v>1.1</v>
       </c>
       <c r="N16" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="O16" t="n">
         <v>1.43</v>
       </c>
       <c r="P16" t="n">
-        <v>1.64</v>
+        <v>1.67</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="R16" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="S16" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="T16" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="U16" t="n">
-        <v>1.62</v>
+        <v>1.05</v>
       </c>
       <c r="V16" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="W16" t="n">
         <v>1.1</v>
       </c>
       <c r="X16" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Y16" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="Z16" t="n">
         <v>8.4</v>
@@ -3544,49 +3544,49 @@
         <v>15.5</v>
       </c>
       <c r="AB16" t="n">
-        <v>24</v>
+        <v>970</v>
       </c>
       <c r="AC16" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AD16" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AE16" t="n">
         <v>23</v>
       </c>
       <c r="AF16" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AG16" t="n">
-        <v>44</v>
+        <v>970</v>
       </c>
       <c r="AH16" t="n">
-        <v>40</v>
+        <v>970</v>
       </c>
       <c r="AI16" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AJ16" t="n">
-        <v>520</v>
+        <v>540</v>
       </c>
       <c r="AK16" t="n">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="AL16" t="n">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="AM16" t="n">
         <v>320</v>
       </c>
       <c r="AN16" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="AO16" t="n">
         <v>13</v>
       </c>
       <c r="AP16" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AQ16" t="n">
         <v>5.4</v>
@@ -3598,7 +3598,7 @@
         <v>11.5</v>
       </c>
       <c r="AT16" t="n">
-        <v>4.7</v>
+        <v>19.5</v>
       </c>
       <c r="AU16" t="n">
         <v>8.6</v>
@@ -3610,38 +3610,38 @@
         <v>17.5</v>
       </c>
       <c r="AX16" t="n">
-        <v>5.5</v>
+        <v>6.4</v>
       </c>
       <c r="AY16" t="n">
-        <v>5.2</v>
+        <v>5.9</v>
       </c>
       <c r="AZ16" t="n">
-        <v>5.6</v>
+        <v>28</v>
       </c>
       <c r="BA16" t="n">
-        <v>5.3</v>
+        <v>6.2</v>
       </c>
       <c r="BB16" t="n">
-        <v>5.8</v>
+        <v>6.8</v>
       </c>
       <c r="BC16" t="n">
-        <v>5.7</v>
+        <v>6.6</v>
       </c>
       <c r="BD16" t="n">
-        <v>5.7</v>
+        <v>6.6</v>
       </c>
       <c r="BE16" t="n">
-        <v>5.7</v>
+        <v>6.6</v>
       </c>
       <c r="BF16" t="n">
-        <v>5.8</v>
+        <v>6.8</v>
       </c>
       <c r="BG16" t="n">
         <v>10</v>
       </c>
       <c r="BH16" t="inlineStr">
         <is>
-          <t>2026-02-23 17:09:24</t>
+          <t>2026-02-23 19:17:22</t>
         </is>
       </c>
     </row>
@@ -3672,22 +3672,22 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="G17" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="H17" t="n">
-        <v>9</v>
+        <v>9.4</v>
       </c>
       <c r="I17" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="J17" t="n">
         <v>3.85</v>
       </c>
       <c r="K17" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L17" t="n">
         <v>1.01</v>
@@ -3696,34 +3696,34 @@
         <v>1.11</v>
       </c>
       <c r="N17" t="n">
-        <v>2.84</v>
+        <v>2.88</v>
       </c>
       <c r="O17" t="n">
         <v>1.48</v>
       </c>
       <c r="P17" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="R17" t="n">
         <v>1.22</v>
       </c>
       <c r="S17" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="T17" t="n">
         <v>2.48</v>
       </c>
       <c r="U17" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="V17" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="W17" t="n">
-        <v>2.74</v>
+        <v>2.78</v>
       </c>
       <c r="X17" t="n">
         <v>10.5</v>
@@ -3732,16 +3732,16 @@
         <v>970</v>
       </c>
       <c r="Z17" t="n">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="AA17" t="n">
-        <v>1000</v>
+        <v>560</v>
       </c>
       <c r="AB17" t="n">
         <v>5.8</v>
       </c>
       <c r="AC17" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AD17" t="n">
         <v>970</v>
@@ -3765,7 +3765,7 @@
         <v>14.5</v>
       </c>
       <c r="AK17" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL17" t="n">
         <v>65</v>
@@ -3783,25 +3783,25 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AQ17" t="n">
-        <v>13</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AR17" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AS17" t="n">
         <v>12</v>
       </c>
-      <c r="AS17" t="n">
-        <v>4.8</v>
-      </c>
       <c r="AT17" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="AU17" t="n">
         <v>8.4</v>
       </c>
       <c r="AV17" t="n">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="AW17" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AX17" t="n">
         <v>6.6</v>
@@ -3810,32 +3810,32 @@
         <v>9.6</v>
       </c>
       <c r="AZ17" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="BA17" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="BB17" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="BC17" t="n">
-        <v>8.4</v>
+        <v>7.8</v>
       </c>
       <c r="BD17" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="BE17" t="n">
+        <v>12</v>
+      </c>
+      <c r="BF17" t="n">
         <v>11.5</v>
       </c>
-      <c r="BE17" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="BF17" t="n">
-        <v>12</v>
-      </c>
       <c r="BG17" t="n">
-        <v>4.8</v>
+        <v>3.1</v>
       </c>
       <c r="BH17" t="inlineStr">
         <is>
-          <t>2026-02-23 17:09:24</t>
+          <t>2026-02-23 19:17:22</t>
         </is>
       </c>
     </row>
@@ -3872,49 +3872,49 @@
         <v>4.8</v>
       </c>
       <c r="H18" t="n">
-        <v>2.16</v>
+        <v>2.1</v>
       </c>
       <c r="I18" t="n">
-        <v>2.94</v>
+        <v>2.74</v>
       </c>
       <c r="J18" t="n">
-        <v>2.56</v>
+        <v>2.68</v>
       </c>
       <c r="K18" t="n">
-        <v>3.55</v>
+        <v>3.35</v>
       </c>
       <c r="L18" t="n">
         <v>1.01</v>
       </c>
       <c r="M18" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="N18" t="n">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="O18" t="n">
         <v>1.62</v>
       </c>
       <c r="P18" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.66</v>
+        <v>2.74</v>
       </c>
       <c r="R18" t="n">
         <v>1.12</v>
       </c>
       <c r="S18" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="T18" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="U18" t="n">
-        <v>1.63</v>
+        <v>1.6</v>
       </c>
       <c r="V18" t="n">
-        <v>1.51</v>
+        <v>1.57</v>
       </c>
       <c r="W18" t="n">
         <v>1.26</v>
@@ -3923,31 +3923,31 @@
         <v>8.4</v>
       </c>
       <c r="Y18" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="Z18" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AA18" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AB18" t="n">
         <v>13.5</v>
       </c>
       <c r="AC18" t="n">
-        <v>10</v>
+        <v>8.6</v>
       </c>
       <c r="AD18" t="n">
-        <v>19</v>
+        <v>15.5</v>
       </c>
       <c r="AE18" t="n">
         <v>55</v>
       </c>
       <c r="AF18" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AG18" t="n">
-        <v>26</v>
+        <v>970</v>
       </c>
       <c r="AH18" t="n">
         <v>38</v>
@@ -3974,62 +3974,62 @@
         <v>1000</v>
       </c>
       <c r="AP18" t="n">
-        <v>2.22</v>
+        <v>2.38</v>
       </c>
       <c r="AQ18" t="n">
-        <v>2.32</v>
+        <v>2.46</v>
       </c>
       <c r="AR18" t="n">
-        <v>2.62</v>
+        <v>9.6</v>
       </c>
       <c r="AS18" t="n">
-        <v>2.96</v>
+        <v>3.1</v>
       </c>
       <c r="AT18" t="n">
         <v>8</v>
       </c>
       <c r="AU18" t="n">
-        <v>2.32</v>
+        <v>2.38</v>
       </c>
       <c r="AV18" t="n">
         <v>10.5</v>
       </c>
       <c r="AW18" t="n">
-        <v>2.84</v>
+        <v>3.1</v>
       </c>
       <c r="AX18" t="n">
-        <v>2.78</v>
+        <v>18</v>
       </c>
       <c r="AY18" t="n">
-        <v>2.7</v>
+        <v>2.94</v>
       </c>
       <c r="AZ18" t="n">
-        <v>2.78</v>
+        <v>3.05</v>
       </c>
       <c r="BA18" t="n">
-        <v>2.96</v>
+        <v>3.2</v>
       </c>
       <c r="BB18" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="BC18" t="n">
-        <v>2.96</v>
+        <v>3.2</v>
       </c>
       <c r="BD18" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="BE18" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="BF18" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="BG18" t="n">
-        <v>2.96</v>
+        <v>3.1</v>
       </c>
       <c r="BH18" t="inlineStr">
         <is>
-          <t>2026-02-23 17:09:24</t>
+          <t>2026-02-23 19:17:22</t>
         </is>
       </c>
     </row>
@@ -4060,7 +4060,7 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="G19" t="n">
         <v>2.32</v>
@@ -4069,13 +4069,13 @@
         <v>3.4</v>
       </c>
       <c r="I19" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="J19" t="n">
         <v>3.5</v>
       </c>
       <c r="K19" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L19" t="n">
         <v>1.39</v>
@@ -4093,25 +4093,25 @@
         <v>1.97</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="R19" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="S19" t="n">
         <v>3.25</v>
       </c>
       <c r="T19" t="n">
-        <v>1.73</v>
+        <v>1.76</v>
       </c>
       <c r="U19" t="n">
         <v>2.2</v>
       </c>
       <c r="V19" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="W19" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="X19" t="n">
         <v>970</v>
@@ -4129,7 +4129,7 @@
         <v>11</v>
       </c>
       <c r="AC19" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AD19" t="n">
         <v>17</v>
@@ -4141,7 +4141,7 @@
         <v>18</v>
       </c>
       <c r="AG19" t="n">
-        <v>13.5</v>
+        <v>11.5</v>
       </c>
       <c r="AH19" t="n">
         <v>21</v>
@@ -4168,16 +4168,16 @@
         <v>44</v>
       </c>
       <c r="AP19" t="n">
-        <v>4.2</v>
+        <v>9.6</v>
       </c>
       <c r="AQ19" t="n">
-        <v>4.2</v>
+        <v>12</v>
       </c>
       <c r="AR19" t="n">
-        <v>21</v>
+        <v>5.6</v>
       </c>
       <c r="AS19" t="n">
-        <v>5.3</v>
+        <v>5.8</v>
       </c>
       <c r="AT19" t="n">
         <v>9.4</v>
@@ -4186,44 +4186,44 @@
         <v>7.2</v>
       </c>
       <c r="AV19" t="n">
-        <v>4.3</v>
+        <v>12.5</v>
       </c>
       <c r="AW19" t="n">
-        <v>5.1</v>
+        <v>5.5</v>
       </c>
       <c r="AX19" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="AY19" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AZ19" t="n">
-        <v>4.4</v>
+        <v>5.1</v>
       </c>
       <c r="BA19" t="n">
-        <v>5.1</v>
+        <v>5.6</v>
       </c>
       <c r="BB19" t="n">
-        <v>4.9</v>
+        <v>5.2</v>
       </c>
       <c r="BC19" t="n">
-        <v>4.8</v>
+        <v>5.4</v>
       </c>
       <c r="BD19" t="n">
-        <v>5.1</v>
+        <v>5.4</v>
       </c>
       <c r="BE19" t="n">
-        <v>5.5</v>
+        <v>5.8</v>
       </c>
       <c r="BF19" t="n">
         <v>12.5</v>
       </c>
       <c r="BG19" t="n">
-        <v>5.1</v>
+        <v>5.8</v>
       </c>
       <c r="BH19" t="inlineStr">
         <is>
-          <t>2026-02-23 17:09:24</t>
+          <t>2026-02-23 19:17:22</t>
         </is>
       </c>
     </row>
@@ -4266,7 +4266,7 @@
         <v>2.32</v>
       </c>
       <c r="J20" t="n">
-        <v>3.35</v>
+        <v>3.6</v>
       </c>
       <c r="K20" t="n">
         <v>4.2</v>
@@ -4278,28 +4278,28 @@
         <v>1.05</v>
       </c>
       <c r="N20" t="n">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="O20" t="n">
         <v>1.23</v>
       </c>
       <c r="P20" t="n">
-        <v>2.08</v>
+        <v>2.2</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="R20" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="S20" t="n">
-        <v>2.52</v>
+        <v>2.7</v>
       </c>
       <c r="T20" t="n">
         <v>1.62</v>
       </c>
       <c r="U20" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="V20" t="n">
         <v>1.75</v>
@@ -4332,7 +4332,7 @@
         <v>25</v>
       </c>
       <c r="AF20" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AG20" t="n">
         <v>17</v>
@@ -4350,74 +4350,74 @@
         <v>38</v>
       </c>
       <c r="AL20" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AM20" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AN20" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AO20" t="n">
         <v>14</v>
       </c>
       <c r="AP20" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>10</v>
+      </c>
+      <c r="AR20" t="n">
         <v>4.3</v>
       </c>
-      <c r="AQ20" t="n">
+      <c r="AS20" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>18</v>
+      </c>
+      <c r="AX20" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY20" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AZ20" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="BA20" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="BB20" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="BC20" t="n">
+        <v>25</v>
+      </c>
+      <c r="BD20" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="BE20" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="BF20" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="BG20" t="n">
         <v>4</v>
       </c>
-      <c r="AR20" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="AS20" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="AT20" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="AU20" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="AV20" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="AW20" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AX20" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="AY20" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="AZ20" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="BA20" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="BB20" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="BC20" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="BD20" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="BE20" t="n">
-        <v>5</v>
-      </c>
-      <c r="BF20" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="BG20" t="n">
-        <v>3.9</v>
-      </c>
       <c r="BH20" t="inlineStr">
         <is>
-          <t>2026-02-23 17:09:24</t>
+          <t>2026-02-23 19:17:22</t>
         </is>
       </c>
     </row>
@@ -4448,37 +4448,37 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="G21" t="n">
-        <v>1.9</v>
+        <v>1.94</v>
       </c>
       <c r="H21" t="n">
-        <v>3.85</v>
+        <v>4.1</v>
       </c>
       <c r="I21" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="J21" t="n">
-        <v>3.65</v>
+        <v>3.95</v>
       </c>
       <c r="K21" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="L21" t="n">
         <v>1.22</v>
       </c>
       <c r="M21" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N21" t="n">
-        <v>1.1</v>
+        <v>4.8</v>
       </c>
       <c r="O21" t="n">
         <v>1.2</v>
       </c>
       <c r="P21" t="n">
-        <v>2.16</v>
+        <v>2.3</v>
       </c>
       <c r="Q21" t="n">
         <v>1.6</v>
@@ -4487,28 +4487,28 @@
         <v>1.52</v>
       </c>
       <c r="S21" t="n">
-        <v>2.22</v>
+        <v>2.5</v>
       </c>
       <c r="T21" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="U21" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="V21" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="W21" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="X21" t="n">
         <v>26</v>
       </c>
       <c r="Y21" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Z21" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AA21" t="n">
         <v>1000</v>
@@ -4520,7 +4520,7 @@
         <v>11.5</v>
       </c>
       <c r="AD21" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AE21" t="n">
         <v>60</v>
@@ -4532,7 +4532,7 @@
         <v>12</v>
       </c>
       <c r="AH21" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AI21" t="n">
         <v>60</v>
@@ -4553,65 +4553,65 @@
         <v>9.6</v>
       </c>
       <c r="AO21" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AP21" t="n">
-        <v>4.4</v>
+        <v>18.5</v>
       </c>
       <c r="AQ21" t="n">
-        <v>4.4</v>
+        <v>17.5</v>
       </c>
       <c r="AR21" t="n">
-        <v>4.7</v>
+        <v>5.3</v>
       </c>
       <c r="AS21" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AU21" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AV21" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AW21" t="n">
         <v>5</v>
       </c>
-      <c r="AT21" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="AU21" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AV21" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="AW21" t="n">
-        <v>4.8</v>
-      </c>
       <c r="AX21" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="AY21" t="n">
-        <v>3.7</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AZ21" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="BA21" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="BB21" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="BC21" t="n">
         <v>4.3</v>
       </c>
-      <c r="BC21" t="n">
-        <v>4.2</v>
-      </c>
       <c r="BD21" t="n">
-        <v>4.5</v>
+        <v>5.2</v>
       </c>
       <c r="BE21" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="BF21" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="BG21" t="n">
-        <v>4.7</v>
+        <v>5.2</v>
       </c>
       <c r="BH21" t="inlineStr">
         <is>
-          <t>2026-02-23 17:09:24</t>
+          <t>2026-02-23 19:17:22</t>
         </is>
       </c>
     </row>
@@ -4645,10 +4645,10 @@
         <v>3.25</v>
       </c>
       <c r="G22" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="H22" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="I22" t="n">
         <v>2.16</v>
@@ -4660,25 +4660,25 @@
         <v>4.3</v>
       </c>
       <c r="L22" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="M22" t="n">
         <v>1.05</v>
       </c>
       <c r="N22" t="n">
-        <v>3.65</v>
+        <v>4.3</v>
       </c>
       <c r="O22" t="n">
         <v>1.24</v>
       </c>
       <c r="P22" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="Q22" t="n">
         <v>1.7</v>
       </c>
       <c r="R22" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="S22" t="n">
         <v>2.54</v>
@@ -4687,7 +4687,7 @@
         <v>1.63</v>
       </c>
       <c r="U22" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="V22" t="n">
         <v>1.86</v>
@@ -4699,113 +4699,113 @@
         <v>20</v>
       </c>
       <c r="Y22" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="Z22" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AA22" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AB22" t="n">
         <v>19</v>
       </c>
       <c r="AC22" t="n">
-        <v>11</v>
+        <v>9.6</v>
       </c>
       <c r="AD22" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AE22" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AF22" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AG22" t="n">
         <v>18</v>
       </c>
       <c r="AH22" t="n">
-        <v>20</v>
+        <v>17.5</v>
       </c>
       <c r="AI22" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK22" t="n">
         <v>40</v>
       </c>
-      <c r="AJ22" t="n">
-        <v>75</v>
-      </c>
-      <c r="AK22" t="n">
+      <c r="AL22" t="n">
         <v>46</v>
       </c>
-      <c r="AL22" t="n">
-        <v>50</v>
-      </c>
       <c r="AM22" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AN22" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AO22" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="AP22" t="n">
-        <v>3.85</v>
+        <v>15.5</v>
       </c>
       <c r="AQ22" t="n">
-        <v>3.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AR22" t="n">
-        <v>3.8</v>
+        <v>12.5</v>
       </c>
       <c r="AS22" t="n">
-        <v>4.1</v>
+        <v>5.9</v>
       </c>
       <c r="AT22" t="n">
-        <v>3.85</v>
+        <v>13</v>
       </c>
       <c r="AU22" t="n">
-        <v>3.4</v>
+        <v>7.6</v>
       </c>
       <c r="AV22" t="n">
-        <v>3.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AW22" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="AX22" t="n">
-        <v>4.1</v>
+        <v>5.9</v>
       </c>
       <c r="AY22" t="n">
-        <v>3.8</v>
+        <v>5.1</v>
       </c>
       <c r="AZ22" t="n">
-        <v>3.85</v>
+        <v>13.5</v>
       </c>
       <c r="BA22" t="n">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="BB22" t="n">
-        <v>4.4</v>
+        <v>6.4</v>
       </c>
       <c r="BC22" t="n">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="BD22" t="n">
-        <v>4.3</v>
+        <v>6.2</v>
       </c>
       <c r="BE22" t="n">
-        <v>4.5</v>
+        <v>6.6</v>
       </c>
       <c r="BF22" t="n">
-        <v>4.5</v>
+        <v>19</v>
       </c>
       <c r="BG22" t="n">
-        <v>3.7</v>
+        <v>4.8</v>
       </c>
       <c r="BH22" t="inlineStr">
         <is>
-          <t>2026-02-23 17:09:24</t>
+          <t>2026-02-23 19:17:22</t>
         </is>
       </c>
     </row>
@@ -4851,22 +4851,22 @@
         <v>3.1</v>
       </c>
       <c r="K23" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="L23" t="n">
-        <v>1.4</v>
+        <v>1.47</v>
       </c>
       <c r="M23" t="n">
         <v>1.09</v>
       </c>
       <c r="N23" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="O23" t="n">
         <v>1.4</v>
       </c>
       <c r="P23" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="Q23" t="n">
         <v>2.18</v>
@@ -4881,7 +4881,7 @@
         <v>1.86</v>
       </c>
       <c r="U23" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="V23" t="n">
         <v>1.59</v>
@@ -4890,7 +4890,7 @@
         <v>1.39</v>
       </c>
       <c r="X23" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Y23" t="n">
         <v>11</v>
@@ -4899,22 +4899,22 @@
         <v>19</v>
       </c>
       <c r="AA23" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AB23" t="n">
         <v>970</v>
       </c>
       <c r="AC23" t="n">
-        <v>8.800000000000001</v>
+        <v>8</v>
       </c>
       <c r="AD23" t="n">
-        <v>14.5</v>
+        <v>970</v>
       </c>
       <c r="AE23" t="n">
         <v>32</v>
       </c>
       <c r="AF23" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AG23" t="n">
         <v>970</v>
@@ -4923,7 +4923,7 @@
         <v>23</v>
       </c>
       <c r="AI23" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AJ23" t="n">
         <v>75</v>
@@ -4932,10 +4932,10 @@
         <v>55</v>
       </c>
       <c r="AL23" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AM23" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AN23" t="n">
         <v>60</v>
@@ -4950,56 +4950,56 @@
         <v>7.8</v>
       </c>
       <c r="AR23" t="n">
-        <v>4.6</v>
+        <v>13</v>
       </c>
       <c r="AS23" t="n">
-        <v>4.9</v>
+        <v>6.8</v>
       </c>
       <c r="AT23" t="n">
-        <v>4</v>
+        <v>9.4</v>
       </c>
       <c r="AU23" t="n">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="AV23" t="n">
         <v>10</v>
       </c>
       <c r="AW23" t="n">
-        <v>4.6</v>
+        <v>6.6</v>
       </c>
       <c r="AX23" t="n">
-        <v>4.5</v>
+        <v>6.4</v>
       </c>
       <c r="AY23" t="n">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="AZ23" t="n">
-        <v>4.5</v>
+        <v>5.8</v>
       </c>
       <c r="BA23" t="n">
-        <v>4.9</v>
+        <v>7.2</v>
       </c>
       <c r="BB23" t="n">
-        <v>5</v>
+        <v>7.4</v>
       </c>
       <c r="BC23" t="n">
-        <v>4.9</v>
+        <v>7.2</v>
       </c>
       <c r="BD23" t="n">
-        <v>5</v>
+        <v>6.8</v>
       </c>
       <c r="BE23" t="n">
-        <v>5.1</v>
+        <v>7.2</v>
       </c>
       <c r="BF23" t="n">
-        <v>4.9</v>
+        <v>6.8</v>
       </c>
       <c r="BG23" t="n">
         <v>20</v>
       </c>
       <c r="BH23" t="inlineStr">
         <is>
-          <t>2026-02-23 17:09:24</t>
+          <t>2026-02-23 19:17:22</t>
         </is>
       </c>
     </row>
@@ -5075,7 +5075,7 @@
         <v>1.92</v>
       </c>
       <c r="U24" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="V24" t="n">
         <v>3.05</v>
@@ -5141,19 +5141,19 @@
         <v>2.7</v>
       </c>
       <c r="AQ24" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="AR24" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="AS24" t="n">
         <v>9.6</v>
       </c>
       <c r="AT24" t="n">
-        <v>2.52</v>
+        <v>2.58</v>
       </c>
       <c r="AU24" t="n">
-        <v>2.32</v>
+        <v>2.38</v>
       </c>
       <c r="AV24" t="n">
         <v>6.6</v>
@@ -5162,38 +5162,38 @@
         <v>12</v>
       </c>
       <c r="AX24" t="n">
-        <v>2.64</v>
+        <v>2.72</v>
       </c>
       <c r="AY24" t="n">
         <v>20</v>
       </c>
       <c r="AZ24" t="n">
-        <v>2.5</v>
+        <v>2.58</v>
       </c>
       <c r="BA24" t="n">
-        <v>2.56</v>
+        <v>2.62</v>
       </c>
       <c r="BB24" t="n">
-        <v>2.7</v>
+        <v>2.78</v>
       </c>
       <c r="BC24" t="n">
-        <v>2.7</v>
+        <v>2.78</v>
       </c>
       <c r="BD24" t="n">
-        <v>2.7</v>
+        <v>2.78</v>
       </c>
       <c r="BE24" t="n">
-        <v>2.7</v>
+        <v>2.78</v>
       </c>
       <c r="BF24" t="n">
-        <v>2.7</v>
+        <v>2.78</v>
       </c>
       <c r="BG24" t="n">
         <v>4.5</v>
       </c>
       <c r="BH24" t="inlineStr">
         <is>
-          <t>2026-02-23 17:09:24</t>
+          <t>2026-02-23 19:17:22</t>
         </is>
       </c>
     </row>
@@ -5224,10 +5224,10 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.2</v>
+        <v>2.12</v>
       </c>
       <c r="G25" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="H25" t="n">
         <v>3.3</v>
@@ -5236,46 +5236,46 @@
         <v>3.65</v>
       </c>
       <c r="J25" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K25" t="n">
         <v>4.1</v>
       </c>
       <c r="L25" t="n">
-        <v>1.28</v>
+        <v>1.01</v>
       </c>
       <c r="M25" t="n">
         <v>1.05</v>
       </c>
       <c r="N25" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="O25" t="n">
         <v>1.22</v>
       </c>
       <c r="P25" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
       <c r="R25" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="S25" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="T25" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="U25" t="n">
         <v>2.44</v>
       </c>
       <c r="V25" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="W25" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="X25" t="n">
         <v>23</v>
@@ -5287,40 +5287,40 @@
         <v>32</v>
       </c>
       <c r="AA25" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AB25" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AC25" t="n">
         <v>10.5</v>
       </c>
       <c r="AD25" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AE25" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="AF25" t="n">
         <v>18</v>
       </c>
       <c r="AG25" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH25" t="n">
         <v>16.5</v>
       </c>
       <c r="AI25" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AJ25" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AK25" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AL25" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AM25" t="n">
         <v>1000</v>
@@ -5332,62 +5332,62 @@
         <v>1000</v>
       </c>
       <c r="AP25" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>23</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AT25" t="n">
         <v>4.8</v>
       </c>
-      <c r="AQ25" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="AR25" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="AS25" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="AT25" t="n">
-        <v>4.4</v>
-      </c>
       <c r="AU25" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="AV25" t="n">
-        <v>4.6</v>
+        <v>5</v>
       </c>
       <c r="AW25" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AX25" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY25" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AZ25" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA25" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB25" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="BC25" t="n">
         <v>5.3</v>
       </c>
-      <c r="AX25" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="AY25" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="AZ25" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="BA25" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="BB25" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="BC25" t="n">
-        <v>4.9</v>
-      </c>
       <c r="BD25" t="n">
-        <v>5.1</v>
+        <v>6.2</v>
       </c>
       <c r="BE25" t="n">
-        <v>5.6</v>
+        <v>6.4</v>
       </c>
       <c r="BF25" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="BG25" t="n">
-        <v>5.1</v>
+        <v>5.7</v>
       </c>
       <c r="BH25" t="inlineStr">
         <is>
-          <t>2026-02-23 17:09:24</t>
+          <t>2026-02-23 19:17:22</t>
         </is>
       </c>
     </row>
@@ -5418,70 +5418,70 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>4.5</v>
+        <v>5.1</v>
       </c>
       <c r="G26" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="H26" t="n">
-        <v>1.81</v>
+        <v>1.69</v>
       </c>
       <c r="I26" t="n">
-        <v>1.98</v>
+        <v>1.79</v>
       </c>
       <c r="J26" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="K26" t="n">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="L26" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="M26" t="n">
         <v>1.07</v>
       </c>
       <c r="N26" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="O26" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="P26" t="n">
-        <v>1.86</v>
+        <v>1.91</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="R26" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="S26" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="T26" t="n">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="U26" t="n">
-        <v>1.98</v>
+        <v>1.94</v>
       </c>
       <c r="V26" t="n">
-        <v>2.02</v>
+        <v>2.22</v>
       </c>
       <c r="W26" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="X26" t="n">
         <v>970</v>
       </c>
       <c r="Y26" t="n">
-        <v>970</v>
+        <v>10</v>
       </c>
       <c r="Z26" t="n">
         <v>970</v>
       </c>
       <c r="AA26" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AB26" t="n">
         <v>19</v>
@@ -5490,13 +5490,13 @@
         <v>9.6</v>
       </c>
       <c r="AD26" t="n">
-        <v>970</v>
+        <v>11</v>
       </c>
       <c r="AE26" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF26" t="n">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AG26" t="n">
         <v>970</v>
@@ -5505,10 +5505,10 @@
         <v>970</v>
       </c>
       <c r="AI26" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AJ26" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AK26" t="n">
         <v>80</v>
@@ -5520,7 +5520,7 @@
         <v>130</v>
       </c>
       <c r="AN26" t="n">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="AO26" t="n">
         <v>970</v>
@@ -5529,59 +5529,59 @@
         <v>10.5</v>
       </c>
       <c r="AQ26" t="n">
-        <v>4</v>
+        <v>4.6</v>
       </c>
       <c r="AR26" t="n">
-        <v>9.4</v>
+        <v>4.4</v>
       </c>
       <c r="AS26" t="n">
-        <v>5.6</v>
+        <v>5.3</v>
       </c>
       <c r="AT26" t="n">
         <v>5.2</v>
       </c>
       <c r="AU26" t="n">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="AV26" t="n">
-        <v>8.800000000000001</v>
+        <v>4.5</v>
       </c>
       <c r="AW26" t="n">
         <v>15</v>
       </c>
       <c r="AX26" t="n">
-        <v>5.9</v>
+        <v>4.6</v>
       </c>
       <c r="AY26" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="AZ26" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="BA26" t="n">
-        <v>5.9</v>
+        <v>4.5</v>
       </c>
       <c r="BB26" t="n">
-        <v>3.95</v>
+        <v>3.35</v>
       </c>
       <c r="BC26" t="n">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="BD26" t="n">
-        <v>6.2</v>
+        <v>4.8</v>
       </c>
       <c r="BE26" t="n">
-        <v>3.95</v>
+        <v>3.35</v>
       </c>
       <c r="BF26" t="n">
-        <v>4</v>
+        <v>4.7</v>
       </c>
       <c r="BG26" t="n">
-        <v>11</v>
+        <v>4.6</v>
       </c>
       <c r="BH26" t="inlineStr">
         <is>
-          <t>2026-02-23 17:09:24</t>
+          <t>2026-02-23 19:17:22</t>
         </is>
       </c>
     </row>
@@ -5618,19 +5618,19 @@
         <v>2.54</v>
       </c>
       <c r="H27" t="n">
-        <v>2.9</v>
+        <v>2.94</v>
       </c>
       <c r="I27" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="J27" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="K27" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="L27" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="M27" t="n">
         <v>1.05</v>
@@ -5639,7 +5639,7 @@
         <v>4.3</v>
       </c>
       <c r="O27" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="P27" t="n">
         <v>2.14</v>
@@ -5648,10 +5648,10 @@
         <v>1.74</v>
       </c>
       <c r="R27" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="S27" t="n">
-        <v>2.76</v>
+        <v>2.82</v>
       </c>
       <c r="T27" t="n">
         <v>1.6</v>
@@ -5663,55 +5663,55 @@
         <v>1.46</v>
       </c>
       <c r="W27" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="X27" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Y27" t="n">
         <v>17.5</v>
       </c>
       <c r="Z27" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AA27" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AB27" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AC27" t="n">
-        <v>10.5</v>
+        <v>9</v>
       </c>
       <c r="AD27" t="n">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="AE27" t="n">
         <v>32</v>
       </c>
       <c r="AF27" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AG27" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH27" t="n">
-        <v>19</v>
+        <v>16.5</v>
       </c>
       <c r="AI27" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AJ27" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="AK27" t="n">
         <v>26</v>
       </c>
       <c r="AL27" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AM27" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AN27" t="n">
         <v>19.5</v>
@@ -5723,16 +5723,16 @@
         <v>16</v>
       </c>
       <c r="AQ27" t="n">
-        <v>10.5</v>
+        <v>12.5</v>
       </c>
       <c r="AR27" t="n">
         <v>19</v>
       </c>
       <c r="AS27" t="n">
-        <v>4.4</v>
+        <v>6.2</v>
       </c>
       <c r="AT27" t="n">
-        <v>9.4</v>
+        <v>10.5</v>
       </c>
       <c r="AU27" t="n">
         <v>7.6</v>
@@ -5741,10 +5741,10 @@
         <v>11.5</v>
       </c>
       <c r="AW27" t="n">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="AX27" t="n">
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
       <c r="AY27" t="n">
         <v>10</v>
@@ -5753,29 +5753,29 @@
         <v>13</v>
       </c>
       <c r="BA27" t="n">
-        <v>4.5</v>
+        <v>6.2</v>
       </c>
       <c r="BB27" t="n">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="BC27" t="n">
         <v>20</v>
       </c>
       <c r="BD27" t="n">
-        <v>4.5</v>
+        <v>27</v>
       </c>
       <c r="BE27" t="n">
-        <v>4.4</v>
+        <v>6.4</v>
       </c>
       <c r="BF27" t="n">
         <v>11.5</v>
       </c>
       <c r="BG27" t="n">
-        <v>17</v>
+        <v>19.5</v>
       </c>
       <c r="BH27" t="inlineStr">
         <is>
-          <t>2026-02-23 17:09:24</t>
+          <t>2026-02-23 19:17:22</t>
         </is>
       </c>
     </row>
@@ -5809,22 +5809,22 @@
         <v>3.4</v>
       </c>
       <c r="G28" t="n">
-        <v>3.95</v>
+        <v>3.75</v>
       </c>
       <c r="H28" t="n">
-        <v>1.97</v>
+        <v>1.9</v>
       </c>
       <c r="I28" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="J28" t="n">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="K28" t="n">
-        <v>4.7</v>
+        <v>5.1</v>
       </c>
       <c r="L28" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="M28" t="n">
         <v>1.03</v>
@@ -5836,7 +5836,7 @@
         <v>1.16</v>
       </c>
       <c r="P28" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="Q28" t="n">
         <v>1.48</v>
@@ -5845,19 +5845,19 @@
         <v>1.7</v>
       </c>
       <c r="S28" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="T28" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="U28" t="n">
         <v>2.6</v>
       </c>
       <c r="V28" t="n">
-        <v>1.9</v>
+        <v>1.94</v>
       </c>
       <c r="W28" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="X28" t="n">
         <v>970</v>
@@ -5869,7 +5869,7 @@
         <v>970</v>
       </c>
       <c r="AA28" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AB28" t="n">
         <v>970</v>
@@ -5884,7 +5884,7 @@
         <v>970</v>
       </c>
       <c r="AF28" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="AG28" t="n">
         <v>970</v>
@@ -5893,28 +5893,28 @@
         <v>970</v>
       </c>
       <c r="AI28" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AJ28" t="n">
         <v>75</v>
       </c>
       <c r="AK28" t="n">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="AL28" t="n">
         <v>38</v>
       </c>
       <c r="AM28" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AN28" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="AO28" t="n">
-        <v>9.4</v>
+        <v>970</v>
       </c>
       <c r="AP28" t="n">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="AQ28" t="n">
         <v>11.5</v>
@@ -5923,53 +5923,53 @@
         <v>11.5</v>
       </c>
       <c r="AS28" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="AT28" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="AU28" t="n">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="AV28" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AW28" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AX28" t="n">
         <v>4.6</v>
       </c>
-      <c r="AW28" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="AX28" t="n">
+      <c r="AY28" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AZ28" t="n">
         <v>5.9</v>
       </c>
-      <c r="AY28" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="AZ28" t="n">
+      <c r="BA28" t="n">
+        <v>20</v>
+      </c>
+      <c r="BB28" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="BC28" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="BD28" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="BE28" t="n">
         <v>5</v>
-      </c>
-      <c r="BA28" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="BB28" t="n">
-        <v>6</v>
-      </c>
-      <c r="BC28" t="n">
-        <v>6</v>
-      </c>
-      <c r="BD28" t="n">
-        <v>6</v>
-      </c>
-      <c r="BE28" t="n">
-        <v>6.6</v>
       </c>
       <c r="BF28" t="n">
         <v>5.6</v>
       </c>
       <c r="BG28" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="BH28" t="inlineStr">
         <is>
-          <t>2026-02-23 17:09:24</t>
+          <t>2026-02-23 19:17:22</t>
         </is>
       </c>
     </row>
@@ -6000,16 +6000,16 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="G29" t="n">
         <v>2.4</v>
       </c>
       <c r="H29" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="I29" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="J29" t="n">
         <v>3.3</v>
@@ -6018,7 +6018,7 @@
         <v>3.9</v>
       </c>
       <c r="L29" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="M29" t="n">
         <v>1.07</v>
@@ -6030,19 +6030,19 @@
         <v>1.32</v>
       </c>
       <c r="P29" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="R29" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="S29" t="n">
         <v>3.4</v>
       </c>
       <c r="T29" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="U29" t="n">
         <v>2.06</v>
@@ -6066,13 +6066,13 @@
         <v>1000</v>
       </c>
       <c r="AB29" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AC29" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="AD29" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AE29" t="n">
         <v>1000</v>
@@ -6111,13 +6111,13 @@
         <v>11.5</v>
       </c>
       <c r="AQ29" t="n">
-        <v>4.1</v>
+        <v>10.5</v>
       </c>
       <c r="AR29" t="n">
-        <v>4.8</v>
+        <v>20</v>
       </c>
       <c r="AS29" t="n">
-        <v>4.8</v>
+        <v>50</v>
       </c>
       <c r="AT29" t="n">
         <v>8.199999999999999</v>
@@ -6129,41 +6129,41 @@
         <v>12.5</v>
       </c>
       <c r="AW29" t="n">
-        <v>4.8</v>
+        <v>5.2</v>
       </c>
       <c r="AX29" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AY29" t="n">
-        <v>9.4</v>
+        <v>8.6</v>
       </c>
       <c r="AZ29" t="n">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="BA29" t="n">
-        <v>4.8</v>
+        <v>5.3</v>
       </c>
       <c r="BB29" t="n">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="BC29" t="n">
-        <v>4.7</v>
+        <v>20</v>
       </c>
       <c r="BD29" t="n">
-        <v>4.8</v>
+        <v>5.1</v>
       </c>
       <c r="BE29" t="n">
-        <v>4.9</v>
+        <v>5.5</v>
       </c>
       <c r="BF29" t="n">
-        <v>4.6</v>
+        <v>14.5</v>
       </c>
       <c r="BG29" t="n">
-        <v>4.8</v>
+        <v>34</v>
       </c>
       <c r="BH29" t="inlineStr">
         <is>
-          <t>2026-02-23 17:09:24</t>
+          <t>2026-02-23 19:17:22</t>
         </is>
       </c>
     </row>
@@ -6200,7 +6200,7 @@
         <v>1.67</v>
       </c>
       <c r="H30" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="I30" t="n">
         <v>6.4</v>
@@ -6221,7 +6221,7 @@
         <v>4.7</v>
       </c>
       <c r="O30" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="P30" t="n">
         <v>2.32</v>
@@ -6254,7 +6254,7 @@
         <v>970</v>
       </c>
       <c r="Z30" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AA30" t="n">
         <v>1000</v>
@@ -6263,7 +6263,7 @@
         <v>12</v>
       </c>
       <c r="AC30" t="n">
-        <v>12</v>
+        <v>970</v>
       </c>
       <c r="AD30" t="n">
         <v>970</v>
@@ -6275,7 +6275,7 @@
         <v>970</v>
       </c>
       <c r="AG30" t="n">
-        <v>11.5</v>
+        <v>970</v>
       </c>
       <c r="AH30" t="n">
         <v>970</v>
@@ -6302,62 +6302,62 @@
         <v>85</v>
       </c>
       <c r="AP30" t="n">
-        <v>5.1</v>
+        <v>5.7</v>
       </c>
       <c r="AQ30" t="n">
-        <v>5.3</v>
+        <v>3.8</v>
       </c>
       <c r="AR30" t="n">
-        <v>5.8</v>
+        <v>4.1</v>
       </c>
       <c r="AS30" t="n">
-        <v>6</v>
+        <v>3.7</v>
       </c>
       <c r="AT30" t="n">
         <v>9</v>
       </c>
       <c r="AU30" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="AV30" t="n">
-        <v>5.3</v>
+        <v>3.8</v>
       </c>
       <c r="AW30" t="n">
-        <v>6.2</v>
+        <v>7</v>
       </c>
       <c r="AX30" t="n">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="AY30" t="n">
         <v>8.6</v>
       </c>
       <c r="AZ30" t="n">
-        <v>5.1</v>
+        <v>5.7</v>
       </c>
       <c r="BA30" t="n">
-        <v>6.2</v>
+        <v>7</v>
       </c>
       <c r="BB30" t="n">
-        <v>4.8</v>
+        <v>5.2</v>
       </c>
       <c r="BC30" t="n">
-        <v>4.8</v>
+        <v>5.3</v>
       </c>
       <c r="BD30" t="n">
-        <v>5.5</v>
+        <v>3.95</v>
       </c>
       <c r="BE30" t="n">
-        <v>6.2</v>
+        <v>4.3</v>
       </c>
       <c r="BF30" t="n">
         <v>5.9</v>
       </c>
       <c r="BG30" t="n">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="BH30" t="inlineStr">
         <is>
-          <t>2026-02-23 17:09:24</t>
+          <t>2026-02-23 19:17:22</t>
         </is>
       </c>
     </row>
@@ -6388,22 +6388,22 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2.24</v>
+        <v>2.1</v>
       </c>
       <c r="G31" t="n">
-        <v>2.36</v>
+        <v>2.22</v>
       </c>
       <c r="H31" t="n">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="I31" t="n">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="J31" t="n">
-        <v>2.94</v>
+        <v>3</v>
       </c>
       <c r="K31" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="L31" t="n">
         <v>1.64</v>
@@ -6412,13 +6412,13 @@
         <v>1.15</v>
       </c>
       <c r="N31" t="n">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="O31" t="n">
-        <v>1.65</v>
+        <v>1.63</v>
       </c>
       <c r="P31" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="Q31" t="n">
         <v>2.96</v>
@@ -6427,7 +6427,7 @@
         <v>1.15</v>
       </c>
       <c r="S31" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="T31" t="n">
         <v>2.28</v>
@@ -6436,10 +6436,10 @@
         <v>1.66</v>
       </c>
       <c r="V31" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="W31" t="n">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="X31" t="n">
         <v>7.8</v>
@@ -6448,28 +6448,28 @@
         <v>11</v>
       </c>
       <c r="Z31" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AA31" t="n">
         <v>140</v>
       </c>
       <c r="AB31" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AC31" t="n">
         <v>7.8</v>
       </c>
-      <c r="AC31" t="n">
-        <v>8.800000000000001</v>
-      </c>
       <c r="AD31" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="AE31" t="n">
         <v>100</v>
       </c>
       <c r="AF31" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AG31" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AH31" t="n">
         <v>34</v>
@@ -6478,16 +6478,16 @@
         <v>140</v>
       </c>
       <c r="AJ31" t="n">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="AK31" t="n">
         <v>38</v>
       </c>
       <c r="AL31" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AM31" t="n">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="AN31" t="n">
         <v>42</v>
@@ -6502,56 +6502,56 @@
         <v>8.6</v>
       </c>
       <c r="AR31" t="n">
-        <v>19</v>
+        <v>6.4</v>
       </c>
       <c r="AS31" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AT31" t="n">
         <v>5.6</v>
       </c>
-      <c r="AT31" t="n">
-        <v>5.8</v>
-      </c>
       <c r="AU31" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="AV31" t="n">
         <v>16</v>
       </c>
       <c r="AW31" t="n">
-        <v>5.6</v>
+        <v>7.2</v>
       </c>
       <c r="AX31" t="n">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
       <c r="AY31" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AZ31" t="n">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="BA31" t="n">
-        <v>5.6</v>
+        <v>7.4</v>
       </c>
       <c r="BB31" t="n">
-        <v>5.1</v>
+        <v>6.4</v>
       </c>
       <c r="BC31" t="n">
-        <v>5.1</v>
+        <v>6.4</v>
       </c>
       <c r="BD31" t="n">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="BE31" t="n">
-        <v>5.8</v>
+        <v>7.6</v>
       </c>
       <c r="BF31" t="n">
-        <v>5.2</v>
+        <v>6.6</v>
       </c>
       <c r="BG31" t="n">
-        <v>5.7</v>
+        <v>7.4</v>
       </c>
       <c r="BH31" t="inlineStr">
         <is>
-          <t>2026-02-23 17:09:24</t>
+          <t>2026-02-23 19:17:22</t>
         </is>
       </c>
     </row>
@@ -6591,13 +6591,13 @@
         <v>20</v>
       </c>
       <c r="I32" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J32" t="n">
         <v>10.5</v>
       </c>
       <c r="K32" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="L32" t="n">
         <v>1.18</v>
@@ -6612,7 +6612,7 @@
         <v>1.09</v>
       </c>
       <c r="P32" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="Q32" t="n">
         <v>1.3</v>
@@ -6621,16 +6621,16 @@
         <v>2.28</v>
       </c>
       <c r="S32" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="T32" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="U32" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="V32" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="W32" t="n">
         <v>6.8</v>
@@ -6651,10 +6651,10 @@
         <v>17</v>
       </c>
       <c r="AC32" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AD32" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AE32" t="n">
         <v>320</v>
@@ -6663,16 +6663,16 @@
         <v>11</v>
       </c>
       <c r="AG32" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AH32" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AI32" t="n">
         <v>170</v>
       </c>
       <c r="AJ32" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AK32" t="n">
         <v>13.5</v>
@@ -6681,7 +6681,7 @@
         <v>36</v>
       </c>
       <c r="AM32" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AN32" t="n">
         <v>2.5</v>
@@ -6690,16 +6690,16 @@
         <v>280</v>
       </c>
       <c r="AP32" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="AQ32" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AR32" t="n">
         <v>48</v>
       </c>
       <c r="AS32" t="n">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="AT32" t="n">
         <v>15</v>
@@ -6708,13 +6708,13 @@
         <v>23</v>
       </c>
       <c r="AV32" t="n">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="AW32" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="AX32" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AY32" t="n">
         <v>13</v>
@@ -6723,7 +6723,7 @@
         <v>34</v>
       </c>
       <c r="BA32" t="n">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="BB32" t="n">
         <v>9</v>
@@ -6732,20 +6732,20 @@
         <v>12</v>
       </c>
       <c r="BD32" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="BE32" t="n">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="BF32" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="BG32" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="BH32" t="inlineStr">
         <is>
-          <t>2026-02-23 17:09:24</t>
+          <t>2026-02-23 19:17:22</t>
         </is>
       </c>
     </row>
@@ -6776,19 +6776,19 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="G33" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="H33" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="I33" t="n">
         <v>4.5</v>
       </c>
-      <c r="I33" t="n">
-        <v>4.6</v>
-      </c>
       <c r="J33" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="K33" t="n">
         <v>4.3</v>
@@ -6806,19 +6806,19 @@
         <v>1.23</v>
       </c>
       <c r="P33" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="Q33" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R33" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="S33" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="T33" t="n">
         <v>1.71</v>
-      </c>
-      <c r="R33" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="S33" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="T33" t="n">
-        <v>1.7</v>
       </c>
       <c r="U33" t="n">
         <v>2.34</v>
@@ -6827,19 +6827,19 @@
         <v>1.28</v>
       </c>
       <c r="W33" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="X33" t="n">
         <v>20</v>
       </c>
       <c r="Y33" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="Z33" t="n">
         <v>36</v>
       </c>
       <c r="AA33" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="AB33" t="n">
         <v>11.5</v>
@@ -6848,7 +6848,7 @@
         <v>9.6</v>
       </c>
       <c r="AD33" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AE33" t="n">
         <v>48</v>
@@ -6860,13 +6860,13 @@
         <v>10.5</v>
       </c>
       <c r="AH33" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AI33" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AJ33" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AK33" t="n">
         <v>17</v>
@@ -6878,34 +6878,34 @@
         <v>75</v>
       </c>
       <c r="AN33" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AO33" t="n">
         <v>40</v>
       </c>
       <c r="AP33" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AQ33" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AR33" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AS33" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="AT33" t="n">
         <v>10.5</v>
       </c>
       <c r="AU33" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AV33" t="n">
         <v>16.5</v>
       </c>
       <c r="AW33" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AX33" t="n">
         <v>11.5</v>
@@ -6917,7 +6917,7 @@
         <v>16</v>
       </c>
       <c r="BA33" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="BB33" t="n">
         <v>19</v>
@@ -6935,11 +6935,11 @@
         <v>8.199999999999999</v>
       </c>
       <c r="BG33" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="BH33" t="inlineStr">
         <is>
-          <t>2026-02-23 17:09:24</t>
+          <t>2026-02-23 19:17:22</t>
         </is>
       </c>
     </row>
@@ -6970,10 +6970,10 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="G34" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="H34" t="n">
         <v>11.5</v>
@@ -6985,7 +6985,7 @@
         <v>7.6</v>
       </c>
       <c r="K34" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="L34" t="n">
         <v>1.2</v>
@@ -6994,13 +6994,13 @@
         <v>1.02</v>
       </c>
       <c r="N34" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="O34" t="n">
         <v>1.1</v>
       </c>
       <c r="P34" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="Q34" t="n">
         <v>1.34</v>
@@ -7012,7 +7012,7 @@
         <v>1.87</v>
       </c>
       <c r="T34" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="U34" t="n">
         <v>2.28</v>
@@ -7021,19 +7021,19 @@
         <v>1.09</v>
       </c>
       <c r="W34" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="X34" t="n">
         <v>55</v>
       </c>
       <c r="Y34" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="Z34" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AA34" t="n">
-        <v>510</v>
+        <v>370</v>
       </c>
       <c r="AB34" t="n">
         <v>16.5</v>
@@ -7045,19 +7045,19 @@
         <v>42</v>
       </c>
       <c r="AE34" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AF34" t="n">
         <v>11</v>
       </c>
       <c r="AG34" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AH34" t="n">
         <v>26</v>
       </c>
       <c r="AI34" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AJ34" t="n">
         <v>11.5</v>
@@ -7072,7 +7072,7 @@
         <v>95</v>
       </c>
       <c r="AN34" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="AO34" t="n">
         <v>110</v>
@@ -7081,10 +7081,10 @@
         <v>48</v>
       </c>
       <c r="AQ34" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AR34" t="n">
-        <v>100</v>
+        <v>42</v>
       </c>
       <c r="AS34" t="n">
         <v>65</v>
@@ -7105,7 +7105,7 @@
         <v>10.5</v>
       </c>
       <c r="AY34" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AZ34" t="n">
         <v>25</v>
@@ -7117,23 +7117,23 @@
         <v>10.5</v>
       </c>
       <c r="BC34" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="BD34" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BE34" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="BF34" t="n">
         <v>3.05</v>
       </c>
       <c r="BG34" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="BH34" t="inlineStr">
         <is>
-          <t>2026-02-23 17:09:24</t>
+          <t>2026-02-23 19:17:22</t>
         </is>
       </c>
     </row>
@@ -7164,22 +7164,22 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="G35" t="n">
-        <v>2.02</v>
+        <v>2.14</v>
       </c>
       <c r="H35" t="n">
-        <v>4.8</v>
+        <v>4.4</v>
       </c>
       <c r="I35" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="J35" t="n">
-        <v>3.25</v>
+        <v>3.05</v>
       </c>
       <c r="K35" t="n">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="L35" t="n">
         <v>1.46</v>
@@ -7203,19 +7203,19 @@
         <v>1.21</v>
       </c>
       <c r="S35" t="n">
-        <v>4.7</v>
+        <v>4.3</v>
       </c>
       <c r="T35" t="n">
-        <v>1.05</v>
+        <v>2.08</v>
       </c>
       <c r="U35" t="n">
-        <v>1.05</v>
+        <v>1.73</v>
       </c>
       <c r="V35" t="n">
         <v>1.2</v>
       </c>
       <c r="W35" t="n">
-        <v>1.96</v>
+        <v>1.88</v>
       </c>
       <c r="X35" t="n">
         <v>11.5</v>
@@ -7230,7 +7230,7 @@
         <v>1000</v>
       </c>
       <c r="AB35" t="n">
-        <v>1000</v>
+        <v>7</v>
       </c>
       <c r="AC35" t="n">
         <v>8.199999999999999</v>
@@ -7272,62 +7272,62 @@
         <v>1000</v>
       </c>
       <c r="AP35" t="n">
-        <v>2.54</v>
+        <v>4</v>
       </c>
       <c r="AQ35" t="n">
-        <v>2.7</v>
+        <v>4.4</v>
       </c>
       <c r="AR35" t="n">
-        <v>3.05</v>
+        <v>5.4</v>
       </c>
       <c r="AS35" t="n">
-        <v>3.2</v>
+        <v>5.9</v>
       </c>
       <c r="AT35" t="n">
         <v>3.25</v>
       </c>
       <c r="AU35" t="n">
-        <v>2.34</v>
+        <v>3.5</v>
       </c>
       <c r="AV35" t="n">
-        <v>2.88</v>
+        <v>4.9</v>
       </c>
       <c r="AW35" t="n">
-        <v>3.15</v>
+        <v>5.8</v>
       </c>
       <c r="AX35" t="n">
-        <v>2.56</v>
+        <v>4</v>
       </c>
       <c r="AY35" t="n">
-        <v>2.58</v>
+        <v>4.1</v>
       </c>
       <c r="AZ35" t="n">
-        <v>2.94</v>
+        <v>5.1</v>
       </c>
       <c r="BA35" t="n">
-        <v>3.15</v>
+        <v>5.8</v>
       </c>
       <c r="BB35" t="n">
-        <v>2.9</v>
+        <v>5</v>
       </c>
       <c r="BC35" t="n">
-        <v>2.94</v>
+        <v>5.1</v>
       </c>
       <c r="BD35" t="n">
-        <v>3.1</v>
+        <v>5.5</v>
       </c>
       <c r="BE35" t="n">
-        <v>3.2</v>
+        <v>5.9</v>
       </c>
       <c r="BF35" t="n">
-        <v>2.88</v>
+        <v>4.9</v>
       </c>
       <c r="BG35" t="n">
-        <v>3.2</v>
+        <v>5.9</v>
       </c>
       <c r="BH35" t="inlineStr">
         <is>
-          <t>2026-02-23 17:09:24</t>
+          <t>2026-02-23 19:17:22</t>
         </is>
       </c>
     </row>
@@ -7364,10 +7364,10 @@
         <v>1.64</v>
       </c>
       <c r="H36" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="I36" t="n">
-        <v>9.199999999999999</v>
+        <v>11</v>
       </c>
       <c r="J36" t="n">
         <v>3.75</v>
@@ -7406,7 +7406,7 @@
         <v>1.67</v>
       </c>
       <c r="V36" t="n">
-        <v>1.12</v>
+        <v>1.1</v>
       </c>
       <c r="W36" t="n">
         <v>2.46</v>
@@ -7415,7 +7415,7 @@
         <v>14.5</v>
       </c>
       <c r="Y36" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="Z36" t="n">
         <v>1000</v>
@@ -7466,62 +7466,62 @@
         <v>1000</v>
       </c>
       <c r="AP36" t="n">
-        <v>10</v>
+        <v>4.2</v>
       </c>
       <c r="AQ36" t="n">
-        <v>17.5</v>
+        <v>4.8</v>
       </c>
       <c r="AR36" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AS36" t="n">
         <v>5.9</v>
       </c>
-      <c r="AS36" t="n">
-        <v>6</v>
-      </c>
       <c r="AT36" t="n">
-        <v>5.6</v>
+        <v>3.2</v>
       </c>
       <c r="AU36" t="n">
-        <v>8</v>
+        <v>3.95</v>
       </c>
       <c r="AV36" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AW36" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AX36" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AY36" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AZ36" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="BA36" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="BB36" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="BC36" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="BD36" t="n">
         <v>5.5</v>
       </c>
-      <c r="AW36" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX36" t="n">
-        <v>7</v>
-      </c>
-      <c r="AY36" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AZ36" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="BA36" t="n">
-        <v>6</v>
-      </c>
-      <c r="BB36" t="n">
-        <v>12</v>
-      </c>
-      <c r="BC36" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="BD36" t="n">
-        <v>5.7</v>
-      </c>
       <c r="BE36" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="BF36" t="n">
-        <v>8.6</v>
+        <v>4</v>
       </c>
       <c r="BG36" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="BH36" t="inlineStr">
         <is>
-          <t>2026-02-23 17:09:24</t>
+          <t>2026-02-23 19:17:22</t>
         </is>
       </c>
     </row>
@@ -7552,10 +7552,10 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="G37" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="H37" t="n">
         <v>4</v>
@@ -7564,7 +7564,7 @@
         <v>4.4</v>
       </c>
       <c r="J37" t="n">
-        <v>2.88</v>
+        <v>2.96</v>
       </c>
       <c r="K37" t="n">
         <v>2.98</v>
@@ -7585,7 +7585,7 @@
         <v>1.37</v>
       </c>
       <c r="Q37" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="R37" t="n">
         <v>1.12</v>
@@ -7603,7 +7603,7 @@
         <v>1.3</v>
       </c>
       <c r="W37" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="X37" t="n">
         <v>6.6</v>
@@ -7618,7 +7618,7 @@
         <v>130</v>
       </c>
       <c r="AB37" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="AC37" t="n">
         <v>7.4</v>
@@ -7630,7 +7630,7 @@
         <v>110</v>
       </c>
       <c r="AF37" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AG37" t="n">
         <v>13.5</v>
@@ -7642,7 +7642,7 @@
         <v>160</v>
       </c>
       <c r="AJ37" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AK37" t="n">
         <v>44</v>
@@ -7669,7 +7669,7 @@
         <v>23</v>
       </c>
       <c r="AS37" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AT37" t="n">
         <v>5.4</v>
@@ -7681,10 +7681,10 @@
         <v>17.5</v>
       </c>
       <c r="AW37" t="n">
+        <v>12</v>
+      </c>
+      <c r="AX37" t="n">
         <v>11</v>
-      </c>
-      <c r="AX37" t="n">
-        <v>11.5</v>
       </c>
       <c r="AY37" t="n">
         <v>12</v>
@@ -7693,29 +7693,29 @@
         <v>28</v>
       </c>
       <c r="BA37" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="BB37" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="BC37" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="BD37" t="n">
+        <v>12</v>
+      </c>
+      <c r="BE37" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="BF37" t="n">
         <v>11</v>
       </c>
-      <c r="BE37" t="n">
-        <v>12</v>
-      </c>
-      <c r="BF37" t="n">
-        <v>10</v>
-      </c>
       <c r="BG37" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="BH37" t="inlineStr">
         <is>
-          <t>2026-02-23 17:09:24</t>
+          <t>2026-02-23 19:17:22</t>
         </is>
       </c>
     </row>
@@ -7746,28 +7746,28 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="G38" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="H38" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="I38" t="n">
-        <v>2.7</v>
+        <v>2.62</v>
       </c>
       <c r="J38" t="n">
-        <v>2.74</v>
+        <v>3.05</v>
       </c>
       <c r="K38" t="n">
-        <v>2.94</v>
+        <v>3.15</v>
       </c>
       <c r="L38" t="n">
         <v>1.71</v>
       </c>
       <c r="M38" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="N38" t="n">
         <v>2.22</v>
@@ -7776,10 +7776,10 @@
         <v>1.71</v>
       </c>
       <c r="P38" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="Q38" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="R38" t="n">
         <v>1.12</v>
@@ -7788,34 +7788,34 @@
         <v>7.6</v>
       </c>
       <c r="T38" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="U38" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="V38" t="n">
         <v>1.62</v>
       </c>
-      <c r="V38" t="n">
-        <v>1.58</v>
-      </c>
       <c r="W38" t="n">
-        <v>1.34</v>
+        <v>1.37</v>
       </c>
       <c r="X38" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="Y38" t="n">
         <v>6.8</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>7</v>
       </c>
       <c r="Z38" t="n">
         <v>14</v>
       </c>
       <c r="AA38" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AB38" t="n">
         <v>10</v>
       </c>
       <c r="AC38" t="n">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="AD38" t="n">
         <v>14.5</v>
@@ -7839,7 +7839,7 @@
         <v>1000</v>
       </c>
       <c r="AK38" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AL38" t="n">
         <v>140</v>
@@ -7854,7 +7854,7 @@
         <v>1000</v>
       </c>
       <c r="AP38" t="n">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="AQ38" t="n">
         <v>5.9</v>
@@ -7863,10 +7863,10 @@
         <v>12</v>
       </c>
       <c r="AS38" t="n">
-        <v>38</v>
+        <v>6.8</v>
       </c>
       <c r="AT38" t="n">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="AU38" t="n">
         <v>6</v>
@@ -7881,35 +7881,35 @@
         <v>17</v>
       </c>
       <c r="AY38" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AZ38" t="n">
-        <v>25</v>
+        <v>6.4</v>
       </c>
       <c r="BA38" t="n">
-        <v>9.800000000000001</v>
+        <v>7.6</v>
       </c>
       <c r="BB38" t="n">
-        <v>9.800000000000001</v>
+        <v>7.6</v>
       </c>
       <c r="BC38" t="n">
-        <v>9.4</v>
+        <v>7.4</v>
       </c>
       <c r="BD38" t="n">
-        <v>10</v>
+        <v>7.6</v>
       </c>
       <c r="BE38" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BF38" t="n">
-        <v>10</v>
+        <v>7.6</v>
       </c>
       <c r="BG38" t="n">
         <v>42</v>
       </c>
       <c r="BH38" t="inlineStr">
         <is>
-          <t>2026-02-23 17:09:24</t>
+          <t>2026-02-23 19:17:22</t>
         </is>
       </c>
     </row>
@@ -7940,10 +7940,10 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="G39" t="n">
-        <v>1.85</v>
+        <v>1.89</v>
       </c>
       <c r="H39" t="n">
         <v>5.2</v>
@@ -7964,7 +7964,7 @@
         <v>1.11</v>
       </c>
       <c r="N39" t="n">
-        <v>2.88</v>
+        <v>2.86</v>
       </c>
       <c r="O39" t="n">
         <v>1.49</v>
@@ -7982,7 +7982,7 @@
         <v>4.9</v>
       </c>
       <c r="T39" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="U39" t="n">
         <v>1.75</v>
@@ -7991,13 +7991,13 @@
         <v>1.21</v>
       </c>
       <c r="W39" t="n">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="X39" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y39" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Z39" t="n">
         <v>40</v>
@@ -8018,7 +8018,7 @@
         <v>1000</v>
       </c>
       <c r="AF39" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AG39" t="n">
         <v>11</v>
@@ -8030,7 +8030,7 @@
         <v>120</v>
       </c>
       <c r="AJ39" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AK39" t="n">
         <v>25</v>
@@ -8057,7 +8057,7 @@
         <v>34</v>
       </c>
       <c r="AS39" t="n">
-        <v>12.5</v>
+        <v>42</v>
       </c>
       <c r="AT39" t="n">
         <v>6.2</v>
@@ -8090,7 +8090,7 @@
         <v>21</v>
       </c>
       <c r="BD39" t="n">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="BE39" t="n">
         <v>48</v>
@@ -8103,7 +8103,7 @@
       </c>
       <c r="BH39" t="inlineStr">
         <is>
-          <t>2026-02-23 17:09:24</t>
+          <t>2026-02-23 19:17:22</t>
         </is>
       </c>
     </row>
@@ -8134,7 +8134,7 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="G40" t="n">
         <v>4.1</v>
@@ -8143,7 +8143,7 @@
         <v>2.34</v>
       </c>
       <c r="I40" t="n">
-        <v>2.5</v>
+        <v>2.46</v>
       </c>
       <c r="J40" t="n">
         <v>3.05</v>
@@ -8167,7 +8167,7 @@
         <v>1.47</v>
       </c>
       <c r="Q40" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="R40" t="n">
         <v>1.16</v>
@@ -8176,13 +8176,13 @@
         <v>6</v>
       </c>
       <c r="T40" t="n">
-        <v>2.2</v>
+        <v>2.26</v>
       </c>
       <c r="U40" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="V40" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="W40" t="n">
         <v>1.32</v>
@@ -8200,19 +8200,19 @@
         <v>38</v>
       </c>
       <c r="AB40" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AC40" t="n">
-        <v>8.199999999999999</v>
+        <v>7.2</v>
       </c>
       <c r="AD40" t="n">
-        <v>13</v>
+        <v>970</v>
       </c>
       <c r="AE40" t="n">
         <v>1000</v>
       </c>
       <c r="AF40" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="AG40" t="n">
         <v>22</v>
@@ -8251,7 +8251,7 @@
         <v>11.5</v>
       </c>
       <c r="AS40" t="n">
-        <v>6.2</v>
+        <v>7</v>
       </c>
       <c r="AT40" t="n">
         <v>8.199999999999999</v>
@@ -8263,41 +8263,41 @@
         <v>11</v>
       </c>
       <c r="AW40" t="n">
-        <v>6.2</v>
+        <v>7</v>
       </c>
       <c r="AX40" t="n">
-        <v>5.9</v>
+        <v>6.4</v>
       </c>
       <c r="AY40" t="n">
         <v>15</v>
       </c>
       <c r="AZ40" t="n">
-        <v>5.4</v>
+        <v>6.4</v>
       </c>
       <c r="BA40" t="n">
-        <v>6.2</v>
+        <v>7.6</v>
       </c>
       <c r="BB40" t="n">
-        <v>6.4</v>
+        <v>8</v>
       </c>
       <c r="BC40" t="n">
-        <v>6.2</v>
+        <v>7.6</v>
       </c>
       <c r="BD40" t="n">
-        <v>6.4</v>
+        <v>8</v>
       </c>
       <c r="BE40" t="n">
-        <v>6.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="BF40" t="n">
-        <v>6.4</v>
+        <v>8</v>
       </c>
       <c r="BG40" t="n">
-        <v>5.8</v>
+        <v>7</v>
       </c>
       <c r="BH40" t="inlineStr">
         <is>
-          <t>2026-02-23 17:09:24</t>
+          <t>2026-02-23 19:17:22</t>
         </is>
       </c>
     </row>
@@ -8328,19 +8328,19 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1.04</v>
+        <v>2.56</v>
       </c>
       <c r="G41" t="n">
         <v>990</v>
       </c>
       <c r="H41" t="n">
-        <v>1.04</v>
+        <v>1.92</v>
       </c>
       <c r="I41" t="n">
-        <v>990</v>
+        <v>110</v>
       </c>
       <c r="J41" t="n">
-        <v>1.02</v>
+        <v>2.9</v>
       </c>
       <c r="K41" t="n">
         <v>950</v>
@@ -8376,10 +8376,10 @@
         <v>1.05</v>
       </c>
       <c r="V41" t="n">
-        <v>1.01</v>
+        <v>1.35</v>
       </c>
       <c r="W41" t="n">
-        <v>1.01</v>
+        <v>1.15</v>
       </c>
       <c r="X41" t="n">
         <v>1000</v>
@@ -8491,7 +8491,7 @@
       </c>
       <c r="BH41" t="inlineStr">
         <is>
-          <t>2026-02-23 17:09:24</t>
+          <t>2026-02-23 19:17:22</t>
         </is>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-24.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-24.xlsx
@@ -765,10 +765,10 @@
         <v>4.4</v>
       </c>
       <c r="G2" t="n">
-        <v>5.6</v>
+        <v>5.3</v>
       </c>
       <c r="H2" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="I2" t="n">
         <v>2.18</v>
@@ -780,19 +780,19 @@
         <v>3.5</v>
       </c>
       <c r="L2" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="M2" t="n">
         <v>1.12</v>
       </c>
       <c r="N2" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="O2" t="n">
         <v>1.53</v>
       </c>
       <c r="P2" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="Q2" t="n">
         <v>2.56</v>
@@ -810,46 +810,46 @@
         <v>1.69</v>
       </c>
       <c r="V2" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="W2" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="X2" t="n">
-        <v>10.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Y2" t="n">
-        <v>7.8</v>
+        <v>7</v>
       </c>
       <c r="Z2" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AA2" t="n">
+        <v>80</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE2" t="n">
         <v>32</v>
       </c>
-      <c r="AB2" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>36</v>
-      </c>
       <c r="AF2" t="n">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AH2" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AI2" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AJ2" t="n">
         <v>1000</v>
@@ -867,7 +867,7 @@
         <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AP2" t="n">
         <v>7.4</v>
@@ -879,7 +879,7 @@
         <v>9.4</v>
       </c>
       <c r="AS2" t="n">
-        <v>4.4</v>
+        <v>7.4</v>
       </c>
       <c r="AT2" t="n">
         <v>10</v>
@@ -891,41 +891,41 @@
         <v>9.6</v>
       </c>
       <c r="AW2" t="n">
-        <v>4.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AX2" t="n">
-        <v>4.3</v>
+        <v>7.2</v>
       </c>
       <c r="AY2" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AZ2" t="n">
         <v>21</v>
       </c>
       <c r="BA2" t="n">
-        <v>4.3</v>
+        <v>7.2</v>
       </c>
       <c r="BB2" t="n">
-        <v>4.4</v>
+        <v>7.8</v>
       </c>
       <c r="BC2" t="n">
-        <v>4.4</v>
+        <v>7.6</v>
       </c>
       <c r="BD2" t="n">
-        <v>4.4</v>
+        <v>7.8</v>
       </c>
       <c r="BE2" t="n">
-        <v>4.4</v>
+        <v>8</v>
       </c>
       <c r="BF2" t="n">
-        <v>4.4</v>
+        <v>7.8</v>
       </c>
       <c r="BG2" t="n">
-        <v>4.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="BH2" t="inlineStr">
         <is>
-          <t>2026-02-23 19:17:22</t>
+          <t>2026-02-23 21:25:39</t>
         </is>
       </c>
     </row>
@@ -956,46 +956,46 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="G3" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="H3" t="n">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="I3" t="n">
-        <v>2.48</v>
+        <v>2.44</v>
       </c>
       <c r="J3" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="K3" t="n">
-        <v>6.4</v>
+        <v>5.8</v>
       </c>
       <c r="L3" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="M3" t="n">
         <v>1.07</v>
       </c>
       <c r="N3" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="Q3" t="n">
         <v>2.38</v>
       </c>
-      <c r="O3" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P3" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>2.18</v>
-      </c>
       <c r="R3" t="n">
-        <v>1.15</v>
+        <v>1.2</v>
       </c>
       <c r="S3" t="n">
-        <v>2.96</v>
+        <v>2.68</v>
       </c>
       <c r="T3" t="n">
         <v>1.05</v>
@@ -1004,13 +1004,13 @@
         <v>1.05</v>
       </c>
       <c r="V3" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="W3" t="n">
-        <v>1.2</v>
+        <v>1.23</v>
       </c>
       <c r="X3" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="Y3" t="n">
         <v>1000</v>
@@ -1064,62 +1064,62 @@
         <v>1000</v>
       </c>
       <c r="AP3" t="n">
-        <v>1.01</v>
+        <v>5.8</v>
       </c>
       <c r="AQ3" t="n">
-        <v>1.02</v>
+        <v>1.06</v>
       </c>
       <c r="AR3" t="n">
-        <v>1.02</v>
+        <v>1.06</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.02</v>
+        <v>1.06</v>
       </c>
       <c r="AT3" t="n">
-        <v>1.02</v>
+        <v>1.06</v>
       </c>
       <c r="AU3" t="n">
-        <v>1.02</v>
+        <v>1.06</v>
       </c>
       <c r="AV3" t="n">
-        <v>1.02</v>
+        <v>1.06</v>
       </c>
       <c r="AW3" t="n">
-        <v>1.02</v>
+        <v>1.06</v>
       </c>
       <c r="AX3" t="n">
-        <v>1.02</v>
+        <v>1.06</v>
       </c>
       <c r="AY3" t="n">
-        <v>1.02</v>
+        <v>1.06</v>
       </c>
       <c r="AZ3" t="n">
-        <v>1.02</v>
+        <v>1.06</v>
       </c>
       <c r="BA3" t="n">
-        <v>1.02</v>
+        <v>1.06</v>
       </c>
       <c r="BB3" t="n">
-        <v>1.02</v>
+        <v>1.06</v>
       </c>
       <c r="BC3" t="n">
-        <v>1.02</v>
+        <v>1.06</v>
       </c>
       <c r="BD3" t="n">
-        <v>1.02</v>
+        <v>1.06</v>
       </c>
       <c r="BE3" t="n">
-        <v>1.02</v>
+        <v>1.06</v>
       </c>
       <c r="BF3" t="n">
-        <v>1.02</v>
+        <v>1.55</v>
       </c>
       <c r="BG3" t="n">
-        <v>1.02</v>
+        <v>1.55</v>
       </c>
       <c r="BH3" t="inlineStr">
         <is>
-          <t>2026-02-23 19:17:22</t>
+          <t>2026-02-23 21:25:39</t>
         </is>
       </c>
     </row>
@@ -1162,13 +1162,13 @@
         <v>8.199999999999999</v>
       </c>
       <c r="J4" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="K4" t="n">
         <v>4.7</v>
       </c>
       <c r="L4" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="M4" t="n">
         <v>1.06</v>
@@ -1180,7 +1180,7 @@
         <v>1.29</v>
       </c>
       <c r="P4" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="Q4" t="n">
         <v>1.86</v>
@@ -1195,13 +1195,13 @@
         <v>1.94</v>
       </c>
       <c r="U4" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="V4" t="n">
         <v>1.14</v>
       </c>
       <c r="W4" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="X4" t="n">
         <v>980</v>
@@ -1210,40 +1210,40 @@
         <v>980</v>
       </c>
       <c r="Z4" t="n">
-        <v>75</v>
+        <v>190</v>
       </c>
       <c r="AA4" t="n">
         <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>980</v>
+        <v>20</v>
       </c>
       <c r="AC4" t="n">
-        <v>980</v>
+        <v>19</v>
       </c>
       <c r="AD4" t="n">
         <v>980</v>
       </c>
       <c r="AE4" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AF4" t="n">
-        <v>980</v>
+        <v>65</v>
       </c>
       <c r="AG4" t="n">
-        <v>980</v>
+        <v>12.5</v>
       </c>
       <c r="AH4" t="n">
         <v>980</v>
       </c>
       <c r="AI4" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AJ4" t="n">
         <v>980</v>
       </c>
       <c r="AK4" t="n">
-        <v>980</v>
+        <v>65</v>
       </c>
       <c r="AL4" t="n">
         <v>980</v>
@@ -1252,7 +1252,7 @@
         <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>980</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AO4" t="n">
         <v>1000</v>
@@ -1261,59 +1261,59 @@
         <v>9.6</v>
       </c>
       <c r="AQ4" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="AR4" t="n">
-        <v>4.9</v>
+        <v>4.2</v>
       </c>
       <c r="AS4" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="AT4" t="n">
         <v>4.4</v>
       </c>
       <c r="AU4" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AX4" t="n">
         <v>4.6</v>
       </c>
-      <c r="AV4" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="AX4" t="n">
+      <c r="AY4" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="BE4" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="BF4" t="n">
         <v>4.5</v>
       </c>
-      <c r="AY4" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="AZ4" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="BA4" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="BB4" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="BC4" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="BD4" t="n">
-        <v>7</v>
-      </c>
-      <c r="BE4" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="BF4" t="n">
-        <v>6.8</v>
-      </c>
       <c r="BG4" t="n">
-        <v>2.24</v>
+        <v>4.2</v>
       </c>
       <c r="BH4" t="inlineStr">
         <is>
-          <t>2026-02-23 19:17:22</t>
+          <t>2026-02-23 21:25:39</t>
         </is>
       </c>
     </row>
@@ -1356,10 +1356,10 @@
         <v>7.8</v>
       </c>
       <c r="J5" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="K5" t="n">
         <v>5.9</v>
-      </c>
-      <c r="K5" t="n">
-        <v>6</v>
       </c>
       <c r="L5" t="n">
         <v>1.25</v>
@@ -1371,22 +1371,22 @@
         <v>6.8</v>
       </c>
       <c r="O5" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="P5" t="n">
         <v>3</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="R5" t="n">
         <v>1.79</v>
       </c>
       <c r="S5" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="T5" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="U5" t="n">
         <v>2.34</v>
@@ -1401,7 +1401,7 @@
         <v>34</v>
       </c>
       <c r="Y5" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Z5" t="n">
         <v>75</v>
@@ -1410,7 +1410,7 @@
         <v>220</v>
       </c>
       <c r="AB5" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AC5" t="n">
         <v>13.5</v>
@@ -1419,7 +1419,7 @@
         <v>28</v>
       </c>
       <c r="AE5" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AF5" t="n">
         <v>11</v>
@@ -1443,10 +1443,10 @@
         <v>24</v>
       </c>
       <c r="AM5" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AN5" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="AO5" t="n">
         <v>75</v>
@@ -1455,59 +1455,59 @@
         <v>30</v>
       </c>
       <c r="AQ5" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AR5" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AS5" t="n">
         <v>65</v>
       </c>
       <c r="AT5" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AU5" t="n">
         <v>12</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>12.5</v>
       </c>
       <c r="AV5" t="n">
         <v>26</v>
       </c>
       <c r="AW5" t="n">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="AX5" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AY5" t="n">
         <v>9.6</v>
       </c>
       <c r="AZ5" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BA5" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="BB5" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="BC5" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="BD5" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BE5" t="n">
         <v>65</v>
       </c>
       <c r="BF5" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="BG5" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="BH5" t="inlineStr">
         <is>
-          <t>2026-02-23 19:17:22</t>
+          <t>2026-02-23 21:25:39</t>
         </is>
       </c>
     </row>
@@ -1538,31 +1538,31 @@
         </is>
       </c>
       <c r="F6" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="G6" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="I6" t="n">
         <v>2.94</v>
       </c>
-      <c r="G6" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="H6" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="I6" t="n">
-        <v>2.58</v>
-      </c>
       <c r="J6" t="n">
-        <v>3.4</v>
+        <v>2.92</v>
       </c>
       <c r="K6" t="n">
-        <v>4.1</v>
+        <v>5.8</v>
       </c>
       <c r="L6" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="M6" t="n">
         <v>1.06</v>
       </c>
       <c r="N6" t="n">
-        <v>3.6</v>
+        <v>4.3</v>
       </c>
       <c r="O6" t="n">
         <v>1.27</v>
@@ -1571,46 +1571,46 @@
         <v>2.02</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="R6" t="n">
         <v>1.4</v>
       </c>
       <c r="S6" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="T6" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="U6" t="n">
         <v>2.24</v>
       </c>
       <c r="V6" t="n">
-        <v>1.63</v>
+        <v>1.51</v>
       </c>
       <c r="W6" t="n">
-        <v>1.37</v>
+        <v>1.32</v>
       </c>
       <c r="X6" t="n">
-        <v>90</v>
+        <v>36</v>
       </c>
       <c r="Y6" t="n">
-        <v>13.5</v>
+        <v>24</v>
       </c>
       <c r="Z6" t="n">
         <v>1000</v>
       </c>
       <c r="AA6" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AB6" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AC6" t="n">
-        <v>9.800000000000001</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD6" t="n">
-        <v>13.5</v>
+        <v>24</v>
       </c>
       <c r="AE6" t="n">
         <v>1000</v>
@@ -1619,10 +1619,10 @@
         <v>1000</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AH6" t="n">
-        <v>970</v>
+        <v>34</v>
       </c>
       <c r="AI6" t="n">
         <v>1000</v>
@@ -1643,65 +1643,65 @@
         <v>1000</v>
       </c>
       <c r="AO6" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AP6" t="n">
-        <v>4</v>
+        <v>5.6</v>
       </c>
       <c r="AQ6" t="n">
-        <v>3.65</v>
+        <v>5</v>
       </c>
       <c r="AR6" t="n">
-        <v>4</v>
+        <v>5.6</v>
       </c>
       <c r="AS6" t="n">
-        <v>4.4</v>
+        <v>6.6</v>
       </c>
       <c r="AT6" t="n">
-        <v>3.85</v>
+        <v>5.3</v>
       </c>
       <c r="AU6" t="n">
-        <v>3.35</v>
+        <v>4.2</v>
       </c>
       <c r="AV6" t="n">
-        <v>3.65</v>
+        <v>5</v>
       </c>
       <c r="AW6" t="n">
-        <v>4.3</v>
+        <v>6.2</v>
       </c>
       <c r="AX6" t="n">
-        <v>4.2</v>
+        <v>6.2</v>
       </c>
       <c r="AY6" t="n">
-        <v>3.85</v>
+        <v>5.3</v>
       </c>
       <c r="AZ6" t="n">
-        <v>4</v>
+        <v>5.6</v>
       </c>
       <c r="BA6" t="n">
-        <v>4.5</v>
+        <v>6.8</v>
       </c>
       <c r="BB6" t="n">
-        <v>4.6</v>
+        <v>7.2</v>
       </c>
       <c r="BC6" t="n">
-        <v>4.5</v>
+        <v>6.8</v>
       </c>
       <c r="BD6" t="n">
-        <v>4.6</v>
+        <v>7</v>
       </c>
       <c r="BE6" t="n">
-        <v>4.8</v>
+        <v>7.6</v>
       </c>
       <c r="BF6" t="n">
-        <v>4.4</v>
+        <v>6.6</v>
       </c>
       <c r="BG6" t="n">
-        <v>4</v>
+        <v>5.9</v>
       </c>
       <c r="BH6" t="inlineStr">
         <is>
-          <t>2026-02-23 19:17:22</t>
+          <t>2026-02-23 21:25:39</t>
         </is>
       </c>
     </row>
@@ -1732,7 +1732,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="G7" t="n">
         <v>3.3</v>
@@ -1744,19 +1744,19 @@
         <v>2.62</v>
       </c>
       <c r="J7" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="K7" t="n">
         <v>4.1</v>
       </c>
       <c r="L7" t="n">
-        <v>1.29</v>
+        <v>1.35</v>
       </c>
       <c r="M7" t="n">
         <v>1.05</v>
       </c>
       <c r="N7" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="O7" t="n">
         <v>1.25</v>
@@ -1765,16 +1765,16 @@
         <v>2.08</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="R7" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="S7" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="T7" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="U7" t="n">
         <v>2.28</v>
@@ -1789,49 +1789,49 @@
         <v>22</v>
       </c>
       <c r="Y7" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Z7" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AA7" t="n">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="AB7" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>27</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>44</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH7" t="n">
         <v>17</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>30</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>27</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>19.5</v>
       </c>
       <c r="AI7" t="n">
         <v>42</v>
       </c>
       <c r="AJ7" t="n">
-        <v>60</v>
+        <v>240</v>
       </c>
       <c r="AK7" t="n">
         <v>40</v>
       </c>
       <c r="AL7" t="n">
-        <v>48</v>
+        <v>100</v>
       </c>
       <c r="AM7" t="n">
-        <v>1000</v>
+        <v>390</v>
       </c>
       <c r="AN7" t="n">
         <v>32</v>
@@ -1840,52 +1840,52 @@
         <v>21</v>
       </c>
       <c r="AP7" t="n">
-        <v>12.5</v>
+        <v>15</v>
       </c>
       <c r="AQ7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AR7" t="n">
         <v>12.5</v>
       </c>
       <c r="AS7" t="n">
-        <v>3.85</v>
+        <v>13</v>
       </c>
       <c r="AT7" t="n">
-        <v>10</v>
+        <v>11.5</v>
       </c>
       <c r="AU7" t="n">
         <v>7.4</v>
       </c>
       <c r="AV7" t="n">
-        <v>8.6</v>
+        <v>10</v>
       </c>
       <c r="AW7" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AX7" t="n">
         <v>18.5</v>
       </c>
       <c r="AY7" t="n">
-        <v>10</v>
+        <v>11.5</v>
       </c>
       <c r="AZ7" t="n">
-        <v>11.5</v>
+        <v>13.5</v>
       </c>
       <c r="BA7" t="n">
-        <v>3.85</v>
+        <v>6</v>
       </c>
       <c r="BB7" t="n">
-        <v>3.95</v>
+        <v>6.2</v>
       </c>
       <c r="BC7" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="BD7" t="n">
-        <v>3.9</v>
+        <v>6</v>
       </c>
       <c r="BE7" t="n">
-        <v>4</v>
+        <v>6.6</v>
       </c>
       <c r="BF7" t="n">
         <v>18.5</v>
@@ -1895,7 +1895,7 @@
       </c>
       <c r="BH7" t="inlineStr">
         <is>
-          <t>2026-02-23 19:17:22</t>
+          <t>2026-02-23 21:25:39</t>
         </is>
       </c>
     </row>
@@ -1926,22 +1926,22 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="G8" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="H8" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="I8" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="J8" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="K8" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L8" t="n">
         <v>1.01</v>
@@ -1959,13 +1959,13 @@
         <v>2.06</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="R8" t="n">
         <v>1.41</v>
       </c>
       <c r="S8" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="T8" t="n">
         <v>1.05</v>
@@ -1974,7 +1974,7 @@
         <v>1.05</v>
       </c>
       <c r="V8" t="n">
-        <v>1.05</v>
+        <v>1.09</v>
       </c>
       <c r="W8" t="n">
         <v>2.48</v>
@@ -2016,10 +2016,10 @@
         <v>1000</v>
       </c>
       <c r="AJ8" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AK8" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AL8" t="n">
         <v>1000</v>
@@ -2028,68 +2028,68 @@
         <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AO8" t="n">
         <v>1000</v>
       </c>
       <c r="AP8" t="n">
-        <v>1.01</v>
+        <v>1.52</v>
       </c>
       <c r="AQ8" t="n">
-        <v>1.02</v>
+        <v>1.6</v>
       </c>
       <c r="AR8" t="n">
-        <v>1.02</v>
+        <v>1.6</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.02</v>
+        <v>1.6</v>
       </c>
       <c r="AT8" t="n">
-        <v>1.02</v>
+        <v>5.6</v>
       </c>
       <c r="AU8" t="n">
-        <v>1.02</v>
+        <v>1.6</v>
       </c>
       <c r="AV8" t="n">
-        <v>1.02</v>
+        <v>1.6</v>
       </c>
       <c r="AW8" t="n">
-        <v>1.02</v>
+        <v>1.6</v>
       </c>
       <c r="AX8" t="n">
-        <v>1.02</v>
+        <v>5.1</v>
       </c>
       <c r="AY8" t="n">
-        <v>1.02</v>
+        <v>6.4</v>
       </c>
       <c r="AZ8" t="n">
-        <v>1.02</v>
+        <v>1.6</v>
       </c>
       <c r="BA8" t="n">
-        <v>1.02</v>
+        <v>1.6</v>
       </c>
       <c r="BB8" t="n">
-        <v>1.02</v>
+        <v>1.49</v>
       </c>
       <c r="BC8" t="n">
-        <v>1.02</v>
+        <v>1.53</v>
       </c>
       <c r="BD8" t="n">
-        <v>1.02</v>
+        <v>1.58</v>
       </c>
       <c r="BE8" t="n">
-        <v>1.02</v>
+        <v>1.6</v>
       </c>
       <c r="BF8" t="n">
-        <v>1.02</v>
+        <v>1.93</v>
       </c>
       <c r="BG8" t="n">
-        <v>1.02</v>
+        <v>1.6</v>
       </c>
       <c r="BH8" t="inlineStr">
         <is>
-          <t>2026-02-23 19:17:22</t>
+          <t>2026-02-23 21:25:39</t>
         </is>
       </c>
     </row>
@@ -2123,16 +2123,16 @@
         <v>1.28</v>
       </c>
       <c r="G9" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="H9" t="n">
-        <v>8.800000000000001</v>
+        <v>5.7</v>
       </c>
       <c r="I9" t="n">
         <v>13</v>
       </c>
       <c r="J9" t="n">
-        <v>1.01</v>
+        <v>5.1</v>
       </c>
       <c r="K9" t="n">
         <v>7.2</v>
@@ -2144,7 +2144,7 @@
         <v>1.02</v>
       </c>
       <c r="N9" t="n">
-        <v>1.1</v>
+        <v>2.84</v>
       </c>
       <c r="O9" t="n">
         <v>1.15</v>
@@ -2156,10 +2156,10 @@
         <v>1.45</v>
       </c>
       <c r="R9" t="n">
-        <v>1.74</v>
+        <v>1.6</v>
       </c>
       <c r="S9" t="n">
-        <v>2.12</v>
+        <v>1.92</v>
       </c>
       <c r="T9" t="n">
         <v>1.87</v>
@@ -2168,13 +2168,13 @@
         <v>1.96</v>
       </c>
       <c r="V9" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="W9" t="n">
-        <v>3.4</v>
+        <v>3.85</v>
       </c>
       <c r="X9" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="Y9" t="n">
         <v>55</v>
@@ -2186,10 +2186,10 @@
         <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="AC9" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AD9" t="n">
         <v>50</v>
@@ -2198,92 +2198,92 @@
         <v>1000</v>
       </c>
       <c r="AF9" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG9" t="n">
         <v>12</v>
       </c>
-      <c r="AG9" t="n">
-        <v>14</v>
-      </c>
       <c r="AH9" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="AI9" t="n">
         <v>140</v>
       </c>
       <c r="AJ9" t="n">
-        <v>13.5</v>
+        <v>11.5</v>
       </c>
       <c r="AK9" t="n">
-        <v>16.5</v>
+        <v>14</v>
       </c>
       <c r="AL9" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="AM9" t="n">
         <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>4.6</v>
+        <v>4</v>
       </c>
       <c r="AO9" t="n">
         <v>1000</v>
       </c>
       <c r="AP9" t="n">
-        <v>4</v>
+        <v>7.8</v>
       </c>
       <c r="AQ9" t="n">
-        <v>4.2</v>
+        <v>8.6</v>
       </c>
       <c r="AR9" t="n">
-        <v>4.4</v>
+        <v>9.4</v>
       </c>
       <c r="AS9" t="n">
-        <v>4.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AT9" t="n">
-        <v>3.45</v>
+        <v>6.4</v>
       </c>
       <c r="AU9" t="n">
-        <v>3.65</v>
+        <v>7.6</v>
       </c>
       <c r="AV9" t="n">
-        <v>4.1</v>
+        <v>8.4</v>
       </c>
       <c r="AW9" t="n">
-        <v>4.4</v>
+        <v>9.6</v>
       </c>
       <c r="AX9" t="n">
-        <v>3.3</v>
+        <v>5.1</v>
       </c>
       <c r="AY9" t="n">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="AZ9" t="n">
-        <v>4</v>
+        <v>7.4</v>
       </c>
       <c r="BA9" t="n">
-        <v>4.4</v>
+        <v>9.4</v>
       </c>
       <c r="BB9" t="n">
-        <v>3.4</v>
+        <v>5.6</v>
       </c>
       <c r="BC9" t="n">
-        <v>3.55</v>
+        <v>5.9</v>
       </c>
       <c r="BD9" t="n">
-        <v>4</v>
+        <v>7.8</v>
       </c>
       <c r="BE9" t="n">
-        <v>4.4</v>
+        <v>9.4</v>
       </c>
       <c r="BF9" t="n">
-        <v>2.28</v>
+        <v>2.88</v>
       </c>
       <c r="BG9" t="n">
-        <v>4.4</v>
+        <v>9.6</v>
       </c>
       <c r="BH9" t="inlineStr">
         <is>
-          <t>2026-02-23 19:17:22</t>
+          <t>2026-02-23 21:25:39</t>
         </is>
       </c>
     </row>
@@ -2317,13 +2317,13 @@
         <v>2</v>
       </c>
       <c r="G10" t="n">
-        <v>2.22</v>
+        <v>2.14</v>
       </c>
       <c r="H10" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="I10" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="J10" t="n">
         <v>3.35</v>
@@ -2338,19 +2338,19 @@
         <v>1.08</v>
       </c>
       <c r="N10" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="O10" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="P10" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="R10" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="S10" t="n">
         <v>3.4</v>
@@ -2365,19 +2365,19 @@
         <v>1.28</v>
       </c>
       <c r="W10" t="n">
-        <v>1.82</v>
+        <v>1.87</v>
       </c>
       <c r="X10" t="n">
         <v>15</v>
       </c>
       <c r="Y10" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="Z10" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="AA10" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AB10" t="n">
         <v>10</v>
@@ -2386,98 +2386,98 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AD10" t="n">
-        <v>19.5</v>
+        <v>17</v>
       </c>
       <c r="AE10" t="n">
-        <v>65</v>
+        <v>370</v>
       </c>
       <c r="AF10" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AG10" t="n">
         <v>12.5</v>
       </c>
       <c r="AH10" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AI10" t="n">
-        <v>75</v>
+        <v>160</v>
       </c>
       <c r="AJ10" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AK10" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AL10" t="n">
-        <v>48</v>
+        <v>290</v>
       </c>
       <c r="AM10" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN10" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AO10" t="n">
-        <v>75</v>
+        <v>180</v>
       </c>
       <c r="AP10" t="n">
-        <v>3.15</v>
+        <v>11</v>
       </c>
       <c r="AQ10" t="n">
-        <v>3.95</v>
+        <v>7.6</v>
       </c>
       <c r="AR10" t="n">
-        <v>3.6</v>
+        <v>13</v>
       </c>
       <c r="AS10" t="n">
-        <v>3.85</v>
+        <v>7.4</v>
       </c>
       <c r="AT10" t="n">
-        <v>3.4</v>
+        <v>7.6</v>
       </c>
       <c r="AU10" t="n">
-        <v>3.3</v>
+        <v>7</v>
       </c>
       <c r="AV10" t="n">
-        <v>3.3</v>
+        <v>14.5</v>
       </c>
       <c r="AW10" t="n">
-        <v>3.75</v>
+        <v>7</v>
       </c>
       <c r="AX10" t="n">
-        <v>3.15</v>
+        <v>11</v>
       </c>
       <c r="AY10" t="n">
-        <v>3.7</v>
+        <v>9.4</v>
       </c>
       <c r="AZ10" t="n">
-        <v>3.35</v>
+        <v>16.5</v>
       </c>
       <c r="BA10" t="n">
-        <v>3.8</v>
+        <v>7.2</v>
       </c>
       <c r="BB10" t="n">
-        <v>3.5</v>
+        <v>10.5</v>
       </c>
       <c r="BC10" t="n">
-        <v>3.45</v>
+        <v>20</v>
       </c>
       <c r="BD10" t="n">
-        <v>3.7</v>
+        <v>6.6</v>
       </c>
       <c r="BE10" t="n">
-        <v>3.85</v>
+        <v>7.6</v>
       </c>
       <c r="BF10" t="n">
-        <v>3.35</v>
+        <v>5.6</v>
       </c>
       <c r="BG10" t="n">
-        <v>3.8</v>
+        <v>7.2</v>
       </c>
       <c r="BH10" t="inlineStr">
         <is>
-          <t>2026-02-23 19:17:22</t>
+          <t>2026-02-23 21:25:39</t>
         </is>
       </c>
     </row>
@@ -2511,22 +2511,22 @@
         <v>6.6</v>
       </c>
       <c r="G11" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="H11" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="I11" t="n">
-        <v>1.57</v>
+        <v>1.59</v>
       </c>
       <c r="J11" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="K11" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="L11" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="M11" t="n">
         <v>1.04</v>
@@ -2535,13 +2535,13 @@
         <v>4.8</v>
       </c>
       <c r="O11" t="n">
-        <v>1.19</v>
+        <v>1.21</v>
       </c>
       <c r="P11" t="n">
         <v>2.3</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="R11" t="n">
         <v>1.52</v>
@@ -2556,122 +2556,122 @@
         <v>2.16</v>
       </c>
       <c r="V11" t="n">
-        <v>2.74</v>
+        <v>2.7</v>
       </c>
       <c r="W11" t="n">
         <v>1.14</v>
       </c>
       <c r="X11" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="Y11" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>38</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD11" t="n">
         <v>12.5</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>11</v>
       </c>
       <c r="AE11" t="n">
         <v>18.5</v>
       </c>
       <c r="AF11" t="n">
-        <v>1000</v>
+        <v>420</v>
       </c>
       <c r="AG11" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AH11" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AI11" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="AJ11" t="n">
-        <v>240</v>
+        <v>1000</v>
       </c>
       <c r="AK11" t="n">
-        <v>120</v>
+        <v>510</v>
       </c>
       <c r="AL11" t="n">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="AM11" t="n">
-        <v>130</v>
+        <v>330</v>
       </c>
       <c r="AN11" t="n">
         <v>1000</v>
       </c>
       <c r="AO11" t="n">
-        <v>6.8</v>
+        <v>7.8</v>
       </c>
       <c r="AP11" t="n">
-        <v>19</v>
+        <v>3.4</v>
       </c>
       <c r="AQ11" t="n">
-        <v>8.800000000000001</v>
+        <v>5.8</v>
       </c>
       <c r="AR11" t="n">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AS11" t="n">
-        <v>11.5</v>
+        <v>10</v>
       </c>
       <c r="AT11" t="n">
-        <v>22</v>
+        <v>4.2</v>
       </c>
       <c r="AU11" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AV11" t="n">
-        <v>8.800000000000001</v>
+        <v>5.8</v>
       </c>
       <c r="AW11" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AX11" t="n">
-        <v>5.3</v>
+        <v>23</v>
       </c>
       <c r="AY11" t="n">
         <v>21</v>
       </c>
       <c r="AZ11" t="n">
-        <v>18</v>
+        <v>3.7</v>
       </c>
       <c r="BA11" t="n">
         <v>23</v>
       </c>
       <c r="BB11" t="n">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="BC11" t="n">
-        <v>5.4</v>
+        <v>4.2</v>
       </c>
       <c r="BD11" t="n">
-        <v>5.4</v>
+        <v>4.2</v>
       </c>
       <c r="BE11" t="n">
-        <v>5.5</v>
+        <v>3.95</v>
       </c>
       <c r="BF11" t="n">
-        <v>5.4</v>
+        <v>4.2</v>
       </c>
       <c r="BG11" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="BH11" t="inlineStr">
         <is>
-          <t>2026-02-23 19:17:22</t>
+          <t>2026-02-23 21:25:39</t>
         </is>
       </c>
     </row>
@@ -2702,16 +2702,16 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.97</v>
+        <v>1.94</v>
       </c>
       <c r="G12" t="n">
         <v>2.02</v>
       </c>
       <c r="H12" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="I12" t="n">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="J12" t="n">
         <v>3.85</v>
@@ -2726,49 +2726,49 @@
         <v>1.05</v>
       </c>
       <c r="N12" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="O12" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="P12" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="R12" t="n">
         <v>1.49</v>
       </c>
       <c r="S12" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="T12" t="n">
-        <v>1.66</v>
+        <v>1.7</v>
       </c>
       <c r="U12" t="n">
         <v>2.32</v>
       </c>
       <c r="V12" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="W12" t="n">
         <v>1.98</v>
       </c>
       <c r="X12" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="Y12" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="Z12" t="n">
         <v>34</v>
       </c>
       <c r="AA12" t="n">
-        <v>90</v>
+        <v>900</v>
       </c>
       <c r="AB12" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AC12" t="n">
         <v>9.800000000000001</v>
@@ -2777,7 +2777,7 @@
         <v>17.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="AF12" t="n">
         <v>14.5</v>
@@ -2789,7 +2789,7 @@
         <v>17.5</v>
       </c>
       <c r="AI12" t="n">
-        <v>55</v>
+        <v>120</v>
       </c>
       <c r="AJ12" t="n">
         <v>24</v>
@@ -2801,7 +2801,7 @@
         <v>32</v>
       </c>
       <c r="AM12" t="n">
-        <v>85</v>
+        <v>200</v>
       </c>
       <c r="AN12" t="n">
         <v>11</v>
@@ -2819,7 +2819,7 @@
         <v>25</v>
       </c>
       <c r="AS12" t="n">
-        <v>7.4</v>
+        <v>8.4</v>
       </c>
       <c r="AT12" t="n">
         <v>9.800000000000001</v>
@@ -2831,7 +2831,7 @@
         <v>14</v>
       </c>
       <c r="AW12" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="AX12" t="n">
         <v>11.5</v>
@@ -2843,7 +2843,7 @@
         <v>14</v>
       </c>
       <c r="BA12" t="n">
-        <v>7.2</v>
+        <v>9</v>
       </c>
       <c r="BB12" t="n">
         <v>19</v>
@@ -2855,17 +2855,17 @@
         <v>20</v>
       </c>
       <c r="BE12" t="n">
-        <v>7.4</v>
+        <v>8.4</v>
       </c>
       <c r="BF12" t="n">
         <v>9</v>
       </c>
       <c r="BG12" t="n">
-        <v>6.6</v>
+        <v>7.6</v>
       </c>
       <c r="BH12" t="inlineStr">
         <is>
-          <t>2026-02-23 19:17:22</t>
+          <t>2026-02-23 21:25:39</t>
         </is>
       </c>
     </row>
@@ -2905,7 +2905,7 @@
         <v>1.31</v>
       </c>
       <c r="I13" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="J13" t="n">
         <v>5.7</v>
@@ -2920,146 +2920,146 @@
         <v>1.03</v>
       </c>
       <c r="N13" t="n">
-        <v>5.7</v>
+        <v>6</v>
       </c>
       <c r="O13" t="n">
         <v>1.17</v>
       </c>
       <c r="P13" t="n">
-        <v>2.68</v>
+        <v>2.78</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.51</v>
+        <v>1.47</v>
       </c>
       <c r="R13" t="n">
-        <v>1.68</v>
+        <v>1.77</v>
       </c>
       <c r="S13" t="n">
-        <v>2.26</v>
+        <v>2.16</v>
       </c>
       <c r="T13" t="n">
-        <v>1.86</v>
+        <v>1.81</v>
       </c>
       <c r="U13" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="V13" t="n">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="W13" t="n">
         <v>1.08</v>
       </c>
       <c r="X13" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="Y13" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AA13" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AB13" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AC13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE13" t="n">
         <v>14</v>
       </c>
-      <c r="AD13" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>14.5</v>
-      </c>
       <c r="AF13" t="n">
         <v>1000</v>
       </c>
       <c r="AG13" t="n">
-        <v>44</v>
+        <v>120</v>
       </c>
       <c r="AH13" t="n">
         <v>25</v>
       </c>
       <c r="AI13" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AJ13" t="n">
-        <v>360</v>
+        <v>420</v>
       </c>
       <c r="AK13" t="n">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="AL13" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AM13" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AN13" t="n">
         <v>1000</v>
       </c>
       <c r="AO13" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="AP13" t="n">
-        <v>22</v>
+        <v>9.6</v>
       </c>
       <c r="AQ13" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AR13" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AS13" t="n">
         <v>10</v>
       </c>
       <c r="AT13" t="n">
-        <v>8.4</v>
+        <v>7.4</v>
       </c>
       <c r="AU13" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AV13" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="AW13" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AX13" t="n">
-        <v>9.4</v>
+        <v>8</v>
       </c>
       <c r="AY13" t="n">
-        <v>8.4</v>
+        <v>7.4</v>
       </c>
       <c r="AZ13" t="n">
         <v>20</v>
       </c>
       <c r="BA13" t="n">
-        <v>26</v>
+        <v>8.4</v>
       </c>
       <c r="BB13" t="n">
-        <v>10</v>
+        <v>8.4</v>
       </c>
       <c r="BC13" t="n">
-        <v>9.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="BD13" t="n">
-        <v>9.4</v>
+        <v>8</v>
       </c>
       <c r="BE13" t="n">
-        <v>9.4</v>
+        <v>8</v>
       </c>
       <c r="BF13" t="n">
-        <v>9.6</v>
+        <v>8.6</v>
       </c>
       <c r="BG13" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="BH13" t="inlineStr">
         <is>
-          <t>2026-02-23 19:17:22</t>
+          <t>2026-02-23 21:25:39</t>
         </is>
       </c>
     </row>
@@ -3090,22 +3090,22 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>3.05</v>
+        <v>3.5</v>
       </c>
       <c r="G14" t="n">
-        <v>4.4</v>
+        <v>3.9</v>
       </c>
       <c r="H14" t="n">
-        <v>1.79</v>
+        <v>1.96</v>
       </c>
       <c r="I14" t="n">
         <v>2.14</v>
       </c>
       <c r="J14" t="n">
-        <v>3.3</v>
+        <v>3.9</v>
       </c>
       <c r="K14" t="n">
-        <v>950</v>
+        <v>4.5</v>
       </c>
       <c r="L14" t="n">
         <v>1.01</v>
@@ -3114,16 +3114,16 @@
         <v>1.04</v>
       </c>
       <c r="N14" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="O14" t="n">
         <v>1.18</v>
       </c>
       <c r="P14" t="n">
-        <v>2.2</v>
+        <v>2.52</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.5</v>
+        <v>1.18</v>
       </c>
       <c r="R14" t="n">
         <v>1.57</v>
@@ -3138,122 +3138,122 @@
         <v>1.05</v>
       </c>
       <c r="V14" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="W14" t="n">
-        <v>1.29</v>
+        <v>1.34</v>
       </c>
       <c r="X14" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="Y14" t="n">
-        <v>16.5</v>
+        <v>970</v>
       </c>
       <c r="Z14" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AA14" t="n">
-        <v>30</v>
+        <v>110</v>
       </c>
       <c r="AB14" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AC14" t="n">
-        <v>12</v>
+        <v>970</v>
       </c>
       <c r="AD14" t="n">
-        <v>13.5</v>
+        <v>970</v>
       </c>
       <c r="AE14" t="n">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="AF14" t="n">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="AG14" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AH14" t="n">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="AI14" t="n">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="AJ14" t="n">
-        <v>80</v>
+        <v>190</v>
       </c>
       <c r="AK14" t="n">
-        <v>46</v>
+        <v>120</v>
       </c>
       <c r="AL14" t="n">
-        <v>48</v>
+        <v>130</v>
       </c>
       <c r="AM14" t="n">
-        <v>75</v>
+        <v>580</v>
       </c>
       <c r="AN14" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AO14" t="n">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="AP14" t="n">
-        <v>19.5</v>
+        <v>9.6</v>
       </c>
       <c r="AQ14" t="n">
-        <v>11.5</v>
+        <v>7</v>
       </c>
       <c r="AR14" t="n">
-        <v>13</v>
+        <v>8.4</v>
       </c>
       <c r="AS14" t="n">
-        <v>21</v>
+        <v>3.5</v>
       </c>
       <c r="AT14" t="n">
-        <v>16.5</v>
+        <v>3.4</v>
       </c>
       <c r="AU14" t="n">
-        <v>8.6</v>
+        <v>5.1</v>
       </c>
       <c r="AV14" t="n">
-        <v>9.6</v>
+        <v>6.2</v>
       </c>
       <c r="AW14" t="n">
-        <v>16.5</v>
+        <v>3.4</v>
       </c>
       <c r="AX14" t="n">
-        <v>4.1</v>
+        <v>2.44</v>
       </c>
       <c r="AY14" t="n">
-        <v>13.5</v>
+        <v>8.4</v>
       </c>
       <c r="AZ14" t="n">
-        <v>13.5</v>
+        <v>8.4</v>
       </c>
       <c r="BA14" t="n">
-        <v>20</v>
+        <v>2.34</v>
       </c>
       <c r="BB14" t="n">
-        <v>4.2</v>
+        <v>2.1</v>
       </c>
       <c r="BC14" t="n">
-        <v>4.1</v>
+        <v>2.4</v>
       </c>
       <c r="BD14" t="n">
-        <v>4.3</v>
+        <v>2.32</v>
       </c>
       <c r="BE14" t="n">
-        <v>4.2</v>
+        <v>3.95</v>
       </c>
       <c r="BF14" t="n">
-        <v>19.5</v>
+        <v>4.7</v>
       </c>
       <c r="BG14" t="n">
-        <v>7.4</v>
+        <v>2.5</v>
       </c>
       <c r="BH14" t="inlineStr">
         <is>
-          <t>2026-02-23 19:17:22</t>
+          <t>2026-02-23 21:25:39</t>
         </is>
       </c>
     </row>
@@ -3293,7 +3293,7 @@
         <v>7</v>
       </c>
       <c r="I15" t="n">
-        <v>8.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J15" t="n">
         <v>5.4</v>
@@ -3314,10 +3314,10 @@
         <v>1.15</v>
       </c>
       <c r="P15" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="R15" t="n">
         <v>1.79</v>
@@ -3332,16 +3332,16 @@
         <v>2.24</v>
       </c>
       <c r="V15" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="W15" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="X15" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Y15" t="n">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="Z15" t="n">
         <v>75</v>
@@ -3353,7 +3353,7 @@
         <v>15.5</v>
       </c>
       <c r="AC15" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AD15" t="n">
         <v>32</v>
@@ -3383,25 +3383,25 @@
         <v>32</v>
       </c>
       <c r="AM15" t="n">
-        <v>90</v>
+        <v>330</v>
       </c>
       <c r="AN15" t="n">
-        <v>5</v>
+        <v>4.6</v>
       </c>
       <c r="AO15" t="n">
         <v>75</v>
       </c>
       <c r="AP15" t="n">
-        <v>9.6</v>
+        <v>17.5</v>
       </c>
       <c r="AQ15" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="AR15" t="n">
-        <v>5.9</v>
+        <v>7.8</v>
       </c>
       <c r="AS15" t="n">
-        <v>6</v>
+        <v>7.2</v>
       </c>
       <c r="AT15" t="n">
         <v>11.5</v>
@@ -3410,10 +3410,10 @@
         <v>11</v>
       </c>
       <c r="AV15" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AW15" t="n">
-        <v>5.9</v>
+        <v>7.4</v>
       </c>
       <c r="AX15" t="n">
         <v>10</v>
@@ -3425,7 +3425,7 @@
         <v>17</v>
       </c>
       <c r="BA15" t="n">
-        <v>5.9</v>
+        <v>7.8</v>
       </c>
       <c r="BB15" t="n">
         <v>12</v>
@@ -3437,17 +3437,17 @@
         <v>19.5</v>
       </c>
       <c r="BE15" t="n">
-        <v>5.9</v>
+        <v>21</v>
       </c>
       <c r="BF15" t="n">
         <v>4.1</v>
       </c>
       <c r="BG15" t="n">
-        <v>5.7</v>
+        <v>15</v>
       </c>
       <c r="BH15" t="inlineStr">
         <is>
-          <t>2026-02-23 19:17:22</t>
+          <t>2026-02-23 21:25:39</t>
         </is>
       </c>
     </row>
@@ -3478,43 +3478,43 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="G16" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H16" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="J16" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K16" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="L16" t="n">
         <v>1.48</v>
-      </c>
-      <c r="I16" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="J16" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="K16" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="L16" t="n">
-        <v>1.41</v>
       </c>
       <c r="M16" t="n">
         <v>1.1</v>
       </c>
       <c r="N16" t="n">
-        <v>3</v>
+        <v>2.66</v>
       </c>
       <c r="O16" t="n">
         <v>1.43</v>
       </c>
       <c r="P16" t="n">
-        <v>1.67</v>
+        <v>1.59</v>
       </c>
       <c r="Q16" t="n">
         <v>2.28</v>
       </c>
       <c r="R16" t="n">
-        <v>1.25</v>
+        <v>1.21</v>
       </c>
       <c r="S16" t="n">
         <v>4.4</v>
@@ -3526,55 +3526,55 @@
         <v>1.05</v>
       </c>
       <c r="V16" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="W16" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="X16" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Y16" t="n">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="Z16" t="n">
-        <v>8.4</v>
+        <v>7.6</v>
       </c>
       <c r="AA16" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="AB16" t="n">
-        <v>970</v>
+        <v>44</v>
       </c>
       <c r="AC16" t="n">
-        <v>11</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD16" t="n">
         <v>11</v>
       </c>
       <c r="AE16" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF16" t="n">
-        <v>100</v>
+        <v>510</v>
       </c>
       <c r="AG16" t="n">
-        <v>970</v>
+        <v>50</v>
       </c>
       <c r="AH16" t="n">
-        <v>970</v>
+        <v>44</v>
       </c>
       <c r="AI16" t="n">
-        <v>70</v>
+        <v>140</v>
       </c>
       <c r="AJ16" t="n">
-        <v>540</v>
+        <v>1000</v>
       </c>
       <c r="AK16" t="n">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="AL16" t="n">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="AM16" t="n">
         <v>320</v>
@@ -3583,13 +3583,13 @@
         <v>1000</v>
       </c>
       <c r="AO16" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP16" t="n">
-        <v>9.800000000000001</v>
+        <v>5.1</v>
       </c>
       <c r="AQ16" t="n">
-        <v>5.4</v>
+        <v>3.5</v>
       </c>
       <c r="AR16" t="n">
         <v>6.6</v>
@@ -3598,50 +3598,50 @@
         <v>11.5</v>
       </c>
       <c r="AT16" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AU16" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AV16" t="n">
         <v>9.4</v>
       </c>
       <c r="AW16" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AX16" t="n">
-        <v>6.4</v>
+        <v>7.8</v>
       </c>
       <c r="AY16" t="n">
-        <v>5.9</v>
+        <v>16</v>
       </c>
       <c r="AZ16" t="n">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="BA16" t="n">
-        <v>6.2</v>
+        <v>7</v>
       </c>
       <c r="BB16" t="n">
-        <v>6.8</v>
+        <v>7.8</v>
       </c>
       <c r="BC16" t="n">
-        <v>6.6</v>
+        <v>7.6</v>
       </c>
       <c r="BD16" t="n">
-        <v>6.6</v>
+        <v>7.6</v>
       </c>
       <c r="BE16" t="n">
-        <v>6.6</v>
+        <v>7.6</v>
       </c>
       <c r="BF16" t="n">
-        <v>6.8</v>
+        <v>7.6</v>
       </c>
       <c r="BG16" t="n">
         <v>10</v>
       </c>
       <c r="BH16" t="inlineStr">
         <is>
-          <t>2026-02-23 19:17:22</t>
+          <t>2026-02-23 21:25:39</t>
         </is>
       </c>
     </row>
@@ -3672,16 +3672,16 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="G17" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="H17" t="n">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="I17" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="J17" t="n">
         <v>3.85</v>
@@ -3693,13 +3693,13 @@
         <v>1.01</v>
       </c>
       <c r="M17" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N17" t="n">
         <v>2.88</v>
       </c>
       <c r="O17" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="P17" t="n">
         <v>1.62</v>
@@ -3717,25 +3717,25 @@
         <v>2.48</v>
       </c>
       <c r="U17" t="n">
-        <v>1.58</v>
+        <v>1.61</v>
       </c>
       <c r="V17" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="W17" t="n">
-        <v>2.78</v>
+        <v>2.74</v>
       </c>
       <c r="X17" t="n">
         <v>10.5</v>
       </c>
       <c r="Y17" t="n">
-        <v>970</v>
+        <v>46</v>
       </c>
       <c r="Z17" t="n">
-        <v>110</v>
+        <v>510</v>
       </c>
       <c r="AA17" t="n">
-        <v>560</v>
+        <v>540</v>
       </c>
       <c r="AB17" t="n">
         <v>5.8</v>
@@ -3744,10 +3744,10 @@
         <v>9.4</v>
       </c>
       <c r="AD17" t="n">
-        <v>970</v>
+        <v>110</v>
       </c>
       <c r="AE17" t="n">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="AF17" t="n">
         <v>7.4</v>
@@ -3756,40 +3756,40 @@
         <v>11</v>
       </c>
       <c r="AH17" t="n">
-        <v>970</v>
+        <v>180</v>
       </c>
       <c r="AI17" t="n">
         <v>250</v>
       </c>
       <c r="AJ17" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AK17" t="n">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="AL17" t="n">
-        <v>65</v>
+        <v>380</v>
       </c>
       <c r="AM17" t="n">
         <v>370</v>
       </c>
       <c r="AN17" t="n">
-        <v>13.5</v>
+        <v>29</v>
       </c>
       <c r="AO17" t="n">
         <v>1000</v>
       </c>
       <c r="AP17" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AQ17" t="n">
-        <v>8.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AR17" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="AS17" t="n">
-        <v>12</v>
+        <v>14.5</v>
       </c>
       <c r="AT17" t="n">
         <v>5.2</v>
@@ -3798,44 +3798,44 @@
         <v>8.4</v>
       </c>
       <c r="AV17" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="AW17" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AX17" t="n">
         <v>6.6</v>
       </c>
       <c r="AY17" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AZ17" t="n">
-        <v>9.6</v>
+        <v>18</v>
       </c>
       <c r="BA17" t="n">
+        <v>14</v>
+      </c>
+      <c r="BB17" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="BC17" t="n">
+        <v>18</v>
+      </c>
+      <c r="BD17" t="n">
         <v>12</v>
       </c>
-      <c r="BB17" t="n">
-        <v>12</v>
-      </c>
-      <c r="BC17" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="BD17" t="n">
-        <v>10.5</v>
-      </c>
       <c r="BE17" t="n">
-        <v>12</v>
+        <v>14.5</v>
       </c>
       <c r="BF17" t="n">
         <v>11.5</v>
       </c>
       <c r="BG17" t="n">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="BH17" t="inlineStr">
         <is>
-          <t>2026-02-23 19:17:22</t>
+          <t>2026-02-23 21:25:39</t>
         </is>
       </c>
     </row>
@@ -3866,22 +3866,22 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="G18" t="n">
-        <v>4.8</v>
+        <v>4.4</v>
       </c>
       <c r="H18" t="n">
-        <v>2.1</v>
+        <v>2.28</v>
       </c>
       <c r="I18" t="n">
-        <v>2.74</v>
+        <v>2.5</v>
       </c>
       <c r="J18" t="n">
-        <v>2.68</v>
+        <v>2.8</v>
       </c>
       <c r="K18" t="n">
-        <v>3.35</v>
+        <v>3.1</v>
       </c>
       <c r="L18" t="n">
         <v>1.01</v>
@@ -3890,146 +3890,146 @@
         <v>1.13</v>
       </c>
       <c r="N18" t="n">
-        <v>2.04</v>
+        <v>2.34</v>
       </c>
       <c r="O18" t="n">
         <v>1.62</v>
       </c>
       <c r="P18" t="n">
-        <v>1.34</v>
+        <v>1.42</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.74</v>
+        <v>2.94</v>
       </c>
       <c r="R18" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="S18" t="n">
-        <v>5.3</v>
+        <v>6</v>
       </c>
       <c r="T18" t="n">
-        <v>1.06</v>
+        <v>2.28</v>
       </c>
       <c r="U18" t="n">
-        <v>1.6</v>
+        <v>1.68</v>
       </c>
       <c r="V18" t="n">
-        <v>1.57</v>
+        <v>1.66</v>
       </c>
       <c r="W18" t="n">
-        <v>1.26</v>
+        <v>1.3</v>
       </c>
       <c r="X18" t="n">
-        <v>8.4</v>
+        <v>7.4</v>
       </c>
       <c r="Y18" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>180</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>180</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>140</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>34</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>95</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>230</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>900</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>310</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>430</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>290</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>55</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>6</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>11</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX18" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AY18" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ18" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BA18" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="BB18" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="BC18" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD18" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="BE18" t="n">
+        <v>11</v>
+      </c>
+      <c r="BF18" t="n">
+        <v>11</v>
+      </c>
+      <c r="BG18" t="n">
         <v>9.6</v>
       </c>
-      <c r="Z18" t="n">
-        <v>19</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>50</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>55</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>36</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>970</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>38</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>100</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>100</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AP18" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AQ18" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="AR18" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AS18" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AT18" t="n">
-        <v>8</v>
-      </c>
-      <c r="AU18" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AV18" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AW18" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AX18" t="n">
-        <v>18</v>
-      </c>
-      <c r="AY18" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="AZ18" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="BA18" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="BB18" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="BC18" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="BD18" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="BE18" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="BF18" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="BG18" t="n">
-        <v>3.1</v>
-      </c>
       <c r="BH18" t="inlineStr">
         <is>
-          <t>2026-02-23 19:17:22</t>
+          <t>2026-02-23 21:25:39</t>
         </is>
       </c>
     </row>
@@ -4060,16 +4060,16 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="G19" t="n">
-        <v>2.32</v>
+        <v>2.26</v>
       </c>
       <c r="H19" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="I19" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="J19" t="n">
         <v>3.5</v>
@@ -4090,10 +4090,10 @@
         <v>1.3</v>
       </c>
       <c r="P19" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="R19" t="n">
         <v>1.38</v>
@@ -4108,76 +4108,76 @@
         <v>2.2</v>
       </c>
       <c r="V19" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="W19" t="n">
-        <v>1.75</v>
+        <v>1.79</v>
       </c>
       <c r="X19" t="n">
-        <v>970</v>
+        <v>17.5</v>
       </c>
       <c r="Y19" t="n">
-        <v>16.5</v>
+        <v>25</v>
       </c>
       <c r="Z19" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AA19" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AB19" t="n">
         <v>11</v>
       </c>
       <c r="AC19" t="n">
-        <v>9.6</v>
+        <v>8.4</v>
       </c>
       <c r="AD19" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="AE19" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AF19" t="n">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="AG19" t="n">
         <v>11.5</v>
       </c>
       <c r="AH19" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AI19" t="n">
-        <v>48</v>
+        <v>250</v>
       </c>
       <c r="AJ19" t="n">
-        <v>36</v>
+        <v>120</v>
       </c>
       <c r="AK19" t="n">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="AL19" t="n">
-        <v>46</v>
+        <v>130</v>
       </c>
       <c r="AM19" t="n">
-        <v>110</v>
+        <v>580</v>
       </c>
       <c r="AN19" t="n">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="AO19" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AP19" t="n">
-        <v>9.6</v>
+        <v>12.5</v>
       </c>
       <c r="AQ19" t="n">
         <v>12</v>
       </c>
       <c r="AR19" t="n">
-        <v>5.6</v>
+        <v>11.5</v>
       </c>
       <c r="AS19" t="n">
-        <v>5.8</v>
+        <v>11.5</v>
       </c>
       <c r="AT19" t="n">
         <v>9.4</v>
@@ -4189,41 +4189,41 @@
         <v>12.5</v>
       </c>
       <c r="AW19" t="n">
-        <v>5.5</v>
+        <v>18</v>
       </c>
       <c r="AX19" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AY19" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AZ19" t="n">
-        <v>5.1</v>
+        <v>11.5</v>
       </c>
       <c r="BA19" t="n">
-        <v>5.6</v>
+        <v>10.5</v>
       </c>
       <c r="BB19" t="n">
-        <v>5.2</v>
+        <v>14.5</v>
       </c>
       <c r="BC19" t="n">
-        <v>5.4</v>
+        <v>11.5</v>
       </c>
       <c r="BD19" t="n">
-        <v>5.4</v>
+        <v>10.5</v>
       </c>
       <c r="BE19" t="n">
-        <v>5.8</v>
+        <v>26</v>
       </c>
       <c r="BF19" t="n">
-        <v>12.5</v>
+        <v>7.8</v>
       </c>
       <c r="BG19" t="n">
-        <v>5.8</v>
+        <v>10</v>
       </c>
       <c r="BH19" t="inlineStr">
         <is>
-          <t>2026-02-23 19:17:22</t>
+          <t>2026-02-23 21:25:39</t>
         </is>
       </c>
     </row>
@@ -4257,16 +4257,16 @@
         <v>3.2</v>
       </c>
       <c r="G20" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="H20" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="I20" t="n">
         <v>2.32</v>
       </c>
       <c r="J20" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K20" t="n">
         <v>4.2</v>
@@ -4287,13 +4287,13 @@
         <v>2.2</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="R20" t="n">
         <v>1.48</v>
       </c>
       <c r="S20" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="T20" t="n">
         <v>1.62</v>
@@ -4305,58 +4305,58 @@
         <v>1.75</v>
       </c>
       <c r="W20" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="X20" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE20" t="n">
         <v>23</v>
       </c>
-      <c r="Y20" t="n">
-        <v>14</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>18</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>32</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>19</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>25</v>
-      </c>
       <c r="AF20" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AG20" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AH20" t="n">
         <v>17</v>
       </c>
-      <c r="AH20" t="n">
-        <v>18.5</v>
-      </c>
       <c r="AI20" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AJ20" t="n">
-        <v>65</v>
+        <v>160</v>
       </c>
       <c r="AK20" t="n">
         <v>38</v>
       </c>
       <c r="AL20" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AM20" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AN20" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AO20" t="n">
         <v>14</v>
@@ -4365,13 +4365,13 @@
         <v>16.5</v>
       </c>
       <c r="AQ20" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AR20" t="n">
-        <v>4.3</v>
+        <v>13</v>
       </c>
       <c r="AS20" t="n">
-        <v>5.4</v>
+        <v>7</v>
       </c>
       <c r="AT20" t="n">
         <v>13.5</v>
@@ -4380,13 +4380,13 @@
         <v>7.6</v>
       </c>
       <c r="AV20" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AW20" t="n">
         <v>18</v>
       </c>
       <c r="AX20" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AY20" t="n">
         <v>12.5</v>
@@ -4395,29 +4395,29 @@
         <v>13.5</v>
       </c>
       <c r="BA20" t="n">
-        <v>5.3</v>
+        <v>7.2</v>
       </c>
       <c r="BB20" t="n">
-        <v>5.2</v>
+        <v>7.6</v>
       </c>
       <c r="BC20" t="n">
-        <v>25</v>
+        <v>7.2</v>
       </c>
       <c r="BD20" t="n">
-        <v>5.3</v>
+        <v>7.4</v>
       </c>
       <c r="BE20" t="n">
-        <v>5.2</v>
+        <v>8</v>
       </c>
       <c r="BF20" t="n">
-        <v>5.3</v>
+        <v>7</v>
       </c>
       <c r="BG20" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="BH20" t="inlineStr">
         <is>
-          <t>2026-02-23 19:17:22</t>
+          <t>2026-02-23 21:25:39</t>
         </is>
       </c>
     </row>
@@ -4448,16 +4448,16 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="G21" t="n">
-        <v>1.94</v>
+        <v>1.9</v>
       </c>
       <c r="H21" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I21" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="J21" t="n">
         <v>3.95</v>
@@ -4466,28 +4466,28 @@
         <v>4.7</v>
       </c>
       <c r="L21" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="M21" t="n">
         <v>1.03</v>
       </c>
       <c r="N21" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="O21" t="n">
         <v>1.2</v>
       </c>
       <c r="P21" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="R21" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="S21" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="T21" t="n">
         <v>1.65</v>
@@ -4499,119 +4499,119 @@
         <v>1.25</v>
       </c>
       <c r="W21" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="X21" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="Y21" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="Z21" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AA21" t="n">
         <v>1000</v>
       </c>
       <c r="AB21" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AC21" t="n">
-        <v>11.5</v>
+        <v>42</v>
       </c>
       <c r="AD21" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AE21" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AF21" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AG21" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AH21" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AI21" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AJ21" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AK21" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AL21" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AM21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN21" t="n">
         <v>85</v>
       </c>
-      <c r="AN21" t="n">
-        <v>9.6</v>
-      </c>
       <c r="AO21" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AP21" t="n">
-        <v>18.5</v>
+        <v>4.3</v>
       </c>
       <c r="AQ21" t="n">
-        <v>17.5</v>
+        <v>4.6</v>
       </c>
       <c r="AR21" t="n">
-        <v>5.3</v>
+        <v>2.32</v>
       </c>
       <c r="AS21" t="n">
-        <v>5.2</v>
+        <v>2</v>
       </c>
       <c r="AT21" t="n">
-        <v>3.9</v>
+        <v>6.4</v>
       </c>
       <c r="AU21" t="n">
-        <v>8.4</v>
+        <v>5.6</v>
       </c>
       <c r="AV21" t="n">
-        <v>15.5</v>
+        <v>2.9</v>
       </c>
       <c r="AW21" t="n">
-        <v>5</v>
+        <v>2.36</v>
       </c>
       <c r="AX21" t="n">
-        <v>4</v>
+        <v>6.4</v>
       </c>
       <c r="AY21" t="n">
-        <v>8.800000000000001</v>
+        <v>5.8</v>
       </c>
       <c r="AZ21" t="n">
-        <v>4.3</v>
+        <v>9</v>
       </c>
       <c r="BA21" t="n">
-        <v>5</v>
+        <v>2.42</v>
       </c>
       <c r="BB21" t="n">
-        <v>16.5</v>
+        <v>5.1</v>
       </c>
       <c r="BC21" t="n">
-        <v>4.3</v>
+        <v>9</v>
       </c>
       <c r="BD21" t="n">
-        <v>5.2</v>
+        <v>2.48</v>
       </c>
       <c r="BE21" t="n">
-        <v>5.1</v>
+        <v>5.7</v>
       </c>
       <c r="BF21" t="n">
-        <v>3.5</v>
+        <v>2.26</v>
       </c>
       <c r="BG21" t="n">
-        <v>5.2</v>
+        <v>6.6</v>
       </c>
       <c r="BH21" t="inlineStr">
         <is>
-          <t>2026-02-23 19:17:22</t>
+          <t>2026-02-23 21:25:39</t>
         </is>
       </c>
     </row>
@@ -4645,7 +4645,7 @@
         <v>3.25</v>
       </c>
       <c r="G22" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="H22" t="n">
         <v>2.06</v>
@@ -4654,7 +4654,7 @@
         <v>2.16</v>
       </c>
       <c r="J22" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K22" t="n">
         <v>4.3</v>
@@ -4675,25 +4675,25 @@
         <v>2.14</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.7</v>
+        <v>1.78</v>
       </c>
       <c r="R22" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="S22" t="n">
-        <v>2.54</v>
+        <v>2.64</v>
       </c>
       <c r="T22" t="n">
         <v>1.63</v>
       </c>
       <c r="U22" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="V22" t="n">
         <v>1.86</v>
       </c>
       <c r="W22" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="X22" t="n">
         <v>20</v>
@@ -4708,13 +4708,13 @@
         <v>29</v>
       </c>
       <c r="AB22" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC22" t="n">
         <v>9.6</v>
       </c>
       <c r="AD22" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AE22" t="n">
         <v>23</v>
@@ -4723,7 +4723,7 @@
         <v>28</v>
       </c>
       <c r="AG22" t="n">
-        <v>18</v>
+        <v>15.5</v>
       </c>
       <c r="AH22" t="n">
         <v>17.5</v>
@@ -4732,25 +4732,25 @@
         <v>34</v>
       </c>
       <c r="AJ22" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AK22" t="n">
         <v>40</v>
       </c>
       <c r="AL22" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AM22" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AN22" t="n">
         <v>34</v>
       </c>
       <c r="AO22" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AP22" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AQ22" t="n">
         <v>9.800000000000001</v>
@@ -4759,7 +4759,7 @@
         <v>12.5</v>
       </c>
       <c r="AS22" t="n">
-        <v>5.9</v>
+        <v>13</v>
       </c>
       <c r="AT22" t="n">
         <v>13</v>
@@ -4774,38 +4774,38 @@
         <v>18</v>
       </c>
       <c r="AX22" t="n">
-        <v>5.9</v>
+        <v>11.5</v>
       </c>
       <c r="AY22" t="n">
-        <v>5.1</v>
+        <v>12</v>
       </c>
       <c r="AZ22" t="n">
         <v>13.5</v>
       </c>
       <c r="BA22" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="BB22" t="n">
-        <v>6.4</v>
+        <v>7.8</v>
       </c>
       <c r="BC22" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="BD22" t="n">
-        <v>6.2</v>
+        <v>8.6</v>
       </c>
       <c r="BE22" t="n">
-        <v>6.6</v>
+        <v>8.6</v>
       </c>
       <c r="BF22" t="n">
-        <v>19</v>
+        <v>7.2</v>
       </c>
       <c r="BG22" t="n">
-        <v>4.8</v>
+        <v>11</v>
       </c>
       <c r="BH22" t="inlineStr">
         <is>
-          <t>2026-02-23 19:17:22</t>
+          <t>2026-02-23 21:25:39</t>
         </is>
       </c>
     </row>
@@ -4839,13 +4839,13 @@
         <v>3.15</v>
       </c>
       <c r="G23" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="H23" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="I23" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="J23" t="n">
         <v>3.1</v>
@@ -4866,10 +4866,10 @@
         <v>1.4</v>
       </c>
       <c r="P23" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="R23" t="n">
         <v>1.26</v>
@@ -4887,119 +4887,119 @@
         <v>1.59</v>
       </c>
       <c r="W23" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="X23" t="n">
         <v>13</v>
       </c>
       <c r="Y23" t="n">
-        <v>11</v>
+        <v>9.6</v>
       </c>
       <c r="Z23" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="AA23" t="n">
-        <v>38</v>
+        <v>130</v>
       </c>
       <c r="AB23" t="n">
-        <v>970</v>
+        <v>11.5</v>
       </c>
       <c r="AC23" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>90</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>70</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>34</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>290</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>500</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>240</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>380</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>580</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>110</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>60</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AQ23" t="n">
         <v>8</v>
       </c>
-      <c r="AD23" t="n">
-        <v>970</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>32</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>23</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>970</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>60</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>75</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>55</v>
-      </c>
-      <c r="AL23" t="n">
-        <v>75</v>
-      </c>
-      <c r="AM23" t="n">
-        <v>140</v>
-      </c>
-      <c r="AN23" t="n">
-        <v>60</v>
-      </c>
-      <c r="AO23" t="n">
-        <v>36</v>
-      </c>
-      <c r="AP23" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AQ23" t="n">
-        <v>7.8</v>
-      </c>
       <c r="AR23" t="n">
-        <v>13</v>
+        <v>6.6</v>
       </c>
       <c r="AS23" t="n">
-        <v>6.8</v>
+        <v>8.4</v>
       </c>
       <c r="AT23" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AU23" t="n">
-        <v>4.2</v>
+        <v>6.4</v>
       </c>
       <c r="AV23" t="n">
         <v>10</v>
       </c>
       <c r="AW23" t="n">
-        <v>6.6</v>
+        <v>8</v>
       </c>
       <c r="AX23" t="n">
-        <v>6.4</v>
+        <v>10.5</v>
       </c>
       <c r="AY23" t="n">
-        <v>5.5</v>
+        <v>9</v>
       </c>
       <c r="AZ23" t="n">
-        <v>5.8</v>
+        <v>13</v>
       </c>
       <c r="BA23" t="n">
-        <v>7.2</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="BB23" t="n">
-        <v>7.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="BC23" t="n">
-        <v>7.2</v>
+        <v>9</v>
       </c>
       <c r="BD23" t="n">
-        <v>6.8</v>
+        <v>9</v>
       </c>
       <c r="BE23" t="n">
-        <v>7.2</v>
+        <v>28</v>
       </c>
       <c r="BF23" t="n">
-        <v>6.8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="BG23" t="n">
-        <v>20</v>
+        <v>7.8</v>
       </c>
       <c r="BH23" t="inlineStr">
         <is>
-          <t>2026-02-23 19:17:22</t>
+          <t>2026-02-23 21:25:39</t>
         </is>
       </c>
     </row>
@@ -5045,7 +5045,7 @@
         <v>4.8</v>
       </c>
       <c r="K24" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="L24" t="n">
         <v>1.01</v>
@@ -5063,7 +5063,7 @@
         <v>2.2</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="R24" t="n">
         <v>1.47</v>
@@ -5138,22 +5138,22 @@
         <v>8.6</v>
       </c>
       <c r="AP24" t="n">
-        <v>2.7</v>
+        <v>9</v>
       </c>
       <c r="AQ24" t="n">
-        <v>2.28</v>
+        <v>5.6</v>
       </c>
       <c r="AR24" t="n">
-        <v>2.28</v>
+        <v>2.42</v>
       </c>
       <c r="AS24" t="n">
         <v>9.6</v>
       </c>
       <c r="AT24" t="n">
-        <v>2.58</v>
+        <v>4.2</v>
       </c>
       <c r="AU24" t="n">
-        <v>2.38</v>
+        <v>5.8</v>
       </c>
       <c r="AV24" t="n">
         <v>6.6</v>
@@ -5162,38 +5162,38 @@
         <v>12</v>
       </c>
       <c r="AX24" t="n">
-        <v>2.72</v>
+        <v>4.2</v>
       </c>
       <c r="AY24" t="n">
         <v>20</v>
       </c>
       <c r="AZ24" t="n">
-        <v>2.58</v>
+        <v>2.84</v>
       </c>
       <c r="BA24" t="n">
-        <v>2.62</v>
+        <v>2.9</v>
       </c>
       <c r="BB24" t="n">
-        <v>2.78</v>
+        <v>4.2</v>
       </c>
       <c r="BC24" t="n">
-        <v>2.78</v>
+        <v>4.2</v>
       </c>
       <c r="BD24" t="n">
-        <v>2.78</v>
+        <v>4.2</v>
       </c>
       <c r="BE24" t="n">
-        <v>2.78</v>
+        <v>17.5</v>
       </c>
       <c r="BF24" t="n">
-        <v>2.78</v>
+        <v>4.2</v>
       </c>
       <c r="BG24" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="BH24" t="inlineStr">
         <is>
-          <t>2026-02-23 19:17:22</t>
+          <t>2026-02-23 21:25:39</t>
         </is>
       </c>
     </row>
@@ -5242,22 +5242,22 @@
         <v>4.1</v>
       </c>
       <c r="L25" t="n">
-        <v>1.01</v>
+        <v>1.28</v>
       </c>
       <c r="M25" t="n">
         <v>1.05</v>
       </c>
       <c r="N25" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="O25" t="n">
         <v>1.22</v>
       </c>
       <c r="P25" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="R25" t="n">
         <v>1.55</v>
@@ -5266,7 +5266,7 @@
         <v>2.52</v>
       </c>
       <c r="T25" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="U25" t="n">
         <v>2.44</v>
@@ -5278,116 +5278,116 @@
         <v>1.79</v>
       </c>
       <c r="X25" t="n">
-        <v>23</v>
+        <v>110</v>
       </c>
       <c r="Y25" t="n">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="Z25" t="n">
+        <v>85</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>900</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>28</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>90</v>
+      </c>
+      <c r="AF25" t="n">
         <v>32</v>
       </c>
-      <c r="AA25" t="n">
-        <v>60</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>14</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>34</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>18</v>
-      </c>
       <c r="AG25" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>27</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>160</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>900</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>65</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>65</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>580</v>
+      </c>
+      <c r="AN25" t="n">
         <v>12.5</v>
       </c>
-      <c r="AH25" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>44</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>32</v>
-      </c>
-      <c r="AK25" t="n">
-        <v>22</v>
-      </c>
-      <c r="AL25" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM25" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN25" t="n">
-        <v>13.5</v>
-      </c>
       <c r="AO25" t="n">
         <v>1000</v>
       </c>
       <c r="AP25" t="n">
-        <v>5.4</v>
+        <v>8</v>
       </c>
       <c r="AQ25" t="n">
-        <v>14.5</v>
+        <v>9</v>
       </c>
       <c r="AR25" t="n">
-        <v>23</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AS25" t="n">
-        <v>6.2</v>
+        <v>9.6</v>
       </c>
       <c r="AT25" t="n">
-        <v>4.8</v>
+        <v>6.6</v>
       </c>
       <c r="AU25" t="n">
-        <v>4.5</v>
+        <v>5.6</v>
       </c>
       <c r="AV25" t="n">
-        <v>5</v>
+        <v>8.4</v>
       </c>
       <c r="AW25" t="n">
-        <v>5.8</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AX25" t="n">
-        <v>5</v>
+        <v>7.6</v>
       </c>
       <c r="AY25" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AZ25" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BA25" t="n">
-        <v>6</v>
+        <v>9.6</v>
       </c>
       <c r="BB25" t="n">
-        <v>5.7</v>
+        <v>8.6</v>
       </c>
       <c r="BC25" t="n">
-        <v>5.3</v>
+        <v>7.8</v>
       </c>
       <c r="BD25" t="n">
-        <v>6.2</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="BE25" t="n">
-        <v>6.4</v>
+        <v>8.4</v>
       </c>
       <c r="BF25" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="BG25" t="n">
-        <v>5.7</v>
+        <v>8.6</v>
       </c>
       <c r="BH25" t="inlineStr">
         <is>
-          <t>2026-02-23 19:17:22</t>
+          <t>2026-02-23 21:25:39</t>
         </is>
       </c>
     </row>
@@ -5418,22 +5418,22 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>5.1</v>
+        <v>5.5</v>
       </c>
       <c r="G26" t="n">
         <v>6</v>
       </c>
       <c r="H26" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="I26" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="J26" t="n">
         <v>3.75</v>
       </c>
       <c r="K26" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L26" t="n">
         <v>1.36</v>
@@ -5451,7 +5451,7 @@
         <v>1.91</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="R26" t="n">
         <v>1.35</v>
@@ -5466,122 +5466,122 @@
         <v>1.94</v>
       </c>
       <c r="V26" t="n">
-        <v>2.22</v>
+        <v>2.28</v>
       </c>
       <c r="W26" t="n">
         <v>1.2</v>
       </c>
       <c r="X26" t="n">
+        <v>90</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>18</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>40</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>900</v>
+      </c>
+      <c r="AB26" t="n">
         <v>970</v>
       </c>
-      <c r="Y26" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>970</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>23</v>
-      </c>
-      <c r="AB26" t="n">
+      <c r="AC26" t="n">
+        <v>14</v>
+      </c>
+      <c r="AD26" t="n">
         <v>19</v>
       </c>
-      <c r="AC26" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>11</v>
-      </c>
       <c r="AE26" t="n">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="AF26" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="AG26" t="n">
-        <v>970</v>
+        <v>42</v>
       </c>
       <c r="AH26" t="n">
-        <v>970</v>
+        <v>60</v>
       </c>
       <c r="AI26" t="n">
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="AJ26" t="n">
         <v>170</v>
       </c>
       <c r="AK26" t="n">
-        <v>80</v>
+        <v>420</v>
       </c>
       <c r="AL26" t="n">
-        <v>85</v>
+        <v>330</v>
       </c>
       <c r="AM26" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="AN26" t="n">
-        <v>120</v>
+        <v>220</v>
       </c>
       <c r="AO26" t="n">
-        <v>970</v>
+        <v>29</v>
       </c>
       <c r="AP26" t="n">
-        <v>10.5</v>
+        <v>6.4</v>
       </c>
       <c r="AQ26" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="AR26" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AS26" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AT26" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AU26" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV26" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AW26" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AX26" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AY26" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AZ26" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BA26" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BB26" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BC26" t="n">
+        <v>28</v>
+      </c>
+      <c r="BD26" t="n">
         <v>4.4</v>
       </c>
-      <c r="AS26" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="AT26" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="AU26" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="AV26" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AW26" t="n">
-        <v>15</v>
-      </c>
-      <c r="AX26" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="AY26" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="AZ26" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="BA26" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="BB26" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="BC26" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="BD26" t="n">
-        <v>4.8</v>
-      </c>
       <c r="BE26" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="BF26" t="n">
-        <v>4.7</v>
+        <v>10</v>
       </c>
       <c r="BG26" t="n">
-        <v>4.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="BH26" t="inlineStr">
         <is>
-          <t>2026-02-23 19:17:22</t>
+          <t>2026-02-23 21:25:39</t>
         </is>
       </c>
     </row>
@@ -5612,13 +5612,13 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="G27" t="n">
         <v>2.54</v>
       </c>
       <c r="H27" t="n">
-        <v>2.94</v>
+        <v>2.98</v>
       </c>
       <c r="I27" t="n">
         <v>3.3</v>
@@ -5627,10 +5627,10 @@
         <v>3.55</v>
       </c>
       <c r="K27" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="L27" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="M27" t="n">
         <v>1.05</v>
@@ -5648,134 +5648,134 @@
         <v>1.74</v>
       </c>
       <c r="R27" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="S27" t="n">
         <v>2.82</v>
       </c>
       <c r="T27" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="U27" t="n">
         <v>2.32</v>
       </c>
       <c r="V27" t="n">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="W27" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="X27" t="n">
-        <v>21</v>
+        <v>970</v>
       </c>
       <c r="Y27" t="n">
-        <v>17.5</v>
+        <v>970</v>
       </c>
       <c r="Z27" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AA27" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="AB27" t="n">
         <v>15</v>
       </c>
       <c r="AC27" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AD27" t="n">
-        <v>14.5</v>
+        <v>17</v>
       </c>
       <c r="AE27" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="AF27" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AG27" t="n">
-        <v>12.5</v>
+        <v>970</v>
       </c>
       <c r="AH27" t="n">
-        <v>16.5</v>
+        <v>19</v>
       </c>
       <c r="AI27" t="n">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="AJ27" t="n">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="AK27" t="n">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="AL27" t="n">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="AM27" t="n">
-        <v>70</v>
+        <v>330</v>
       </c>
       <c r="AN27" t="n">
         <v>19.5</v>
       </c>
       <c r="AO27" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AP27" t="n">
-        <v>16</v>
+        <v>4.1</v>
       </c>
       <c r="AQ27" t="n">
-        <v>12.5</v>
+        <v>4.2</v>
       </c>
       <c r="AR27" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AS27" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="AT27" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AU27" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV27" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AW27" t="n">
         <v>19</v>
       </c>
-      <c r="AS27" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="AT27" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AU27" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AV27" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AW27" t="n">
-        <v>6</v>
-      </c>
       <c r="AX27" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="AY27" t="n">
-        <v>10</v>
+        <v>6.4</v>
       </c>
       <c r="AZ27" t="n">
-        <v>13</v>
+        <v>4.3</v>
       </c>
       <c r="BA27" t="n">
-        <v>6.2</v>
+        <v>2.78</v>
       </c>
       <c r="BB27" t="n">
-        <v>6</v>
+        <v>2.86</v>
       </c>
       <c r="BC27" t="n">
-        <v>20</v>
+        <v>17.5</v>
       </c>
       <c r="BD27" t="n">
-        <v>27</v>
+        <v>2.94</v>
       </c>
       <c r="BE27" t="n">
-        <v>6.4</v>
+        <v>5.3</v>
       </c>
       <c r="BF27" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="BG27" t="n">
-        <v>19.5</v>
+        <v>2.6</v>
       </c>
       <c r="BH27" t="inlineStr">
         <is>
-          <t>2026-02-23 19:17:22</t>
+          <t>2026-02-23 21:25:39</t>
         </is>
       </c>
     </row>
@@ -5806,25 +5806,25 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>3.4</v>
+        <v>3.85</v>
       </c>
       <c r="G28" t="n">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="H28" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="I28" t="n">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="J28" t="n">
         <v>4.3</v>
       </c>
       <c r="K28" t="n">
-        <v>5.1</v>
+        <v>4.8</v>
       </c>
       <c r="L28" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="M28" t="n">
         <v>1.03</v>
@@ -5836,7 +5836,7 @@
         <v>1.16</v>
       </c>
       <c r="P28" t="n">
-        <v>2.62</v>
+        <v>2.72</v>
       </c>
       <c r="Q28" t="n">
         <v>1.48</v>
@@ -5845,131 +5845,131 @@
         <v>1.7</v>
       </c>
       <c r="S28" t="n">
-        <v>2.22</v>
+        <v>2.16</v>
       </c>
       <c r="T28" t="n">
         <v>1.53</v>
       </c>
       <c r="U28" t="n">
-        <v>2.6</v>
+        <v>2.52</v>
       </c>
       <c r="V28" t="n">
-        <v>1.94</v>
+        <v>2.06</v>
       </c>
       <c r="W28" t="n">
-        <v>1.36</v>
+        <v>1.32</v>
       </c>
       <c r="X28" t="n">
-        <v>970</v>
+        <v>90</v>
       </c>
       <c r="Y28" t="n">
-        <v>970</v>
+        <v>32</v>
       </c>
       <c r="Z28" t="n">
         <v>970</v>
       </c>
       <c r="AA28" t="n">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="AB28" t="n">
-        <v>970</v>
+        <v>46</v>
       </c>
       <c r="AC28" t="n">
-        <v>970</v>
+        <v>22</v>
       </c>
       <c r="AD28" t="n">
-        <v>970</v>
+        <v>21</v>
       </c>
       <c r="AE28" t="n">
         <v>970</v>
       </c>
       <c r="AF28" t="n">
-        <v>34</v>
+        <v>100</v>
       </c>
       <c r="AG28" t="n">
-        <v>970</v>
+        <v>27</v>
       </c>
       <c r="AH28" t="n">
-        <v>970</v>
+        <v>38</v>
       </c>
       <c r="AI28" t="n">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="AJ28" t="n">
-        <v>75</v>
+        <v>190</v>
       </c>
       <c r="AK28" t="n">
-        <v>36</v>
+        <v>170</v>
       </c>
       <c r="AL28" t="n">
-        <v>38</v>
+        <v>130</v>
       </c>
       <c r="AM28" t="n">
-        <v>70</v>
+        <v>580</v>
       </c>
       <c r="AN28" t="n">
-        <v>23</v>
+        <v>230</v>
       </c>
       <c r="AO28" t="n">
-        <v>970</v>
+        <v>25</v>
       </c>
       <c r="AP28" t="n">
-        <v>22</v>
+        <v>7.4</v>
       </c>
       <c r="AQ28" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AR28" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AS28" t="n">
+        <v>7</v>
+      </c>
+      <c r="AT28" t="n">
         <v>11.5</v>
       </c>
-      <c r="AR28" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AS28" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="AT28" t="n">
-        <v>5.6</v>
-      </c>
       <c r="AU28" t="n">
-        <v>4.7</v>
+        <v>5.7</v>
       </c>
       <c r="AV28" t="n">
-        <v>4.7</v>
+        <v>6.2</v>
       </c>
       <c r="AW28" t="n">
-        <v>5.4</v>
+        <v>7</v>
       </c>
       <c r="AX28" t="n">
-        <v>4.6</v>
+        <v>7.6</v>
       </c>
       <c r="AY28" t="n">
-        <v>5.2</v>
+        <v>9</v>
       </c>
       <c r="AZ28" t="n">
-        <v>5.9</v>
+        <v>8.4</v>
       </c>
       <c r="BA28" t="n">
-        <v>20</v>
+        <v>7.4</v>
       </c>
       <c r="BB28" t="n">
-        <v>3.55</v>
+        <v>6.2</v>
       </c>
       <c r="BC28" t="n">
-        <v>6.2</v>
+        <v>7.8</v>
       </c>
       <c r="BD28" t="n">
-        <v>4.7</v>
+        <v>7.8</v>
       </c>
       <c r="BE28" t="n">
-        <v>5</v>
+        <v>8.4</v>
       </c>
       <c r="BF28" t="n">
-        <v>5.6</v>
+        <v>7.8</v>
       </c>
       <c r="BG28" t="n">
-        <v>4</v>
+        <v>6.4</v>
       </c>
       <c r="BH28" t="inlineStr">
         <is>
-          <t>2026-02-23 19:17:22</t>
+          <t>2026-02-23 21:25:39</t>
         </is>
       </c>
     </row>
@@ -6000,34 +6000,34 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.14</v>
+        <v>1.95</v>
       </c>
       <c r="G29" t="n">
-        <v>2.4</v>
+        <v>2.64</v>
       </c>
       <c r="H29" t="n">
-        <v>3.35</v>
+        <v>3</v>
       </c>
       <c r="I29" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="J29" t="n">
-        <v>3.3</v>
+        <v>2.84</v>
       </c>
       <c r="K29" t="n">
-        <v>3.9</v>
+        <v>4.3</v>
       </c>
       <c r="L29" t="n">
-        <v>1.42</v>
+        <v>1.36</v>
       </c>
       <c r="M29" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N29" t="n">
-        <v>3.55</v>
+        <v>2.78</v>
       </c>
       <c r="O29" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="P29" t="n">
         <v>1.87</v>
@@ -6042,34 +6042,34 @@
         <v>3.4</v>
       </c>
       <c r="T29" t="n">
-        <v>1.78</v>
+        <v>1.83</v>
       </c>
       <c r="U29" t="n">
         <v>2.06</v>
       </c>
       <c r="V29" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="W29" t="n">
-        <v>1.72</v>
+        <v>1.66</v>
       </c>
       <c r="X29" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Y29" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="Z29" t="n">
         <v>1000</v>
       </c>
       <c r="AA29" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AB29" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AC29" t="n">
-        <v>9.199999999999999</v>
+        <v>42</v>
       </c>
       <c r="AD29" t="n">
         <v>1000</v>
@@ -6078,13 +6078,13 @@
         <v>1000</v>
       </c>
       <c r="AF29" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AG29" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AH29" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AI29" t="n">
         <v>1000</v>
@@ -6102,7 +6102,7 @@
         <v>1000</v>
       </c>
       <c r="AN29" t="n">
-        <v>22</v>
+        <v>85</v>
       </c>
       <c r="AO29" t="n">
         <v>1000</v>
@@ -6114,56 +6114,56 @@
         <v>10.5</v>
       </c>
       <c r="AR29" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AS29" t="n">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="AT29" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AU29" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AV29" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AW29" t="n">
-        <v>5.2</v>
+        <v>18</v>
       </c>
       <c r="AX29" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AY29" t="n">
-        <v>8.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AZ29" t="n">
         <v>4.6</v>
       </c>
       <c r="BA29" t="n">
-        <v>5.3</v>
+        <v>3.75</v>
       </c>
       <c r="BB29" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="BC29" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="BD29" t="n">
-        <v>5.1</v>
+        <v>2.66</v>
       </c>
       <c r="BE29" t="n">
-        <v>5.5</v>
+        <v>3.55</v>
       </c>
       <c r="BF29" t="n">
-        <v>14.5</v>
+        <v>4.4</v>
       </c>
       <c r="BG29" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="BH29" t="inlineStr">
         <is>
-          <t>2026-02-23 19:17:22</t>
+          <t>2026-02-23 21:25:39</t>
         </is>
       </c>
     </row>
@@ -6197,10 +6197,10 @@
         <v>1.59</v>
       </c>
       <c r="G30" t="n">
-        <v>1.67</v>
+        <v>1.64</v>
       </c>
       <c r="H30" t="n">
-        <v>5.3</v>
+        <v>5.7</v>
       </c>
       <c r="I30" t="n">
         <v>6.4</v>
@@ -6209,7 +6209,7 @@
         <v>4.3</v>
       </c>
       <c r="K30" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="L30" t="n">
         <v>1.28</v>
@@ -6218,7 +6218,7 @@
         <v>1.04</v>
       </c>
       <c r="N30" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="O30" t="n">
         <v>1.22</v>
@@ -6227,7 +6227,7 @@
         <v>2.32</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="R30" t="n">
         <v>1.52</v>
@@ -6239,125 +6239,125 @@
         <v>1.74</v>
       </c>
       <c r="U30" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="V30" t="n">
         <v>1.19</v>
       </c>
       <c r="W30" t="n">
-        <v>2.48</v>
+        <v>2.56</v>
       </c>
       <c r="X30" t="n">
-        <v>970</v>
+        <v>90</v>
       </c>
       <c r="Y30" t="n">
         <v>970</v>
       </c>
       <c r="Z30" t="n">
-        <v>55</v>
+        <v>230</v>
       </c>
       <c r="AA30" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AB30" t="n">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="AC30" t="n">
-        <v>970</v>
+        <v>14</v>
       </c>
       <c r="AD30" t="n">
         <v>970</v>
       </c>
       <c r="AE30" t="n">
-        <v>85</v>
+        <v>420</v>
       </c>
       <c r="AF30" t="n">
         <v>970</v>
       </c>
       <c r="AG30" t="n">
-        <v>970</v>
+        <v>18</v>
       </c>
       <c r="AH30" t="n">
         <v>970</v>
       </c>
       <c r="AI30" t="n">
-        <v>80</v>
+        <v>330</v>
       </c>
       <c r="AJ30" t="n">
-        <v>18</v>
+        <v>180</v>
       </c>
       <c r="AK30" t="n">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="AL30" t="n">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="AM30" t="n">
-        <v>110</v>
+        <v>580</v>
       </c>
       <c r="AN30" t="n">
+        <v>15</v>
+      </c>
+      <c r="AO30" t="n">
+        <v>220</v>
+      </c>
+      <c r="AP30" t="n">
+        <v>8</v>
+      </c>
+      <c r="AQ30" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="AO30" t="n">
-        <v>85</v>
-      </c>
-      <c r="AP30" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="AQ30" t="n">
-        <v>3.8</v>
-      </c>
       <c r="AR30" t="n">
-        <v>4.1</v>
+        <v>5.3</v>
       </c>
       <c r="AS30" t="n">
-        <v>3.7</v>
+        <v>4.2</v>
       </c>
       <c r="AT30" t="n">
-        <v>9</v>
+        <v>5.8</v>
       </c>
       <c r="AU30" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AV30" t="n">
+        <v>8</v>
+      </c>
+      <c r="AW30" t="n">
         <v>4.5</v>
       </c>
-      <c r="AV30" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="AW30" t="n">
-        <v>7</v>
-      </c>
       <c r="AX30" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AY30" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AZ30" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="BA30" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BB30" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="BC30" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="BD30" t="n">
+        <v>5</v>
+      </c>
+      <c r="BE30" t="n">
+        <v>11</v>
+      </c>
+      <c r="BF30" t="n">
         <v>4.6</v>
       </c>
-      <c r="AY30" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AZ30" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="BA30" t="n">
-        <v>7</v>
-      </c>
-      <c r="BB30" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="BC30" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="BD30" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="BE30" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="BF30" t="n">
-        <v>5.9</v>
-      </c>
       <c r="BG30" t="n">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="BH30" t="inlineStr">
         <is>
-          <t>2026-02-23 19:17:22</t>
+          <t>2026-02-23 21:25:39</t>
         </is>
       </c>
     </row>
@@ -6388,16 +6388,16 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2.1</v>
+        <v>2.16</v>
       </c>
       <c r="G31" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="H31" t="n">
         <v>4.3</v>
       </c>
       <c r="I31" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="J31" t="n">
         <v>3</v>
@@ -6415,143 +6415,143 @@
         <v>2.42</v>
       </c>
       <c r="O31" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="P31" t="n">
         <v>1.47</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="R31" t="n">
         <v>1.15</v>
       </c>
       <c r="S31" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="T31" t="n">
-        <v>2.28</v>
+        <v>2.38</v>
       </c>
       <c r="U31" t="n">
         <v>1.66</v>
       </c>
       <c r="V31" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="W31" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="X31" t="n">
         <v>7.8</v>
       </c>
       <c r="Y31" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Z31" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="AA31" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AB31" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="AC31" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AD31" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AE31" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AF31" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AG31" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AH31" t="n">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="AI31" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AJ31" t="n">
         <v>32</v>
       </c>
       <c r="AK31" t="n">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="AL31" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AM31" t="n">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="AN31" t="n">
+        <v>60</v>
+      </c>
+      <c r="AO31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AP31" t="n">
+        <v>7</v>
+      </c>
+      <c r="AQ31" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AR31" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AS31" t="n">
+        <v>40</v>
+      </c>
+      <c r="AT31" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AU31" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AV31" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AW31" t="n">
+        <v>55</v>
+      </c>
+      <c r="AX31" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AY31" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AZ31" t="n">
+        <v>25</v>
+      </c>
+      <c r="BA31" t="n">
         <v>42</v>
       </c>
-      <c r="AO31" t="n">
-        <v>170</v>
-      </c>
-      <c r="AP31" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AQ31" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AR31" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AS31" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AT31" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="AU31" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AV31" t="n">
-        <v>16</v>
-      </c>
-      <c r="AW31" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AX31" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AY31" t="n">
-        <v>10</v>
-      </c>
-      <c r="AZ31" t="n">
-        <v>24</v>
-      </c>
-      <c r="BA31" t="n">
-        <v>7.4</v>
-      </c>
       <c r="BB31" t="n">
-        <v>6.4</v>
+        <v>19</v>
       </c>
       <c r="BC31" t="n">
-        <v>6.4</v>
+        <v>27</v>
       </c>
       <c r="BD31" t="n">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="BE31" t="n">
-        <v>7.6</v>
+        <v>65</v>
       </c>
       <c r="BF31" t="n">
-        <v>6.6</v>
+        <v>21</v>
       </c>
       <c r="BG31" t="n">
-        <v>7.4</v>
+        <v>44</v>
       </c>
       <c r="BH31" t="inlineStr">
         <is>
-          <t>2026-02-23 19:17:22</t>
+          <t>2026-02-23 21:25:39</t>
         </is>
       </c>
     </row>
@@ -6588,10 +6588,10 @@
         <v>1.17</v>
       </c>
       <c r="H32" t="n">
+        <v>19</v>
+      </c>
+      <c r="I32" t="n">
         <v>20</v>
-      </c>
-      <c r="I32" t="n">
-        <v>22</v>
       </c>
       <c r="J32" t="n">
         <v>10.5</v>
@@ -6612,82 +6612,82 @@
         <v>1.09</v>
       </c>
       <c r="P32" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="Q32" t="n">
         <v>1.3</v>
       </c>
       <c r="R32" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="S32" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="T32" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="U32" t="n">
         <v>1.94</v>
       </c>
       <c r="V32" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="W32" t="n">
         <v>6.8</v>
       </c>
       <c r="X32" t="n">
+        <v>60</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>85</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>210</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>27</v>
+      </c>
+      <c r="AD32" t="n">
         <v>65</v>
       </c>
-      <c r="Y32" t="n">
-        <v>90</v>
-      </c>
-      <c r="Z32" t="n">
-        <v>220</v>
-      </c>
-      <c r="AA32" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB32" t="n">
-        <v>17</v>
-      </c>
-      <c r="AC32" t="n">
-        <v>26</v>
-      </c>
-      <c r="AD32" t="n">
-        <v>70</v>
-      </c>
       <c r="AE32" t="n">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="AF32" t="n">
         <v>11</v>
       </c>
       <c r="AG32" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AH32" t="n">
         <v>40</v>
       </c>
       <c r="AI32" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AJ32" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AK32" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AL32" t="n">
         <v>36</v>
       </c>
       <c r="AM32" t="n">
-        <v>150</v>
+        <v>390</v>
       </c>
       <c r="AN32" t="n">
-        <v>2.5</v>
+        <v>2.46</v>
       </c>
       <c r="AO32" t="n">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="AP32" t="n">
         <v>50</v>
@@ -6696,10 +6696,10 @@
         <v>34</v>
       </c>
       <c r="AR32" t="n">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="AS32" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AT32" t="n">
         <v>15</v>
@@ -6708,13 +6708,13 @@
         <v>23</v>
       </c>
       <c r="AV32" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AW32" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="AX32" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AY32" t="n">
         <v>13</v>
@@ -6723,7 +6723,7 @@
         <v>34</v>
       </c>
       <c r="BA32" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="BB32" t="n">
         <v>9</v>
@@ -6732,20 +6732,20 @@
         <v>12</v>
       </c>
       <c r="BD32" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="BE32" t="n">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="BF32" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="BG32" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="BH32" t="inlineStr">
         <is>
-          <t>2026-02-23 19:17:22</t>
+          <t>2026-02-23 21:25:39</t>
         </is>
       </c>
     </row>
@@ -6776,22 +6776,22 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="G33" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="H33" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="I33" t="n">
         <v>4.5</v>
       </c>
       <c r="J33" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="K33" t="n">
         <v>4.2</v>
-      </c>
-      <c r="K33" t="n">
-        <v>4.3</v>
       </c>
       <c r="L33" t="n">
         <v>1.35</v>
@@ -6806,40 +6806,40 @@
         <v>1.23</v>
       </c>
       <c r="P33" t="n">
-        <v>2.38</v>
+        <v>2.34</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="R33" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="S33" t="n">
-        <v>2.76</v>
+        <v>2.8</v>
       </c>
       <c r="T33" t="n">
-        <v>1.71</v>
+        <v>1.69</v>
       </c>
       <c r="U33" t="n">
-        <v>2.34</v>
+        <v>2.4</v>
       </c>
       <c r="V33" t="n">
         <v>1.28</v>
       </c>
       <c r="W33" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="X33" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Y33" t="n">
         <v>19.5</v>
       </c>
       <c r="Z33" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AA33" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AB33" t="n">
         <v>11.5</v>
@@ -6878,7 +6878,7 @@
         <v>75</v>
       </c>
       <c r="AN33" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AO33" t="n">
         <v>40</v>
@@ -6893,13 +6893,13 @@
         <v>30</v>
       </c>
       <c r="AS33" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AT33" t="n">
         <v>10.5</v>
       </c>
       <c r="AU33" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AV33" t="n">
         <v>16.5</v>
@@ -6908,7 +6908,7 @@
         <v>42</v>
       </c>
       <c r="AX33" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AY33" t="n">
         <v>9.800000000000001</v>
@@ -6920,7 +6920,7 @@
         <v>44</v>
       </c>
       <c r="BB33" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="BC33" t="n">
         <v>16</v>
@@ -6932,14 +6932,14 @@
         <v>65</v>
       </c>
       <c r="BF33" t="n">
-        <v>8.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="BG33" t="n">
         <v>36</v>
       </c>
       <c r="BH33" t="inlineStr">
         <is>
-          <t>2026-02-23 19:17:22</t>
+          <t>2026-02-23 21:25:39</t>
         </is>
       </c>
     </row>
@@ -6976,10 +6976,10 @@
         <v>1.28</v>
       </c>
       <c r="H34" t="n">
+        <v>11</v>
+      </c>
+      <c r="I34" t="n">
         <v>11.5</v>
-      </c>
-      <c r="I34" t="n">
-        <v>12</v>
       </c>
       <c r="J34" t="n">
         <v>7.6</v>
@@ -6994,28 +6994,28 @@
         <v>1.02</v>
       </c>
       <c r="N34" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="O34" t="n">
         <v>1.1</v>
       </c>
       <c r="P34" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="Q34" t="n">
         <v>1.34</v>
       </c>
       <c r="R34" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="S34" t="n">
-        <v>1.87</v>
+        <v>1.84</v>
       </c>
       <c r="T34" t="n">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="U34" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="V34" t="n">
         <v>1.09</v>
@@ -7024,7 +7024,7 @@
         <v>4.5</v>
       </c>
       <c r="X34" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="Y34" t="n">
         <v>60</v>
@@ -7033,10 +7033,10 @@
         <v>120</v>
       </c>
       <c r="AA34" t="n">
-        <v>370</v>
+        <v>340</v>
       </c>
       <c r="AB34" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AC34" t="n">
         <v>18.5</v>
@@ -7045,7 +7045,7 @@
         <v>42</v>
       </c>
       <c r="AE34" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="AF34" t="n">
         <v>11</v>
@@ -7054,7 +7054,7 @@
         <v>12</v>
       </c>
       <c r="AH34" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI34" t="n">
         <v>95</v>
@@ -7066,31 +7066,31 @@
         <v>12</v>
       </c>
       <c r="AL34" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AM34" t="n">
         <v>95</v>
       </c>
       <c r="AN34" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="AO34" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AP34" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AQ34" t="n">
         <v>48</v>
       </c>
       <c r="AR34" t="n">
-        <v>42</v>
+        <v>95</v>
       </c>
       <c r="AS34" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AT34" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AU34" t="n">
         <v>17</v>
@@ -7099,19 +7099,19 @@
         <v>38</v>
       </c>
       <c r="AW34" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="AX34" t="n">
         <v>10.5</v>
       </c>
       <c r="AY34" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AZ34" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="BA34" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="BB34" t="n">
         <v>10.5</v>
@@ -7123,7 +7123,7 @@
         <v>23</v>
       </c>
       <c r="BE34" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="BF34" t="n">
         <v>3.05</v>
@@ -7133,7 +7133,7 @@
       </c>
       <c r="BH34" t="inlineStr">
         <is>
-          <t>2026-02-23 19:17:22</t>
+          <t>2026-02-23 21:25:39</t>
         </is>
       </c>
     </row>
@@ -7164,22 +7164,22 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="G35" t="n">
-        <v>2.14</v>
+        <v>2.02</v>
       </c>
       <c r="H35" t="n">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="I35" t="n">
-        <v>6.2</v>
+        <v>5.7</v>
       </c>
       <c r="J35" t="n">
-        <v>3.05</v>
+        <v>3.25</v>
       </c>
       <c r="K35" t="n">
-        <v>4.1</v>
+        <v>3.7</v>
       </c>
       <c r="L35" t="n">
         <v>1.46</v>
@@ -7203,28 +7203,28 @@
         <v>1.21</v>
       </c>
       <c r="S35" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="T35" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="U35" t="n">
-        <v>1.73</v>
+        <v>1.76</v>
       </c>
       <c r="V35" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="W35" t="n">
-        <v>1.88</v>
+        <v>1.98</v>
       </c>
       <c r="X35" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="Y35" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="Z35" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AA35" t="n">
         <v>1000</v>
@@ -7236,98 +7236,98 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AD35" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AE35" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AF35" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG35" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AH35" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AI35" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AJ35" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AK35" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AL35" t="n">
-        <v>65</v>
+        <v>160</v>
       </c>
       <c r="AM35" t="n">
         <v>1000</v>
       </c>
       <c r="AN35" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AO35" t="n">
         <v>1000</v>
       </c>
       <c r="AP35" t="n">
-        <v>4</v>
+        <v>8.6</v>
       </c>
       <c r="AQ35" t="n">
-        <v>4.4</v>
+        <v>11.5</v>
       </c>
       <c r="AR35" t="n">
-        <v>5.4</v>
+        <v>14.5</v>
       </c>
       <c r="AS35" t="n">
-        <v>5.9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AT35" t="n">
-        <v>3.25</v>
+        <v>5.8</v>
       </c>
       <c r="AU35" t="n">
-        <v>3.5</v>
+        <v>6.6</v>
       </c>
       <c r="AV35" t="n">
-        <v>4.9</v>
+        <v>18</v>
       </c>
       <c r="AW35" t="n">
-        <v>5.8</v>
+        <v>8.6</v>
       </c>
       <c r="AX35" t="n">
-        <v>4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AY35" t="n">
-        <v>4.1</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AZ35" t="n">
-        <v>5.1</v>
+        <v>21</v>
       </c>
       <c r="BA35" t="n">
-        <v>5.8</v>
+        <v>8.6</v>
       </c>
       <c r="BB35" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="BC35" t="n">
-        <v>5.1</v>
+        <v>21</v>
       </c>
       <c r="BD35" t="n">
-        <v>5.5</v>
+        <v>8</v>
       </c>
       <c r="BE35" t="n">
-        <v>5.9</v>
+        <v>9</v>
       </c>
       <c r="BF35" t="n">
-        <v>4.9</v>
+        <v>17</v>
       </c>
       <c r="BG35" t="n">
-        <v>5.9</v>
+        <v>9</v>
       </c>
       <c r="BH35" t="inlineStr">
         <is>
-          <t>2026-02-23 19:17:22</t>
+          <t>2026-02-23 21:25:39</t>
         </is>
       </c>
     </row>
@@ -7358,19 +7358,19 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="G36" t="n">
         <v>1.64</v>
       </c>
       <c r="H36" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="I36" t="n">
-        <v>11</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J36" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="K36" t="n">
         <v>4.5</v>
@@ -7388,34 +7388,34 @@
         <v>1.39</v>
       </c>
       <c r="P36" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="Q36" t="n">
         <v>2.16</v>
       </c>
       <c r="R36" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="S36" t="n">
         <v>4.1</v>
       </c>
       <c r="T36" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="U36" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="V36" t="n">
-        <v>1.1</v>
+        <v>1.12</v>
       </c>
       <c r="W36" t="n">
-        <v>2.46</v>
+        <v>2.56</v>
       </c>
       <c r="X36" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="Y36" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="Z36" t="n">
         <v>1000</v>
@@ -7427,16 +7427,16 @@
         <v>6.8</v>
       </c>
       <c r="AC36" t="n">
-        <v>11.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD36" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AE36" t="n">
         <v>1000</v>
       </c>
       <c r="AF36" t="n">
-        <v>9.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AG36" t="n">
         <v>11</v>
@@ -7454,7 +7454,7 @@
         <v>21</v>
       </c>
       <c r="AL36" t="n">
-        <v>65</v>
+        <v>140</v>
       </c>
       <c r="AM36" t="n">
         <v>1000</v>
@@ -7466,62 +7466,62 @@
         <v>1000</v>
       </c>
       <c r="AP36" t="n">
-        <v>4.2</v>
+        <v>10</v>
       </c>
       <c r="AQ36" t="n">
-        <v>4.8</v>
+        <v>17.5</v>
       </c>
       <c r="AR36" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AS36" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AT36" t="n">
         <v>5.6</v>
       </c>
-      <c r="AS36" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="AT36" t="n">
-        <v>3.2</v>
-      </c>
       <c r="AU36" t="n">
-        <v>3.95</v>
+        <v>8</v>
       </c>
       <c r="AV36" t="n">
-        <v>5.1</v>
+        <v>16</v>
       </c>
       <c r="AW36" t="n">
-        <v>5.9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AX36" t="n">
-        <v>3.75</v>
+        <v>7</v>
       </c>
       <c r="AY36" t="n">
-        <v>3.9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AZ36" t="n">
-        <v>5.1</v>
+        <v>16</v>
       </c>
       <c r="BA36" t="n">
-        <v>5.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="BB36" t="n">
-        <v>4.3</v>
+        <v>12</v>
       </c>
       <c r="BC36" t="n">
-        <v>4.7</v>
+        <v>16.5</v>
       </c>
       <c r="BD36" t="n">
-        <v>5.5</v>
+        <v>7.4</v>
       </c>
       <c r="BE36" t="n">
-        <v>5.9</v>
+        <v>8.4</v>
       </c>
       <c r="BF36" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="BG36" t="n">
-        <v>5.9</v>
+        <v>8.4</v>
       </c>
       <c r="BH36" t="inlineStr">
         <is>
-          <t>2026-02-23 19:17:22</t>
+          <t>2026-02-23 21:25:39</t>
         </is>
       </c>
     </row>
@@ -7552,7 +7552,7 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="G37" t="n">
         <v>2.4</v>
@@ -7561,13 +7561,13 @@
         <v>4</v>
       </c>
       <c r="I37" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="J37" t="n">
         <v>2.96</v>
       </c>
       <c r="K37" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="L37" t="n">
         <v>1.75</v>
@@ -7576,16 +7576,16 @@
         <v>1.18</v>
       </c>
       <c r="N37" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="O37" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="P37" t="n">
         <v>1.37</v>
       </c>
       <c r="Q37" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="R37" t="n">
         <v>1.12</v>
@@ -7594,10 +7594,10 @@
         <v>8.199999999999999</v>
       </c>
       <c r="T37" t="n">
-        <v>2.56</v>
+        <v>2.66</v>
       </c>
       <c r="U37" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="V37" t="n">
         <v>1.3</v>
@@ -7609,13 +7609,13 @@
         <v>6.6</v>
       </c>
       <c r="Y37" t="n">
-        <v>9.6</v>
+        <v>9</v>
       </c>
       <c r="Z37" t="n">
         <v>28</v>
       </c>
       <c r="AA37" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AB37" t="n">
         <v>5.9</v>
@@ -7624,64 +7624,64 @@
         <v>7.4</v>
       </c>
       <c r="AD37" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AE37" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AF37" t="n">
         <v>12.5</v>
       </c>
       <c r="AG37" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AH37" t="n">
+        <v>85</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>380</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>65</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>95</v>
+      </c>
+      <c r="AL37" t="n">
+        <v>260</v>
+      </c>
+      <c r="AM37" t="n">
+        <v>430</v>
+      </c>
+      <c r="AN37" t="n">
+        <v>140</v>
+      </c>
+      <c r="AO37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AP37" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AQ37" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AR37" t="n">
+        <v>18</v>
+      </c>
+      <c r="AS37" t="n">
         <v>38</v>
       </c>
-      <c r="AI37" t="n">
-        <v>160</v>
-      </c>
-      <c r="AJ37" t="n">
-        <v>38</v>
-      </c>
-      <c r="AK37" t="n">
-        <v>44</v>
-      </c>
-      <c r="AL37" t="n">
-        <v>110</v>
-      </c>
-      <c r="AM37" t="n">
-        <v>410</v>
-      </c>
-      <c r="AN37" t="n">
-        <v>55</v>
-      </c>
-      <c r="AO37" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AP37" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="AQ37" t="n">
-        <v>8</v>
-      </c>
-      <c r="AR37" t="n">
-        <v>23</v>
-      </c>
-      <c r="AS37" t="n">
-        <v>12.5</v>
-      </c>
       <c r="AT37" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="AU37" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="AV37" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AW37" t="n">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="AX37" t="n">
         <v>11</v>
@@ -7690,32 +7690,32 @@
         <v>12</v>
       </c>
       <c r="AZ37" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BA37" t="n">
-        <v>12.5</v>
+        <v>44</v>
       </c>
       <c r="BB37" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="BC37" t="n">
-        <v>10.5</v>
+        <v>25</v>
       </c>
       <c r="BD37" t="n">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="BE37" t="n">
-        <v>13.5</v>
+        <v>110</v>
       </c>
       <c r="BF37" t="n">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="BG37" t="n">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="BH37" t="inlineStr">
         <is>
-          <t>2026-02-23 19:17:22</t>
+          <t>2026-02-23 21:25:39</t>
         </is>
       </c>
     </row>
@@ -7746,22 +7746,22 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="G38" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="H38" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="I38" t="n">
         <v>2.62</v>
       </c>
       <c r="J38" t="n">
-        <v>3.05</v>
+        <v>2.88</v>
       </c>
       <c r="K38" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="L38" t="n">
         <v>1.71</v>
@@ -7770,10 +7770,10 @@
         <v>1.16</v>
       </c>
       <c r="N38" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="O38" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="P38" t="n">
         <v>1.38</v>
@@ -7782,43 +7782,43 @@
         <v>3.25</v>
       </c>
       <c r="R38" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="S38" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="T38" t="n">
         <v>2.42</v>
       </c>
       <c r="U38" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="V38" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="W38" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="X38" t="n">
-        <v>8.6</v>
+        <v>7.2</v>
       </c>
       <c r="Y38" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="Z38" t="n">
         <v>14</v>
       </c>
       <c r="AA38" t="n">
-        <v>44</v>
+        <v>170</v>
       </c>
       <c r="AB38" t="n">
-        <v>10</v>
+        <v>8.6</v>
       </c>
       <c r="AC38" t="n">
         <v>7.2</v>
       </c>
       <c r="AD38" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AE38" t="n">
         <v>48</v>
@@ -7827,25 +7827,25 @@
         <v>23</v>
       </c>
       <c r="AG38" t="n">
-        <v>970</v>
+        <v>70</v>
       </c>
       <c r="AH38" t="n">
-        <v>32</v>
+        <v>260</v>
       </c>
       <c r="AI38" t="n">
-        <v>110</v>
+        <v>230</v>
       </c>
       <c r="AJ38" t="n">
         <v>1000</v>
       </c>
       <c r="AK38" t="n">
-        <v>75</v>
+        <v>250</v>
       </c>
       <c r="AL38" t="n">
-        <v>140</v>
+        <v>340</v>
       </c>
       <c r="AM38" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="AN38" t="n">
         <v>1000</v>
@@ -7863,53 +7863,53 @@
         <v>12</v>
       </c>
       <c r="AS38" t="n">
-        <v>6.8</v>
+        <v>16</v>
       </c>
       <c r="AT38" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AU38" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="AV38" t="n">
+        <v>12</v>
+      </c>
+      <c r="AW38" t="n">
+        <v>32</v>
+      </c>
+      <c r="AX38" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY38" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ38" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="BA38" t="n">
         <v>12.5</v>
       </c>
-      <c r="AW38" t="n">
-        <v>40</v>
-      </c>
-      <c r="AX38" t="n">
-        <v>17</v>
-      </c>
-      <c r="AY38" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AZ38" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="BA38" t="n">
-        <v>7.6</v>
-      </c>
       <c r="BB38" t="n">
-        <v>7.6</v>
+        <v>12.5</v>
       </c>
       <c r="BC38" t="n">
-        <v>7.4</v>
+        <v>12</v>
       </c>
       <c r="BD38" t="n">
-        <v>7.6</v>
+        <v>13</v>
       </c>
       <c r="BE38" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="BF38" t="n">
-        <v>7.6</v>
+        <v>13</v>
       </c>
       <c r="BG38" t="n">
-        <v>42</v>
+        <v>11.5</v>
       </c>
       <c r="BH38" t="inlineStr">
         <is>
-          <t>2026-02-23 19:17:22</t>
+          <t>2026-02-23 21:25:39</t>
         </is>
       </c>
     </row>
@@ -7940,10 +7940,10 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="G39" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="H39" t="n">
         <v>5.2</v>
@@ -7955,7 +7955,7 @@
         <v>3.5</v>
       </c>
       <c r="K39" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="L39" t="n">
         <v>1.5</v>
@@ -7964,19 +7964,19 @@
         <v>1.11</v>
       </c>
       <c r="N39" t="n">
-        <v>2.86</v>
+        <v>2.82</v>
       </c>
       <c r="O39" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="P39" t="n">
         <v>1.62</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="R39" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="S39" t="n">
         <v>4.9</v>
@@ -7985,40 +7985,40 @@
         <v>2.2</v>
       </c>
       <c r="U39" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="V39" t="n">
         <v>1.21</v>
       </c>
       <c r="W39" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="X39" t="n">
         <v>10</v>
       </c>
       <c r="Y39" t="n">
-        <v>17</v>
+        <v>14.5</v>
       </c>
       <c r="Z39" t="n">
         <v>40</v>
       </c>
       <c r="AA39" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AB39" t="n">
         <v>6.6</v>
       </c>
       <c r="AC39" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AD39" t="n">
         <v>23</v>
       </c>
       <c r="AE39" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AF39" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG39" t="n">
         <v>11</v>
@@ -8030,31 +8030,31 @@
         <v>120</v>
       </c>
       <c r="AJ39" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="AK39" t="n">
         <v>25</v>
       </c>
       <c r="AL39" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AM39" t="n">
         <v>210</v>
       </c>
       <c r="AN39" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="AO39" t="n">
         <v>160</v>
       </c>
       <c r="AP39" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AQ39" t="n">
         <v>12.5</v>
       </c>
       <c r="AR39" t="n">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="AS39" t="n">
         <v>42</v>
@@ -8072,7 +8072,7 @@
         <v>36</v>
       </c>
       <c r="AX39" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AY39" t="n">
         <v>9.800000000000001</v>
@@ -8084,7 +8084,7 @@
         <v>42</v>
       </c>
       <c r="BB39" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="BC39" t="n">
         <v>21</v>
@@ -8103,7 +8103,7 @@
       </c>
       <c r="BH39" t="inlineStr">
         <is>
-          <t>2026-02-23 19:17:22</t>
+          <t>2026-02-23 21:25:39</t>
         </is>
       </c>
     </row>
@@ -8137,10 +8137,10 @@
         <v>3.75</v>
       </c>
       <c r="G40" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="H40" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="I40" t="n">
         <v>2.46</v>
@@ -8161,19 +8161,19 @@
         <v>2.4</v>
       </c>
       <c r="O40" t="n">
-        <v>1.62</v>
+        <v>1.54</v>
       </c>
       <c r="P40" t="n">
         <v>1.47</v>
       </c>
       <c r="Q40" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="R40" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="S40" t="n">
-        <v>6</v>
+        <v>5.3</v>
       </c>
       <c r="T40" t="n">
         <v>2.26</v>
@@ -8188,7 +8188,7 @@
         <v>1.32</v>
       </c>
       <c r="X40" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Y40" t="n">
         <v>7</v>
@@ -8200,10 +8200,10 @@
         <v>38</v>
       </c>
       <c r="AB40" t="n">
-        <v>11.5</v>
+        <v>10</v>
       </c>
       <c r="AC40" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AD40" t="n">
         <v>970</v>
@@ -8212,7 +8212,7 @@
         <v>1000</v>
       </c>
       <c r="AF40" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="AG40" t="n">
         <v>22</v>
@@ -8221,7 +8221,7 @@
         <v>970</v>
       </c>
       <c r="AI40" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AJ40" t="n">
         <v>120</v>
@@ -8251,53 +8251,53 @@
         <v>11.5</v>
       </c>
       <c r="AS40" t="n">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="AT40" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AU40" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AV40" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AW40" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AX40" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AY40" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AZ40" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="BA40" t="n">
+        <v>48</v>
+      </c>
+      <c r="BB40" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="BC40" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="AU40" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="AV40" t="n">
-        <v>11</v>
-      </c>
-      <c r="AW40" t="n">
-        <v>7</v>
-      </c>
-      <c r="AX40" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AY40" t="n">
-        <v>15</v>
-      </c>
-      <c r="AZ40" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="BA40" t="n">
+      <c r="BD40" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="BE40" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF40" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="BG40" t="n">
         <v>7.6</v>
       </c>
-      <c r="BB40" t="n">
-        <v>8</v>
-      </c>
-      <c r="BC40" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="BD40" t="n">
-        <v>8</v>
-      </c>
-      <c r="BE40" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="BF40" t="n">
-        <v>8</v>
-      </c>
-      <c r="BG40" t="n">
-        <v>7</v>
-      </c>
       <c r="BH40" t="inlineStr">
         <is>
-          <t>2026-02-23 19:17:22</t>
+          <t>2026-02-23 21:25:39</t>
         </is>
       </c>
     </row>
@@ -8337,7 +8337,7 @@
         <v>1.92</v>
       </c>
       <c r="I41" t="n">
-        <v>110</v>
+        <v>3.8</v>
       </c>
       <c r="J41" t="n">
         <v>2.9</v>
@@ -8376,10 +8376,10 @@
         <v>1.05</v>
       </c>
       <c r="V41" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="W41" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="X41" t="n">
         <v>1000</v>
@@ -8491,7 +8491,7 @@
       </c>
       <c r="BH41" t="inlineStr">
         <is>
-          <t>2026-02-23 19:17:22</t>
+          <t>2026-02-23 21:25:39</t>
         </is>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-24.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-24.xlsx
@@ -774,55 +774,55 @@
         <v>2.18</v>
       </c>
       <c r="J2" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="K2" t="n">
         <v>3.5</v>
       </c>
       <c r="L2" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="M2" t="n">
         <v>1.12</v>
       </c>
       <c r="N2" t="n">
-        <v>2.52</v>
+        <v>2.48</v>
       </c>
       <c r="O2" t="n">
         <v>1.53</v>
       </c>
       <c r="P2" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="R2" t="n">
         <v>1.18</v>
       </c>
       <c r="S2" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="T2" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="U2" t="n">
         <v>1.69</v>
       </c>
       <c r="V2" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="W2" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="X2" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="Y2" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="Z2" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AA2" t="n">
         <v>80</v>
@@ -846,7 +846,7 @@
         <v>22</v>
       </c>
       <c r="AH2" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AI2" t="n">
         <v>190</v>
@@ -867,19 +867,19 @@
         <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>29</v>
+        <v>600</v>
       </c>
       <c r="AP2" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AQ2" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="AR2" t="n">
         <v>9.4</v>
       </c>
       <c r="AS2" t="n">
-        <v>7.4</v>
+        <v>12</v>
       </c>
       <c r="AT2" t="n">
         <v>10</v>
@@ -891,25 +891,25 @@
         <v>9.6</v>
       </c>
       <c r="AW2" t="n">
-        <v>9.800000000000001</v>
+        <v>13</v>
       </c>
       <c r="AX2" t="n">
-        <v>7.2</v>
+        <v>6.8</v>
       </c>
       <c r="AY2" t="n">
         <v>17</v>
       </c>
       <c r="AZ2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BA2" t="n">
-        <v>7.2</v>
+        <v>8.4</v>
       </c>
       <c r="BB2" t="n">
         <v>7.8</v>
       </c>
       <c r="BC2" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="BD2" t="n">
         <v>7.8</v>
@@ -918,14 +918,14 @@
         <v>8</v>
       </c>
       <c r="BF2" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="BG2" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="BH2" t="inlineStr">
         <is>
-          <t>2026-02-23 21:25:39</t>
+          <t>2026-02-23 23:33:14</t>
         </is>
       </c>
     </row>
@@ -959,7 +959,7 @@
         <v>3.45</v>
       </c>
       <c r="G3" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="H3" t="n">
         <v>1.86</v>
@@ -977,22 +977,22 @@
         <v>1.35</v>
       </c>
       <c r="M3" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N3" t="n">
         <v>2.68</v>
       </c>
       <c r="O3" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="P3" t="n">
-        <v>1.47</v>
+        <v>1.57</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.38</v>
+        <v>1.96</v>
       </c>
       <c r="R3" t="n">
-        <v>1.2</v>
+        <v>1.16</v>
       </c>
       <c r="S3" t="n">
         <v>2.68</v>
@@ -1025,7 +1025,7 @@
         <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AD3" t="n">
         <v>1000</v>
@@ -1067,49 +1067,49 @@
         <v>5.8</v>
       </c>
       <c r="AQ3" t="n">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AR3" t="n">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AT3" t="n">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AU3" t="n">
-        <v>1.06</v>
+        <v>1.09</v>
       </c>
       <c r="AV3" t="n">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AW3" t="n">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AX3" t="n">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AY3" t="n">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AZ3" t="n">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="BA3" t="n">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="BB3" t="n">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="BC3" t="n">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="BD3" t="n">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="BE3" t="n">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="BF3" t="n">
         <v>1.55</v>
@@ -1119,7 +1119,7 @@
       </c>
       <c r="BH3" t="inlineStr">
         <is>
-          <t>2026-02-23 21:25:39</t>
+          <t>2026-02-23 23:33:14</t>
         </is>
       </c>
     </row>
@@ -1153,55 +1153,55 @@
         <v>1.52</v>
       </c>
       <c r="G4" t="n">
-        <v>1.63</v>
+        <v>1.61</v>
       </c>
       <c r="H4" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="I4" t="n">
-        <v>8.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="J4" t="n">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="K4" t="n">
         <v>4.7</v>
       </c>
       <c r="L4" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="M4" t="n">
         <v>1.06</v>
       </c>
       <c r="N4" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="O4" t="n">
         <v>1.29</v>
       </c>
       <c r="P4" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="Q4" t="n">
         <v>1.86</v>
       </c>
       <c r="R4" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="S4" t="n">
         <v>3.2</v>
       </c>
       <c r="T4" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="U4" t="n">
         <v>1.86</v>
       </c>
       <c r="V4" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="W4" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="X4" t="n">
         <v>980</v>
@@ -1216,7 +1216,7 @@
         <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="AC4" t="n">
         <v>19</v>
@@ -1225,19 +1225,19 @@
         <v>980</v>
       </c>
       <c r="AE4" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AF4" t="n">
-        <v>65</v>
+        <v>500</v>
       </c>
       <c r="AG4" t="n">
-        <v>12.5</v>
+        <v>40</v>
       </c>
       <c r="AH4" t="n">
         <v>980</v>
       </c>
       <c r="AI4" t="n">
-        <v>120</v>
+        <v>290</v>
       </c>
       <c r="AJ4" t="n">
         <v>980</v>
@@ -1252,7 +1252,7 @@
         <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>9.199999999999999</v>
+        <v>29</v>
       </c>
       <c r="AO4" t="n">
         <v>1000</v>
@@ -1261,7 +1261,7 @@
         <v>9.6</v>
       </c>
       <c r="AQ4" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="AR4" t="n">
         <v>4.2</v>
@@ -1270,50 +1270,50 @@
         <v>4.2</v>
       </c>
       <c r="AT4" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="AU4" t="n">
         <v>7</v>
       </c>
       <c r="AV4" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>5</v>
+      </c>
+      <c r="AZ4" t="n">
         <v>6.8</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="AY4" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="AZ4" t="n">
-        <v>6.6</v>
       </c>
       <c r="BA4" t="n">
         <v>4.2</v>
       </c>
       <c r="BB4" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="BC4" t="n">
-        <v>5.9</v>
+        <v>5.5</v>
       </c>
       <c r="BD4" t="n">
-        <v>3.45</v>
+        <v>3.85</v>
       </c>
       <c r="BE4" t="n">
-        <v>8.4</v>
+        <v>7.6</v>
       </c>
       <c r="BF4" t="n">
-        <v>4.5</v>
+        <v>6.8</v>
       </c>
       <c r="BG4" t="n">
         <v>4.2</v>
       </c>
       <c r="BH4" t="inlineStr">
         <is>
-          <t>2026-02-23 21:25:39</t>
+          <t>2026-02-23 23:33:14</t>
         </is>
       </c>
     </row>
@@ -1371,19 +1371,19 @@
         <v>6.8</v>
       </c>
       <c r="O5" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="P5" t="n">
         <v>3</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="R5" t="n">
         <v>1.79</v>
       </c>
       <c r="S5" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="T5" t="n">
         <v>1.71</v>
@@ -1401,7 +1401,7 @@
         <v>34</v>
       </c>
       <c r="Y5" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="Z5" t="n">
         <v>75</v>
@@ -1425,7 +1425,7 @@
         <v>11</v>
       </c>
       <c r="AG5" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AH5" t="n">
         <v>21</v>
@@ -1446,7 +1446,7 @@
         <v>85</v>
       </c>
       <c r="AN5" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="AO5" t="n">
         <v>75</v>
@@ -1467,37 +1467,37 @@
         <v>11.5</v>
       </c>
       <c r="AU5" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AV5" t="n">
         <v>26</v>
       </c>
       <c r="AW5" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="AX5" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AY5" t="n">
         <v>9.6</v>
       </c>
       <c r="AZ5" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BA5" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="BB5" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="BC5" t="n">
         <v>13</v>
       </c>
       <c r="BD5" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BE5" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="BF5" t="n">
         <v>4.4</v>
@@ -1507,7 +1507,7 @@
       </c>
       <c r="BH5" t="inlineStr">
         <is>
-          <t>2026-02-23 21:25:39</t>
+          <t>2026-02-23 23:33:14</t>
         </is>
       </c>
     </row>
@@ -1538,7 +1538,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="G6" t="n">
         <v>4.1</v>
@@ -1547,7 +1547,7 @@
         <v>2.18</v>
       </c>
       <c r="I6" t="n">
-        <v>2.94</v>
+        <v>2.92</v>
       </c>
       <c r="J6" t="n">
         <v>2.92</v>
@@ -1559,13 +1559,13 @@
         <v>1.33</v>
       </c>
       <c r="M6" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N6" t="n">
         <v>4.3</v>
       </c>
       <c r="O6" t="n">
-        <v>1.27</v>
+        <v>1.04</v>
       </c>
       <c r="P6" t="n">
         <v>2.02</v>
@@ -1574,10 +1574,10 @@
         <v>1.8</v>
       </c>
       <c r="R6" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="S6" t="n">
-        <v>2.84</v>
+        <v>2.36</v>
       </c>
       <c r="T6" t="n">
         <v>1.66</v>
@@ -1586,7 +1586,7 @@
         <v>2.24</v>
       </c>
       <c r="V6" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="W6" t="n">
         <v>1.32</v>
@@ -1701,7 +1701,7 @@
       </c>
       <c r="BH6" t="inlineStr">
         <is>
-          <t>2026-02-23 21:25:39</t>
+          <t>2026-02-23 23:33:14</t>
         </is>
       </c>
     </row>
@@ -1735,13 +1735,13 @@
         <v>2.84</v>
       </c>
       <c r="G7" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="H7" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="I7" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="J7" t="n">
         <v>3.45</v>
@@ -1750,7 +1750,7 @@
         <v>4.1</v>
       </c>
       <c r="L7" t="n">
-        <v>1.35</v>
+        <v>1.31</v>
       </c>
       <c r="M7" t="n">
         <v>1.05</v>
@@ -1783,7 +1783,7 @@
         <v>1.61</v>
       </c>
       <c r="W7" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="X7" t="n">
         <v>22</v>
@@ -1895,7 +1895,7 @@
       </c>
       <c r="BH7" t="inlineStr">
         <is>
-          <t>2026-02-23 21:25:39</t>
+          <t>2026-02-23 23:33:14</t>
         </is>
       </c>
     </row>
@@ -1926,22 +1926,22 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="G8" t="n">
-        <v>1.68</v>
+        <v>1.65</v>
       </c>
       <c r="H8" t="n">
         <v>5.9</v>
       </c>
       <c r="I8" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J8" t="n">
         <v>4.3</v>
       </c>
       <c r="K8" t="n">
-        <v>8</v>
+        <v>7.2</v>
       </c>
       <c r="L8" t="n">
         <v>1.01</v>
@@ -1950,7 +1950,7 @@
         <v>1.01</v>
       </c>
       <c r="N8" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="O8" t="n">
         <v>1.21</v>
@@ -1959,13 +1959,13 @@
         <v>2.06</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="R8" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="S8" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="T8" t="n">
         <v>1.05</v>
@@ -1977,7 +1977,7 @@
         <v>1.09</v>
       </c>
       <c r="W8" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="X8" t="n">
         <v>1000</v>
@@ -2034,16 +2034,16 @@
         <v>1000</v>
       </c>
       <c r="AP8" t="n">
-        <v>1.52</v>
+        <v>9.6</v>
       </c>
       <c r="AQ8" t="n">
-        <v>1.6</v>
+        <v>4.2</v>
       </c>
       <c r="AR8" t="n">
-        <v>1.6</v>
+        <v>4.2</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.6</v>
+        <v>4.2</v>
       </c>
       <c r="AT8" t="n">
         <v>5.6</v>
@@ -2052,10 +2052,10 @@
         <v>1.6</v>
       </c>
       <c r="AV8" t="n">
-        <v>1.6</v>
+        <v>4.2</v>
       </c>
       <c r="AW8" t="n">
-        <v>1.6</v>
+        <v>4.2</v>
       </c>
       <c r="AX8" t="n">
         <v>5.1</v>
@@ -2067,7 +2067,7 @@
         <v>1.6</v>
       </c>
       <c r="BA8" t="n">
-        <v>1.6</v>
+        <v>4.2</v>
       </c>
       <c r="BB8" t="n">
         <v>1.49</v>
@@ -2089,7 +2089,7 @@
       </c>
       <c r="BH8" t="inlineStr">
         <is>
-          <t>2026-02-23 21:25:39</t>
+          <t>2026-02-23 23:33:14</t>
         </is>
       </c>
     </row>
@@ -2144,7 +2144,7 @@
         <v>1.02</v>
       </c>
       <c r="N9" t="n">
-        <v>2.84</v>
+        <v>1.1</v>
       </c>
       <c r="O9" t="n">
         <v>1.15</v>
@@ -2156,10 +2156,10 @@
         <v>1.45</v>
       </c>
       <c r="R9" t="n">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="S9" t="n">
-        <v>1.92</v>
+        <v>1.75</v>
       </c>
       <c r="T9" t="n">
         <v>1.87</v>
@@ -2283,7 +2283,7 @@
       </c>
       <c r="BH9" t="inlineStr">
         <is>
-          <t>2026-02-23 21:25:39</t>
+          <t>2026-02-23 23:33:14</t>
         </is>
       </c>
     </row>
@@ -2350,10 +2350,10 @@
         <v>2.04</v>
       </c>
       <c r="R10" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="S10" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="T10" t="n">
         <v>1.84</v>
@@ -2377,7 +2377,7 @@
         <v>30</v>
       </c>
       <c r="AA10" t="n">
-        <v>100</v>
+        <v>900</v>
       </c>
       <c r="AB10" t="n">
         <v>10</v>
@@ -2416,7 +2416,7 @@
         <v>580</v>
       </c>
       <c r="AN10" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AO10" t="n">
         <v>180</v>
@@ -2431,7 +2431,7 @@
         <v>13</v>
       </c>
       <c r="AS10" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AT10" t="n">
         <v>7.6</v>
@@ -2464,7 +2464,7 @@
         <v>20</v>
       </c>
       <c r="BD10" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="BE10" t="n">
         <v>7.6</v>
@@ -2477,7 +2477,7 @@
       </c>
       <c r="BH10" t="inlineStr">
         <is>
-          <t>2026-02-23 21:25:39</t>
+          <t>2026-02-23 23:33:14</t>
         </is>
       </c>
     </row>
@@ -2511,22 +2511,22 @@
         <v>6.6</v>
       </c>
       <c r="G11" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="H11" t="n">
-        <v>1.49</v>
+        <v>1.46</v>
       </c>
       <c r="I11" t="n">
-        <v>1.59</v>
+        <v>1.55</v>
       </c>
       <c r="J11" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="K11" t="n">
-        <v>5.1</v>
+        <v>5.4</v>
       </c>
       <c r="L11" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="M11" t="n">
         <v>1.04</v>
@@ -2538,7 +2538,7 @@
         <v>1.21</v>
       </c>
       <c r="P11" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="Q11" t="n">
         <v>1.63</v>
@@ -2556,122 +2556,122 @@
         <v>2.16</v>
       </c>
       <c r="V11" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="W11" t="n">
         <v>1.14</v>
       </c>
       <c r="X11" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="Y11" t="n">
         <v>12</v>
       </c>
       <c r="Z11" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>80</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>20</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>75</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>32</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>25</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>30</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>260</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>110</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>95</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>120</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>100</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>9</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AS11" t="n">
         <v>12</v>
       </c>
-      <c r="AA11" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>38</v>
-      </c>
-      <c r="AC11" t="n">
+      <c r="AT11" t="n">
+        <v>22</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AW11" t="n">
         <v>13</v>
       </c>
-      <c r="AD11" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>420</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>38</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>38</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>510</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>400</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>330</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AP11" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="AR11" t="n">
+      <c r="AX11" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="AS11" t="n">
-        <v>10</v>
-      </c>
-      <c r="AT11" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="AU11" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AV11" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="AW11" t="n">
-        <v>11</v>
-      </c>
-      <c r="AX11" t="n">
-        <v>23</v>
-      </c>
       <c r="AY11" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="AZ11" t="n">
-        <v>3.7</v>
+        <v>10.5</v>
       </c>
       <c r="BA11" t="n">
         <v>23</v>
       </c>
       <c r="BB11" t="n">
-        <v>4.2</v>
+        <v>5.1</v>
       </c>
       <c r="BC11" t="n">
-        <v>4.2</v>
+        <v>28</v>
       </c>
       <c r="BD11" t="n">
-        <v>4.2</v>
+        <v>28</v>
       </c>
       <c r="BE11" t="n">
-        <v>3.95</v>
+        <v>8.4</v>
       </c>
       <c r="BF11" t="n">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="BG11" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="BH11" t="inlineStr">
         <is>
-          <t>2026-02-23 21:25:39</t>
+          <t>2026-02-23 23:33:14</t>
         </is>
       </c>
     </row>
@@ -2702,13 +2702,13 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.94</v>
+        <v>1.91</v>
       </c>
       <c r="G12" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="H12" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I12" t="n">
         <v>4.4</v>
@@ -2726,7 +2726,7 @@
         <v>1.05</v>
       </c>
       <c r="N12" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="O12" t="n">
         <v>1.23</v>
@@ -2750,10 +2750,10 @@
         <v>2.32</v>
       </c>
       <c r="V12" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="W12" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="X12" t="n">
         <v>21</v>
@@ -2783,7 +2783,7 @@
         <v>14.5</v>
       </c>
       <c r="AG12" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH12" t="n">
         <v>17.5</v>
@@ -2792,7 +2792,7 @@
         <v>120</v>
       </c>
       <c r="AJ12" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AK12" t="n">
         <v>19.5</v>
@@ -2801,7 +2801,7 @@
         <v>32</v>
       </c>
       <c r="AM12" t="n">
-        <v>200</v>
+        <v>330</v>
       </c>
       <c r="AN12" t="n">
         <v>11</v>
@@ -2816,10 +2816,10 @@
         <v>15.5</v>
       </c>
       <c r="AR12" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AS12" t="n">
-        <v>8.4</v>
+        <v>9.4</v>
       </c>
       <c r="AT12" t="n">
         <v>9.800000000000001</v>
@@ -2843,7 +2843,7 @@
         <v>14</v>
       </c>
       <c r="BA12" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="BB12" t="n">
         <v>19</v>
@@ -2855,17 +2855,17 @@
         <v>20</v>
       </c>
       <c r="BE12" t="n">
-        <v>8.4</v>
+        <v>9</v>
       </c>
       <c r="BF12" t="n">
         <v>9</v>
       </c>
       <c r="BG12" t="n">
-        <v>7.6</v>
+        <v>30</v>
       </c>
       <c r="BH12" t="inlineStr">
         <is>
-          <t>2026-02-23 21:25:39</t>
+          <t>2026-02-23 23:33:14</t>
         </is>
       </c>
     </row>
@@ -2923,22 +2923,22 @@
         <v>6</v>
       </c>
       <c r="O13" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="P13" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="R13" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="S13" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="T13" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="U13" t="n">
         <v>2.04</v>
@@ -2953,13 +2953,13 @@
         <v>32</v>
       </c>
       <c r="Y13" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Z13" t="n">
         <v>10.5</v>
       </c>
       <c r="AA13" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AB13" t="n">
         <v>55</v>
@@ -3001,7 +3001,7 @@
         <v>1000</v>
       </c>
       <c r="AO13" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="AP13" t="n">
         <v>9.6</v>
@@ -3016,7 +3016,7 @@
         <v>10</v>
       </c>
       <c r="AT13" t="n">
-        <v>7.4</v>
+        <v>38</v>
       </c>
       <c r="AU13" t="n">
         <v>12</v>
@@ -3028,38 +3028,38 @@
         <v>11</v>
       </c>
       <c r="AX13" t="n">
-        <v>8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AY13" t="n">
-        <v>7.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AZ13" t="n">
         <v>20</v>
       </c>
       <c r="BA13" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="BB13" t="n">
-        <v>8.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="BC13" t="n">
-        <v>8.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="BD13" t="n">
-        <v>8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="BE13" t="n">
-        <v>8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="BF13" t="n">
-        <v>8.6</v>
+        <v>9.4</v>
       </c>
       <c r="BG13" t="n">
         <v>3.75</v>
       </c>
       <c r="BH13" t="inlineStr">
         <is>
-          <t>2026-02-23 21:25:39</t>
+          <t>2026-02-23 23:33:14</t>
         </is>
       </c>
     </row>
@@ -3093,13 +3093,13 @@
         <v>3.5</v>
       </c>
       <c r="G14" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="H14" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="I14" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="J14" t="n">
         <v>3.9</v>
@@ -3120,7 +3120,7 @@
         <v>1.18</v>
       </c>
       <c r="P14" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="Q14" t="n">
         <v>1.18</v>
@@ -3138,10 +3138,10 @@
         <v>1.05</v>
       </c>
       <c r="V14" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="W14" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="X14" t="n">
         <v>1000</v>
@@ -3153,7 +3153,7 @@
         <v>1000</v>
       </c>
       <c r="AA14" t="n">
-        <v>110</v>
+        <v>500</v>
       </c>
       <c r="AB14" t="n">
         <v>1000</v>
@@ -3168,7 +3168,7 @@
         <v>65</v>
       </c>
       <c r="AF14" t="n">
-        <v>90</v>
+        <v>500</v>
       </c>
       <c r="AG14" t="n">
         <v>1000</v>
@@ -3177,16 +3177,16 @@
         <v>60</v>
       </c>
       <c r="AI14" t="n">
-        <v>80</v>
+        <v>500</v>
       </c>
       <c r="AJ14" t="n">
-        <v>190</v>
+        <v>500</v>
       </c>
       <c r="AK14" t="n">
-        <v>120</v>
+        <v>500</v>
       </c>
       <c r="AL14" t="n">
-        <v>130</v>
+        <v>500</v>
       </c>
       <c r="AM14" t="n">
         <v>580</v>
@@ -3207,10 +3207,10 @@
         <v>8.4</v>
       </c>
       <c r="AS14" t="n">
-        <v>3.5</v>
+        <v>1.66</v>
       </c>
       <c r="AT14" t="n">
-        <v>3.4</v>
+        <v>1.64</v>
       </c>
       <c r="AU14" t="n">
         <v>5.1</v>
@@ -3219,10 +3219,10 @@
         <v>6.2</v>
       </c>
       <c r="AW14" t="n">
-        <v>3.4</v>
+        <v>1.63</v>
       </c>
       <c r="AX14" t="n">
-        <v>2.44</v>
+        <v>1.66</v>
       </c>
       <c r="AY14" t="n">
         <v>8.4</v>
@@ -3231,19 +3231,19 @@
         <v>8.4</v>
       </c>
       <c r="BA14" t="n">
-        <v>2.34</v>
+        <v>1.65</v>
       </c>
       <c r="BB14" t="n">
-        <v>2.1</v>
+        <v>1.69</v>
       </c>
       <c r="BC14" t="n">
-        <v>2.4</v>
+        <v>1.67</v>
       </c>
       <c r="BD14" t="n">
-        <v>2.32</v>
+        <v>1.68</v>
       </c>
       <c r="BE14" t="n">
-        <v>3.95</v>
+        <v>1.69</v>
       </c>
       <c r="BF14" t="n">
         <v>4.7</v>
@@ -3253,7 +3253,7 @@
       </c>
       <c r="BH14" t="inlineStr">
         <is>
-          <t>2026-02-23 21:25:39</t>
+          <t>2026-02-23 23:33:14</t>
         </is>
       </c>
     </row>
@@ -3293,7 +3293,7 @@
         <v>7</v>
       </c>
       <c r="I15" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="J15" t="n">
         <v>5.4</v>
@@ -3311,7 +3311,7 @@
         <v>6.6</v>
       </c>
       <c r="O15" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="P15" t="n">
         <v>2.9</v>
@@ -3323,7 +3323,7 @@
         <v>1.79</v>
       </c>
       <c r="S15" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="T15" t="n">
         <v>1.67</v>
@@ -3347,7 +3347,7 @@
         <v>75</v>
       </c>
       <c r="AA15" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AB15" t="n">
         <v>15.5</v>
@@ -3368,13 +3368,13 @@
         <v>12.5</v>
       </c>
       <c r="AH15" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI15" t="n">
         <v>75</v>
       </c>
       <c r="AJ15" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="AK15" t="n">
         <v>16</v>
@@ -3395,13 +3395,13 @@
         <v>17.5</v>
       </c>
       <c r="AQ15" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AR15" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AS15" t="n">
         <v>7.8</v>
-      </c>
-      <c r="AS15" t="n">
-        <v>7.2</v>
       </c>
       <c r="AT15" t="n">
         <v>11.5</v>
@@ -3413,7 +3413,7 @@
         <v>22</v>
       </c>
       <c r="AW15" t="n">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="AX15" t="n">
         <v>10</v>
@@ -3425,7 +3425,7 @@
         <v>17</v>
       </c>
       <c r="BA15" t="n">
-        <v>7.8</v>
+        <v>8.4</v>
       </c>
       <c r="BB15" t="n">
         <v>12</v>
@@ -3434,7 +3434,7 @@
         <v>12</v>
       </c>
       <c r="BD15" t="n">
-        <v>19.5</v>
+        <v>22</v>
       </c>
       <c r="BE15" t="n">
         <v>21</v>
@@ -3447,7 +3447,7 @@
       </c>
       <c r="BH15" t="inlineStr">
         <is>
-          <t>2026-02-23 21:25:39</t>
+          <t>2026-02-23 23:33:14</t>
         </is>
       </c>
     </row>
@@ -3484,10 +3484,10 @@
         <v>12</v>
       </c>
       <c r="H16" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="I16" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="J16" t="n">
         <v>3.9</v>
@@ -3496,7 +3496,7 @@
         <v>4.3</v>
       </c>
       <c r="L16" t="n">
-        <v>1.48</v>
+        <v>1.43</v>
       </c>
       <c r="M16" t="n">
         <v>1.1</v>
@@ -3508,13 +3508,13 @@
         <v>1.43</v>
       </c>
       <c r="P16" t="n">
-        <v>1.59</v>
+        <v>1.55</v>
       </c>
       <c r="Q16" t="n">
         <v>2.28</v>
       </c>
       <c r="R16" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="S16" t="n">
         <v>4.4</v>
@@ -3523,10 +3523,10 @@
         <v>2.38</v>
       </c>
       <c r="U16" t="n">
-        <v>1.05</v>
+        <v>1.53</v>
       </c>
       <c r="V16" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="W16" t="n">
         <v>1.09</v>
@@ -3538,7 +3538,7 @@
         <v>6.2</v>
       </c>
       <c r="Z16" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AA16" t="n">
         <v>13.5</v>
@@ -3553,19 +3553,19 @@
         <v>11</v>
       </c>
       <c r="AE16" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AF16" t="n">
         <v>510</v>
       </c>
       <c r="AG16" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AH16" t="n">
-        <v>44</v>
+        <v>970</v>
       </c>
       <c r="AI16" t="n">
-        <v>140</v>
+        <v>170</v>
       </c>
       <c r="AJ16" t="n">
         <v>1000</v>
@@ -3589,10 +3589,10 @@
         <v>5.1</v>
       </c>
       <c r="AQ16" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AR16" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="AS16" t="n">
         <v>11.5</v>
@@ -3607,10 +3607,10 @@
         <v>9.4</v>
       </c>
       <c r="AW16" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AX16" t="n">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="AY16" t="n">
         <v>16</v>
@@ -3619,29 +3619,29 @@
         <v>16</v>
       </c>
       <c r="BA16" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="BB16" t="n">
-        <v>7.8</v>
+        <v>6.8</v>
       </c>
       <c r="BC16" t="n">
-        <v>7.6</v>
+        <v>6.6</v>
       </c>
       <c r="BD16" t="n">
-        <v>7.6</v>
+        <v>6.6</v>
       </c>
       <c r="BE16" t="n">
-        <v>7.6</v>
+        <v>6.6</v>
       </c>
       <c r="BF16" t="n">
-        <v>7.6</v>
+        <v>6.6</v>
       </c>
       <c r="BG16" t="n">
         <v>10</v>
       </c>
       <c r="BH16" t="inlineStr">
         <is>
-          <t>2026-02-23 21:25:39</t>
+          <t>2026-02-23 23:33:14</t>
         </is>
       </c>
     </row>
@@ -3672,22 +3672,22 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="G17" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="H17" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I17" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="J17" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="K17" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="L17" t="n">
         <v>1.01</v>
@@ -3702,28 +3702,28 @@
         <v>1.47</v>
       </c>
       <c r="P17" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="R17" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="S17" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="T17" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="U17" t="n">
-        <v>1.61</v>
+        <v>1.59</v>
       </c>
       <c r="V17" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="W17" t="n">
-        <v>2.74</v>
+        <v>2.8</v>
       </c>
       <c r="X17" t="n">
         <v>10.5</v>
@@ -3735,13 +3735,13 @@
         <v>510</v>
       </c>
       <c r="AA17" t="n">
-        <v>540</v>
+        <v>620</v>
       </c>
       <c r="AB17" t="n">
         <v>5.8</v>
       </c>
       <c r="AC17" t="n">
-        <v>9.4</v>
+        <v>10</v>
       </c>
       <c r="AD17" t="n">
         <v>110</v>
@@ -3753,16 +3753,16 @@
         <v>7.4</v>
       </c>
       <c r="AG17" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH17" t="n">
-        <v>180</v>
+        <v>85</v>
       </c>
       <c r="AI17" t="n">
         <v>250</v>
       </c>
       <c r="AJ17" t="n">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="AK17" t="n">
         <v>65</v>
@@ -3783,13 +3783,13 @@
         <v>9</v>
       </c>
       <c r="AQ17" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="AR17" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AS17" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AT17" t="n">
         <v>5.2</v>
@@ -3801,7 +3801,7 @@
         <v>16</v>
       </c>
       <c r="AW17" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AX17" t="n">
         <v>6.6</v>
@@ -3813,29 +3813,29 @@
         <v>18</v>
       </c>
       <c r="BA17" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="BB17" t="n">
-        <v>7.2</v>
+        <v>12</v>
       </c>
       <c r="BC17" t="n">
         <v>18</v>
       </c>
       <c r="BD17" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="BE17" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="BF17" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="BG17" t="n">
-        <v>4.2</v>
+        <v>6.2</v>
       </c>
       <c r="BH17" t="inlineStr">
         <is>
-          <t>2026-02-23 21:25:39</t>
+          <t>2026-02-23 23:33:14</t>
         </is>
       </c>
     </row>
@@ -3866,7 +3866,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="G18" t="n">
         <v>4.4</v>
@@ -3875,10 +3875,10 @@
         <v>2.28</v>
       </c>
       <c r="I18" t="n">
-        <v>2.5</v>
+        <v>2.44</v>
       </c>
       <c r="J18" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="K18" t="n">
         <v>3.1</v>
@@ -3890,16 +3890,16 @@
         <v>1.13</v>
       </c>
       <c r="N18" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="O18" t="n">
         <v>1.62</v>
       </c>
       <c r="P18" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.94</v>
+        <v>2.92</v>
       </c>
       <c r="R18" t="n">
         <v>1.13</v>
@@ -3914,7 +3914,7 @@
         <v>1.68</v>
       </c>
       <c r="V18" t="n">
-        <v>1.66</v>
+        <v>1.69</v>
       </c>
       <c r="W18" t="n">
         <v>1.3</v>
@@ -3926,7 +3926,7 @@
         <v>6.8</v>
       </c>
       <c r="Z18" t="n">
-        <v>13.5</v>
+        <v>24</v>
       </c>
       <c r="AA18" t="n">
         <v>180</v>
@@ -3950,7 +3950,7 @@
         <v>34</v>
       </c>
       <c r="AH18" t="n">
-        <v>95</v>
+        <v>970</v>
       </c>
       <c r="AI18" t="n">
         <v>230</v>
@@ -3971,22 +3971,22 @@
         <v>1000</v>
       </c>
       <c r="AO18" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AP18" t="n">
-        <v>4.5</v>
+        <v>6.4</v>
       </c>
       <c r="AQ18" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="AR18" t="n">
         <v>11.5</v>
       </c>
       <c r="AS18" t="n">
-        <v>8.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AT18" t="n">
-        <v>5.5</v>
+        <v>9</v>
       </c>
       <c r="AU18" t="n">
         <v>6.2</v>
@@ -3995,41 +3995,41 @@
         <v>11</v>
       </c>
       <c r="AW18" t="n">
-        <v>9</v>
+        <v>9.6</v>
       </c>
       <c r="AX18" t="n">
-        <v>8.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AY18" t="n">
         <v>15</v>
       </c>
       <c r="AZ18" t="n">
-        <v>8.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="BA18" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="BB18" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="BC18" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD18" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="BE18" t="n">
+        <v>12</v>
+      </c>
+      <c r="BF18" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="BG18" t="n">
         <v>10</v>
       </c>
-      <c r="BD18" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="BE18" t="n">
-        <v>11</v>
-      </c>
-      <c r="BF18" t="n">
-        <v>11</v>
-      </c>
-      <c r="BG18" t="n">
-        <v>9.6</v>
-      </c>
       <c r="BH18" t="inlineStr">
         <is>
-          <t>2026-02-23 21:25:39</t>
+          <t>2026-02-23 23:33:14</t>
         </is>
       </c>
     </row>
@@ -4117,7 +4117,7 @@
         <v>17.5</v>
       </c>
       <c r="Y19" t="n">
-        <v>25</v>
+        <v>14.5</v>
       </c>
       <c r="Z19" t="n">
         <v>26</v>
@@ -4144,7 +4144,7 @@
         <v>11.5</v>
       </c>
       <c r="AH19" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AI19" t="n">
         <v>250</v>
@@ -4156,7 +4156,7 @@
         <v>65</v>
       </c>
       <c r="AL19" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AM19" t="n">
         <v>580</v>
@@ -4177,7 +4177,7 @@
         <v>11.5</v>
       </c>
       <c r="AS19" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AT19" t="n">
         <v>9.4</v>
@@ -4189,7 +4189,7 @@
         <v>12.5</v>
       </c>
       <c r="AW19" t="n">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="AX19" t="n">
         <v>11.5</v>
@@ -4207,23 +4207,23 @@
         <v>14.5</v>
       </c>
       <c r="BC19" t="n">
-        <v>11.5</v>
+        <v>20</v>
       </c>
       <c r="BD19" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="BE19" t="n">
         <v>26</v>
       </c>
       <c r="BF19" t="n">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="BG19" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="BH19" t="inlineStr">
         <is>
-          <t>2026-02-23 21:25:39</t>
+          <t>2026-02-23 23:33:14</t>
         </is>
       </c>
     </row>
@@ -4257,7 +4257,7 @@
         <v>3.2</v>
       </c>
       <c r="G20" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="H20" t="n">
         <v>2.12</v>
@@ -4278,7 +4278,7 @@
         <v>1.05</v>
       </c>
       <c r="N20" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="O20" t="n">
         <v>1.23</v>
@@ -4287,13 +4287,13 @@
         <v>2.2</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="R20" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="S20" t="n">
-        <v>2.72</v>
+        <v>2.78</v>
       </c>
       <c r="T20" t="n">
         <v>1.62</v>
@@ -4305,10 +4305,10 @@
         <v>1.75</v>
       </c>
       <c r="W20" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="X20" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y20" t="n">
         <v>13</v>
@@ -4317,10 +4317,10 @@
         <v>16.5</v>
       </c>
       <c r="AA20" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AB20" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AC20" t="n">
         <v>9.4</v>
@@ -4368,10 +4368,10 @@
         <v>10.5</v>
       </c>
       <c r="AR20" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AS20" t="n">
-        <v>7</v>
+        <v>7.8</v>
       </c>
       <c r="AT20" t="n">
         <v>13.5</v>
@@ -4395,29 +4395,29 @@
         <v>13.5</v>
       </c>
       <c r="BA20" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="BB20" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC20" t="n">
         <v>7.6</v>
       </c>
-      <c r="BC20" t="n">
-        <v>7.2</v>
-      </c>
       <c r="BD20" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="BE20" t="n">
-        <v>8</v>
+        <v>8.6</v>
       </c>
       <c r="BF20" t="n">
-        <v>7</v>
+        <v>7.8</v>
       </c>
       <c r="BG20" t="n">
         <v>11</v>
       </c>
       <c r="BH20" t="inlineStr">
         <is>
-          <t>2026-02-23 21:25:39</t>
+          <t>2026-02-23 23:33:14</t>
         </is>
       </c>
     </row>
@@ -4466,13 +4466,13 @@
         <v>4.7</v>
       </c>
       <c r="L21" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="M21" t="n">
         <v>1.03</v>
       </c>
       <c r="N21" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="O21" t="n">
         <v>1.2</v>
@@ -4481,7 +4481,7 @@
         <v>2.36</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="R21" t="n">
         <v>1.53</v>
@@ -4496,7 +4496,7 @@
         <v>2.28</v>
       </c>
       <c r="V21" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="W21" t="n">
         <v>2.1</v>
@@ -4532,7 +4532,7 @@
         <v>1000</v>
       </c>
       <c r="AH21" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AI21" t="n">
         <v>1000</v>
@@ -4556,16 +4556,16 @@
         <v>1000</v>
       </c>
       <c r="AP21" t="n">
-        <v>4.3</v>
+        <v>1.78</v>
       </c>
       <c r="AQ21" t="n">
-        <v>4.6</v>
+        <v>1.78</v>
       </c>
       <c r="AR21" t="n">
-        <v>2.32</v>
+        <v>1.83</v>
       </c>
       <c r="AS21" t="n">
-        <v>2</v>
+        <v>1.84</v>
       </c>
       <c r="AT21" t="n">
         <v>6.4</v>
@@ -4574,10 +4574,10 @@
         <v>5.6</v>
       </c>
       <c r="AV21" t="n">
-        <v>2.9</v>
+        <v>1.77</v>
       </c>
       <c r="AW21" t="n">
-        <v>2.36</v>
+        <v>1.83</v>
       </c>
       <c r="AX21" t="n">
         <v>6.4</v>
@@ -4589,19 +4589,19 @@
         <v>9</v>
       </c>
       <c r="BA21" t="n">
-        <v>2.42</v>
+        <v>1.83</v>
       </c>
       <c r="BB21" t="n">
-        <v>5.1</v>
+        <v>1.77</v>
       </c>
       <c r="BC21" t="n">
         <v>9</v>
       </c>
       <c r="BD21" t="n">
-        <v>2.48</v>
+        <v>1.8</v>
       </c>
       <c r="BE21" t="n">
-        <v>5.7</v>
+        <v>5</v>
       </c>
       <c r="BF21" t="n">
         <v>2.26</v>
@@ -4611,7 +4611,7 @@
       </c>
       <c r="BH21" t="inlineStr">
         <is>
-          <t>2026-02-23 21:25:39</t>
+          <t>2026-02-23 23:33:14</t>
         </is>
       </c>
     </row>
@@ -4693,7 +4693,7 @@
         <v>1.86</v>
       </c>
       <c r="W22" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="X22" t="n">
         <v>20</v>
@@ -4708,7 +4708,7 @@
         <v>29</v>
       </c>
       <c r="AB22" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AC22" t="n">
         <v>9.6</v>
@@ -4732,7 +4732,7 @@
         <v>34</v>
       </c>
       <c r="AJ22" t="n">
-        <v>160</v>
+        <v>65</v>
       </c>
       <c r="AK22" t="n">
         <v>40</v>
@@ -4741,7 +4741,7 @@
         <v>44</v>
       </c>
       <c r="AM22" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="AN22" t="n">
         <v>34</v>
@@ -4789,7 +4789,7 @@
         <v>7.8</v>
       </c>
       <c r="BC22" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="BD22" t="n">
         <v>8.6</v>
@@ -4805,7 +4805,7 @@
       </c>
       <c r="BH22" t="inlineStr">
         <is>
-          <t>2026-02-23 21:25:39</t>
+          <t>2026-02-23 23:33:14</t>
         </is>
       </c>
     </row>
@@ -4839,7 +4839,7 @@
         <v>3.15</v>
       </c>
       <c r="G23" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="H23" t="n">
         <v>2.4</v>
@@ -4977,13 +4977,13 @@
         <v>13</v>
       </c>
       <c r="BA23" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="BB23" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="BC23" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="BD23" t="n">
         <v>9</v>
@@ -4999,7 +4999,7 @@
       </c>
       <c r="BH23" t="inlineStr">
         <is>
-          <t>2026-02-23 21:25:39</t>
+          <t>2026-02-23 23:33:14</t>
         </is>
       </c>
     </row>
@@ -5042,10 +5042,10 @@
         <v>1.48</v>
       </c>
       <c r="J24" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="K24" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="L24" t="n">
         <v>1.01</v>
@@ -5153,7 +5153,7 @@
         <v>4.2</v>
       </c>
       <c r="AU24" t="n">
-        <v>5.8</v>
+        <v>6.8</v>
       </c>
       <c r="AV24" t="n">
         <v>6.6</v>
@@ -5168,7 +5168,7 @@
         <v>20</v>
       </c>
       <c r="AZ24" t="n">
-        <v>2.84</v>
+        <v>13</v>
       </c>
       <c r="BA24" t="n">
         <v>2.9</v>
@@ -5193,7 +5193,7 @@
       </c>
       <c r="BH24" t="inlineStr">
         <is>
-          <t>2026-02-23 21:25:39</t>
+          <t>2026-02-23 23:33:14</t>
         </is>
       </c>
     </row>
@@ -5233,10 +5233,10 @@
         <v>3.3</v>
       </c>
       <c r="I25" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="J25" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="K25" t="n">
         <v>4.1</v>
@@ -5248,19 +5248,19 @@
         <v>1.05</v>
       </c>
       <c r="N25" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="O25" t="n">
         <v>1.22</v>
       </c>
       <c r="P25" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="R25" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="S25" t="n">
         <v>2.52</v>
@@ -5269,10 +5269,10 @@
         <v>1.65</v>
       </c>
       <c r="U25" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="V25" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="W25" t="n">
         <v>1.79</v>
@@ -5281,7 +5281,7 @@
         <v>110</v>
       </c>
       <c r="Y25" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="Z25" t="n">
         <v>85</v>
@@ -5326,34 +5326,34 @@
         <v>580</v>
       </c>
       <c r="AN25" t="n">
-        <v>12.5</v>
+        <v>42</v>
       </c>
       <c r="AO25" t="n">
         <v>1000</v>
       </c>
       <c r="AP25" t="n">
-        <v>8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AQ25" t="n">
+        <v>15</v>
+      </c>
+      <c r="AR25" t="n">
         <v>9</v>
       </c>
-      <c r="AR25" t="n">
-        <v>8.800000000000001</v>
-      </c>
       <c r="AS25" t="n">
-        <v>9.6</v>
+        <v>7</v>
       </c>
       <c r="AT25" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="AU25" t="n">
-        <v>5.6</v>
+        <v>6</v>
       </c>
       <c r="AV25" t="n">
         <v>8.4</v>
       </c>
       <c r="AW25" t="n">
-        <v>9.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="AX25" t="n">
         <v>7.6</v>
@@ -5365,29 +5365,29 @@
         <v>9</v>
       </c>
       <c r="BA25" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="BB25" t="n">
-        <v>8.6</v>
+        <v>9</v>
       </c>
       <c r="BC25" t="n">
-        <v>7.8</v>
+        <v>9</v>
       </c>
       <c r="BD25" t="n">
-        <v>8.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="BE25" t="n">
-        <v>8.4</v>
+        <v>5.8</v>
       </c>
       <c r="BF25" t="n">
         <v>10</v>
       </c>
       <c r="BG25" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="BH25" t="inlineStr">
         <is>
-          <t>2026-02-23 21:25:39</t>
+          <t>2026-02-23 23:33:14</t>
         </is>
       </c>
     </row>
@@ -5424,13 +5424,13 @@
         <v>6</v>
       </c>
       <c r="H26" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="I26" t="n">
         <v>1.78</v>
       </c>
       <c r="J26" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="K26" t="n">
         <v>4.3</v>
@@ -5439,19 +5439,19 @@
         <v>1.36</v>
       </c>
       <c r="M26" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N26" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="O26" t="n">
         <v>1.31</v>
       </c>
       <c r="P26" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="R26" t="n">
         <v>1.35</v>
@@ -5460,7 +5460,7 @@
         <v>3.35</v>
       </c>
       <c r="T26" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="U26" t="n">
         <v>1.94</v>
@@ -5499,7 +5499,7 @@
         <v>120</v>
       </c>
       <c r="AG26" t="n">
-        <v>42</v>
+        <v>970</v>
       </c>
       <c r="AH26" t="n">
         <v>60</v>
@@ -5517,7 +5517,7 @@
         <v>330</v>
       </c>
       <c r="AM26" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AN26" t="n">
         <v>220</v>
@@ -5535,10 +5535,10 @@
         <v>5.4</v>
       </c>
       <c r="AS26" t="n">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="AT26" t="n">
-        <v>7.2</v>
+        <v>8</v>
       </c>
       <c r="AU26" t="n">
         <v>5</v>
@@ -5547,31 +5547,31 @@
         <v>5.4</v>
       </c>
       <c r="AW26" t="n">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="AX26" t="n">
-        <v>4.3</v>
+        <v>3.5</v>
       </c>
       <c r="AY26" t="n">
         <v>7.4</v>
       </c>
       <c r="AZ26" t="n">
-        <v>3.9</v>
+        <v>3.2</v>
       </c>
       <c r="BA26" t="n">
-        <v>3.4</v>
+        <v>2.88</v>
       </c>
       <c r="BB26" t="n">
-        <v>3.4</v>
+        <v>3.05</v>
       </c>
       <c r="BC26" t="n">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="BD26" t="n">
-        <v>4.4</v>
+        <v>3.65</v>
       </c>
       <c r="BE26" t="n">
-        <v>3.4</v>
+        <v>2.74</v>
       </c>
       <c r="BF26" t="n">
         <v>10</v>
@@ -5581,7 +5581,7 @@
       </c>
       <c r="BH26" t="inlineStr">
         <is>
-          <t>2026-02-23 21:25:39</t>
+          <t>2026-02-23 23:33:14</t>
         </is>
       </c>
     </row>
@@ -5612,7 +5612,7 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="G27" t="n">
         <v>2.54</v>
@@ -5663,7 +5663,7 @@
         <v>1.44</v>
       </c>
       <c r="W27" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="X27" t="n">
         <v>970</v>
@@ -5675,7 +5675,7 @@
         <v>28</v>
       </c>
       <c r="AA27" t="n">
-        <v>120</v>
+        <v>55</v>
       </c>
       <c r="AB27" t="n">
         <v>15</v>
@@ -5699,16 +5699,16 @@
         <v>19</v>
       </c>
       <c r="AI27" t="n">
-        <v>130</v>
+        <v>500</v>
       </c>
       <c r="AJ27" t="n">
         <v>42</v>
       </c>
       <c r="AK27" t="n">
-        <v>60</v>
+        <v>500</v>
       </c>
       <c r="AL27" t="n">
-        <v>85</v>
+        <v>500</v>
       </c>
       <c r="AM27" t="n">
         <v>330</v>
@@ -5717,25 +5717,25 @@
         <v>19.5</v>
       </c>
       <c r="AO27" t="n">
-        <v>28</v>
+        <v>500</v>
       </c>
       <c r="AP27" t="n">
-        <v>4.1</v>
+        <v>2.76</v>
       </c>
       <c r="AQ27" t="n">
-        <v>4.2</v>
+        <v>2.54</v>
       </c>
       <c r="AR27" t="n">
-        <v>3.55</v>
+        <v>2.5</v>
       </c>
       <c r="AS27" t="n">
-        <v>2.72</v>
+        <v>2.6</v>
       </c>
       <c r="AT27" t="n">
         <v>9.6</v>
       </c>
       <c r="AU27" t="n">
-        <v>7</v>
+        <v>4.4</v>
       </c>
       <c r="AV27" t="n">
         <v>9.800000000000001</v>
@@ -5750,32 +5750,32 @@
         <v>6.4</v>
       </c>
       <c r="AZ27" t="n">
-        <v>4.3</v>
+        <v>2.4</v>
       </c>
       <c r="BA27" t="n">
-        <v>2.78</v>
+        <v>2.66</v>
       </c>
       <c r="BB27" t="n">
-        <v>2.86</v>
+        <v>2.58</v>
       </c>
       <c r="BC27" t="n">
         <v>17.5</v>
       </c>
       <c r="BD27" t="n">
-        <v>2.94</v>
+        <v>2.62</v>
       </c>
       <c r="BE27" t="n">
-        <v>5.3</v>
+        <v>2.68</v>
       </c>
       <c r="BF27" t="n">
         <v>12</v>
       </c>
       <c r="BG27" t="n">
-        <v>2.6</v>
+        <v>14.5</v>
       </c>
       <c r="BH27" t="inlineStr">
         <is>
-          <t>2026-02-23 21:25:39</t>
+          <t>2026-02-23 23:33:14</t>
         </is>
       </c>
     </row>
@@ -5806,16 +5806,16 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="G28" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="H28" t="n">
         <v>1.88</v>
       </c>
       <c r="I28" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="J28" t="n">
         <v>4.3</v>
@@ -5836,7 +5836,7 @@
         <v>1.16</v>
       </c>
       <c r="P28" t="n">
-        <v>2.72</v>
+        <v>2.76</v>
       </c>
       <c r="Q28" t="n">
         <v>1.48</v>
@@ -5851,7 +5851,7 @@
         <v>1.53</v>
       </c>
       <c r="U28" t="n">
-        <v>2.52</v>
+        <v>2.6</v>
       </c>
       <c r="V28" t="n">
         <v>2.06</v>
@@ -5866,7 +5866,7 @@
         <v>32</v>
       </c>
       <c r="Z28" t="n">
-        <v>970</v>
+        <v>34</v>
       </c>
       <c r="AA28" t="n">
         <v>90</v>
@@ -5887,7 +5887,7 @@
         <v>100</v>
       </c>
       <c r="AG28" t="n">
-        <v>27</v>
+        <v>970</v>
       </c>
       <c r="AH28" t="n">
         <v>38</v>
@@ -5896,25 +5896,25 @@
         <v>55</v>
       </c>
       <c r="AJ28" t="n">
-        <v>190</v>
+        <v>500</v>
       </c>
       <c r="AK28" t="n">
         <v>170</v>
       </c>
       <c r="AL28" t="n">
-        <v>130</v>
+        <v>500</v>
       </c>
       <c r="AM28" t="n">
         <v>580</v>
       </c>
       <c r="AN28" t="n">
-        <v>230</v>
+        <v>500</v>
       </c>
       <c r="AO28" t="n">
         <v>25</v>
       </c>
       <c r="AP28" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AQ28" t="n">
         <v>8.4</v>
@@ -5926,10 +5926,10 @@
         <v>7</v>
       </c>
       <c r="AT28" t="n">
-        <v>11.5</v>
+        <v>8</v>
       </c>
       <c r="AU28" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="AV28" t="n">
         <v>6.2</v>
@@ -5938,38 +5938,38 @@
         <v>7</v>
       </c>
       <c r="AX28" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AY28" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AZ28" t="n">
         <v>8.4</v>
       </c>
       <c r="BA28" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="BB28" t="n">
-        <v>6.2</v>
+        <v>5.2</v>
       </c>
       <c r="BC28" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="BD28" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="BE28" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="BF28" t="n">
-        <v>7.8</v>
+        <v>20</v>
       </c>
       <c r="BG28" t="n">
         <v>6.4</v>
       </c>
       <c r="BH28" t="inlineStr">
         <is>
-          <t>2026-02-23 21:25:39</t>
+          <t>2026-02-23 23:33:14</t>
         </is>
       </c>
     </row>
@@ -6000,7 +6000,7 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="G29" t="n">
         <v>2.64</v>
@@ -6018,7 +6018,7 @@
         <v>4.3</v>
       </c>
       <c r="L29" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="M29" t="n">
         <v>1.06</v>
@@ -6090,7 +6090,7 @@
         <v>1000</v>
       </c>
       <c r="AJ29" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AK29" t="n">
         <v>1000</v>
@@ -6138,10 +6138,10 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AZ29" t="n">
-        <v>4.6</v>
+        <v>2.12</v>
       </c>
       <c r="BA29" t="n">
-        <v>3.75</v>
+        <v>2.3</v>
       </c>
       <c r="BB29" t="n">
         <v>21</v>
@@ -6150,10 +6150,10 @@
         <v>18</v>
       </c>
       <c r="BD29" t="n">
-        <v>2.66</v>
+        <v>2.26</v>
       </c>
       <c r="BE29" t="n">
-        <v>3.55</v>
+        <v>2.32</v>
       </c>
       <c r="BF29" t="n">
         <v>4.4</v>
@@ -6163,7 +6163,7 @@
       </c>
       <c r="BH29" t="inlineStr">
         <is>
-          <t>2026-02-23 21:25:39</t>
+          <t>2026-02-23 23:33:14</t>
         </is>
       </c>
     </row>
@@ -6194,7 +6194,7 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.59</v>
+        <v>1.61</v>
       </c>
       <c r="G30" t="n">
         <v>1.64</v>
@@ -6212,7 +6212,7 @@
         <v>4.8</v>
       </c>
       <c r="L30" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="M30" t="n">
         <v>1.04</v>
@@ -6224,16 +6224,16 @@
         <v>1.22</v>
       </c>
       <c r="P30" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="R30" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="S30" t="n">
-        <v>2.66</v>
+        <v>2.62</v>
       </c>
       <c r="T30" t="n">
         <v>1.74</v>
@@ -6242,7 +6242,7 @@
         <v>2.16</v>
       </c>
       <c r="V30" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="W30" t="n">
         <v>2.56</v>
@@ -6251,7 +6251,7 @@
         <v>90</v>
       </c>
       <c r="Y30" t="n">
-        <v>970</v>
+        <v>55</v>
       </c>
       <c r="Z30" t="n">
         <v>230</v>
@@ -6260,7 +6260,7 @@
         <v>170</v>
       </c>
       <c r="AB30" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AC30" t="n">
         <v>14</v>
@@ -6302,49 +6302,49 @@
         <v>220</v>
       </c>
       <c r="AP30" t="n">
-        <v>8</v>
+        <v>8.6</v>
       </c>
       <c r="AQ30" t="n">
-        <v>8.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="AR30" t="n">
-        <v>5.3</v>
+        <v>4.2</v>
       </c>
       <c r="AS30" t="n">
         <v>4.2</v>
       </c>
       <c r="AT30" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="AU30" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="AV30" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AW30" t="n">
-        <v>4.5</v>
+        <v>11</v>
       </c>
       <c r="AX30" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="AY30" t="n">
         <v>5.8</v>
       </c>
       <c r="AZ30" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="BA30" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="BB30" t="n">
-        <v>6.4</v>
+        <v>4.9</v>
       </c>
       <c r="BC30" t="n">
-        <v>6.8</v>
+        <v>5.9</v>
       </c>
       <c r="BD30" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="BE30" t="n">
         <v>11</v>
@@ -6353,11 +6353,11 @@
         <v>4.6</v>
       </c>
       <c r="BG30" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="BH30" t="inlineStr">
         <is>
-          <t>2026-02-23 21:25:39</t>
+          <t>2026-02-23 23:33:14</t>
         </is>
       </c>
     </row>
@@ -6415,10 +6415,10 @@
         <v>2.42</v>
       </c>
       <c r="O31" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="P31" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="Q31" t="n">
         <v>3</v>
@@ -6442,28 +6442,28 @@
         <v>1.8</v>
       </c>
       <c r="X31" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="Y31" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="Z31" t="n">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="AA31" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AB31" t="n">
         <v>6.4</v>
       </c>
       <c r="AC31" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AD31" t="n">
         <v>21</v>
       </c>
       <c r="AE31" t="n">
-        <v>1000</v>
+        <v>310</v>
       </c>
       <c r="AF31" t="n">
         <v>11.5</v>
@@ -6475,25 +6475,25 @@
         <v>55</v>
       </c>
       <c r="AI31" t="n">
-        <v>1000</v>
+        <v>420</v>
       </c>
       <c r="AJ31" t="n">
         <v>32</v>
       </c>
       <c r="AK31" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AL31" t="n">
         <v>85</v>
       </c>
       <c r="AM31" t="n">
-        <v>310</v>
+        <v>500</v>
       </c>
       <c r="AN31" t="n">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="AO31" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AP31" t="n">
         <v>7</v>
@@ -6502,31 +6502,31 @@
         <v>9.4</v>
       </c>
       <c r="AR31" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AS31" t="n">
         <v>40</v>
       </c>
       <c r="AT31" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="AU31" t="n">
         <v>6.6</v>
       </c>
       <c r="AV31" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AW31" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AX31" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AY31" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AZ31" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BA31" t="n">
         <v>42</v>
@@ -6535,10 +6535,10 @@
         <v>19</v>
       </c>
       <c r="BC31" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="BD31" t="n">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="BE31" t="n">
         <v>65</v>
@@ -6551,7 +6551,7 @@
       </c>
       <c r="BH31" t="inlineStr">
         <is>
-          <t>2026-02-23 21:25:39</t>
+          <t>2026-02-23 23:33:14</t>
         </is>
       </c>
     </row>
@@ -6624,10 +6624,10 @@
         <v>1.75</v>
       </c>
       <c r="T32" t="n">
-        <v>2.02</v>
+        <v>1.99</v>
       </c>
       <c r="U32" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="V32" t="n">
         <v>1.05</v>
@@ -6648,16 +6648,16 @@
         <v>1000</v>
       </c>
       <c r="AB32" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AC32" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AD32" t="n">
         <v>65</v>
       </c>
       <c r="AE32" t="n">
-        <v>310</v>
+        <v>290</v>
       </c>
       <c r="AF32" t="n">
         <v>11</v>
@@ -6672,46 +6672,46 @@
         <v>160</v>
       </c>
       <c r="AJ32" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AK32" t="n">
         <v>13</v>
       </c>
       <c r="AL32" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AM32" t="n">
-        <v>390</v>
+        <v>150</v>
       </c>
       <c r="AN32" t="n">
         <v>2.46</v>
       </c>
       <c r="AO32" t="n">
-        <v>270</v>
+        <v>290</v>
       </c>
       <c r="AP32" t="n">
         <v>50</v>
       </c>
       <c r="AQ32" t="n">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="AR32" t="n">
         <v>85</v>
       </c>
       <c r="AS32" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AT32" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AU32" t="n">
         <v>23</v>
       </c>
       <c r="AV32" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AW32" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="AX32" t="n">
         <v>10</v>
@@ -6720,10 +6720,10 @@
         <v>13</v>
       </c>
       <c r="AZ32" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="BA32" t="n">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="BB32" t="n">
         <v>9</v>
@@ -6735,17 +6735,17 @@
         <v>32</v>
       </c>
       <c r="BE32" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="BF32" t="n">
         <v>2.38</v>
       </c>
       <c r="BG32" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="BH32" t="inlineStr">
         <is>
-          <t>2026-02-23 21:25:39</t>
+          <t>2026-02-23 23:33:14</t>
         </is>
       </c>
     </row>
@@ -6782,7 +6782,7 @@
         <v>1.89</v>
       </c>
       <c r="H33" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="I33" t="n">
         <v>4.5</v>
@@ -6806,10 +6806,10 @@
         <v>1.23</v>
       </c>
       <c r="P33" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="R33" t="n">
         <v>1.54</v>
@@ -6821,7 +6821,7 @@
         <v>1.69</v>
       </c>
       <c r="U33" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="V33" t="n">
         <v>1.28</v>
@@ -6830,7 +6830,7 @@
         <v>2.12</v>
       </c>
       <c r="X33" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y33" t="n">
         <v>19.5</v>
@@ -6845,7 +6845,7 @@
         <v>11.5</v>
       </c>
       <c r="AC33" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AD33" t="n">
         <v>17</v>
@@ -6884,7 +6884,7 @@
         <v>40</v>
       </c>
       <c r="AP33" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AQ33" t="n">
         <v>17.5</v>
@@ -6893,7 +6893,7 @@
         <v>30</v>
       </c>
       <c r="AS33" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="AT33" t="n">
         <v>10.5</v>
@@ -6902,13 +6902,13 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AV33" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AW33" t="n">
         <v>42</v>
       </c>
       <c r="AX33" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AY33" t="n">
         <v>9.800000000000001</v>
@@ -6939,7 +6939,7 @@
       </c>
       <c r="BH33" t="inlineStr">
         <is>
-          <t>2026-02-23 21:25:39</t>
+          <t>2026-02-23 23:33:14</t>
         </is>
       </c>
     </row>
@@ -7060,25 +7060,25 @@
         <v>95</v>
       </c>
       <c r="AJ34" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AK34" t="n">
         <v>12</v>
       </c>
       <c r="AL34" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AM34" t="n">
         <v>95</v>
       </c>
       <c r="AN34" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="AO34" t="n">
         <v>100</v>
       </c>
       <c r="AP34" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AQ34" t="n">
         <v>48</v>
@@ -7096,10 +7096,10 @@
         <v>17</v>
       </c>
       <c r="AV34" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AW34" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AX34" t="n">
         <v>10.5</v>
@@ -7111,10 +7111,10 @@
         <v>23</v>
       </c>
       <c r="BA34" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="BB34" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="BC34" t="n">
         <v>11</v>
@@ -7133,7 +7133,7 @@
       </c>
       <c r="BH34" t="inlineStr">
         <is>
-          <t>2026-02-23 21:25:39</t>
+          <t>2026-02-23 23:33:14</t>
         </is>
       </c>
     </row>
@@ -7164,7 +7164,7 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="G35" t="n">
         <v>2.02</v>
@@ -7173,13 +7173,13 @@
         <v>4.7</v>
       </c>
       <c r="I35" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="J35" t="n">
         <v>3.25</v>
       </c>
       <c r="K35" t="n">
-        <v>3.7</v>
+        <v>3.55</v>
       </c>
       <c r="L35" t="n">
         <v>1.46</v>
@@ -7197,7 +7197,7 @@
         <v>1.6</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="R35" t="n">
         <v>1.21</v>
@@ -7212,16 +7212,16 @@
         <v>1.76</v>
       </c>
       <c r="V35" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="W35" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="X35" t="n">
         <v>10.5</v>
       </c>
       <c r="Y35" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Z35" t="n">
         <v>40</v>
@@ -7281,7 +7281,7 @@
         <v>14.5</v>
       </c>
       <c r="AS35" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AT35" t="n">
         <v>5.8</v>
@@ -7293,7 +7293,7 @@
         <v>18</v>
       </c>
       <c r="AW35" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AX35" t="n">
         <v>8.800000000000001</v>
@@ -7305,7 +7305,7 @@
         <v>21</v>
       </c>
       <c r="BA35" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="BB35" t="n">
         <v>19</v>
@@ -7314,20 +7314,20 @@
         <v>21</v>
       </c>
       <c r="BD35" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="BE35" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="BF35" t="n">
         <v>17</v>
       </c>
       <c r="BG35" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="BH35" t="inlineStr">
         <is>
-          <t>2026-02-23 21:25:39</t>
+          <t>2026-02-23 23:33:14</t>
         </is>
       </c>
     </row>
@@ -7367,7 +7367,7 @@
         <v>7.4</v>
       </c>
       <c r="I36" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="J36" t="n">
         <v>3.8</v>
@@ -7382,7 +7382,7 @@
         <v>1.08</v>
       </c>
       <c r="N36" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="O36" t="n">
         <v>1.39</v>
@@ -7400,7 +7400,7 @@
         <v>4.1</v>
       </c>
       <c r="T36" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="U36" t="n">
         <v>1.69</v>
@@ -7436,13 +7436,13 @@
         <v>1000</v>
       </c>
       <c r="AF36" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AG36" t="n">
         <v>11</v>
       </c>
       <c r="AH36" t="n">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="AI36" t="n">
         <v>1000</v>
@@ -7472,10 +7472,10 @@
         <v>17.5</v>
       </c>
       <c r="AR36" t="n">
-        <v>7.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AS36" t="n">
-        <v>8.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AT36" t="n">
         <v>5.6</v>
@@ -7487,7 +7487,7 @@
         <v>16</v>
       </c>
       <c r="AW36" t="n">
-        <v>8.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="AX36" t="n">
         <v>7</v>
@@ -7499,7 +7499,7 @@
         <v>16</v>
       </c>
       <c r="BA36" t="n">
-        <v>8.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="BB36" t="n">
         <v>12</v>
@@ -7508,20 +7508,20 @@
         <v>16.5</v>
       </c>
       <c r="BD36" t="n">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="BE36" t="n">
-        <v>8.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="BF36" t="n">
         <v>10</v>
       </c>
       <c r="BG36" t="n">
-        <v>8.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="BH36" t="inlineStr">
         <is>
-          <t>2026-02-23 21:25:39</t>
+          <t>2026-02-23 23:33:14</t>
         </is>
       </c>
     </row>
@@ -7552,10 +7552,10 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="G37" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="H37" t="n">
         <v>4</v>
@@ -7564,10 +7564,10 @@
         <v>4.3</v>
       </c>
       <c r="J37" t="n">
-        <v>2.96</v>
+        <v>2.94</v>
       </c>
       <c r="K37" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="L37" t="n">
         <v>1.75</v>
@@ -7603,19 +7603,19 @@
         <v>1.3</v>
       </c>
       <c r="W37" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="X37" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="Y37" t="n">
         <v>9</v>
       </c>
       <c r="Z37" t="n">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="AA37" t="n">
-        <v>1000</v>
+        <v>270</v>
       </c>
       <c r="AB37" t="n">
         <v>5.9</v>
@@ -7627,10 +7627,10 @@
         <v>21</v>
       </c>
       <c r="AE37" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="AF37" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AG37" t="n">
         <v>14</v>
@@ -7639,7 +7639,7 @@
         <v>85</v>
       </c>
       <c r="AI37" t="n">
-        <v>380</v>
+        <v>500</v>
       </c>
       <c r="AJ37" t="n">
         <v>65</v>
@@ -7651,28 +7651,28 @@
         <v>260</v>
       </c>
       <c r="AM37" t="n">
-        <v>430</v>
+        <v>500</v>
       </c>
       <c r="AN37" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AO37" t="n">
         <v>1000</v>
       </c>
       <c r="AP37" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="AQ37" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AR37" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AS37" t="n">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="AT37" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="AU37" t="n">
         <v>6.8</v>
@@ -7681,22 +7681,22 @@
         <v>18.5</v>
       </c>
       <c r="AW37" t="n">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="AX37" t="n">
         <v>11</v>
       </c>
       <c r="AY37" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AZ37" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BA37" t="n">
         <v>44</v>
       </c>
       <c r="BB37" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BC37" t="n">
         <v>25</v>
@@ -7715,7 +7715,7 @@
       </c>
       <c r="BH37" t="inlineStr">
         <is>
-          <t>2026-02-23 21:25:39</t>
+          <t>2026-02-23 23:33:14</t>
         </is>
       </c>
     </row>
@@ -7746,61 +7746,61 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="G38" t="n">
         <v>3.75</v>
       </c>
       <c r="H38" t="n">
-        <v>2.48</v>
+        <v>2.52</v>
       </c>
       <c r="I38" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="J38" t="n">
         <v>2.88</v>
       </c>
       <c r="K38" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="L38" t="n">
         <v>1.71</v>
       </c>
       <c r="M38" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="N38" t="n">
-        <v>2.24</v>
+        <v>2.3</v>
       </c>
       <c r="O38" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="P38" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="Q38" t="n">
         <v>3.25</v>
       </c>
       <c r="R38" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="S38" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="T38" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="U38" t="n">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="V38" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="W38" t="n">
         <v>1.36</v>
       </c>
       <c r="X38" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="Y38" t="n">
         <v>6.6</v>
@@ -7809,28 +7809,28 @@
         <v>14</v>
       </c>
       <c r="AA38" t="n">
-        <v>170</v>
+        <v>85</v>
       </c>
       <c r="AB38" t="n">
         <v>8.6</v>
       </c>
       <c r="AC38" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AD38" t="n">
         <v>14</v>
       </c>
       <c r="AE38" t="n">
-        <v>48</v>
+        <v>170</v>
       </c>
       <c r="AF38" t="n">
         <v>23</v>
       </c>
       <c r="AG38" t="n">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="AH38" t="n">
-        <v>260</v>
+        <v>50</v>
       </c>
       <c r="AI38" t="n">
         <v>230</v>
@@ -7839,31 +7839,31 @@
         <v>1000</v>
       </c>
       <c r="AK38" t="n">
-        <v>250</v>
+        <v>190</v>
       </c>
       <c r="AL38" t="n">
         <v>340</v>
       </c>
       <c r="AM38" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="AN38" t="n">
         <v>1000</v>
       </c>
       <c r="AO38" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AP38" t="n">
         <v>6.4</v>
       </c>
       <c r="AQ38" t="n">
-        <v>5.9</v>
+        <v>6.2</v>
       </c>
       <c r="AR38" t="n">
         <v>12</v>
       </c>
       <c r="AS38" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="AT38" t="n">
         <v>7.6</v>
@@ -7872,7 +7872,7 @@
         <v>6.2</v>
       </c>
       <c r="AV38" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AW38" t="n">
         <v>32</v>
@@ -7884,32 +7884,32 @@
         <v>15</v>
       </c>
       <c r="AZ38" t="n">
-        <v>14.5</v>
+        <v>19.5</v>
       </c>
       <c r="BA38" t="n">
-        <v>12.5</v>
+        <v>38</v>
       </c>
       <c r="BB38" t="n">
-        <v>12.5</v>
+        <v>34</v>
       </c>
       <c r="BC38" t="n">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="BD38" t="n">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="BE38" t="n">
-        <v>14</v>
+        <v>110</v>
       </c>
       <c r="BF38" t="n">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="BG38" t="n">
-        <v>11.5</v>
+        <v>27</v>
       </c>
       <c r="BH38" t="inlineStr">
         <is>
-          <t>2026-02-23 21:25:39</t>
+          <t>2026-02-23 23:33:14</t>
         </is>
       </c>
     </row>
@@ -7943,13 +7943,13 @@
         <v>1.86</v>
       </c>
       <c r="G39" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="H39" t="n">
         <v>5.2</v>
       </c>
       <c r="I39" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="J39" t="n">
         <v>3.5</v>
@@ -7958,13 +7958,13 @@
         <v>3.55</v>
       </c>
       <c r="L39" t="n">
-        <v>1.5</v>
+        <v>1.01</v>
       </c>
       <c r="M39" t="n">
         <v>1.11</v>
       </c>
       <c r="N39" t="n">
-        <v>2.82</v>
+        <v>2.86</v>
       </c>
       <c r="O39" t="n">
         <v>1.5</v>
@@ -7985,10 +7985,10 @@
         <v>2.2</v>
       </c>
       <c r="U39" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="V39" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="W39" t="n">
         <v>2.1</v>
@@ -8009,7 +8009,7 @@
         <v>6.6</v>
       </c>
       <c r="AC39" t="n">
-        <v>7.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD39" t="n">
         <v>23</v>
@@ -8018,7 +8018,7 @@
         <v>100</v>
       </c>
       <c r="AF39" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AG39" t="n">
         <v>11</v>
@@ -8027,34 +8027,34 @@
         <v>27</v>
       </c>
       <c r="AI39" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AJ39" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="AK39" t="n">
         <v>25</v>
       </c>
       <c r="AL39" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AM39" t="n">
         <v>210</v>
       </c>
       <c r="AN39" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AO39" t="n">
         <v>160</v>
       </c>
       <c r="AP39" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AQ39" t="n">
         <v>12.5</v>
       </c>
       <c r="AR39" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AS39" t="n">
         <v>42</v>
@@ -8084,7 +8084,7 @@
         <v>42</v>
       </c>
       <c r="BB39" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="BC39" t="n">
         <v>21</v>
@@ -8103,7 +8103,7 @@
       </c>
       <c r="BH39" t="inlineStr">
         <is>
-          <t>2026-02-23 21:25:39</t>
+          <t>2026-02-23 23:33:14</t>
         </is>
       </c>
     </row>
@@ -8137,10 +8137,10 @@
         <v>3.75</v>
       </c>
       <c r="G40" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="H40" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="I40" t="n">
         <v>2.46</v>
@@ -8155,19 +8155,19 @@
         <v>1.01</v>
       </c>
       <c r="M40" t="n">
-        <v>1.14</v>
+        <v>1.01</v>
       </c>
       <c r="N40" t="n">
-        <v>2.4</v>
+        <v>2.36</v>
       </c>
       <c r="O40" t="n">
-        <v>1.54</v>
+        <v>1.62</v>
       </c>
       <c r="P40" t="n">
         <v>1.47</v>
       </c>
       <c r="Q40" t="n">
-        <v>2.5</v>
+        <v>2.84</v>
       </c>
       <c r="R40" t="n">
         <v>1.15</v>
@@ -8275,7 +8275,7 @@
         <v>6.8</v>
       </c>
       <c r="BA40" t="n">
-        <v>48</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="BB40" t="n">
         <v>8.6</v>
@@ -8297,7 +8297,7 @@
       </c>
       <c r="BH40" t="inlineStr">
         <is>
-          <t>2026-02-23 21:25:39</t>
+          <t>2026-02-23 23:33:14</t>
         </is>
       </c>
     </row>
@@ -8355,19 +8355,19 @@
         <v>1.24</v>
       </c>
       <c r="O41" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="P41" t="n">
         <v>1.24</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="R41" t="n">
         <v>1.18</v>
       </c>
       <c r="S41" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="T41" t="n">
         <v>1.05</v>
@@ -8491,7 +8491,7 @@
       </c>
       <c r="BH41" t="inlineStr">
         <is>
-          <t>2026-02-23 21:25:39</t>
+          <t>2026-02-23 23:33:14</t>
         </is>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-24.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-24.xlsx
@@ -762,76 +762,76 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="G2" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="H2" t="n">
-        <v>1.96</v>
+        <v>2.02</v>
       </c>
       <c r="I2" t="n">
-        <v>2.18</v>
+        <v>2.12</v>
       </c>
       <c r="J2" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K2" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="L2" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N2" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="O2" t="n">
         <v>1.56</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="N2" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1.53</v>
       </c>
       <c r="P2" t="n">
         <v>1.52</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.6</v>
+        <v>2.74</v>
       </c>
       <c r="R2" t="n">
         <v>1.18</v>
       </c>
       <c r="S2" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="T2" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="U2" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="V2" t="n">
-        <v>1.85</v>
+        <v>1.89</v>
       </c>
       <c r="W2" t="n">
-        <v>1.22</v>
+        <v>1.26</v>
       </c>
       <c r="X2" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y2" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="Z2" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AA2" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="AB2" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AC2" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AD2" t="n">
         <v>12</v>
@@ -840,19 +840,19 @@
         <v>32</v>
       </c>
       <c r="AF2" t="n">
-        <v>38</v>
+        <v>110</v>
       </c>
       <c r="AG2" t="n">
         <v>22</v>
       </c>
       <c r="AH2" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AI2" t="n">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AK2" t="n">
         <v>1000</v>
@@ -870,7 +870,7 @@
         <v>600</v>
       </c>
       <c r="AP2" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AQ2" t="n">
         <v>5.5</v>
@@ -882,10 +882,10 @@
         <v>12</v>
       </c>
       <c r="AT2" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AU2" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="AV2" t="n">
         <v>9.6</v>
@@ -894,7 +894,7 @@
         <v>13</v>
       </c>
       <c r="AX2" t="n">
-        <v>6.8</v>
+        <v>16</v>
       </c>
       <c r="AY2" t="n">
         <v>17</v>
@@ -903,29 +903,29 @@
         <v>22</v>
       </c>
       <c r="BA2" t="n">
-        <v>8.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="BB2" t="n">
-        <v>7.8</v>
+        <v>10</v>
       </c>
       <c r="BC2" t="n">
-        <v>8</v>
+        <v>9.6</v>
       </c>
       <c r="BD2" t="n">
-        <v>7.8</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="BE2" t="n">
-        <v>8</v>
+        <v>130</v>
       </c>
       <c r="BF2" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BG2" t="n">
-        <v>9.199999999999999</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="BH2" t="inlineStr">
         <is>
-          <t>2026-02-23 23:33:14</t>
+          <t>2026-02-24 01:41:16</t>
         </is>
       </c>
     </row>
@@ -956,103 +956,103 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.45</v>
+        <v>3.95</v>
       </c>
       <c r="G3" t="n">
-        <v>6</v>
+        <v>4.6</v>
       </c>
       <c r="H3" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>2.44</v>
+        <v>2.22</v>
       </c>
       <c r="J3" t="n">
-        <v>2.88</v>
+        <v>3.25</v>
       </c>
       <c r="K3" t="n">
-        <v>5.8</v>
+        <v>3.65</v>
       </c>
       <c r="L3" t="n">
-        <v>1.35</v>
+        <v>1.47</v>
       </c>
       <c r="M3" t="n">
-        <v>1.06</v>
+        <v>1.09</v>
       </c>
       <c r="N3" t="n">
-        <v>2.68</v>
+        <v>3.05</v>
       </c>
       <c r="O3" t="n">
-        <v>1.06</v>
+        <v>1.4</v>
       </c>
       <c r="P3" t="n">
-        <v>1.57</v>
+        <v>1.7</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.96</v>
+        <v>2.22</v>
       </c>
       <c r="R3" t="n">
-        <v>1.16</v>
+        <v>1.27</v>
       </c>
       <c r="S3" t="n">
-        <v>2.68</v>
+        <v>4.2</v>
       </c>
       <c r="T3" t="n">
-        <v>1.05</v>
+        <v>1.9</v>
       </c>
       <c r="U3" t="n">
-        <v>1.05</v>
+        <v>1.89</v>
       </c>
       <c r="V3" t="n">
-        <v>1.69</v>
+        <v>1.82</v>
       </c>
       <c r="W3" t="n">
-        <v>1.23</v>
+        <v>1.27</v>
       </c>
       <c r="X3" t="n">
-        <v>40</v>
+        <v>11.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="Z3" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AA3" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AB3" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AC3" t="n">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="AD3" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AE3" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AF3" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AG3" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AI3" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AJ3" t="n">
         <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AL3" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AM3" t="n">
         <v>1000</v>
@@ -1061,65 +1061,65 @@
         <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AP3" t="n">
-        <v>5.8</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AQ3" t="n">
-        <v>1.18</v>
+        <v>7</v>
       </c>
       <c r="AR3" t="n">
-        <v>1.18</v>
+        <v>10.5</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.18</v>
+        <v>22</v>
       </c>
       <c r="AT3" t="n">
-        <v>1.18</v>
+        <v>11</v>
       </c>
       <c r="AU3" t="n">
-        <v>1.09</v>
+        <v>6.8</v>
       </c>
       <c r="AV3" t="n">
-        <v>1.18</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AW3" t="n">
-        <v>1.18</v>
+        <v>21</v>
       </c>
       <c r="AX3" t="n">
-        <v>1.18</v>
+        <v>8</v>
       </c>
       <c r="AY3" t="n">
-        <v>1.18</v>
+        <v>15</v>
       </c>
       <c r="AZ3" t="n">
-        <v>1.18</v>
+        <v>18</v>
       </c>
       <c r="BA3" t="n">
-        <v>1.18</v>
+        <v>36</v>
       </c>
       <c r="BB3" t="n">
-        <v>1.18</v>
+        <v>9.6</v>
       </c>
       <c r="BC3" t="n">
-        <v>1.18</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="BD3" t="n">
-        <v>1.18</v>
+        <v>9.4</v>
       </c>
       <c r="BE3" t="n">
-        <v>1.18</v>
+        <v>10</v>
       </c>
       <c r="BF3" t="n">
-        <v>1.55</v>
+        <v>9.4</v>
       </c>
       <c r="BG3" t="n">
-        <v>1.55</v>
+        <v>17</v>
       </c>
       <c r="BH3" t="inlineStr">
         <is>
-          <t>2026-02-23 23:33:14</t>
+          <t>2026-02-24 01:41:16</t>
         </is>
       </c>
     </row>
@@ -1150,67 +1150,67 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.52</v>
+        <v>1.56</v>
       </c>
       <c r="G4" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="H4" t="n">
         <v>6.6</v>
       </c>
       <c r="I4" t="n">
-        <v>9</v>
+        <v>7.6</v>
       </c>
       <c r="J4" t="n">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="K4" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="L4" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="M4" t="n">
         <v>1.06</v>
       </c>
       <c r="N4" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="O4" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P4" t="n">
-        <v>1.96</v>
+        <v>2.02</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.86</v>
+        <v>1.92</v>
       </c>
       <c r="R4" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="S4" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="T4" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="U4" t="n">
         <v>1.86</v>
       </c>
       <c r="V4" t="n">
-        <v>1.13</v>
+        <v>1.16</v>
       </c>
       <c r="W4" t="n">
-        <v>2.58</v>
+        <v>2.66</v>
       </c>
       <c r="X4" t="n">
-        <v>980</v>
+        <v>90</v>
       </c>
       <c r="Y4" t="n">
         <v>980</v>
       </c>
       <c r="Z4" t="n">
-        <v>190</v>
+        <v>500</v>
       </c>
       <c r="AA4" t="n">
         <v>1000</v>
@@ -1219,13 +1219,13 @@
         <v>15</v>
       </c>
       <c r="AC4" t="n">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="AD4" t="n">
         <v>980</v>
       </c>
       <c r="AE4" t="n">
-        <v>130</v>
+        <v>700</v>
       </c>
       <c r="AF4" t="n">
         <v>500</v>
@@ -1237,7 +1237,7 @@
         <v>980</v>
       </c>
       <c r="AI4" t="n">
-        <v>290</v>
+        <v>700</v>
       </c>
       <c r="AJ4" t="n">
         <v>980</v>
@@ -1261,59 +1261,59 @@
         <v>9.6</v>
       </c>
       <c r="AQ4" t="n">
-        <v>6.8</v>
+        <v>4.7</v>
       </c>
       <c r="AR4" t="n">
         <v>4.2</v>
       </c>
       <c r="AS4" t="n">
-        <v>4.2</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AT4" t="n">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="AU4" t="n">
         <v>7</v>
       </c>
       <c r="AV4" t="n">
-        <v>6.2</v>
+        <v>4.8</v>
       </c>
       <c r="AW4" t="n">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="AX4" t="n">
-        <v>4.8</v>
+        <v>5.1</v>
       </c>
       <c r="AY4" t="n">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="AZ4" t="n">
-        <v>6.8</v>
+        <v>14.5</v>
       </c>
       <c r="BA4" t="n">
         <v>4.2</v>
       </c>
       <c r="BB4" t="n">
-        <v>5.8</v>
+        <v>6.2</v>
       </c>
       <c r="BC4" t="n">
-        <v>5.5</v>
+        <v>6.6</v>
       </c>
       <c r="BD4" t="n">
-        <v>3.85</v>
+        <v>3.2</v>
       </c>
       <c r="BE4" t="n">
-        <v>7.6</v>
+        <v>5.6</v>
       </c>
       <c r="BF4" t="n">
         <v>6.8</v>
       </c>
       <c r="BG4" t="n">
-        <v>4.2</v>
+        <v>9</v>
       </c>
       <c r="BH4" t="inlineStr">
         <is>
-          <t>2026-02-23 23:33:14</t>
+          <t>2026-02-24 01:41:16</t>
         </is>
       </c>
     </row>
@@ -1344,25 +1344,25 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="G5" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="H5" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="I5" t="n">
         <v>7.6</v>
       </c>
-      <c r="I5" t="n">
-        <v>7.8</v>
-      </c>
       <c r="J5" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="K5" t="n">
         <v>5.8</v>
       </c>
-      <c r="K5" t="n">
-        <v>5.9</v>
-      </c>
       <c r="L5" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="M5" t="n">
         <v>1.03</v>
@@ -1377,25 +1377,25 @@
         <v>3</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="R5" t="n">
         <v>1.79</v>
       </c>
       <c r="S5" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="T5" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="U5" t="n">
         <v>2.34</v>
       </c>
       <c r="V5" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="W5" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="X5" t="n">
         <v>34</v>
@@ -1410,10 +1410,10 @@
         <v>220</v>
       </c>
       <c r="AB5" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AC5" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AD5" t="n">
         <v>28</v>
@@ -1425,7 +1425,7 @@
         <v>11</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH5" t="n">
         <v>21</v>
@@ -1443,10 +1443,10 @@
         <v>24</v>
       </c>
       <c r="AM5" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AN5" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="AO5" t="n">
         <v>75</v>
@@ -1458,13 +1458,13 @@
         <v>34</v>
       </c>
       <c r="AR5" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AS5" t="n">
-        <v>65</v>
+        <v>160</v>
       </c>
       <c r="AT5" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AU5" t="n">
         <v>12.5</v>
@@ -1473,7 +1473,7 @@
         <v>26</v>
       </c>
       <c r="AW5" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AX5" t="n">
         <v>10</v>
@@ -1485,7 +1485,7 @@
         <v>20</v>
       </c>
       <c r="BA5" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="BB5" t="n">
         <v>12.5</v>
@@ -1494,7 +1494,7 @@
         <v>13</v>
       </c>
       <c r="BD5" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BE5" t="n">
         <v>70</v>
@@ -1503,11 +1503,11 @@
         <v>4.4</v>
       </c>
       <c r="BG5" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="BH5" t="inlineStr">
         <is>
-          <t>2026-02-23 23:33:14</t>
+          <t>2026-02-24 01:41:16</t>
         </is>
       </c>
     </row>
@@ -1550,40 +1550,40 @@
         <v>2.92</v>
       </c>
       <c r="J6" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="K6" t="n">
         <v>5.8</v>
       </c>
       <c r="L6" t="n">
-        <v>1.33</v>
+        <v>1.01</v>
       </c>
       <c r="M6" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N6" t="n">
         <v>4.3</v>
       </c>
       <c r="O6" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="P6" t="n">
-        <v>2.02</v>
+        <v>1.66</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="R6" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="S6" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="T6" t="n">
-        <v>1.66</v>
+        <v>1.06</v>
       </c>
       <c r="U6" t="n">
-        <v>2.24</v>
+        <v>1.98</v>
       </c>
       <c r="V6" t="n">
         <v>1.52</v>
@@ -1592,44 +1592,44 @@
         <v>1.32</v>
       </c>
       <c r="X6" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="Y6" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="Z6" t="n">
         <v>1000</v>
       </c>
       <c r="AA6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ6" t="n">
         <v>900</v>
       </c>
-      <c r="AB6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>24</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>34</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>1000</v>
-      </c>
       <c r="AK6" t="n">
         <v>1000</v>
       </c>
@@ -1643,65 +1643,65 @@
         <v>1000</v>
       </c>
       <c r="AO6" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AP6" t="n">
-        <v>5.6</v>
+        <v>1.63</v>
       </c>
       <c r="AQ6" t="n">
-        <v>5</v>
+        <v>1.61</v>
       </c>
       <c r="AR6" t="n">
-        <v>5.6</v>
+        <v>1.64</v>
       </c>
       <c r="AS6" t="n">
-        <v>6.6</v>
+        <v>1.69</v>
       </c>
       <c r="AT6" t="n">
-        <v>5.3</v>
+        <v>1.61</v>
       </c>
       <c r="AU6" t="n">
-        <v>4.2</v>
+        <v>1.57</v>
       </c>
       <c r="AV6" t="n">
-        <v>5</v>
+        <v>1.61</v>
       </c>
       <c r="AW6" t="n">
-        <v>6.2</v>
+        <v>1.68</v>
       </c>
       <c r="AX6" t="n">
-        <v>6.2</v>
+        <v>1.66</v>
       </c>
       <c r="AY6" t="n">
-        <v>5.3</v>
+        <v>1.62</v>
       </c>
       <c r="AZ6" t="n">
-        <v>5.6</v>
+        <v>1.61</v>
       </c>
       <c r="BA6" t="n">
-        <v>6.8</v>
+        <v>1.69</v>
       </c>
       <c r="BB6" t="n">
-        <v>7.2</v>
+        <v>1.7</v>
       </c>
       <c r="BC6" t="n">
-        <v>6.8</v>
+        <v>1.69</v>
       </c>
       <c r="BD6" t="n">
-        <v>7</v>
+        <v>1.7</v>
       </c>
       <c r="BE6" t="n">
-        <v>7.6</v>
+        <v>1.71</v>
       </c>
       <c r="BF6" t="n">
-        <v>6.6</v>
+        <v>1.72</v>
       </c>
       <c r="BG6" t="n">
-        <v>5.9</v>
+        <v>1.67</v>
       </c>
       <c r="BH6" t="inlineStr">
         <is>
-          <t>2026-02-23 23:33:14</t>
+          <t>2026-02-24 01:41:16</t>
         </is>
       </c>
     </row>
@@ -1732,25 +1732,25 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.84</v>
+        <v>2.88</v>
       </c>
       <c r="G7" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="H7" t="n">
         <v>2.34</v>
       </c>
       <c r="I7" t="n">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="J7" t="n">
         <v>3.45</v>
       </c>
       <c r="K7" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L7" t="n">
-        <v>1.31</v>
+        <v>1.37</v>
       </c>
       <c r="M7" t="n">
         <v>1.05</v>
@@ -1759,22 +1759,22 @@
         <v>4.3</v>
       </c>
       <c r="O7" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="P7" t="n">
         <v>2.08</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="R7" t="n">
         <v>1.42</v>
       </c>
       <c r="S7" t="n">
-        <v>2.88</v>
+        <v>2.96</v>
       </c>
       <c r="T7" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="U7" t="n">
         <v>2.28</v>
@@ -1783,13 +1783,13 @@
         <v>1.61</v>
       </c>
       <c r="W7" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="X7" t="n">
         <v>22</v>
       </c>
       <c r="Y7" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Z7" t="n">
         <v>18</v>
@@ -1807,7 +1807,7 @@
         <v>12.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="AF7" t="n">
         <v>44</v>
@@ -1819,7 +1819,7 @@
         <v>17</v>
       </c>
       <c r="AI7" t="n">
-        <v>42</v>
+        <v>160</v>
       </c>
       <c r="AJ7" t="n">
         <v>240</v>
@@ -1837,7 +1837,7 @@
         <v>32</v>
       </c>
       <c r="AO7" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AP7" t="n">
         <v>15</v>
@@ -1873,19 +1873,19 @@
         <v>13.5</v>
       </c>
       <c r="BA7" t="n">
-        <v>6</v>
+        <v>6.6</v>
       </c>
       <c r="BB7" t="n">
-        <v>6.2</v>
+        <v>7</v>
       </c>
       <c r="BC7" t="n">
         <v>16</v>
       </c>
       <c r="BD7" t="n">
-        <v>6</v>
+        <v>6.8</v>
       </c>
       <c r="BE7" t="n">
-        <v>6.6</v>
+        <v>7.4</v>
       </c>
       <c r="BF7" t="n">
         <v>18.5</v>
@@ -1895,7 +1895,7 @@
       </c>
       <c r="BH7" t="inlineStr">
         <is>
-          <t>2026-02-23 23:33:14</t>
+          <t>2026-02-24 01:41:16</t>
         </is>
       </c>
     </row>
@@ -1929,43 +1929,43 @@
         <v>1.45</v>
       </c>
       <c r="G8" t="n">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="H8" t="n">
-        <v>5.9</v>
+        <v>4.6</v>
       </c>
       <c r="I8" t="n">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="J8" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="K8" t="n">
-        <v>7.2</v>
+        <v>8.6</v>
       </c>
       <c r="L8" t="n">
-        <v>1.01</v>
+        <v>1.32</v>
       </c>
       <c r="M8" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N8" t="n">
-        <v>3.35</v>
+        <v>4.7</v>
       </c>
       <c r="O8" t="n">
         <v>1.21</v>
       </c>
       <c r="P8" t="n">
-        <v>2.06</v>
+        <v>2.28</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.56</v>
+        <v>1.66</v>
       </c>
       <c r="R8" t="n">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="S8" t="n">
-        <v>2.34</v>
+        <v>2.66</v>
       </c>
       <c r="T8" t="n">
         <v>1.05</v>
@@ -1974,10 +1974,10 @@
         <v>1.05</v>
       </c>
       <c r="V8" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="W8" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="X8" t="n">
         <v>1000</v>
@@ -2089,7 +2089,7 @@
       </c>
       <c r="BH8" t="inlineStr">
         <is>
-          <t>2026-02-23 23:33:14</t>
+          <t>2026-02-24 01:41:16</t>
         </is>
       </c>
     </row>
@@ -2126,40 +2126,40 @@
         <v>1.34</v>
       </c>
       <c r="H9" t="n">
-        <v>5.7</v>
+        <v>7.8</v>
       </c>
       <c r="I9" t="n">
         <v>13</v>
       </c>
       <c r="J9" t="n">
-        <v>5.1</v>
+        <v>5.4</v>
       </c>
       <c r="K9" t="n">
         <v>7.2</v>
       </c>
       <c r="L9" t="n">
-        <v>1.2</v>
+        <v>1.23</v>
       </c>
       <c r="M9" t="n">
         <v>1.02</v>
       </c>
       <c r="N9" t="n">
-        <v>1.1</v>
+        <v>5.3</v>
       </c>
       <c r="O9" t="n">
         <v>1.15</v>
       </c>
       <c r="P9" t="n">
-        <v>2.52</v>
+        <v>2.68</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.45</v>
+        <v>1.41</v>
       </c>
       <c r="R9" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="S9" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="T9" t="n">
         <v>1.87</v>
@@ -2177,7 +2177,7 @@
         <v>34</v>
       </c>
       <c r="Y9" t="n">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="Z9" t="n">
         <v>140</v>
@@ -2192,7 +2192,7 @@
         <v>16</v>
       </c>
       <c r="AD9" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="AE9" t="n">
         <v>1000</v>
@@ -2201,16 +2201,16 @@
         <v>10</v>
       </c>
       <c r="AG9" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AH9" t="n">
         <v>28</v>
       </c>
       <c r="AI9" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AJ9" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AK9" t="n">
         <v>14</v>
@@ -2228,16 +2228,16 @@
         <v>1000</v>
       </c>
       <c r="AP9" t="n">
-        <v>7.8</v>
+        <v>9</v>
       </c>
       <c r="AQ9" t="n">
-        <v>8.6</v>
+        <v>9.6</v>
       </c>
       <c r="AR9" t="n">
-        <v>9.4</v>
+        <v>11</v>
       </c>
       <c r="AS9" t="n">
-        <v>9.800000000000001</v>
+        <v>4.2</v>
       </c>
       <c r="AT9" t="n">
         <v>6.4</v>
@@ -2246,44 +2246,44 @@
         <v>7.6</v>
       </c>
       <c r="AV9" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>11</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AZ9" t="n">
         <v>8.4</v>
       </c>
-      <c r="AW9" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AX9" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="AY9" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AZ9" t="n">
-        <v>7.4</v>
-      </c>
       <c r="BA9" t="n">
-        <v>9.4</v>
+        <v>11</v>
       </c>
       <c r="BB9" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="BC9" t="n">
-        <v>5.9</v>
+        <v>6.4</v>
       </c>
       <c r="BD9" t="n">
-        <v>7.8</v>
+        <v>9</v>
       </c>
       <c r="BE9" t="n">
-        <v>9.4</v>
+        <v>11</v>
       </c>
       <c r="BF9" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="BG9" t="n">
-        <v>9.6</v>
+        <v>11.5</v>
       </c>
       <c r="BH9" t="inlineStr">
         <is>
-          <t>2026-02-23 23:33:14</t>
+          <t>2026-02-24 01:41:16</t>
         </is>
       </c>
     </row>
@@ -2314,7 +2314,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="G10" t="n">
         <v>2.14</v>
@@ -2323,7 +2323,7 @@
         <v>4</v>
       </c>
       <c r="I10" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="J10" t="n">
         <v>3.35</v>
@@ -2332,7 +2332,7 @@
         <v>3.75</v>
       </c>
       <c r="L10" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="M10" t="n">
         <v>1.08</v>
@@ -2344,7 +2344,7 @@
         <v>1.35</v>
       </c>
       <c r="P10" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="Q10" t="n">
         <v>2.04</v>
@@ -2477,7 +2477,7 @@
       </c>
       <c r="BH10" t="inlineStr">
         <is>
-          <t>2026-02-23 23:33:14</t>
+          <t>2026-02-24 01:41:16</t>
         </is>
       </c>
     </row>
@@ -2508,73 +2508,73 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="G11" t="n">
         <v>8</v>
       </c>
       <c r="H11" t="n">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
       <c r="I11" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="J11" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="K11" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="L11" t="n">
-        <v>1.27</v>
+        <v>1.32</v>
       </c>
       <c r="M11" t="n">
         <v>1.04</v>
       </c>
       <c r="N11" t="n">
-        <v>4.8</v>
+        <v>5.1</v>
       </c>
       <c r="O11" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="P11" t="n">
-        <v>2.32</v>
+        <v>2.4</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="R11" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="S11" t="n">
-        <v>2.58</v>
+        <v>2.72</v>
       </c>
       <c r="T11" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="U11" t="n">
         <v>2.16</v>
       </c>
       <c r="V11" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="W11" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="X11" t="n">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="Y11" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="Z11" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AA11" t="n">
         <v>15.5</v>
       </c>
       <c r="AB11" t="n">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="AC11" t="n">
         <v>11.5</v>
@@ -2583,7 +2583,7 @@
         <v>20</v>
       </c>
       <c r="AE11" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AF11" t="n">
         <v>75</v>
@@ -2598,10 +2598,10 @@
         <v>30</v>
       </c>
       <c r="AJ11" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="AK11" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AL11" t="n">
         <v>95</v>
@@ -2613,7 +2613,7 @@
         <v>100</v>
       </c>
       <c r="AO11" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AP11" t="n">
         <v>19</v>
@@ -2622,10 +2622,10 @@
         <v>9</v>
       </c>
       <c r="AR11" t="n">
-        <v>8.6</v>
+        <v>5.6</v>
       </c>
       <c r="AS11" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AT11" t="n">
         <v>22</v>
@@ -2640,19 +2640,19 @@
         <v>13</v>
       </c>
       <c r="AX11" t="n">
-        <v>8.199999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AY11" t="n">
         <v>13</v>
       </c>
       <c r="AZ11" t="n">
-        <v>10.5</v>
+        <v>7.8</v>
       </c>
       <c r="BA11" t="n">
         <v>23</v>
       </c>
       <c r="BB11" t="n">
-        <v>5.1</v>
+        <v>4.2</v>
       </c>
       <c r="BC11" t="n">
         <v>28</v>
@@ -2661,17 +2661,17 @@
         <v>28</v>
       </c>
       <c r="BE11" t="n">
-        <v>8.4</v>
+        <v>10</v>
       </c>
       <c r="BF11" t="n">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="BG11" t="n">
-        <v>5.2</v>
+        <v>5.6</v>
       </c>
       <c r="BH11" t="inlineStr">
         <is>
-          <t>2026-02-23 23:33:14</t>
+          <t>2026-02-24 01:41:16</t>
         </is>
       </c>
     </row>
@@ -2702,58 +2702,58 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.91</v>
+        <v>1.96</v>
       </c>
       <c r="G12" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="H12" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I12" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="J12" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="K12" t="n">
         <v>4</v>
       </c>
       <c r="L12" t="n">
-        <v>1.01</v>
+        <v>1.34</v>
       </c>
       <c r="M12" t="n">
         <v>1.05</v>
       </c>
       <c r="N12" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="O12" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="P12" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.7</v>
+        <v>1.74</v>
       </c>
       <c r="R12" t="n">
-        <v>1.49</v>
+        <v>1.51</v>
       </c>
       <c r="S12" t="n">
-        <v>2.7</v>
+        <v>2.84</v>
       </c>
       <c r="T12" t="n">
         <v>1.7</v>
       </c>
       <c r="U12" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="V12" t="n">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="W12" t="n">
-        <v>2</v>
+        <v>1.97</v>
       </c>
       <c r="X12" t="n">
         <v>21</v>
@@ -2762,25 +2762,25 @@
         <v>19</v>
       </c>
       <c r="Z12" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AA12" t="n">
         <v>900</v>
       </c>
       <c r="AB12" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AD12" t="n">
         <v>17.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AF12" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AG12" t="n">
         <v>11</v>
@@ -2807,10 +2807,10 @@
         <v>11</v>
       </c>
       <c r="AO12" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AP12" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AQ12" t="n">
         <v>15.5</v>
@@ -2819,7 +2819,7 @@
         <v>26</v>
       </c>
       <c r="AS12" t="n">
-        <v>9.4</v>
+        <v>10</v>
       </c>
       <c r="AT12" t="n">
         <v>9.800000000000001</v>
@@ -2840,22 +2840,22 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AZ12" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="BA12" t="n">
-        <v>9.199999999999999</v>
+        <v>10</v>
       </c>
       <c r="BB12" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BC12" t="n">
         <v>16</v>
       </c>
       <c r="BD12" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BE12" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BF12" t="n">
         <v>9</v>
@@ -2865,7 +2865,7 @@
       </c>
       <c r="BH12" t="inlineStr">
         <is>
-          <t>2026-02-23 23:33:14</t>
+          <t>2026-02-24 01:41:16</t>
         </is>
       </c>
     </row>
@@ -2896,46 +2896,46 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="G13" t="n">
         <v>13</v>
       </c>
       <c r="H13" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="I13" t="n">
         <v>1.35</v>
       </c>
       <c r="J13" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="K13" t="n">
         <v>6.4</v>
       </c>
       <c r="L13" t="n">
-        <v>1.01</v>
+        <v>1.27</v>
       </c>
       <c r="M13" t="n">
         <v>1.03</v>
       </c>
       <c r="N13" t="n">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="O13" t="n">
         <v>1.16</v>
       </c>
       <c r="P13" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.48</v>
+        <v>1.52</v>
       </c>
       <c r="R13" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="S13" t="n">
-        <v>2.18</v>
+        <v>2.32</v>
       </c>
       <c r="T13" t="n">
         <v>1.83</v>
@@ -2947,7 +2947,7 @@
         <v>3.85</v>
       </c>
       <c r="W13" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="X13" t="n">
         <v>32</v>
@@ -2962,7 +2962,7 @@
         <v>12</v>
       </c>
       <c r="AB13" t="n">
-        <v>55</v>
+        <v>120</v>
       </c>
       <c r="AC13" t="n">
         <v>15</v>
@@ -2971,7 +2971,7 @@
         <v>11.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AF13" t="n">
         <v>1000</v>
@@ -2983,10 +2983,10 @@
         <v>25</v>
       </c>
       <c r="AI13" t="n">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="AJ13" t="n">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="AK13" t="n">
         <v>170</v>
@@ -2995,16 +2995,16 @@
         <v>130</v>
       </c>
       <c r="AM13" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AN13" t="n">
         <v>1000</v>
       </c>
       <c r="AO13" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="AP13" t="n">
-        <v>9.6</v>
+        <v>25</v>
       </c>
       <c r="AQ13" t="n">
         <v>9.800000000000001</v>
@@ -3016,7 +3016,7 @@
         <v>10</v>
       </c>
       <c r="AT13" t="n">
-        <v>38</v>
+        <v>9.6</v>
       </c>
       <c r="AU13" t="n">
         <v>12</v>
@@ -3028,38 +3028,38 @@
         <v>11</v>
       </c>
       <c r="AX13" t="n">
-        <v>8.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="AY13" t="n">
-        <v>8.199999999999999</v>
+        <v>36</v>
       </c>
       <c r="AZ13" t="n">
         <v>20</v>
       </c>
       <c r="BA13" t="n">
-        <v>8.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="BB13" t="n">
-        <v>9.199999999999999</v>
+        <v>11</v>
       </c>
       <c r="BC13" t="n">
-        <v>9</v>
+        <v>10.5</v>
       </c>
       <c r="BD13" t="n">
-        <v>8.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="BE13" t="n">
-        <v>8.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="BF13" t="n">
-        <v>9.4</v>
+        <v>11</v>
       </c>
       <c r="BG13" t="n">
         <v>3.75</v>
       </c>
       <c r="BH13" t="inlineStr">
         <is>
-          <t>2026-02-23 23:33:14</t>
+          <t>2026-02-24 01:41:16</t>
         </is>
       </c>
     </row>
@@ -3090,46 +3090,46 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="G14" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="H14" t="n">
-        <v>1.97</v>
+        <v>2.02</v>
       </c>
       <c r="I14" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="J14" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="K14" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="L14" t="n">
-        <v>1.01</v>
+        <v>1.3</v>
       </c>
       <c r="M14" t="n">
         <v>1.04</v>
       </c>
       <c r="N14" t="n">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="O14" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="P14" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="S14" t="n">
         <v>2.56</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="S14" t="n">
-        <v>2.46</v>
       </c>
       <c r="T14" t="n">
         <v>1.05</v>
@@ -3138,7 +3138,7 @@
         <v>1.05</v>
       </c>
       <c r="V14" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="W14" t="n">
         <v>1.35</v>
@@ -3253,7 +3253,7 @@
       </c>
       <c r="BH14" t="inlineStr">
         <is>
-          <t>2026-02-23 23:33:14</t>
+          <t>2026-02-24 01:41:16</t>
         </is>
       </c>
     </row>
@@ -3284,61 +3284,61 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="G15" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="H15" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="I15" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="J15" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="K15" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="L15" t="n">
-        <v>1.01</v>
+        <v>1.25</v>
       </c>
       <c r="M15" t="n">
         <v>1.02</v>
       </c>
       <c r="N15" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="O15" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="P15" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S15" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="T15" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="U15" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="V15" t="n">
         <v>1.14</v>
       </c>
-      <c r="P15" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="S15" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="T15" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="U15" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="V15" t="n">
-        <v>1.12</v>
-      </c>
       <c r="W15" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="X15" t="n">
-        <v>36</v>
+        <v>970</v>
       </c>
       <c r="Y15" t="n">
         <v>95</v>
@@ -3347,7 +3347,7 @@
         <v>75</v>
       </c>
       <c r="AA15" t="n">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="AB15" t="n">
         <v>15.5</v>
@@ -3359,22 +3359,22 @@
         <v>32</v>
       </c>
       <c r="AE15" t="n">
-        <v>90</v>
+        <v>510</v>
       </c>
       <c r="AF15" t="n">
         <v>13</v>
       </c>
       <c r="AG15" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AH15" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI15" t="n">
-        <v>75</v>
+        <v>190</v>
       </c>
       <c r="AJ15" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AK15" t="n">
         <v>16</v>
@@ -3386,7 +3386,7 @@
         <v>330</v>
       </c>
       <c r="AN15" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="AO15" t="n">
         <v>75</v>
@@ -3398,13 +3398,13 @@
         <v>26</v>
       </c>
       <c r="AR15" t="n">
-        <v>8.4</v>
+        <v>28</v>
       </c>
       <c r="AS15" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AT15" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AU15" t="n">
         <v>11</v>
@@ -3413,7 +3413,7 @@
         <v>22</v>
       </c>
       <c r="AW15" t="n">
-        <v>7.8</v>
+        <v>9</v>
       </c>
       <c r="AX15" t="n">
         <v>10</v>
@@ -3422,10 +3422,10 @@
         <v>9.4</v>
       </c>
       <c r="AZ15" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BA15" t="n">
-        <v>8.4</v>
+        <v>9</v>
       </c>
       <c r="BB15" t="n">
         <v>12</v>
@@ -3434,20 +3434,20 @@
         <v>12</v>
       </c>
       <c r="BD15" t="n">
-        <v>22</v>
+        <v>19.5</v>
       </c>
       <c r="BE15" t="n">
         <v>21</v>
       </c>
       <c r="BF15" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="BG15" t="n">
         <v>15</v>
       </c>
       <c r="BH15" t="inlineStr">
         <is>
-          <t>2026-02-23 23:33:14</t>
+          <t>2026-02-24 01:41:16</t>
         </is>
       </c>
     </row>
@@ -3478,103 +3478,103 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>9.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="G16" t="n">
         <v>12</v>
       </c>
       <c r="H16" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="I16" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="J16" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="K16" t="n">
         <v>4.3</v>
       </c>
       <c r="L16" t="n">
-        <v>1.43</v>
+        <v>1.51</v>
       </c>
       <c r="M16" t="n">
         <v>1.1</v>
       </c>
       <c r="N16" t="n">
-        <v>2.66</v>
+        <v>3.1</v>
       </c>
       <c r="O16" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="P16" t="n">
-        <v>1.55</v>
+        <v>1.69</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.28</v>
+        <v>2.36</v>
       </c>
       <c r="R16" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="S16" t="n">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="T16" t="n">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="U16" t="n">
-        <v>1.53</v>
+        <v>1.59</v>
       </c>
       <c r="V16" t="n">
-        <v>2.8</v>
+        <v>2.92</v>
       </c>
       <c r="W16" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="X16" t="n">
         <v>11.5</v>
       </c>
       <c r="Y16" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="Z16" t="n">
         <v>7.4</v>
       </c>
       <c r="AA16" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AB16" t="n">
         <v>44</v>
       </c>
       <c r="AC16" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="AD16" t="n">
         <v>11</v>
       </c>
       <c r="AE16" t="n">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="AF16" t="n">
         <v>510</v>
       </c>
       <c r="AG16" t="n">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="AH16" t="n">
-        <v>970</v>
+        <v>95</v>
       </c>
       <c r="AI16" t="n">
-        <v>170</v>
+        <v>380</v>
       </c>
       <c r="AJ16" t="n">
         <v>1000</v>
       </c>
       <c r="AK16" t="n">
+        <v>300</v>
+      </c>
+      <c r="AL16" t="n">
         <v>270</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>250</v>
       </c>
       <c r="AM16" t="n">
         <v>320</v>
@@ -3583,34 +3583,34 @@
         <v>1000</v>
       </c>
       <c r="AO16" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AP16" t="n">
-        <v>5.1</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AQ16" t="n">
-        <v>3.4</v>
+        <v>5.3</v>
       </c>
       <c r="AR16" t="n">
         <v>6.4</v>
       </c>
       <c r="AS16" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AT16" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AU16" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AV16" t="n">
         <v>9.4</v>
       </c>
       <c r="AW16" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="AX16" t="n">
-        <v>7.4</v>
+        <v>11</v>
       </c>
       <c r="AY16" t="n">
         <v>16</v>
@@ -3619,29 +3619,29 @@
         <v>16</v>
       </c>
       <c r="BA16" t="n">
-        <v>6.8</v>
+        <v>10</v>
       </c>
       <c r="BB16" t="n">
-        <v>6.8</v>
+        <v>12.5</v>
       </c>
       <c r="BC16" t="n">
-        <v>6.6</v>
+        <v>12</v>
       </c>
       <c r="BD16" t="n">
-        <v>6.6</v>
+        <v>11.5</v>
       </c>
       <c r="BE16" t="n">
-        <v>6.6</v>
+        <v>12</v>
       </c>
       <c r="BF16" t="n">
-        <v>6.6</v>
+        <v>12</v>
       </c>
       <c r="BG16" t="n">
-        <v>10</v>
+        <v>9.4</v>
       </c>
       <c r="BH16" t="inlineStr">
         <is>
-          <t>2026-02-23 23:33:14</t>
+          <t>2026-02-24 01:41:16</t>
         </is>
       </c>
     </row>
@@ -3675,103 +3675,103 @@
         <v>1.51</v>
       </c>
       <c r="G17" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="H17" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="I17" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="J17" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="K17" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="L17" t="n">
-        <v>1.01</v>
+        <v>1.5</v>
       </c>
       <c r="M17" t="n">
         <v>1.1</v>
       </c>
       <c r="N17" t="n">
-        <v>2.88</v>
+        <v>3.05</v>
       </c>
       <c r="O17" t="n">
         <v>1.47</v>
       </c>
       <c r="P17" t="n">
-        <v>1.64</v>
+        <v>1.7</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.5</v>
+        <v>2.32</v>
       </c>
       <c r="R17" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="S17" t="n">
-        <v>4.9</v>
+        <v>4.6</v>
       </c>
       <c r="T17" t="n">
-        <v>2.5</v>
+        <v>1.05</v>
       </c>
       <c r="U17" t="n">
-        <v>1.59</v>
+        <v>1.05</v>
       </c>
       <c r="V17" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="W17" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="X17" t="n">
-        <v>10.5</v>
+        <v>970</v>
       </c>
       <c r="Y17" t="n">
-        <v>46</v>
+        <v>970</v>
       </c>
       <c r="Z17" t="n">
         <v>510</v>
       </c>
       <c r="AA17" t="n">
-        <v>620</v>
+        <v>1000</v>
       </c>
       <c r="AB17" t="n">
-        <v>5.8</v>
+        <v>970</v>
       </c>
       <c r="AC17" t="n">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="AD17" t="n">
-        <v>110</v>
+        <v>970</v>
       </c>
       <c r="AE17" t="n">
-        <v>270</v>
+        <v>1000</v>
       </c>
       <c r="AF17" t="n">
-        <v>7.4</v>
+        <v>40</v>
       </c>
       <c r="AG17" t="n">
-        <v>10.5</v>
+        <v>40</v>
       </c>
       <c r="AH17" t="n">
-        <v>85</v>
+        <v>970</v>
       </c>
       <c r="AI17" t="n">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="AJ17" t="n">
-        <v>25</v>
+        <v>180</v>
       </c>
       <c r="AK17" t="n">
-        <v>65</v>
+        <v>190</v>
       </c>
       <c r="AL17" t="n">
         <v>380</v>
       </c>
       <c r="AM17" t="n">
-        <v>370</v>
+        <v>580</v>
       </c>
       <c r="AN17" t="n">
         <v>29</v>
@@ -3780,62 +3780,62 @@
         <v>1000</v>
       </c>
       <c r="AP17" t="n">
-        <v>9</v>
+        <v>6.8</v>
       </c>
       <c r="AQ17" t="n">
-        <v>14</v>
+        <v>4.2</v>
       </c>
       <c r="AR17" t="n">
-        <v>12</v>
+        <v>4.2</v>
       </c>
       <c r="AS17" t="n">
-        <v>13.5</v>
+        <v>4.2</v>
       </c>
       <c r="AT17" t="n">
-        <v>5.2</v>
+        <v>3.25</v>
       </c>
       <c r="AU17" t="n">
-        <v>8.4</v>
+        <v>5.1</v>
       </c>
       <c r="AV17" t="n">
-        <v>16</v>
+        <v>4.2</v>
       </c>
       <c r="AW17" t="n">
-        <v>13.5</v>
+        <v>4.2</v>
       </c>
       <c r="AX17" t="n">
-        <v>6.6</v>
+        <v>4.2</v>
       </c>
       <c r="AY17" t="n">
-        <v>9.4</v>
+        <v>6.4</v>
       </c>
       <c r="AZ17" t="n">
-        <v>18</v>
+        <v>1.91</v>
       </c>
       <c r="BA17" t="n">
-        <v>13.5</v>
+        <v>4.2</v>
       </c>
       <c r="BB17" t="n">
-        <v>12</v>
+        <v>2.86</v>
       </c>
       <c r="BC17" t="n">
-        <v>18</v>
+        <v>1.9</v>
       </c>
       <c r="BD17" t="n">
-        <v>11.5</v>
+        <v>1.9</v>
       </c>
       <c r="BE17" t="n">
-        <v>13.5</v>
+        <v>1.95</v>
       </c>
       <c r="BF17" t="n">
-        <v>11</v>
+        <v>3.7</v>
       </c>
       <c r="BG17" t="n">
-        <v>6.2</v>
+        <v>3.2</v>
       </c>
       <c r="BH17" t="inlineStr">
         <is>
-          <t>2026-02-23 23:33:14</t>
+          <t>2026-02-24 01:41:16</t>
         </is>
       </c>
     </row>
@@ -3866,58 +3866,58 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="G18" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="H18" t="n">
-        <v>2.28</v>
+        <v>2.34</v>
       </c>
       <c r="I18" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="J18" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="K18" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="N18" t="n">
         <v>2.44</v>
       </c>
-      <c r="J18" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="K18" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="L18" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="N18" t="n">
-        <v>2.32</v>
-      </c>
       <c r="O18" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="P18" t="n">
         <v>1.44</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.92</v>
+        <v>3.1</v>
       </c>
       <c r="R18" t="n">
-        <v>1.13</v>
+        <v>1.15</v>
       </c>
       <c r="S18" t="n">
-        <v>6</v>
+        <v>6.8</v>
       </c>
       <c r="T18" t="n">
         <v>2.28</v>
       </c>
       <c r="U18" t="n">
-        <v>1.68</v>
+        <v>1.66</v>
       </c>
       <c r="V18" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="W18" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="X18" t="n">
         <v>7.4</v>
@@ -3926,13 +3926,13 @@
         <v>6.8</v>
       </c>
       <c r="Z18" t="n">
-        <v>24</v>
+        <v>13.5</v>
       </c>
       <c r="AA18" t="n">
-        <v>180</v>
+        <v>50</v>
       </c>
       <c r="AB18" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AC18" t="n">
         <v>7.2</v>
@@ -3953,7 +3953,7 @@
         <v>970</v>
       </c>
       <c r="AI18" t="n">
-        <v>230</v>
+        <v>500</v>
       </c>
       <c r="AJ18" t="n">
         <v>900</v>
@@ -3962,10 +3962,10 @@
         <v>310</v>
       </c>
       <c r="AL18" t="n">
-        <v>430</v>
+        <v>500</v>
       </c>
       <c r="AM18" t="n">
-        <v>290</v>
+        <v>500</v>
       </c>
       <c r="AN18" t="n">
         <v>1000</v>
@@ -3983,10 +3983,10 @@
         <v>11.5</v>
       </c>
       <c r="AS18" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AT18" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="AU18" t="n">
         <v>6.2</v>
@@ -3995,7 +3995,7 @@
         <v>11</v>
       </c>
       <c r="AW18" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AX18" t="n">
         <v>8.800000000000001</v>
@@ -4004,32 +4004,32 @@
         <v>15</v>
       </c>
       <c r="AZ18" t="n">
-        <v>8.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="BA18" t="n">
         <v>11</v>
       </c>
       <c r="BB18" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="BC18" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD18" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="BE18" t="n">
         <v>11</v>
       </c>
-      <c r="BD18" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="BE18" t="n">
-        <v>12</v>
-      </c>
       <c r="BF18" t="n">
-        <v>9.800000000000001</v>
+        <v>11</v>
       </c>
       <c r="BG18" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="BH18" t="inlineStr">
         <is>
-          <t>2026-02-23 23:33:14</t>
+          <t>2026-02-24 01:41:16</t>
         </is>
       </c>
     </row>
@@ -4066,46 +4066,46 @@
         <v>2.26</v>
       </c>
       <c r="H19" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="I19" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="J19" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K19" t="n">
         <v>3.7</v>
       </c>
       <c r="L19" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="M19" t="n">
         <v>1.06</v>
       </c>
       <c r="N19" t="n">
-        <v>3.85</v>
+        <v>4.1</v>
       </c>
       <c r="O19" t="n">
         <v>1.3</v>
       </c>
       <c r="P19" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="R19" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="S19" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="T19" t="n">
         <v>1.76</v>
       </c>
       <c r="U19" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="V19" t="n">
         <v>1.37</v>
@@ -4117,28 +4117,28 @@
         <v>17.5</v>
       </c>
       <c r="Y19" t="n">
-        <v>14.5</v>
+        <v>25</v>
       </c>
       <c r="Z19" t="n">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="AA19" t="n">
         <v>1000</v>
       </c>
       <c r="AB19" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AC19" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD19" t="n">
         <v>30</v>
       </c>
       <c r="AE19" t="n">
-        <v>42</v>
+        <v>120</v>
       </c>
       <c r="AF19" t="n">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="AG19" t="n">
         <v>11.5</v>
@@ -4150,37 +4150,37 @@
         <v>250</v>
       </c>
       <c r="AJ19" t="n">
-        <v>120</v>
+        <v>29</v>
       </c>
       <c r="AK19" t="n">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="AL19" t="n">
-        <v>120</v>
+        <v>38</v>
       </c>
       <c r="AM19" t="n">
         <v>580</v>
       </c>
       <c r="AN19" t="n">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="AO19" t="n">
         <v>1000</v>
       </c>
       <c r="AP19" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AQ19" t="n">
         <v>12</v>
       </c>
       <c r="AR19" t="n">
-        <v>11.5</v>
+        <v>18</v>
       </c>
       <c r="AS19" t="n">
-        <v>11</v>
+        <v>13.5</v>
       </c>
       <c r="AT19" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AU19" t="n">
         <v>7.2</v>
@@ -4189,7 +4189,7 @@
         <v>12.5</v>
       </c>
       <c r="AW19" t="n">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="AX19" t="n">
         <v>11.5</v>
@@ -4201,7 +4201,7 @@
         <v>11.5</v>
       </c>
       <c r="BA19" t="n">
-        <v>10.5</v>
+        <v>12.5</v>
       </c>
       <c r="BB19" t="n">
         <v>14.5</v>
@@ -4210,20 +4210,20 @@
         <v>20</v>
       </c>
       <c r="BD19" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BE19" t="n">
         <v>26</v>
       </c>
       <c r="BF19" t="n">
-        <v>7.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="BG19" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="BH19" t="inlineStr">
         <is>
-          <t>2026-02-23 23:33:14</t>
+          <t>2026-02-24 01:41:16</t>
         </is>
       </c>
     </row>
@@ -4260,7 +4260,7 @@
         <v>3.65</v>
       </c>
       <c r="H20" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="I20" t="n">
         <v>2.32</v>
@@ -4272,16 +4272,16 @@
         <v>4.2</v>
       </c>
       <c r="L20" t="n">
-        <v>1.29</v>
+        <v>1.34</v>
       </c>
       <c r="M20" t="n">
         <v>1.05</v>
       </c>
       <c r="N20" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="O20" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="P20" t="n">
         <v>2.2</v>
@@ -4299,13 +4299,13 @@
         <v>1.62</v>
       </c>
       <c r="U20" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="V20" t="n">
         <v>1.75</v>
       </c>
       <c r="W20" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="X20" t="n">
         <v>20</v>
@@ -4371,7 +4371,7 @@
         <v>13.5</v>
       </c>
       <c r="AS20" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AT20" t="n">
         <v>13.5</v>
@@ -4410,14 +4410,14 @@
         <v>8.6</v>
       </c>
       <c r="BF20" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="BG20" t="n">
         <v>11</v>
       </c>
       <c r="BH20" t="inlineStr">
         <is>
-          <t>2026-02-23 23:33:14</t>
+          <t>2026-02-24 01:41:16</t>
         </is>
       </c>
     </row>
@@ -4448,7 +4448,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="G21" t="n">
         <v>1.9</v>
@@ -4460,19 +4460,19 @@
         <v>5.1</v>
       </c>
       <c r="J21" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="K21" t="n">
         <v>4.7</v>
       </c>
       <c r="L21" t="n">
-        <v>1.24</v>
+        <v>1.31</v>
       </c>
       <c r="M21" t="n">
         <v>1.03</v>
       </c>
       <c r="N21" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="O21" t="n">
         <v>1.2</v>
@@ -4481,13 +4481,13 @@
         <v>2.36</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="R21" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="S21" t="n">
-        <v>2.48</v>
+        <v>2.56</v>
       </c>
       <c r="T21" t="n">
         <v>1.65</v>
@@ -4496,7 +4496,7 @@
         <v>2.28</v>
       </c>
       <c r="V21" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="W21" t="n">
         <v>2.1</v>
@@ -4547,7 +4547,7 @@
         <v>1000</v>
       </c>
       <c r="AM21" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN21" t="n">
         <v>85</v>
@@ -4556,16 +4556,16 @@
         <v>1000</v>
       </c>
       <c r="AP21" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="AQ21" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="AR21" t="n">
         <v>1.83</v>
       </c>
       <c r="AS21" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="AT21" t="n">
         <v>6.4</v>
@@ -4574,10 +4574,10 @@
         <v>5.6</v>
       </c>
       <c r="AV21" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="AW21" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="AX21" t="n">
         <v>6.4</v>
@@ -4589,16 +4589,16 @@
         <v>9</v>
       </c>
       <c r="BA21" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="BB21" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="BC21" t="n">
         <v>9</v>
       </c>
       <c r="BD21" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="BE21" t="n">
         <v>5</v>
@@ -4611,7 +4611,7 @@
       </c>
       <c r="BH21" t="inlineStr">
         <is>
-          <t>2026-02-23 23:33:14</t>
+          <t>2026-02-24 01:41:16</t>
         </is>
       </c>
     </row>
@@ -4642,25 +4642,25 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="G22" t="n">
         <v>3.8</v>
       </c>
       <c r="H22" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="I22" t="n">
         <v>2.16</v>
       </c>
       <c r="J22" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K22" t="n">
         <v>4.3</v>
       </c>
       <c r="L22" t="n">
-        <v>1.29</v>
+        <v>1.35</v>
       </c>
       <c r="M22" t="n">
         <v>1.05</v>
@@ -4672,7 +4672,7 @@
         <v>1.24</v>
       </c>
       <c r="P22" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="Q22" t="n">
         <v>1.78</v>
@@ -4681,19 +4681,19 @@
         <v>1.46</v>
       </c>
       <c r="S22" t="n">
-        <v>2.64</v>
+        <v>2.88</v>
       </c>
       <c r="T22" t="n">
         <v>1.63</v>
       </c>
       <c r="U22" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="V22" t="n">
         <v>1.86</v>
       </c>
       <c r="W22" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="X22" t="n">
         <v>20</v>
@@ -4795,17 +4795,17 @@
         <v>8.6</v>
       </c>
       <c r="BE22" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="BF22" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="BG22" t="n">
         <v>11</v>
       </c>
       <c r="BH22" t="inlineStr">
         <is>
-          <t>2026-02-23 23:33:14</t>
+          <t>2026-02-24 01:41:16</t>
         </is>
       </c>
     </row>
@@ -4836,55 +4836,55 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="G23" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="H23" t="n">
-        <v>2.4</v>
+        <v>2.46</v>
       </c>
       <c r="I23" t="n">
-        <v>2.7</v>
+        <v>2.62</v>
       </c>
       <c r="J23" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="K23" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="L23" t="n">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="M23" t="n">
         <v>1.09</v>
       </c>
       <c r="N23" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="O23" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="P23" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.16</v>
+        <v>2.26</v>
       </c>
       <c r="R23" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="S23" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="T23" t="n">
         <v>1.86</v>
       </c>
       <c r="U23" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="V23" t="n">
-        <v>1.59</v>
+        <v>1.62</v>
       </c>
       <c r="W23" t="n">
         <v>1.4</v>
@@ -4893,19 +4893,19 @@
         <v>13</v>
       </c>
       <c r="Y23" t="n">
-        <v>9.6</v>
+        <v>17.5</v>
       </c>
       <c r="Z23" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="AA23" t="n">
         <v>130</v>
       </c>
       <c r="AB23" t="n">
-        <v>11.5</v>
+        <v>21</v>
       </c>
       <c r="AC23" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AD23" t="n">
         <v>23</v>
@@ -4950,22 +4950,22 @@
         <v>8</v>
       </c>
       <c r="AR23" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="AS23" t="n">
-        <v>8.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AT23" t="n">
-        <v>9.199999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AU23" t="n">
         <v>6.4</v>
       </c>
       <c r="AV23" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AW23" t="n">
-        <v>8</v>
+        <v>8.6</v>
       </c>
       <c r="AX23" t="n">
         <v>10.5</v>
@@ -4974,32 +4974,32 @@
         <v>9</v>
       </c>
       <c r="AZ23" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="BA23" t="n">
-        <v>9</v>
+        <v>9.6</v>
       </c>
       <c r="BB23" t="n">
-        <v>9.199999999999999</v>
+        <v>10</v>
       </c>
       <c r="BC23" t="n">
-        <v>8.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="BD23" t="n">
-        <v>9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="BE23" t="n">
         <v>28</v>
       </c>
       <c r="BF23" t="n">
-        <v>8.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="BG23" t="n">
-        <v>7.8</v>
+        <v>8.6</v>
       </c>
       <c r="BH23" t="inlineStr">
         <is>
-          <t>2026-02-23 23:33:14</t>
+          <t>2026-02-24 01:41:16</t>
         </is>
       </c>
     </row>
@@ -5030,55 +5030,55 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>8.199999999999999</v>
+        <v>7.4</v>
       </c>
       <c r="G24" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="H24" t="n">
-        <v>1.43</v>
+        <v>1.47</v>
       </c>
       <c r="I24" t="n">
-        <v>1.48</v>
+        <v>1.52</v>
       </c>
       <c r="J24" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="K24" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="L24" t="n">
-        <v>1.01</v>
+        <v>1.34</v>
       </c>
       <c r="M24" t="n">
         <v>1.04</v>
       </c>
       <c r="N24" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="O24" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="P24" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.68</v>
+        <v>1.72</v>
       </c>
       <c r="R24" t="n">
         <v>1.47</v>
       </c>
       <c r="S24" t="n">
-        <v>2.7</v>
+        <v>2.86</v>
       </c>
       <c r="T24" t="n">
-        <v>1.92</v>
+        <v>1.89</v>
       </c>
       <c r="U24" t="n">
-        <v>1.9</v>
+        <v>1.94</v>
       </c>
       <c r="V24" t="n">
-        <v>3.05</v>
+        <v>2.94</v>
       </c>
       <c r="W24" t="n">
         <v>1.13</v>
@@ -5096,28 +5096,28 @@
         <v>17.5</v>
       </c>
       <c r="AB24" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AC24" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AD24" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AE24" t="n">
         <v>21</v>
       </c>
       <c r="AF24" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AG24" t="n">
+        <v>40</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>32</v>
+      </c>
+      <c r="AI24" t="n">
         <v>46</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>34</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>48</v>
       </c>
       <c r="AJ24" t="n">
         <v>1000</v>
@@ -5144,7 +5144,7 @@
         <v>5.6</v>
       </c>
       <c r="AR24" t="n">
-        <v>2.42</v>
+        <v>6.6</v>
       </c>
       <c r="AS24" t="n">
         <v>9.6</v>
@@ -5171,7 +5171,7 @@
         <v>13</v>
       </c>
       <c r="BA24" t="n">
-        <v>2.9</v>
+        <v>2.98</v>
       </c>
       <c r="BB24" t="n">
         <v>4.2</v>
@@ -5189,11 +5189,11 @@
         <v>4.2</v>
       </c>
       <c r="BG24" t="n">
-        <v>4.3</v>
+        <v>4.7</v>
       </c>
       <c r="BH24" t="inlineStr">
         <is>
-          <t>2026-02-23 23:33:14</t>
+          <t>2026-02-24 01:41:16</t>
         </is>
       </c>
     </row>
@@ -5224,13 +5224,13 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="G25" t="n">
         <v>2.26</v>
       </c>
       <c r="H25" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="I25" t="n">
         <v>3.55</v>
@@ -5242,7 +5242,7 @@
         <v>4.1</v>
       </c>
       <c r="L25" t="n">
-        <v>1.28</v>
+        <v>1.33</v>
       </c>
       <c r="M25" t="n">
         <v>1.05</v>
@@ -5257,13 +5257,13 @@
         <v>2.38</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.63</v>
+        <v>1.68</v>
       </c>
       <c r="R25" t="n">
         <v>1.56</v>
       </c>
       <c r="S25" t="n">
-        <v>2.52</v>
+        <v>2.72</v>
       </c>
       <c r="T25" t="n">
         <v>1.65</v>
@@ -5272,10 +5272,10 @@
         <v>2.46</v>
       </c>
       <c r="V25" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="W25" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="X25" t="n">
         <v>110</v>
@@ -5287,19 +5287,19 @@
         <v>85</v>
       </c>
       <c r="AA25" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="AB25" t="n">
         <v>20</v>
       </c>
       <c r="AC25" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AD25" t="n">
         <v>28</v>
       </c>
       <c r="AE25" t="n">
-        <v>90</v>
+        <v>500</v>
       </c>
       <c r="AF25" t="n">
         <v>32</v>
@@ -5311,7 +5311,7 @@
         <v>27</v>
       </c>
       <c r="AI25" t="n">
-        <v>160</v>
+        <v>500</v>
       </c>
       <c r="AJ25" t="n">
         <v>900</v>
@@ -5332,28 +5332,28 @@
         <v>1000</v>
       </c>
       <c r="AP25" t="n">
-        <v>8.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AQ25" t="n">
         <v>15</v>
       </c>
       <c r="AR25" t="n">
-        <v>9</v>
+        <v>9.4</v>
       </c>
       <c r="AS25" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AT25" t="n">
         <v>7</v>
       </c>
-      <c r="AT25" t="n">
-        <v>6.8</v>
-      </c>
       <c r="AU25" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="AV25" t="n">
         <v>8.4</v>
       </c>
       <c r="AW25" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="AX25" t="n">
         <v>7.6</v>
@@ -5368,26 +5368,26 @@
         <v>10</v>
       </c>
       <c r="BB25" t="n">
-        <v>9</v>
+        <v>9.4</v>
       </c>
       <c r="BC25" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="BD25" t="n">
-        <v>9.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="BE25" t="n">
-        <v>5.8</v>
+        <v>4.4</v>
       </c>
       <c r="BF25" t="n">
         <v>10</v>
       </c>
       <c r="BG25" t="n">
-        <v>8.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="BH25" t="inlineStr">
         <is>
-          <t>2026-02-23 23:33:14</t>
+          <t>2026-02-24 01:41:16</t>
         </is>
       </c>
     </row>
@@ -5421,43 +5421,43 @@
         <v>5.5</v>
       </c>
       <c r="G26" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="H26" t="n">
-        <v>1.69</v>
+        <v>1.72</v>
       </c>
       <c r="I26" t="n">
         <v>1.78</v>
       </c>
       <c r="J26" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="K26" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L26" t="n">
-        <v>1.36</v>
+        <v>1.41</v>
       </c>
       <c r="M26" t="n">
         <v>1.06</v>
       </c>
       <c r="N26" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="O26" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="P26" t="n">
         <v>1.92</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="R26" t="n">
         <v>1.35</v>
       </c>
       <c r="S26" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="T26" t="n">
         <v>1.86</v>
@@ -5478,10 +5478,10 @@
         <v>18</v>
       </c>
       <c r="Z26" t="n">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="AA26" t="n">
-        <v>900</v>
+        <v>38</v>
       </c>
       <c r="AB26" t="n">
         <v>970</v>
@@ -5490,7 +5490,7 @@
         <v>14</v>
       </c>
       <c r="AD26" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="AE26" t="n">
         <v>65</v>
@@ -5526,62 +5526,62 @@
         <v>29</v>
       </c>
       <c r="AP26" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="AQ26" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="AR26" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="AS26" t="n">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="AT26" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="AU26" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="AV26" t="n">
         <v>5.4</v>
       </c>
       <c r="AW26" t="n">
-        <v>3.4</v>
+        <v>4.7</v>
       </c>
       <c r="AX26" t="n">
-        <v>3.5</v>
+        <v>4.8</v>
       </c>
       <c r="AY26" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AZ26" t="n">
-        <v>3.2</v>
+        <v>3.55</v>
       </c>
       <c r="BA26" t="n">
-        <v>2.88</v>
+        <v>2.78</v>
       </c>
       <c r="BB26" t="n">
-        <v>3.05</v>
+        <v>2.78</v>
       </c>
       <c r="BC26" t="n">
-        <v>4</v>
+        <v>5.1</v>
       </c>
       <c r="BD26" t="n">
-        <v>3.65</v>
+        <v>5.1</v>
       </c>
       <c r="BE26" t="n">
-        <v>2.74</v>
+        <v>2.64</v>
       </c>
       <c r="BF26" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="BG26" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="BH26" t="inlineStr">
         <is>
-          <t>2026-02-23 23:33:14</t>
+          <t>2026-02-24 01:41:16</t>
         </is>
       </c>
     </row>
@@ -5612,58 +5612,58 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="G27" t="n">
-        <v>2.54</v>
+        <v>2.5</v>
       </c>
       <c r="H27" t="n">
-        <v>2.98</v>
+        <v>3.05</v>
       </c>
       <c r="I27" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="J27" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="K27" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="L27" t="n">
-        <v>1.29</v>
+        <v>1.35</v>
       </c>
       <c r="M27" t="n">
         <v>1.05</v>
       </c>
       <c r="N27" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="O27" t="n">
         <v>1.25</v>
       </c>
       <c r="P27" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="R27" t="n">
         <v>1.46</v>
       </c>
       <c r="S27" t="n">
-        <v>2.82</v>
+        <v>2.92</v>
       </c>
       <c r="T27" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="U27" t="n">
         <v>2.32</v>
       </c>
       <c r="V27" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="W27" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="X27" t="n">
         <v>970</v>
@@ -5675,7 +5675,7 @@
         <v>28</v>
       </c>
       <c r="AA27" t="n">
-        <v>55</v>
+        <v>900</v>
       </c>
       <c r="AB27" t="n">
         <v>15</v>
@@ -5705,7 +5705,7 @@
         <v>42</v>
       </c>
       <c r="AK27" t="n">
-        <v>500</v>
+        <v>29</v>
       </c>
       <c r="AL27" t="n">
         <v>500</v>
@@ -5720,16 +5720,16 @@
         <v>500</v>
       </c>
       <c r="AP27" t="n">
-        <v>2.76</v>
+        <v>2.84</v>
       </c>
       <c r="AQ27" t="n">
-        <v>2.54</v>
+        <v>12</v>
       </c>
       <c r="AR27" t="n">
-        <v>2.5</v>
+        <v>2.58</v>
       </c>
       <c r="AS27" t="n">
-        <v>2.6</v>
+        <v>2.68</v>
       </c>
       <c r="AT27" t="n">
         <v>9.6</v>
@@ -5744,28 +5744,28 @@
         <v>19</v>
       </c>
       <c r="AX27" t="n">
-        <v>13</v>
+        <v>2.5</v>
       </c>
       <c r="AY27" t="n">
-        <v>6.4</v>
+        <v>9.4</v>
       </c>
       <c r="AZ27" t="n">
-        <v>2.4</v>
+        <v>2.48</v>
       </c>
       <c r="BA27" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="BB27" t="n">
         <v>2.66</v>
-      </c>
-      <c r="BB27" t="n">
-        <v>2.58</v>
       </c>
       <c r="BC27" t="n">
         <v>17.5</v>
       </c>
       <c r="BD27" t="n">
-        <v>2.62</v>
+        <v>2.7</v>
       </c>
       <c r="BE27" t="n">
-        <v>2.68</v>
+        <v>2.76</v>
       </c>
       <c r="BF27" t="n">
         <v>12</v>
@@ -5775,7 +5775,7 @@
       </c>
       <c r="BH27" t="inlineStr">
         <is>
-          <t>2026-02-23 23:33:14</t>
+          <t>2026-02-24 01:41:16</t>
         </is>
       </c>
     </row>
@@ -5806,55 +5806,55 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="G28" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="H28" t="n">
         <v>1.88</v>
       </c>
       <c r="I28" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="J28" t="n">
         <v>4.3</v>
       </c>
       <c r="K28" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="L28" t="n">
-        <v>1.21</v>
+        <v>1.26</v>
       </c>
       <c r="M28" t="n">
         <v>1.03</v>
       </c>
       <c r="N28" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="O28" t="n">
         <v>1.16</v>
       </c>
       <c r="P28" t="n">
-        <v>2.76</v>
+        <v>2.8</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="R28" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="S28" t="n">
-        <v>2.16</v>
+        <v>2.22</v>
       </c>
       <c r="T28" t="n">
         <v>1.53</v>
       </c>
       <c r="U28" t="n">
-        <v>2.6</v>
+        <v>2.52</v>
       </c>
       <c r="V28" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="W28" t="n">
         <v>1.32</v>
@@ -5893,7 +5893,7 @@
         <v>38</v>
       </c>
       <c r="AI28" t="n">
-        <v>55</v>
+        <v>500</v>
       </c>
       <c r="AJ28" t="n">
         <v>500</v>
@@ -5911,7 +5911,7 @@
         <v>500</v>
       </c>
       <c r="AO28" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AP28" t="n">
         <v>7.6</v>
@@ -5923,13 +5923,13 @@
         <v>8.4</v>
       </c>
       <c r="AS28" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AT28" t="n">
         <v>8</v>
       </c>
       <c r="AU28" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="AV28" t="n">
         <v>6.2</v>
@@ -5962,14 +5962,14 @@
         <v>8.6</v>
       </c>
       <c r="BF28" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="BG28" t="n">
         <v>6.4</v>
       </c>
       <c r="BH28" t="inlineStr">
         <is>
-          <t>2026-02-23 23:33:14</t>
+          <t>2026-02-24 01:41:16</t>
         </is>
       </c>
     </row>
@@ -6000,46 +6000,46 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.96</v>
+        <v>2.22</v>
       </c>
       <c r="G29" t="n">
-        <v>2.64</v>
+        <v>2.34</v>
       </c>
       <c r="H29" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="I29" t="n">
-        <v>4.5</v>
+        <v>3.95</v>
       </c>
       <c r="J29" t="n">
-        <v>2.84</v>
+        <v>3.3</v>
       </c>
       <c r="K29" t="n">
-        <v>4.3</v>
+        <v>3.45</v>
       </c>
       <c r="L29" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="M29" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N29" t="n">
-        <v>2.78</v>
+        <v>3.7</v>
       </c>
       <c r="O29" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="P29" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.96</v>
+        <v>2.02</v>
       </c>
       <c r="R29" t="n">
         <v>1.34</v>
       </c>
       <c r="S29" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="T29" t="n">
         <v>1.83</v>
@@ -6048,13 +6048,13 @@
         <v>2.06</v>
       </c>
       <c r="V29" t="n">
-        <v>1.29</v>
+        <v>1.35</v>
       </c>
       <c r="W29" t="n">
-        <v>1.66</v>
+        <v>1.74</v>
       </c>
       <c r="X29" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="Y29" t="n">
         <v>1000</v>
@@ -6081,7 +6081,7 @@
         <v>1000</v>
       </c>
       <c r="AG29" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AH29" t="n">
         <v>24</v>
@@ -6102,13 +6102,13 @@
         <v>1000</v>
       </c>
       <c r="AN29" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AO29" t="n">
         <v>1000</v>
       </c>
       <c r="AP29" t="n">
-        <v>11.5</v>
+        <v>7</v>
       </c>
       <c r="AQ29" t="n">
         <v>10.5</v>
@@ -6156,14 +6156,14 @@
         <v>2.32</v>
       </c>
       <c r="BF29" t="n">
-        <v>4.4</v>
+        <v>13.5</v>
       </c>
       <c r="BG29" t="n">
         <v>29</v>
       </c>
       <c r="BH29" t="inlineStr">
         <is>
-          <t>2026-02-23 23:33:14</t>
+          <t>2026-02-24 01:41:16</t>
         </is>
       </c>
     </row>
@@ -6200,25 +6200,25 @@
         <v>1.64</v>
       </c>
       <c r="H30" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="I30" t="n">
         <v>6.4</v>
       </c>
       <c r="J30" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="K30" t="n">
         <v>4.8</v>
       </c>
       <c r="L30" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="M30" t="n">
         <v>1.04</v>
       </c>
       <c r="N30" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="O30" t="n">
         <v>1.22</v>
@@ -6227,13 +6227,13 @@
         <v>2.34</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.63</v>
+        <v>1.68</v>
       </c>
       <c r="R30" t="n">
         <v>1.53</v>
       </c>
       <c r="S30" t="n">
-        <v>2.62</v>
+        <v>2.74</v>
       </c>
       <c r="T30" t="n">
         <v>1.74</v>
@@ -6302,13 +6302,13 @@
         <v>220</v>
       </c>
       <c r="AP30" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AQ30" t="n">
         <v>8.6</v>
       </c>
       <c r="AR30" t="n">
-        <v>4.2</v>
+        <v>5.3</v>
       </c>
       <c r="AS30" t="n">
         <v>4.2</v>
@@ -6320,10 +6320,10 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AV30" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AW30" t="n">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="AX30" t="n">
         <v>5.9</v>
@@ -6338,26 +6338,26 @@
         <v>4.2</v>
       </c>
       <c r="BB30" t="n">
-        <v>4.9</v>
+        <v>6.6</v>
       </c>
       <c r="BC30" t="n">
-        <v>5.9</v>
+        <v>6.6</v>
       </c>
       <c r="BD30" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="BE30" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="BF30" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="BG30" t="n">
-        <v>5.3</v>
+        <v>7.2</v>
       </c>
       <c r="BH30" t="inlineStr">
         <is>
-          <t>2026-02-23 23:33:14</t>
+          <t>2026-02-24 01:41:16</t>
         </is>
       </c>
     </row>
@@ -6388,10 +6388,10 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="G31" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="H31" t="n">
         <v>4.3</v>
@@ -6406,28 +6406,28 @@
         <v>3.15</v>
       </c>
       <c r="L31" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="M31" t="n">
         <v>1.15</v>
       </c>
       <c r="N31" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="O31" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="P31" t="n">
         <v>1.46</v>
       </c>
       <c r="Q31" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="R31" t="n">
         <v>1.15</v>
       </c>
       <c r="S31" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="T31" t="n">
         <v>2.38</v>
@@ -6436,19 +6436,19 @@
         <v>1.66</v>
       </c>
       <c r="V31" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="W31" t="n">
         <v>1.8</v>
       </c>
       <c r="X31" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="Y31" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Z31" t="n">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="AA31" t="n">
         <v>500</v>
@@ -6460,7 +6460,7 @@
         <v>7.4</v>
       </c>
       <c r="AD31" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE31" t="n">
         <v>310</v>
@@ -6481,7 +6481,7 @@
         <v>32</v>
       </c>
       <c r="AK31" t="n">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="AL31" t="n">
         <v>85</v>
@@ -6490,68 +6490,68 @@
         <v>500</v>
       </c>
       <c r="AN31" t="n">
-        <v>110</v>
+        <v>36</v>
       </c>
       <c r="AO31" t="n">
         <v>500</v>
       </c>
       <c r="AP31" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AQ31" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AR31" t="n">
-        <v>18.5</v>
+        <v>25</v>
       </c>
       <c r="AS31" t="n">
         <v>40</v>
       </c>
       <c r="AT31" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="AU31" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="AV31" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AW31" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="AX31" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AY31" t="n">
         <v>11</v>
       </c>
       <c r="AZ31" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="BA31" t="n">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="BB31" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="BC31" t="n">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="BD31" t="n">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="BE31" t="n">
-        <v>65</v>
+        <v>110</v>
       </c>
       <c r="BF31" t="n">
         <v>21</v>
       </c>
       <c r="BG31" t="n">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="BH31" t="inlineStr">
         <is>
-          <t>2026-02-23 23:33:14</t>
+          <t>2026-02-24 01:41:16</t>
         </is>
       </c>
     </row>
@@ -6588,7 +6588,7 @@
         <v>1.17</v>
       </c>
       <c r="H32" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="I32" t="n">
         <v>20</v>
@@ -6606,28 +6606,28 @@
         <v>1.01</v>
       </c>
       <c r="N32" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="O32" t="n">
         <v>1.09</v>
       </c>
       <c r="P32" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="R32" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="S32" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="T32" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="U32" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="V32" t="n">
         <v>1.05</v>
@@ -6648,19 +6648,19 @@
         <v>1000</v>
       </c>
       <c r="AB32" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AC32" t="n">
         <v>26</v>
       </c>
       <c r="AD32" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AE32" t="n">
-        <v>290</v>
+        <v>260</v>
       </c>
       <c r="AF32" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AG32" t="n">
         <v>14.5</v>
@@ -6669,7 +6669,7 @@
         <v>40</v>
       </c>
       <c r="AI32" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AJ32" t="n">
         <v>9.6</v>
@@ -6678,40 +6678,40 @@
         <v>13</v>
       </c>
       <c r="AL32" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AM32" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AN32" t="n">
         <v>2.46</v>
       </c>
       <c r="AO32" t="n">
-        <v>290</v>
+        <v>260</v>
       </c>
       <c r="AP32" t="n">
         <v>50</v>
       </c>
       <c r="AQ32" t="n">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="AR32" t="n">
         <v>85</v>
       </c>
       <c r="AS32" t="n">
-        <v>46</v>
+        <v>100</v>
       </c>
       <c r="AT32" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AU32" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AV32" t="n">
         <v>55</v>
       </c>
       <c r="AW32" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="AX32" t="n">
         <v>10</v>
@@ -6720,32 +6720,32 @@
         <v>13</v>
       </c>
       <c r="AZ32" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="BA32" t="n">
-        <v>44</v>
+        <v>130</v>
       </c>
       <c r="BB32" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="BC32" t="n">
         <v>12</v>
       </c>
       <c r="BD32" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="BE32" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="BF32" t="n">
         <v>2.38</v>
       </c>
       <c r="BG32" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="BH32" t="inlineStr">
         <is>
-          <t>2026-02-23 23:33:14</t>
+          <t>2026-02-24 01:41:16</t>
         </is>
       </c>
     </row>
@@ -6776,16 +6776,16 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="G33" t="n">
         <v>1.89</v>
       </c>
       <c r="H33" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="I33" t="n">
         <v>4.4</v>
-      </c>
-      <c r="I33" t="n">
-        <v>4.5</v>
       </c>
       <c r="J33" t="n">
         <v>4.1</v>
@@ -6809,10 +6809,10 @@
         <v>2.36</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="R33" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="S33" t="n">
         <v>2.8</v>
@@ -6824,7 +6824,7 @@
         <v>2.38</v>
       </c>
       <c r="V33" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="W33" t="n">
         <v>2.12</v>
@@ -6833,7 +6833,7 @@
         <v>20</v>
       </c>
       <c r="Y33" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="Z33" t="n">
         <v>34</v>
@@ -6851,19 +6851,19 @@
         <v>17</v>
       </c>
       <c r="AE33" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AF33" t="n">
         <v>12.5</v>
       </c>
       <c r="AG33" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AH33" t="n">
         <v>16.5</v>
       </c>
       <c r="AI33" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AJ33" t="n">
         <v>21</v>
@@ -6872,19 +6872,19 @@
         <v>17</v>
       </c>
       <c r="AL33" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AM33" t="n">
         <v>75</v>
       </c>
       <c r="AN33" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AO33" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AP33" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AQ33" t="n">
         <v>17.5</v>
@@ -6893,13 +6893,13 @@
         <v>30</v>
       </c>
       <c r="AS33" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AT33" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AU33" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AV33" t="n">
         <v>16</v>
@@ -6908,7 +6908,7 @@
         <v>42</v>
       </c>
       <c r="AX33" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AY33" t="n">
         <v>9.800000000000001</v>
@@ -6923,7 +6923,7 @@
         <v>19.5</v>
       </c>
       <c r="BC33" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="BD33" t="n">
         <v>26</v>
@@ -6939,7 +6939,7 @@
       </c>
       <c r="BH33" t="inlineStr">
         <is>
-          <t>2026-02-23 23:33:14</t>
+          <t>2026-02-24 01:41:16</t>
         </is>
       </c>
     </row>
@@ -6976,16 +6976,16 @@
         <v>1.28</v>
       </c>
       <c r="H34" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="I34" t="n">
         <v>11</v>
       </c>
-      <c r="I34" t="n">
-        <v>11.5</v>
-      </c>
       <c r="J34" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="K34" t="n">
-        <v>7.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="L34" t="n">
         <v>1.2</v>
@@ -7003,22 +7003,22 @@
         <v>3.85</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="R34" t="n">
         <v>2.16</v>
       </c>
       <c r="S34" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="T34" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="U34" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="V34" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="W34" t="n">
         <v>4.5</v>
@@ -7027,22 +7027,22 @@
         <v>50</v>
       </c>
       <c r="Y34" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="Z34" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AA34" t="n">
         <v>340</v>
       </c>
       <c r="AB34" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AC34" t="n">
         <v>18.5</v>
       </c>
       <c r="AD34" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AE34" t="n">
         <v>130</v>
@@ -7054,37 +7054,37 @@
         <v>12</v>
       </c>
       <c r="AH34" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AI34" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AJ34" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AK34" t="n">
         <v>12</v>
       </c>
       <c r="AL34" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AM34" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AN34" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="AO34" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AP34" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AQ34" t="n">
         <v>48</v>
       </c>
       <c r="AR34" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AS34" t="n">
         <v>70</v>
@@ -7093,7 +7093,7 @@
         <v>16</v>
       </c>
       <c r="AU34" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AV34" t="n">
         <v>36</v>
@@ -7105,35 +7105,35 @@
         <v>10.5</v>
       </c>
       <c r="AY34" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AZ34" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="BA34" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="BB34" t="n">
         <v>11</v>
       </c>
       <c r="BC34" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="BD34" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="BE34" t="n">
         <v>80</v>
       </c>
       <c r="BF34" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="BG34" t="n">
         <v>85</v>
       </c>
       <c r="BH34" t="inlineStr">
         <is>
-          <t>2026-02-23 23:33:14</t>
+          <t>2026-02-24 01:41:16</t>
         </is>
       </c>
     </row>
@@ -7164,46 +7164,46 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1.86</v>
+        <v>1.9</v>
       </c>
       <c r="G35" t="n">
-        <v>2.02</v>
+        <v>1.99</v>
       </c>
       <c r="H35" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="I35" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="J35" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K35" t="n">
         <v>3.55</v>
       </c>
       <c r="L35" t="n">
-        <v>1.46</v>
+        <v>1.54</v>
       </c>
       <c r="M35" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N35" t="n">
-        <v>2.78</v>
+        <v>2.84</v>
       </c>
       <c r="O35" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="P35" t="n">
         <v>1.6</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="R35" t="n">
         <v>1.21</v>
       </c>
       <c r="S35" t="n">
-        <v>4.4</v>
+        <v>5</v>
       </c>
       <c r="T35" t="n">
         <v>2.12</v>
@@ -7212,13 +7212,13 @@
         <v>1.76</v>
       </c>
       <c r="V35" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="W35" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="X35" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="Y35" t="n">
         <v>14</v>
@@ -7281,7 +7281,7 @@
         <v>14.5</v>
       </c>
       <c r="AS35" t="n">
-        <v>9</v>
+        <v>9.6</v>
       </c>
       <c r="AT35" t="n">
         <v>5.8</v>
@@ -7293,19 +7293,19 @@
         <v>18</v>
       </c>
       <c r="AW35" t="n">
-        <v>8.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AX35" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="AY35" t="n">
-        <v>9.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="AZ35" t="n">
         <v>21</v>
       </c>
       <c r="BA35" t="n">
-        <v>8.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="BB35" t="n">
         <v>19</v>
@@ -7314,20 +7314,20 @@
         <v>21</v>
       </c>
       <c r="BD35" t="n">
-        <v>8.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="BE35" t="n">
-        <v>9.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="BF35" t="n">
         <v>17</v>
       </c>
       <c r="BG35" t="n">
-        <v>9.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="BH35" t="inlineStr">
         <is>
-          <t>2026-02-23 23:33:14</t>
+          <t>2026-02-24 01:41:16</t>
         </is>
       </c>
     </row>
@@ -7358,10 +7358,10 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="G36" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="H36" t="n">
         <v>7.4</v>
@@ -7376,28 +7376,28 @@
         <v>4.5</v>
       </c>
       <c r="L36" t="n">
-        <v>1.01</v>
+        <v>1.48</v>
       </c>
       <c r="M36" t="n">
         <v>1.08</v>
       </c>
       <c r="N36" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="O36" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="P36" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.16</v>
+        <v>2.24</v>
       </c>
       <c r="R36" t="n">
         <v>1.26</v>
       </c>
       <c r="S36" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="T36" t="n">
         <v>2.18</v>
@@ -7409,7 +7409,7 @@
         <v>1.12</v>
       </c>
       <c r="W36" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="X36" t="n">
         <v>12.5</v>
@@ -7418,7 +7418,7 @@
         <v>22</v>
       </c>
       <c r="Z36" t="n">
-        <v>1000</v>
+        <v>280</v>
       </c>
       <c r="AA36" t="n">
         <v>1000</v>
@@ -7448,7 +7448,7 @@
         <v>1000</v>
       </c>
       <c r="AJ36" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AK36" t="n">
         <v>21</v>
@@ -7472,10 +7472,10 @@
         <v>17.5</v>
       </c>
       <c r="AR36" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AS36" t="n">
-        <v>8.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AT36" t="n">
         <v>5.6</v>
@@ -7487,7 +7487,7 @@
         <v>16</v>
       </c>
       <c r="AW36" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AX36" t="n">
         <v>7</v>
@@ -7499,7 +7499,7 @@
         <v>16</v>
       </c>
       <c r="BA36" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="BB36" t="n">
         <v>12</v>
@@ -7508,20 +7508,20 @@
         <v>16.5</v>
       </c>
       <c r="BD36" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="BE36" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="BF36" t="n">
         <v>10</v>
       </c>
       <c r="BG36" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="BH36" t="inlineStr">
         <is>
-          <t>2026-02-23 23:33:14</t>
+          <t>2026-02-24 01:41:16</t>
         </is>
       </c>
     </row>
@@ -7552,16 +7552,16 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="G37" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="H37" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="I37" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="J37" t="n">
         <v>2.94</v>
@@ -7570,40 +7570,40 @@
         <v>2.98</v>
       </c>
       <c r="L37" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="M37" t="n">
         <v>1.18</v>
       </c>
       <c r="N37" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="O37" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="P37" t="n">
         <v>1.37</v>
       </c>
       <c r="Q37" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="R37" t="n">
         <v>1.12</v>
       </c>
       <c r="S37" t="n">
-        <v>8.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="T37" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="U37" t="n">
         <v>1.57</v>
       </c>
       <c r="V37" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="W37" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="X37" t="n">
         <v>6.4</v>
@@ -7612,7 +7612,7 @@
         <v>9</v>
       </c>
       <c r="Z37" t="n">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="AA37" t="n">
         <v>270</v>
@@ -7630,7 +7630,7 @@
         <v>250</v>
       </c>
       <c r="AF37" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AG37" t="n">
         <v>14</v>
@@ -7642,7 +7642,7 @@
         <v>500</v>
       </c>
       <c r="AJ37" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AK37" t="n">
         <v>95</v>
@@ -7654,22 +7654,22 @@
         <v>500</v>
       </c>
       <c r="AN37" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AO37" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="AP37" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="AQ37" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AR37" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AS37" t="n">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="AT37" t="n">
         <v>5.4</v>
@@ -7681,7 +7681,7 @@
         <v>18.5</v>
       </c>
       <c r="AW37" t="n">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="AX37" t="n">
         <v>11</v>
@@ -7690,16 +7690,16 @@
         <v>12.5</v>
       </c>
       <c r="AZ37" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="BA37" t="n">
         <v>44</v>
       </c>
       <c r="BB37" t="n">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="BC37" t="n">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="BD37" t="n">
         <v>40</v>
@@ -7708,14 +7708,14 @@
         <v>110</v>
       </c>
       <c r="BF37" t="n">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="BG37" t="n">
         <v>44</v>
       </c>
       <c r="BH37" t="inlineStr">
         <is>
-          <t>2026-02-23 23:33:14</t>
+          <t>2026-02-24 01:41:16</t>
         </is>
       </c>
     </row>
@@ -7749,22 +7749,22 @@
         <v>3.5</v>
       </c>
       <c r="G38" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="H38" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="I38" t="n">
         <v>2.64</v>
       </c>
       <c r="J38" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="K38" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="L38" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="M38" t="n">
         <v>1.17</v>
@@ -7773,16 +7773,16 @@
         <v>2.3</v>
       </c>
       <c r="O38" t="n">
-        <v>1.71</v>
+        <v>1.75</v>
       </c>
       <c r="P38" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="Q38" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="R38" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="S38" t="n">
         <v>7.6</v>
@@ -7791,13 +7791,13 @@
         <v>2.44</v>
       </c>
       <c r="U38" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="V38" t="n">
         <v>1.6</v>
       </c>
       <c r="W38" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="X38" t="n">
         <v>7</v>
@@ -7809,7 +7809,7 @@
         <v>14</v>
       </c>
       <c r="AA38" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AB38" t="n">
         <v>8.6</v>
@@ -7821,22 +7821,22 @@
         <v>14</v>
       </c>
       <c r="AE38" t="n">
-        <v>170</v>
+        <v>110</v>
       </c>
       <c r="AF38" t="n">
         <v>23</v>
       </c>
       <c r="AG38" t="n">
-        <v>24</v>
+        <v>19.5</v>
       </c>
       <c r="AH38" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AI38" t="n">
         <v>230</v>
       </c>
       <c r="AJ38" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="AK38" t="n">
         <v>190</v>
@@ -7857,13 +7857,13 @@
         <v>6.4</v>
       </c>
       <c r="AQ38" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="AR38" t="n">
         <v>12</v>
       </c>
       <c r="AS38" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AT38" t="n">
         <v>7.6</v>
@@ -7881,16 +7881,16 @@
         <v>19</v>
       </c>
       <c r="AY38" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AZ38" t="n">
-        <v>19.5</v>
+        <v>27</v>
       </c>
       <c r="BA38" t="n">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="BB38" t="n">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="BC38" t="n">
         <v>50</v>
@@ -7909,7 +7909,7 @@
       </c>
       <c r="BH38" t="inlineStr">
         <is>
-          <t>2026-02-23 23:33:14</t>
+          <t>2026-02-24 01:41:16</t>
         </is>
       </c>
     </row>
@@ -7940,46 +7940,46 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="G39" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="H39" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="I39" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="J39" t="n">
         <v>3.5</v>
       </c>
       <c r="K39" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="L39" t="n">
-        <v>1.01</v>
+        <v>1.53</v>
       </c>
       <c r="M39" t="n">
         <v>1.11</v>
       </c>
       <c r="N39" t="n">
-        <v>2.86</v>
+        <v>2.96</v>
       </c>
       <c r="O39" t="n">
         <v>1.5</v>
       </c>
       <c r="P39" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.44</v>
+        <v>2.48</v>
       </c>
       <c r="R39" t="n">
         <v>1.22</v>
       </c>
       <c r="S39" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="T39" t="n">
         <v>2.2</v>
@@ -7988,10 +7988,10 @@
         <v>1.74</v>
       </c>
       <c r="V39" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="W39" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="X39" t="n">
         <v>10</v>
@@ -8000,10 +8000,10 @@
         <v>14.5</v>
       </c>
       <c r="Z39" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AA39" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AB39" t="n">
         <v>6.6</v>
@@ -8015,7 +8015,7 @@
         <v>23</v>
       </c>
       <c r="AE39" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AF39" t="n">
         <v>9.6</v>
@@ -8027,7 +8027,7 @@
         <v>27</v>
       </c>
       <c r="AI39" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AJ39" t="n">
         <v>21</v>
@@ -8036,13 +8036,13 @@
         <v>25</v>
       </c>
       <c r="AL39" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AM39" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="AN39" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AO39" t="n">
         <v>160</v>
@@ -8051,10 +8051,10 @@
         <v>9</v>
       </c>
       <c r="AQ39" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AR39" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AS39" t="n">
         <v>42</v>
@@ -8075,19 +8075,19 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AY39" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AZ39" t="n">
         <v>23</v>
       </c>
       <c r="BA39" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="BB39" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="BC39" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BD39" t="n">
         <v>42</v>
@@ -8096,14 +8096,14 @@
         <v>48</v>
       </c>
       <c r="BF39" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="BG39" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="BH39" t="inlineStr">
         <is>
-          <t>2026-02-23 23:33:14</t>
+          <t>2026-02-24 01:41:16</t>
         </is>
       </c>
     </row>
@@ -8137,58 +8137,58 @@
         <v>3.75</v>
       </c>
       <c r="G40" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="H40" t="n">
-        <v>2.34</v>
+        <v>2.4</v>
       </c>
       <c r="I40" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="J40" t="n">
+        <v>3</v>
+      </c>
+      <c r="K40" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="L40" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="M40" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="N40" t="n">
         <v>2.46</v>
       </c>
-      <c r="J40" t="n">
+      <c r="O40" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="P40" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="Q40" t="n">
         <v>3.05</v>
-      </c>
-      <c r="K40" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="L40" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M40" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N40" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="O40" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="P40" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>2.84</v>
       </c>
       <c r="R40" t="n">
         <v>1.15</v>
       </c>
       <c r="S40" t="n">
-        <v>5.3</v>
+        <v>6.8</v>
       </c>
       <c r="T40" t="n">
         <v>2.26</v>
       </c>
       <c r="U40" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="V40" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="W40" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="X40" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="Y40" t="n">
         <v>7</v>
@@ -8203,7 +8203,7 @@
         <v>10</v>
       </c>
       <c r="AC40" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AD40" t="n">
         <v>970</v>
@@ -8212,13 +8212,13 @@
         <v>1000</v>
       </c>
       <c r="AF40" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AG40" t="n">
         <v>22</v>
       </c>
       <c r="AH40" t="n">
-        <v>970</v>
+        <v>32</v>
       </c>
       <c r="AI40" t="n">
         <v>70</v>
@@ -8239,7 +8239,7 @@
         <v>1000</v>
       </c>
       <c r="AO40" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AP40" t="n">
         <v>6.8</v>
@@ -8272,32 +8272,32 @@
         <v>15.5</v>
       </c>
       <c r="AZ40" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="BA40" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="BB40" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="BC40" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="BD40" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="BE40" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="BF40" t="n">
         <v>8.6</v>
       </c>
       <c r="BG40" t="n">
-        <v>7.6</v>
+        <v>34</v>
       </c>
       <c r="BH40" t="inlineStr">
         <is>
-          <t>2026-02-23 23:33:14</t>
+          <t>2026-02-24 01:41:16</t>
         </is>
       </c>
     </row>
@@ -8491,7 +8491,7 @@
       </c>
       <c r="BH41" t="inlineStr">
         <is>
-          <t>2026-02-23 23:33:14</t>
+          <t>2026-02-24 01:41:16</t>
         </is>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-24.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-24.xlsx
@@ -768,49 +768,49 @@
         <v>5.6</v>
       </c>
       <c r="H2" t="n">
-        <v>1.94</v>
+        <v>1.9</v>
       </c>
       <c r="I2" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="J2" t="n">
         <v>3.15</v>
       </c>
       <c r="K2" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="L2" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="M2" t="n">
         <v>1.12</v>
       </c>
       <c r="N2" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="Q2" t="n">
         <v>2.62</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="P2" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>2.72</v>
       </c>
       <c r="R2" t="n">
         <v>1.18</v>
       </c>
       <c r="S2" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="T2" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="U2" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="V2" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="W2" t="n">
         <v>1.22</v>
@@ -819,10 +819,10 @@
         <v>9.4</v>
       </c>
       <c r="Y2" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="Z2" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AA2" t="n">
         <v>26</v>
@@ -834,7 +834,7 @@
         <v>7.8</v>
       </c>
       <c r="AD2" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AE2" t="n">
         <v>46</v>
@@ -855,7 +855,7 @@
         <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="AL2" t="n">
         <v>1000</v>
@@ -867,13 +867,13 @@
         <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AP2" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AQ2" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="AR2" t="n">
         <v>8.800000000000001</v>
@@ -888,10 +888,10 @@
         <v>6.4</v>
       </c>
       <c r="AV2" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AW2" t="n">
-        <v>13.5</v>
+        <v>17.5</v>
       </c>
       <c r="AX2" t="n">
         <v>16</v>
@@ -903,29 +903,29 @@
         <v>22</v>
       </c>
       <c r="BA2" t="n">
+        <v>27</v>
+      </c>
+      <c r="BB2" t="n">
         <v>9.199999999999999</v>
       </c>
-      <c r="BB2" t="n">
-        <v>8.6</v>
-      </c>
       <c r="BC2" t="n">
-        <v>8.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="BD2" t="n">
-        <v>36</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="BE2" t="n">
         <v>130</v>
       </c>
       <c r="BF2" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="BG2" t="n">
         <v>21</v>
       </c>
       <c r="BH2" t="inlineStr">
         <is>
-          <t>2026-02-24 03:49:15</t>
+          <t>2026-02-24 05:57:15</t>
         </is>
       </c>
     </row>
@@ -956,13 +956,13 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="G3" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="H3" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="I3" t="n">
         <v>2.2</v>
@@ -974,7 +974,7 @@
         <v>3.65</v>
       </c>
       <c r="L3" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="M3" t="n">
         <v>1.09</v>
@@ -983,13 +983,13 @@
         <v>3.1</v>
       </c>
       <c r="O3" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="P3" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="R3" t="n">
         <v>1.27</v>
@@ -998,7 +998,7 @@
         <v>4.1</v>
       </c>
       <c r="T3" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="U3" t="n">
         <v>1.9</v>
@@ -1013,10 +1013,10 @@
         <v>11.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Z3" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AA3" t="n">
         <v>27</v>
@@ -1046,16 +1046,16 @@
         <v>50</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AK3" t="n">
-        <v>190</v>
+        <v>100</v>
       </c>
       <c r="AL3" t="n">
         <v>200</v>
       </c>
       <c r="AM3" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN3" t="n">
         <v>1000</v>
@@ -1100,26 +1100,26 @@
         <v>36</v>
       </c>
       <c r="BB3" t="n">
-        <v>9.4</v>
+        <v>10</v>
       </c>
       <c r="BC3" t="n">
-        <v>9.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="BD3" t="n">
-        <v>9.199999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="BE3" t="n">
+        <v>10</v>
+      </c>
+      <c r="BF3" t="n">
         <v>9.800000000000001</v>
-      </c>
-      <c r="BF3" t="n">
-        <v>9.199999999999999</v>
       </c>
       <c r="BG3" t="n">
         <v>17</v>
       </c>
       <c r="BH3" t="inlineStr">
         <is>
-          <t>2026-02-24 03:49:15</t>
+          <t>2026-02-24 05:57:15</t>
         </is>
       </c>
     </row>
@@ -1174,7 +1174,7 @@
         <v>1.06</v>
       </c>
       <c r="N4" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="O4" t="n">
         <v>1.3</v>
@@ -1189,19 +1189,19 @@
         <v>1.39</v>
       </c>
       <c r="S4" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="T4" t="n">
         <v>1.95</v>
       </c>
       <c r="U4" t="n">
-        <v>1.86</v>
+        <v>1.96</v>
       </c>
       <c r="V4" t="n">
         <v>1.16</v>
       </c>
       <c r="W4" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="X4" t="n">
         <v>90</v>
@@ -1261,10 +1261,10 @@
         <v>9.6</v>
       </c>
       <c r="AQ4" t="n">
-        <v>7.6</v>
+        <v>8.6</v>
       </c>
       <c r="AR4" t="n">
-        <v>4.2</v>
+        <v>9.6</v>
       </c>
       <c r="AS4" t="n">
         <v>10.5</v>
@@ -1276,10 +1276,10 @@
         <v>7.2</v>
       </c>
       <c r="AV4" t="n">
-        <v>8</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AW4" t="n">
-        <v>6.6</v>
+        <v>10</v>
       </c>
       <c r="AX4" t="n">
         <v>5.5</v>
@@ -1291,19 +1291,19 @@
         <v>16</v>
       </c>
       <c r="BA4" t="n">
-        <v>4.2</v>
+        <v>10</v>
       </c>
       <c r="BB4" t="n">
         <v>7</v>
       </c>
       <c r="BC4" t="n">
-        <v>7</v>
+        <v>7.8</v>
       </c>
       <c r="BD4" t="n">
-        <v>2.34</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="BE4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BF4" t="n">
         <v>6.8</v>
@@ -1313,7 +1313,7 @@
       </c>
       <c r="BH4" t="inlineStr">
         <is>
-          <t>2026-02-24 03:49:15</t>
+          <t>2026-02-24 05:57:15</t>
         </is>
       </c>
     </row>
@@ -1344,22 +1344,22 @@
         </is>
       </c>
       <c r="F5" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="G5" t="n">
         <v>1.43</v>
       </c>
-      <c r="G5" t="n">
-        <v>1.44</v>
-      </c>
       <c r="H5" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="I5" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J5" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="K5" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="L5" t="n">
         <v>1.25</v>
@@ -1374,16 +1374,16 @@
         <v>1.15</v>
       </c>
       <c r="P5" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="R5" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="S5" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="T5" t="n">
         <v>1.7</v>
@@ -1392,22 +1392,22 @@
         <v>2.4</v>
       </c>
       <c r="V5" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="W5" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="X5" t="n">
         <v>34</v>
       </c>
       <c r="Y5" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="Z5" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AA5" t="n">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="AB5" t="n">
         <v>13</v>
@@ -1416,7 +1416,7 @@
         <v>13</v>
       </c>
       <c r="AD5" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AE5" t="n">
         <v>90</v>
@@ -1425,10 +1425,10 @@
         <v>11</v>
       </c>
       <c r="AG5" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AH5" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI5" t="n">
         <v>70</v>
@@ -1440,7 +1440,7 @@
         <v>13.5</v>
       </c>
       <c r="AL5" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AM5" t="n">
         <v>80</v>
@@ -1449,13 +1449,13 @@
         <v>4.6</v>
       </c>
       <c r="AO5" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AP5" t="n">
         <v>32</v>
       </c>
       <c r="AQ5" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AR5" t="n">
         <v>70</v>
@@ -1470,10 +1470,10 @@
         <v>12.5</v>
       </c>
       <c r="AV5" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AW5" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AX5" t="n">
         <v>10.5</v>
@@ -1482,7 +1482,7 @@
         <v>9.6</v>
       </c>
       <c r="AZ5" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="BA5" t="n">
         <v>60</v>
@@ -1494,20 +1494,20 @@
         <v>13</v>
       </c>
       <c r="BD5" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BE5" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="BF5" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="BG5" t="n">
         <v>60</v>
       </c>
       <c r="BH5" t="inlineStr">
         <is>
-          <t>2026-02-24 03:49:15</t>
+          <t>2026-02-24 05:57:15</t>
         </is>
       </c>
     </row>
@@ -1538,25 +1538,25 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.94</v>
+        <v>3.55</v>
       </c>
       <c r="G6" t="n">
-        <v>3.45</v>
+        <v>4.1</v>
       </c>
       <c r="H6" t="n">
-        <v>2.28</v>
+        <v>2.04</v>
       </c>
       <c r="I6" t="n">
-        <v>2.62</v>
+        <v>2.18</v>
       </c>
       <c r="J6" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="K6" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="L6" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="M6" t="n">
         <v>1.06</v>
@@ -1565,43 +1565,43 @@
         <v>4.3</v>
       </c>
       <c r="O6" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="P6" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="R6" t="n">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="S6" t="n">
-        <v>2.84</v>
+        <v>3</v>
       </c>
       <c r="T6" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="U6" t="n">
         <v>2.2</v>
       </c>
       <c r="V6" t="n">
-        <v>1.61</v>
+        <v>1.84</v>
       </c>
       <c r="W6" t="n">
-        <v>1.4</v>
+        <v>1.34</v>
       </c>
       <c r="X6" t="n">
+        <v>32</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Z6" t="n">
         <v>36</v>
       </c>
-      <c r="Y6" t="n">
-        <v>24</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>1000</v>
-      </c>
       <c r="AA6" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="AB6" t="n">
         <v>500</v>
@@ -1610,10 +1610,10 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AD6" t="n">
-        <v>24</v>
+        <v>11.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AF6" t="n">
         <v>1000</v>
@@ -1628,7 +1628,7 @@
         <v>1000</v>
       </c>
       <c r="AJ6" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="AK6" t="n">
         <v>1000</v>
@@ -1646,62 +1646,62 @@
         <v>55</v>
       </c>
       <c r="AP6" t="n">
-        <v>5.6</v>
+        <v>6.4</v>
       </c>
       <c r="AQ6" t="n">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="AR6" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="AS6" t="n">
+        <v>7</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AW6" t="n">
         <v>6.8</v>
       </c>
-      <c r="AT6" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>5</v>
-      </c>
-      <c r="AW6" t="n">
-        <v>6.4</v>
-      </c>
       <c r="AX6" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AY6" t="n">
         <v>6.2</v>
       </c>
-      <c r="AY6" t="n">
-        <v>5.3</v>
-      </c>
       <c r="AZ6" t="n">
-        <v>5.6</v>
+        <v>6.2</v>
       </c>
       <c r="BA6" t="n">
-        <v>6.8</v>
+        <v>7.6</v>
       </c>
       <c r="BB6" t="n">
-        <v>7.2</v>
+        <v>8.6</v>
       </c>
       <c r="BC6" t="n">
-        <v>6.8</v>
+        <v>8</v>
       </c>
       <c r="BD6" t="n">
-        <v>7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="BE6" t="n">
-        <v>7.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="BF6" t="n">
-        <v>6.6</v>
+        <v>8</v>
       </c>
       <c r="BG6" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="BH6" t="inlineStr">
         <is>
-          <t>2026-02-24 03:49:15</t>
+          <t>2026-02-24 05:57:15</t>
         </is>
       </c>
     </row>
@@ -1741,7 +1741,7 @@
         <v>2.34</v>
       </c>
       <c r="I7" t="n">
-        <v>2.64</v>
+        <v>2.56</v>
       </c>
       <c r="J7" t="n">
         <v>3.5</v>
@@ -1765,13 +1765,13 @@
         <v>2.12</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.74</v>
+        <v>1.77</v>
       </c>
       <c r="R7" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="S7" t="n">
-        <v>2.88</v>
+        <v>2.86</v>
       </c>
       <c r="T7" t="n">
         <v>1.64</v>
@@ -1780,7 +1780,7 @@
         <v>2.3</v>
       </c>
       <c r="V7" t="n">
-        <v>1.61</v>
+        <v>1.64</v>
       </c>
       <c r="W7" t="n">
         <v>1.44</v>
@@ -1795,7 +1795,7 @@
         <v>18</v>
       </c>
       <c r="AA7" t="n">
-        <v>85</v>
+        <v>36</v>
       </c>
       <c r="AB7" t="n">
         <v>14.5</v>
@@ -1819,7 +1819,7 @@
         <v>16.5</v>
       </c>
       <c r="AI7" t="n">
-        <v>160</v>
+        <v>36</v>
       </c>
       <c r="AJ7" t="n">
         <v>240</v>
@@ -1831,25 +1831,25 @@
         <v>250</v>
       </c>
       <c r="AM7" t="n">
-        <v>580</v>
+        <v>390</v>
       </c>
       <c r="AN7" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AO7" t="n">
         <v>17.5</v>
       </c>
       <c r="AP7" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AQ7" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AR7" t="n">
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
       <c r="AS7" t="n">
-        <v>13.5</v>
+        <v>15.5</v>
       </c>
       <c r="AT7" t="n">
         <v>11.5</v>
@@ -1885,17 +1885,17 @@
         <v>23</v>
       </c>
       <c r="BE7" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BF7" t="n">
-        <v>18.5</v>
+        <v>20</v>
       </c>
       <c r="BG7" t="n">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="BH7" t="inlineStr">
         <is>
-          <t>2026-02-24 03:49:15</t>
+          <t>2026-02-24 05:57:15</t>
         </is>
       </c>
     </row>
@@ -1929,25 +1929,25 @@
         <v>1.45</v>
       </c>
       <c r="G8" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="H8" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="I8" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="J8" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="K8" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="L8" t="n">
         <v>1.31</v>
       </c>
       <c r="M8" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N8" t="n">
         <v>4.7</v>
@@ -1956,28 +1956,28 @@
         <v>1.21</v>
       </c>
       <c r="P8" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="R8" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="S8" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="T8" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="U8" t="n">
-        <v>2</v>
+        <v>1.96</v>
       </c>
       <c r="V8" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="W8" t="n">
-        <v>2.8</v>
+        <v>2.92</v>
       </c>
       <c r="X8" t="n">
         <v>30</v>
@@ -1992,10 +1992,10 @@
         <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>500</v>
+        <v>16.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="AD8" t="n">
         <v>1000</v>
@@ -2004,7 +2004,7 @@
         <v>1000</v>
       </c>
       <c r="AF8" t="n">
-        <v>500</v>
+        <v>19</v>
       </c>
       <c r="AG8" t="n">
         <v>40</v>
@@ -2016,7 +2016,7 @@
         <v>1000</v>
       </c>
       <c r="AJ8" t="n">
-        <v>36</v>
+        <v>180</v>
       </c>
       <c r="AK8" t="n">
         <v>80</v>
@@ -2028,7 +2028,7 @@
         <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>15</v>
+        <v>6.4</v>
       </c>
       <c r="AO8" t="n">
         <v>1000</v>
@@ -2037,7 +2037,7 @@
         <v>19</v>
       </c>
       <c r="AQ8" t="n">
-        <v>5.9</v>
+        <v>7.4</v>
       </c>
       <c r="AR8" t="n">
         <v>4.2</v>
@@ -2049,47 +2049,47 @@
         <v>5.6</v>
       </c>
       <c r="AU8" t="n">
-        <v>4.8</v>
+        <v>5.6</v>
       </c>
       <c r="AV8" t="n">
-        <v>5.7</v>
+        <v>4.2</v>
       </c>
       <c r="AW8" t="n">
         <v>4.2</v>
       </c>
       <c r="AX8" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="AY8" t="n">
         <v>6.4</v>
       </c>
       <c r="AZ8" t="n">
-        <v>5.7</v>
+        <v>4</v>
       </c>
       <c r="BA8" t="n">
         <v>4.2</v>
       </c>
       <c r="BB8" t="n">
-        <v>4.8</v>
+        <v>6</v>
       </c>
       <c r="BC8" t="n">
-        <v>5</v>
+        <v>6.8</v>
       </c>
       <c r="BD8" t="n">
-        <v>6</v>
+        <v>14.5</v>
       </c>
       <c r="BE8" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="BF8" t="n">
-        <v>3.5</v>
+        <v>5.3</v>
       </c>
       <c r="BG8" t="n">
         <v>4.2</v>
       </c>
       <c r="BH8" t="inlineStr">
         <is>
-          <t>2026-02-24 03:49:15</t>
+          <t>2026-02-24 05:57:15</t>
         </is>
       </c>
     </row>
@@ -2126,43 +2126,43 @@
         <v>1.34</v>
       </c>
       <c r="H9" t="n">
-        <v>7.8</v>
+        <v>11</v>
       </c>
       <c r="I9" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="J9" t="n">
-        <v>5.4</v>
+        <v>6.2</v>
       </c>
       <c r="K9" t="n">
         <v>7.2</v>
       </c>
       <c r="L9" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="M9" t="n">
         <v>1.02</v>
       </c>
       <c r="N9" t="n">
-        <v>5.3</v>
+        <v>6.4</v>
       </c>
       <c r="O9" t="n">
         <v>1.15</v>
       </c>
       <c r="P9" t="n">
-        <v>2.74</v>
+        <v>2.86</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.41</v>
+        <v>1.46</v>
       </c>
       <c r="R9" t="n">
         <v>1.74</v>
       </c>
       <c r="S9" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="T9" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="U9" t="n">
         <v>1.96</v>
@@ -2171,7 +2171,7 @@
         <v>1.08</v>
       </c>
       <c r="W9" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="X9" t="n">
         <v>34</v>
@@ -2180,7 +2180,7 @@
         <v>130</v>
       </c>
       <c r="Z9" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AA9" t="n">
         <v>1000</v>
@@ -2204,7 +2204,7 @@
         <v>11.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AI9" t="n">
         <v>1000</v>
@@ -2216,74 +2216,74 @@
         <v>14</v>
       </c>
       <c r="AL9" t="n">
-        <v>34</v>
+        <v>95</v>
       </c>
       <c r="AM9" t="n">
         <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="AO9" t="n">
         <v>1000</v>
       </c>
       <c r="AP9" t="n">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="AQ9" t="n">
-        <v>9.6</v>
+        <v>20</v>
       </c>
       <c r="AR9" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AS9" t="n">
-        <v>4.2</v>
+        <v>12.5</v>
       </c>
       <c r="AT9" t="n">
-        <v>6.4</v>
+        <v>10</v>
       </c>
       <c r="AU9" t="n">
         <v>7.6</v>
       </c>
       <c r="AV9" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>12</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="BB9" t="n">
         <v>9.4</v>
       </c>
-      <c r="AW9" t="n">
-        <v>11</v>
-      </c>
-      <c r="AX9" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AY9" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="AZ9" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="BA9" t="n">
-        <v>11</v>
-      </c>
-      <c r="BB9" t="n">
-        <v>5.7</v>
-      </c>
       <c r="BC9" t="n">
-        <v>6.4</v>
+        <v>12</v>
       </c>
       <c r="BD9" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="BE9" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="BF9" t="n">
-        <v>3</v>
+        <v>3.55</v>
       </c>
       <c r="BG9" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="BH9" t="inlineStr">
         <is>
-          <t>2026-02-24 03:49:15</t>
+          <t>2026-02-24 05:57:15</t>
         </is>
       </c>
     </row>
@@ -2314,7 +2314,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="G10" t="n">
         <v>2.14</v>
@@ -2329,10 +2329,10 @@
         <v>3.4</v>
       </c>
       <c r="K10" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L10" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="M10" t="n">
         <v>1.08</v>
@@ -2344,16 +2344,16 @@
         <v>1.35</v>
       </c>
       <c r="P10" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="R10" t="n">
         <v>1.32</v>
       </c>
       <c r="S10" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="T10" t="n">
         <v>1.84</v>
@@ -2362,7 +2362,7 @@
         <v>2.04</v>
       </c>
       <c r="V10" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="W10" t="n">
         <v>1.87</v>
@@ -2419,7 +2419,7 @@
         <v>17</v>
       </c>
       <c r="AO10" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="AP10" t="n">
         <v>11</v>
@@ -2428,10 +2428,10 @@
         <v>13</v>
       </c>
       <c r="AR10" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="AS10" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AT10" t="n">
         <v>7.6</v>
@@ -2452,7 +2452,7 @@
         <v>9.4</v>
       </c>
       <c r="AZ10" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="BA10" t="n">
         <v>29</v>
@@ -2467,17 +2467,17 @@
         <v>23</v>
       </c>
       <c r="BE10" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="BF10" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="BG10" t="n">
-        <v>13.5</v>
+        <v>20</v>
       </c>
       <c r="BH10" t="inlineStr">
         <is>
-          <t>2026-02-24 03:49:15</t>
+          <t>2026-02-24 05:57:15</t>
         </is>
       </c>
     </row>
@@ -2511,22 +2511,22 @@
         <v>6.6</v>
       </c>
       <c r="G11" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="H11" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="I11" t="n">
         <v>1.54</v>
       </c>
       <c r="J11" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="K11" t="n">
         <v>5.3</v>
       </c>
       <c r="L11" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="M11" t="n">
         <v>1.04</v>
@@ -2544,13 +2544,13 @@
         <v>1.67</v>
       </c>
       <c r="R11" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="S11" t="n">
         <v>2.72</v>
       </c>
       <c r="T11" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="U11" t="n">
         <v>2.06</v>
@@ -2562,7 +2562,7 @@
         <v>1.16</v>
       </c>
       <c r="X11" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="Y11" t="n">
         <v>10.5</v>
@@ -2574,10 +2574,10 @@
         <v>14.5</v>
       </c>
       <c r="AB11" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AC11" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AD11" t="n">
         <v>10.5</v>
@@ -2592,19 +2592,19 @@
         <v>26</v>
       </c>
       <c r="AH11" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI11" t="n">
         <v>29</v>
       </c>
       <c r="AJ11" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="AK11" t="n">
         <v>90</v>
       </c>
       <c r="AL11" t="n">
-        <v>230</v>
+        <v>80</v>
       </c>
       <c r="AM11" t="n">
         <v>110</v>
@@ -2613,19 +2613,19 @@
         <v>85</v>
       </c>
       <c r="AO11" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="AP11" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AQ11" t="n">
         <v>9.4</v>
       </c>
       <c r="AR11" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AS11" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AT11" t="n">
         <v>23</v>
@@ -2652,26 +2652,26 @@
         <v>26</v>
       </c>
       <c r="BB11" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="BC11" t="n">
-        <v>17.5</v>
+        <v>28</v>
       </c>
       <c r="BD11" t="n">
         <v>15.5</v>
       </c>
       <c r="BE11" t="n">
-        <v>16</v>
+        <v>19.5</v>
       </c>
       <c r="BF11" t="n">
         <v>70</v>
       </c>
       <c r="BG11" t="n">
-        <v>6</v>
+        <v>5.7</v>
       </c>
       <c r="BH11" t="inlineStr">
         <is>
-          <t>2026-02-24 03:49:15</t>
+          <t>2026-02-24 05:57:15</t>
         </is>
       </c>
     </row>
@@ -2702,22 +2702,22 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="G12" t="n">
-        <v>2.24</v>
+        <v>2.2</v>
       </c>
       <c r="H12" t="n">
         <v>3.45</v>
       </c>
       <c r="I12" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="J12" t="n">
         <v>3.75</v>
       </c>
       <c r="K12" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="L12" t="n">
         <v>1.34</v>
@@ -2726,7 +2726,7 @@
         <v>1.05</v>
       </c>
       <c r="N12" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="O12" t="n">
         <v>1.24</v>
@@ -2744,19 +2744,19 @@
         <v>2.88</v>
       </c>
       <c r="T12" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="U12" t="n">
-        <v>2.38</v>
+        <v>2.34</v>
       </c>
       <c r="V12" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="W12" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="X12" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y12" t="n">
         <v>17.5</v>
@@ -2819,7 +2819,7 @@
         <v>20</v>
       </c>
       <c r="AS12" t="n">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="AT12" t="n">
         <v>10.5</v>
@@ -2843,19 +2843,19 @@
         <v>14</v>
       </c>
       <c r="BA12" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="BB12" t="n">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="BC12" t="n">
         <v>18</v>
       </c>
       <c r="BD12" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="BE12" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="BF12" t="n">
         <v>11</v>
@@ -2865,7 +2865,7 @@
       </c>
       <c r="BH12" t="inlineStr">
         <is>
-          <t>2026-02-24 03:49:15</t>
+          <t>2026-02-24 05:57:15</t>
         </is>
       </c>
     </row>
@@ -2899,7 +2899,7 @@
         <v>10</v>
       </c>
       <c r="G13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H13" t="n">
         <v>1.33</v>
@@ -2911,7 +2911,7 @@
         <v>6</v>
       </c>
       <c r="K13" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="L13" t="n">
         <v>1.27</v>
@@ -2926,13 +2926,13 @@
         <v>1.16</v>
       </c>
       <c r="P13" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.51</v>
+        <v>1.54</v>
       </c>
       <c r="R13" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="S13" t="n">
         <v>2.3</v>
@@ -2941,34 +2941,34 @@
         <v>1.83</v>
       </c>
       <c r="U13" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="V13" t="n">
         <v>3.75</v>
       </c>
       <c r="W13" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="X13" t="n">
         <v>29</v>
       </c>
       <c r="Y13" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AA13" t="n">
         <v>11.5</v>
       </c>
       <c r="AB13" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AC13" t="n">
         <v>14</v>
       </c>
       <c r="AD13" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AE13" t="n">
         <v>13</v>
@@ -2977,13 +2977,13 @@
         <v>110</v>
       </c>
       <c r="AG13" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AH13" t="n">
         <v>46</v>
       </c>
       <c r="AI13" t="n">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="AJ13" t="n">
         <v>450</v>
@@ -3028,13 +3028,13 @@
         <v>12</v>
       </c>
       <c r="AX13" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AY13" t="n">
         <v>32</v>
       </c>
       <c r="AZ13" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BA13" t="n">
         <v>25</v>
@@ -3043,23 +3043,23 @@
         <v>15.5</v>
       </c>
       <c r="BC13" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="BD13" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="BE13" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="BF13" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="BG13" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="BH13" t="inlineStr">
         <is>
-          <t>2026-02-24 03:49:15</t>
+          <t>2026-02-24 05:57:15</t>
         </is>
       </c>
     </row>
@@ -3096,16 +3096,16 @@
         <v>3.8</v>
       </c>
       <c r="H14" t="n">
-        <v>2.02</v>
+        <v>1.99</v>
       </c>
       <c r="I14" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="J14" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K14" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="L14" t="n">
         <v>1.3</v>
@@ -3114,31 +3114,31 @@
         <v>1.04</v>
       </c>
       <c r="N14" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="O14" t="n">
         <v>1.2</v>
       </c>
       <c r="P14" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="S14" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="T14" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="U14" t="n">
         <v>2.54</v>
       </c>
-      <c r="Q14" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="S14" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="T14" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="U14" t="n">
-        <v>2.46</v>
-      </c>
       <c r="V14" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W14" t="n">
         <v>1.35</v>
@@ -3150,7 +3150,7 @@
         <v>14</v>
       </c>
       <c r="Z14" t="n">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="AA14" t="n">
         <v>75</v>
@@ -3159,19 +3159,19 @@
         <v>20</v>
       </c>
       <c r="AC14" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AD14" t="n">
         <v>11.5</v>
       </c>
       <c r="AE14" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AF14" t="n">
         <v>75</v>
       </c>
       <c r="AG14" t="n">
-        <v>16.5</v>
+        <v>24</v>
       </c>
       <c r="AH14" t="n">
         <v>16</v>
@@ -3192,10 +3192,10 @@
         <v>250</v>
       </c>
       <c r="AN14" t="n">
-        <v>500</v>
+        <v>23</v>
       </c>
       <c r="AO14" t="n">
-        <v>10</v>
+        <v>8.6</v>
       </c>
       <c r="AP14" t="n">
         <v>20</v>
@@ -3207,10 +3207,10 @@
         <v>13</v>
       </c>
       <c r="AS14" t="n">
-        <v>19.5</v>
+        <v>13.5</v>
       </c>
       <c r="AT14" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AU14" t="n">
         <v>8.6</v>
@@ -3219,7 +3219,7 @@
         <v>9.6</v>
       </c>
       <c r="AW14" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AX14" t="n">
         <v>14.5</v>
@@ -3231,29 +3231,29 @@
         <v>13.5</v>
       </c>
       <c r="BA14" t="n">
-        <v>19.5</v>
+        <v>15</v>
       </c>
       <c r="BB14" t="n">
-        <v>9.199999999999999</v>
+        <v>13.5</v>
       </c>
       <c r="BC14" t="n">
         <v>16</v>
       </c>
       <c r="BD14" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="BE14" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="BF14" t="n">
-        <v>7.8</v>
+        <v>11</v>
       </c>
       <c r="BG14" t="n">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="BH14" t="inlineStr">
         <is>
-          <t>2026-02-24 03:49:15</t>
+          <t>2026-02-24 05:57:15</t>
         </is>
       </c>
     </row>
@@ -3284,22 +3284,22 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.43</v>
+        <v>1.46</v>
       </c>
       <c r="G15" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="H15" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="I15" t="n">
-        <v>8.6</v>
+        <v>7.6</v>
       </c>
       <c r="J15" t="n">
         <v>5.3</v>
       </c>
       <c r="K15" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="L15" t="n">
         <v>1.25</v>
@@ -3308,7 +3308,7 @@
         <v>1.02</v>
       </c>
       <c r="N15" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="O15" t="n">
         <v>1.15</v>
@@ -3323,22 +3323,22 @@
         <v>1.79</v>
       </c>
       <c r="S15" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="T15" t="n">
-        <v>1.68</v>
+        <v>1.65</v>
       </c>
       <c r="U15" t="n">
-        <v>2.26</v>
+        <v>2.38</v>
       </c>
       <c r="V15" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="W15" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="X15" t="n">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="Y15" t="n">
         <v>95</v>
@@ -3353,7 +3353,7 @@
         <v>14.5</v>
       </c>
       <c r="AC15" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AD15" t="n">
         <v>32</v>
@@ -3362,19 +3362,19 @@
         <v>210</v>
       </c>
       <c r="AF15" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AG15" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH15" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AI15" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AJ15" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AK15" t="n">
         <v>16</v>
@@ -3386,13 +3386,13 @@
         <v>330</v>
       </c>
       <c r="AN15" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="AO15" t="n">
-        <v>70</v>
+        <v>270</v>
       </c>
       <c r="AP15" t="n">
-        <v>17.5</v>
+        <v>28</v>
       </c>
       <c r="AQ15" t="n">
         <v>29</v>
@@ -3404,31 +3404,31 @@
         <v>9</v>
       </c>
       <c r="AT15" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AU15" t="n">
         <v>11</v>
       </c>
       <c r="AV15" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AW15" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="AX15" t="n">
         <v>10</v>
       </c>
       <c r="AY15" t="n">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AZ15" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BA15" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="BB15" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="BC15" t="n">
         <v>12</v>
@@ -3437,17 +3437,17 @@
         <v>22</v>
       </c>
       <c r="BE15" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="BF15" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="BG15" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="BH15" t="inlineStr">
         <is>
-          <t>2026-02-24 03:49:15</t>
+          <t>2026-02-24 05:57:15</t>
         </is>
       </c>
     </row>
@@ -3484,10 +3484,10 @@
         <v>4.5</v>
       </c>
       <c r="H16" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="I16" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="J16" t="n">
         <v>2.92</v>
@@ -3499,7 +3499,7 @@
         <v>1.65</v>
       </c>
       <c r="M16" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="N16" t="n">
         <v>2.44</v>
@@ -3511,37 +3511,37 @@
         <v>1.46</v>
       </c>
       <c r="Q16" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="R16" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="S16" t="n">
         <v>6.4</v>
       </c>
       <c r="T16" t="n">
-        <v>2.04</v>
+        <v>2.1</v>
       </c>
       <c r="U16" t="n">
-        <v>1.66</v>
+        <v>1.7</v>
       </c>
       <c r="V16" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="W16" t="n">
         <v>1.28</v>
       </c>
       <c r="X16" t="n">
-        <v>9.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Y16" t="n">
         <v>7</v>
       </c>
       <c r="Z16" t="n">
-        <v>13.5</v>
+        <v>24</v>
       </c>
       <c r="AA16" t="n">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="AB16" t="n">
         <v>11</v>
@@ -3550,40 +3550,40 @@
         <v>7.6</v>
       </c>
       <c r="AD16" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="AE16" t="n">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="AF16" t="n">
-        <v>30</v>
+        <v>500</v>
       </c>
       <c r="AG16" t="n">
-        <v>20</v>
+        <v>500</v>
       </c>
       <c r="AH16" t="n">
-        <v>28</v>
+        <v>500</v>
       </c>
       <c r="AI16" t="n">
-        <v>75</v>
+        <v>500</v>
       </c>
       <c r="AJ16" t="n">
-        <v>140</v>
+        <v>900</v>
       </c>
       <c r="AK16" t="n">
-        <v>85</v>
+        <v>500</v>
       </c>
       <c r="AL16" t="n">
-        <v>130</v>
+        <v>500</v>
       </c>
       <c r="AM16" t="n">
-        <v>290</v>
+        <v>500</v>
       </c>
       <c r="AN16" t="n">
-        <v>160</v>
+        <v>600</v>
       </c>
       <c r="AO16" t="n">
-        <v>40</v>
+        <v>600</v>
       </c>
       <c r="AP16" t="n">
         <v>6.8</v>
@@ -3595,53 +3595,53 @@
         <v>10.5</v>
       </c>
       <c r="AS16" t="n">
-        <v>6.2</v>
+        <v>7</v>
       </c>
       <c r="AT16" t="n">
         <v>9</v>
       </c>
       <c r="AU16" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="AV16" t="n">
         <v>10</v>
       </c>
       <c r="AW16" t="n">
-        <v>6.4</v>
+        <v>7.2</v>
       </c>
       <c r="AX16" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AY16" t="n">
         <v>6</v>
       </c>
-      <c r="AY16" t="n">
-        <v>5.5</v>
-      </c>
       <c r="AZ16" t="n">
-        <v>6</v>
+        <v>6.6</v>
       </c>
       <c r="BA16" t="n">
-        <v>7</v>
+        <v>7.8</v>
       </c>
       <c r="BB16" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BC16" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD16" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BE16" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="BF16" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="BG16" t="n">
         <v>7.2</v>
       </c>
-      <c r="BC16" t="n">
-        <v>7</v>
-      </c>
-      <c r="BD16" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="BE16" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="BF16" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="BG16" t="n">
-        <v>6.4</v>
-      </c>
       <c r="BH16" t="inlineStr">
         <is>
-          <t>2026-02-24 03:49:15</t>
+          <t>2026-02-24 05:57:15</t>
         </is>
       </c>
     </row>
@@ -3675,13 +3675,13 @@
         <v>10</v>
       </c>
       <c r="G17" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="H17" t="n">
         <v>1.49</v>
       </c>
       <c r="I17" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="J17" t="n">
         <v>4</v>
@@ -3696,28 +3696,28 @@
         <v>1.1</v>
       </c>
       <c r="N17" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="O17" t="n">
         <v>1.45</v>
       </c>
       <c r="P17" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="R17" t="n">
         <v>1.24</v>
       </c>
       <c r="S17" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="T17" t="n">
-        <v>2.5</v>
+        <v>2.46</v>
       </c>
       <c r="U17" t="n">
-        <v>1.56</v>
+        <v>1.59</v>
       </c>
       <c r="V17" t="n">
         <v>2.88</v>
@@ -3729,10 +3729,10 @@
         <v>11</v>
       </c>
       <c r="Y17" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="Z17" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AA17" t="n">
         <v>13</v>
@@ -3762,13 +3762,13 @@
         <v>170</v>
       </c>
       <c r="AJ17" t="n">
-        <v>1000</v>
+        <v>620</v>
       </c>
       <c r="AK17" t="n">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="AL17" t="n">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="AM17" t="n">
         <v>340</v>
@@ -3777,22 +3777,22 @@
         <v>1000</v>
       </c>
       <c r="AO17" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AP17" t="n">
         <v>9.4</v>
       </c>
       <c r="AQ17" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="AR17" t="n">
         <v>6.4</v>
       </c>
       <c r="AS17" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AT17" t="n">
         <v>11</v>
-      </c>
-      <c r="AT17" t="n">
-        <v>17</v>
       </c>
       <c r="AU17" t="n">
         <v>8.800000000000001</v>
@@ -3804,38 +3804,38 @@
         <v>17</v>
       </c>
       <c r="AX17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AY17" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="AZ17" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="BA17" t="n">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="BB17" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BC17" t="n">
-        <v>12.5</v>
+        <v>36</v>
       </c>
       <c r="BD17" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="BE17" t="n">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="BF17" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="BG17" t="n">
         <v>10</v>
       </c>
       <c r="BH17" t="inlineStr">
         <is>
-          <t>2026-02-24 03:49:15</t>
+          <t>2026-02-24 05:57:15</t>
         </is>
       </c>
     </row>
@@ -3866,170 +3866,170 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="G18" t="n">
-        <v>1.56</v>
+        <v>1.54</v>
       </c>
       <c r="H18" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="I18" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="J18" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="K18" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="L18" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="M18" t="n">
         <v>1.1</v>
       </c>
       <c r="N18" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="O18" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="P18" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.36</v>
+        <v>2.32</v>
       </c>
       <c r="R18" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="S18" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="T18" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="U18" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="V18" t="n">
         <v>1.11</v>
       </c>
       <c r="W18" t="n">
-        <v>2.78</v>
+        <v>2.86</v>
       </c>
       <c r="X18" t="n">
         <v>11</v>
       </c>
       <c r="Y18" t="n">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="Z18" t="n">
-        <v>510</v>
+        <v>85</v>
       </c>
       <c r="AA18" t="n">
-        <v>520</v>
+        <v>460</v>
       </c>
       <c r="AB18" t="n">
-        <v>5.9</v>
+        <v>6.2</v>
       </c>
       <c r="AC18" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD18" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AE18" t="n">
-        <v>270</v>
+        <v>240</v>
       </c>
       <c r="AF18" t="n">
         <v>7.4</v>
       </c>
       <c r="AG18" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AH18" t="n">
-        <v>180</v>
+        <v>85</v>
       </c>
       <c r="AI18" t="n">
         <v>220</v>
       </c>
       <c r="AJ18" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AK18" t="n">
-        <v>65</v>
+        <v>19.5</v>
       </c>
       <c r="AL18" t="n">
-        <v>380</v>
+        <v>60</v>
       </c>
       <c r="AM18" t="n">
         <v>580</v>
       </c>
       <c r="AN18" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AO18" t="n">
         <v>1000</v>
       </c>
       <c r="AP18" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="AQ18" t="n">
-        <v>9.6</v>
+        <v>19</v>
       </c>
       <c r="AR18" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AS18" t="n">
-        <v>14.5</v>
+        <v>17</v>
       </c>
       <c r="AT18" t="n">
-        <v>5.2</v>
+        <v>5.6</v>
       </c>
       <c r="AU18" t="n">
-        <v>8.6</v>
+        <v>9</v>
       </c>
       <c r="AV18" t="n">
         <v>32</v>
       </c>
       <c r="AW18" t="n">
-        <v>14</v>
+        <v>17.5</v>
       </c>
       <c r="AX18" t="n">
         <v>6.6</v>
       </c>
       <c r="AY18" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AZ18" t="n">
+        <v>18</v>
+      </c>
+      <c r="BA18" t="n">
+        <v>16</v>
+      </c>
+      <c r="BB18" t="n">
+        <v>12</v>
+      </c>
+      <c r="BC18" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="BD18" t="n">
         <v>29</v>
       </c>
-      <c r="BA18" t="n">
-        <v>14</v>
-      </c>
-      <c r="BB18" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="BC18" t="n">
-        <v>18</v>
-      </c>
-      <c r="BD18" t="n">
-        <v>12</v>
-      </c>
       <c r="BE18" t="n">
-        <v>14.5</v>
+        <v>16.5</v>
       </c>
       <c r="BF18" t="n">
         <v>10</v>
       </c>
       <c r="BG18" t="n">
-        <v>14.5</v>
+        <v>16.5</v>
       </c>
       <c r="BH18" t="inlineStr">
         <is>
-          <t>2026-02-24 03:49:15</t>
+          <t>2026-02-24 05:57:15</t>
         </is>
       </c>
     </row>
@@ -4060,19 +4060,19 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="G19" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="H19" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="I19" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="J19" t="n">
-        <v>2.88</v>
+        <v>2.86</v>
       </c>
       <c r="K19" t="n">
         <v>3.05</v>
@@ -4090,7 +4090,7 @@
         <v>1.65</v>
       </c>
       <c r="P19" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="Q19" t="n">
         <v>3.05</v>
@@ -4099,7 +4099,7 @@
         <v>1.15</v>
       </c>
       <c r="S19" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="T19" t="n">
         <v>2.28</v>
@@ -4108,7 +4108,7 @@
         <v>1.67</v>
       </c>
       <c r="V19" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="W19" t="n">
         <v>1.3</v>
@@ -4177,7 +4177,7 @@
         <v>11.5</v>
       </c>
       <c r="AS19" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AT19" t="n">
         <v>8.6</v>
@@ -4189,7 +4189,7 @@
         <v>11</v>
       </c>
       <c r="AW19" t="n">
-        <v>9.6</v>
+        <v>32</v>
       </c>
       <c r="AX19" t="n">
         <v>8.800000000000001</v>
@@ -4198,7 +4198,7 @@
         <v>15</v>
       </c>
       <c r="AZ19" t="n">
-        <v>9.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="BA19" t="n">
         <v>11</v>
@@ -4213,7 +4213,7 @@
         <v>11.5</v>
       </c>
       <c r="BE19" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="BF19" t="n">
         <v>12</v>
@@ -4223,7 +4223,7 @@
       </c>
       <c r="BH19" t="inlineStr">
         <is>
-          <t>2026-02-24 03:49:15</t>
+          <t>2026-02-24 05:57:15</t>
         </is>
       </c>
     </row>
@@ -4254,25 +4254,25 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="G20" t="n">
         <v>2.26</v>
       </c>
       <c r="H20" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="I20" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="J20" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K20" t="n">
         <v>3.7</v>
       </c>
       <c r="L20" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="M20" t="n">
         <v>1.06</v>
@@ -4284,40 +4284,40 @@
         <v>1.3</v>
       </c>
       <c r="P20" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="R20" t="n">
         <v>1.39</v>
       </c>
       <c r="S20" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="T20" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="U20" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="V20" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="W20" t="n">
         <v>1.79</v>
       </c>
       <c r="X20" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Z20" t="n">
         <v>25</v>
       </c>
-      <c r="Y20" t="n">
-        <v>25</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>70</v>
-      </c>
       <c r="AA20" t="n">
-        <v>1000</v>
+        <v>440</v>
       </c>
       <c r="AB20" t="n">
         <v>10.5</v>
@@ -4326,85 +4326,85 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AD20" t="n">
-        <v>24</v>
+        <v>14.5</v>
       </c>
       <c r="AE20" t="n">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="AF20" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AG20" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH20" t="n">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="AI20" t="n">
-        <v>500</v>
+        <v>48</v>
       </c>
       <c r="AJ20" t="n">
         <v>29</v>
       </c>
       <c r="AK20" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AL20" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AM20" t="n">
-        <v>580</v>
+        <v>85</v>
       </c>
       <c r="AN20" t="n">
-        <v>55</v>
+        <v>16.5</v>
       </c>
       <c r="AO20" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AP20" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AQ20" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="AR20" t="n">
         <v>22</v>
       </c>
       <c r="AS20" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="AT20" t="n">
-        <v>9.199999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AU20" t="n">
         <v>7.4</v>
       </c>
       <c r="AV20" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AW20" t="n">
+        <v>36</v>
+      </c>
+      <c r="AX20" t="n">
+        <v>13</v>
+      </c>
+      <c r="AY20" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ20" t="n">
+        <v>15</v>
+      </c>
+      <c r="BA20" t="n">
         <v>34</v>
       </c>
-      <c r="AX20" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AY20" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AZ20" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="BA20" t="n">
-        <v>12</v>
-      </c>
       <c r="BB20" t="n">
-        <v>14.5</v>
+        <v>25</v>
       </c>
       <c r="BC20" t="n">
         <v>20</v>
       </c>
       <c r="BD20" t="n">
-        <v>11.5</v>
+        <v>30</v>
       </c>
       <c r="BE20" t="n">
         <v>26</v>
@@ -4413,11 +4413,11 @@
         <v>14.5</v>
       </c>
       <c r="BG20" t="n">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="BH20" t="inlineStr">
         <is>
-          <t>2026-02-24 03:49:15</t>
+          <t>2026-02-24 05:57:15</t>
         </is>
       </c>
     </row>
@@ -4463,7 +4463,7 @@
         <v>3.6</v>
       </c>
       <c r="K21" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L21" t="n">
         <v>1.34</v>
@@ -4472,7 +4472,7 @@
         <v>1.05</v>
       </c>
       <c r="N21" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="O21" t="n">
         <v>1.24</v>
@@ -4490,7 +4490,7 @@
         <v>2.8</v>
       </c>
       <c r="T21" t="n">
-        <v>1.63</v>
+        <v>1.66</v>
       </c>
       <c r="U21" t="n">
         <v>2.32</v>
@@ -4502,7 +4502,7 @@
         <v>1.39</v>
       </c>
       <c r="X21" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="Y21" t="n">
         <v>13</v>
@@ -4565,7 +4565,7 @@
         <v>13</v>
       </c>
       <c r="AS21" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AT21" t="n">
         <v>13.5</v>
@@ -4574,7 +4574,7 @@
         <v>7.6</v>
       </c>
       <c r="AV21" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AW21" t="n">
         <v>18.5</v>
@@ -4589,29 +4589,29 @@
         <v>13.5</v>
       </c>
       <c r="BA21" t="n">
-        <v>7.4</v>
+        <v>14.5</v>
       </c>
       <c r="BB21" t="n">
-        <v>8</v>
+        <v>8.6</v>
       </c>
       <c r="BC21" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="BD21" t="n">
-        <v>7.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="BE21" t="n">
-        <v>8.6</v>
+        <v>32</v>
       </c>
       <c r="BF21" t="n">
-        <v>7.8</v>
+        <v>13.5</v>
       </c>
       <c r="BG21" t="n">
         <v>11.5</v>
       </c>
       <c r="BH21" t="inlineStr">
         <is>
-          <t>2026-02-24 03:49:15</t>
+          <t>2026-02-24 05:57:15</t>
         </is>
       </c>
     </row>
@@ -4642,10 +4642,10 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.73</v>
+        <v>1.76</v>
       </c>
       <c r="G22" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="H22" t="n">
         <v>4.4</v>
@@ -4657,7 +4657,7 @@
         <v>3.9</v>
       </c>
       <c r="K22" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="L22" t="n">
         <v>1.31</v>
@@ -4672,19 +4672,19 @@
         <v>1.2</v>
       </c>
       <c r="P22" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="R22" t="n">
         <v>1.54</v>
       </c>
       <c r="S22" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="T22" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="U22" t="n">
         <v>2.28</v>
@@ -4693,13 +4693,13 @@
         <v>1.25</v>
       </c>
       <c r="W22" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="X22" t="n">
         <v>24</v>
       </c>
       <c r="Y22" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Z22" t="n">
         <v>40</v>
@@ -4714,7 +4714,7 @@
         <v>10.5</v>
       </c>
       <c r="AD22" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AE22" t="n">
         <v>55</v>
@@ -4747,7 +4747,7 @@
         <v>9</v>
       </c>
       <c r="AO22" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AP22" t="n">
         <v>18.5</v>
@@ -4756,10 +4756,10 @@
         <v>17.5</v>
       </c>
       <c r="AR22" t="n">
-        <v>30</v>
+        <v>16.5</v>
       </c>
       <c r="AS22" t="n">
-        <v>7.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AT22" t="n">
         <v>10</v>
@@ -4771,7 +4771,7 @@
         <v>15.5</v>
       </c>
       <c r="AW22" t="n">
-        <v>7.4</v>
+        <v>20</v>
       </c>
       <c r="AX22" t="n">
         <v>11</v>
@@ -4783,16 +4783,16 @@
         <v>14</v>
       </c>
       <c r="BA22" t="n">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="BB22" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="BC22" t="n">
         <v>14.5</v>
       </c>
       <c r="BD22" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="BE22" t="n">
         <v>16</v>
@@ -4801,11 +4801,11 @@
         <v>7.2</v>
       </c>
       <c r="BG22" t="n">
-        <v>34</v>
+        <v>15.5</v>
       </c>
       <c r="BH22" t="inlineStr">
         <is>
-          <t>2026-02-24 03:49:15</t>
+          <t>2026-02-24 05:57:15</t>
         </is>
       </c>
     </row>
@@ -4839,10 +4839,10 @@
         <v>3.3</v>
       </c>
       <c r="G23" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="H23" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="I23" t="n">
         <v>2.16</v>
@@ -4851,7 +4851,7 @@
         <v>3.65</v>
       </c>
       <c r="K23" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L23" t="n">
         <v>1.35</v>
@@ -4863,7 +4863,7 @@
         <v>4.3</v>
       </c>
       <c r="O23" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="P23" t="n">
         <v>2.16</v>
@@ -4878,16 +4878,16 @@
         <v>2.88</v>
       </c>
       <c r="T23" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="U23" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="V23" t="n">
         <v>1.86</v>
       </c>
       <c r="W23" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="X23" t="n">
         <v>20</v>
@@ -4899,7 +4899,7 @@
         <v>16</v>
       </c>
       <c r="AA23" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AB23" t="n">
         <v>16.5</v>
@@ -4911,7 +4911,7 @@
         <v>11.5</v>
       </c>
       <c r="AE23" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AF23" t="n">
         <v>28</v>
@@ -4941,7 +4941,7 @@
         <v>34</v>
       </c>
       <c r="AO23" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AP23" t="n">
         <v>16</v>
@@ -4953,7 +4953,7 @@
         <v>12.5</v>
       </c>
       <c r="AS23" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AT23" t="n">
         <v>13</v>
@@ -4968,38 +4968,38 @@
         <v>18</v>
       </c>
       <c r="AX23" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AY23" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AZ23" t="n">
         <v>13.5</v>
       </c>
       <c r="BA23" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="BB23" t="n">
-        <v>7.8</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="BC23" t="n">
         <v>30</v>
       </c>
       <c r="BD23" t="n">
-        <v>8.6</v>
+        <v>21</v>
       </c>
       <c r="BE23" t="n">
-        <v>8.800000000000001</v>
+        <v>36</v>
       </c>
       <c r="BF23" t="n">
-        <v>7.4</v>
+        <v>13.5</v>
       </c>
       <c r="BG23" t="n">
         <v>11</v>
       </c>
       <c r="BH23" t="inlineStr">
         <is>
-          <t>2026-02-24 03:49:15</t>
+          <t>2026-02-24 05:57:15</t>
         </is>
       </c>
     </row>
@@ -5042,10 +5042,10 @@
         <v>2.66</v>
       </c>
       <c r="J24" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="K24" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="L24" t="n">
         <v>1.49</v>
@@ -5054,16 +5054,16 @@
         <v>1.09</v>
       </c>
       <c r="N24" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="O24" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="P24" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="R24" t="n">
         <v>1.27</v>
@@ -5072,22 +5072,22 @@
         <v>4.2</v>
       </c>
       <c r="T24" t="n">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="U24" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="V24" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="W24" t="n">
         <v>1.4</v>
       </c>
       <c r="X24" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="Y24" t="n">
-        <v>17.5</v>
+        <v>9.4</v>
       </c>
       <c r="Z24" t="n">
         <v>38</v>
@@ -5132,7 +5132,7 @@
         <v>580</v>
       </c>
       <c r="AN24" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AO24" t="n">
         <v>500</v>
@@ -5144,13 +5144,13 @@
         <v>8</v>
       </c>
       <c r="AR24" t="n">
-        <v>7</v>
+        <v>7.8</v>
       </c>
       <c r="AS24" t="n">
-        <v>9.4</v>
+        <v>12.5</v>
       </c>
       <c r="AT24" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AU24" t="n">
         <v>6.4</v>
@@ -5159,25 +5159,25 @@
         <v>6.2</v>
       </c>
       <c r="AW24" t="n">
-        <v>8.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AX24" t="n">
         <v>10.5</v>
       </c>
       <c r="AY24" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AZ24" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="BA24" t="n">
+        <v>10</v>
+      </c>
+      <c r="BB24" t="n">
+        <v>12</v>
+      </c>
+      <c r="BC24" t="n">
         <v>9.800000000000001</v>
-      </c>
-      <c r="BB24" t="n">
-        <v>10</v>
-      </c>
-      <c r="BC24" t="n">
-        <v>9.6</v>
       </c>
       <c r="BD24" t="n">
         <v>10</v>
@@ -5186,14 +5186,14 @@
         <v>28</v>
       </c>
       <c r="BF24" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="BG24" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="BH24" t="inlineStr">
         <is>
-          <t>2026-02-24 03:49:15</t>
+          <t>2026-02-24 05:57:15</t>
         </is>
       </c>
     </row>
@@ -5227,10 +5227,10 @@
         <v>7.6</v>
       </c>
       <c r="G25" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="H25" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="I25" t="n">
         <v>1.51</v>
@@ -5239,7 +5239,7 @@
         <v>4.7</v>
       </c>
       <c r="K25" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="L25" t="n">
         <v>1.34</v>
@@ -5254,25 +5254,25 @@
         <v>1.24</v>
       </c>
       <c r="P25" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="R25" t="n">
         <v>1.47</v>
       </c>
       <c r="S25" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="T25" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="U25" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="V25" t="n">
-        <v>2.96</v>
+        <v>2.9</v>
       </c>
       <c r="W25" t="n">
         <v>1.13</v>
@@ -5290,7 +5290,7 @@
         <v>13.5</v>
       </c>
       <c r="AB25" t="n">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="AC25" t="n">
         <v>11.5</v>
@@ -5305,10 +5305,10 @@
         <v>190</v>
       </c>
       <c r="AG25" t="n">
-        <v>32</v>
+        <v>120</v>
       </c>
       <c r="AH25" t="n">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="AI25" t="n">
         <v>36</v>
@@ -5329,7 +5329,7 @@
         <v>1000</v>
       </c>
       <c r="AO25" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AP25" t="n">
         <v>17.5</v>
@@ -5341,10 +5341,10 @@
         <v>8</v>
       </c>
       <c r="AS25" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AT25" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AU25" t="n">
         <v>9.6</v>
@@ -5356,38 +5356,38 @@
         <v>13</v>
       </c>
       <c r="AX25" t="n">
-        <v>9.199999999999999</v>
+        <v>30</v>
       </c>
       <c r="AY25" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AZ25" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BA25" t="n">
         <v>18</v>
       </c>
       <c r="BB25" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BC25" t="n">
-        <v>9.800000000000001</v>
+        <v>12.5</v>
       </c>
       <c r="BD25" t="n">
-        <v>9.6</v>
+        <v>11</v>
       </c>
       <c r="BE25" t="n">
         <v>17.5</v>
       </c>
       <c r="BF25" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="BG25" t="n">
         <v>5.9</v>
       </c>
       <c r="BH25" t="inlineStr">
         <is>
-          <t>2026-02-24 03:49:15</t>
+          <t>2026-02-24 05:57:15</t>
         </is>
       </c>
     </row>
@@ -5418,10 +5418,10 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="G26" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="H26" t="n">
         <v>3.35</v>
@@ -5430,7 +5430,7 @@
         <v>3.65</v>
       </c>
       <c r="J26" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="K26" t="n">
         <v>4.1</v>
@@ -5445,28 +5445,28 @@
         <v>4.9</v>
       </c>
       <c r="O26" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="P26" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="Q26" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="R26" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="S26" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="T26" t="n">
         <v>1.67</v>
       </c>
-      <c r="R26" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="S26" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="T26" t="n">
-        <v>1.65</v>
-      </c>
       <c r="U26" t="n">
-        <v>2.46</v>
+        <v>2.4</v>
       </c>
       <c r="V26" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="W26" t="n">
         <v>1.8</v>
@@ -5484,10 +5484,10 @@
         <v>900</v>
       </c>
       <c r="AB26" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AC26" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AD26" t="n">
         <v>28</v>
@@ -5511,7 +5511,7 @@
         <v>900</v>
       </c>
       <c r="AK26" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="AL26" t="n">
         <v>65</v>
@@ -5520,68 +5520,68 @@
         <v>580</v>
       </c>
       <c r="AN26" t="n">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="AO26" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="AP26" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AQ26" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AR26" t="n">
+        <v>13</v>
+      </c>
+      <c r="AS26" t="n">
+        <v>12</v>
+      </c>
+      <c r="AT26" t="n">
         <v>9</v>
       </c>
-      <c r="AQ26" t="n">
-        <v>15</v>
-      </c>
-      <c r="AR26" t="n">
+      <c r="AU26" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AV26" t="n">
+        <v>10</v>
+      </c>
+      <c r="AW26" t="n">
+        <v>16</v>
+      </c>
+      <c r="AX26" t="n">
         <v>9.4</v>
-      </c>
-      <c r="AS26" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="AT26" t="n">
-        <v>7</v>
-      </c>
-      <c r="AU26" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="AV26" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AW26" t="n">
-        <v>10</v>
-      </c>
-      <c r="AX26" t="n">
-        <v>7.6</v>
       </c>
       <c r="AY26" t="n">
         <v>10</v>
       </c>
       <c r="AZ26" t="n">
-        <v>9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="BA26" t="n">
+        <v>20</v>
+      </c>
+      <c r="BB26" t="n">
         <v>10</v>
       </c>
-      <c r="BB26" t="n">
-        <v>9.4</v>
-      </c>
       <c r="BC26" t="n">
-        <v>9.199999999999999</v>
+        <v>11</v>
       </c>
       <c r="BD26" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="BE26" t="n">
-        <v>3.5</v>
+        <v>12</v>
       </c>
       <c r="BF26" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BG26" t="n">
-        <v>9.199999999999999</v>
+        <v>10.5</v>
       </c>
       <c r="BH26" t="inlineStr">
         <is>
-          <t>2026-02-24 03:49:15</t>
+          <t>2026-02-24 05:57:15</t>
         </is>
       </c>
     </row>
@@ -5612,61 +5612,61 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>5.5</v>
+        <v>5.1</v>
       </c>
       <c r="G27" t="n">
-        <v>6.2</v>
+        <v>5.8</v>
       </c>
       <c r="H27" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="I27" t="n">
         <v>1.77</v>
       </c>
       <c r="J27" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="K27" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L27" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="M27" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N27" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="O27" t="n">
         <v>1.32</v>
       </c>
       <c r="P27" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R27" t="n">
         <v>1.35</v>
       </c>
       <c r="S27" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="T27" t="n">
         <v>1.87</v>
       </c>
       <c r="U27" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="V27" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="W27" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="X27" t="n">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="Y27" t="n">
         <v>18</v>
@@ -5675,7 +5675,7 @@
         <v>22</v>
       </c>
       <c r="AA27" t="n">
-        <v>38</v>
+        <v>900</v>
       </c>
       <c r="AB27" t="n">
         <v>970</v>
@@ -5690,7 +5690,7 @@
         <v>65</v>
       </c>
       <c r="AF27" t="n">
-        <v>500</v>
+        <v>120</v>
       </c>
       <c r="AG27" t="n">
         <v>970</v>
@@ -5720,62 +5720,62 @@
         <v>29</v>
       </c>
       <c r="AP27" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AQ27" t="n">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="AR27" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AS27" t="n">
-        <v>3.75</v>
+        <v>7.6</v>
       </c>
       <c r="AT27" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AU27" t="n">
-        <v>5.2</v>
+        <v>5.6</v>
       </c>
       <c r="AV27" t="n">
-        <v>5.4</v>
+        <v>5.8</v>
       </c>
       <c r="AW27" t="n">
-        <v>4.2</v>
+        <v>7.6</v>
       </c>
       <c r="AX27" t="n">
-        <v>4.2</v>
+        <v>9.6</v>
       </c>
       <c r="AY27" t="n">
-        <v>7.6</v>
+        <v>10.5</v>
       </c>
       <c r="AZ27" t="n">
-        <v>3.85</v>
+        <v>17</v>
       </c>
       <c r="BA27" t="n">
-        <v>2.96</v>
+        <v>4</v>
       </c>
       <c r="BB27" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="BC27" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD27" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="BE27" t="n">
         <v>4.4</v>
       </c>
-      <c r="BD27" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="BE27" t="n">
-        <v>4.5</v>
-      </c>
       <c r="BF27" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="BG27" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="BH27" t="inlineStr">
         <is>
-          <t>2026-02-24 03:49:15</t>
+          <t>2026-02-24 05:57:15</t>
         </is>
       </c>
     </row>
@@ -5806,7 +5806,7 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="G28" t="n">
         <v>2.52</v>
@@ -5818,37 +5818,37 @@
         <v>3.25</v>
       </c>
       <c r="J28" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="K28" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="L28" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="M28" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N28" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="O28" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="P28" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.76</v>
+        <v>1.81</v>
       </c>
       <c r="R28" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="S28" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="T28" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="U28" t="n">
         <v>2.32</v>
@@ -5857,13 +5857,13 @@
         <v>1.45</v>
       </c>
       <c r="W28" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="X28" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="Y28" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Z28" t="n">
         <v>24</v>
@@ -5872,10 +5872,10 @@
         <v>55</v>
       </c>
       <c r="AB28" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AC28" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="AD28" t="n">
         <v>14.5</v>
@@ -5914,7 +5914,7 @@
         <v>30</v>
       </c>
       <c r="AP28" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AQ28" t="n">
         <v>12.5</v>
@@ -5935,7 +5935,7 @@
         <v>11.5</v>
       </c>
       <c r="AW28" t="n">
-        <v>14.5</v>
+        <v>18.5</v>
       </c>
       <c r="AX28" t="n">
         <v>14.5</v>
@@ -5947,29 +5947,29 @@
         <v>13</v>
       </c>
       <c r="BA28" t="n">
-        <v>6.8</v>
+        <v>18</v>
       </c>
       <c r="BB28" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="BC28" t="n">
         <v>20</v>
       </c>
       <c r="BD28" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="BE28" t="n">
-        <v>7.2</v>
+        <v>55</v>
       </c>
       <c r="BF28" t="n">
         <v>13.5</v>
       </c>
       <c r="BG28" t="n">
-        <v>21</v>
+        <v>11.5</v>
       </c>
       <c r="BH28" t="inlineStr">
         <is>
-          <t>2026-02-24 03:49:15</t>
+          <t>2026-02-24 05:57:15</t>
         </is>
       </c>
     </row>
@@ -6000,19 +6000,19 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>3.95</v>
+        <v>4.2</v>
       </c>
       <c r="G29" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="H29" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="I29" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="J29" t="n">
         <v>4.2</v>
-      </c>
-      <c r="H29" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="I29" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="J29" t="n">
-        <v>4.3</v>
       </c>
       <c r="K29" t="n">
         <v>4.6</v>
@@ -6030,7 +6030,7 @@
         <v>1.16</v>
       </c>
       <c r="P29" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="Q29" t="n">
         <v>1.5</v>
@@ -6045,13 +6045,13 @@
         <v>1.53</v>
       </c>
       <c r="U29" t="n">
-        <v>2.6</v>
+        <v>2.52</v>
       </c>
       <c r="V29" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="W29" t="n">
-        <v>1.32</v>
+        <v>1.28</v>
       </c>
       <c r="X29" t="n">
         <v>90</v>
@@ -6066,34 +6066,34 @@
         <v>90</v>
       </c>
       <c r="AB29" t="n">
+        <v>970</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>42</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>42</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>36</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>30</v>
+      </c>
+      <c r="AI29" t="n">
         <v>46</v>
-      </c>
-      <c r="AC29" t="n">
-        <v>22</v>
-      </c>
-      <c r="AD29" t="n">
-        <v>21</v>
-      </c>
-      <c r="AE29" t="n">
-        <v>970</v>
-      </c>
-      <c r="AF29" t="n">
-        <v>100</v>
-      </c>
-      <c r="AG29" t="n">
-        <v>970</v>
-      </c>
-      <c r="AH29" t="n">
-        <v>25</v>
-      </c>
-      <c r="AI29" t="n">
-        <v>500</v>
       </c>
       <c r="AJ29" t="n">
         <v>500</v>
       </c>
       <c r="AK29" t="n">
-        <v>170</v>
+        <v>500</v>
       </c>
       <c r="AL29" t="n">
         <v>500</v>
@@ -6102,13 +6102,13 @@
         <v>580</v>
       </c>
       <c r="AN29" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AO29" t="n">
-        <v>26</v>
+        <v>19.5</v>
       </c>
       <c r="AP29" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AQ29" t="n">
         <v>8.4</v>
@@ -6117,53 +6117,53 @@
         <v>8.4</v>
       </c>
       <c r="AS29" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AT29" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AU29" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AV29" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AW29" t="n">
         <v>7</v>
       </c>
-      <c r="AT29" t="n">
-        <v>8</v>
-      </c>
-      <c r="AU29" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="AV29" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="AW29" t="n">
-        <v>6.8</v>
-      </c>
       <c r="AX29" t="n">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="AY29" t="n">
-        <v>15</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AZ29" t="n">
-        <v>8.4</v>
+        <v>13</v>
       </c>
       <c r="BA29" t="n">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="BB29" t="n">
-        <v>5.2</v>
+        <v>3.8</v>
       </c>
       <c r="BC29" t="n">
-        <v>8</v>
+        <v>8.6</v>
       </c>
       <c r="BD29" t="n">
-        <v>8.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="BE29" t="n">
-        <v>9.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="BF29" t="n">
-        <v>20</v>
+        <v>7.8</v>
       </c>
       <c r="BG29" t="n">
-        <v>6.4</v>
+        <v>4.4</v>
       </c>
       <c r="BH29" t="inlineStr">
         <is>
-          <t>2026-02-24 03:49:15</t>
+          <t>2026-02-24 05:57:15</t>
         </is>
       </c>
     </row>
@@ -6194,22 +6194,22 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="G30" t="n">
         <v>2.34</v>
       </c>
       <c r="H30" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="I30" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="J30" t="n">
         <v>3.4</v>
       </c>
       <c r="K30" t="n">
-        <v>3.45</v>
+        <v>3.7</v>
       </c>
       <c r="L30" t="n">
         <v>1.42</v>
@@ -6233,10 +6233,10 @@
         <v>1.35</v>
       </c>
       <c r="S30" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="T30" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="U30" t="n">
         <v>2.06</v>
@@ -6299,7 +6299,7 @@
         <v>55</v>
       </c>
       <c r="AO30" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AP30" t="n">
         <v>12</v>
@@ -6311,7 +6311,7 @@
         <v>11.5</v>
       </c>
       <c r="AS30" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AT30" t="n">
         <v>8.199999999999999</v>
@@ -6323,7 +6323,7 @@
         <v>12.5</v>
       </c>
       <c r="AW30" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AX30" t="n">
         <v>12</v>
@@ -6344,20 +6344,20 @@
         <v>11.5</v>
       </c>
       <c r="BD30" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="BE30" t="n">
         <v>8.4</v>
       </c>
       <c r="BF30" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="BG30" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="BH30" t="inlineStr">
         <is>
-          <t>2026-02-24 03:49:15</t>
+          <t>2026-02-24 05:57:15</t>
         </is>
       </c>
     </row>
@@ -6388,13 +6388,13 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="G31" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="H31" t="n">
-        <v>5.9</v>
+        <v>5.6</v>
       </c>
       <c r="I31" t="n">
         <v>6.4</v>
@@ -6418,31 +6418,31 @@
         <v>1.22</v>
       </c>
       <c r="P31" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="R31" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="S31" t="n">
-        <v>2.74</v>
+        <v>2.7</v>
       </c>
       <c r="T31" t="n">
         <v>1.74</v>
       </c>
       <c r="U31" t="n">
-        <v>2.16</v>
+        <v>2.28</v>
       </c>
       <c r="V31" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="W31" t="n">
-        <v>2.56</v>
+        <v>2.5</v>
       </c>
       <c r="X31" t="n">
-        <v>90</v>
+        <v>970</v>
       </c>
       <c r="Y31" t="n">
         <v>970</v>
@@ -6454,7 +6454,7 @@
         <v>700</v>
       </c>
       <c r="AB31" t="n">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="AC31" t="n">
         <v>15</v>
@@ -6466,19 +6466,19 @@
         <v>420</v>
       </c>
       <c r="AF31" t="n">
-        <v>500</v>
+        <v>970</v>
       </c>
       <c r="AG31" t="n">
-        <v>18</v>
+        <v>10.5</v>
       </c>
       <c r="AH31" t="n">
         <v>970</v>
       </c>
       <c r="AI31" t="n">
-        <v>700</v>
+        <v>330</v>
       </c>
       <c r="AJ31" t="n">
-        <v>180</v>
+        <v>28</v>
       </c>
       <c r="AK31" t="n">
         <v>65</v>
@@ -6490,7 +6490,7 @@
         <v>580</v>
       </c>
       <c r="AN31" t="n">
-        <v>15</v>
+        <v>7.6</v>
       </c>
       <c r="AO31" t="n">
         <v>700</v>
@@ -6499,59 +6499,59 @@
         <v>10.5</v>
       </c>
       <c r="AQ31" t="n">
-        <v>9</v>
+        <v>11.5</v>
       </c>
       <c r="AR31" t="n">
-        <v>4.2</v>
+        <v>9.4</v>
       </c>
       <c r="AS31" t="n">
-        <v>6.6</v>
+        <v>8.4</v>
       </c>
       <c r="AT31" t="n">
-        <v>6</v>
+        <v>5.6</v>
       </c>
       <c r="AU31" t="n">
-        <v>9.199999999999999</v>
+        <v>5.6</v>
       </c>
       <c r="AV31" t="n">
-        <v>8.800000000000001</v>
+        <v>13</v>
       </c>
       <c r="AW31" t="n">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="AX31" t="n">
-        <v>6</v>
+        <v>5.7</v>
       </c>
       <c r="AY31" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="AZ31" t="n">
-        <v>8.199999999999999</v>
+        <v>10.5</v>
       </c>
       <c r="BA31" t="n">
         <v>4.2</v>
       </c>
       <c r="BB31" t="n">
-        <v>5.6</v>
+        <v>7.4</v>
       </c>
       <c r="BC31" t="n">
         <v>6.6</v>
       </c>
       <c r="BD31" t="n">
-        <v>5.2</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="BE31" t="n">
-        <v>12.5</v>
+        <v>10</v>
       </c>
       <c r="BF31" t="n">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="BG31" t="n">
-        <v>6.4</v>
+        <v>7.8</v>
       </c>
       <c r="BH31" t="inlineStr">
         <is>
-          <t>2026-02-24 03:49:15</t>
+          <t>2026-02-24 05:57:15</t>
         </is>
       </c>
     </row>
@@ -6597,7 +6597,7 @@
         <v>3</v>
       </c>
       <c r="K32" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="L32" t="n">
         <v>1.67</v>
@@ -6609,7 +6609,7 @@
         <v>2.44</v>
       </c>
       <c r="O32" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="P32" t="n">
         <v>1.46</v>
@@ -6636,16 +6636,16 @@
         <v>1.79</v>
       </c>
       <c r="X32" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="Y32" t="n">
         <v>10.5</v>
       </c>
       <c r="Z32" t="n">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="AA32" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="AB32" t="n">
         <v>6.4</v>
@@ -6657,7 +6657,7 @@
         <v>20</v>
       </c>
       <c r="AE32" t="n">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="AF32" t="n">
         <v>11.5</v>
@@ -6672,7 +6672,7 @@
         <v>420</v>
       </c>
       <c r="AJ32" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AK32" t="n">
         <v>38</v>
@@ -6687,7 +6687,7 @@
         <v>36</v>
       </c>
       <c r="AO32" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AP32" t="n">
         <v>6.8</v>
@@ -6699,13 +6699,13 @@
         <v>26</v>
       </c>
       <c r="AS32" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AT32" t="n">
         <v>6</v>
       </c>
       <c r="AU32" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AV32" t="n">
         <v>17.5</v>
@@ -6735,17 +6735,17 @@
         <v>55</v>
       </c>
       <c r="BE32" t="n">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="BF32" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="BG32" t="n">
         <v>44</v>
       </c>
       <c r="BH32" t="inlineStr">
         <is>
-          <t>2026-02-24 03:49:15</t>
+          <t>2026-02-24 05:57:15</t>
         </is>
       </c>
     </row>
@@ -6782,10 +6782,10 @@
         <v>1.17</v>
       </c>
       <c r="H33" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="I33" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="J33" t="n">
         <v>10.5</v>
@@ -6821,7 +6821,7 @@
         <v>1.97</v>
       </c>
       <c r="U33" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="V33" t="n">
         <v>1.05</v>
@@ -6833,10 +6833,10 @@
         <v>60</v>
       </c>
       <c r="Y33" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="Z33" t="n">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="AA33" t="n">
         <v>1000</v>
@@ -6848,16 +6848,16 @@
         <v>26</v>
       </c>
       <c r="AD33" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AE33" t="n">
         <v>260</v>
       </c>
       <c r="AF33" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AG33" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AH33" t="n">
         <v>40</v>
@@ -6872,7 +6872,7 @@
         <v>13</v>
       </c>
       <c r="AL33" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AM33" t="n">
         <v>150</v>
@@ -6887,13 +6887,13 @@
         <v>50</v>
       </c>
       <c r="AQ33" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="AR33" t="n">
         <v>85</v>
       </c>
       <c r="AS33" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="AT33" t="n">
         <v>16</v>
@@ -6905,7 +6905,7 @@
         <v>55</v>
       </c>
       <c r="AW33" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="AX33" t="n">
         <v>10</v>
@@ -6929,17 +6929,17 @@
         <v>30</v>
       </c>
       <c r="BE33" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="BF33" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="BG33" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="BH33" t="inlineStr">
         <is>
-          <t>2026-02-24 03:49:15</t>
+          <t>2026-02-24 05:57:15</t>
         </is>
       </c>
     </row>
@@ -6976,10 +6976,10 @@
         <v>1.89</v>
       </c>
       <c r="H34" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="I34" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="J34" t="n">
         <v>4.1</v>
@@ -7003,7 +7003,7 @@
         <v>2.36</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="R34" t="n">
         <v>1.54</v>
@@ -7012,19 +7012,19 @@
         <v>2.78</v>
       </c>
       <c r="T34" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="U34" t="n">
         <v>2.38</v>
       </c>
       <c r="V34" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="W34" t="n">
         <v>2.12</v>
       </c>
       <c r="X34" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="Y34" t="n">
         <v>19</v>
@@ -7039,19 +7039,19 @@
         <v>11.5</v>
       </c>
       <c r="AC34" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AD34" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AE34" t="n">
         <v>46</v>
       </c>
       <c r="AF34" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AG34" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AH34" t="n">
         <v>16.5</v>
@@ -7078,7 +7078,7 @@
         <v>38</v>
       </c>
       <c r="AP34" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AQ34" t="n">
         <v>18</v>
@@ -7090,13 +7090,13 @@
         <v>75</v>
       </c>
       <c r="AT34" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AU34" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AV34" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AW34" t="n">
         <v>40</v>
@@ -7133,7 +7133,7 @@
       </c>
       <c r="BH34" t="inlineStr">
         <is>
-          <t>2026-02-24 03:49:15</t>
+          <t>2026-02-24 05:57:15</t>
         </is>
       </c>
     </row>
@@ -7170,46 +7170,46 @@
         <v>1.28</v>
       </c>
       <c r="H35" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="I35" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="J35" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="K35" t="n">
         <v>8</v>
       </c>
       <c r="L35" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="M35" t="n">
         <v>1.02</v>
       </c>
       <c r="N35" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="O35" t="n">
         <v>1.1</v>
       </c>
       <c r="P35" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="R35" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="S35" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="T35" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="U35" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="V35" t="n">
         <v>1.09</v>
@@ -7218,28 +7218,28 @@
         <v>4.5</v>
       </c>
       <c r="X35" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="Y35" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="Z35" t="n">
         <v>120</v>
       </c>
       <c r="AA35" t="n">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="AB35" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AC35" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AD35" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AE35" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AF35" t="n">
         <v>11.5</v>
@@ -7251,52 +7251,52 @@
         <v>27</v>
       </c>
       <c r="AI35" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AJ35" t="n">
         <v>11</v>
       </c>
       <c r="AK35" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AL35" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AM35" t="n">
         <v>90</v>
       </c>
       <c r="AN35" t="n">
-        <v>3.05</v>
+        <v>2.96</v>
       </c>
       <c r="AO35" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AP35" t="n">
         <v>48</v>
       </c>
       <c r="AQ35" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AR35" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AS35" t="n">
         <v>70</v>
       </c>
       <c r="AT35" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AU35" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AV35" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AW35" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AX35" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AY35" t="n">
         <v>11.5</v>
@@ -7311,23 +7311,23 @@
         <v>10.5</v>
       </c>
       <c r="BC35" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="BD35" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BE35" t="n">
         <v>80</v>
       </c>
       <c r="BF35" t="n">
-        <v>2.98</v>
+        <v>2.92</v>
       </c>
       <c r="BG35" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="BH35" t="inlineStr">
         <is>
-          <t>2026-02-24 03:49:15</t>
+          <t>2026-02-24 05:57:15</t>
         </is>
       </c>
     </row>
@@ -7364,13 +7364,13 @@
         <v>2</v>
       </c>
       <c r="H36" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="I36" t="n">
         <v>5.5</v>
       </c>
       <c r="J36" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="K36" t="n">
         <v>3.55</v>
@@ -7391,13 +7391,13 @@
         <v>1.6</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="R36" t="n">
         <v>1.21</v>
       </c>
       <c r="S36" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="T36" t="n">
         <v>2.12</v>
@@ -7472,7 +7472,7 @@
         <v>11.5</v>
       </c>
       <c r="AR36" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AS36" t="n">
         <v>9.6</v>
@@ -7481,13 +7481,13 @@
         <v>5.8</v>
       </c>
       <c r="AU36" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="AV36" t="n">
         <v>18</v>
       </c>
       <c r="AW36" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AX36" t="n">
         <v>9.199999999999999</v>
@@ -7499,7 +7499,7 @@
         <v>21</v>
       </c>
       <c r="BA36" t="n">
-        <v>9.4</v>
+        <v>29</v>
       </c>
       <c r="BB36" t="n">
         <v>19</v>
@@ -7508,10 +7508,10 @@
         <v>21</v>
       </c>
       <c r="BD36" t="n">
-        <v>8.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="BE36" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="BF36" t="n">
         <v>17</v>
@@ -7521,7 +7521,7 @@
       </c>
       <c r="BH36" t="inlineStr">
         <is>
-          <t>2026-02-24 03:49:15</t>
+          <t>2026-02-24 05:57:15</t>
         </is>
       </c>
     </row>
@@ -7603,7 +7603,7 @@
         <v>1.12</v>
       </c>
       <c r="W37" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="X37" t="n">
         <v>12.5</v>
@@ -7666,10 +7666,10 @@
         <v>17.5</v>
       </c>
       <c r="AR37" t="n">
-        <v>8.4</v>
+        <v>20</v>
       </c>
       <c r="AS37" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AT37" t="n">
         <v>5.6</v>
@@ -7678,7 +7678,7 @@
         <v>8</v>
       </c>
       <c r="AV37" t="n">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="AW37" t="n">
         <v>8.800000000000001</v>
@@ -7690,7 +7690,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AZ37" t="n">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="BA37" t="n">
         <v>8.800000000000001</v>
@@ -7702,7 +7702,7 @@
         <v>16.5</v>
       </c>
       <c r="BD37" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BE37" t="n">
         <v>9</v>
@@ -7711,11 +7711,11 @@
         <v>10</v>
       </c>
       <c r="BG37" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="BH37" t="inlineStr">
         <is>
-          <t>2026-02-24 03:49:15</t>
+          <t>2026-02-24 05:57:15</t>
         </is>
       </c>
     </row>
@@ -7746,16 +7746,16 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="G38" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="H38" t="n">
         <v>3.85</v>
       </c>
       <c r="I38" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="J38" t="n">
         <v>2.9</v>
@@ -7785,7 +7785,7 @@
         <v>1.12</v>
       </c>
       <c r="S38" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="T38" t="n">
         <v>2.62</v>
@@ -7797,7 +7797,7 @@
         <v>1.33</v>
       </c>
       <c r="W38" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="X38" t="n">
         <v>6.2</v>
@@ -7845,7 +7845,7 @@
         <v>110</v>
       </c>
       <c r="AM38" t="n">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="AN38" t="n">
         <v>60</v>
@@ -7863,10 +7863,10 @@
         <v>22</v>
       </c>
       <c r="AS38" t="n">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="AT38" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="AU38" t="n">
         <v>6.8</v>
@@ -7875,7 +7875,7 @@
         <v>18</v>
       </c>
       <c r="AW38" t="n">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="AX38" t="n">
         <v>11.5</v>
@@ -7884,7 +7884,7 @@
         <v>13</v>
       </c>
       <c r="AZ38" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BA38" t="n">
         <v>44</v>
@@ -7899,7 +7899,7 @@
         <v>85</v>
       </c>
       <c r="BE38" t="n">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="BF38" t="n">
         <v>46</v>
@@ -7909,7 +7909,7 @@
       </c>
       <c r="BH38" t="inlineStr">
         <is>
-          <t>2026-02-24 03:49:15</t>
+          <t>2026-02-24 05:57:15</t>
         </is>
       </c>
     </row>
@@ -7943,19 +7943,19 @@
         <v>3.55</v>
       </c>
       <c r="G39" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="H39" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="I39" t="n">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="J39" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="K39" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="L39" t="n">
         <v>1.72</v>
@@ -7967,13 +7967,13 @@
         <v>2.28</v>
       </c>
       <c r="O39" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="P39" t="n">
         <v>1.39</v>
       </c>
       <c r="Q39" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="R39" t="n">
         <v>1.13</v>
@@ -7988,10 +7988,10 @@
         <v>1.62</v>
       </c>
       <c r="V39" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="W39" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="X39" t="n">
         <v>7</v>
@@ -8000,7 +8000,7 @@
         <v>6.6</v>
       </c>
       <c r="Z39" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AA39" t="n">
         <v>95</v>
@@ -8057,7 +8057,7 @@
         <v>12</v>
       </c>
       <c r="AS39" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="AT39" t="n">
         <v>7.8</v>
@@ -8084,10 +8084,10 @@
         <v>75</v>
       </c>
       <c r="BB39" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="BC39" t="n">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="BD39" t="n">
         <v>40</v>
@@ -8103,7 +8103,7 @@
       </c>
       <c r="BH39" t="inlineStr">
         <is>
-          <t>2026-02-24 03:49:15</t>
+          <t>2026-02-24 05:57:15</t>
         </is>
       </c>
     </row>
@@ -8134,10 +8134,10 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="G40" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="H40" t="n">
         <v>5.1</v>
@@ -8146,10 +8146,10 @@
         <v>5.4</v>
       </c>
       <c r="J40" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="K40" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="L40" t="n">
         <v>1.54</v>
@@ -8212,7 +8212,7 @@
         <v>95</v>
       </c>
       <c r="AF40" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AG40" t="n">
         <v>11</v>
@@ -8221,7 +8221,7 @@
         <v>27</v>
       </c>
       <c r="AI40" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AJ40" t="n">
         <v>21</v>
@@ -8236,7 +8236,7 @@
         <v>200</v>
       </c>
       <c r="AN40" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AO40" t="n">
         <v>160</v>
@@ -8245,10 +8245,10 @@
         <v>9</v>
       </c>
       <c r="AQ40" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AR40" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="AS40" t="n">
         <v>42</v>
@@ -8284,7 +8284,7 @@
         <v>22</v>
       </c>
       <c r="BD40" t="n">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="BE40" t="n">
         <v>48</v>
@@ -8297,7 +8297,7 @@
       </c>
       <c r="BH40" t="inlineStr">
         <is>
-          <t>2026-02-24 03:49:15</t>
+          <t>2026-02-24 05:57:15</t>
         </is>
       </c>
     </row>
@@ -8340,7 +8340,7 @@
         <v>2.48</v>
       </c>
       <c r="J41" t="n">
-        <v>2.96</v>
+        <v>2.92</v>
       </c>
       <c r="K41" t="n">
         <v>3.05</v>
@@ -8355,7 +8355,7 @@
         <v>2.44</v>
       </c>
       <c r="O41" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="P41" t="n">
         <v>1.46</v>
@@ -8367,7 +8367,7 @@
         <v>1.16</v>
       </c>
       <c r="S41" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="T41" t="n">
         <v>2.3</v>
@@ -8491,7 +8491,7 @@
       </c>
       <c r="BH41" t="inlineStr">
         <is>
-          <t>2026-02-24 03:49:15</t>
+          <t>2026-02-24 05:57:15</t>
         </is>
       </c>
     </row>
@@ -8685,7 +8685,7 @@
       </c>
       <c r="BH42" t="inlineStr">
         <is>
-          <t>2026-02-24 03:49:15</t>
+          <t>2026-02-24 05:57:15</t>
         </is>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-24.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-24.xlsx
@@ -762,73 +762,73 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>4.8</v>
+        <v>5.1</v>
       </c>
       <c r="G2" t="n">
-        <v>5.6</v>
+        <v>5.3</v>
       </c>
       <c r="H2" t="n">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
       <c r="I2" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="J2" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K2" t="n">
-        <v>3.55</v>
+        <v>3.3</v>
       </c>
       <c r="L2" t="n">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="M2" t="n">
-        <v>1.12</v>
+        <v>1.15</v>
       </c>
       <c r="N2" t="n">
-        <v>2.66</v>
+        <v>2.42</v>
       </c>
       <c r="O2" t="n">
-        <v>1.54</v>
+        <v>1.66</v>
       </c>
       <c r="P2" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.62</v>
+        <v>3.05</v>
       </c>
       <c r="R2" t="n">
-        <v>1.18</v>
+        <v>1.16</v>
       </c>
       <c r="S2" t="n">
-        <v>5.4</v>
+        <v>7</v>
       </c>
       <c r="T2" t="n">
-        <v>2.16</v>
+        <v>2.5</v>
       </c>
       <c r="U2" t="n">
-        <v>1.7</v>
+        <v>1.63</v>
       </c>
       <c r="V2" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="W2" t="n">
         <v>1.22</v>
       </c>
       <c r="X2" t="n">
-        <v>9.4</v>
+        <v>7.8</v>
       </c>
       <c r="Y2" t="n">
-        <v>6.8</v>
+        <v>5.9</v>
       </c>
       <c r="Z2" t="n">
-        <v>11</v>
+        <v>9.6</v>
       </c>
       <c r="AA2" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AB2" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AC2" t="n">
         <v>7.8</v>
@@ -837,95 +837,95 @@
         <v>11.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="AF2" t="n">
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AH2" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="AI2" t="n">
-        <v>190</v>
+        <v>80</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1000</v>
+        <v>310</v>
       </c>
       <c r="AK2" t="n">
-        <v>700</v>
+        <v>120</v>
       </c>
       <c r="AL2" t="n">
-        <v>1000</v>
+        <v>290</v>
       </c>
       <c r="AM2" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AN2" t="n">
-        <v>1000</v>
+        <v>630</v>
       </c>
       <c r="AO2" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AP2" t="n">
-        <v>7.6</v>
+        <v>6.8</v>
       </c>
       <c r="AQ2" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="AR2" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="AS2" t="n">
+        <v>21</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>28</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>32</v>
+      </c>
+      <c r="AY2" t="n">
         <v>20</v>
       </c>
-      <c r="AT2" t="n">
-        <v>11</v>
-      </c>
-      <c r="AU2" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AV2" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AW2" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AX2" t="n">
-        <v>16</v>
-      </c>
-      <c r="AY2" t="n">
-        <v>18</v>
-      </c>
       <c r="AZ2" t="n">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="BA2" t="n">
+        <v>65</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>90</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>50</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>50</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>160</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>100</v>
+      </c>
+      <c r="BG2" t="n">
         <v>27</v>
       </c>
-      <c r="BB2" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="BC2" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="BD2" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="BE2" t="n">
-        <v>130</v>
-      </c>
-      <c r="BF2" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="BG2" t="n">
-        <v>21</v>
-      </c>
       <c r="BH2" t="inlineStr">
         <is>
-          <t>2026-02-24 05:57:15</t>
+          <t>2026-02-24 08:05:24</t>
         </is>
       </c>
     </row>
@@ -956,170 +956,170 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="G3" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="H3" t="n">
         <v>2.06</v>
       </c>
       <c r="I3" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="J3" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K3" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="L3" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="M3" t="n">
         <v>1.09</v>
       </c>
       <c r="N3" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="O3" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="P3" t="n">
-        <v>1.72</v>
+        <v>1.67</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.22</v>
+        <v>2.28</v>
       </c>
       <c r="R3" t="n">
-        <v>1.27</v>
+        <v>1.24</v>
       </c>
       <c r="S3" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="T3" t="n">
-        <v>1.92</v>
+        <v>1.05</v>
       </c>
       <c r="U3" t="n">
-        <v>1.9</v>
+        <v>1.05</v>
       </c>
       <c r="V3" t="n">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="W3" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="X3" t="n">
-        <v>11.5</v>
+        <v>90</v>
       </c>
       <c r="Y3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>42</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>85</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>6</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AY3" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="Z3" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>27</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>26</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>32</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>50</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>900</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>100</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>200</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>580</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>21</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>7</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>22</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>11</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AW3" t="n">
-        <v>21</v>
-      </c>
-      <c r="AX3" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AY3" t="n">
-        <v>15</v>
-      </c>
       <c r="AZ3" t="n">
-        <v>17</v>
+        <v>1.82</v>
       </c>
       <c r="BA3" t="n">
-        <v>36</v>
+        <v>1.87</v>
       </c>
       <c r="BB3" t="n">
-        <v>10</v>
+        <v>1.89</v>
       </c>
       <c r="BC3" t="n">
-        <v>9.6</v>
+        <v>1.88</v>
       </c>
       <c r="BD3" t="n">
-        <v>9.800000000000001</v>
+        <v>1.88</v>
       </c>
       <c r="BE3" t="n">
-        <v>10</v>
+        <v>1.89</v>
       </c>
       <c r="BF3" t="n">
-        <v>9.800000000000001</v>
+        <v>1.87</v>
       </c>
       <c r="BG3" t="n">
-        <v>17</v>
+        <v>1.81</v>
       </c>
       <c r="BH3" t="inlineStr">
         <is>
-          <t>2026-02-24 05:57:15</t>
+          <t>2026-02-24 08:05:24</t>
         </is>
       </c>
     </row>
@@ -1150,19 +1150,19 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="G4" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="H4" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="I4" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="J4" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="K4" t="n">
         <v>4.7</v>
@@ -1174,7 +1174,7 @@
         <v>1.06</v>
       </c>
       <c r="N4" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="O4" t="n">
         <v>1.3</v>
@@ -1183,16 +1183,16 @@
         <v>2.02</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="R4" t="n">
         <v>1.39</v>
       </c>
       <c r="S4" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="T4" t="n">
-        <v>1.95</v>
+        <v>1.87</v>
       </c>
       <c r="U4" t="n">
         <v>1.96</v>
@@ -1201,10 +1201,10 @@
         <v>1.16</v>
       </c>
       <c r="W4" t="n">
-        <v>2.68</v>
+        <v>2.6</v>
       </c>
       <c r="X4" t="n">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="Y4" t="n">
         <v>980</v>
@@ -1216,34 +1216,34 @@
         <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>15</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC4" t="n">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="AD4" t="n">
-        <v>980</v>
+        <v>500</v>
       </c>
       <c r="AE4" t="n">
         <v>700</v>
       </c>
       <c r="AF4" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH4" t="n">
         <v>500</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>40</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>980</v>
       </c>
       <c r="AI4" t="n">
         <v>700</v>
       </c>
       <c r="AJ4" t="n">
-        <v>980</v>
+        <v>500</v>
       </c>
       <c r="AK4" t="n">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="AL4" t="n">
         <v>980</v>
@@ -1261,59 +1261,59 @@
         <v>9.6</v>
       </c>
       <c r="AQ4" t="n">
-        <v>8.6</v>
+        <v>8</v>
       </c>
       <c r="AR4" t="n">
-        <v>9.6</v>
+        <v>7.8</v>
       </c>
       <c r="AS4" t="n">
-        <v>10.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AT4" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="AU4" t="n">
         <v>7.2</v>
       </c>
       <c r="AV4" t="n">
-        <v>9.199999999999999</v>
+        <v>12</v>
       </c>
       <c r="AW4" t="n">
-        <v>10</v>
+        <v>5.7</v>
       </c>
       <c r="AX4" t="n">
-        <v>5.5</v>
+        <v>8</v>
       </c>
       <c r="AY4" t="n">
-        <v>5.4</v>
+        <v>4.9</v>
       </c>
       <c r="AZ4" t="n">
         <v>16</v>
       </c>
       <c r="BA4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BB4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BC4" t="n">
-        <v>7.8</v>
+        <v>9</v>
       </c>
       <c r="BD4" t="n">
-        <v>8.800000000000001</v>
+        <v>7.4</v>
       </c>
       <c r="BE4" t="n">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="BF4" t="n">
-        <v>6.8</v>
+        <v>4.9</v>
       </c>
       <c r="BG4" t="n">
-        <v>4.2</v>
+        <v>8.6</v>
       </c>
       <c r="BH4" t="inlineStr">
         <is>
-          <t>2026-02-24 05:57:15</t>
+          <t>2026-02-24 08:05:24</t>
         </is>
       </c>
     </row>
@@ -1344,22 +1344,22 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="G5" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="H5" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="I5" t="n">
         <v>8</v>
       </c>
-      <c r="I5" t="n">
-        <v>8.199999999999999</v>
-      </c>
       <c r="J5" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="K5" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="L5" t="n">
         <v>1.25</v>
@@ -1368,10 +1368,10 @@
         <v>1.03</v>
       </c>
       <c r="N5" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="O5" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="P5" t="n">
         <v>3.1</v>
@@ -1383,22 +1383,22 @@
         <v>1.83</v>
       </c>
       <c r="S5" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="T5" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="U5" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="V5" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="W5" t="n">
-        <v>3.35</v>
+        <v>3.2</v>
       </c>
       <c r="X5" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="Y5" t="n">
         <v>40</v>
@@ -1407,19 +1407,19 @@
         <v>80</v>
       </c>
       <c r="AA5" t="n">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="AB5" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AC5" t="n">
         <v>13</v>
       </c>
       <c r="AD5" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AE5" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AF5" t="n">
         <v>11</v>
@@ -1428,46 +1428,46 @@
         <v>10</v>
       </c>
       <c r="AH5" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AI5" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AJ5" t="n">
         <v>13.5</v>
       </c>
       <c r="AK5" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AL5" t="n">
         <v>24</v>
       </c>
       <c r="AM5" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AN5" t="n">
         <v>4.6</v>
       </c>
       <c r="AO5" t="n">
+        <v>70</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>30</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>38</v>
+      </c>
+      <c r="AR5" t="n">
         <v>75</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>32</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>36</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>70</v>
       </c>
       <c r="AS5" t="n">
         <v>65</v>
       </c>
       <c r="AT5" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AU5" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AV5" t="n">
         <v>27</v>
@@ -1479,35 +1479,35 @@
         <v>10.5</v>
       </c>
       <c r="AY5" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AZ5" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="BA5" t="n">
         <v>60</v>
       </c>
       <c r="BB5" t="n">
+        <v>13</v>
+      </c>
+      <c r="BC5" t="n">
         <v>12.5</v>
       </c>
-      <c r="BC5" t="n">
-        <v>13</v>
-      </c>
       <c r="BD5" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BE5" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="BF5" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="BG5" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="BH5" t="inlineStr">
         <is>
-          <t>2026-02-24 05:57:15</t>
+          <t>2026-02-24 08:05:24</t>
         </is>
       </c>
     </row>
@@ -1538,19 +1538,19 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="G6" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="H6" t="n">
-        <v>2.04</v>
+        <v>1.98</v>
       </c>
       <c r="I6" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="J6" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="K6" t="n">
         <v>3.9</v>
@@ -1559,7 +1559,7 @@
         <v>1.35</v>
       </c>
       <c r="M6" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N6" t="n">
         <v>4.3</v>
@@ -1568,46 +1568,46 @@
         <v>1.26</v>
       </c>
       <c r="P6" t="n">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="R6" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="S6" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="T6" t="n">
-        <v>1.68</v>
+        <v>1.72</v>
       </c>
       <c r="U6" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="V6" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="W6" t="n">
-        <v>1.34</v>
+        <v>1.3</v>
       </c>
       <c r="X6" t="n">
         <v>32</v>
       </c>
       <c r="Y6" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Z6" t="n">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="AA6" t="n">
         <v>500</v>
       </c>
       <c r="AB6" t="n">
-        <v>500</v>
+        <v>30</v>
       </c>
       <c r="AC6" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AD6" t="n">
         <v>11.5</v>
@@ -1619,23 +1619,23 @@
         <v>1000</v>
       </c>
       <c r="AG6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>25</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>100</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL6" t="n">
         <v>500</v>
       </c>
-      <c r="AH6" t="n">
-        <v>34</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>1000</v>
-      </c>
       <c r="AM6" t="n">
         <v>1000</v>
       </c>
@@ -1643,65 +1643,65 @@
         <v>1000</v>
       </c>
       <c r="AO6" t="n">
-        <v>55</v>
+        <v>14.5</v>
       </c>
       <c r="AP6" t="n">
-        <v>6.4</v>
+        <v>6</v>
       </c>
       <c r="AQ6" t="n">
         <v>5.3</v>
       </c>
       <c r="AR6" t="n">
-        <v>5.8</v>
+        <v>5.4</v>
       </c>
       <c r="AS6" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="AT6" t="n">
         <v>6.2</v>
       </c>
       <c r="AU6" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="AV6" t="n">
         <v>5.3</v>
       </c>
       <c r="AW6" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="AX6" t="n">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="AY6" t="n">
         <v>6.2</v>
       </c>
       <c r="AZ6" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="BA6" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="BD6" t="n">
         <v>7.6</v>
       </c>
-      <c r="BB6" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="BC6" t="n">
+      <c r="BE6" t="n">
         <v>8</v>
       </c>
-      <c r="BD6" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="BE6" t="n">
-        <v>8.800000000000001</v>
-      </c>
       <c r="BF6" t="n">
-        <v>8</v>
+        <v>7.4</v>
       </c>
       <c r="BG6" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="BH6" t="inlineStr">
         <is>
-          <t>2026-02-24 05:57:15</t>
+          <t>2026-02-24 08:05:24</t>
         </is>
       </c>
     </row>
@@ -1732,170 +1732,170 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.86</v>
+        <v>3.6</v>
       </c>
       <c r="G7" t="n">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="H7" t="n">
-        <v>2.34</v>
+        <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>2.56</v>
+        <v>2.14</v>
       </c>
       <c r="J7" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="K7" t="n">
         <v>4</v>
       </c>
       <c r="L7" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="M7" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N7" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="O7" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="P7" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="R7" t="n">
         <v>1.45</v>
       </c>
       <c r="S7" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="T7" t="n">
         <v>1.64</v>
       </c>
       <c r="U7" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="V7" t="n">
-        <v>1.64</v>
+        <v>1.87</v>
       </c>
       <c r="W7" t="n">
-        <v>1.44</v>
+        <v>1.33</v>
       </c>
       <c r="X7" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Y7" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>85</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>18</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>32</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>160</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>160</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>500</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>500</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>200</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>220</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>16</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>10</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>12</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AT7" t="n">
         <v>14</v>
       </c>
-      <c r="Z7" t="n">
-        <v>18</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>36</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AC7" t="n">
+      <c r="AU7" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AV7" t="n">
         <v>9</v>
       </c>
-      <c r="AD7" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>70</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>44</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>14</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>36</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>240</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>90</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>250</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>390</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>26</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>11</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AV7" t="n">
-        <v>10</v>
-      </c>
       <c r="AW7" t="n">
-        <v>20</v>
+        <v>6.2</v>
       </c>
       <c r="AX7" t="n">
-        <v>18.5</v>
+        <v>10.5</v>
       </c>
       <c r="AY7" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="AZ7" t="n">
         <v>13.5</v>
       </c>
       <c r="BA7" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BB7" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="BC7" t="n">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="BD7" t="n">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="BE7" t="n">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="BF7" t="n">
-        <v>20</v>
+        <v>7.2</v>
       </c>
       <c r="BG7" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="BH7" t="inlineStr">
         <is>
-          <t>2026-02-24 05:57:15</t>
+          <t>2026-02-24 08:05:24</t>
         </is>
       </c>
     </row>
@@ -1926,22 +1926,22 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="G8" t="n">
-        <v>1.52</v>
+        <v>1.46</v>
       </c>
       <c r="H8" t="n">
-        <v>6.4</v>
+        <v>8</v>
       </c>
       <c r="I8" t="n">
-        <v>9.800000000000001</v>
+        <v>11</v>
       </c>
       <c r="J8" t="n">
-        <v>4.5</v>
+        <v>4.9</v>
       </c>
       <c r="K8" t="n">
-        <v>5.6</v>
+        <v>5.9</v>
       </c>
       <c r="L8" t="n">
         <v>1.31</v>
@@ -1950,34 +1950,34 @@
         <v>1.03</v>
       </c>
       <c r="N8" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="O8" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="P8" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.65</v>
+        <v>1.63</v>
       </c>
       <c r="R8" t="n">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="S8" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="T8" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="U8" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="V8" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="W8" t="n">
-        <v>2.92</v>
+        <v>3.1</v>
       </c>
       <c r="X8" t="n">
         <v>30</v>
@@ -2004,10 +2004,10 @@
         <v>1000</v>
       </c>
       <c r="AF8" t="n">
-        <v>19</v>
+        <v>500</v>
       </c>
       <c r="AG8" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="AH8" t="n">
         <v>1000</v>
@@ -2016,7 +2016,7 @@
         <v>1000</v>
       </c>
       <c r="AJ8" t="n">
-        <v>180</v>
+        <v>36</v>
       </c>
       <c r="AK8" t="n">
         <v>80</v>
@@ -2028,19 +2028,19 @@
         <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>6.4</v>
+        <v>12</v>
       </c>
       <c r="AO8" t="n">
         <v>1000</v>
       </c>
       <c r="AP8" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AQ8" t="n">
-        <v>7.4</v>
+        <v>8.4</v>
       </c>
       <c r="AR8" t="n">
-        <v>4.2</v>
+        <v>6.2</v>
       </c>
       <c r="AS8" t="n">
         <v>4.2</v>
@@ -2049,10 +2049,10 @@
         <v>5.6</v>
       </c>
       <c r="AU8" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="AV8" t="n">
-        <v>4.2</v>
+        <v>7.4</v>
       </c>
       <c r="AW8" t="n">
         <v>4.2</v>
@@ -2064,7 +2064,7 @@
         <v>6.4</v>
       </c>
       <c r="AZ8" t="n">
-        <v>4</v>
+        <v>7.6</v>
       </c>
       <c r="BA8" t="n">
         <v>4.2</v>
@@ -2079,17 +2079,17 @@
         <v>14.5</v>
       </c>
       <c r="BE8" t="n">
-        <v>4</v>
+        <v>3.35</v>
       </c>
       <c r="BF8" t="n">
-        <v>5.3</v>
+        <v>4.9</v>
       </c>
       <c r="BG8" t="n">
-        <v>4.2</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="BH8" t="inlineStr">
         <is>
-          <t>2026-02-24 05:57:15</t>
+          <t>2026-02-24 08:05:24</t>
         </is>
       </c>
     </row>
@@ -2126,7 +2126,7 @@
         <v>1.34</v>
       </c>
       <c r="H9" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="I9" t="n">
         <v>12.5</v>
@@ -2138,19 +2138,19 @@
         <v>7.2</v>
       </c>
       <c r="L9" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="M9" t="n">
         <v>1.02</v>
       </c>
       <c r="N9" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="O9" t="n">
         <v>1.15</v>
       </c>
       <c r="P9" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="Q9" t="n">
         <v>1.46</v>
@@ -2171,16 +2171,16 @@
         <v>1.08</v>
       </c>
       <c r="W9" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="X9" t="n">
         <v>34</v>
       </c>
       <c r="Y9" t="n">
-        <v>130</v>
+        <v>46</v>
       </c>
       <c r="Z9" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AA9" t="n">
         <v>1000</v>
@@ -2216,52 +2216,52 @@
         <v>14</v>
       </c>
       <c r="AL9" t="n">
-        <v>95</v>
+        <v>34</v>
       </c>
       <c r="AM9" t="n">
         <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="AO9" t="n">
         <v>1000</v>
       </c>
       <c r="AP9" t="n">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="AQ9" t="n">
         <v>20</v>
       </c>
       <c r="AR9" t="n">
+        <v>11</v>
+      </c>
+      <c r="AS9" t="n">
         <v>11.5</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>12.5</v>
       </c>
       <c r="AT9" t="n">
         <v>10</v>
       </c>
       <c r="AU9" t="n">
-        <v>7.6</v>
+        <v>13.5</v>
       </c>
       <c r="AV9" t="n">
         <v>18.5</v>
       </c>
       <c r="AW9" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AX9" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AY9" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AZ9" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="BA9" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="BB9" t="n">
         <v>9.4</v>
@@ -2270,20 +2270,20 @@
         <v>12</v>
       </c>
       <c r="BD9" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="BE9" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="BF9" t="n">
         <v>3.55</v>
       </c>
       <c r="BG9" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BH9" t="inlineStr">
         <is>
-          <t>2026-02-24 05:57:15</t>
+          <t>2026-02-24 08:05:24</t>
         </is>
       </c>
     </row>
@@ -2314,170 +2314,170 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="G10" t="n">
-        <v>2.14</v>
+        <v>1.97</v>
       </c>
       <c r="H10" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="I10" t="n">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="J10" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="K10" t="n">
-        <v>3.75</v>
+        <v>3.95</v>
       </c>
       <c r="L10" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="M10" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N10" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="O10" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="P10" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.04</v>
+        <v>1.98</v>
       </c>
       <c r="R10" t="n">
         <v>1.32</v>
       </c>
       <c r="S10" t="n">
-        <v>3.7</v>
+        <v>3.55</v>
       </c>
       <c r="T10" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="U10" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="V10" t="n">
-        <v>1.29</v>
+        <v>1.26</v>
       </c>
       <c r="W10" t="n">
-        <v>1.87</v>
+        <v>2.08</v>
       </c>
       <c r="X10" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>22</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>95</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN10" t="n">
         <v>15</v>
       </c>
-      <c r="Y10" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>75</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>900</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>17</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>55</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>65</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>25</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>290</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>17</v>
-      </c>
       <c r="AO10" t="n">
-        <v>250</v>
+        <v>600</v>
       </c>
       <c r="AP10" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AQ10" t="n">
         <v>13</v>
       </c>
       <c r="AR10" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AS10" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AT10" t="n">
         <v>7.6</v>
       </c>
       <c r="AU10" t="n">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="AV10" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AW10" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AX10" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AY10" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AZ10" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="BA10" t="n">
-        <v>29</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="BB10" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BC10" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="BD10" t="n">
-        <v>23</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="BE10" t="n">
-        <v>10</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="BF10" t="n">
-        <v>6.2</v>
+        <v>13</v>
       </c>
       <c r="BG10" t="n">
-        <v>20</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="BH10" t="inlineStr">
         <is>
-          <t>2026-02-24 05:57:15</t>
+          <t>2026-02-24 08:05:24</t>
         </is>
       </c>
     </row>
@@ -2508,10 +2508,10 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="G11" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="H11" t="n">
         <v>1.5</v>
@@ -2526,34 +2526,34 @@
         <v>5.3</v>
       </c>
       <c r="L11" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="M11" t="n">
         <v>1.04</v>
       </c>
       <c r="N11" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="O11" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P11" t="n">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="R11" t="n">
-        <v>1.55</v>
+        <v>1.58</v>
       </c>
       <c r="S11" t="n">
-        <v>2.72</v>
+        <v>2.6</v>
       </c>
       <c r="T11" t="n">
-        <v>1.79</v>
+        <v>1.75</v>
       </c>
       <c r="U11" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="V11" t="n">
         <v>2.84</v>
@@ -2562,28 +2562,28 @@
         <v>1.16</v>
       </c>
       <c r="X11" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="Y11" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="Z11" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AA11" t="n">
         <v>14.5</v>
       </c>
       <c r="AB11" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="AC11" t="n">
         <v>11</v>
       </c>
       <c r="AD11" t="n">
-        <v>10.5</v>
+        <v>16</v>
       </c>
       <c r="AE11" t="n">
-        <v>14.5</v>
+        <v>65</v>
       </c>
       <c r="AF11" t="n">
         <v>65</v>
@@ -2598,7 +2598,7 @@
         <v>29</v>
       </c>
       <c r="AJ11" t="n">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="AK11" t="n">
         <v>90</v>
@@ -2607,71 +2607,71 @@
         <v>80</v>
       </c>
       <c r="AM11" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AN11" t="n">
         <v>85</v>
       </c>
       <c r="AO11" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AP11" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AQ11" t="n">
         <v>9.4</v>
       </c>
       <c r="AR11" t="n">
-        <v>8.800000000000001</v>
+        <v>7</v>
       </c>
       <c r="AS11" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AT11" t="n">
         <v>23</v>
       </c>
       <c r="AU11" t="n">
-        <v>10</v>
+        <v>5.9</v>
       </c>
       <c r="AV11" t="n">
-        <v>9</v>
+        <v>6.4</v>
       </c>
       <c r="AW11" t="n">
         <v>13</v>
       </c>
       <c r="AX11" t="n">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="AY11" t="n">
         <v>22</v>
       </c>
       <c r="AZ11" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="BA11" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BB11" t="n">
-        <v>12.5</v>
+        <v>7.8</v>
       </c>
       <c r="BC11" t="n">
         <v>28</v>
       </c>
       <c r="BD11" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="BE11" t="n">
-        <v>19.5</v>
+        <v>13</v>
       </c>
       <c r="BF11" t="n">
-        <v>70</v>
+        <v>12.5</v>
       </c>
       <c r="BG11" t="n">
-        <v>5.7</v>
+        <v>5.4</v>
       </c>
       <c r="BH11" t="inlineStr">
         <is>
-          <t>2026-02-24 05:57:15</t>
+          <t>2026-02-24 08:05:24</t>
         </is>
       </c>
     </row>
@@ -2705,7 +2705,7 @@
         <v>2.16</v>
       </c>
       <c r="G12" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="H12" t="n">
         <v>3.45</v>
@@ -2714,7 +2714,7 @@
         <v>3.65</v>
       </c>
       <c r="J12" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="K12" t="n">
         <v>3.95</v>
@@ -2726,13 +2726,13 @@
         <v>1.05</v>
       </c>
       <c r="N12" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="O12" t="n">
         <v>1.24</v>
       </c>
       <c r="P12" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="Q12" t="n">
         <v>1.75</v>
@@ -2744,22 +2744,22 @@
         <v>2.88</v>
       </c>
       <c r="T12" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="U12" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="V12" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="W12" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="X12" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="Y12" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="Z12" t="n">
         <v>27</v>
@@ -2771,37 +2771,37 @@
         <v>12.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD12" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AE12" t="n">
         <v>38</v>
       </c>
       <c r="AF12" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AG12" t="n">
         <v>11</v>
       </c>
       <c r="AH12" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AI12" t="n">
         <v>42</v>
       </c>
       <c r="AJ12" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AK12" t="n">
         <v>21</v>
       </c>
       <c r="AL12" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AM12" t="n">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="AN12" t="n">
         <v>13</v>
@@ -2810,62 +2810,62 @@
         <v>29</v>
       </c>
       <c r="AP12" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AQ12" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AR12" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AS12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AT12" t="n">
         <v>11</v>
       </c>
-      <c r="AT12" t="n">
-        <v>10.5</v>
-      </c>
       <c r="AU12" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AV12" t="n">
         <v>13</v>
       </c>
       <c r="AW12" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AX12" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AY12" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AZ12" t="n">
         <v>14</v>
       </c>
       <c r="BA12" t="n">
+        <v>36</v>
+      </c>
+      <c r="BB12" t="n">
         <v>23</v>
       </c>
-      <c r="BB12" t="n">
-        <v>14</v>
-      </c>
       <c r="BC12" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="BD12" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="BE12" t="n">
-        <v>10.5</v>
+        <v>15.5</v>
       </c>
       <c r="BF12" t="n">
         <v>11</v>
       </c>
       <c r="BG12" t="n">
-        <v>14.5</v>
+        <v>25</v>
       </c>
       <c r="BH12" t="inlineStr">
         <is>
-          <t>2026-02-24 05:57:15</t>
+          <t>2026-02-24 08:05:24</t>
         </is>
       </c>
     </row>
@@ -2896,46 +2896,46 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="G13" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="H13" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="I13" t="n">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="J13" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="K13" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="L13" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="M13" t="n">
         <v>1.03</v>
       </c>
       <c r="N13" t="n">
-        <v>6.2</v>
+        <v>6.8</v>
       </c>
       <c r="O13" t="n">
         <v>1.16</v>
       </c>
       <c r="P13" t="n">
-        <v>2.8</v>
+        <v>2.92</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.54</v>
+        <v>1.49</v>
       </c>
       <c r="R13" t="n">
-        <v>1.73</v>
+        <v>1.78</v>
       </c>
       <c r="S13" t="n">
-        <v>2.3</v>
+        <v>2.22</v>
       </c>
       <c r="T13" t="n">
         <v>1.83</v>
@@ -2944,13 +2944,13 @@
         <v>2.04</v>
       </c>
       <c r="V13" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="W13" t="n">
         <v>1.1</v>
       </c>
       <c r="X13" t="n">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="Y13" t="n">
         <v>11.5</v>
@@ -2962,13 +2962,13 @@
         <v>11.5</v>
       </c>
       <c r="AB13" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AC13" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AD13" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AE13" t="n">
         <v>13</v>
@@ -2980,19 +2980,19 @@
         <v>38</v>
       </c>
       <c r="AH13" t="n">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="AI13" t="n">
         <v>80</v>
       </c>
       <c r="AJ13" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="AK13" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AL13" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="AM13" t="n">
         <v>120</v>
@@ -3001,10 +3001,10 @@
         <v>140</v>
       </c>
       <c r="AO13" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="AP13" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AQ13" t="n">
         <v>10.5</v>
@@ -3022,16 +3022,16 @@
         <v>12.5</v>
       </c>
       <c r="AV13" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AW13" t="n">
         <v>12</v>
       </c>
       <c r="AX13" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AY13" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AZ13" t="n">
         <v>22</v>
@@ -3040,26 +3040,26 @@
         <v>25</v>
       </c>
       <c r="BB13" t="n">
-        <v>15.5</v>
+        <v>18</v>
       </c>
       <c r="BC13" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="BD13" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="BE13" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="BF13" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="BG13" t="n">
-        <v>4.1</v>
+        <v>3.85</v>
       </c>
       <c r="BH13" t="inlineStr">
         <is>
-          <t>2026-02-24 05:57:15</t>
+          <t>2026-02-24 08:05:24</t>
         </is>
       </c>
     </row>
@@ -3090,7 +3090,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="G14" t="n">
         <v>3.8</v>
@@ -3108,7 +3108,7 @@
         <v>4.4</v>
       </c>
       <c r="L14" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M14" t="n">
         <v>1.04</v>
@@ -3117,16 +3117,16 @@
         <v>5.7</v>
       </c>
       <c r="O14" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="P14" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="R14" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="S14" t="n">
         <v>2.5</v>
@@ -3144,22 +3144,22 @@
         <v>1.35</v>
       </c>
       <c r="X14" t="n">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="Y14" t="n">
         <v>14</v>
       </c>
       <c r="Z14" t="n">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="AA14" t="n">
         <v>75</v>
       </c>
       <c r="AB14" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AC14" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AD14" t="n">
         <v>11.5</v>
@@ -3168,7 +3168,7 @@
         <v>42</v>
       </c>
       <c r="AF14" t="n">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="AG14" t="n">
         <v>24</v>
@@ -3186,10 +3186,10 @@
         <v>120</v>
       </c>
       <c r="AL14" t="n">
-        <v>500</v>
+        <v>120</v>
       </c>
       <c r="AM14" t="n">
-        <v>250</v>
+        <v>580</v>
       </c>
       <c r="AN14" t="n">
         <v>23</v>
@@ -3198,62 +3198,62 @@
         <v>8.6</v>
       </c>
       <c r="AP14" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AQ14" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AR14" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AS14" t="n">
         <v>13</v>
       </c>
-      <c r="AS14" t="n">
-        <v>13.5</v>
-      </c>
       <c r="AT14" t="n">
-        <v>17</v>
+        <v>10.5</v>
       </c>
       <c r="AU14" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AV14" t="n">
         <v>9.6</v>
       </c>
       <c r="AW14" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AX14" t="n">
         <v>14.5</v>
       </c>
       <c r="AY14" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AZ14" t="n">
         <v>13.5</v>
       </c>
       <c r="BA14" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="BB14" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="BC14" t="n">
         <v>16</v>
       </c>
       <c r="BD14" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="BE14" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="BF14" t="n">
-        <v>11</v>
+        <v>9.4</v>
       </c>
       <c r="BG14" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="BH14" t="inlineStr">
         <is>
-          <t>2026-02-24 05:57:15</t>
+          <t>2026-02-24 08:05:24</t>
         </is>
       </c>
     </row>
@@ -3284,170 +3284,170 @@
         </is>
       </c>
       <c r="F15" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="G15" t="n">
         <v>1.46</v>
       </c>
-      <c r="G15" t="n">
-        <v>1.48</v>
-      </c>
       <c r="H15" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="I15" t="n">
         <v>7.6</v>
       </c>
       <c r="J15" t="n">
-        <v>5.3</v>
+        <v>5.6</v>
       </c>
       <c r="K15" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="L15" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="M15" t="n">
         <v>1.02</v>
       </c>
       <c r="N15" t="n">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="O15" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="P15" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="R15" t="n">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="S15" t="n">
-        <v>2.2</v>
+        <v>2.14</v>
       </c>
       <c r="T15" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="U15" t="n">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="V15" t="n">
         <v>1.15</v>
       </c>
       <c r="W15" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="X15" t="n">
-        <v>80</v>
+        <v>36</v>
       </c>
       <c r="Y15" t="n">
-        <v>95</v>
+        <v>38</v>
       </c>
       <c r="Z15" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AA15" t="n">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="AB15" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AC15" t="n">
         <v>13.5</v>
       </c>
       <c r="AD15" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="AE15" t="n">
         <v>210</v>
       </c>
       <c r="AF15" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AG15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH15" t="n">
         <v>20</v>
       </c>
       <c r="AI15" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AJ15" t="n">
         <v>14.5</v>
       </c>
       <c r="AK15" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AL15" t="n">
+        <v>24</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>75</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>65</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>30</v>
+      </c>
+      <c r="AQ15" t="n">
         <v>32</v>
       </c>
-      <c r="AM15" t="n">
-        <v>330</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>270</v>
-      </c>
-      <c r="AP15" t="n">
+      <c r="AR15" t="n">
         <v>28</v>
       </c>
-      <c r="AQ15" t="n">
-        <v>29</v>
-      </c>
-      <c r="AR15" t="n">
-        <v>46</v>
-      </c>
       <c r="AS15" t="n">
-        <v>9</v>
+        <v>19.5</v>
       </c>
       <c r="AT15" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="AU15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AV15" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AW15" t="n">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="AX15" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AY15" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AZ15" t="n">
-        <v>17</v>
+        <v>18.5</v>
       </c>
       <c r="BA15" t="n">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="BB15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BC15" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="BD15" t="n">
         <v>22</v>
       </c>
       <c r="BE15" t="n">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="BF15" t="n">
         <v>4.3</v>
       </c>
       <c r="BG15" t="n">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="BH15" t="inlineStr">
         <is>
-          <t>2026-02-24 05:57:15</t>
+          <t>2026-02-24 08:05:24</t>
         </is>
       </c>
     </row>
@@ -3487,10 +3487,10 @@
         <v>2.22</v>
       </c>
       <c r="I16" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="J16" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="K16" t="n">
         <v>3.1</v>
@@ -3502,13 +3502,13 @@
         <v>1.15</v>
       </c>
       <c r="N16" t="n">
-        <v>2.44</v>
+        <v>2.48</v>
       </c>
       <c r="O16" t="n">
-        <v>1.65</v>
+        <v>1.63</v>
       </c>
       <c r="P16" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="Q16" t="n">
         <v>3</v>
@@ -3520,13 +3520,13 @@
         <v>6.4</v>
       </c>
       <c r="T16" t="n">
-        <v>2.1</v>
+        <v>2.24</v>
       </c>
       <c r="U16" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="V16" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="W16" t="n">
         <v>1.28</v>
@@ -3538,7 +3538,7 @@
         <v>7</v>
       </c>
       <c r="Z16" t="n">
-        <v>24</v>
+        <v>13.5</v>
       </c>
       <c r="AA16" t="n">
         <v>85</v>
@@ -3553,13 +3553,13 @@
         <v>23</v>
       </c>
       <c r="AE16" t="n">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="AF16" t="n">
         <v>500</v>
       </c>
       <c r="AG16" t="n">
-        <v>500</v>
+        <v>20</v>
       </c>
       <c r="AH16" t="n">
         <v>500</v>
@@ -3586,10 +3586,10 @@
         <v>600</v>
       </c>
       <c r="AP16" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AQ16" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="AR16" t="n">
         <v>10.5</v>
@@ -3598,19 +3598,19 @@
         <v>7</v>
       </c>
       <c r="AT16" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AU16" t="n">
-        <v>6.4</v>
+        <v>4</v>
       </c>
       <c r="AV16" t="n">
         <v>10</v>
       </c>
       <c r="AW16" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AX16" t="n">
-        <v>6.8</v>
+        <v>13</v>
       </c>
       <c r="AY16" t="n">
         <v>6</v>
@@ -3625,23 +3625,23 @@
         <v>8.199999999999999</v>
       </c>
       <c r="BC16" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="BD16" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="BE16" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="BF16" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="BG16" t="n">
         <v>7.2</v>
       </c>
       <c r="BH16" t="inlineStr">
         <is>
-          <t>2026-02-24 05:57:15</t>
+          <t>2026-02-24 08:05:24</t>
         </is>
       </c>
     </row>
@@ -3672,7 +3672,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="G17" t="n">
         <v>11.5</v>
@@ -3681,13 +3681,13 @@
         <v>1.49</v>
       </c>
       <c r="I17" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="J17" t="n">
         <v>4</v>
       </c>
       <c r="K17" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="L17" t="n">
         <v>1.51</v>
@@ -3696,10 +3696,10 @@
         <v>1.1</v>
       </c>
       <c r="N17" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="O17" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="P17" t="n">
         <v>1.69</v>
@@ -3708,19 +3708,19 @@
         <v>2.34</v>
       </c>
       <c r="R17" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="S17" t="n">
         <v>4.5</v>
       </c>
       <c r="T17" t="n">
-        <v>2.46</v>
+        <v>2.3</v>
       </c>
       <c r="U17" t="n">
         <v>1.59</v>
       </c>
       <c r="V17" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="W17" t="n">
         <v>1.1</v>
@@ -3747,7 +3747,7 @@
         <v>11</v>
       </c>
       <c r="AE17" t="n">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="AF17" t="n">
         <v>510</v>
@@ -3765,77 +3765,77 @@
         <v>620</v>
       </c>
       <c r="AK17" t="n">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="AL17" t="n">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="AM17" t="n">
-        <v>340</v>
+        <v>1000</v>
       </c>
       <c r="AN17" t="n">
         <v>1000</v>
       </c>
       <c r="AO17" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AP17" t="n">
-        <v>9.4</v>
+        <v>6</v>
       </c>
       <c r="AQ17" t="n">
-        <v>5.2</v>
+        <v>4</v>
       </c>
       <c r="AR17" t="n">
         <v>6.4</v>
       </c>
       <c r="AS17" t="n">
+        <v>11</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>20</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AX17" t="n">
         <v>11.5</v>
       </c>
-      <c r="AT17" t="n">
-        <v>11</v>
-      </c>
-      <c r="AU17" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AV17" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AW17" t="n">
-        <v>17</v>
-      </c>
-      <c r="AX17" t="n">
-        <v>13</v>
-      </c>
       <c r="AY17" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="AZ17" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="BA17" t="n">
-        <v>28</v>
+        <v>10.5</v>
       </c>
       <c r="BB17" t="n">
-        <v>14</v>
+        <v>6.2</v>
       </c>
       <c r="BC17" t="n">
-        <v>36</v>
+        <v>12.5</v>
       </c>
       <c r="BD17" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="BE17" t="n">
-        <v>14</v>
+        <v>6.2</v>
       </c>
       <c r="BF17" t="n">
-        <v>14.5</v>
+        <v>6.2</v>
       </c>
       <c r="BG17" t="n">
         <v>10</v>
       </c>
       <c r="BH17" t="inlineStr">
         <is>
-          <t>2026-02-24 05:57:15</t>
+          <t>2026-02-24 08:05:24</t>
         </is>
       </c>
     </row>
@@ -3866,34 +3866,34 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="G18" t="n">
-        <v>1.54</v>
+        <v>1.52</v>
       </c>
       <c r="H18" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I18" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="J18" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="K18" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="L18" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="M18" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="N18" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="O18" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="P18" t="n">
         <v>1.71</v>
@@ -3908,16 +3908,16 @@
         <v>4.5</v>
       </c>
       <c r="T18" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="U18" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="V18" t="n">
         <v>1.11</v>
       </c>
       <c r="W18" t="n">
-        <v>2.86</v>
+        <v>2.92</v>
       </c>
       <c r="X18" t="n">
         <v>11</v>
@@ -3926,16 +3926,16 @@
         <v>23</v>
       </c>
       <c r="Z18" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AA18" t="n">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="AB18" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="AC18" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AD18" t="n">
         <v>40</v>
@@ -3944,25 +3944,25 @@
         <v>240</v>
       </c>
       <c r="AF18" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AG18" t="n">
         <v>10.5</v>
       </c>
       <c r="AH18" t="n">
-        <v>85</v>
+        <v>36</v>
       </c>
       <c r="AI18" t="n">
         <v>220</v>
       </c>
       <c r="AJ18" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AK18" t="n">
         <v>19.5</v>
       </c>
       <c r="AL18" t="n">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="AM18" t="n">
         <v>580</v>
@@ -3971,65 +3971,65 @@
         <v>11.5</v>
       </c>
       <c r="AO18" t="n">
-        <v>1000</v>
+        <v>430</v>
       </c>
       <c r="AP18" t="n">
         <v>10</v>
       </c>
       <c r="AQ18" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AR18" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="AS18" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AT18" t="n">
         <v>5.6</v>
       </c>
       <c r="AU18" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AV18" t="n">
-        <v>32</v>
+        <v>18.5</v>
       </c>
       <c r="AW18" t="n">
-        <v>17.5</v>
+        <v>21</v>
       </c>
       <c r="AX18" t="n">
         <v>6.6</v>
       </c>
       <c r="AY18" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AZ18" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="BA18" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="BB18" t="n">
         <v>12</v>
       </c>
       <c r="BC18" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="BD18" t="n">
         <v>29</v>
       </c>
       <c r="BE18" t="n">
-        <v>16.5</v>
+        <v>19.5</v>
       </c>
       <c r="BF18" t="n">
         <v>10</v>
       </c>
       <c r="BG18" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="BH18" t="inlineStr">
         <is>
-          <t>2026-02-24 05:57:15</t>
+          <t>2026-02-24 08:05:24</t>
         </is>
       </c>
     </row>
@@ -4060,58 +4060,58 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="G19" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="H19" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="I19" t="n">
         <v>2.44</v>
       </c>
       <c r="J19" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="K19" t="n">
         <v>3.05</v>
       </c>
       <c r="L19" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="M19" t="n">
         <v>1.16</v>
       </c>
       <c r="N19" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="O19" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="P19" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="Q19" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="R19" t="n">
         <v>1.15</v>
       </c>
       <c r="S19" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="T19" t="n">
-        <v>2.28</v>
+        <v>1.06</v>
       </c>
       <c r="U19" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="V19" t="n">
         <v>1.69</v>
       </c>
       <c r="W19" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="X19" t="n">
         <v>7.4</v>
@@ -4120,7 +4120,7 @@
         <v>6.8</v>
       </c>
       <c r="Z19" t="n">
-        <v>13.5</v>
+        <v>24</v>
       </c>
       <c r="AA19" t="n">
         <v>180</v>
@@ -4138,13 +4138,13 @@
         <v>180</v>
       </c>
       <c r="AF19" t="n">
-        <v>140</v>
+        <v>65</v>
       </c>
       <c r="AG19" t="n">
         <v>34</v>
       </c>
       <c r="AH19" t="n">
-        <v>970</v>
+        <v>500</v>
       </c>
       <c r="AI19" t="n">
         <v>500</v>
@@ -4153,7 +4153,7 @@
         <v>900</v>
       </c>
       <c r="AK19" t="n">
-        <v>310</v>
+        <v>500</v>
       </c>
       <c r="AL19" t="n">
         <v>500</v>
@@ -4165,19 +4165,19 @@
         <v>1000</v>
       </c>
       <c r="AO19" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AP19" t="n">
-        <v>6.4</v>
+        <v>4.7</v>
       </c>
       <c r="AQ19" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="AR19" t="n">
         <v>11.5</v>
       </c>
       <c r="AS19" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AT19" t="n">
         <v>8.6</v>
@@ -4189,13 +4189,13 @@
         <v>11</v>
       </c>
       <c r="AW19" t="n">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="AX19" t="n">
-        <v>8.800000000000001</v>
+        <v>13</v>
       </c>
       <c r="AY19" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AZ19" t="n">
         <v>8.800000000000001</v>
@@ -4223,7 +4223,7 @@
       </c>
       <c r="BH19" t="inlineStr">
         <is>
-          <t>2026-02-24 05:57:15</t>
+          <t>2026-02-24 08:05:24</t>
         </is>
       </c>
     </row>
@@ -4260,7 +4260,7 @@
         <v>2.26</v>
       </c>
       <c r="H20" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="I20" t="n">
         <v>3.6</v>
@@ -4272,34 +4272,34 @@
         <v>3.7</v>
       </c>
       <c r="L20" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="M20" t="n">
         <v>1.06</v>
       </c>
       <c r="N20" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="O20" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="P20" t="n">
-        <v>2.04</v>
+        <v>2.1</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="R20" t="n">
-        <v>1.39</v>
+        <v>1.43</v>
       </c>
       <c r="S20" t="n">
-        <v>3.35</v>
+        <v>3.2</v>
       </c>
       <c r="T20" t="n">
-        <v>1.77</v>
+        <v>1.74</v>
       </c>
       <c r="U20" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="V20" t="n">
         <v>1.38</v>
@@ -4308,94 +4308,94 @@
         <v>1.79</v>
       </c>
       <c r="X20" t="n">
-        <v>14.5</v>
+        <v>16.5</v>
       </c>
       <c r="Y20" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="Z20" t="n">
         <v>25</v>
       </c>
       <c r="AA20" t="n">
-        <v>440</v>
+        <v>170</v>
       </c>
       <c r="AB20" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AC20" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AD20" t="n">
-        <v>14.5</v>
+        <v>24</v>
       </c>
       <c r="AE20" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AF20" t="n">
         <v>14.5</v>
       </c>
       <c r="AG20" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH20" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AI20" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AJ20" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AK20" t="n">
         <v>23</v>
       </c>
       <c r="AL20" t="n">
-        <v>120</v>
+        <v>34</v>
       </c>
       <c r="AM20" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AN20" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AO20" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AP20" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>14</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>23</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>46</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>10</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>13</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>34</v>
+      </c>
+      <c r="AX20" t="n">
         <v>13.5</v>
       </c>
-      <c r="AQ20" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AR20" t="n">
-        <v>22</v>
-      </c>
-      <c r="AS20" t="n">
-        <v>23</v>
-      </c>
-      <c r="AT20" t="n">
+      <c r="AY20" t="n">
         <v>9.800000000000001</v>
-      </c>
-      <c r="AU20" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AV20" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AW20" t="n">
-        <v>36</v>
-      </c>
-      <c r="AX20" t="n">
-        <v>13</v>
-      </c>
-      <c r="AY20" t="n">
-        <v>10</v>
       </c>
       <c r="AZ20" t="n">
         <v>15</v>
       </c>
       <c r="BA20" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="BB20" t="n">
         <v>25</v>
@@ -4407,17 +4407,17 @@
         <v>30</v>
       </c>
       <c r="BE20" t="n">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="BF20" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="BG20" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="BH20" t="inlineStr">
         <is>
-          <t>2026-02-24 05:57:15</t>
+          <t>2026-02-24 08:05:24</t>
         </is>
       </c>
     </row>
@@ -4460,13 +4460,13 @@
         <v>2.32</v>
       </c>
       <c r="J21" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K21" t="n">
         <v>4.1</v>
       </c>
       <c r="L21" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="M21" t="n">
         <v>1.05</v>
@@ -4478,7 +4478,7 @@
         <v>1.24</v>
       </c>
       <c r="P21" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="Q21" t="n">
         <v>1.72</v>
@@ -4502,7 +4502,7 @@
         <v>1.39</v>
       </c>
       <c r="X21" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="Y21" t="n">
         <v>13</v>
@@ -4511,7 +4511,7 @@
         <v>16.5</v>
       </c>
       <c r="AA21" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AB21" t="n">
         <v>16.5</v>
@@ -4544,16 +4544,16 @@
         <v>38</v>
       </c>
       <c r="AL21" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AM21" t="n">
-        <v>200</v>
+        <v>75</v>
       </c>
       <c r="AN21" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AO21" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AP21" t="n">
         <v>16.5</v>
@@ -4565,7 +4565,7 @@
         <v>13</v>
       </c>
       <c r="AS21" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AT21" t="n">
         <v>13.5</v>
@@ -4574,7 +4574,7 @@
         <v>7.6</v>
       </c>
       <c r="AV21" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AW21" t="n">
         <v>18.5</v>
@@ -4583,35 +4583,35 @@
         <v>21</v>
       </c>
       <c r="AY21" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AZ21" t="n">
         <v>13.5</v>
       </c>
       <c r="BA21" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="BB21" t="n">
-        <v>8.6</v>
+        <v>7.6</v>
       </c>
       <c r="BC21" t="n">
-        <v>7.6</v>
+        <v>8.4</v>
       </c>
       <c r="BD21" t="n">
-        <v>8.800000000000001</v>
+        <v>7.8</v>
       </c>
       <c r="BE21" t="n">
-        <v>32</v>
+        <v>9.6</v>
       </c>
       <c r="BF21" t="n">
-        <v>13.5</v>
+        <v>7.8</v>
       </c>
       <c r="BG21" t="n">
         <v>11.5</v>
       </c>
       <c r="BH21" t="inlineStr">
         <is>
-          <t>2026-02-24 05:57:15</t>
+          <t>2026-02-24 08:05:24</t>
         </is>
       </c>
     </row>
@@ -4642,76 +4642,76 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="G22" t="n">
-        <v>1.89</v>
+        <v>1.96</v>
       </c>
       <c r="H22" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="I22" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="J22" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="K22" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="L22" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="M22" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N22" t="n">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="O22" t="n">
-        <v>1.2</v>
+        <v>1.23</v>
       </c>
       <c r="P22" t="n">
-        <v>2.38</v>
+        <v>2.24</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="R22" t="n">
-        <v>1.54</v>
+        <v>1.48</v>
       </c>
       <c r="S22" t="n">
-        <v>2.58</v>
+        <v>2.78</v>
       </c>
       <c r="T22" t="n">
         <v>1.67</v>
       </c>
       <c r="U22" t="n">
-        <v>2.28</v>
+        <v>2.2</v>
       </c>
       <c r="V22" t="n">
         <v>1.25</v>
       </c>
       <c r="W22" t="n">
-        <v>2.12</v>
+        <v>2.04</v>
       </c>
       <c r="X22" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="Y22" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Z22" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AA22" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="AB22" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AC22" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD22" t="n">
         <v>19</v>
@@ -4720,7 +4720,7 @@
         <v>55</v>
       </c>
       <c r="AF22" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AG22" t="n">
         <v>11</v>
@@ -4729,67 +4729,67 @@
         <v>18</v>
       </c>
       <c r="AI22" t="n">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="AJ22" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AK22" t="n">
-        <v>18</v>
+        <v>19.5</v>
       </c>
       <c r="AL22" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AM22" t="n">
-        <v>330</v>
+        <v>85</v>
       </c>
       <c r="AN22" t="n">
-        <v>9</v>
+        <v>10.5</v>
       </c>
       <c r="AO22" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="AP22" t="n">
-        <v>18.5</v>
+        <v>16</v>
       </c>
       <c r="AQ22" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="AR22" t="n">
         <v>16.5</v>
       </c>
       <c r="AS22" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AT22" t="n">
-        <v>10</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AU22" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="AV22" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AW22" t="n">
         <v>20</v>
       </c>
       <c r="AX22" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AY22" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="AZ22" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="BA22" t="n">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="BB22" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="BC22" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="BD22" t="n">
         <v>15</v>
@@ -4798,14 +4798,14 @@
         <v>16</v>
       </c>
       <c r="BF22" t="n">
-        <v>7.2</v>
+        <v>8.4</v>
       </c>
       <c r="BG22" t="n">
-        <v>15.5</v>
+        <v>8</v>
       </c>
       <c r="BH22" t="inlineStr">
         <is>
-          <t>2026-02-24 05:57:15</t>
+          <t>2026-02-24 08:05:24</t>
         </is>
       </c>
     </row>
@@ -4839,22 +4839,22 @@
         <v>3.3</v>
       </c>
       <c r="G23" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="H23" t="n">
         <v>2.06</v>
       </c>
       <c r="I23" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="J23" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="K23" t="n">
         <v>4.2</v>
       </c>
       <c r="L23" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="M23" t="n">
         <v>1.05</v>
@@ -4863,28 +4863,28 @@
         <v>4.3</v>
       </c>
       <c r="O23" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="P23" t="n">
         <v>2.16</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.78</v>
+        <v>1.72</v>
       </c>
       <c r="R23" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="S23" t="n">
-        <v>2.88</v>
+        <v>2.78</v>
       </c>
       <c r="T23" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="U23" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="V23" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="W23" t="n">
         <v>1.36</v>
@@ -4899,10 +4899,10 @@
         <v>16</v>
       </c>
       <c r="AA23" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AB23" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AC23" t="n">
         <v>9.6</v>
@@ -4911,7 +4911,7 @@
         <v>11.5</v>
       </c>
       <c r="AE23" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AF23" t="n">
         <v>28</v>
@@ -4938,25 +4938,25 @@
         <v>80</v>
       </c>
       <c r="AN23" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AO23" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AP23" t="n">
         <v>16</v>
       </c>
       <c r="AQ23" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AR23" t="n">
         <v>12.5</v>
       </c>
       <c r="AS23" t="n">
+        <v>22</v>
+      </c>
+      <c r="AT23" t="n">
         <v>13.5</v>
-      </c>
-      <c r="AT23" t="n">
-        <v>13</v>
       </c>
       <c r="AU23" t="n">
         <v>7.6</v>
@@ -4965,13 +4965,13 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AW23" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AX23" t="n">
         <v>12.5</v>
       </c>
       <c r="AY23" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AZ23" t="n">
         <v>13.5</v>
@@ -4980,16 +4980,16 @@
         <v>16.5</v>
       </c>
       <c r="BB23" t="n">
-        <v>9.800000000000001</v>
+        <v>23</v>
       </c>
       <c r="BC23" t="n">
-        <v>30</v>
+        <v>16.5</v>
       </c>
       <c r="BD23" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BE23" t="n">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="BF23" t="n">
         <v>13.5</v>
@@ -4999,7 +4999,7 @@
       </c>
       <c r="BH23" t="inlineStr">
         <is>
-          <t>2026-02-24 05:57:15</t>
+          <t>2026-02-24 08:05:24</t>
         </is>
       </c>
     </row>
@@ -5030,76 +5030,76 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="G24" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="H24" t="n">
-        <v>2.44</v>
+        <v>2.6</v>
       </c>
       <c r="I24" t="n">
         <v>2.66</v>
       </c>
       <c r="J24" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="K24" t="n">
         <v>3.35</v>
       </c>
       <c r="L24" t="n">
-        <v>1.49</v>
+        <v>1.47</v>
       </c>
       <c r="M24" t="n">
         <v>1.09</v>
       </c>
       <c r="N24" t="n">
-        <v>3.15</v>
+        <v>3.35</v>
       </c>
       <c r="O24" t="n">
-        <v>1.41</v>
+        <v>1.38</v>
       </c>
       <c r="P24" t="n">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.28</v>
+        <v>2.2</v>
       </c>
       <c r="R24" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="S24" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="T24" t="n">
-        <v>1.89</v>
+        <v>1.81</v>
       </c>
       <c r="U24" t="n">
-        <v>1.96</v>
+        <v>2.04</v>
       </c>
       <c r="V24" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="W24" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="X24" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="Y24" t="n">
-        <v>9.4</v>
+        <v>10.5</v>
       </c>
       <c r="Z24" t="n">
         <v>38</v>
       </c>
       <c r="AA24" t="n">
-        <v>130</v>
+        <v>500</v>
       </c>
       <c r="AB24" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AC24" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AD24" t="n">
         <v>23</v>
@@ -5111,7 +5111,7 @@
         <v>70</v>
       </c>
       <c r="AG24" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AH24" t="n">
         <v>34</v>
@@ -5135,31 +5135,31 @@
         <v>600</v>
       </c>
       <c r="AO24" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AP24" t="n">
-        <v>9.6</v>
+        <v>10.5</v>
       </c>
       <c r="AQ24" t="n">
-        <v>8</v>
+        <v>8.6</v>
       </c>
       <c r="AR24" t="n">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="AS24" t="n">
-        <v>12.5</v>
+        <v>8.6</v>
       </c>
       <c r="AT24" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="AU24" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="AV24" t="n">
-        <v>6.2</v>
+        <v>10</v>
       </c>
       <c r="AW24" t="n">
-        <v>10</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AX24" t="n">
         <v>10.5</v>
@@ -5168,32 +5168,32 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AZ24" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BA24" t="n">
+        <v>22</v>
+      </c>
+      <c r="BB24" t="n">
+        <v>23</v>
+      </c>
+      <c r="BC24" t="n">
+        <v>20</v>
+      </c>
+      <c r="BD24" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="BE24" t="n">
         <v>10</v>
       </c>
-      <c r="BB24" t="n">
-        <v>12</v>
-      </c>
-      <c r="BC24" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="BD24" t="n">
-        <v>10</v>
-      </c>
-      <c r="BE24" t="n">
-        <v>28</v>
-      </c>
       <c r="BF24" t="n">
-        <v>9.800000000000001</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="BG24" t="n">
-        <v>8.800000000000001</v>
+        <v>7.8</v>
       </c>
       <c r="BH24" t="inlineStr">
         <is>
-          <t>2026-02-24 05:57:15</t>
+          <t>2026-02-24 08:05:24</t>
         </is>
       </c>
     </row>
@@ -5224,94 +5224,94 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="G25" t="n">
-        <v>8.6</v>
+        <v>8</v>
       </c>
       <c r="H25" t="n">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="I25" t="n">
-        <v>1.51</v>
+        <v>1.54</v>
       </c>
       <c r="J25" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="K25" t="n">
-        <v>5.2</v>
+        <v>4.9</v>
       </c>
       <c r="L25" t="n">
-        <v>1.34</v>
+        <v>1.37</v>
       </c>
       <c r="M25" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N25" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="O25" t="n">
-        <v>1.24</v>
+        <v>1.27</v>
       </c>
       <c r="P25" t="n">
-        <v>2.2</v>
+        <v>2.12</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.74</v>
+        <v>1.83</v>
       </c>
       <c r="R25" t="n">
-        <v>1.47</v>
+        <v>1.42</v>
       </c>
       <c r="S25" t="n">
-        <v>2.9</v>
+        <v>3.15</v>
       </c>
       <c r="T25" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="U25" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="V25" t="n">
-        <v>2.9</v>
+        <v>2.84</v>
       </c>
       <c r="W25" t="n">
-        <v>1.13</v>
+        <v>1.15</v>
       </c>
       <c r="X25" t="n">
         <v>32</v>
       </c>
       <c r="Y25" t="n">
-        <v>9.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="Z25" t="n">
         <v>9.4</v>
       </c>
       <c r="AA25" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AB25" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="AC25" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AD25" t="n">
         <v>10.5</v>
       </c>
       <c r="AE25" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="AF25" t="n">
         <v>190</v>
       </c>
       <c r="AG25" t="n">
-        <v>120</v>
+        <v>75</v>
       </c>
       <c r="AH25" t="n">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="AI25" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AJ25" t="n">
         <v>1000</v>
@@ -5329,65 +5329,65 @@
         <v>1000</v>
       </c>
       <c r="AO25" t="n">
-        <v>6.8</v>
+        <v>8</v>
       </c>
       <c r="AP25" t="n">
-        <v>17.5</v>
+        <v>13</v>
       </c>
       <c r="AQ25" t="n">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="AR25" t="n">
         <v>8</v>
       </c>
       <c r="AS25" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AT25" t="n">
         <v>14.5</v>
       </c>
       <c r="AU25" t="n">
-        <v>9.6</v>
+        <v>9</v>
       </c>
       <c r="AV25" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AW25" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AX25" t="n">
         <v>30</v>
       </c>
       <c r="AY25" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AZ25" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="BA25" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="BB25" t="n">
         <v>11</v>
       </c>
       <c r="BC25" t="n">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="BD25" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="BE25" t="n">
         <v>17.5</v>
       </c>
       <c r="BF25" t="n">
-        <v>15</v>
+        <v>11.5</v>
       </c>
       <c r="BG25" t="n">
-        <v>5.9</v>
+        <v>7</v>
       </c>
       <c r="BH25" t="inlineStr">
         <is>
-          <t>2026-02-24 05:57:15</t>
+          <t>2026-02-24 08:05:24</t>
         </is>
       </c>
     </row>
@@ -5418,10 +5418,10 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="G26" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="H26" t="n">
         <v>3.35</v>
@@ -5430,10 +5430,10 @@
         <v>3.65</v>
       </c>
       <c r="J26" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K26" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="L26" t="n">
         <v>1.33</v>
@@ -5442,43 +5442,43 @@
         <v>1.05</v>
       </c>
       <c r="N26" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="O26" t="n">
         <v>1.23</v>
       </c>
       <c r="P26" t="n">
-        <v>2.34</v>
+        <v>2.3</v>
       </c>
       <c r="Q26" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R26" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S26" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="T26" t="n">
         <v>1.68</v>
       </c>
-      <c r="R26" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="S26" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="T26" t="n">
-        <v>1.67</v>
-      </c>
       <c r="U26" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="V26" t="n">
         <v>1.37</v>
       </c>
       <c r="W26" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="X26" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="Y26" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="Z26" t="n">
-        <v>85</v>
+        <v>500</v>
       </c>
       <c r="AA26" t="n">
         <v>900</v>
@@ -5487,7 +5487,7 @@
         <v>24</v>
       </c>
       <c r="AC26" t="n">
-        <v>12.5</v>
+        <v>9.6</v>
       </c>
       <c r="AD26" t="n">
         <v>28</v>
@@ -5499,7 +5499,7 @@
         <v>32</v>
       </c>
       <c r="AG26" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AH26" t="n">
         <v>27</v>
@@ -5508,7 +5508,7 @@
         <v>500</v>
       </c>
       <c r="AJ26" t="n">
-        <v>900</v>
+        <v>110</v>
       </c>
       <c r="AK26" t="n">
         <v>50</v>
@@ -5526,62 +5526,62 @@
         <v>600</v>
       </c>
       <c r="AP26" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AQ26" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AR26" t="n">
         <v>13</v>
       </c>
       <c r="AS26" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AT26" t="n">
-        <v>9</v>
+        <v>6.8</v>
       </c>
       <c r="AU26" t="n">
-        <v>7.6</v>
+        <v>6.6</v>
       </c>
       <c r="AV26" t="n">
-        <v>10</v>
+        <v>8.6</v>
       </c>
       <c r="AW26" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AX26" t="n">
-        <v>9.4</v>
+        <v>7.8</v>
       </c>
       <c r="AY26" t="n">
         <v>10</v>
       </c>
       <c r="AZ26" t="n">
-        <v>9.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="BA26" t="n">
-        <v>20</v>
+        <v>10.5</v>
       </c>
       <c r="BB26" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="BC26" t="n">
         <v>10</v>
       </c>
-      <c r="BC26" t="n">
-        <v>11</v>
-      </c>
       <c r="BD26" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="BE26" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="BF26" t="n">
         <v>10</v>
       </c>
-      <c r="BE26" t="n">
-        <v>12</v>
-      </c>
-      <c r="BF26" t="n">
-        <v>8</v>
-      </c>
       <c r="BG26" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="BH26" t="inlineStr">
         <is>
-          <t>2026-02-24 05:57:15</t>
+          <t>2026-02-24 08:05:24</t>
         </is>
       </c>
     </row>
@@ -5624,7 +5624,7 @@
         <v>1.77</v>
       </c>
       <c r="J27" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="K27" t="n">
         <v>4.1</v>
@@ -5636,16 +5636,16 @@
         <v>1.07</v>
       </c>
       <c r="N27" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="O27" t="n">
         <v>1.32</v>
       </c>
       <c r="P27" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="Q27" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="R27" t="n">
         <v>1.35</v>
@@ -5663,10 +5663,10 @@
         <v>2.26</v>
       </c>
       <c r="W27" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="X27" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="Y27" t="n">
         <v>18</v>
@@ -5690,7 +5690,7 @@
         <v>65</v>
       </c>
       <c r="AF27" t="n">
-        <v>120</v>
+        <v>500</v>
       </c>
       <c r="AG27" t="n">
         <v>970</v>
@@ -5705,10 +5705,10 @@
         <v>900</v>
       </c>
       <c r="AK27" t="n">
-        <v>420</v>
+        <v>700</v>
       </c>
       <c r="AL27" t="n">
-        <v>330</v>
+        <v>700</v>
       </c>
       <c r="AM27" t="n">
         <v>580</v>
@@ -5720,62 +5720,62 @@
         <v>29</v>
       </c>
       <c r="AP27" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="AQ27" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="AR27" t="n">
-        <v>6</v>
+        <v>5.7</v>
       </c>
       <c r="AS27" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AT27" t="n">
         <v>9</v>
       </c>
       <c r="AU27" t="n">
-        <v>5.6</v>
+        <v>5.1</v>
       </c>
       <c r="AV27" t="n">
-        <v>5.8</v>
+        <v>5.4</v>
       </c>
       <c r="AW27" t="n">
         <v>7.6</v>
       </c>
       <c r="AX27" t="n">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AY27" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AZ27" t="n">
-        <v>17</v>
+        <v>7.6</v>
       </c>
       <c r="BA27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BB27" t="n">
-        <v>3.05</v>
+        <v>3.35</v>
       </c>
       <c r="BC27" t="n">
         <v>11</v>
       </c>
       <c r="BD27" t="n">
+        <v>11</v>
+      </c>
+      <c r="BE27" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BF27" t="n">
         <v>10.5</v>
       </c>
-      <c r="BE27" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="BF27" t="n">
-        <v>11.5</v>
-      </c>
       <c r="BG27" t="n">
-        <v>8.800000000000001</v>
+        <v>6.2</v>
       </c>
       <c r="BH27" t="inlineStr">
         <is>
-          <t>2026-02-24 05:57:15</t>
+          <t>2026-02-24 08:05:24</t>
         </is>
       </c>
     </row>
@@ -5812,10 +5812,10 @@
         <v>2.52</v>
       </c>
       <c r="H28" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="I28" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="J28" t="n">
         <v>3.5</v>
@@ -5827,16 +5827,16 @@
         <v>1.37</v>
       </c>
       <c r="M28" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N28" t="n">
         <v>4.4</v>
       </c>
       <c r="O28" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="P28" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="Q28" t="n">
         <v>1.81</v>
@@ -5851,7 +5851,7 @@
         <v>1.63</v>
       </c>
       <c r="U28" t="n">
-        <v>2.32</v>
+        <v>2.28</v>
       </c>
       <c r="V28" t="n">
         <v>1.45</v>
@@ -5863,7 +5863,7 @@
         <v>18</v>
       </c>
       <c r="Y28" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="Z28" t="n">
         <v>24</v>
@@ -5875,7 +5875,7 @@
         <v>13</v>
       </c>
       <c r="AC28" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD28" t="n">
         <v>14.5</v>
@@ -5896,7 +5896,7 @@
         <v>42</v>
       </c>
       <c r="AJ28" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AK28" t="n">
         <v>26</v>
@@ -5905,40 +5905,40 @@
         <v>36</v>
       </c>
       <c r="AM28" t="n">
-        <v>80</v>
+        <v>330</v>
       </c>
       <c r="AN28" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AO28" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AP28" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AQ28" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AR28" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AS28" t="n">
-        <v>40</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AT28" t="n">
         <v>10.5</v>
       </c>
       <c r="AU28" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AV28" t="n">
         <v>11.5</v>
       </c>
       <c r="AW28" t="n">
-        <v>18.5</v>
+        <v>14.5</v>
       </c>
       <c r="AX28" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AY28" t="n">
         <v>10</v>
@@ -5947,29 +5947,29 @@
         <v>13</v>
       </c>
       <c r="BA28" t="n">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="BB28" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="BC28" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BD28" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="BE28" t="n">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="BF28" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="BG28" t="n">
-        <v>11.5</v>
+        <v>7.6</v>
       </c>
       <c r="BH28" t="inlineStr">
         <is>
-          <t>2026-02-24 05:57:15</t>
+          <t>2026-02-24 08:05:24</t>
         </is>
       </c>
     </row>
@@ -6006,13 +6006,13 @@
         <v>4.7</v>
       </c>
       <c r="H29" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="I29" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="J29" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="K29" t="n">
         <v>4.6</v>
@@ -6024,46 +6024,46 @@
         <v>1.03</v>
       </c>
       <c r="N29" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="O29" t="n">
         <v>1.16</v>
       </c>
       <c r="P29" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="R29" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="S29" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="T29" t="n">
-        <v>1.53</v>
+        <v>1.49</v>
       </c>
       <c r="U29" t="n">
-        <v>2.52</v>
+        <v>2.62</v>
       </c>
       <c r="V29" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="W29" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="X29" t="n">
-        <v>90</v>
+        <v>970</v>
       </c>
       <c r="Y29" t="n">
         <v>32</v>
       </c>
       <c r="Z29" t="n">
-        <v>970</v>
+        <v>34</v>
       </c>
       <c r="AA29" t="n">
-        <v>90</v>
+        <v>500</v>
       </c>
       <c r="AB29" t="n">
         <v>970</v>
@@ -6072,22 +6072,22 @@
         <v>42</v>
       </c>
       <c r="AD29" t="n">
-        <v>11.5</v>
+        <v>21</v>
       </c>
       <c r="AE29" t="n">
-        <v>17.5</v>
+        <v>500</v>
       </c>
       <c r="AF29" t="n">
-        <v>42</v>
+        <v>500</v>
       </c>
       <c r="AG29" t="n">
-        <v>36</v>
+        <v>970</v>
       </c>
       <c r="AH29" t="n">
         <v>30</v>
       </c>
       <c r="AI29" t="n">
-        <v>46</v>
+        <v>500</v>
       </c>
       <c r="AJ29" t="n">
         <v>500</v>
@@ -6105,10 +6105,10 @@
         <v>600</v>
       </c>
       <c r="AO29" t="n">
-        <v>19.5</v>
+        <v>23</v>
       </c>
       <c r="AP29" t="n">
-        <v>7.8</v>
+        <v>14.5</v>
       </c>
       <c r="AQ29" t="n">
         <v>8.4</v>
@@ -6117,10 +6117,10 @@
         <v>8.4</v>
       </c>
       <c r="AS29" t="n">
+        <v>10</v>
+      </c>
+      <c r="AT29" t="n">
         <v>11.5</v>
-      </c>
-      <c r="AT29" t="n">
-        <v>8.199999999999999</v>
       </c>
       <c r="AU29" t="n">
         <v>7.6</v>
@@ -6129,41 +6129,41 @@
         <v>6.4</v>
       </c>
       <c r="AW29" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX29" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY29" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ29" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="BA29" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="BB29" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="BC29" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD29" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="BE29" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="BF29" t="n">
         <v>7</v>
       </c>
-      <c r="AX29" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AY29" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AZ29" t="n">
-        <v>13</v>
-      </c>
-      <c r="BA29" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="BB29" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="BC29" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="BD29" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="BE29" t="n">
-        <v>9</v>
-      </c>
-      <c r="BF29" t="n">
-        <v>7.8</v>
-      </c>
       <c r="BG29" t="n">
-        <v>4.4</v>
+        <v>6</v>
       </c>
       <c r="BH29" t="inlineStr">
         <is>
-          <t>2026-02-24 05:57:15</t>
+          <t>2026-02-24 08:05:24</t>
         </is>
       </c>
     </row>
@@ -6197,19 +6197,19 @@
         <v>2.2</v>
       </c>
       <c r="G30" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="H30" t="n">
         <v>3.45</v>
       </c>
       <c r="I30" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="J30" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="K30" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="L30" t="n">
         <v>1.42</v>
@@ -6221,34 +6221,34 @@
         <v>3.7</v>
       </c>
       <c r="O30" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="P30" t="n">
         <v>1.92</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R30" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="S30" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="T30" t="n">
         <v>1.84</v>
       </c>
       <c r="U30" t="n">
-        <v>2.06</v>
+        <v>1.95</v>
       </c>
       <c r="V30" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="W30" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="X30" t="n">
-        <v>22</v>
+        <v>14.5</v>
       </c>
       <c r="Y30" t="n">
         <v>25</v>
@@ -6269,13 +6269,13 @@
         <v>25</v>
       </c>
       <c r="AE30" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="AF30" t="n">
         <v>27</v>
       </c>
       <c r="AG30" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AH30" t="n">
         <v>28</v>
@@ -6284,13 +6284,13 @@
         <v>1000</v>
       </c>
       <c r="AJ30" t="n">
-        <v>32</v>
+        <v>120</v>
       </c>
       <c r="AK30" t="n">
         <v>60</v>
       </c>
       <c r="AL30" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AM30" t="n">
         <v>1000</v>
@@ -6299,10 +6299,10 @@
         <v>55</v>
       </c>
       <c r="AO30" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="AP30" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AQ30" t="n">
         <v>11</v>
@@ -6311,7 +6311,7 @@
         <v>11.5</v>
       </c>
       <c r="AS30" t="n">
-        <v>8.4</v>
+        <v>7.8</v>
       </c>
       <c r="AT30" t="n">
         <v>8.199999999999999</v>
@@ -6323,7 +6323,7 @@
         <v>12.5</v>
       </c>
       <c r="AW30" t="n">
-        <v>8.800000000000001</v>
+        <v>8</v>
       </c>
       <c r="AX30" t="n">
         <v>12</v>
@@ -6332,32 +6332,32 @@
         <v>9.4</v>
       </c>
       <c r="AZ30" t="n">
-        <v>9</v>
+        <v>8.4</v>
       </c>
       <c r="BA30" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="BB30" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="BC30" t="n">
         <v>11.5</v>
       </c>
       <c r="BD30" t="n">
-        <v>7.6</v>
+        <v>8.6</v>
       </c>
       <c r="BE30" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="BF30" t="n">
         <v>6.4</v>
       </c>
       <c r="BG30" t="n">
-        <v>8</v>
+        <v>7.4</v>
       </c>
       <c r="BH30" t="inlineStr">
         <is>
-          <t>2026-02-24 05:57:15</t>
+          <t>2026-02-24 08:05:24</t>
         </is>
       </c>
     </row>
@@ -6400,7 +6400,7 @@
         <v>6.4</v>
       </c>
       <c r="J31" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="K31" t="n">
         <v>4.8</v>
@@ -6412,7 +6412,7 @@
         <v>1.04</v>
       </c>
       <c r="N31" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="O31" t="n">
         <v>1.22</v>
@@ -6421,22 +6421,22 @@
         <v>2.34</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
       <c r="R31" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="S31" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="T31" t="n">
-        <v>1.74</v>
+        <v>1.05</v>
       </c>
       <c r="U31" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="V31" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="W31" t="n">
         <v>2.5</v>
@@ -6445,16 +6445,16 @@
         <v>970</v>
       </c>
       <c r="Y31" t="n">
-        <v>970</v>
+        <v>500</v>
       </c>
       <c r="Z31" t="n">
-        <v>230</v>
+        <v>500</v>
       </c>
       <c r="AA31" t="n">
         <v>700</v>
       </c>
       <c r="AB31" t="n">
-        <v>65</v>
+        <v>500</v>
       </c>
       <c r="AC31" t="n">
         <v>15</v>
@@ -6466,19 +6466,19 @@
         <v>420</v>
       </c>
       <c r="AF31" t="n">
-        <v>970</v>
+        <v>500</v>
       </c>
       <c r="AG31" t="n">
-        <v>10.5</v>
+        <v>40</v>
       </c>
       <c r="AH31" t="n">
         <v>970</v>
       </c>
       <c r="AI31" t="n">
-        <v>330</v>
+        <v>700</v>
       </c>
       <c r="AJ31" t="n">
-        <v>28</v>
+        <v>180</v>
       </c>
       <c r="AK31" t="n">
         <v>65</v>
@@ -6490,7 +6490,7 @@
         <v>580</v>
       </c>
       <c r="AN31" t="n">
-        <v>7.6</v>
+        <v>27</v>
       </c>
       <c r="AO31" t="n">
         <v>700</v>
@@ -6502,10 +6502,10 @@
         <v>11.5</v>
       </c>
       <c r="AR31" t="n">
-        <v>9.4</v>
+        <v>6.8</v>
       </c>
       <c r="AS31" t="n">
-        <v>8.4</v>
+        <v>4.3</v>
       </c>
       <c r="AT31" t="n">
         <v>5.6</v>
@@ -6514,44 +6514,44 @@
         <v>5.6</v>
       </c>
       <c r="AV31" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AW31" t="n">
-        <v>46</v>
+        <v>8.4</v>
       </c>
       <c r="AX31" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="AY31" t="n">
         <v>5.8</v>
       </c>
       <c r="AZ31" t="n">
-        <v>10.5</v>
+        <v>9</v>
       </c>
       <c r="BA31" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="BB31" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="BC31" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="BD31" t="n">
+        <v>6</v>
+      </c>
+      <c r="BE31" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="BF31" t="n">
         <v>4.2</v>
       </c>
-      <c r="BB31" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="BC31" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="BD31" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="BE31" t="n">
-        <v>10</v>
-      </c>
-      <c r="BF31" t="n">
-        <v>4.5</v>
-      </c>
       <c r="BG31" t="n">
-        <v>7.8</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="BH31" t="inlineStr">
         <is>
-          <t>2026-02-24 05:57:15</t>
+          <t>2026-02-24 08:05:24</t>
         </is>
       </c>
     </row>
@@ -6582,10 +6582,10 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="G32" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="H32" t="n">
         <v>4.3</v>
@@ -6609,10 +6609,10 @@
         <v>2.44</v>
       </c>
       <c r="O32" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="P32" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="Q32" t="n">
         <v>3.1</v>
@@ -6624,25 +6624,25 @@
         <v>7</v>
       </c>
       <c r="T32" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="U32" t="n">
-        <v>1.66</v>
+        <v>1.63</v>
       </c>
       <c r="V32" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="W32" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="X32" t="n">
         <v>7.4</v>
       </c>
       <c r="Y32" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="Z32" t="n">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="AA32" t="n">
         <v>500</v>
@@ -6654,7 +6654,7 @@
         <v>7.4</v>
       </c>
       <c r="AD32" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AE32" t="n">
         <v>230</v>
@@ -6663,10 +6663,10 @@
         <v>11.5</v>
       </c>
       <c r="AG32" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AH32" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AI32" t="n">
         <v>420</v>
@@ -6675,10 +6675,10 @@
         <v>32</v>
       </c>
       <c r="AK32" t="n">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="AL32" t="n">
-        <v>85</v>
+        <v>180</v>
       </c>
       <c r="AM32" t="n">
         <v>500</v>
@@ -6690,28 +6690,28 @@
         <v>600</v>
       </c>
       <c r="AP32" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="AQ32" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AR32" t="n">
         <v>26</v>
       </c>
       <c r="AS32" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AT32" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="AU32" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="AV32" t="n">
         <v>17.5</v>
       </c>
       <c r="AW32" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AX32" t="n">
         <v>10</v>
@@ -6723,29 +6723,29 @@
         <v>26</v>
       </c>
       <c r="BA32" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="BB32" t="n">
+        <v>25</v>
+      </c>
+      <c r="BC32" t="n">
         <v>29</v>
-      </c>
-      <c r="BC32" t="n">
-        <v>30</v>
       </c>
       <c r="BD32" t="n">
         <v>55</v>
       </c>
       <c r="BE32" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="BF32" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="BG32" t="n">
-        <v>44</v>
+        <v>90</v>
       </c>
       <c r="BH32" t="inlineStr">
         <is>
-          <t>2026-02-24 05:57:15</t>
+          <t>2026-02-24 08:05:24</t>
         </is>
       </c>
     </row>
@@ -6782,7 +6782,7 @@
         <v>1.17</v>
       </c>
       <c r="H33" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="I33" t="n">
         <v>20</v>
@@ -6806,22 +6806,22 @@
         <v>1.09</v>
       </c>
       <c r="P33" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="R33" t="n">
         <v>2.32</v>
       </c>
       <c r="S33" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="T33" t="n">
-        <v>1.97</v>
+        <v>1.94</v>
       </c>
       <c r="U33" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="V33" t="n">
         <v>1.05</v>
@@ -6851,7 +6851,7 @@
         <v>65</v>
       </c>
       <c r="AE33" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="AF33" t="n">
         <v>11</v>
@@ -6863,13 +6863,13 @@
         <v>40</v>
       </c>
       <c r="AI33" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AJ33" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AK33" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AL33" t="n">
         <v>34</v>
@@ -6878,13 +6878,13 @@
         <v>150</v>
       </c>
       <c r="AN33" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="AO33" t="n">
         <v>270</v>
       </c>
       <c r="AP33" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AQ33" t="n">
         <v>70</v>
@@ -6893,19 +6893,19 @@
         <v>85</v>
       </c>
       <c r="AS33" t="n">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="AT33" t="n">
         <v>16</v>
       </c>
       <c r="AU33" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AV33" t="n">
         <v>55</v>
       </c>
       <c r="AW33" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="AX33" t="n">
         <v>10</v>
@@ -6917,29 +6917,29 @@
         <v>34</v>
       </c>
       <c r="BA33" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="BB33" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="BC33" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="BD33" t="n">
         <v>30</v>
       </c>
       <c r="BE33" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="BF33" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="BG33" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="BH33" t="inlineStr">
         <is>
-          <t>2026-02-24 05:57:15</t>
+          <t>2026-02-24 08:05:24</t>
         </is>
       </c>
     </row>
@@ -6970,10 +6970,10 @@
         </is>
       </c>
       <c r="F34" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="G34" t="n">
         <v>1.88</v>
-      </c>
-      <c r="G34" t="n">
-        <v>1.89</v>
       </c>
       <c r="H34" t="n">
         <v>4.4</v>
@@ -6988,7 +6988,7 @@
         <v>4.2</v>
       </c>
       <c r="L34" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="M34" t="n">
         <v>1.05</v>
@@ -7003,7 +7003,7 @@
         <v>2.36</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="R34" t="n">
         <v>1.54</v>
@@ -7012,10 +7012,10 @@
         <v>2.78</v>
       </c>
       <c r="T34" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="U34" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="V34" t="n">
         <v>1.28</v>
@@ -7024,7 +7024,7 @@
         <v>2.12</v>
       </c>
       <c r="X34" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="Y34" t="n">
         <v>19</v>
@@ -7033,7 +7033,7 @@
         <v>34</v>
       </c>
       <c r="AA34" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AB34" t="n">
         <v>11.5</v>
@@ -7042,7 +7042,7 @@
         <v>9.4</v>
       </c>
       <c r="AD34" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AE34" t="n">
         <v>46</v>
@@ -7057,10 +7057,10 @@
         <v>16.5</v>
       </c>
       <c r="AI34" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AJ34" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AK34" t="n">
         <v>17</v>
@@ -7069,13 +7069,13 @@
         <v>27</v>
       </c>
       <c r="AM34" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AN34" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AO34" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AP34" t="n">
         <v>18.5</v>
@@ -7084,7 +7084,7 @@
         <v>18</v>
       </c>
       <c r="AR34" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AS34" t="n">
         <v>75</v>
@@ -7099,25 +7099,25 @@
         <v>16.5</v>
       </c>
       <c r="AW34" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AX34" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AY34" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AZ34" t="n">
         <v>16</v>
       </c>
       <c r="BA34" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="BB34" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="BC34" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="BD34" t="n">
         <v>26</v>
@@ -7126,14 +7126,14 @@
         <v>65</v>
       </c>
       <c r="BF34" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="BG34" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="BH34" t="inlineStr">
         <is>
-          <t>2026-02-24 05:57:15</t>
+          <t>2026-02-24 08:05:24</t>
         </is>
       </c>
     </row>
@@ -7164,61 +7164,61 @@
         </is>
       </c>
       <c r="F35" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="G35" t="n">
         <v>1.27</v>
       </c>
-      <c r="G35" t="n">
-        <v>1.28</v>
-      </c>
       <c r="H35" t="n">
+        <v>11</v>
+      </c>
+      <c r="I35" t="n">
         <v>11.5</v>
       </c>
-      <c r="I35" t="n">
-        <v>12</v>
-      </c>
       <c r="J35" t="n">
-        <v>7.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="K35" t="n">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="L35" t="n">
         <v>1.19</v>
       </c>
       <c r="M35" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N35" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O35" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="P35" t="n">
-        <v>3.95</v>
+        <v>4.2</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="R35" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="S35" t="n">
-        <v>1.81</v>
+        <v>1.75</v>
       </c>
       <c r="T35" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="U35" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="V35" t="n">
         <v>1.09</v>
       </c>
       <c r="W35" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="X35" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="Y35" t="n">
         <v>65</v>
@@ -7227,91 +7227,91 @@
         <v>120</v>
       </c>
       <c r="AA35" t="n">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="AB35" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AC35" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AD35" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AE35" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AF35" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AG35" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH35" t="n">
         <v>27</v>
       </c>
       <c r="AI35" t="n">
+        <v>80</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>12</v>
+      </c>
+      <c r="AL35" t="n">
+        <v>25</v>
+      </c>
+      <c r="AM35" t="n">
         <v>85</v>
       </c>
-      <c r="AJ35" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK35" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AL35" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM35" t="n">
-        <v>90</v>
-      </c>
       <c r="AN35" t="n">
-        <v>2.96</v>
+        <v>2.86</v>
       </c>
       <c r="AO35" t="n">
         <v>110</v>
       </c>
       <c r="AP35" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AQ35" t="n">
         <v>55</v>
       </c>
       <c r="AR35" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AS35" t="n">
         <v>70</v>
       </c>
       <c r="AT35" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AU35" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AV35" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AW35" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AX35" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="AY35" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AZ35" t="n">
         <v>26</v>
       </c>
       <c r="BA35" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="BB35" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="BC35" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="BD35" t="n">
         <v>24</v>
@@ -7320,14 +7320,14 @@
         <v>80</v>
       </c>
       <c r="BF35" t="n">
-        <v>2.92</v>
+        <v>2.82</v>
       </c>
       <c r="BG35" t="n">
         <v>90</v>
       </c>
       <c r="BH35" t="inlineStr">
         <is>
-          <t>2026-02-24 05:57:15</t>
+          <t>2026-02-24 08:05:24</t>
         </is>
       </c>
     </row>
@@ -7373,7 +7373,7 @@
         <v>3.3</v>
       </c>
       <c r="K36" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="L36" t="n">
         <v>1.54</v>
@@ -7382,37 +7382,37 @@
         <v>1.11</v>
       </c>
       <c r="N36" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="O36" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="P36" t="n">
         <v>1.6</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="R36" t="n">
         <v>1.21</v>
       </c>
       <c r="S36" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="T36" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="U36" t="n">
         <v>1.76</v>
       </c>
       <c r="V36" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="W36" t="n">
         <v>2</v>
       </c>
       <c r="X36" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="Y36" t="n">
         <v>14</v>
@@ -7424,7 +7424,7 @@
         <v>1000</v>
       </c>
       <c r="AB36" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AC36" t="n">
         <v>8.199999999999999</v>
@@ -7436,7 +7436,7 @@
         <v>95</v>
       </c>
       <c r="AF36" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AG36" t="n">
         <v>11.5</v>
@@ -7445,16 +7445,16 @@
         <v>26</v>
       </c>
       <c r="AI36" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="AJ36" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AK36" t="n">
         <v>27</v>
       </c>
       <c r="AL36" t="n">
-        <v>160</v>
+        <v>60</v>
       </c>
       <c r="AM36" t="n">
         <v>1000</v>
@@ -7472,10 +7472,10 @@
         <v>11.5</v>
       </c>
       <c r="AR36" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="AS36" t="n">
-        <v>9.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AT36" t="n">
         <v>5.8</v>
@@ -7487,41 +7487,41 @@
         <v>18</v>
       </c>
       <c r="AW36" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX36" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY36" t="n">
         <v>9.4</v>
       </c>
-      <c r="AX36" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AY36" t="n">
-        <v>9.6</v>
-      </c>
       <c r="AZ36" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BA36" t="n">
-        <v>29</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="BB36" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BC36" t="n">
         <v>21</v>
       </c>
       <c r="BD36" t="n">
-        <v>9.199999999999999</v>
+        <v>22</v>
       </c>
       <c r="BE36" t="n">
-        <v>9.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="BF36" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BG36" t="n">
-        <v>9.6</v>
+        <v>8.4</v>
       </c>
       <c r="BH36" t="inlineStr">
         <is>
-          <t>2026-02-24 05:57:15</t>
+          <t>2026-02-24 08:05:24</t>
         </is>
       </c>
     </row>
@@ -7552,85 +7552,85 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1.55</v>
+        <v>1.48</v>
       </c>
       <c r="G37" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="H37" t="n">
-        <v>7.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="I37" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J37" t="n">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="K37" t="n">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="L37" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="M37" t="n">
         <v>1.08</v>
       </c>
       <c r="N37" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="O37" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="P37" t="n">
-        <v>1.71</v>
+        <v>1.76</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.24</v>
+        <v>2.16</v>
       </c>
       <c r="R37" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="S37" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="T37" t="n">
-        <v>2.18</v>
+        <v>2.26</v>
       </c>
       <c r="U37" t="n">
-        <v>1.69</v>
+        <v>1.63</v>
       </c>
       <c r="V37" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="W37" t="n">
-        <v>2.6</v>
+        <v>2.88</v>
       </c>
       <c r="X37" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="Y37" t="n">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="Z37" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="AA37" t="n">
         <v>1000</v>
       </c>
       <c r="AB37" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AC37" t="n">
-        <v>9.800000000000001</v>
+        <v>11</v>
       </c>
       <c r="AD37" t="n">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="AE37" t="n">
         <v>1000</v>
       </c>
       <c r="AF37" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="AG37" t="n">
         <v>11</v>
@@ -7642,10 +7642,10 @@
         <v>1000</v>
       </c>
       <c r="AJ37" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="AK37" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AL37" t="n">
         <v>55</v>
@@ -7654,68 +7654,68 @@
         <v>1000</v>
       </c>
       <c r="AN37" t="n">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="AO37" t="n">
         <v>1000</v>
       </c>
       <c r="AP37" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AQ37" t="n">
-        <v>17.5</v>
+        <v>20</v>
       </c>
       <c r="AR37" t="n">
-        <v>20</v>
+        <v>8.4</v>
       </c>
       <c r="AS37" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AT37" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="AU37" t="n">
-        <v>8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AV37" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="AW37" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="AX37" t="n">
-        <v>7</v>
+        <v>6.4</v>
       </c>
       <c r="AY37" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="AZ37" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="BA37" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="BB37" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="BC37" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="BD37" t="n">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="BE37" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="BF37" t="n">
-        <v>10</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="BG37" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="BH37" t="inlineStr">
         <is>
-          <t>2026-02-24 05:57:15</t>
+          <t>2026-02-24 08:05:24</t>
         </is>
       </c>
     </row>
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="G38" t="n">
         <v>2.48</v>
@@ -7755,40 +7755,40 @@
         <v>3.85</v>
       </c>
       <c r="I38" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="J38" t="n">
-        <v>2.9</v>
+        <v>2.96</v>
       </c>
       <c r="K38" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="L38" t="n">
         <v>1.77</v>
       </c>
       <c r="M38" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="N38" t="n">
         <v>2.18</v>
       </c>
       <c r="O38" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="P38" t="n">
         <v>1.37</v>
       </c>
       <c r="Q38" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="R38" t="n">
         <v>1.12</v>
       </c>
       <c r="S38" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="T38" t="n">
-        <v>2.62</v>
+        <v>2.58</v>
       </c>
       <c r="U38" t="n">
         <v>1.57</v>
@@ -7797,19 +7797,19 @@
         <v>1.33</v>
       </c>
       <c r="W38" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="X38" t="n">
         <v>6.2</v>
       </c>
       <c r="Y38" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="Z38" t="n">
         <v>25</v>
       </c>
       <c r="AA38" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AB38" t="n">
         <v>6</v>
@@ -7824,7 +7824,7 @@
         <v>90</v>
       </c>
       <c r="AF38" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AG38" t="n">
         <v>14</v>
@@ -7833,7 +7833,7 @@
         <v>34</v>
       </c>
       <c r="AI38" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AJ38" t="n">
         <v>40</v>
@@ -7845,7 +7845,7 @@
         <v>110</v>
       </c>
       <c r="AM38" t="n">
-        <v>410</v>
+        <v>500</v>
       </c>
       <c r="AN38" t="n">
         <v>60</v>
@@ -7860,7 +7860,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AR38" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AS38" t="n">
         <v>60</v>
@@ -7872,7 +7872,7 @@
         <v>6.8</v>
       </c>
       <c r="AV38" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="AW38" t="n">
         <v>55</v>
@@ -7884,7 +7884,7 @@
         <v>13</v>
       </c>
       <c r="AZ38" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="BA38" t="n">
         <v>44</v>
@@ -7896,10 +7896,10 @@
         <v>40</v>
       </c>
       <c r="BD38" t="n">
-        <v>85</v>
+        <v>48</v>
       </c>
       <c r="BE38" t="n">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="BF38" t="n">
         <v>46</v>
@@ -7909,7 +7909,7 @@
       </c>
       <c r="BH38" t="inlineStr">
         <is>
-          <t>2026-02-24 05:57:15</t>
+          <t>2026-02-24 08:05:24</t>
         </is>
       </c>
     </row>
@@ -7940,10 +7940,10 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="G39" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="H39" t="n">
         <v>2.52</v>
@@ -7952,61 +7952,61 @@
         <v>2.62</v>
       </c>
       <c r="J39" t="n">
-        <v>2.9</v>
+        <v>2.86</v>
       </c>
       <c r="K39" t="n">
-        <v>3.05</v>
+        <v>2.96</v>
       </c>
       <c r="L39" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="M39" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="N39" t="n">
         <v>2.28</v>
       </c>
       <c r="O39" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="P39" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="Q39" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="R39" t="n">
         <v>1.13</v>
       </c>
       <c r="S39" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="T39" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="U39" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="V39" t="n">
         <v>1.62</v>
       </c>
-      <c r="V39" t="n">
-        <v>1.61</v>
-      </c>
       <c r="W39" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="X39" t="n">
         <v>7</v>
       </c>
       <c r="Y39" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="Z39" t="n">
         <v>13.5</v>
       </c>
       <c r="AA39" t="n">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="AB39" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC39" t="n">
         <v>7</v>
@@ -8021,19 +8021,19 @@
         <v>23</v>
       </c>
       <c r="AG39" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AH39" t="n">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="AI39" t="n">
         <v>230</v>
       </c>
       <c r="AJ39" t="n">
+        <v>95</v>
+      </c>
+      <c r="AK39" t="n">
         <v>250</v>
-      </c>
-      <c r="AK39" t="n">
-        <v>190</v>
       </c>
       <c r="AL39" t="n">
         <v>340</v>
@@ -8042,22 +8042,22 @@
         <v>500</v>
       </c>
       <c r="AN39" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AO39" t="n">
-        <v>500</v>
+        <v>130</v>
       </c>
       <c r="AP39" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="AQ39" t="n">
         <v>6</v>
       </c>
       <c r="AR39" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AS39" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AT39" t="n">
         <v>7.8</v>
@@ -8069,10 +8069,10 @@
         <v>12.5</v>
       </c>
       <c r="AW39" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AX39" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AY39" t="n">
         <v>16</v>
@@ -8084,7 +8084,7 @@
         <v>75</v>
       </c>
       <c r="BB39" t="n">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="BC39" t="n">
         <v>50</v>
@@ -8096,14 +8096,14 @@
         <v>110</v>
       </c>
       <c r="BF39" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="BG39" t="n">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="BH39" t="inlineStr">
         <is>
-          <t>2026-02-24 05:57:15</t>
+          <t>2026-02-24 08:05:24</t>
         </is>
       </c>
     </row>
@@ -8134,22 +8134,22 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="G40" t="n">
         <v>1.9</v>
       </c>
       <c r="H40" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="I40" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="J40" t="n">
         <v>3.5</v>
       </c>
       <c r="K40" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="L40" t="n">
         <v>1.54</v>
@@ -8176,10 +8176,10 @@
         <v>5</v>
       </c>
       <c r="T40" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="U40" t="n">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="V40" t="n">
         <v>1.23</v>
@@ -8203,13 +8203,13 @@
         <v>6.6</v>
       </c>
       <c r="AC40" t="n">
-        <v>8.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="AD40" t="n">
         <v>23</v>
       </c>
       <c r="AE40" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AF40" t="n">
         <v>9.6</v>
@@ -8218,10 +8218,10 @@
         <v>11</v>
       </c>
       <c r="AH40" t="n">
-        <v>27</v>
+        <v>980</v>
       </c>
       <c r="AI40" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AJ40" t="n">
         <v>21</v>
@@ -8236,16 +8236,16 @@
         <v>200</v>
       </c>
       <c r="AN40" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AO40" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AP40" t="n">
         <v>9</v>
       </c>
       <c r="AQ40" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AR40" t="n">
         <v>28</v>
@@ -8260,7 +8260,7 @@
         <v>7.4</v>
       </c>
       <c r="AV40" t="n">
-        <v>20</v>
+        <v>17.5</v>
       </c>
       <c r="AW40" t="n">
         <v>36</v>
@@ -8278,26 +8278,26 @@
         <v>40</v>
       </c>
       <c r="BB40" t="n">
-        <v>18.5</v>
+        <v>15</v>
       </c>
       <c r="BC40" t="n">
-        <v>22</v>
+        <v>16.5</v>
       </c>
       <c r="BD40" t="n">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="BE40" t="n">
         <v>48</v>
       </c>
       <c r="BF40" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="BG40" t="n">
         <v>42</v>
       </c>
       <c r="BH40" t="inlineStr">
         <is>
-          <t>2026-02-24 05:57:15</t>
+          <t>2026-02-24 08:05:24</t>
         </is>
       </c>
     </row>
@@ -8337,10 +8337,10 @@
         <v>2.4</v>
       </c>
       <c r="I41" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="J41" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="K41" t="n">
         <v>3.05</v>
@@ -8358,140 +8358,140 @@
         <v>1.65</v>
       </c>
       <c r="P41" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="Q41" t="n">
         <v>3.1</v>
       </c>
       <c r="R41" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="S41" t="n">
         <v>6.8</v>
       </c>
       <c r="T41" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="U41" t="n">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
       <c r="V41" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="W41" t="n">
         <v>1.33</v>
       </c>
       <c r="X41" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="Y41" t="n">
-        <v>6.8</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z41" t="n">
-        <v>970</v>
+        <v>19</v>
       </c>
       <c r="AA41" t="n">
+        <v>50</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>18</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>36</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>26</v>
+      </c>
+      <c r="AH41" t="n">
         <v>38</v>
       </c>
-      <c r="AB41" t="n">
-        <v>10</v>
-      </c>
-      <c r="AC41" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AD41" t="n">
-        <v>970</v>
-      </c>
-      <c r="AE41" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF41" t="n">
-        <v>26</v>
-      </c>
-      <c r="AG41" t="n">
-        <v>22</v>
-      </c>
-      <c r="AH41" t="n">
-        <v>32</v>
-      </c>
       <c r="AI41" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AJ41" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AK41" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AL41" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AM41" t="n">
-        <v>270</v>
+        <v>1000</v>
       </c>
       <c r="AN41" t="n">
         <v>1000</v>
       </c>
       <c r="AO41" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AP41" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AQ41" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="AR41" t="n">
         <v>11.5</v>
       </c>
       <c r="AS41" t="n">
-        <v>7.6</v>
+        <v>2.18</v>
       </c>
       <c r="AT41" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AU41" t="n">
         <v>6.4</v>
       </c>
       <c r="AV41" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AW41" t="n">
-        <v>7.6</v>
+        <v>2.18</v>
       </c>
       <c r="AX41" t="n">
-        <v>7</v>
+        <v>2.14</v>
       </c>
       <c r="AY41" t="n">
-        <v>15.5</v>
+        <v>2.08</v>
       </c>
       <c r="AZ41" t="n">
-        <v>23</v>
+        <v>2.14</v>
       </c>
       <c r="BA41" t="n">
-        <v>8.4</v>
+        <v>2.22</v>
       </c>
       <c r="BB41" t="n">
-        <v>8.800000000000001</v>
+        <v>2.26</v>
       </c>
       <c r="BC41" t="n">
-        <v>8.4</v>
+        <v>46</v>
       </c>
       <c r="BD41" t="n">
-        <v>8.800000000000001</v>
+        <v>2.26</v>
       </c>
       <c r="BE41" t="n">
-        <v>9.199999999999999</v>
+        <v>2.26</v>
       </c>
       <c r="BF41" t="n">
-        <v>8.800000000000001</v>
+        <v>2.26</v>
       </c>
       <c r="BG41" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="BH41" t="inlineStr">
         <is>
-          <t>2026-02-24 05:57:15</t>
+          <t>2026-02-24 08:05:24</t>
         </is>
       </c>
     </row>
@@ -8573,7 +8573,7 @@
         <v>1.36</v>
       </c>
       <c r="W42" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="X42" t="n">
         <v>1000</v>
@@ -8685,7 +8685,7 @@
       </c>
       <c r="BH42" t="inlineStr">
         <is>
-          <t>2026-02-24 05:57:15</t>
+          <t>2026-02-24 08:05:24</t>
         </is>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-24.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-24.xlsx
@@ -762,37 +762,37 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="G2" t="n">
         <v>4.5</v>
       </c>
       <c r="H2" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="I2" t="n">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="J2" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="K2" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N2" t="n">
         <v>3.25</v>
       </c>
-      <c r="K2" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="L2" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N2" t="n">
-        <v>3.15</v>
-      </c>
       <c r="O2" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="P2" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="Q2" t="n">
         <v>2.24</v>
@@ -807,16 +807,16 @@
         <v>1.92</v>
       </c>
       <c r="U2" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="V2" t="n">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="W2" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="X2" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Y2" t="n">
         <v>8.199999999999999</v>
@@ -831,7 +831,7 @@
         <v>13.5</v>
       </c>
       <c r="AC2" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AD2" t="n">
         <v>11</v>
@@ -843,89 +843,89 @@
         <v>32</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AH2" t="n">
         <v>21</v>
       </c>
       <c r="AI2" t="n">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="AJ2" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="AK2" t="n">
-        <v>190</v>
+        <v>100</v>
       </c>
       <c r="AL2" t="n">
-        <v>200</v>
+        <v>75</v>
       </c>
       <c r="AM2" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN2" t="n">
         <v>600</v>
       </c>
       <c r="AO2" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AP2" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AQ2" t="n">
-        <v>4.9</v>
+        <v>7</v>
       </c>
       <c r="AR2" t="n">
-        <v>6.2</v>
+        <v>10.5</v>
       </c>
       <c r="AS2" t="n">
-        <v>8.4</v>
+        <v>22</v>
       </c>
       <c r="AT2" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AU2" t="n">
-        <v>4.8</v>
+        <v>7</v>
       </c>
       <c r="AV2" t="n">
-        <v>5.9</v>
+        <v>9.6</v>
       </c>
       <c r="AW2" t="n">
-        <v>11.5</v>
+        <v>21</v>
       </c>
       <c r="AX2" t="n">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="AY2" t="n">
-        <v>9.4</v>
+        <v>15</v>
       </c>
       <c r="AZ2" t="n">
-        <v>9.800000000000001</v>
+        <v>18</v>
       </c>
       <c r="BA2" t="n">
-        <v>9.800000000000001</v>
+        <v>29</v>
       </c>
       <c r="BB2" t="n">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="BC2" t="n">
-        <v>10.5</v>
+        <v>32</v>
       </c>
       <c r="BD2" t="n">
-        <v>10.5</v>
+        <v>38</v>
       </c>
       <c r="BE2" t="n">
-        <v>120</v>
+        <v>13</v>
       </c>
       <c r="BF2" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="BG2" t="n">
-        <v>7.6</v>
+        <v>17</v>
       </c>
       <c r="BH2" t="inlineStr">
         <is>
-          <t>2026-02-24 10:13:34</t>
+          <t>2026-02-24 12:21:44</t>
         </is>
       </c>
     </row>
@@ -956,64 +956,64 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="G3" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="H3" t="n">
         <v>6.6</v>
       </c>
       <c r="I3" t="n">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="J3" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="K3" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="L3" t="n">
-        <v>1.37</v>
+        <v>1.34</v>
       </c>
       <c r="M3" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N3" t="n">
-        <v>4.3</v>
+        <v>4.8</v>
       </c>
       <c r="O3" t="n">
-        <v>1.29</v>
+        <v>1.24</v>
       </c>
       <c r="P3" t="n">
-        <v>2.14</v>
+        <v>2.28</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.84</v>
+        <v>1.74</v>
       </c>
       <c r="R3" t="n">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="S3" t="n">
-        <v>3.2</v>
+        <v>2.88</v>
       </c>
       <c r="T3" t="n">
-        <v>1.9</v>
+        <v>1.81</v>
       </c>
       <c r="U3" t="n">
-        <v>1.98</v>
+        <v>2.08</v>
       </c>
       <c r="V3" t="n">
         <v>1.16</v>
       </c>
       <c r="W3" t="n">
-        <v>2.66</v>
+        <v>2.74</v>
       </c>
       <c r="X3" t="n">
-        <v>18.5</v>
+        <v>29</v>
       </c>
       <c r="Y3" t="n">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="Z3" t="n">
         <v>500</v>
@@ -1022,19 +1022,19 @@
         <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AC3" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>46</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>540</v>
+      </c>
+      <c r="AF3" t="n">
         <v>10</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>60</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>700</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>9.6</v>
       </c>
       <c r="AG3" t="n">
         <v>10.5</v>
@@ -1043,13 +1043,13 @@
         <v>44</v>
       </c>
       <c r="AI3" t="n">
-        <v>700</v>
+        <v>290</v>
       </c>
       <c r="AJ3" t="n">
-        <v>27</v>
+        <v>14.5</v>
       </c>
       <c r="AK3" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AL3" t="n">
         <v>120</v>
@@ -1058,68 +1058,68 @@
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>8.6</v>
+        <v>7.2</v>
       </c>
       <c r="AO3" t="n">
         <v>1000</v>
       </c>
       <c r="AP3" t="n">
-        <v>15</v>
+        <v>17.5</v>
       </c>
       <c r="AQ3" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AR3" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AS3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AT3" t="n">
-        <v>7.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AU3" t="n">
-        <v>8.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AV3" t="n">
         <v>15.5</v>
       </c>
       <c r="AW3" t="n">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="AX3" t="n">
-        <v>8</v>
+        <v>8.6</v>
       </c>
       <c r="AY3" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="AZ3" t="n">
-        <v>19.5</v>
+        <v>16</v>
       </c>
       <c r="BA3" t="n">
-        <v>9.4</v>
+        <v>29</v>
       </c>
       <c r="BB3" t="n">
         <v>12.5</v>
       </c>
       <c r="BC3" t="n">
-        <v>14</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="BD3" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BE3" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="BF3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BG3" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="BH3" t="inlineStr">
         <is>
-          <t>2026-02-24 10:13:34</t>
+          <t>2026-02-24 12:21:44</t>
         </is>
       </c>
     </row>
@@ -1159,16 +1159,16 @@
         <v>8</v>
       </c>
       <c r="I4" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J4" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="K4" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="L4" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="M4" t="n">
         <v>1.03</v>
@@ -1183,19 +1183,19 @@
         <v>3.05</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="R4" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="S4" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="T4" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="U4" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="V4" t="n">
         <v>1.13</v>
@@ -1216,13 +1216,13 @@
         <v>230</v>
       </c>
       <c r="AB4" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AC4" t="n">
         <v>12.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AE4" t="n">
         <v>90</v>
@@ -1237,7 +1237,7 @@
         <v>19</v>
       </c>
       <c r="AI4" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AJ4" t="n">
         <v>13.5</v>
@@ -1252,22 +1252,22 @@
         <v>75</v>
       </c>
       <c r="AN4" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="AO4" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AP4" t="n">
         <v>28</v>
       </c>
       <c r="AQ4" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AR4" t="n">
         <v>75</v>
       </c>
       <c r="AS4" t="n">
-        <v>120</v>
+        <v>210</v>
       </c>
       <c r="AT4" t="n">
         <v>12.5</v>
@@ -1276,7 +1276,7 @@
         <v>12</v>
       </c>
       <c r="AV4" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AW4" t="n">
         <v>85</v>
@@ -1288,7 +1288,7 @@
         <v>9.6</v>
       </c>
       <c r="AZ4" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="BA4" t="n">
         <v>60</v>
@@ -1300,20 +1300,20 @@
         <v>12.5</v>
       </c>
       <c r="BD4" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BE4" t="n">
         <v>70</v>
       </c>
       <c r="BF4" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="BG4" t="n">
         <v>70</v>
       </c>
       <c r="BH4" t="inlineStr">
         <is>
-          <t>2026-02-24 10:13:34</t>
+          <t>2026-02-24 12:21:44</t>
         </is>
       </c>
     </row>
@@ -1347,7 +1347,7 @@
         <v>3.65</v>
       </c>
       <c r="G5" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="H5" t="n">
         <v>2</v>
@@ -1356,7 +1356,7 @@
         <v>2.16</v>
       </c>
       <c r="J5" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="K5" t="n">
         <v>3.9</v>
@@ -1380,16 +1380,16 @@
         <v>1.82</v>
       </c>
       <c r="R5" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="S5" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="T5" t="n">
-        <v>1.72</v>
+        <v>1.78</v>
       </c>
       <c r="U5" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="V5" t="n">
         <v>1.86</v>
@@ -1422,10 +1422,10 @@
         <v>65</v>
       </c>
       <c r="AF5" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AG5" t="n">
-        <v>29</v>
+        <v>16.5</v>
       </c>
       <c r="AH5" t="n">
         <v>25</v>
@@ -1434,7 +1434,7 @@
         <v>100</v>
       </c>
       <c r="AJ5" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AK5" t="n">
         <v>1000</v>
@@ -1458,10 +1458,10 @@
         <v>5.3</v>
       </c>
       <c r="AR5" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="AS5" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="AT5" t="n">
         <v>6.2</v>
@@ -1473,10 +1473,10 @@
         <v>5.3</v>
       </c>
       <c r="AW5" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="AX5" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AY5" t="n">
         <v>6.2</v>
@@ -1491,23 +1491,23 @@
         <v>8</v>
       </c>
       <c r="BC5" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="BD5" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="BE5" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="BF5" t="n">
         <v>7.4</v>
       </c>
       <c r="BG5" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="BH5" t="inlineStr">
         <is>
-          <t>2026-02-24 10:13:34</t>
+          <t>2026-02-24 12:21:44</t>
         </is>
       </c>
     </row>
@@ -1541,88 +1541,88 @@
         <v>3.65</v>
       </c>
       <c r="G6" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="I6" t="n">
         <v>2.1</v>
       </c>
       <c r="J6" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K6" t="n">
         <v>4</v>
       </c>
       <c r="L6" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="M6" t="n">
         <v>1.05</v>
       </c>
       <c r="N6" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="O6" t="n">
         <v>1.24</v>
       </c>
       <c r="P6" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="R6" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="S6" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="T6" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="U6" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="V6" t="n">
         <v>1.9</v>
       </c>
       <c r="W6" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="X6" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Y6" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AA6" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AB6" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AC6" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD6" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AE6" t="n">
         <v>21</v>
       </c>
       <c r="AF6" t="n">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="AG6" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AH6" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AI6" t="n">
         <v>100</v>
@@ -1640,25 +1640,25 @@
         <v>200</v>
       </c>
       <c r="AN6" t="n">
-        <v>500</v>
+        <v>38</v>
       </c>
       <c r="AO6" t="n">
         <v>12.5</v>
       </c>
       <c r="AP6" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AQ6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AR6" t="n">
         <v>12</v>
       </c>
       <c r="AS6" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="AT6" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AU6" t="n">
         <v>7.8</v>
@@ -1670,38 +1670,38 @@
         <v>17</v>
       </c>
       <c r="AX6" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AY6" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AZ6" t="n">
         <v>13.5</v>
-      </c>
-      <c r="AZ6" t="n">
-        <v>14</v>
       </c>
       <c r="BA6" t="n">
         <v>25</v>
       </c>
       <c r="BB6" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="BC6" t="n">
-        <v>16.5</v>
+        <v>25</v>
       </c>
       <c r="BD6" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="BE6" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="BF6" t="n">
-        <v>7.2</v>
+        <v>7.8</v>
       </c>
       <c r="BG6" t="n">
         <v>10</v>
       </c>
       <c r="BH6" t="inlineStr">
         <is>
-          <t>2026-02-24 10:13:34</t>
+          <t>2026-02-24 12:21:44</t>
         </is>
       </c>
     </row>
@@ -1732,22 +1732,22 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="G7" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="H7" t="n">
-        <v>10</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I7" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="J7" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="K7" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="L7" t="n">
         <v>1.28</v>
@@ -1762,7 +1762,7 @@
         <v>1.18</v>
       </c>
       <c r="P7" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="Q7" t="n">
         <v>1.57</v>
@@ -1771,22 +1771,22 @@
         <v>1.64</v>
       </c>
       <c r="S7" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="T7" t="n">
-        <v>1.96</v>
+        <v>1.87</v>
       </c>
       <c r="U7" t="n">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="V7" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="W7" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="X7" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="Y7" t="n">
         <v>1000</v>
@@ -1798,10 +1798,10 @@
         <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>11</v>
+        <v>500</v>
       </c>
       <c r="AC7" t="n">
-        <v>42</v>
+        <v>14.5</v>
       </c>
       <c r="AD7" t="n">
         <v>1000</v>
@@ -1810,22 +1810,22 @@
         <v>1000</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="AG7" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AI7" t="n">
         <v>1000</v>
       </c>
       <c r="AJ7" t="n">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="AK7" t="n">
-        <v>500</v>
+        <v>80</v>
       </c>
       <c r="AL7" t="n">
         <v>130</v>
@@ -1834,49 +1834,49 @@
         <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="AO7" t="n">
         <v>1000</v>
       </c>
       <c r="AP7" t="n">
-        <v>16.5</v>
+        <v>11</v>
       </c>
       <c r="AQ7" t="n">
+        <v>22</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AS7" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="AR7" t="n">
-        <v>9</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>5.8</v>
-      </c>
       <c r="AT7" t="n">
-        <v>5.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AU7" t="n">
-        <v>11.5</v>
+        <v>5.5</v>
       </c>
       <c r="AV7" t="n">
-        <v>8.4</v>
+        <v>7.2</v>
       </c>
       <c r="AW7" t="n">
-        <v>9.4</v>
+        <v>6.6</v>
       </c>
       <c r="AX7" t="n">
-        <v>5.6</v>
+        <v>8</v>
       </c>
       <c r="AY7" t="n">
         <v>6.4</v>
       </c>
       <c r="AZ7" t="n">
-        <v>10.5</v>
+        <v>14</v>
       </c>
       <c r="BA7" t="n">
-        <v>9.6</v>
+        <v>16.5</v>
       </c>
       <c r="BB7" t="n">
-        <v>5.3</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="BC7" t="n">
         <v>6.6</v>
@@ -1885,17 +1885,17 @@
         <v>15</v>
       </c>
       <c r="BE7" t="n">
-        <v>19.5</v>
+        <v>28</v>
       </c>
       <c r="BF7" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="BG7" t="n">
         <v>15</v>
       </c>
       <c r="BH7" t="inlineStr">
         <is>
-          <t>2026-02-24 10:13:34</t>
+          <t>2026-02-24 12:21:44</t>
         </is>
       </c>
     </row>
@@ -1926,7 +1926,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="G8" t="n">
         <v>1.34</v>
@@ -1950,28 +1950,28 @@
         <v>1.03</v>
       </c>
       <c r="N8" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="O8" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="P8" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="R8" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="S8" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="T8" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="U8" t="n">
-        <v>1.96</v>
+        <v>2.06</v>
       </c>
       <c r="V8" t="n">
         <v>1.08</v>
@@ -1983,10 +1983,10 @@
         <v>34</v>
       </c>
       <c r="Y8" t="n">
-        <v>46</v>
+        <v>220</v>
       </c>
       <c r="Z8" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AA8" t="n">
         <v>1000</v>
@@ -2010,7 +2010,7 @@
         <v>11.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AI8" t="n">
         <v>470</v>
@@ -2022,7 +2022,7 @@
         <v>14</v>
       </c>
       <c r="AL8" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AM8" t="n">
         <v>1000</v>
@@ -2037,10 +2037,10 @@
         <v>21</v>
       </c>
       <c r="AQ8" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AR8" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AS8" t="n">
         <v>13</v>
@@ -2067,10 +2067,10 @@
         <v>18.5</v>
       </c>
       <c r="BA8" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="BB8" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="BC8" t="n">
         <v>12</v>
@@ -2079,17 +2079,17 @@
         <v>21</v>
       </c>
       <c r="BE8" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="BF8" t="n">
         <v>3.55</v>
       </c>
       <c r="BG8" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="BH8" t="inlineStr">
         <is>
-          <t>2026-02-24 10:13:34</t>
+          <t>2026-02-24 12:21:44</t>
         </is>
       </c>
     </row>
@@ -2123,7 +2123,7 @@
         <v>2</v>
       </c>
       <c r="G9" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="H9" t="n">
         <v>4</v>
@@ -2132,25 +2132,25 @@
         <v>4.6</v>
       </c>
       <c r="J9" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="K9" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="L9" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="M9" t="n">
         <v>1.07</v>
       </c>
       <c r="N9" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="O9" t="n">
         <v>1.35</v>
       </c>
       <c r="P9" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="Q9" t="n">
         <v>2.02</v>
@@ -2159,10 +2159,10 @@
         <v>1.32</v>
       </c>
       <c r="S9" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="T9" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="U9" t="n">
         <v>2.02</v>
@@ -2270,7 +2270,7 @@
         <v>19</v>
       </c>
       <c r="BD9" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="BE9" t="n">
         <v>11.5</v>
@@ -2283,7 +2283,7 @@
       </c>
       <c r="BH9" t="inlineStr">
         <is>
-          <t>2026-02-24 10:13:34</t>
+          <t>2026-02-24 12:21:44</t>
         </is>
       </c>
     </row>
@@ -2314,76 +2314,76 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="G10" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="H10" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="I10" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="J10" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="K10" t="n">
         <v>5.3</v>
       </c>
       <c r="L10" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="M10" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N10" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="O10" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="P10" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="S10" t="n">
         <v>2.52</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="S10" t="n">
-        <v>2.58</v>
       </c>
       <c r="T10" t="n">
         <v>1.74</v>
       </c>
       <c r="U10" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="V10" t="n">
-        <v>2.84</v>
+        <v>2.88</v>
       </c>
       <c r="W10" t="n">
         <v>1.16</v>
       </c>
       <c r="X10" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="Y10" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AA10" t="n">
         <v>14.5</v>
       </c>
       <c r="AB10" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AC10" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AD10" t="n">
         <v>10.5</v>
@@ -2398,10 +2398,10 @@
         <v>25</v>
       </c>
       <c r="AH10" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI10" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="AJ10" t="n">
         <v>200</v>
@@ -2410,7 +2410,7 @@
         <v>85</v>
       </c>
       <c r="AL10" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AM10" t="n">
         <v>95</v>
@@ -2422,7 +2422,7 @@
         <v>6.2</v>
       </c>
       <c r="AP10" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AQ10" t="n">
         <v>10</v>
@@ -2431,13 +2431,13 @@
         <v>9.6</v>
       </c>
       <c r="AS10" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AT10" t="n">
         <v>24</v>
       </c>
       <c r="AU10" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AV10" t="n">
         <v>9</v>
@@ -2446,7 +2446,7 @@
         <v>13</v>
       </c>
       <c r="AX10" t="n">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AY10" t="n">
         <v>21</v>
@@ -2455,29 +2455,29 @@
         <v>18</v>
       </c>
       <c r="BA10" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BB10" t="n">
-        <v>13.5</v>
+        <v>15.5</v>
       </c>
       <c r="BC10" t="n">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="BD10" t="n">
         <v>28</v>
       </c>
       <c r="BE10" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="BF10" t="n">
         <v>36</v>
       </c>
       <c r="BG10" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="BH10" t="inlineStr">
         <is>
-          <t>2026-02-24 10:13:34</t>
+          <t>2026-02-24 12:21:44</t>
         </is>
       </c>
     </row>
@@ -2508,7 +2508,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="G11" t="n">
         <v>11</v>
@@ -2517,10 +2517,10 @@
         <v>1.33</v>
       </c>
       <c r="I11" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="J11" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="K11" t="n">
         <v>6.6</v>
@@ -2535,28 +2535,28 @@
         <v>6.8</v>
       </c>
       <c r="O11" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="P11" t="n">
-        <v>2.94</v>
+        <v>2.98</v>
       </c>
       <c r="Q11" t="n">
         <v>1.48</v>
       </c>
       <c r="R11" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="S11" t="n">
         <v>2.22</v>
       </c>
       <c r="T11" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="U11" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="V11" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="W11" t="n">
         <v>1.1</v>
@@ -2565,7 +2565,7 @@
         <v>34</v>
       </c>
       <c r="Y11" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Z11" t="n">
         <v>10.5</v>
@@ -2574,7 +2574,7 @@
         <v>11.5</v>
       </c>
       <c r="AB11" t="n">
-        <v>48</v>
+        <v>120</v>
       </c>
       <c r="AC11" t="n">
         <v>14.5</v>
@@ -2589,25 +2589,25 @@
         <v>110</v>
       </c>
       <c r="AG11" t="n">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="AH11" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI11" t="n">
         <v>29</v>
       </c>
       <c r="AJ11" t="n">
-        <v>380</v>
+        <v>360</v>
       </c>
       <c r="AK11" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AL11" t="n">
-        <v>290</v>
+        <v>170</v>
       </c>
       <c r="AM11" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AN11" t="n">
         <v>130</v>
@@ -2616,34 +2616,34 @@
         <v>4.1</v>
       </c>
       <c r="AP11" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AQ11" t="n">
         <v>11</v>
       </c>
       <c r="AR11" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AS11" t="n">
         <v>10.5</v>
       </c>
       <c r="AT11" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AU11" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AV11" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AW11" t="n">
         <v>12</v>
       </c>
       <c r="AX11" t="n">
-        <v>18</v>
+        <v>19.5</v>
       </c>
       <c r="AY11" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AZ11" t="n">
         <v>22</v>
@@ -2652,26 +2652,26 @@
         <v>25</v>
       </c>
       <c r="BB11" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="BC11" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="BD11" t="n">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="BE11" t="n">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="BF11" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="BG11" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="BH11" t="inlineStr">
         <is>
-          <t>2026-02-24 10:13:34</t>
+          <t>2026-02-24 12:21:44</t>
         </is>
       </c>
     </row>
@@ -2702,16 +2702,16 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.16</v>
+        <v>2.22</v>
       </c>
       <c r="G12" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="H12" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="I12" t="n">
         <v>3.45</v>
-      </c>
-      <c r="I12" t="n">
-        <v>3.55</v>
       </c>
       <c r="J12" t="n">
         <v>3.8</v>
@@ -2729,58 +2729,58 @@
         <v>4.8</v>
       </c>
       <c r="O12" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="P12" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="Q12" t="n">
         <v>1.75</v>
       </c>
       <c r="R12" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="S12" t="n">
         <v>2.88</v>
       </c>
       <c r="T12" t="n">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
       <c r="U12" t="n">
         <v>2.42</v>
       </c>
       <c r="V12" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="W12" t="n">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="X12" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="Y12" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Z12" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AA12" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AB12" t="n">
         <v>12.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD12" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AE12" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AF12" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AG12" t="n">
         <v>11</v>
@@ -2792,7 +2792,7 @@
         <v>75</v>
       </c>
       <c r="AJ12" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AK12" t="n">
         <v>21</v>
@@ -2801,25 +2801,25 @@
         <v>30</v>
       </c>
       <c r="AM12" t="n">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="AN12" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AO12" t="n">
         <v>27</v>
       </c>
       <c r="AP12" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AQ12" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AR12" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AS12" t="n">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AT12" t="n">
         <v>11</v>
@@ -2834,7 +2834,7 @@
         <v>30</v>
       </c>
       <c r="AX12" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AY12" t="n">
         <v>10</v>
@@ -2843,29 +2843,29 @@
         <v>14.5</v>
       </c>
       <c r="BA12" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="BB12" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BC12" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="BD12" t="n">
         <v>27</v>
       </c>
       <c r="BE12" t="n">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="BF12" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="BG12" t="n">
         <v>24</v>
       </c>
       <c r="BH12" t="inlineStr">
         <is>
-          <t>2026-02-24 10:13:34</t>
+          <t>2026-02-24 12:21:44</t>
         </is>
       </c>
     </row>
@@ -2896,22 +2896,22 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="G13" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="H13" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="I13" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="J13" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="K13" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="L13" t="n">
         <v>1.23</v>
@@ -2929,37 +2929,37 @@
         <v>3.2</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="R13" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="S13" t="n">
         <v>2.06</v>
       </c>
       <c r="T13" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="U13" t="n">
-        <v>2.44</v>
+        <v>2.4</v>
       </c>
       <c r="V13" t="n">
         <v>1.14</v>
       </c>
       <c r="W13" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="X13" t="n">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="Y13" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Z13" t="n">
         <v>80</v>
       </c>
       <c r="AA13" t="n">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="AB13" t="n">
         <v>14.5</v>
@@ -2971,7 +2971,7 @@
         <v>28</v>
       </c>
       <c r="AE13" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AF13" t="n">
         <v>12</v>
@@ -2983,7 +2983,7 @@
         <v>20</v>
       </c>
       <c r="AI13" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AJ13" t="n">
         <v>14</v>
@@ -2995,37 +2995,37 @@
         <v>24</v>
       </c>
       <c r="AM13" t="n">
-        <v>120</v>
+        <v>75</v>
       </c>
       <c r="AN13" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="AO13" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AP13" t="n">
         <v>30</v>
       </c>
       <c r="AQ13" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AR13" t="n">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="AS13" t="n">
-        <v>19</v>
+        <v>16.5</v>
       </c>
       <c r="AT13" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AU13" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AV13" t="n">
         <v>24</v>
       </c>
       <c r="AW13" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="AX13" t="n">
         <v>10.5</v>
@@ -3034,13 +3034,13 @@
         <v>9.6</v>
       </c>
       <c r="AZ13" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="BA13" t="n">
         <v>40</v>
       </c>
       <c r="BB13" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="BC13" t="n">
         <v>12</v>
@@ -3049,17 +3049,17 @@
         <v>21</v>
       </c>
       <c r="BE13" t="n">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="BF13" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="BG13" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="BH13" t="inlineStr">
         <is>
-          <t>2026-02-24 10:13:34</t>
+          <t>2026-02-24 12:21:44</t>
         </is>
       </c>
     </row>
@@ -3090,16 +3090,16 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="G14" t="n">
-        <v>3.8</v>
+        <v>3.65</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="I14" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="J14" t="n">
         <v>4</v>
@@ -3108,28 +3108,28 @@
         <v>4.3</v>
       </c>
       <c r="L14" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M14" t="n">
         <v>1.04</v>
       </c>
       <c r="N14" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="O14" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="P14" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="Q14" t="n">
         <v>1.6</v>
       </c>
       <c r="R14" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="S14" t="n">
-        <v>2.56</v>
+        <v>2.5</v>
       </c>
       <c r="T14" t="n">
         <v>1.58</v>
@@ -3138,28 +3138,28 @@
         <v>2.58</v>
       </c>
       <c r="V14" t="n">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="W14" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="X14" t="n">
+        <v>55</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>16</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>44</v>
+      </c>
+      <c r="AB14" t="n">
         <v>32</v>
       </c>
-      <c r="Y14" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>27</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>75</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>44</v>
-      </c>
       <c r="AC14" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AD14" t="n">
         <v>11</v>
@@ -3168,34 +3168,34 @@
         <v>27</v>
       </c>
       <c r="AF14" t="n">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="AG14" t="n">
-        <v>24</v>
+        <v>15.5</v>
       </c>
       <c r="AH14" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="AI14" t="n">
         <v>60</v>
       </c>
       <c r="AJ14" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="AK14" t="n">
+        <v>90</v>
+      </c>
+      <c r="AL14" t="n">
         <v>120</v>
       </c>
-      <c r="AL14" t="n">
+      <c r="AM14" t="n">
         <v>60</v>
       </c>
-      <c r="AM14" t="n">
-        <v>250</v>
-      </c>
       <c r="AN14" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="AO14" t="n">
-        <v>8.6</v>
+        <v>9.6</v>
       </c>
       <c r="AP14" t="n">
         <v>21</v>
@@ -3204,13 +3204,13 @@
         <v>12</v>
       </c>
       <c r="AR14" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AS14" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AT14" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AU14" t="n">
         <v>8.800000000000001</v>
@@ -3219,10 +3219,10 @@
         <v>9.6</v>
       </c>
       <c r="AW14" t="n">
-        <v>14</v>
+        <v>16.5</v>
       </c>
       <c r="AX14" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AY14" t="n">
         <v>13.5</v>
@@ -3231,29 +3231,29 @@
         <v>13.5</v>
       </c>
       <c r="BA14" t="n">
-        <v>15.5</v>
+        <v>20</v>
       </c>
       <c r="BB14" t="n">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="BC14" t="n">
+        <v>24</v>
+      </c>
+      <c r="BD14" t="n">
+        <v>18</v>
+      </c>
+      <c r="BE14" t="n">
         <v>30</v>
       </c>
-      <c r="BD14" t="n">
-        <v>24</v>
-      </c>
-      <c r="BE14" t="n">
-        <v>32</v>
-      </c>
       <c r="BF14" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BG14" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="BH14" t="inlineStr">
         <is>
-          <t>2026-02-24 10:13:34</t>
+          <t>2026-02-24 12:21:44</t>
         </is>
       </c>
     </row>
@@ -3293,7 +3293,7 @@
         <v>2.24</v>
       </c>
       <c r="I15" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="J15" t="n">
         <v>2.9</v>
@@ -3302,52 +3302,52 @@
         <v>3.05</v>
       </c>
       <c r="L15" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="M15" t="n">
         <v>1.16</v>
       </c>
       <c r="N15" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="O15" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="P15" t="n">
         <v>1.46</v>
       </c>
       <c r="Q15" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="R15" t="n">
         <v>1.17</v>
       </c>
       <c r="S15" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="T15" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="U15" t="n">
         <v>1.7</v>
       </c>
       <c r="V15" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="W15" t="n">
         <v>1.28</v>
       </c>
       <c r="X15" t="n">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="Y15" t="n">
         <v>6.8</v>
       </c>
       <c r="Z15" t="n">
-        <v>12.5</v>
+        <v>18</v>
       </c>
       <c r="AA15" t="n">
-        <v>85</v>
+        <v>500</v>
       </c>
       <c r="AB15" t="n">
         <v>10.5</v>
@@ -3401,10 +3401,10 @@
         <v>10.5</v>
       </c>
       <c r="AS15" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="AT15" t="n">
-        <v>8.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AU15" t="n">
         <v>6.4</v>
@@ -3413,41 +3413,41 @@
         <v>10.5</v>
       </c>
       <c r="AW15" t="n">
-        <v>10</v>
+        <v>15.5</v>
       </c>
       <c r="AX15" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY15" t="n">
         <v>13</v>
       </c>
-      <c r="AY15" t="n">
-        <v>9.4</v>
-      </c>
       <c r="AZ15" t="n">
-        <v>13.5</v>
+        <v>23</v>
       </c>
       <c r="BA15" t="n">
         <v>10</v>
       </c>
       <c r="BB15" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="BC15" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="BD15" t="n">
         <v>10.5</v>
       </c>
       <c r="BE15" t="n">
-        <v>11.5</v>
+        <v>28</v>
       </c>
       <c r="BF15" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="BG15" t="n">
         <v>30</v>
       </c>
       <c r="BH15" t="inlineStr">
         <is>
-          <t>2026-02-24 10:13:34</t>
+          <t>2026-02-24 12:21:44</t>
         </is>
       </c>
     </row>
@@ -3478,22 +3478,22 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="G16" t="n">
         <v>11</v>
       </c>
       <c r="H16" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="I16" t="n">
-        <v>1.51</v>
+        <v>1.49</v>
       </c>
       <c r="J16" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="K16" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="L16" t="n">
         <v>1.5</v>
@@ -3505,13 +3505,13 @@
         <v>3.15</v>
       </c>
       <c r="O16" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="P16" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="R16" t="n">
         <v>1.25</v>
@@ -3520,13 +3520,13 @@
         <v>4.5</v>
       </c>
       <c r="T16" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="U16" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="V16" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="W16" t="n">
         <v>1.1</v>
@@ -3544,7 +3544,7 @@
         <v>12.5</v>
       </c>
       <c r="AB16" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AC16" t="n">
         <v>10.5</v>
@@ -3559,7 +3559,7 @@
         <v>510</v>
       </c>
       <c r="AG16" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AH16" t="n">
         <v>95</v>
@@ -3583,7 +3583,7 @@
         <v>1000</v>
       </c>
       <c r="AO16" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AP16" t="n">
         <v>10</v>
@@ -3598,7 +3598,7 @@
         <v>10.5</v>
       </c>
       <c r="AT16" t="n">
-        <v>11.5</v>
+        <v>18.5</v>
       </c>
       <c r="AU16" t="n">
         <v>9</v>
@@ -3610,38 +3610,38 @@
         <v>17</v>
       </c>
       <c r="AX16" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AY16" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AZ16" t="n">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="BA16" t="n">
+        <v>29</v>
+      </c>
+      <c r="BB16" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="BC16" t="n">
+        <v>55</v>
+      </c>
+      <c r="BD16" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="BE16" t="n">
         <v>28</v>
       </c>
-      <c r="BB16" t="n">
-        <v>14</v>
-      </c>
-      <c r="BC16" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="BD16" t="n">
-        <v>13</v>
-      </c>
-      <c r="BE16" t="n">
-        <v>18</v>
-      </c>
       <c r="BF16" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="BG16" t="n">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="BH16" t="inlineStr">
         <is>
-          <t>2026-02-24 10:13:34</t>
+          <t>2026-02-24 12:21:44</t>
         </is>
       </c>
     </row>
@@ -3672,13 +3672,13 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="G17" t="n">
         <v>1.52</v>
       </c>
       <c r="H17" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I17" t="n">
         <v>9.6</v>
@@ -3687,7 +3687,7 @@
         <v>4.2</v>
       </c>
       <c r="K17" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L17" t="n">
         <v>1.5</v>
@@ -3732,16 +3732,16 @@
         <v>23</v>
       </c>
       <c r="Z17" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AA17" t="n">
         <v>430</v>
       </c>
       <c r="AB17" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="AC17" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AD17" t="n">
         <v>38</v>
@@ -3771,7 +3771,7 @@
         <v>100</v>
       </c>
       <c r="AM17" t="n">
-        <v>580</v>
+        <v>300</v>
       </c>
       <c r="AN17" t="n">
         <v>11.5</v>
@@ -3780,16 +3780,16 @@
         <v>390</v>
       </c>
       <c r="AP17" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AQ17" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AR17" t="n">
         <v>40</v>
       </c>
       <c r="AS17" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AT17" t="n">
         <v>5.6</v>
@@ -3798,10 +3798,10 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AV17" t="n">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="AW17" t="n">
-        <v>21</v>
+        <v>17.5</v>
       </c>
       <c r="AX17" t="n">
         <v>6.6</v>
@@ -3813,7 +3813,7 @@
         <v>30</v>
       </c>
       <c r="BA17" t="n">
-        <v>21</v>
+        <v>17.5</v>
       </c>
       <c r="BB17" t="n">
         <v>12</v>
@@ -3825,17 +3825,17 @@
         <v>50</v>
       </c>
       <c r="BE17" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="BF17" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="BG17" t="n">
-        <v>22</v>
+        <v>17.5</v>
       </c>
       <c r="BH17" t="inlineStr">
         <is>
-          <t>2026-02-24 10:13:34</t>
+          <t>2026-02-24 12:21:44</t>
         </is>
       </c>
     </row>
@@ -3866,103 +3866,103 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="G18" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="H18" t="n">
-        <v>2.4</v>
+        <v>2.24</v>
       </c>
       <c r="I18" t="n">
-        <v>2.48</v>
+        <v>2.32</v>
       </c>
       <c r="J18" t="n">
-        <v>2.92</v>
+        <v>2.98</v>
       </c>
       <c r="K18" t="n">
         <v>3.05</v>
       </c>
       <c r="L18" t="n">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="M18" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="N18" t="n">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="O18" t="n">
-        <v>1.66</v>
+        <v>1.63</v>
       </c>
       <c r="P18" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="Q18" t="n">
-        <v>3.1</v>
+        <v>2.98</v>
       </c>
       <c r="R18" t="n">
         <v>1.16</v>
       </c>
       <c r="S18" t="n">
-        <v>7</v>
+        <v>6.4</v>
       </c>
       <c r="T18" t="n">
-        <v>2.3</v>
+        <v>2.24</v>
       </c>
       <c r="U18" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="V18" t="n">
-        <v>1.66</v>
+        <v>1.75</v>
       </c>
       <c r="W18" t="n">
-        <v>1.33</v>
+        <v>1.28</v>
       </c>
       <c r="X18" t="n">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="Y18" t="n">
         <v>6.8</v>
       </c>
       <c r="Z18" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AA18" t="n">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="AB18" t="n">
-        <v>9.6</v>
+        <v>10.5</v>
       </c>
       <c r="AC18" t="n">
         <v>7.2</v>
       </c>
       <c r="AD18" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AE18" t="n">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="AF18" t="n">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="AG18" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AH18" t="n">
-        <v>95</v>
+        <v>46</v>
       </c>
       <c r="AI18" t="n">
-        <v>190</v>
+        <v>230</v>
       </c>
       <c r="AJ18" t="n">
         <v>900</v>
       </c>
       <c r="AK18" t="n">
-        <v>190</v>
+        <v>500</v>
       </c>
       <c r="AL18" t="n">
-        <v>430</v>
+        <v>500</v>
       </c>
       <c r="AM18" t="n">
         <v>500</v>
@@ -3971,65 +3971,65 @@
         <v>1000</v>
       </c>
       <c r="AO18" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="AP18" t="n">
-        <v>6.4</v>
+        <v>4.7</v>
       </c>
       <c r="AQ18" t="n">
         <v>6</v>
       </c>
       <c r="AR18" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AS18" t="n">
-        <v>16.5</v>
+        <v>19</v>
       </c>
       <c r="AT18" t="n">
-        <v>8.6</v>
+        <v>9.4</v>
       </c>
       <c r="AU18" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="AV18" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AW18" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AX18" t="n">
         <v>16.5</v>
       </c>
       <c r="AY18" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AZ18" t="n">
-        <v>17.5</v>
+        <v>22</v>
       </c>
       <c r="BA18" t="n">
-        <v>34</v>
+        <v>10.5</v>
       </c>
       <c r="BB18" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BC18" t="n">
-        <v>36</v>
+        <v>10.5</v>
       </c>
       <c r="BD18" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BE18" t="n">
-        <v>14.5</v>
+        <v>11.5</v>
       </c>
       <c r="BF18" t="n">
-        <v>13.5</v>
+        <v>11</v>
       </c>
       <c r="BG18" t="n">
-        <v>13.5</v>
+        <v>10</v>
       </c>
       <c r="BH18" t="inlineStr">
         <is>
-          <t>2026-02-24 10:13:34</t>
+          <t>2026-02-24 12:21:44</t>
         </is>
       </c>
     </row>
@@ -4060,22 +4060,22 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="G19" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="H19" t="n">
         <v>2.62</v>
       </c>
       <c r="I19" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="J19" t="n">
         <v>3.2</v>
       </c>
       <c r="K19" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="L19" t="n">
         <v>1.47</v>
@@ -4093,37 +4093,37 @@
         <v>1.8</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="R19" t="n">
         <v>1.29</v>
       </c>
       <c r="S19" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="T19" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="U19" t="n">
         <v>2.04</v>
       </c>
       <c r="V19" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="W19" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="X19" t="n">
-        <v>12.5</v>
+        <v>19.5</v>
       </c>
       <c r="Y19" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="Z19" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AA19" t="n">
-        <v>130</v>
+        <v>95</v>
       </c>
       <c r="AB19" t="n">
         <v>11.5</v>
@@ -4132,13 +4132,13 @@
         <v>7.6</v>
       </c>
       <c r="AD19" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="AE19" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AF19" t="n">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="AG19" t="n">
         <v>20</v>
@@ -4150,13 +4150,13 @@
         <v>290</v>
       </c>
       <c r="AJ19" t="n">
-        <v>500</v>
+        <v>220</v>
       </c>
       <c r="AK19" t="n">
         <v>120</v>
       </c>
       <c r="AL19" t="n">
-        <v>380</v>
+        <v>130</v>
       </c>
       <c r="AM19" t="n">
         <v>580</v>
@@ -4165,22 +4165,22 @@
         <v>600</v>
       </c>
       <c r="AO19" t="n">
-        <v>500</v>
+        <v>60</v>
       </c>
       <c r="AP19" t="n">
         <v>10.5</v>
       </c>
       <c r="AQ19" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AR19" t="n">
-        <v>7.6</v>
+        <v>14.5</v>
       </c>
       <c r="AS19" t="n">
         <v>32</v>
       </c>
       <c r="AT19" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AU19" t="n">
         <v>6.6</v>
@@ -4189,41 +4189,41 @@
         <v>10</v>
       </c>
       <c r="AW19" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AX19" t="n">
-        <v>10.5</v>
+        <v>17</v>
       </c>
       <c r="AY19" t="n">
-        <v>9.199999999999999</v>
+        <v>12</v>
       </c>
       <c r="AZ19" t="n">
         <v>15</v>
       </c>
       <c r="BA19" t="n">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="BB19" t="n">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="BC19" t="n">
         <v>20</v>
       </c>
       <c r="BD19" t="n">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="BE19" t="n">
-        <v>11.5</v>
+        <v>26</v>
       </c>
       <c r="BF19" t="n">
+        <v>30</v>
+      </c>
+      <c r="BG19" t="n">
         <v>9.199999999999999</v>
       </c>
-      <c r="BG19" t="n">
-        <v>9</v>
-      </c>
       <c r="BH19" t="inlineStr">
         <is>
-          <t>2026-02-24 10:13:34</t>
+          <t>2026-02-24 12:21:44</t>
         </is>
       </c>
     </row>
@@ -4254,10 +4254,10 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="G20" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="H20" t="n">
         <v>3.55</v>
@@ -4266,7 +4266,7 @@
         <v>3.65</v>
       </c>
       <c r="J20" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K20" t="n">
         <v>3.75</v>
@@ -4278,37 +4278,37 @@
         <v>1.06</v>
       </c>
       <c r="N20" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="O20" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="P20" t="n">
         <v>2.16</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="R20" t="n">
         <v>1.44</v>
       </c>
       <c r="S20" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="T20" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="U20" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="V20" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="W20" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="X20" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="Y20" t="n">
         <v>15.5</v>
@@ -4317,7 +4317,7 @@
         <v>26</v>
       </c>
       <c r="AA20" t="n">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="AB20" t="n">
         <v>11.5</v>
@@ -4326,7 +4326,7 @@
         <v>8</v>
       </c>
       <c r="AD20" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AE20" t="n">
         <v>38</v>
@@ -4344,7 +4344,7 @@
         <v>46</v>
       </c>
       <c r="AJ20" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AK20" t="n">
         <v>22</v>
@@ -4353,19 +4353,19 @@
         <v>34</v>
       </c>
       <c r="AM20" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="AN20" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AO20" t="n">
         <v>36</v>
       </c>
       <c r="AP20" t="n">
+        <v>15</v>
+      </c>
+      <c r="AQ20" t="n">
         <v>14.5</v>
-      </c>
-      <c r="AQ20" t="n">
-        <v>14</v>
       </c>
       <c r="AR20" t="n">
         <v>23</v>
@@ -4377,13 +4377,13 @@
         <v>10</v>
       </c>
       <c r="AU20" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AV20" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AW20" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AX20" t="n">
         <v>13</v>
@@ -4395,13 +4395,13 @@
         <v>14.5</v>
       </c>
       <c r="BA20" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="BB20" t="n">
         <v>23</v>
       </c>
       <c r="BC20" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="BD20" t="n">
         <v>29</v>
@@ -4417,7 +4417,7 @@
       </c>
       <c r="BH20" t="inlineStr">
         <is>
-          <t>2026-02-24 10:13:34</t>
+          <t>2026-02-24 12:21:44</t>
         </is>
       </c>
     </row>
@@ -4451,13 +4451,13 @@
         <v>3.2</v>
       </c>
       <c r="G21" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="H21" t="n">
         <v>2.16</v>
       </c>
       <c r="I21" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="J21" t="n">
         <v>3.65</v>
@@ -4475,7 +4475,7 @@
         <v>4.6</v>
       </c>
       <c r="O21" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="P21" t="n">
         <v>2.22</v>
@@ -4484,10 +4484,10 @@
         <v>1.72</v>
       </c>
       <c r="R21" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="S21" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="T21" t="n">
         <v>1.67</v>
@@ -4499,7 +4499,7 @@
         <v>1.75</v>
       </c>
       <c r="W21" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="X21" t="n">
         <v>20</v>
@@ -4550,7 +4550,7 @@
         <v>75</v>
       </c>
       <c r="AN21" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AO21" t="n">
         <v>14</v>
@@ -4559,13 +4559,13 @@
         <v>16.5</v>
       </c>
       <c r="AQ21" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AR21" t="n">
         <v>13</v>
       </c>
       <c r="AS21" t="n">
-        <v>23</v>
+        <v>17.5</v>
       </c>
       <c r="AT21" t="n">
         <v>13.5</v>
@@ -4592,7 +4592,7 @@
         <v>14.5</v>
       </c>
       <c r="BB21" t="n">
-        <v>9.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="BC21" t="n">
         <v>17</v>
@@ -4604,14 +4604,14 @@
         <v>34</v>
       </c>
       <c r="BF21" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="BG21" t="n">
         <v>11.5</v>
       </c>
       <c r="BH21" t="inlineStr">
         <is>
-          <t>2026-02-24 10:13:34</t>
+          <t>2026-02-24 12:21:44</t>
         </is>
       </c>
     </row>
@@ -4642,22 +4642,22 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="G22" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="H22" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="I22" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="J22" t="n">
         <v>3.75</v>
       </c>
       <c r="K22" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="L22" t="n">
         <v>1.33</v>
@@ -4666,7 +4666,7 @@
         <v>1.05</v>
       </c>
       <c r="N22" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="O22" t="n">
         <v>1.23</v>
@@ -4684,16 +4684,16 @@
         <v>2.78</v>
       </c>
       <c r="T22" t="n">
-        <v>1.66</v>
+        <v>1.64</v>
       </c>
       <c r="U22" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="V22" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="W22" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="X22" t="n">
         <v>21</v>
@@ -4702,19 +4702,19 @@
         <v>20</v>
       </c>
       <c r="Z22" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AA22" t="n">
-        <v>500</v>
+        <v>160</v>
       </c>
       <c r="AB22" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AC22" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AD22" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AE22" t="n">
         <v>55</v>
@@ -4735,7 +4735,7 @@
         <v>22</v>
       </c>
       <c r="AK22" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AL22" t="n">
         <v>32</v>
@@ -4747,28 +4747,28 @@
         <v>10.5</v>
       </c>
       <c r="AO22" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AP22" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AQ22" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AR22" t="n">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="AS22" t="n">
-        <v>9.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="AT22" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AU22" t="n">
         <v>8</v>
       </c>
       <c r="AV22" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AW22" t="n">
         <v>23</v>
@@ -4786,7 +4786,7 @@
         <v>23</v>
       </c>
       <c r="BB22" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="BC22" t="n">
         <v>15</v>
@@ -4795,17 +4795,17 @@
         <v>15</v>
       </c>
       <c r="BE22" t="n">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="BF22" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="BG22" t="n">
-        <v>38</v>
+        <v>9.6</v>
       </c>
       <c r="BH22" t="inlineStr">
         <is>
-          <t>2026-02-24 10:13:34</t>
+          <t>2026-02-24 12:21:44</t>
         </is>
       </c>
     </row>
@@ -4836,19 +4836,19 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="G23" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="H23" t="n">
         <v>2.06</v>
       </c>
       <c r="I23" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="J23" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="K23" t="n">
         <v>4.2</v>
@@ -4860,37 +4860,37 @@
         <v>1.05</v>
       </c>
       <c r="N23" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="O23" t="n">
         <v>1.24</v>
       </c>
       <c r="P23" t="n">
-        <v>2.18</v>
+        <v>2.32</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="R23" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="S23" t="n">
-        <v>2.84</v>
+        <v>2.82</v>
       </c>
       <c r="T23" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="U23" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="V23" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="W23" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="X23" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Y23" t="n">
         <v>12.5</v>
@@ -4899,7 +4899,7 @@
         <v>16</v>
       </c>
       <c r="AA23" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AB23" t="n">
         <v>17</v>
@@ -4911,10 +4911,10 @@
         <v>11.5</v>
       </c>
       <c r="AE23" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AF23" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AG23" t="n">
         <v>15.5</v>
@@ -4926,7 +4926,7 @@
         <v>34</v>
       </c>
       <c r="AJ23" t="n">
-        <v>65</v>
+        <v>120</v>
       </c>
       <c r="AK23" t="n">
         <v>40</v>
@@ -4935,28 +4935,28 @@
         <v>44</v>
       </c>
       <c r="AM23" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AN23" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AO23" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AP23" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AQ23" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AR23" t="n">
         <v>12.5</v>
       </c>
       <c r="AS23" t="n">
-        <v>13.5</v>
+        <v>16.5</v>
       </c>
       <c r="AT23" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AU23" t="n">
         <v>7.6</v>
@@ -4968,10 +4968,10 @@
         <v>18</v>
       </c>
       <c r="AX23" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AY23" t="n">
         <v>12.5</v>
-      </c>
-      <c r="AY23" t="n">
-        <v>12</v>
       </c>
       <c r="AZ23" t="n">
         <v>13.5</v>
@@ -4980,26 +4980,26 @@
         <v>16.5</v>
       </c>
       <c r="BB23" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="BC23" t="n">
         <v>17</v>
       </c>
       <c r="BD23" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BE23" t="n">
         <v>36</v>
       </c>
       <c r="BF23" t="n">
-        <v>15</v>
+        <v>8.6</v>
       </c>
       <c r="BG23" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="BH23" t="inlineStr">
         <is>
-          <t>2026-02-24 10:13:34</t>
+          <t>2026-02-24 12:21:44</t>
         </is>
       </c>
     </row>
@@ -5030,22 +5030,22 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="G24" t="n">
         <v>8</v>
       </c>
       <c r="H24" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="I24" t="n">
         <v>1.54</v>
       </c>
       <c r="J24" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="K24" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="L24" t="n">
         <v>1.37</v>
@@ -5072,7 +5072,7 @@
         <v>3.15</v>
       </c>
       <c r="T24" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="U24" t="n">
         <v>1.92</v>
@@ -5090,10 +5090,10 @@
         <v>8.6</v>
       </c>
       <c r="Z24" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AA24" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AB24" t="n">
         <v>44</v>
@@ -5135,7 +5135,7 @@
         <v>1000</v>
       </c>
       <c r="AO24" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AP24" t="n">
         <v>15</v>
@@ -5144,22 +5144,22 @@
         <v>7.4</v>
       </c>
       <c r="AR24" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AS24" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AT24" t="n">
         <v>14</v>
       </c>
       <c r="AU24" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AV24" t="n">
         <v>8.6</v>
       </c>
       <c r="AW24" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AX24" t="n">
         <v>32</v>
@@ -5174,26 +5174,26 @@
         <v>30</v>
       </c>
       <c r="BB24" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BC24" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BD24" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="BE24" t="n">
         <v>17.5</v>
       </c>
       <c r="BF24" t="n">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="BG24" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="BH24" t="inlineStr">
         <is>
-          <t>2026-02-24 10:13:34</t>
+          <t>2026-02-24 12:21:44</t>
         </is>
       </c>
     </row>
@@ -5224,16 +5224,16 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="G25" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="H25" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="I25" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="J25" t="n">
         <v>3.85</v>
@@ -5248,43 +5248,43 @@
         <v>1.05</v>
       </c>
       <c r="N25" t="n">
-        <v>4.8</v>
+        <v>5.1</v>
       </c>
       <c r="O25" t="n">
         <v>1.23</v>
       </c>
       <c r="P25" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="R25" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="S25" t="n">
-        <v>2.78</v>
+        <v>2.7</v>
       </c>
       <c r="T25" t="n">
         <v>1.69</v>
       </c>
       <c r="U25" t="n">
-        <v>2.38</v>
+        <v>2.34</v>
       </c>
       <c r="V25" t="n">
         <v>1.37</v>
       </c>
       <c r="W25" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="X25" t="n">
-        <v>44</v>
+        <v>90</v>
       </c>
       <c r="Y25" t="n">
         <v>30</v>
       </c>
       <c r="Z25" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AA25" t="n">
         <v>900</v>
@@ -5299,13 +5299,13 @@
         <v>24</v>
       </c>
       <c r="AE25" t="n">
-        <v>90</v>
+        <v>500</v>
       </c>
       <c r="AF25" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="AG25" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AH25" t="n">
         <v>25</v>
@@ -5314,10 +5314,10 @@
         <v>160</v>
       </c>
       <c r="AJ25" t="n">
-        <v>900</v>
+        <v>110</v>
       </c>
       <c r="AK25" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AL25" t="n">
         <v>65</v>
@@ -5335,34 +5335,34 @@
         <v>10.5</v>
       </c>
       <c r="AQ25" t="n">
-        <v>9.6</v>
+        <v>15</v>
       </c>
       <c r="AR25" t="n">
         <v>13</v>
       </c>
       <c r="AS25" t="n">
+        <v>42</v>
+      </c>
+      <c r="AT25" t="n">
         <v>11.5</v>
-      </c>
-      <c r="AT25" t="n">
-        <v>8</v>
       </c>
       <c r="AU25" t="n">
         <v>8.4</v>
       </c>
       <c r="AV25" t="n">
-        <v>9.199999999999999</v>
+        <v>10.5</v>
       </c>
       <c r="AW25" t="n">
-        <v>16.5</v>
+        <v>22</v>
       </c>
       <c r="AX25" t="n">
-        <v>9.4</v>
+        <v>14</v>
       </c>
       <c r="AY25" t="n">
         <v>10</v>
       </c>
       <c r="AZ25" t="n">
-        <v>9.4</v>
+        <v>13.5</v>
       </c>
       <c r="BA25" t="n">
         <v>17.5</v>
@@ -5371,23 +5371,23 @@
         <v>13</v>
       </c>
       <c r="BC25" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="BD25" t="n">
         <v>16.5</v>
       </c>
       <c r="BE25" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="BF25" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="BG25" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="BH25" t="inlineStr">
         <is>
-          <t>2026-02-24 10:13:34</t>
+          <t>2026-02-24 12:21:44</t>
         </is>
       </c>
     </row>
@@ -5421,19 +5421,19 @@
         <v>5.2</v>
       </c>
       <c r="G26" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="H26" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="I26" t="n">
-        <v>1.77</v>
+        <v>1.83</v>
       </c>
       <c r="J26" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K26" t="n">
-        <v>4.1</v>
+        <v>3.85</v>
       </c>
       <c r="L26" t="n">
         <v>1.42</v>
@@ -5445,28 +5445,28 @@
         <v>3.75</v>
       </c>
       <c r="O26" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="P26" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="Q26" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="R26" t="n">
         <v>1.35</v>
       </c>
       <c r="S26" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="T26" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="U26" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="V26" t="n">
-        <v>2.26</v>
+        <v>2.2</v>
       </c>
       <c r="W26" t="n">
         <v>1.21</v>
@@ -5478,7 +5478,7 @@
         <v>15</v>
       </c>
       <c r="Z26" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AA26" t="n">
         <v>50</v>
@@ -5493,7 +5493,7 @@
         <v>10</v>
       </c>
       <c r="AE26" t="n">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="AF26" t="n">
         <v>120</v>
@@ -5526,25 +5526,25 @@
         <v>29</v>
       </c>
       <c r="AP26" t="n">
-        <v>6.8</v>
+        <v>12.5</v>
       </c>
       <c r="AQ26" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AR26" t="n">
-        <v>6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AS26" t="n">
         <v>9</v>
       </c>
       <c r="AT26" t="n">
+        <v>15</v>
+      </c>
+      <c r="AU26" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AV26" t="n">
         <v>9</v>
-      </c>
-      <c r="AU26" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AV26" t="n">
-        <v>5.5</v>
       </c>
       <c r="AW26" t="n">
         <v>8.800000000000001</v>
@@ -5553,35 +5553,35 @@
         <v>16</v>
       </c>
       <c r="AY26" t="n">
-        <v>10.5</v>
+        <v>13.5</v>
       </c>
       <c r="AZ26" t="n">
         <v>9.6</v>
       </c>
       <c r="BA26" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="BB26" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="BC26" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD26" t="n">
         <v>9.4</v>
       </c>
-      <c r="BB26" t="n">
-        <v>5</v>
-      </c>
-      <c r="BC26" t="n">
-        <v>30</v>
-      </c>
-      <c r="BD26" t="n">
-        <v>11.5</v>
-      </c>
       <c r="BE26" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BF26" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="BG26" t="n">
         <v>11</v>
       </c>
-      <c r="BG26" t="n">
-        <v>6.2</v>
-      </c>
       <c r="BH26" t="inlineStr">
         <is>
-          <t>2026-02-24 10:13:34</t>
+          <t>2026-02-24 12:21:44</t>
         </is>
       </c>
     </row>
@@ -5615,22 +5615,22 @@
         <v>2.42</v>
       </c>
       <c r="G27" t="n">
-        <v>2.58</v>
+        <v>2.5</v>
       </c>
       <c r="H27" t="n">
-        <v>2.96</v>
+        <v>3.1</v>
       </c>
       <c r="I27" t="n">
         <v>3.2</v>
       </c>
       <c r="J27" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="K27" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="L27" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="M27" t="n">
         <v>1.06</v>
@@ -5642,7 +5642,7 @@
         <v>1.27</v>
       </c>
       <c r="P27" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="Q27" t="n">
         <v>1.81</v>
@@ -5654,16 +5654,16 @@
         <v>3.05</v>
       </c>
       <c r="T27" t="n">
-        <v>1.66</v>
+        <v>1.69</v>
       </c>
       <c r="U27" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="V27" t="n">
         <v>1.45</v>
       </c>
       <c r="W27" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="X27" t="n">
         <v>17</v>
@@ -5690,7 +5690,7 @@
         <v>34</v>
       </c>
       <c r="AF27" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AG27" t="n">
         <v>12.5</v>
@@ -5702,7 +5702,7 @@
         <v>42</v>
       </c>
       <c r="AJ27" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AK27" t="n">
         <v>26</v>
@@ -5723,7 +5723,7 @@
         <v>14.5</v>
       </c>
       <c r="AQ27" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AR27" t="n">
         <v>19</v>
@@ -5732,10 +5732,10 @@
         <v>23</v>
       </c>
       <c r="AT27" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AU27" t="n">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="AV27" t="n">
         <v>11.5</v>
@@ -5747,10 +5747,10 @@
         <v>15</v>
       </c>
       <c r="AY27" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AZ27" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BA27" t="n">
         <v>32</v>
@@ -5765,17 +5765,17 @@
         <v>16.5</v>
       </c>
       <c r="BE27" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="BF27" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="BG27" t="n">
         <v>12.5</v>
       </c>
       <c r="BH27" t="inlineStr">
         <is>
-          <t>2026-02-24 10:13:34</t>
+          <t>2026-02-24 12:21:44</t>
         </is>
       </c>
     </row>
@@ -5806,25 +5806,25 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="G28" t="n">
-        <v>5.2</v>
+        <v>4.3</v>
       </c>
       <c r="H28" t="n">
-        <v>1.73</v>
+        <v>1.84</v>
       </c>
       <c r="I28" t="n">
-        <v>1.78</v>
+        <v>1.87</v>
       </c>
       <c r="J28" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="K28" t="n">
         <v>4.6</v>
       </c>
       <c r="L28" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="M28" t="n">
         <v>1.03</v>
@@ -5833,143 +5833,143 @@
         <v>6.4</v>
       </c>
       <c r="O28" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="P28" t="n">
-        <v>2.84</v>
+        <v>2.74</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.49</v>
+        <v>1.51</v>
       </c>
       <c r="R28" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="S28" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="T28" t="n">
         <v>1.55</v>
       </c>
       <c r="U28" t="n">
-        <v>2.66</v>
+        <v>2.6</v>
       </c>
       <c r="V28" t="n">
-        <v>2.28</v>
+        <v>2.14</v>
       </c>
       <c r="W28" t="n">
-        <v>1.24</v>
+        <v>1.3</v>
       </c>
       <c r="X28" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Y28" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>22</v>
+      </c>
+      <c r="AB28" t="n">
         <v>26</v>
       </c>
-      <c r="Z28" t="n">
+      <c r="AC28" t="n">
         <v>14.5</v>
       </c>
-      <c r="AA28" t="n">
-        <v>44</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>30</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>11</v>
-      </c>
       <c r="AD28" t="n">
-        <v>19.5</v>
+        <v>14</v>
       </c>
       <c r="AE28" t="n">
-        <v>32</v>
+        <v>16.5</v>
       </c>
       <c r="AF28" t="n">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="AG28" t="n">
-        <v>19.5</v>
+        <v>17</v>
       </c>
       <c r="AH28" t="n">
-        <v>24</v>
+        <v>15.5</v>
       </c>
       <c r="AI28" t="n">
         <v>23</v>
       </c>
       <c r="AJ28" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AK28" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AL28" t="n">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="AM28" t="n">
         <v>60</v>
       </c>
       <c r="AN28" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="AO28" t="n">
-        <v>6.8</v>
+        <v>11</v>
       </c>
       <c r="AP28" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AQ28" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AR28" t="n">
-        <v>12.5</v>
+        <v>8.6</v>
       </c>
       <c r="AS28" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AT28" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="AU28" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="AV28" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AW28" t="n">
         <v>14</v>
       </c>
       <c r="AX28" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="AY28" t="n">
-        <v>17</v>
+        <v>14.5</v>
       </c>
       <c r="AZ28" t="n">
+        <v>14</v>
+      </c>
+      <c r="BA28" t="n">
+        <v>21</v>
+      </c>
+      <c r="BB28" t="n">
         <v>13</v>
       </c>
-      <c r="BA28" t="n">
-        <v>19</v>
-      </c>
-      <c r="BB28" t="n">
-        <v>17</v>
-      </c>
       <c r="BC28" t="n">
-        <v>14.5</v>
+        <v>18</v>
       </c>
       <c r="BD28" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="BE28" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="BF28" t="n">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="BG28" t="n">
-        <v>6</v>
+        <v>6.8</v>
       </c>
       <c r="BH28" t="inlineStr">
         <is>
-          <t>2026-02-24 10:13:34</t>
+          <t>2026-02-24 12:21:44</t>
         </is>
       </c>
     </row>
@@ -6003,10 +6003,10 @@
         <v>2.2</v>
       </c>
       <c r="G29" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="H29" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="I29" t="n">
         <v>3.8</v>
@@ -6015,7 +6015,7 @@
         <v>3.35</v>
       </c>
       <c r="K29" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="L29" t="n">
         <v>1.42</v>
@@ -6024,7 +6024,7 @@
         <v>1.07</v>
       </c>
       <c r="N29" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="O29" t="n">
         <v>1.34</v>
@@ -6063,7 +6063,7 @@
         <v>48</v>
       </c>
       <c r="AA29" t="n">
-        <v>440</v>
+        <v>190</v>
       </c>
       <c r="AB29" t="n">
         <v>17</v>
@@ -6087,7 +6087,7 @@
         <v>25</v>
       </c>
       <c r="AI29" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="AJ29" t="n">
         <v>32</v>
@@ -6105,25 +6105,25 @@
         <v>32</v>
       </c>
       <c r="AO29" t="n">
-        <v>500</v>
+        <v>85</v>
       </c>
       <c r="AP29" t="n">
         <v>7.2</v>
       </c>
       <c r="AQ29" t="n">
-        <v>8</v>
+        <v>11.5</v>
       </c>
       <c r="AR29" t="n">
         <v>12</v>
       </c>
       <c r="AS29" t="n">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="AT29" t="n">
-        <v>6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AU29" t="n">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="AV29" t="n">
         <v>12.5</v>
@@ -6132,7 +6132,7 @@
         <v>20</v>
       </c>
       <c r="AX29" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AY29" t="n">
         <v>9.4</v>
@@ -6141,7 +6141,7 @@
         <v>11.5</v>
       </c>
       <c r="BA29" t="n">
-        <v>8.6</v>
+        <v>23</v>
       </c>
       <c r="BB29" t="n">
         <v>13.5</v>
@@ -6163,7 +6163,7 @@
       </c>
       <c r="BH29" t="inlineStr">
         <is>
-          <t>2026-02-24 10:13:34</t>
+          <t>2026-02-24 12:21:44</t>
         </is>
       </c>
     </row>
@@ -6194,22 +6194,22 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="G30" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="H30" t="n">
-        <v>5.6</v>
+        <v>6.2</v>
       </c>
       <c r="I30" t="n">
         <v>6.4</v>
       </c>
       <c r="J30" t="n">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="K30" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="L30" t="n">
         <v>1.33</v>
@@ -6218,34 +6218,34 @@
         <v>1.04</v>
       </c>
       <c r="N30" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="O30" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="P30" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="R30" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="S30" t="n">
-        <v>2.68</v>
+        <v>2.64</v>
       </c>
       <c r="T30" t="n">
-        <v>1.73</v>
+        <v>1.76</v>
       </c>
       <c r="U30" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="V30" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="W30" t="n">
-        <v>2.48</v>
+        <v>2.66</v>
       </c>
       <c r="X30" t="n">
         <v>44</v>
@@ -6263,40 +6263,40 @@
         <v>16.5</v>
       </c>
       <c r="AC30" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AD30" t="n">
         <v>48</v>
       </c>
       <c r="AE30" t="n">
-        <v>700</v>
+        <v>240</v>
       </c>
       <c r="AF30" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AG30" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AH30" t="n">
-        <v>500</v>
+        <v>40</v>
       </c>
       <c r="AI30" t="n">
         <v>330</v>
       </c>
       <c r="AJ30" t="n">
+        <v>46</v>
+      </c>
+      <c r="AK30" t="n">
         <v>29</v>
       </c>
-      <c r="AK30" t="n">
-        <v>32</v>
-      </c>
       <c r="AL30" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AM30" t="n">
         <v>580</v>
       </c>
       <c r="AN30" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="AO30" t="n">
         <v>700</v>
@@ -6305,19 +6305,19 @@
         <v>10.5</v>
       </c>
       <c r="AQ30" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="AR30" t="n">
         <v>20</v>
       </c>
       <c r="AS30" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AT30" t="n">
-        <v>5.9</v>
+        <v>6.4</v>
       </c>
       <c r="AU30" t="n">
-        <v>5.9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AV30" t="n">
         <v>11.5</v>
@@ -6326,38 +6326,38 @@
         <v>36</v>
       </c>
       <c r="AX30" t="n">
-        <v>6.2</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AY30" t="n">
-        <v>6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AZ30" t="n">
-        <v>10.5</v>
+        <v>13</v>
       </c>
       <c r="BA30" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="BB30" t="n">
-        <v>8.4</v>
+        <v>13.5</v>
       </c>
       <c r="BC30" t="n">
-        <v>7.8</v>
+        <v>13.5</v>
       </c>
       <c r="BD30" t="n">
         <v>13.5</v>
       </c>
       <c r="BE30" t="n">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="BF30" t="n">
-        <v>5.3</v>
+        <v>6.2</v>
       </c>
       <c r="BG30" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="BH30" t="inlineStr">
         <is>
-          <t>2026-02-24 10:13:34</t>
+          <t>2026-02-24 12:21:44</t>
         </is>
       </c>
     </row>
@@ -6388,170 +6388,170 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="G31" t="n">
-        <v>2.26</v>
+        <v>2.18</v>
       </c>
       <c r="H31" t="n">
-        <v>4.3</v>
+        <v>4.7</v>
       </c>
       <c r="I31" t="n">
-        <v>4.5</v>
+        <v>4.9</v>
       </c>
       <c r="J31" t="n">
         <v>3</v>
       </c>
       <c r="K31" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="L31" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="M31" t="n">
         <v>1.16</v>
       </c>
       <c r="N31" t="n">
-        <v>2.44</v>
+        <v>2.4</v>
       </c>
       <c r="O31" t="n">
-        <v>1.66</v>
+        <v>1.7</v>
       </c>
       <c r="P31" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="Q31" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="R31" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="S31" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="T31" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="U31" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="V31" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="W31" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="X31" t="n">
         <v>7</v>
       </c>
-      <c r="T31" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="U31" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="V31" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="W31" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="X31" t="n">
-        <v>7.6</v>
-      </c>
       <c r="Y31" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="Z31" t="n">
         <v>32</v>
       </c>
       <c r="AA31" t="n">
-        <v>500</v>
+        <v>160</v>
       </c>
       <c r="AB31" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="AC31" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AD31" t="n">
-        <v>19.5</v>
+        <v>23</v>
       </c>
       <c r="AE31" t="n">
-        <v>230</v>
+        <v>120</v>
       </c>
       <c r="AF31" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AG31" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AH31" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AI31" t="n">
-        <v>420</v>
+        <v>150</v>
       </c>
       <c r="AJ31" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AK31" t="n">
         <v>36</v>
       </c>
       <c r="AL31" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AM31" t="n">
-        <v>500</v>
+        <v>310</v>
       </c>
       <c r="AN31" t="n">
         <v>36</v>
       </c>
       <c r="AO31" t="n">
-        <v>600</v>
+        <v>190</v>
       </c>
       <c r="AP31" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="AQ31" t="n">
         <v>10</v>
       </c>
       <c r="AR31" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AS31" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="AT31" t="n">
-        <v>5.9</v>
+        <v>5.6</v>
       </c>
       <c r="AU31" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="AV31" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AW31" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="AX31" t="n">
         <v>10</v>
       </c>
       <c r="AY31" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="AZ31" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="BA31" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="BB31" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BC31" t="n">
+        <v>25</v>
+      </c>
+      <c r="BD31" t="n">
+        <v>50</v>
+      </c>
+      <c r="BE31" t="n">
+        <v>75</v>
+      </c>
+      <c r="BF31" t="n">
         <v>30</v>
       </c>
-      <c r="BD31" t="n">
-        <v>44</v>
-      </c>
-      <c r="BE31" t="n">
-        <v>70</v>
-      </c>
-      <c r="BF31" t="n">
-        <v>24</v>
-      </c>
       <c r="BG31" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="BH31" t="inlineStr">
         <is>
-          <t>2026-02-24 10:13:34</t>
+          <t>2026-02-24 12:21:44</t>
         </is>
       </c>
     </row>
@@ -6582,10 +6582,10 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="G32" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="H32" t="n">
         <v>20</v>
@@ -6594,10 +6594,10 @@
         <v>21</v>
       </c>
       <c r="J32" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="K32" t="n">
         <v>11</v>
-      </c>
-      <c r="K32" t="n">
-        <v>11.5</v>
       </c>
       <c r="L32" t="n">
         <v>1.18</v>
@@ -6624,7 +6624,7 @@
         <v>1.78</v>
       </c>
       <c r="T32" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="U32" t="n">
         <v>1.96</v>
@@ -6633,13 +6633,13 @@
         <v>1.05</v>
       </c>
       <c r="W32" t="n">
-        <v>7.2</v>
+        <v>6.8</v>
       </c>
       <c r="X32" t="n">
         <v>60</v>
       </c>
       <c r="Y32" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="Z32" t="n">
         <v>220</v>
@@ -6648,7 +6648,7 @@
         <v>1000</v>
       </c>
       <c r="AB32" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AC32" t="n">
         <v>26</v>
@@ -6672,34 +6672,34 @@
         <v>180</v>
       </c>
       <c r="AJ32" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AK32" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AL32" t="n">
         <v>36</v>
       </c>
       <c r="AM32" t="n">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="AN32" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AO32" t="n">
-        <v>320</v>
+        <v>360</v>
       </c>
       <c r="AP32" t="n">
         <v>55</v>
       </c>
       <c r="AQ32" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AR32" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="AS32" t="n">
-        <v>48</v>
+        <v>100</v>
       </c>
       <c r="AT32" t="n">
         <v>15.5</v>
@@ -6711,7 +6711,7 @@
         <v>55</v>
       </c>
       <c r="AW32" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="AX32" t="n">
         <v>10</v>
@@ -6723,10 +6723,10 @@
         <v>36</v>
       </c>
       <c r="BA32" t="n">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="BB32" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="BC32" t="n">
         <v>12</v>
@@ -6735,17 +6735,17 @@
         <v>32</v>
       </c>
       <c r="BE32" t="n">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="BF32" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="BG32" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="BH32" t="inlineStr">
         <is>
-          <t>2026-02-24 10:13:34</t>
+          <t>2026-02-24 12:21:44</t>
         </is>
       </c>
     </row>
@@ -6776,10 +6776,10 @@
         </is>
       </c>
       <c r="F33" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="G33" t="n">
         <v>1.85</v>
-      </c>
-      <c r="G33" t="n">
-        <v>1.86</v>
       </c>
       <c r="H33" t="n">
         <v>4.5</v>
@@ -6800,25 +6800,25 @@
         <v>1.05</v>
       </c>
       <c r="N33" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="O33" t="n">
         <v>1.23</v>
       </c>
       <c r="P33" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="R33" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="S33" t="n">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="T33" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="U33" t="n">
         <v>2.36</v>
@@ -6830,10 +6830,10 @@
         <v>2.16</v>
       </c>
       <c r="X33" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y33" t="n">
         <v>19.5</v>
-      </c>
-      <c r="Y33" t="n">
-        <v>20</v>
       </c>
       <c r="Z33" t="n">
         <v>36</v>
@@ -6866,25 +6866,25 @@
         <v>48</v>
       </c>
       <c r="AJ33" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AK33" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AL33" t="n">
         <v>27</v>
       </c>
       <c r="AM33" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AN33" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AO33" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AP33" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AQ33" t="n">
         <v>19</v>
@@ -6893,22 +6893,22 @@
         <v>32</v>
       </c>
       <c r="AS33" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AT33" t="n">
         <v>11</v>
       </c>
       <c r="AU33" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AV33" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AW33" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AX33" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AY33" t="n">
         <v>10</v>
@@ -6920,7 +6920,7 @@
         <v>44</v>
       </c>
       <c r="BB33" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="BC33" t="n">
         <v>16</v>
@@ -6939,7 +6939,7 @@
       </c>
       <c r="BH33" t="inlineStr">
         <is>
-          <t>2026-02-24 10:13:34</t>
+          <t>2026-02-24 12:21:44</t>
         </is>
       </c>
     </row>
@@ -6982,10 +6982,10 @@
         <v>11.5</v>
       </c>
       <c r="J34" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="K34" t="n">
         <v>8.4</v>
-      </c>
-      <c r="K34" t="n">
-        <v>8.6</v>
       </c>
       <c r="L34" t="n">
         <v>1.19</v>
@@ -6994,7 +6994,7 @@
         <v>1.01</v>
       </c>
       <c r="N34" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="O34" t="n">
         <v>1.09</v>
@@ -7003,19 +7003,19 @@
         <v>4.1</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="R34" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="S34" t="n">
-        <v>1.79</v>
+        <v>1.77</v>
       </c>
       <c r="T34" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="U34" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="V34" t="n">
         <v>1.09</v>
@@ -7024,7 +7024,7 @@
         <v>4.